--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20B20E5-17AD-4B44-9075-2C21F1E93F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C24A7-08DA-48D6-BA96-277360571438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="-13620" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="16">
   <si>
     <t>day</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>wspd</t>
+  </si>
+  <si>
+    <t>holiodays</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -168,6 +171,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,15 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEB5D3-5A99-47D8-9F91-DA3E08A7A234}">
-  <dimension ref="A1:H354"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +537,11 @@
       <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -562,7 +567,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -588,7 +593,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -614,7 +619,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -640,7 +645,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -666,7 +671,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -692,7 +697,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -718,7 +723,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -744,7 +749,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -770,7 +775,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -796,7 +801,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -822,7 +827,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -848,7 +853,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -874,7 +879,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -900,7 +905,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C24A7-08DA-48D6-BA96-277360571438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A5BEE-FD62-4461-A8C8-DC496F4BDC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-13620" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
+    <workbookView xWindow="4155" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>day</t>
   </si>
@@ -50,27 +50,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
     <t>tavg</t>
   </si>
   <si>
@@ -81,9 +60,6 @@
   </si>
   <si>
     <t>wspd</t>
-  </si>
-  <si>
-    <t>holiodays</t>
   </si>
 </sst>
 </file>
@@ -107,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,15 +116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -161,17 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,13 +471,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEB5D3-5A99-47D8-9F91-DA3E08A7A234}">
-  <dimension ref="A1:I354"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P286" sqref="P286"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,25 +495,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -567,9 +534,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -593,9 +560,9 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,9 +586,9 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -645,9 +612,9 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -671,9 +638,9 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -697,9 +664,9 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -723,9 +690,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -749,9 +716,9 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -775,9 +742,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -801,9 +768,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -827,9 +794,9 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -853,9 +820,9 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -879,9 +846,9 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -905,9 +872,9 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -932,8 +899,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
+      <c r="A17">
+        <v>7</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -958,8 +925,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
+      <c r="A18">
+        <v>1</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -984,8 +951,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
+      <c r="A19">
+        <v>2</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1010,8 +977,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1036,8 +1003,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
+      <c r="A21">
+        <v>4</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1062,8 +1029,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
+      <c r="A22">
+        <v>5</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1088,8 +1055,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
+      <c r="A23">
+        <v>6</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1114,8 +1081,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
+      <c r="A24">
+        <v>7</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1140,8 +1107,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>6</v>
+      <c r="A25">
+        <v>1</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1166,8 +1133,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
+      <c r="A26">
+        <v>2</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1192,8 +1159,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
+      <c r="A27">
+        <v>3</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1218,8 +1185,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
+      <c r="A28">
+        <v>4</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1244,8 +1211,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
+      <c r="A29">
+        <v>5</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1270,8 +1237,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
+      <c r="A30">
+        <v>6</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1296,8 +1263,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
+      <c r="A31">
+        <v>7</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1322,8 +1289,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
+      <c r="A32">
+        <v>1</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1348,8 +1315,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
+      <c r="A33">
+        <v>2</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1374,8 +1341,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
+      <c r="A34">
+        <v>3</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1400,8 +1367,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>9</v>
+      <c r="A35">
+        <v>4</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1426,8 +1393,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
+      <c r="A36">
+        <v>5</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1452,8 +1419,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
+      <c r="A37">
+        <v>6</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1478,8 +1445,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
+      <c r="A38">
+        <v>7</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1504,8 +1471,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
+      <c r="A39">
+        <v>1</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1530,8 +1497,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
+      <c r="A40">
+        <v>2</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1556,8 +1523,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
+      <c r="A41">
+        <v>3</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1582,8 +1549,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
+      <c r="A42">
+        <v>4</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1608,8 +1575,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>10</v>
+      <c r="A43">
+        <v>5</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -1634,8 +1601,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
+      <c r="A44">
+        <v>6</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1660,8 +1627,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
+      <c r="A45">
+        <v>7</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -1686,8 +1653,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>6</v>
+      <c r="A46">
+        <v>1</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -1712,8 +1679,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>7</v>
+      <c r="A47">
+        <v>2</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -1738,8 +1705,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>8</v>
+      <c r="A48">
+        <v>3</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -1764,8 +1731,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>9</v>
+      <c r="A49">
+        <v>4</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -1790,8 +1757,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
+      <c r="A50">
+        <v>5</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -1816,8 +1783,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>4</v>
+      <c r="A51">
+        <v>6</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -1842,8 +1809,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
+      <c r="A52">
+        <v>7</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1868,8 +1835,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>6</v>
+      <c r="A53">
+        <v>1</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -1894,8 +1861,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
+      <c r="A54">
+        <v>2</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -1920,8 +1887,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>8</v>
+      <c r="A55">
+        <v>3</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -1946,8 +1913,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>9</v>
+      <c r="A56">
+        <v>4</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -1972,8 +1939,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
+      <c r="A57">
+        <v>5</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -1998,8 +1965,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>4</v>
+      <c r="A58">
+        <v>6</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -2024,8 +1991,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>5</v>
+      <c r="A59">
+        <v>7</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -2050,8 +2017,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>6</v>
+      <c r="A60">
+        <v>1</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -2076,8 +2043,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>7</v>
+      <c r="A61">
+        <v>2</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -2102,8 +2069,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>8</v>
+      <c r="A62">
+        <v>3</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -2128,8 +2095,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>9</v>
+      <c r="A63">
+        <v>4</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -2154,8 +2121,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>10</v>
+      <c r="A64">
+        <v>5</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -2180,8 +2147,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>4</v>
+      <c r="A65">
+        <v>6</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -2206,8 +2173,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
+      <c r="A66">
+        <v>7</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -2232,8 +2199,8 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>6</v>
+      <c r="A67">
+        <v>1</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -2258,8 +2225,8 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>7</v>
+      <c r="A68">
+        <v>2</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -2284,8 +2251,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>8</v>
+      <c r="A69">
+        <v>3</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -2310,8 +2277,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>9</v>
+      <c r="A70">
+        <v>4</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -2336,8 +2303,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>10</v>
+      <c r="A71">
+        <v>5</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -2362,8 +2329,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>4</v>
+      <c r="A72">
+        <v>6</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -2388,8 +2355,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
+      <c r="A73">
+        <v>7</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -2414,8 +2381,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>6</v>
+      <c r="A74">
+        <v>1</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -2440,8 +2407,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>7</v>
+      <c r="A75">
+        <v>2</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -2466,8 +2433,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>8</v>
+      <c r="A76">
+        <v>3</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -2492,8 +2459,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>9</v>
+      <c r="A77">
+        <v>4</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -2518,8 +2485,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>10</v>
+      <c r="A78">
+        <v>5</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -2544,8 +2511,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
+      <c r="A79">
+        <v>6</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -2570,8 +2537,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>5</v>
+      <c r="A80">
+        <v>7</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -2596,8 +2563,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>6</v>
+      <c r="A81">
+        <v>1</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -2622,8 +2589,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>7</v>
+      <c r="A82">
+        <v>2</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -2648,8 +2615,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>8</v>
+      <c r="A83">
+        <v>3</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -2674,8 +2641,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>9</v>
+      <c r="A84">
+        <v>4</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -2700,8 +2667,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>10</v>
+      <c r="A85">
+        <v>5</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -2726,8 +2693,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>4</v>
+      <c r="A86">
+        <v>6</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -2752,8 +2719,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
+      <c r="A87">
+        <v>7</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -2778,8 +2745,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>6</v>
+      <c r="A88">
+        <v>1</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -2804,8 +2771,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>7</v>
+      <c r="A89">
+        <v>2</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -2830,8 +2797,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>8</v>
+      <c r="A90">
+        <v>3</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -2856,8 +2823,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>9</v>
+      <c r="A91">
+        <v>4</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -2882,8 +2849,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>10</v>
+      <c r="A92">
+        <v>5</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -2908,8 +2875,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>4</v>
+      <c r="A93">
+        <v>6</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -2934,8 +2901,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>5</v>
+      <c r="A94">
+        <v>7</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -2960,8 +2927,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>6</v>
+      <c r="A95">
+        <v>1</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -2986,8 +2953,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>7</v>
+      <c r="A96">
+        <v>2</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -3012,8 +2979,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>8</v>
+      <c r="A97">
+        <v>3</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -3038,8 +3005,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>9</v>
+      <c r="A98">
+        <v>4</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -3064,8 +3031,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>10</v>
+      <c r="A99">
+        <v>5</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -3090,8 +3057,8 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>4</v>
+      <c r="A100">
+        <v>6</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -3116,8 +3083,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>5</v>
+      <c r="A101">
+        <v>7</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -3142,8 +3109,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>6</v>
+      <c r="A102">
+        <v>1</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -3168,8 +3135,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>7</v>
+      <c r="A103">
+        <v>2</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -3194,8 +3161,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>8</v>
+      <c r="A104">
+        <v>3</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -3220,8 +3187,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>9</v>
+      <c r="A105">
+        <v>4</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -3246,8 +3213,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>10</v>
+      <c r="A106">
+        <v>5</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -3272,8 +3239,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>4</v>
+      <c r="A107">
+        <v>6</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -3298,8 +3265,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>5</v>
+      <c r="A108">
+        <v>7</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -3324,8 +3291,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>6</v>
+      <c r="A109">
+        <v>1</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -3350,8 +3317,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>7</v>
+      <c r="A110">
+        <v>2</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -3376,8 +3343,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>8</v>
+      <c r="A111">
+        <v>3</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -3402,8 +3369,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>9</v>
+      <c r="A112">
+        <v>4</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -3428,8 +3395,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>10</v>
+      <c r="A113">
+        <v>5</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -3454,8 +3421,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>4</v>
+      <c r="A114">
+        <v>6</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -3480,8 +3447,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>5</v>
+      <c r="A115">
+        <v>7</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -3506,8 +3473,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>6</v>
+      <c r="A116">
+        <v>1</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -3532,8 +3499,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>7</v>
+      <c r="A117">
+        <v>2</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -3558,8 +3525,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>8</v>
+      <c r="A118">
+        <v>3</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -3584,8 +3551,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>9</v>
+      <c r="A119">
+        <v>4</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -3610,8 +3577,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>10</v>
+      <c r="A120">
+        <v>5</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -3636,8 +3603,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>4</v>
+      <c r="A121">
+        <v>6</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -3662,8 +3629,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>5</v>
+      <c r="A122">
+        <v>7</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -3688,8 +3655,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>6</v>
+      <c r="A123">
+        <v>1</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -3714,8 +3681,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>7</v>
+      <c r="A124">
+        <v>2</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -3740,8 +3707,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>8</v>
+      <c r="A125">
+        <v>3</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -3766,8 +3733,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>9</v>
+      <c r="A126">
+        <v>4</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -3792,8 +3759,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>10</v>
+      <c r="A127">
+        <v>5</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -3818,8 +3785,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>4</v>
+      <c r="A128">
+        <v>6</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -3844,8 +3811,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>5</v>
+      <c r="A129">
+        <v>7</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -3870,8 +3837,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>6</v>
+      <c r="A130">
+        <v>1</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -3896,8 +3863,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>7</v>
+      <c r="A131">
+        <v>2</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -3922,8 +3889,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>8</v>
+      <c r="A132">
+        <v>3</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -3948,8 +3915,8 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>9</v>
+      <c r="A133">
+        <v>4</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -3974,8 +3941,8 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>10</v>
+      <c r="A134">
+        <v>5</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -4000,8 +3967,8 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>4</v>
+      <c r="A135">
+        <v>6</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -4026,8 +3993,8 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>5</v>
+      <c r="A136">
+        <v>7</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -4052,8 +4019,8 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>6</v>
+      <c r="A137">
+        <v>1</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -4078,8 +4045,8 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>7</v>
+      <c r="A138">
+        <v>2</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -4104,8 +4071,8 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>8</v>
+      <c r="A139">
+        <v>3</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -4130,8 +4097,8 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>9</v>
+      <c r="A140">
+        <v>4</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -4156,8 +4123,8 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>10</v>
+      <c r="A141">
+        <v>5</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -4182,8 +4149,8 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>4</v>
+      <c r="A142">
+        <v>6</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -4208,8 +4175,8 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>5</v>
+      <c r="A143">
+        <v>7</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -4234,8 +4201,8 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>6</v>
+      <c r="A144">
+        <v>1</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -4260,8 +4227,8 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>7</v>
+      <c r="A145">
+        <v>2</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -4286,8 +4253,8 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>8</v>
+      <c r="A146">
+        <v>3</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -4312,8 +4279,8 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>9</v>
+      <c r="A147">
+        <v>4</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -4338,8 +4305,8 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>10</v>
+      <c r="A148">
+        <v>5</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -4364,8 +4331,8 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>4</v>
+      <c r="A149">
+        <v>6</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -4390,8 +4357,8 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>5</v>
+      <c r="A150">
+        <v>7</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -4416,8 +4383,8 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>6</v>
+      <c r="A151">
+        <v>1</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -4442,8 +4409,8 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>7</v>
+      <c r="A152">
+        <v>2</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -4468,8 +4435,8 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>8</v>
+      <c r="A153">
+        <v>3</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -4494,8 +4461,8 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>9</v>
+      <c r="A154">
+        <v>4</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -4520,8 +4487,8 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>10</v>
+      <c r="A155">
+        <v>5</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -4546,8 +4513,8 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>4</v>
+      <c r="A156">
+        <v>6</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -4572,8 +4539,8 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>5</v>
+      <c r="A157">
+        <v>7</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -4598,8 +4565,8 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>6</v>
+      <c r="A158">
+        <v>1</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -4624,8 +4591,8 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>7</v>
+      <c r="A159">
+        <v>2</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -4650,8 +4617,8 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>8</v>
+      <c r="A160">
+        <v>3</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -4676,8 +4643,8 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>9</v>
+      <c r="A161">
+        <v>4</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -4702,8 +4669,8 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>10</v>
+      <c r="A162">
+        <v>5</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -4728,8 +4695,8 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>4</v>
+      <c r="A163">
+        <v>6</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -4754,8 +4721,8 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>5</v>
+      <c r="A164">
+        <v>7</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -4780,8 +4747,8 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>6</v>
+      <c r="A165">
+        <v>1</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -4806,8 +4773,8 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>7</v>
+      <c r="A166">
+        <v>2</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -4832,8 +4799,8 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>8</v>
+      <c r="A167">
+        <v>3</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -4858,8 +4825,8 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>9</v>
+      <c r="A168">
+        <v>4</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -4884,8 +4851,8 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>10</v>
+      <c r="A169">
+        <v>5</v>
       </c>
       <c r="B169">
         <v>168</v>
@@ -4910,8 +4877,8 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>4</v>
+      <c r="A170">
+        <v>6</v>
       </c>
       <c r="B170">
         <v>169</v>
@@ -4936,8 +4903,8 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>5</v>
+      <c r="A171">
+        <v>7</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -4962,8 +4929,8 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>6</v>
+      <c r="A172">
+        <v>1</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -4988,8 +4955,8 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>7</v>
+      <c r="A173">
+        <v>2</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -5014,8 +4981,8 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>8</v>
+      <c r="A174">
+        <v>3</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -5040,8 +5007,8 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>9</v>
+      <c r="A175">
+        <v>4</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -5066,8 +5033,8 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>10</v>
+      <c r="A176">
+        <v>5</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -5092,8 +5059,8 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>4</v>
+      <c r="A177">
+        <v>6</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -5118,8 +5085,8 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>5</v>
+      <c r="A178">
+        <v>7</v>
       </c>
       <c r="B178">
         <v>177</v>
@@ -5144,8 +5111,8 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>6</v>
+      <c r="A179">
+        <v>1</v>
       </c>
       <c r="B179">
         <v>178</v>
@@ -5170,8 +5137,8 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>7</v>
+      <c r="A180">
+        <v>2</v>
       </c>
       <c r="B180">
         <v>179</v>
@@ -5196,8 +5163,8 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>8</v>
+      <c r="A181">
+        <v>3</v>
       </c>
       <c r="B181">
         <v>180</v>
@@ -5222,8 +5189,8 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>9</v>
+      <c r="A182">
+        <v>4</v>
       </c>
       <c r="B182">
         <v>181</v>
@@ -5248,8 +5215,8 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>10</v>
+      <c r="A183">
+        <v>5</v>
       </c>
       <c r="B183">
         <v>182</v>
@@ -5274,8 +5241,8 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>4</v>
+      <c r="A184">
+        <v>6</v>
       </c>
       <c r="B184">
         <v>183</v>
@@ -5300,8 +5267,8 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>5</v>
+      <c r="A185">
+        <v>7</v>
       </c>
       <c r="B185">
         <v>184</v>
@@ -5326,8 +5293,8 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>6</v>
+      <c r="A186">
+        <v>1</v>
       </c>
       <c r="B186">
         <v>185</v>
@@ -5352,8 +5319,8 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>7</v>
+      <c r="A187">
+        <v>2</v>
       </c>
       <c r="B187">
         <v>186</v>
@@ -5378,8 +5345,8 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>8</v>
+      <c r="A188">
+        <v>3</v>
       </c>
       <c r="B188">
         <v>187</v>
@@ -5404,8 +5371,8 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>9</v>
+      <c r="A189">
+        <v>4</v>
       </c>
       <c r="B189">
         <v>188</v>
@@ -5430,8 +5397,8 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>10</v>
+      <c r="A190">
+        <v>5</v>
       </c>
       <c r="B190">
         <v>189</v>
@@ -5456,8 +5423,8 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>4</v>
+      <c r="A191">
+        <v>6</v>
       </c>
       <c r="B191">
         <v>190</v>
@@ -5482,8 +5449,8 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>5</v>
+      <c r="A192">
+        <v>7</v>
       </c>
       <c r="B192">
         <v>191</v>
@@ -5508,8 +5475,8 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>6</v>
+      <c r="A193">
+        <v>1</v>
       </c>
       <c r="B193">
         <v>192</v>
@@ -5534,8 +5501,8 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>7</v>
+      <c r="A194">
+        <v>2</v>
       </c>
       <c r="B194">
         <v>193</v>
@@ -5560,8 +5527,8 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>8</v>
+      <c r="A195">
+        <v>3</v>
       </c>
       <c r="B195">
         <v>194</v>
@@ -5586,8 +5553,8 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>9</v>
+      <c r="A196">
+        <v>4</v>
       </c>
       <c r="B196">
         <v>195</v>
@@ -5612,8 +5579,8 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>10</v>
+      <c r="A197">
+        <v>5</v>
       </c>
       <c r="B197">
         <v>196</v>
@@ -5638,8 +5605,8 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>4</v>
+      <c r="A198">
+        <v>6</v>
       </c>
       <c r="B198">
         <v>197</v>
@@ -5664,8 +5631,8 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>5</v>
+      <c r="A199">
+        <v>7</v>
       </c>
       <c r="B199">
         <v>198</v>
@@ -5690,8 +5657,8 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>6</v>
+      <c r="A200">
+        <v>1</v>
       </c>
       <c r="B200">
         <v>199</v>
@@ -5716,8 +5683,8 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>7</v>
+      <c r="A201">
+        <v>2</v>
       </c>
       <c r="B201">
         <v>200</v>
@@ -5742,8 +5709,8 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>8</v>
+      <c r="A202">
+        <v>3</v>
       </c>
       <c r="B202">
         <v>201</v>
@@ -5768,8 +5735,8 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>9</v>
+      <c r="A203">
+        <v>4</v>
       </c>
       <c r="B203">
         <v>202</v>
@@ -5794,8 +5761,8 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>10</v>
+      <c r="A204">
+        <v>5</v>
       </c>
       <c r="B204">
         <v>203</v>
@@ -5820,8 +5787,8 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>4</v>
+      <c r="A205">
+        <v>6</v>
       </c>
       <c r="B205">
         <v>204</v>
@@ -5846,8 +5813,8 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>5</v>
+      <c r="A206">
+        <v>7</v>
       </c>
       <c r="B206">
         <v>205</v>
@@ -5872,8 +5839,8 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>6</v>
+      <c r="A207">
+        <v>1</v>
       </c>
       <c r="B207">
         <v>206</v>
@@ -5898,8 +5865,8 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>7</v>
+      <c r="A208">
+        <v>2</v>
       </c>
       <c r="B208">
         <v>207</v>
@@ -5924,8 +5891,8 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>8</v>
+      <c r="A209">
+        <v>3</v>
       </c>
       <c r="B209">
         <v>208</v>
@@ -5950,8 +5917,8 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>9</v>
+      <c r="A210">
+        <v>4</v>
       </c>
       <c r="B210">
         <v>209</v>
@@ -5976,8 +5943,8 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>10</v>
+      <c r="A211">
+        <v>5</v>
       </c>
       <c r="B211">
         <v>210</v>
@@ -6002,8 +5969,8 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>4</v>
+      <c r="A212">
+        <v>6</v>
       </c>
       <c r="B212">
         <v>211</v>
@@ -6028,8 +5995,8 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>5</v>
+      <c r="A213">
+        <v>7</v>
       </c>
       <c r="B213">
         <v>212</v>
@@ -6054,8 +6021,8 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>6</v>
+      <c r="A214">
+        <v>1</v>
       </c>
       <c r="B214">
         <v>213</v>
@@ -6080,8 +6047,8 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>7</v>
+      <c r="A215">
+        <v>2</v>
       </c>
       <c r="B215">
         <v>214</v>
@@ -6106,8 +6073,8 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>8</v>
+      <c r="A216">
+        <v>3</v>
       </c>
       <c r="B216">
         <v>215</v>
@@ -6132,8 +6099,8 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>9</v>
+      <c r="A217">
+        <v>4</v>
       </c>
       <c r="B217">
         <v>216</v>
@@ -6158,8 +6125,8 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>10</v>
+      <c r="A218">
+        <v>5</v>
       </c>
       <c r="B218">
         <v>217</v>
@@ -6184,8 +6151,8 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>4</v>
+      <c r="A219">
+        <v>6</v>
       </c>
       <c r="B219">
         <v>218</v>
@@ -6210,8 +6177,8 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>5</v>
+      <c r="A220">
+        <v>7</v>
       </c>
       <c r="B220">
         <v>219</v>
@@ -6236,8 +6203,8 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>6</v>
+      <c r="A221">
+        <v>1</v>
       </c>
       <c r="B221">
         <v>220</v>
@@ -6262,8 +6229,8 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>7</v>
+      <c r="A222">
+        <v>2</v>
       </c>
       <c r="B222">
         <v>221</v>
@@ -6288,8 +6255,8 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>8</v>
+      <c r="A223">
+        <v>3</v>
       </c>
       <c r="B223">
         <v>222</v>
@@ -6314,8 +6281,8 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>9</v>
+      <c r="A224">
+        <v>4</v>
       </c>
       <c r="B224">
         <v>223</v>
@@ -6340,8 +6307,8 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>10</v>
+      <c r="A225">
+        <v>5</v>
       </c>
       <c r="B225">
         <v>224</v>
@@ -6366,8 +6333,8 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>4</v>
+      <c r="A226">
+        <v>6</v>
       </c>
       <c r="B226">
         <v>225</v>
@@ -6392,8 +6359,8 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>5</v>
+      <c r="A227">
+        <v>7</v>
       </c>
       <c r="B227">
         <v>226</v>
@@ -6418,8 +6385,8 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>6</v>
+      <c r="A228">
+        <v>1</v>
       </c>
       <c r="B228">
         <v>227</v>
@@ -6444,8 +6411,8 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>7</v>
+      <c r="A229">
+        <v>2</v>
       </c>
       <c r="B229">
         <v>228</v>
@@ -6470,8 +6437,8 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>8</v>
+      <c r="A230">
+        <v>3</v>
       </c>
       <c r="B230">
         <v>229</v>
@@ -6496,8 +6463,8 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>9</v>
+      <c r="A231">
+        <v>4</v>
       </c>
       <c r="B231">
         <v>230</v>
@@ -6522,8 +6489,8 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>10</v>
+      <c r="A232">
+        <v>5</v>
       </c>
       <c r="B232">
         <v>231</v>
@@ -6548,8 +6515,8 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>4</v>
+      <c r="A233">
+        <v>6</v>
       </c>
       <c r="B233">
         <v>232</v>
@@ -6574,8 +6541,8 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>5</v>
+      <c r="A234">
+        <v>7</v>
       </c>
       <c r="B234">
         <v>233</v>
@@ -6600,8 +6567,8 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>6</v>
+      <c r="A235">
+        <v>1</v>
       </c>
       <c r="B235">
         <v>234</v>
@@ -6626,8 +6593,8 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>7</v>
+      <c r="A236">
+        <v>2</v>
       </c>
       <c r="B236">
         <v>235</v>
@@ -6652,8 +6619,8 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>8</v>
+      <c r="A237">
+        <v>3</v>
       </c>
       <c r="B237">
         <v>236</v>
@@ -6678,8 +6645,8 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>9</v>
+      <c r="A238">
+        <v>4</v>
       </c>
       <c r="B238">
         <v>237</v>
@@ -6704,8 +6671,8 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>10</v>
+      <c r="A239">
+        <v>5</v>
       </c>
       <c r="B239">
         <v>238</v>
@@ -6730,8 +6697,8 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>4</v>
+      <c r="A240">
+        <v>6</v>
       </c>
       <c r="B240">
         <v>239</v>
@@ -6756,8 +6723,8 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>5</v>
+      <c r="A241">
+        <v>7</v>
       </c>
       <c r="B241">
         <v>240</v>
@@ -6782,8 +6749,8 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>6</v>
+      <c r="A242">
+        <v>1</v>
       </c>
       <c r="B242">
         <v>241</v>
@@ -6808,8 +6775,8 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>7</v>
+      <c r="A243">
+        <v>2</v>
       </c>
       <c r="B243">
         <v>242</v>
@@ -6834,8 +6801,8 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>8</v>
+      <c r="A244">
+        <v>3</v>
       </c>
       <c r="B244">
         <v>243</v>
@@ -6860,8 +6827,8 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>9</v>
+      <c r="A245">
+        <v>4</v>
       </c>
       <c r="B245">
         <v>244</v>
@@ -6886,8 +6853,8 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>10</v>
+      <c r="A246">
+        <v>5</v>
       </c>
       <c r="B246">
         <v>245</v>
@@ -6912,8 +6879,8 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>4</v>
+      <c r="A247">
+        <v>6</v>
       </c>
       <c r="B247">
         <v>246</v>
@@ -6938,8 +6905,8 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>5</v>
+      <c r="A248">
+        <v>7</v>
       </c>
       <c r="B248">
         <v>247</v>
@@ -6964,8 +6931,8 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>6</v>
+      <c r="A249">
+        <v>1</v>
       </c>
       <c r="B249">
         <v>248</v>
@@ -6990,8 +6957,8 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>7</v>
+      <c r="A250">
+        <v>2</v>
       </c>
       <c r="B250">
         <v>249</v>
@@ -7016,8 +6983,8 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>8</v>
+      <c r="A251">
+        <v>3</v>
       </c>
       <c r="B251">
         <v>250</v>
@@ -7042,8 +7009,8 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>9</v>
+      <c r="A252">
+        <v>4</v>
       </c>
       <c r="B252">
         <v>251</v>
@@ -7068,8 +7035,8 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>10</v>
+      <c r="A253">
+        <v>5</v>
       </c>
       <c r="B253">
         <v>252</v>
@@ -7094,8 +7061,8 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>4</v>
+      <c r="A254">
+        <v>6</v>
       </c>
       <c r="B254">
         <v>253</v>
@@ -7120,8 +7087,8 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>5</v>
+      <c r="A255">
+        <v>7</v>
       </c>
       <c r="B255">
         <v>254</v>
@@ -7146,8 +7113,8 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>6</v>
+      <c r="A256">
+        <v>1</v>
       </c>
       <c r="B256">
         <v>255</v>
@@ -7172,8 +7139,8 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>7</v>
+      <c r="A257">
+        <v>2</v>
       </c>
       <c r="B257">
         <v>256</v>
@@ -7198,8 +7165,8 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>8</v>
+      <c r="A258">
+        <v>3</v>
       </c>
       <c r="B258">
         <v>257</v>
@@ -7224,8 +7191,8 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>9</v>
+      <c r="A259">
+        <v>4</v>
       </c>
       <c r="B259">
         <v>258</v>
@@ -7250,8 +7217,8 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>10</v>
+      <c r="A260">
+        <v>5</v>
       </c>
       <c r="B260">
         <v>259</v>
@@ -7276,8 +7243,8 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>4</v>
+      <c r="A261">
+        <v>6</v>
       </c>
       <c r="B261">
         <v>260</v>
@@ -7302,8 +7269,8 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>5</v>
+      <c r="A262">
+        <v>7</v>
       </c>
       <c r="B262">
         <v>261</v>
@@ -7328,8 +7295,8 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>6</v>
+      <c r="A263">
+        <v>1</v>
       </c>
       <c r="B263">
         <v>262</v>
@@ -7354,8 +7321,8 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>7</v>
+      <c r="A264">
+        <v>2</v>
       </c>
       <c r="B264">
         <v>263</v>
@@ -7380,8 +7347,8 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>8</v>
+      <c r="A265">
+        <v>3</v>
       </c>
       <c r="B265">
         <v>264</v>
@@ -7406,8 +7373,8 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>9</v>
+      <c r="A266">
+        <v>4</v>
       </c>
       <c r="B266">
         <v>265</v>
@@ -7432,8 +7399,8 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>10</v>
+      <c r="A267">
+        <v>5</v>
       </c>
       <c r="B267">
         <v>266</v>
@@ -7458,8 +7425,8 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>4</v>
+      <c r="A268">
+        <v>6</v>
       </c>
       <c r="B268">
         <v>267</v>
@@ -7484,8 +7451,8 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>5</v>
+      <c r="A269">
+        <v>7</v>
       </c>
       <c r="B269">
         <v>268</v>
@@ -7510,8 +7477,8 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>6</v>
+      <c r="A270">
+        <v>1</v>
       </c>
       <c r="B270">
         <v>269</v>
@@ -7536,8 +7503,8 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>7</v>
+      <c r="A271">
+        <v>2</v>
       </c>
       <c r="B271">
         <v>270</v>
@@ -7562,8 +7529,8 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>8</v>
+      <c r="A272">
+        <v>3</v>
       </c>
       <c r="B272">
         <v>271</v>
@@ -7588,8 +7555,8 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>9</v>
+      <c r="A273">
+        <v>4</v>
       </c>
       <c r="B273">
         <v>272</v>
@@ -7614,8 +7581,8 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>10</v>
+      <c r="A274">
+        <v>5</v>
       </c>
       <c r="B274">
         <v>273</v>
@@ -7640,8 +7607,8 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>4</v>
+      <c r="A275">
+        <v>6</v>
       </c>
       <c r="B275">
         <v>274</v>
@@ -7666,8 +7633,8 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>5</v>
+      <c r="A276">
+        <v>7</v>
       </c>
       <c r="B276">
         <v>275</v>
@@ -7692,8 +7659,8 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>6</v>
+      <c r="A277">
+        <v>1</v>
       </c>
       <c r="B277">
         <v>276</v>
@@ -7718,8 +7685,8 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>7</v>
+      <c r="A278">
+        <v>2</v>
       </c>
       <c r="B278">
         <v>277</v>
@@ -7744,8 +7711,8 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>8</v>
+      <c r="A279">
+        <v>3</v>
       </c>
       <c r="B279">
         <v>278</v>
@@ -7770,8 +7737,8 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>9</v>
+      <c r="A280">
+        <v>4</v>
       </c>
       <c r="B280">
         <v>279</v>
@@ -7796,8 +7763,8 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>10</v>
+      <c r="A281">
+        <v>5</v>
       </c>
       <c r="B281">
         <v>280</v>
@@ -7822,8 +7789,8 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>4</v>
+      <c r="A282">
+        <v>6</v>
       </c>
       <c r="B282">
         <v>281</v>
@@ -7848,8 +7815,8 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>5</v>
+      <c r="A283">
+        <v>7</v>
       </c>
       <c r="B283">
         <v>282</v>
@@ -7874,8 +7841,8 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>6</v>
+      <c r="A284">
+        <v>1</v>
       </c>
       <c r="B284">
         <v>283</v>
@@ -7900,8 +7867,8 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>7</v>
+      <c r="A285">
+        <v>2</v>
       </c>
       <c r="B285">
         <v>284</v>
@@ -7926,8 +7893,8 @@
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>8</v>
+      <c r="A286">
+        <v>3</v>
       </c>
       <c r="B286">
         <v>285</v>
@@ -7952,8 +7919,8 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>9</v>
+      <c r="A287">
+        <v>4</v>
       </c>
       <c r="B287">
         <v>286</v>
@@ -7978,8 +7945,8 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>10</v>
+      <c r="A288">
+        <v>5</v>
       </c>
       <c r="B288">
         <v>287</v>
@@ -8004,8 +7971,8 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>4</v>
+      <c r="A289">
+        <v>6</v>
       </c>
       <c r="B289">
         <v>288</v>
@@ -8030,8 +7997,8 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>5</v>
+      <c r="A290">
+        <v>7</v>
       </c>
       <c r="B290">
         <v>289</v>
@@ -8056,8 +8023,8 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>6</v>
+      <c r="A291">
+        <v>1</v>
       </c>
       <c r="B291">
         <v>290</v>
@@ -8082,8 +8049,8 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>7</v>
+      <c r="A292">
+        <v>2</v>
       </c>
       <c r="B292">
         <v>291</v>
@@ -8108,8 +8075,8 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>8</v>
+      <c r="A293">
+        <v>3</v>
       </c>
       <c r="B293">
         <v>292</v>
@@ -8134,8 +8101,8 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>9</v>
+      <c r="A294">
+        <v>4</v>
       </c>
       <c r="B294">
         <v>293</v>
@@ -8160,8 +8127,8 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>10</v>
+      <c r="A295">
+        <v>5</v>
       </c>
       <c r="B295">
         <v>294</v>
@@ -8186,8 +8153,8 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>4</v>
+      <c r="A296">
+        <v>6</v>
       </c>
       <c r="B296">
         <v>295</v>
@@ -8212,8 +8179,8 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>5</v>
+      <c r="A297">
+        <v>7</v>
       </c>
       <c r="B297">
         <v>296</v>
@@ -8238,8 +8205,8 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>6</v>
+      <c r="A298">
+        <v>1</v>
       </c>
       <c r="B298">
         <v>297</v>
@@ -8264,8 +8231,8 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>7</v>
+      <c r="A299">
+        <v>2</v>
       </c>
       <c r="B299">
         <v>298</v>
@@ -8290,8 +8257,8 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>8</v>
+      <c r="A300">
+        <v>3</v>
       </c>
       <c r="B300">
         <v>299</v>
@@ -8316,8 +8283,8 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>9</v>
+      <c r="A301">
+        <v>4</v>
       </c>
       <c r="B301">
         <v>300</v>
@@ -8342,8 +8309,8 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>10</v>
+      <c r="A302">
+        <v>5</v>
       </c>
       <c r="B302">
         <v>301</v>
@@ -8368,8 +8335,8 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>4</v>
+      <c r="A303">
+        <v>6</v>
       </c>
       <c r="B303">
         <v>302</v>
@@ -8394,8 +8361,8 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>5</v>
+      <c r="A304">
+        <v>7</v>
       </c>
       <c r="B304">
         <v>303</v>
@@ -8420,8 +8387,8 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>6</v>
+      <c r="A305">
+        <v>1</v>
       </c>
       <c r="B305">
         <v>304</v>
@@ -8446,8 +8413,8 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>7</v>
+      <c r="A306">
+        <v>2</v>
       </c>
       <c r="B306">
         <v>305</v>
@@ -8472,8 +8439,8 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>8</v>
+      <c r="A307">
+        <v>3</v>
       </c>
       <c r="B307">
         <v>306</v>
@@ -8498,8 +8465,8 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>9</v>
+      <c r="A308">
+        <v>4</v>
       </c>
       <c r="B308">
         <v>307</v>
@@ -8524,8 +8491,8 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>10</v>
+      <c r="A309">
+        <v>5</v>
       </c>
       <c r="B309">
         <v>308</v>
@@ -8550,8 +8517,8 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>4</v>
+      <c r="A310">
+        <v>6</v>
       </c>
       <c r="B310">
         <v>309</v>
@@ -8576,8 +8543,8 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>5</v>
+      <c r="A311">
+        <v>7</v>
       </c>
       <c r="B311">
         <v>310</v>
@@ -8602,8 +8569,8 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>6</v>
+      <c r="A312">
+        <v>1</v>
       </c>
       <c r="B312">
         <v>311</v>
@@ -8628,8 +8595,8 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>7</v>
+      <c r="A313">
+        <v>2</v>
       </c>
       <c r="B313">
         <v>312</v>
@@ -8654,8 +8621,8 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>8</v>
+      <c r="A314">
+        <v>3</v>
       </c>
       <c r="B314">
         <v>313</v>
@@ -8680,8 +8647,8 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>9</v>
+      <c r="A315">
+        <v>4</v>
       </c>
       <c r="B315">
         <v>314</v>
@@ -8706,8 +8673,8 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>10</v>
+      <c r="A316">
+        <v>5</v>
       </c>
       <c r="B316">
         <v>315</v>
@@ -8732,8 +8699,8 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>4</v>
+      <c r="A317">
+        <v>6</v>
       </c>
       <c r="B317">
         <v>316</v>
@@ -8758,8 +8725,8 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>5</v>
+      <c r="A318">
+        <v>7</v>
       </c>
       <c r="B318">
         <v>317</v>
@@ -8784,8 +8751,8 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>6</v>
+      <c r="A319">
+        <v>1</v>
       </c>
       <c r="B319">
         <v>318</v>
@@ -8810,8 +8777,8 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>7</v>
+      <c r="A320">
+        <v>2</v>
       </c>
       <c r="B320">
         <v>319</v>
@@ -8836,8 +8803,8 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>8</v>
+      <c r="A321">
+        <v>3</v>
       </c>
       <c r="B321">
         <v>320</v>
@@ -8862,8 +8829,8 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>9</v>
+      <c r="A322">
+        <v>4</v>
       </c>
       <c r="B322">
         <v>321</v>
@@ -8888,8 +8855,8 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>10</v>
+      <c r="A323">
+        <v>5</v>
       </c>
       <c r="B323">
         <v>322</v>
@@ -8914,8 +8881,8 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>4</v>
+      <c r="A324">
+        <v>6</v>
       </c>
       <c r="B324">
         <v>323</v>
@@ -8940,8 +8907,8 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>5</v>
+      <c r="A325">
+        <v>7</v>
       </c>
       <c r="B325">
         <v>324</v>
@@ -8966,8 +8933,8 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>6</v>
+      <c r="A326">
+        <v>1</v>
       </c>
       <c r="B326">
         <v>325</v>
@@ -8992,8 +8959,8 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>7</v>
+      <c r="A327">
+        <v>2</v>
       </c>
       <c r="B327">
         <v>326</v>
@@ -9018,8 +8985,8 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>8</v>
+      <c r="A328">
+        <v>3</v>
       </c>
       <c r="B328">
         <v>327</v>
@@ -9044,8 +9011,8 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>9</v>
+      <c r="A329">
+        <v>4</v>
       </c>
       <c r="B329">
         <v>328</v>
@@ -9070,8 +9037,8 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>10</v>
+      <c r="A330">
+        <v>5</v>
       </c>
       <c r="B330">
         <v>329</v>
@@ -9096,8 +9063,8 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>4</v>
+      <c r="A331">
+        <v>6</v>
       </c>
       <c r="B331">
         <v>330</v>
@@ -9122,8 +9089,8 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>5</v>
+      <c r="A332">
+        <v>7</v>
       </c>
       <c r="B332">
         <v>331</v>
@@ -9148,8 +9115,8 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>6</v>
+      <c r="A333">
+        <v>1</v>
       </c>
       <c r="B333">
         <v>332</v>
@@ -9174,8 +9141,8 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>7</v>
+      <c r="A334">
+        <v>2</v>
       </c>
       <c r="B334">
         <v>333</v>
@@ -9200,8 +9167,8 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>8</v>
+      <c r="A335">
+        <v>3</v>
       </c>
       <c r="B335">
         <v>334</v>
@@ -9226,8 +9193,8 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>9</v>
+      <c r="A336">
+        <v>4</v>
       </c>
       <c r="B336">
         <v>335</v>
@@ -9252,8 +9219,8 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>10</v>
+      <c r="A337">
+        <v>5</v>
       </c>
       <c r="B337">
         <v>336</v>
@@ -9278,8 +9245,8 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>4</v>
+      <c r="A338">
+        <v>6</v>
       </c>
       <c r="B338">
         <v>337</v>
@@ -9287,7 +9254,7 @@
       <c r="C338" s="3">
         <v>45709</v>
       </c>
-      <c r="D338" s="5">
+      <c r="D338" s="4">
         <v>167</v>
       </c>
       <c r="E338">
@@ -9304,8 +9271,8 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
-        <v>5</v>
+      <c r="A339">
+        <v>7</v>
       </c>
       <c r="B339">
         <v>338</v>
@@ -9313,7 +9280,7 @@
       <c r="C339" s="3">
         <v>45710</v>
       </c>
-      <c r="D339" s="5">
+      <c r="D339" s="4">
         <v>202</v>
       </c>
       <c r="E339">
@@ -9330,8 +9297,8 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>6</v>
+      <c r="A340">
+        <v>1</v>
       </c>
       <c r="B340">
         <v>339</v>
@@ -9339,7 +9306,7 @@
       <c r="C340" s="3">
         <v>45711</v>
       </c>
-      <c r="D340" s="5">
+      <c r="D340" s="4">
         <v>23</v>
       </c>
       <c r="E340">
@@ -9356,8 +9323,8 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
-        <v>7</v>
+      <c r="A341">
+        <v>2</v>
       </c>
       <c r="B341">
         <v>340</v>
@@ -9365,7 +9332,7 @@
       <c r="C341" s="3">
         <v>45712</v>
       </c>
-      <c r="D341" s="5">
+      <c r="D341" s="4">
         <v>28</v>
       </c>
       <c r="E341">
@@ -9382,8 +9349,8 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>8</v>
+      <c r="A342">
+        <v>3</v>
       </c>
       <c r="B342">
         <v>341</v>
@@ -9391,7 +9358,7 @@
       <c r="C342" s="3">
         <v>45713</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="4">
         <v>52</v>
       </c>
       <c r="E342">
@@ -9408,8 +9375,8 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
-        <v>9</v>
+      <c r="A343">
+        <v>4</v>
       </c>
       <c r="B343">
         <v>342</v>
@@ -9417,7 +9384,7 @@
       <c r="C343" s="3">
         <v>45714</v>
       </c>
-      <c r="D343" s="5">
+      <c r="D343" s="4">
         <v>44</v>
       </c>
       <c r="E343">
@@ -9434,8 +9401,8 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>10</v>
+      <c r="A344">
+        <v>5</v>
       </c>
       <c r="B344">
         <v>343</v>
@@ -9443,7 +9410,7 @@
       <c r="C344" s="3">
         <v>45715</v>
       </c>
-      <c r="D344" s="5">
+      <c r="D344" s="4">
         <v>77</v>
       </c>
       <c r="E344">
@@ -9460,8 +9427,8 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>4</v>
+      <c r="A345">
+        <v>6</v>
       </c>
       <c r="B345">
         <v>344</v>
@@ -9469,7 +9436,7 @@
       <c r="C345" s="3">
         <v>45716</v>
       </c>
-      <c r="D345" s="5">
+      <c r="D345" s="4">
         <v>152</v>
       </c>
       <c r="E345">
@@ -9486,8 +9453,8 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>5</v>
+      <c r="A346">
+        <v>7</v>
       </c>
       <c r="B346">
         <v>345</v>
@@ -9495,7 +9462,7 @@
       <c r="C346" s="3">
         <v>45717</v>
       </c>
-      <c r="D346" s="5">
+      <c r="D346" s="4">
         <v>168</v>
       </c>
       <c r="E346">
@@ -9512,8 +9479,8 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>6</v>
+      <c r="A347">
+        <v>1</v>
       </c>
       <c r="B347">
         <v>346</v>
@@ -9521,7 +9488,7 @@
       <c r="C347" s="3">
         <v>45718</v>
       </c>
-      <c r="D347" s="5">
+      <c r="D347" s="4">
         <v>39</v>
       </c>
       <c r="E347">
@@ -9538,8 +9505,8 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>7</v>
+      <c r="A348">
+        <v>2</v>
       </c>
       <c r="B348">
         <v>347</v>
@@ -9547,7 +9514,7 @@
       <c r="C348" s="3">
         <v>45719</v>
       </c>
-      <c r="D348" s="5">
+      <c r="D348" s="4">
         <v>44</v>
       </c>
       <c r="E348">
@@ -9564,8 +9531,8 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>8</v>
+      <c r="A349">
+        <v>3</v>
       </c>
       <c r="B349">
         <v>348</v>
@@ -9573,7 +9540,7 @@
       <c r="C349" s="3">
         <v>45720</v>
       </c>
-      <c r="D349" s="5">
+      <c r="D349" s="4">
         <v>43</v>
       </c>
       <c r="E349">
@@ -9590,8 +9557,8 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>9</v>
+      <c r="A350">
+        <v>4</v>
       </c>
       <c r="B350">
         <v>349</v>
@@ -9616,8 +9583,8 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>10</v>
+      <c r="A351">
+        <v>5</v>
       </c>
       <c r="B351">
         <v>350</v>
@@ -9634,13 +9601,16 @@
       <c r="F351">
         <v>0</v>
       </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
       <c r="H351">
         <v>12.2</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="4" t="s">
-        <v>4</v>
+      <c r="A352">
+        <v>6</v>
       </c>
       <c r="B352">
         <v>351</v>
@@ -9657,13 +9627,16 @@
       <c r="F352">
         <v>0.185</v>
       </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
       <c r="H352">
         <v>5.3</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
-        <v>5</v>
+      <c r="A353">
+        <v>7</v>
       </c>
       <c r="B353">
         <v>352</v>
@@ -9680,13 +9653,16 @@
       <c r="F353">
         <v>0</v>
       </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
       <c r="H353">
         <v>9.1</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
-        <v>6</v>
+      <c r="A354">
+        <v>1</v>
       </c>
       <c r="B354">
         <v>353</v>
@@ -9701,6 +9677,9 @@
         <v>46.9</v>
       </c>
       <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
         <v>0</v>
       </c>
       <c r="H354">

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A5BEE-FD62-4461-A8C8-DC496F4BDC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A19F-904F-4366-B434-4DEC476DA435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
+    <workbookView xWindow="5295" yWindow="-12300" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="day">Sheet1!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -473,8 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEB5D3-5A99-47D8-9F91-DA3E08A7A234}">
   <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P286" sqref="P286"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J356" sqref="J356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83A19F-904F-4366-B434-4DEC476DA435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF6207-B27B-418F-8488-77F1E8AD6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="-12300" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
+    <workbookView xWindow="4275" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEB5D3-5A99-47D8-9F91-DA3E08A7A234}">
-  <dimension ref="A1:H354"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J356" sqref="J356"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9690,6 +9690,265 @@
         <v>9.6</v>
       </c>
     </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355">
+        <v>354</v>
+      </c>
+      <c r="C355" s="3">
+        <v>45726</v>
+      </c>
+      <c r="D355">
+        <v>52</v>
+      </c>
+      <c r="E355">
+        <v>55.2</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+      <c r="H355">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>355</v>
+      </c>
+      <c r="C356" s="3">
+        <v>45727</v>
+      </c>
+      <c r="D356">
+        <v>95</v>
+      </c>
+      <c r="E356">
+        <v>45.1</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+      <c r="H356">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357">
+        <v>356</v>
+      </c>
+      <c r="C357" s="3">
+        <v>45728</v>
+      </c>
+      <c r="E357">
+        <v>43.9</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+      <c r="H357">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>5</v>
+      </c>
+      <c r="B358">
+        <v>357</v>
+      </c>
+      <c r="C358" s="3">
+        <v>45729</v>
+      </c>
+      <c r="E358">
+        <v>49.6</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+      <c r="H358">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>6</v>
+      </c>
+      <c r="B359">
+        <v>358</v>
+      </c>
+      <c r="C359" s="3">
+        <v>45730</v>
+      </c>
+      <c r="E359">
+        <v>58.5</v>
+      </c>
+      <c r="F359">
+        <v>0.15</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+      <c r="H359">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>359</v>
+      </c>
+      <c r="C360" s="3">
+        <v>45731</v>
+      </c>
+      <c r="E360">
+        <v>54.1</v>
+      </c>
+      <c r="F360">
+        <v>0.25</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+      <c r="H360">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361">
+        <v>360</v>
+      </c>
+      <c r="C361" s="3">
+        <v>45732</v>
+      </c>
+      <c r="E361">
+        <v>40.5</v>
+      </c>
+      <c r="F361">
+        <v>0.05</v>
+      </c>
+      <c r="G361">
+        <v>1</v>
+      </c>
+      <c r="H361">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2</v>
+      </c>
+      <c r="B362">
+        <v>361</v>
+      </c>
+      <c r="C362" s="3">
+        <v>45733</v>
+      </c>
+      <c r="E362">
+        <v>39.4</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+      <c r="H362">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>362</v>
+      </c>
+      <c r="C363" s="3">
+        <v>45734</v>
+      </c>
+      <c r="E363">
+        <v>42.3</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>4</v>
+      </c>
+      <c r="B364">
+        <v>363</v>
+      </c>
+      <c r="C364" s="3">
+        <v>45735</v>
+      </c>
+      <c r="E364">
+        <v>43.7</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+      <c r="H364">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>5</v>
+      </c>
+      <c r="B365">
+        <v>364</v>
+      </c>
+      <c r="C365" s="3">
+        <v>45736</v>
+      </c>
+      <c r="E365">
+        <v>44.8</v>
+      </c>
+      <c r="F365">
+        <v>0.8</v>
+      </c>
+      <c r="G365">
+        <v>0.1</v>
+      </c>
+      <c r="H365">
+        <v>11.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF6207-B27B-418F-8488-77F1E8AD6C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0447226-61AE-4963-AA35-5063CB226D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
+    <workbookView xWindow="7185" yWindow="210" windowWidth="21600" windowHeight="11295" xr2:uid="{284AE3AB-67B9-4275-829B-85B25FB0FD62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECEB5D3-5A99-47D8-9F91-DA3E08A7A234}">
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D363" sqref="D363"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G364" sqref="G364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,10 +9701,10 @@
         <v>45726</v>
       </c>
       <c r="D355">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E355">
-        <v>55.2</v>
+        <v>52.5</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -9727,10 +9727,10 @@
         <v>45727</v>
       </c>
       <c r="D356">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E356">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <v>12</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -9752,8 +9752,11 @@
       <c r="C357" s="3">
         <v>45728</v>
       </c>
+      <c r="D357">
+        <v>37</v>
+      </c>
       <c r="E357">
-        <v>43.9</v>
+        <v>42.6</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9775,8 +9778,11 @@
       <c r="C358" s="3">
         <v>45729</v>
       </c>
+      <c r="D358">
+        <v>41</v>
+      </c>
       <c r="E358">
-        <v>49.6</v>
+        <v>46.4</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -9799,16 +9805,16 @@
         <v>45730</v>
       </c>
       <c r="E359">
-        <v>58.5</v>
+        <v>59.4</v>
       </c>
       <c r="F359">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G359">
         <v>0</v>
       </c>
       <c r="H359">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -9822,16 +9828,16 @@
         <v>45731</v>
       </c>
       <c r="E360">
-        <v>54.1</v>
+        <v>57.9</v>
       </c>
       <c r="F360">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G360">
         <v>0</v>
       </c>
       <c r="H360">
-        <v>18</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -9845,16 +9851,16 @@
         <v>45732</v>
       </c>
       <c r="E361">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="F361">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G361">
         <v>1</v>
       </c>
       <c r="H361">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -9868,7 +9874,7 @@
         <v>45733</v>
       </c>
       <c r="E362">
-        <v>39.4</v>
+        <v>43.7</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -9877,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="H362">
-        <v>10.5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -9891,7 +9897,7 @@
         <v>45734</v>
       </c>
       <c r="E363">
-        <v>42.3</v>
+        <v>52.5</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -9900,7 +9906,7 @@
         <v>0</v>
       </c>
       <c r="H363">
-        <v>11.1</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -9914,16 +9920,16 @@
         <v>45735</v>
       </c>
       <c r="E364">
-        <v>43.7</v>
+        <v>50.9</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G364">
         <v>0</v>
       </c>
       <c r="H364">
-        <v>11</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -9937,16 +9943,62 @@
         <v>45736</v>
       </c>
       <c r="E365">
-        <v>44.8</v>
+        <v>42.4</v>
       </c>
       <c r="F365">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G365">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H365">
-        <v>11.2</v>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>6</v>
+      </c>
+      <c r="B366">
+        <v>365</v>
+      </c>
+      <c r="C366" s="3">
+        <v>45737</v>
+      </c>
+      <c r="E366">
+        <v>40.5</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+      <c r="H366">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>366</v>
+      </c>
+      <c r="C367" s="3">
+        <v>45738</v>
+      </c>
+      <c r="E367">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+      <c r="H367">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C81F20-4770-40BA-9A80-C3D28E422CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98476756-B077-43A6-AF3D-DBBB9A7EEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="day">Sheet1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -160,9 +173,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -473,8 +483,8 @@
   <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D364" sqref="D364"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H394" sqref="H394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9808,7 +9818,7 @@
         <v>116</v>
       </c>
       <c r="E359" s="10">
-        <v>64.5</v>
+        <v>59.7</v>
       </c>
       <c r="F359" s="10">
         <v>0</v>
@@ -9817,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="H359" s="10">
-        <v>12.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9834,7 +9844,7 @@
         <v>180</v>
       </c>
       <c r="E360" s="10">
-        <v>57</v>
+        <v>54.9</v>
       </c>
       <c r="F360" s="10">
         <v>0.53</v>
@@ -9843,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="H360" s="10">
-        <v>13</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9860,7 +9870,7 @@
         <v>110</v>
       </c>
       <c r="E361" s="10">
-        <v>33.200000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F361" s="10">
         <v>0.22</v>
@@ -9869,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="H361" s="10">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9886,7 +9896,7 @@
         <v>4</v>
       </c>
       <c r="E362" s="10">
-        <v>44.5</v>
+        <v>40.5</v>
       </c>
       <c r="F362" s="10">
         <v>0.5</v>
@@ -9895,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="H362" s="10">
-        <v>10.199999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9909,10 +9919,10 @@
         <v>45734</v>
       </c>
       <c r="D363" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E363" s="10">
-        <v>54.7</v>
+        <v>45.9</v>
       </c>
       <c r="F363" s="10">
         <v>0</v>
@@ -9921,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="H363" s="10">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9935,10 +9945,10 @@
         <v>45735</v>
       </c>
       <c r="D364" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E364" s="10">
-        <v>42.7</v>
+        <v>47.1</v>
       </c>
       <c r="F364" s="10">
         <v>0.8</v>
@@ -9947,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="H364" s="10">
-        <v>12.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9961,10 +9971,10 @@
         <v>45736</v>
       </c>
       <c r="D365" s="4">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E365" s="10">
-        <v>42.4</v>
+        <v>44.4</v>
       </c>
       <c r="F365" s="10">
         <v>0.5</v>
@@ -9973,7 +9983,7 @@
         <v>1.9</v>
       </c>
       <c r="H365" s="10">
-        <v>13.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9987,10 +9997,10 @@
         <v>45737</v>
       </c>
       <c r="D366" s="4">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="E366" s="10">
-        <v>40.5</v>
+        <v>46.67</v>
       </c>
       <c r="F366" s="10">
         <v>0</v>
@@ -10013,10 +10023,10 @@
         <v>45738</v>
       </c>
       <c r="D367" s="4">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E367" s="10">
-        <v>40.799999999999997</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="F367" s="10">
         <v>0</v>
@@ -10025,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H367" s="10">
-        <v>11</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10039,19 +10049,19 @@
         <v>45739</v>
       </c>
       <c r="D368" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E368" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="F368" s="13">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F368" s="12">
         <v>0.06</v>
       </c>
       <c r="G368" s="10">
         <v>0</v>
       </c>
       <c r="H368" s="9">
-        <v>10</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -10065,7 +10075,7 @@
         <v>45740</v>
       </c>
       <c r="D369" s="8">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E369" s="9">
         <v>34.75</v>
@@ -10091,7 +10101,7 @@
         <v>45741</v>
       </c>
       <c r="D370" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E370" s="9">
         <v>36.5</v>
@@ -10117,7 +10127,7 @@
         <v>45742</v>
       </c>
       <c r="D371" s="8">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E371" s="9">
         <v>38.5</v>
@@ -10143,7 +10153,7 @@
         <v>45743</v>
       </c>
       <c r="D372" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E372" s="9">
         <v>41.75</v>
@@ -10169,7 +10179,7 @@
         <v>45744</v>
       </c>
       <c r="D373" s="8">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E373" s="9">
         <v>47.5</v>
@@ -10195,7 +10205,7 @@
         <v>45745</v>
       </c>
       <c r="D374" s="8">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E374" s="9">
         <v>53</v>
@@ -10221,7 +10231,7 @@
         <v>45746</v>
       </c>
       <c r="D375" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E375" s="9">
         <v>49.25</v>
@@ -10247,7 +10257,7 @@
         <v>45747</v>
       </c>
       <c r="D376" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E376" s="9">
         <v>44.5</v>
@@ -10299,7 +10309,7 @@
         <v>45749</v>
       </c>
       <c r="D378" s="8">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E378" s="9">
         <v>48</v>
@@ -10351,7 +10361,7 @@
         <v>45751</v>
       </c>
       <c r="D380" s="8">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E380" s="9">
         <v>44.5</v>
@@ -10377,7 +10387,7 @@
         <v>45752</v>
       </c>
       <c r="D381" s="8">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E381" s="9">
         <v>45.5</v>
@@ -10403,7 +10413,7 @@
         <v>45753</v>
       </c>
       <c r="D382" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E382" s="9">
         <v>44.5</v>
@@ -10429,12 +10439,12 @@
         <v>45754</v>
       </c>
       <c r="D383" s="8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E383" s="9">
         <v>45</v>
       </c>
-      <c r="F383" s="13">
+      <c r="F383" s="12">
         <v>0.64</v>
       </c>
       <c r="G383" s="10">
@@ -10455,12 +10465,12 @@
         <v>45755</v>
       </c>
       <c r="D384" s="8">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E384" s="9">
         <v>46.5</v>
       </c>
-      <c r="F384" s="13">
+      <c r="F384" s="12">
         <v>0</v>
       </c>
       <c r="G384" s="10">
@@ -10481,12 +10491,12 @@
         <v>45756</v>
       </c>
       <c r="D385" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E385" s="9">
         <v>45.5</v>
       </c>
-      <c r="F385" s="13">
+      <c r="F385" s="12">
         <v>0.41</v>
       </c>
       <c r="G385" s="10">
@@ -10507,12 +10517,12 @@
         <v>45757</v>
       </c>
       <c r="D386" s="8">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E386" s="9">
         <v>41.5</v>
       </c>
-      <c r="F386" s="13">
+      <c r="F386" s="12">
         <v>0.12</v>
       </c>
       <c r="G386" s="10">
@@ -10533,12 +10543,12 @@
         <v>45758</v>
       </c>
       <c r="D387" s="8">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E387" s="9">
         <v>40.5</v>
       </c>
-      <c r="F387" s="13">
+      <c r="F387" s="12">
         <v>0</v>
       </c>
       <c r="G387" s="10">
@@ -10559,12 +10569,12 @@
         <v>45759</v>
       </c>
       <c r="D388" s="8">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E388" s="9">
         <v>40</v>
       </c>
-      <c r="F388" s="13">
+      <c r="F388" s="12">
         <v>0</v>
       </c>
       <c r="G388" s="10">
@@ -10585,12 +10595,12 @@
         <v>45760</v>
       </c>
       <c r="D389" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E389" s="9">
         <v>43</v>
       </c>
-      <c r="F389" s="13">
+      <c r="F389" s="12">
         <v>0</v>
       </c>
       <c r="G389" s="10">
@@ -10616,7 +10626,7 @@
       <c r="E390" s="9">
         <v>48</v>
       </c>
-      <c r="F390" s="13">
+      <c r="F390" s="12">
         <v>0</v>
       </c>
       <c r="G390" s="10">
@@ -10637,12 +10647,12 @@
         <v>45762</v>
       </c>
       <c r="D391" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E391" s="9">
         <v>42.5</v>
       </c>
-      <c r="F391" s="13">
+      <c r="F391" s="12">
         <v>0</v>
       </c>
       <c r="G391" s="10">
@@ -10663,12 +10673,12 @@
         <v>45763</v>
       </c>
       <c r="D392" s="8">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E392" s="9">
         <v>49</v>
       </c>
-      <c r="F392" s="13">
+      <c r="F392" s="12">
         <v>0.19</v>
       </c>
       <c r="G392" s="10">
@@ -10689,12 +10699,12 @@
         <v>45764</v>
       </c>
       <c r="D393" s="8">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E393" s="9">
         <v>55</v>
       </c>
-      <c r="F393" s="13">
+      <c r="F393" s="12">
         <v>0</v>
       </c>
       <c r="G393" s="10">
@@ -10720,7 +10730,7 @@
       <c r="E394" s="9">
         <v>56</v>
       </c>
-      <c r="F394" s="13">
+      <c r="F394" s="12">
         <v>0</v>
       </c>
       <c r="G394" s="10">
@@ -10741,12 +10751,12 @@
         <v>45766</v>
       </c>
       <c r="D395" s="8">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E395" s="9">
         <v>55</v>
       </c>
-      <c r="F395" s="13">
+      <c r="F395" s="12">
         <v>0</v>
       </c>
       <c r="G395" s="10">
@@ -10772,7 +10782,7 @@
       <c r="E396" s="9">
         <v>54</v>
       </c>
-      <c r="F396" s="13">
+      <c r="F396" s="12">
         <v>0</v>
       </c>
       <c r="G396" s="10">
@@ -10798,7 +10808,7 @@
       <c r="E397" s="9">
         <v>50.5</v>
       </c>
-      <c r="F397" s="13">
+      <c r="F397" s="12">
         <v>0.36</v>
       </c>
       <c r="G397" s="10">
@@ -10824,7 +10834,7 @@
       <c r="E398" s="9">
         <v>51</v>
       </c>
-      <c r="F398" s="13">
+      <c r="F398" s="12">
         <v>0.52</v>
       </c>
       <c r="G398" s="10">
@@ -10850,7 +10860,7 @@
       <c r="E399" s="9">
         <v>53</v>
       </c>
-      <c r="F399" s="13">
+      <c r="F399" s="12">
         <v>0</v>
       </c>
       <c r="G399" s="10">
@@ -10871,12 +10881,12 @@
         <v>45771</v>
       </c>
       <c r="D400" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E400" s="9">
         <v>53</v>
       </c>
-      <c r="F400" s="13">
+      <c r="F400" s="12">
         <v>0.24</v>
       </c>
       <c r="G400" s="10">
@@ -10902,7 +10912,7 @@
       <c r="E401" s="9">
         <v>54.5</v>
       </c>
-      <c r="F401" s="13">
+      <c r="F401" s="12">
         <v>0.03</v>
       </c>
       <c r="G401" s="10">
@@ -10928,7 +10938,7 @@
       <c r="E402" s="9">
         <v>53.5</v>
       </c>
-      <c r="F402" s="13">
+      <c r="F402" s="12">
         <v>0</v>
       </c>
       <c r="G402" s="10">
@@ -10949,12 +10959,12 @@
         <v>45774</v>
       </c>
       <c r="D403" s="8">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E403" s="9">
         <v>48.5</v>
       </c>
-      <c r="F403" s="13">
+      <c r="F403" s="12">
         <v>0</v>
       </c>
       <c r="G403" s="10">
@@ -10975,12 +10985,12 @@
         <v>45775</v>
       </c>
       <c r="D404" s="8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E404" s="9">
         <v>54.5</v>
       </c>
-      <c r="F404" s="13">
+      <c r="F404" s="12">
         <v>0.59</v>
       </c>
       <c r="G404" s="10">
@@ -11001,12 +11011,12 @@
         <v>45776</v>
       </c>
       <c r="D405" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E405" s="9">
         <v>50.5</v>
       </c>
-      <c r="F405" s="13">
+      <c r="F405" s="12">
         <v>0</v>
       </c>
       <c r="G405" s="10">
@@ -11027,7 +11037,7 @@
         <v>45777</v>
       </c>
       <c r="D406" s="8">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E406" s="12">
         <v>52</v>
@@ -11053,7 +11063,7 @@
         <v>45778</v>
       </c>
       <c r="D407" s="8">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E407" s="12">
         <v>55</v>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98476756-B077-43A6-AF3D-DBBB9A7EEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB053A-6F01-49C4-A214-7B8EAEB32442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="855" windowWidth="12945" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
   <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H394" sqref="H394"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9818,16 +9818,16 @@
         <v>116</v>
       </c>
       <c r="E359" s="10">
-        <v>59.7</v>
+        <v>58.3</v>
       </c>
       <c r="F359" s="10">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G359" s="10">
         <v>0</v>
       </c>
       <c r="H359" s="10">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9844,16 +9844,16 @@
         <v>180</v>
       </c>
       <c r="E360" s="10">
-        <v>54.9</v>
+        <v>62.8</v>
       </c>
       <c r="F360" s="10">
-        <v>0.53</v>
+        <v>0.311</v>
       </c>
       <c r="G360" s="10">
         <v>0</v>
       </c>
       <c r="H360" s="10">
-        <v>18.600000000000001</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9870,16 +9870,16 @@
         <v>110</v>
       </c>
       <c r="E361" s="10">
-        <v>38.799999999999997</v>
+        <v>37.4</v>
       </c>
       <c r="F361" s="10">
-        <v>0.22</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G361" s="10">
         <v>1</v>
       </c>
       <c r="H361" s="10">
-        <v>13.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9896,7 +9896,7 @@
         <v>4</v>
       </c>
       <c r="E362" s="10">
-        <v>40.5</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F362" s="10">
         <v>0.5</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="H362" s="10">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9922,7 +9922,7 @@
         <v>33</v>
       </c>
       <c r="E363" s="10">
-        <v>45.9</v>
+        <v>53.4</v>
       </c>
       <c r="F363" s="10">
         <v>0</v>
@@ -9931,7 +9931,7 @@
         <v>0</v>
       </c>
       <c r="H363" s="10">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9948,16 +9948,16 @@
         <v>57</v>
       </c>
       <c r="E364" s="10">
-        <v>47.1</v>
+        <v>44.4</v>
       </c>
       <c r="F364" s="10">
-        <v>0.8</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G364" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H364" s="10">
-        <v>11.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9974,16 +9974,16 @@
         <v>108</v>
       </c>
       <c r="E365" s="10">
-        <v>44.4</v>
+        <v>37</v>
       </c>
       <c r="F365" s="10">
-        <v>0.5</v>
+        <v>0.22</v>
       </c>
       <c r="G365" s="10">
-        <v>1.9</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="H365" s="10">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>104</v>
       </c>
       <c r="E366" s="10">
-        <v>46.67</v>
+        <v>41.9</v>
       </c>
       <c r="F366" s="10">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="H366" s="10">
-        <v>11.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10023,10 +10023,10 @@
         <v>45738</v>
       </c>
       <c r="D367" s="4">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="E367" s="10">
-        <v>34.200000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="F367" s="10">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H367" s="10">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -10049,19 +10049,19 @@
         <v>45739</v>
       </c>
       <c r="D368" s="8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E368" s="9">
-        <v>38.700000000000003</v>
+        <v>39.9</v>
       </c>
       <c r="F368" s="12">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="G368" s="10">
         <v>0</v>
       </c>
       <c r="H368" s="9">
-        <v>11.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -10075,10 +10075,10 @@
         <v>45740</v>
       </c>
       <c r="D369" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E369" s="9">
-        <v>34.75</v>
+        <v>39.4</v>
       </c>
       <c r="F369" s="12">
         <v>0</v>
@@ -10087,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="H369" s="9">
-        <v>15</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -10101,19 +10101,19 @@
         <v>45741</v>
       </c>
       <c r="D370" s="8">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E370" s="9">
-        <v>36.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F370" s="12">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G370" s="10">
         <v>0</v>
       </c>
       <c r="H370" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -10127,10 +10127,10 @@
         <v>45742</v>
       </c>
       <c r="D371" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E371" s="9">
-        <v>38.5</v>
+        <v>41.2</v>
       </c>
       <c r="F371" s="12">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="H371" s="9">
-        <v>7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -10153,10 +10153,10 @@
         <v>45743</v>
       </c>
       <c r="D372" s="8">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E372" s="9">
-        <v>41.75</v>
+        <v>48.7</v>
       </c>
       <c r="F372" s="12">
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="H372" s="9">
-        <v>9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -10179,10 +10179,10 @@
         <v>45744</v>
       </c>
       <c r="D373" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E373" s="9">
-        <v>47.5</v>
+        <v>63.5</v>
       </c>
       <c r="F373" s="12">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H373" s="9">
-        <v>4</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -10205,19 +10205,19 @@
         <v>45745</v>
       </c>
       <c r="D374" s="8">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E374" s="9">
-        <v>53</v>
+        <v>59.5</v>
       </c>
       <c r="F374" s="12">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G374" s="10">
         <v>0</v>
       </c>
       <c r="H374" s="9">
-        <v>6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -10231,19 +10231,19 @@
         <v>45746</v>
       </c>
       <c r="D375" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E375" s="9">
-        <v>49.25</v>
+        <v>55.4</v>
       </c>
       <c r="F375" s="12">
-        <v>0</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="G375" s="10">
         <v>0</v>
       </c>
       <c r="H375" s="9">
-        <v>12</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -10257,19 +10257,19 @@
         <v>45747</v>
       </c>
       <c r="D376" s="8">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E376" s="9">
-        <v>44.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F376" s="12">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G376" s="10">
         <v>0</v>
       </c>
       <c r="H376" s="9">
-        <v>10</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -10286,16 +10286,16 @@
         <v>39</v>
       </c>
       <c r="E377" s="9">
-        <v>44</v>
+        <v>37.9</v>
       </c>
       <c r="F377" s="12">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G377" s="10">
         <v>0</v>
       </c>
       <c r="H377" s="9">
-        <v>6</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -10312,16 +10312,16 @@
         <v>71</v>
       </c>
       <c r="E378" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F378" s="12">
-        <v>0</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="G378" s="10">
         <v>0</v>
       </c>
       <c r="H378" s="9">
-        <v>10</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -10338,7 +10338,7 @@
         <v>52</v>
       </c>
       <c r="E379" s="9">
-        <v>41</v>
+        <v>50.5</v>
       </c>
       <c r="F379" s="12">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="H379" s="9">
-        <v>9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>136</v>
       </c>
       <c r="E380" s="9">
-        <v>44.5</v>
+        <v>45.3</v>
       </c>
       <c r="F380" s="12">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="H380" s="9">
-        <v>5</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -10390,7 +10390,7 @@
         <v>160</v>
       </c>
       <c r="E381" s="9">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="F381" s="12">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="H381" s="9">
-        <v>9</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -10416,7 +10416,7 @@
         <v>42</v>
       </c>
       <c r="E382" s="9">
-        <v>44.5</v>
+        <v>43.3</v>
       </c>
       <c r="F382" s="12">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="H382" s="9">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -10442,7 +10442,7 @@
         <v>46</v>
       </c>
       <c r="E383" s="9">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F383" s="12">
         <v>0.64</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="H383" s="9">
-        <v>15</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -10468,7 +10468,7 @@
         <v>47</v>
       </c>
       <c r="E384" s="9">
-        <v>46.5</v>
+        <v>41.4</v>
       </c>
       <c r="F384" s="12">
         <v>0</v>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="H384" s="9">
-        <v>6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -10494,7 +10494,7 @@
         <v>56</v>
       </c>
       <c r="E385" s="9">
-        <v>45.5</v>
+        <v>42.8</v>
       </c>
       <c r="F385" s="12">
         <v>0.41</v>
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="H385" s="9">
-        <v>15</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DB053A-6F01-49C4-A214-7B8EAEB32442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539D486-0D04-4F76-9608-830DD1F20F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="855" windowWidth="12945" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7590" yWindow="1380" windowWidth="12945" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
   <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <pane ySplit="1" topLeftCell="A383" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D397" sqref="D397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10283,7 +10283,7 @@
         <v>45748</v>
       </c>
       <c r="D377" s="8">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E377" s="9">
         <v>37.9</v>
@@ -10309,7 +10309,7 @@
         <v>45749</v>
       </c>
       <c r="D378" s="8">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E378" s="9">
         <v>50</v>
@@ -10335,7 +10335,7 @@
         <v>45750</v>
       </c>
       <c r="D379" s="8">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E379" s="9">
         <v>50.5</v>
@@ -10361,7 +10361,7 @@
         <v>45751</v>
       </c>
       <c r="D380" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E380" s="9">
         <v>45.3</v>
@@ -10387,7 +10387,7 @@
         <v>45752</v>
       </c>
       <c r="D381" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E381" s="9">
         <v>45.3</v>
@@ -10413,7 +10413,7 @@
         <v>45753</v>
       </c>
       <c r="D382" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E382" s="9">
         <v>43.3</v>
@@ -10439,7 +10439,7 @@
         <v>45754</v>
       </c>
       <c r="D383" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E383" s="9">
         <v>41</v>
@@ -10465,7 +10465,7 @@
         <v>45755</v>
       </c>
       <c r="D384" s="8">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E384" s="9">
         <v>41.4</v>
@@ -10491,7 +10491,7 @@
         <v>45756</v>
       </c>
       <c r="D385" s="8">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E385" s="9">
         <v>42.8</v>
@@ -10517,7 +10517,7 @@
         <v>45757</v>
       </c>
       <c r="D386" s="8">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E386" s="9">
         <v>41.5</v>
@@ -10543,7 +10543,7 @@
         <v>45758</v>
       </c>
       <c r="D387" s="8">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E387" s="9">
         <v>40.5</v>
@@ -10569,7 +10569,7 @@
         <v>45759</v>
       </c>
       <c r="D388" s="8">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E388" s="9">
         <v>40</v>
@@ -10595,7 +10595,7 @@
         <v>45760</v>
       </c>
       <c r="D389" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E389" s="9">
         <v>43</v>
@@ -10621,7 +10621,7 @@
         <v>45761</v>
       </c>
       <c r="D390" s="8">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E390" s="9">
         <v>48</v>
@@ -10647,7 +10647,7 @@
         <v>45762</v>
       </c>
       <c r="D391" s="8">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E391" s="9">
         <v>42.5</v>
@@ -10673,7 +10673,7 @@
         <v>45763</v>
       </c>
       <c r="D392" s="8">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E392" s="9">
         <v>49</v>
@@ -10699,7 +10699,7 @@
         <v>45764</v>
       </c>
       <c r="D393" s="8">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E393" s="9">
         <v>55</v>
@@ -10725,7 +10725,7 @@
         <v>45765</v>
       </c>
       <c r="D394" s="8">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="E394" s="9">
         <v>56</v>
@@ -10751,7 +10751,7 @@
         <v>45766</v>
       </c>
       <c r="D395" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E395" s="9">
         <v>55</v>
@@ -10803,7 +10803,7 @@
         <v>45768</v>
       </c>
       <c r="D397" s="8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E397" s="9">
         <v>50.5</v>
@@ -10829,7 +10829,7 @@
         <v>45769</v>
       </c>
       <c r="D398" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E398" s="9">
         <v>51</v>
@@ -10855,7 +10855,7 @@
         <v>45770</v>
       </c>
       <c r="D399" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E399" s="9">
         <v>53</v>
@@ -10881,7 +10881,7 @@
         <v>45771</v>
       </c>
       <c r="D400" s="8">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E400" s="9">
         <v>53</v>
@@ -10907,7 +10907,7 @@
         <v>45772</v>
       </c>
       <c r="D401" s="8">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E401" s="9">
         <v>54.5</v>
@@ -10933,7 +10933,7 @@
         <v>45773</v>
       </c>
       <c r="D402" s="8">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E402" s="9">
         <v>53.5</v>
@@ -10959,7 +10959,7 @@
         <v>45774</v>
       </c>
       <c r="D403" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E403" s="9">
         <v>48.5</v>
@@ -10985,7 +10985,7 @@
         <v>45775</v>
       </c>
       <c r="D404" s="8">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E404" s="9">
         <v>54.5</v>
@@ -11011,7 +11011,7 @@
         <v>45776</v>
       </c>
       <c r="D405" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E405" s="9">
         <v>50.5</v>
@@ -11037,7 +11037,7 @@
         <v>45777</v>
       </c>
       <c r="D406" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E406" s="12">
         <v>52</v>
@@ -11063,7 +11063,7 @@
         <v>45778</v>
       </c>
       <c r="D407" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E407" s="12">
         <v>55</v>
@@ -11089,7 +11089,7 @@
         <v>45779</v>
       </c>
       <c r="D408" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E408" s="12">
         <v>48</v>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,12 +59,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -152,32 +146,14 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,14 +465,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -10051,19 +10027,19 @@
       <c r="C368" s="6">
         <v>45739</v>
       </c>
-      <c r="D368" s="8">
+      <c r="D368" s="5">
         <v>46</v>
       </c>
-      <c r="E368" s="9">
+      <c r="E368" s="7">
         <v>39.9</v>
       </c>
-      <c r="F368" s="9">
+      <c r="F368" s="7">
         <v>0.22</v>
       </c>
       <c r="G368" s="7">
         <v>0</v>
       </c>
-      <c r="H368" s="9">
+      <c r="H368" s="7">
         <v>14.3</v>
       </c>
     </row>
@@ -10077,19 +10053,19 @@
       <c r="C369" s="6">
         <v>45740</v>
       </c>
-      <c r="D369" s="8">
+      <c r="D369" s="5">
         <v>38</v>
       </c>
-      <c r="E369" s="9">
+      <c r="E369" s="7">
         <v>39.4</v>
       </c>
-      <c r="F369" s="9">
+      <c r="F369" s="7">
         <v>0</v>
       </c>
       <c r="G369" s="7">
         <v>0</v>
       </c>
-      <c r="H369" s="9">
+      <c r="H369" s="7">
         <v>15.9</v>
       </c>
     </row>
@@ -10103,19 +10079,19 @@
       <c r="C370" s="6">
         <v>45741</v>
       </c>
-      <c r="D370" s="8">
+      <c r="D370" s="5">
         <v>75</v>
       </c>
-      <c r="E370" s="9">
+      <c r="E370" s="7">
         <v>39.7</v>
       </c>
-      <c r="F370" s="9">
+      <c r="F370" s="7">
         <v>0.028</v>
       </c>
       <c r="G370" s="7">
         <v>0</v>
       </c>
-      <c r="H370" s="9">
+      <c r="H370" s="7">
         <v>8</v>
       </c>
     </row>
@@ -10129,19 +10105,19 @@
       <c r="C371" s="6">
         <v>45742</v>
       </c>
-      <c r="D371" s="8">
+      <c r="D371" s="5">
         <v>34</v>
       </c>
-      <c r="E371" s="9">
+      <c r="E371" s="7">
         <v>41.2</v>
       </c>
-      <c r="F371" s="9">
+      <c r="F371" s="7">
         <v>0</v>
       </c>
       <c r="G371" s="7">
         <v>0</v>
       </c>
-      <c r="H371" s="9">
+      <c r="H371" s="7">
         <v>4.3</v>
       </c>
     </row>
@@ -10155,19 +10131,19 @@
       <c r="C372" s="6">
         <v>45743</v>
       </c>
-      <c r="D372" s="8">
+      <c r="D372" s="5">
         <v>35</v>
       </c>
-      <c r="E372" s="9">
+      <c r="E372" s="7">
         <v>48.7</v>
       </c>
-      <c r="F372" s="9">
+      <c r="F372" s="7">
         <v>0</v>
       </c>
       <c r="G372" s="7">
         <v>0</v>
       </c>
-      <c r="H372" s="9">
+      <c r="H372" s="7">
         <v>7.6</v>
       </c>
     </row>
@@ -10181,19 +10157,19 @@
       <c r="C373" s="6">
         <v>45744</v>
       </c>
-      <c r="D373" s="8">
+      <c r="D373" s="5">
         <v>118</v>
       </c>
-      <c r="E373" s="9">
+      <c r="E373" s="7">
         <v>63.5</v>
       </c>
-      <c r="F373" s="9">
+      <c r="F373" s="7">
         <v>0</v>
       </c>
       <c r="G373" s="7">
         <v>0</v>
       </c>
-      <c r="H373" s="9">
+      <c r="H373" s="7">
         <v>14.2</v>
       </c>
     </row>
@@ -10207,19 +10183,19 @@
       <c r="C374" s="6">
         <v>45745</v>
       </c>
-      <c r="D374" s="8">
+      <c r="D374" s="5">
         <v>143</v>
       </c>
-      <c r="E374" s="9">
+      <c r="E374" s="7">
         <v>59.5</v>
       </c>
-      <c r="F374" s="9">
+      <c r="F374" s="7">
         <v>0.028</v>
       </c>
       <c r="G374" s="7">
         <v>0</v>
       </c>
-      <c r="H374" s="9">
+      <c r="H374" s="7">
         <v>12.1</v>
       </c>
     </row>
@@ -10233,19 +10209,19 @@
       <c r="C375" s="6">
         <v>45746</v>
       </c>
-      <c r="D375" s="8">
+      <c r="D375" s="5">
         <v>48</v>
       </c>
-      <c r="E375" s="9">
+      <c r="E375" s="7">
         <v>55.4</v>
       </c>
-      <c r="F375" s="9">
+      <c r="F375" s="7">
         <v>0.815</v>
       </c>
       <c r="G375" s="7">
         <v>0</v>
       </c>
-      <c r="H375" s="9">
+      <c r="H375" s="7">
         <v>12.2</v>
       </c>
     </row>
@@ -10259,19 +10235,19 @@
       <c r="C376" s="6">
         <v>45747</v>
       </c>
-      <c r="D376" s="8">
+      <c r="D376" s="5">
         <v>56</v>
       </c>
-      <c r="E376" s="9">
+      <c r="E376" s="7">
         <v>39.7</v>
       </c>
-      <c r="F376" s="9">
+      <c r="F376" s="7">
         <v>0.004</v>
       </c>
       <c r="G376" s="7">
         <v>0</v>
       </c>
-      <c r="H376" s="9">
+      <c r="H376" s="7">
         <v>11.1</v>
       </c>
     </row>
@@ -10285,20 +10261,20 @@
       <c r="C377" s="6">
         <v>45748</v>
       </c>
-      <c r="D377" s="8">
+      <c r="D377" s="5">
         <v>46</v>
       </c>
-      <c r="E377" s="9">
-        <v>37.9</v>
-      </c>
-      <c r="F377" s="9">
+      <c r="E377" s="7">
+        <v>37.8</v>
+      </c>
+      <c r="F377" s="7">
         <v>0.004</v>
       </c>
       <c r="G377" s="7">
         <v>0</v>
       </c>
-      <c r="H377" s="9">
-        <v>9.9</v>
+      <c r="H377" s="7">
+        <v>13.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="18.75">
@@ -10311,20 +10287,20 @@
       <c r="C378" s="6">
         <v>45749</v>
       </c>
-      <c r="D378" s="8">
+      <c r="D378" s="5">
         <v>44</v>
       </c>
-      <c r="E378" s="9">
-        <v>50</v>
-      </c>
-      <c r="F378" s="9">
-        <v>0.776</v>
+      <c r="E378" s="7">
+        <v>46</v>
+      </c>
+      <c r="F378" s="7">
+        <v>1.252</v>
       </c>
       <c r="G378" s="7">
         <v>0</v>
       </c>
-      <c r="H378" s="9">
-        <v>17.5</v>
+      <c r="H378" s="7">
+        <v>14.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="18.75">
@@ -10337,20 +10313,20 @@
       <c r="C379" s="6">
         <v>45750</v>
       </c>
-      <c r="D379" s="8">
+      <c r="D379" s="5">
         <v>35</v>
       </c>
-      <c r="E379" s="9">
-        <v>50.5</v>
-      </c>
-      <c r="F379" s="9">
+      <c r="E379" s="7">
+        <v>52.5</v>
+      </c>
+      <c r="F379" s="7">
         <v>0</v>
       </c>
       <c r="G379" s="7">
         <v>0</v>
       </c>
-      <c r="H379" s="9">
-        <v>11.4</v>
+      <c r="H379" s="7">
+        <v>12.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="18.75">
@@ -10363,20 +10339,20 @@
       <c r="C380" s="6">
         <v>45751</v>
       </c>
-      <c r="D380" s="8">
-        <v>138</v>
-      </c>
-      <c r="E380" s="9">
-        <v>45.3</v>
-      </c>
-      <c r="F380" s="9">
-        <v>0</v>
+      <c r="D380" s="5">
+        <v>82</v>
+      </c>
+      <c r="E380" s="7">
+        <v>44.1</v>
+      </c>
+      <c r="F380" s="7">
+        <v>0.35</v>
       </c>
       <c r="G380" s="7">
         <v>0</v>
       </c>
-      <c r="H380" s="9">
-        <v>10.2</v>
+      <c r="H380" s="7">
+        <v>10.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="18.75">
@@ -10389,20 +10365,20 @@
       <c r="C381" s="6">
         <v>45752</v>
       </c>
-      <c r="D381" s="8">
-        <v>154</v>
-      </c>
-      <c r="E381" s="9">
-        <v>45.3</v>
-      </c>
-      <c r="F381" s="9">
-        <v>0</v>
+      <c r="D381" s="5">
+        <v>101</v>
+      </c>
+      <c r="E381" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="F381" s="7">
+        <v>0.012</v>
       </c>
       <c r="G381" s="7">
         <v>0</v>
       </c>
-      <c r="H381" s="9">
-        <v>11.4</v>
+      <c r="H381" s="7">
+        <v>10.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="18.75">
@@ -10415,20 +10391,20 @@
       <c r="C382" s="6">
         <v>45753</v>
       </c>
-      <c r="D382" s="8">
-        <v>55</v>
-      </c>
-      <c r="E382" s="9">
-        <v>43.3</v>
-      </c>
-      <c r="F382" s="9">
+      <c r="D382" s="5">
+        <v>38</v>
+      </c>
+      <c r="E382" s="7">
+        <v>41.9</v>
+      </c>
+      <c r="F382" s="7">
         <v>0</v>
       </c>
       <c r="G382" s="7">
         <v>0</v>
       </c>
-      <c r="H382" s="9">
-        <v>11.5</v>
+      <c r="H382" s="7">
+        <v>8.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="18.75">
@@ -10441,20 +10417,20 @@
       <c r="C383" s="6">
         <v>45754</v>
       </c>
-      <c r="D383" s="8">
-        <v>32</v>
-      </c>
-      <c r="E383" s="9">
-        <v>41</v>
-      </c>
-      <c r="F383" s="9">
-        <v>0.64</v>
+      <c r="D383" s="5">
+        <v>38</v>
+      </c>
+      <c r="E383" s="7">
+        <v>37.4</v>
+      </c>
+      <c r="F383" s="7">
+        <v>0.02</v>
       </c>
       <c r="G383" s="7">
         <v>0</v>
       </c>
-      <c r="H383" s="9">
-        <v>10.7</v>
+      <c r="H383" s="7">
+        <v>15.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="18.75">
@@ -10467,20 +10443,20 @@
       <c r="C384" s="6">
         <v>45755</v>
       </c>
-      <c r="D384" s="8">
-        <v>50</v>
-      </c>
-      <c r="E384" s="9">
-        <v>41.4</v>
-      </c>
-      <c r="F384" s="9">
+      <c r="D384" s="5">
+        <v>81</v>
+      </c>
+      <c r="E384" s="7">
+        <v>33.8</v>
+      </c>
+      <c r="F384" s="7">
         <v>0</v>
       </c>
       <c r="G384" s="7">
         <v>0</v>
       </c>
-      <c r="H384" s="9">
-        <v>11.1</v>
+      <c r="H384" s="7">
+        <v>7.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="18.75">
@@ -10493,20 +10469,20 @@
       <c r="C385" s="6">
         <v>45756</v>
       </c>
-      <c r="D385" s="8">
+      <c r="D385" s="5">
         <v>58</v>
       </c>
-      <c r="E385" s="9">
-        <v>42.8</v>
-      </c>
-      <c r="F385" s="9">
-        <v>0.41</v>
+      <c r="E385" s="7">
+        <v>39.7</v>
+      </c>
+      <c r="F385" s="7">
+        <v>0.071</v>
       </c>
       <c r="G385" s="7">
         <v>0</v>
       </c>
-      <c r="H385" s="9">
-        <v>11.4</v>
+      <c r="H385" s="7">
+        <v>9.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="18.75">
@@ -10519,20 +10495,20 @@
       <c r="C386" s="6">
         <v>45757</v>
       </c>
-      <c r="D386" s="8">
+      <c r="D386" s="5">
         <v>69</v>
       </c>
-      <c r="E386" s="9">
-        <v>41.5</v>
-      </c>
-      <c r="F386" s="9">
+      <c r="E386" s="7">
+        <v>42.4</v>
+      </c>
+      <c r="F386" s="7">
         <v>0.12</v>
       </c>
       <c r="G386" s="7">
         <v>0</v>
       </c>
-      <c r="H386" s="9">
-        <v>13</v>
+      <c r="H386" s="7">
+        <v>8.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
@@ -10545,20 +10521,20 @@
       <c r="C387" s="6">
         <v>45758</v>
       </c>
-      <c r="D387" s="8">
+      <c r="D387" s="5">
         <v>133</v>
       </c>
-      <c r="E387" s="9">
-        <v>40.5</v>
-      </c>
-      <c r="F387" s="9">
+      <c r="E387" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="F387" s="7">
         <v>0</v>
       </c>
       <c r="G387" s="7">
         <v>0</v>
       </c>
-      <c r="H387" s="9">
-        <v>8</v>
+      <c r="H387" s="7">
+        <v>8.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
@@ -10571,20 +10547,20 @@
       <c r="C388" s="6">
         <v>45759</v>
       </c>
-      <c r="D388" s="8">
+      <c r="D388" s="5">
         <v>153</v>
       </c>
-      <c r="E388" s="9">
-        <v>40</v>
-      </c>
-      <c r="F388" s="9">
+      <c r="E388" s="7">
+        <v>48.2</v>
+      </c>
+      <c r="F388" s="7">
         <v>0</v>
       </c>
       <c r="G388" s="7">
         <v>0</v>
       </c>
-      <c r="H388" s="9">
-        <v>1</v>
+      <c r="H388" s="7">
+        <v>6.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
@@ -10597,20 +10573,20 @@
       <c r="C389" s="6">
         <v>45760</v>
       </c>
-      <c r="D389" s="8">
+      <c r="D389" s="5">
         <v>51</v>
       </c>
-      <c r="E389" s="9">
-        <v>43</v>
-      </c>
-      <c r="F389" s="9">
+      <c r="E389" s="7">
+        <v>55.2</v>
+      </c>
+      <c r="F389" s="7">
         <v>0</v>
       </c>
       <c r="G389" s="7">
         <v>0</v>
       </c>
-      <c r="H389" s="9">
-        <v>9</v>
+      <c r="H389" s="7">
+        <v>11.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
@@ -10623,20 +10599,20 @@
       <c r="C390" s="6">
         <v>45761</v>
       </c>
-      <c r="D390" s="8">
+      <c r="D390" s="5">
         <v>46</v>
       </c>
-      <c r="E390" s="9">
-        <v>48</v>
-      </c>
-      <c r="F390" s="9">
+      <c r="E390" s="7">
+        <v>56.3</v>
+      </c>
+      <c r="F390" s="7">
         <v>0</v>
       </c>
       <c r="G390" s="7">
         <v>0</v>
       </c>
-      <c r="H390" s="9">
-        <v>9</v>
+      <c r="H390" s="7">
+        <v>12.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
@@ -10649,20 +10625,20 @@
       <c r="C391" s="6">
         <v>45762</v>
       </c>
-      <c r="D391" s="8">
+      <c r="D391" s="5">
         <v>43</v>
       </c>
-      <c r="E391" s="9">
-        <v>42.5</v>
-      </c>
-      <c r="F391" s="9">
+      <c r="E391" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="F391" s="7">
         <v>0</v>
       </c>
       <c r="G391" s="7">
         <v>0</v>
       </c>
-      <c r="H391" s="9">
-        <v>4</v>
+      <c r="H391" s="7">
+        <v>11.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
@@ -10675,20 +10651,20 @@
       <c r="C392" s="6">
         <v>45763</v>
       </c>
-      <c r="D392" s="8">
+      <c r="D392" s="5">
         <v>65</v>
       </c>
-      <c r="E392" s="9">
-        <v>49</v>
-      </c>
-      <c r="F392" s="9">
+      <c r="E392" s="7">
+        <v>48.9</v>
+      </c>
+      <c r="F392" s="7">
         <v>0.19</v>
       </c>
       <c r="G392" s="7">
         <v>0</v>
       </c>
-      <c r="H392" s="9">
-        <v>8</v>
+      <c r="H392" s="7">
+        <v>10.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
@@ -10701,20 +10677,20 @@
       <c r="C393" s="6">
         <v>45764</v>
       </c>
-      <c r="D393" s="8">
+      <c r="D393" s="5">
         <v>68</v>
       </c>
-      <c r="E393" s="9">
-        <v>55</v>
-      </c>
-      <c r="F393" s="9">
+      <c r="E393" s="7">
+        <v>50.9</v>
+      </c>
+      <c r="F393" s="7">
         <v>0</v>
       </c>
       <c r="G393" s="7">
         <v>0</v>
       </c>
-      <c r="H393" s="9">
-        <v>14</v>
+      <c r="H393" s="7">
+        <v>10.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
@@ -10727,19 +10703,19 @@
       <c r="C394" s="6">
         <v>45765</v>
       </c>
-      <c r="D394" s="8">
+      <c r="D394" s="5">
         <v>141</v>
       </c>
-      <c r="E394" s="9">
+      <c r="E394" s="7">
         <v>56</v>
       </c>
-      <c r="F394" s="9">
+      <c r="F394" s="7">
         <v>0</v>
       </c>
       <c r="G394" s="7">
         <v>0</v>
       </c>
-      <c r="H394" s="9">
+      <c r="H394" s="7">
         <v>13</v>
       </c>
     </row>
@@ -10753,19 +10729,19 @@
       <c r="C395" s="6">
         <v>45766</v>
       </c>
-      <c r="D395" s="8">
+      <c r="D395" s="5">
         <v>162</v>
       </c>
-      <c r="E395" s="9">
+      <c r="E395" s="7">
         <v>55</v>
       </c>
-      <c r="F395" s="9">
+      <c r="F395" s="7">
         <v>0</v>
       </c>
       <c r="G395" s="7">
         <v>0</v>
       </c>
-      <c r="H395" s="9">
+      <c r="H395" s="7">
         <v>10</v>
       </c>
     </row>
@@ -10779,19 +10755,19 @@
       <c r="C396" s="6">
         <v>45767</v>
       </c>
-      <c r="D396" s="8">
+      <c r="D396" s="5">
         <v>64</v>
       </c>
-      <c r="E396" s="9">
+      <c r="E396" s="7">
         <v>54</v>
       </c>
-      <c r="F396" s="9">
+      <c r="F396" s="7">
         <v>0</v>
       </c>
       <c r="G396" s="7">
         <v>0</v>
       </c>
-      <c r="H396" s="9">
+      <c r="H396" s="7">
         <v>10</v>
       </c>
     </row>
@@ -10805,19 +10781,19 @@
       <c r="C397" s="6">
         <v>45768</v>
       </c>
-      <c r="D397" s="8">
+      <c r="D397" s="5">
         <v>37</v>
       </c>
-      <c r="E397" s="9">
+      <c r="E397" s="7">
         <v>50.5</v>
       </c>
-      <c r="F397" s="9">
+      <c r="F397" s="7">
         <v>0.36</v>
       </c>
       <c r="G397" s="7">
         <v>0</v>
       </c>
-      <c r="H397" s="9">
+      <c r="H397" s="7">
         <v>10</v>
       </c>
     </row>
@@ -10831,19 +10807,19 @@
       <c r="C398" s="6">
         <v>45769</v>
       </c>
-      <c r="D398" s="8">
+      <c r="D398" s="5">
         <v>43</v>
       </c>
-      <c r="E398" s="9">
+      <c r="E398" s="7">
         <v>51</v>
       </c>
-      <c r="F398" s="9">
+      <c r="F398" s="7">
         <v>0.52</v>
       </c>
       <c r="G398" s="7">
         <v>0</v>
       </c>
-      <c r="H398" s="9">
+      <c r="H398" s="7">
         <v>12</v>
       </c>
     </row>
@@ -10857,19 +10833,19 @@
       <c r="C399" s="6">
         <v>45770</v>
       </c>
-      <c r="D399" s="8">
+      <c r="D399" s="5">
         <v>57</v>
       </c>
-      <c r="E399" s="9">
+      <c r="E399" s="7">
         <v>53</v>
       </c>
-      <c r="F399" s="9">
+      <c r="F399" s="7">
         <v>0</v>
       </c>
       <c r="G399" s="7">
         <v>0</v>
       </c>
-      <c r="H399" s="9">
+      <c r="H399" s="7">
         <v>17</v>
       </c>
     </row>
@@ -10883,19 +10859,19 @@
       <c r="C400" s="6">
         <v>45771</v>
       </c>
-      <c r="D400" s="8">
+      <c r="D400" s="5">
         <v>70</v>
       </c>
-      <c r="E400" s="9">
+      <c r="E400" s="7">
         <v>53</v>
       </c>
-      <c r="F400" s="9">
+      <c r="F400" s="7">
         <v>0.24</v>
       </c>
       <c r="G400" s="7">
         <v>0</v>
       </c>
-      <c r="H400" s="9">
+      <c r="H400" s="7">
         <v>5</v>
       </c>
     </row>
@@ -10909,19 +10885,19 @@
       <c r="C401" s="6">
         <v>45772</v>
       </c>
-      <c r="D401" s="8">
+      <c r="D401" s="5">
         <v>138</v>
       </c>
-      <c r="E401" s="9">
+      <c r="E401" s="7">
         <v>54.5</v>
       </c>
-      <c r="F401" s="9">
+      <c r="F401" s="7">
         <v>0.03</v>
       </c>
       <c r="G401" s="7">
         <v>0</v>
       </c>
-      <c r="H401" s="9">
+      <c r="H401" s="7">
         <v>8</v>
       </c>
     </row>
@@ -10935,19 +10911,19 @@
       <c r="C402" s="6">
         <v>45773</v>
       </c>
-      <c r="D402" s="8">
+      <c r="D402" s="5">
         <v>160</v>
       </c>
-      <c r="E402" s="9">
+      <c r="E402" s="7">
         <v>53.5</v>
       </c>
-      <c r="F402" s="9">
+      <c r="F402" s="7">
         <v>0</v>
       </c>
       <c r="G402" s="7">
         <v>0</v>
       </c>
-      <c r="H402" s="9">
+      <c r="H402" s="7">
         <v>13</v>
       </c>
     </row>
@@ -10961,19 +10937,19 @@
       <c r="C403" s="6">
         <v>45774</v>
       </c>
-      <c r="D403" s="8">
+      <c r="D403" s="5">
         <v>53</v>
       </c>
-      <c r="E403" s="9">
+      <c r="E403" s="7">
         <v>48.5</v>
       </c>
-      <c r="F403" s="9">
+      <c r="F403" s="7">
         <v>0</v>
       </c>
       <c r="G403" s="7">
         <v>0</v>
       </c>
-      <c r="H403" s="9">
+      <c r="H403" s="7">
         <v>7</v>
       </c>
     </row>
@@ -10987,19 +10963,19 @@
       <c r="C404" s="6">
         <v>45775</v>
       </c>
-      <c r="D404" s="8">
+      <c r="D404" s="5">
         <v>37</v>
       </c>
-      <c r="E404" s="9">
+      <c r="E404" s="7">
         <v>54.5</v>
       </c>
-      <c r="F404" s="9">
+      <c r="F404" s="7">
         <v>0.59</v>
       </c>
       <c r="G404" s="7">
         <v>0</v>
       </c>
-      <c r="H404" s="9">
+      <c r="H404" s="7">
         <v>17</v>
       </c>
     </row>
@@ -11013,19 +10989,19 @@
       <c r="C405" s="6">
         <v>45776</v>
       </c>
-      <c r="D405" s="8">
+      <c r="D405" s="5">
         <v>55</v>
       </c>
-      <c r="E405" s="9">
+      <c r="E405" s="7">
         <v>50.5</v>
       </c>
-      <c r="F405" s="9">
+      <c r="F405" s="7">
         <v>0</v>
       </c>
       <c r="G405" s="7">
         <v>0</v>
       </c>
-      <c r="H405" s="9">
+      <c r="H405" s="7">
         <v>7</v>
       </c>
     </row>
@@ -11039,19 +11015,19 @@
       <c r="C406" s="6">
         <v>45777</v>
       </c>
-      <c r="D406" s="8">
+      <c r="D406" s="5">
         <v>60</v>
       </c>
-      <c r="E406" s="9">
+      <c r="E406" s="7">
         <v>52</v>
       </c>
-      <c r="F406" s="9">
+      <c r="F406" s="7">
         <v>0</v>
       </c>
       <c r="G406" s="7">
         <v>0</v>
       </c>
-      <c r="H406" s="9">
+      <c r="H406" s="7">
         <v>9</v>
       </c>
     </row>
@@ -11065,19 +11041,19 @@
       <c r="C407" s="6">
         <v>45778</v>
       </c>
-      <c r="D407" s="8">
+      <c r="D407" s="5">
         <v>58</v>
       </c>
-      <c r="E407" s="9">
+      <c r="E407" s="7">
         <v>55</v>
       </c>
-      <c r="F407" s="9">
+      <c r="F407" s="7">
         <v>0</v>
       </c>
       <c r="G407" s="7">
         <v>0</v>
       </c>
-      <c r="H407" s="9">
+      <c r="H407" s="7">
         <v>7</v>
       </c>
     </row>
@@ -11091,31 +11067,31 @@
       <c r="C408" s="6">
         <v>45779</v>
       </c>
-      <c r="D408" s="8">
+      <c r="D408" s="5">
         <v>136</v>
       </c>
-      <c r="E408" s="9">
+      <c r="E408" s="7">
         <v>48</v>
       </c>
-      <c r="F408" s="9">
+      <c r="F408" s="7">
         <v>0</v>
       </c>
       <c r="G408" s="7">
         <v>0</v>
       </c>
-      <c r="H408" s="9">
+      <c r="H408" s="7">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="18.75">
       <c r="A409" s="5"/>
-      <c r="B409" s="10"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="10"/>
-      <c r="E409" s="12"/>
-      <c r="F409" s="12"/>
-      <c r="G409" s="12"/>
-      <c r="H409" s="12"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="7"/>
+      <c r="F409" s="7"/>
+      <c r="G409" s="7"/>
+      <c r="H409" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -10470,7 +10470,7 @@
         <v>45756</v>
       </c>
       <c r="D385" s="5">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E385" s="7">
         <v>39.7</v>
@@ -10496,10 +10496,10 @@
         <v>45757</v>
       </c>
       <c r="D386" s="5">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E386" s="7">
-        <v>42.4</v>
+        <v>39.9</v>
       </c>
       <c r="F386" s="7">
         <v>0.12</v>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="H386" s="7">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="18.75">
@@ -10522,10 +10522,10 @@
         <v>45758</v>
       </c>
       <c r="D387" s="5">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E387" s="7">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="F387" s="7">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="H387" s="7">
-        <v>8.9</v>
+        <v>8.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="18.75">
@@ -10548,10 +10548,10 @@
         <v>45759</v>
       </c>
       <c r="D388" s="5">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E388" s="7">
-        <v>48.2</v>
+        <v>50</v>
       </c>
       <c r="F388" s="7">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="H388" s="7">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="18.75">
@@ -10574,10 +10574,10 @@
         <v>45760</v>
       </c>
       <c r="D389" s="5">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E389" s="7">
-        <v>55.2</v>
+        <v>57.7</v>
       </c>
       <c r="F389" s="7">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="H389" s="7">
-        <v>11.4</v>
+        <v>12.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="18.75">
@@ -10600,10 +10600,10 @@
         <v>45761</v>
       </c>
       <c r="D390" s="5">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E390" s="7">
-        <v>56.3</v>
+        <v>56.8</v>
       </c>
       <c r="F390" s="7">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="H390" s="7">
-        <v>12.2</v>
+        <v>14.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="18.75">
@@ -10626,19 +10626,19 @@
         <v>45762</v>
       </c>
       <c r="D391" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E391" s="7">
-        <v>48.9</v>
+        <v>46.8</v>
       </c>
       <c r="F391" s="7">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="G391" s="7">
         <v>0</v>
       </c>
       <c r="H391" s="7">
-        <v>11.7</v>
+        <v>16.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="18.75">
@@ -10652,19 +10652,19 @@
         <v>45763</v>
       </c>
       <c r="D392" s="5">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E392" s="7">
-        <v>48.9</v>
+        <v>45.5</v>
       </c>
       <c r="F392" s="7">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G392" s="7">
         <v>0</v>
       </c>
       <c r="H392" s="7">
-        <v>10.4</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="18.75">
@@ -10678,10 +10678,10 @@
         <v>45764</v>
       </c>
       <c r="D393" s="5">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E393" s="7">
-        <v>50.9</v>
+        <v>54.7</v>
       </c>
       <c r="F393" s="7">
         <v>0</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="H393" s="7">
-        <v>10.7</v>
+        <v>12.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="18.75">
@@ -10707,16 +10707,16 @@
         <v>141</v>
       </c>
       <c r="E394" s="7">
-        <v>56</v>
+        <v>57.6</v>
       </c>
       <c r="F394" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G394" s="7">
         <v>0</v>
       </c>
       <c r="H394" s="7">
-        <v>13</v>
+        <v>10.4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="18.75">
@@ -10733,16 +10733,16 @@
         <v>162</v>
       </c>
       <c r="E395" s="7">
-        <v>55</v>
+        <v>50.9</v>
       </c>
       <c r="F395" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G395" s="7">
         <v>0</v>
       </c>
       <c r="H395" s="7">
-        <v>10</v>
+        <v>9.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="18.75">
@@ -10756,19 +10756,19 @@
         <v>45767</v>
       </c>
       <c r="D396" s="5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E396" s="7">
-        <v>54</v>
+        <v>52.3</v>
       </c>
       <c r="F396" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G396" s="7">
         <v>0</v>
       </c>
       <c r="H396" s="7">
-        <v>10</v>
+        <v>11.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="18.75">
@@ -10782,19 +10782,19 @@
         <v>45768</v>
       </c>
       <c r="D397" s="5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E397" s="7">
-        <v>50.5</v>
+        <v>56.3</v>
       </c>
       <c r="F397" s="7">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="G397" s="7">
         <v>0</v>
       </c>
       <c r="H397" s="7">
-        <v>10</v>
+        <v>10.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="18.75">
@@ -10808,19 +10808,19 @@
         <v>45769</v>
       </c>
       <c r="D398" s="5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E398" s="7">
-        <v>51</v>
+        <v>56.5</v>
       </c>
       <c r="F398" s="7">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G398" s="7">
         <v>0</v>
       </c>
       <c r="H398" s="7">
-        <v>12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="18.75">
@@ -10834,10 +10834,10 @@
         <v>45770</v>
       </c>
       <c r="D399" s="5">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E399" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F399" s="7">
         <v>0</v>
@@ -10860,13 +10860,13 @@
         <v>45771</v>
       </c>
       <c r="D400" s="5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E400" s="7">
         <v>53</v>
       </c>
       <c r="F400" s="7">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="G400" s="7">
         <v>0</v>
@@ -10938,7 +10938,7 @@
         <v>45774</v>
       </c>
       <c r="D403" s="5">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E403" s="7">
         <v>48.5</v>
@@ -10964,7 +10964,7 @@
         <v>45775</v>
       </c>
       <c r="D404" s="5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E404" s="7">
         <v>54.5</v>
@@ -11016,7 +11016,7 @@
         <v>45777</v>
       </c>
       <c r="D406" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E406" s="7">
         <v>52</v>
@@ -11042,7 +11042,7 @@
         <v>45778</v>
       </c>
       <c r="D407" s="5">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E407" s="7">
         <v>55</v>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37401CE-98D9-4049-BE8A-10586E4D0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A063FD1-C2DA-4835-853C-C21E6AE51C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="day">Sheet1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -573,8 +586,8 @@
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H430" sqref="H430"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K438" sqref="K438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12490,7 +12503,7 @@
         <v>45782</v>
       </c>
       <c r="D411" s="9">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E411" s="10">
         <v>52.7</v>
@@ -12519,7 +12532,7 @@
         <v>45783</v>
       </c>
       <c r="D412" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E412" s="10">
         <v>61.7</v>
@@ -12754,7 +12767,7 @@
         <v>87</v>
       </c>
       <c r="E420" s="10">
-        <v>66.2</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="F420" s="10">
         <v>0</v>
@@ -12783,16 +12796,16 @@
         <v>71</v>
       </c>
       <c r="E421" s="10">
-        <v>72.3</v>
+        <v>76.3</v>
       </c>
       <c r="F421" s="10">
-        <v>8.6999999999999994E-2</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="G421" s="10">
         <v>0</v>
       </c>
       <c r="H421" s="10">
-        <v>10.199999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="I421" s="9">
         <v>0</v>
@@ -12809,13 +12822,13 @@
         <v>45793</v>
       </c>
       <c r="D422" s="9">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E422" s="10">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="F422" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G422" s="10">
         <v>0</v>
@@ -12837,20 +12850,20 @@
       <c r="C423" s="7">
         <v>45794</v>
       </c>
-      <c r="D423" s="9">
-        <v>166</v>
+      <c r="D423">
+        <v>197</v>
       </c>
       <c r="E423" s="10">
-        <v>62.4</v>
+        <v>61.2</v>
       </c>
       <c r="F423" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G423" s="10">
         <v>0</v>
       </c>
       <c r="H423" s="10">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="I423" s="9">
         <v>0</v>
@@ -12866,20 +12879,20 @@
       <c r="C424" s="7">
         <v>45795</v>
       </c>
-      <c r="D424" s="9">
-        <v>60</v>
+      <c r="D424">
+        <v>80</v>
       </c>
       <c r="E424" s="10">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F424" s="10">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G424" s="10">
         <v>0</v>
       </c>
       <c r="H424" s="10">
-        <v>9.3000000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="I424" s="9">
         <v>0</v>
@@ -12895,11 +12908,11 @@
       <c r="C425" s="7">
         <v>45796</v>
       </c>
-      <c r="D425" s="9">
-        <v>50</v>
+      <c r="D425">
+        <v>30</v>
       </c>
       <c r="E425" s="10">
-        <v>54.5</v>
+        <v>48.4</v>
       </c>
       <c r="F425" s="10">
         <v>0</v>
@@ -12908,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H425" s="10">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="I425" s="9">
         <v>0</v>
@@ -12924,20 +12937,20 @@
       <c r="C426" s="7">
         <v>45797</v>
       </c>
-      <c r="D426" s="9">
-        <v>51</v>
+      <c r="D426">
+        <v>67</v>
       </c>
       <c r="E426" s="10">
-        <v>57</v>
+        <v>52.5</v>
       </c>
       <c r="F426" s="10">
-        <v>0.33</v>
+        <v>1.083</v>
       </c>
       <c r="G426" s="10">
         <v>0</v>
       </c>
       <c r="H426" s="10">
-        <v>11.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I426" s="9">
         <v>0</v>
@@ -12953,20 +12966,20 @@
       <c r="C427" s="7">
         <v>45798</v>
       </c>
-      <c r="D427" s="9">
-        <v>54</v>
+      <c r="D427">
+        <v>51</v>
       </c>
       <c r="E427" s="10">
-        <v>57.7</v>
+        <v>52.5</v>
       </c>
       <c r="F427" s="10">
-        <v>0.02</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G427" s="10">
         <v>0</v>
       </c>
       <c r="H427" s="10">
-        <v>11.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I427" s="9">
         <v>0</v>
@@ -12982,14 +12995,14 @@
       <c r="C428" s="7">
         <v>45799</v>
       </c>
-      <c r="D428" s="9">
-        <v>68</v>
+      <c r="D428">
+        <v>64</v>
       </c>
       <c r="E428" s="10">
-        <v>58.3</v>
+        <v>50.9</v>
       </c>
       <c r="F428" s="10">
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="G428" s="10">
         <v>0</v>
@@ -13011,20 +13024,20 @@
       <c r="C429" s="7">
         <v>45800</v>
       </c>
-      <c r="D429" s="9">
-        <v>154</v>
+      <c r="D429">
+        <v>143</v>
       </c>
       <c r="E429" s="10">
-        <v>59.7</v>
+        <v>52.7</v>
       </c>
       <c r="F429" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G429" s="10">
         <v>0</v>
       </c>
       <c r="H429" s="10">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="I429" s="9">
         <v>0</v>
@@ -13040,11 +13053,11 @@
       <c r="C430" s="7">
         <v>45801</v>
       </c>
-      <c r="D430" s="9">
-        <v>171</v>
+      <c r="D430">
+        <v>165</v>
       </c>
       <c r="E430" s="10">
-        <v>62</v>
+        <v>54.5</v>
       </c>
       <c r="F430" s="10">
         <v>0</v>
@@ -13053,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="H430" s="10">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="I430" s="9">
         <v>0</v>
@@ -13069,11 +13082,11 @@
       <c r="C431" s="7">
         <v>45802</v>
       </c>
-      <c r="D431" s="9">
-        <v>70</v>
+      <c r="D431">
+        <v>71</v>
       </c>
       <c r="E431" s="10">
-        <v>65</v>
+        <v>56.3</v>
       </c>
       <c r="F431" s="10">
         <v>0</v>
@@ -13082,7 +13095,7 @@
         <v>0</v>
       </c>
       <c r="H431" s="10">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="I431" s="9">
         <v>0</v>
@@ -13098,20 +13111,20 @@
       <c r="C432" s="7">
         <v>45803</v>
       </c>
-      <c r="D432" s="9">
-        <v>55</v>
+      <c r="D432">
+        <v>54</v>
       </c>
       <c r="E432" s="10">
-        <v>66</v>
+        <v>58.5</v>
       </c>
       <c r="F432" s="10">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G432" s="10">
         <v>0</v>
       </c>
       <c r="H432" s="10">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="I432" s="9" t="s">
         <v>14</v>
@@ -13127,20 +13140,20 @@
       <c r="C433" s="7">
         <v>45804</v>
       </c>
-      <c r="D433" s="9">
-        <v>52</v>
+      <c r="D433">
+        <v>65</v>
       </c>
       <c r="E433" s="10">
-        <v>60</v>
+        <v>61.3</v>
       </c>
       <c r="F433" s="10">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G433" s="10">
         <v>0</v>
       </c>
       <c r="H433" s="10">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="I433" s="9">
         <v>0</v>
@@ -13156,20 +13169,20 @@
       <c r="C434" s="7">
         <v>45805</v>
       </c>
-      <c r="D434" s="9">
-        <v>67</v>
+      <c r="D434">
+        <v>68</v>
       </c>
       <c r="E434" s="10">
-        <v>59</v>
+        <v>63.9</v>
       </c>
       <c r="F434" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G434" s="10">
         <v>0</v>
       </c>
       <c r="H434" s="10">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="I434" s="9">
         <v>0</v>
@@ -13185,11 +13198,11 @@
       <c r="C435" s="7">
         <v>45806</v>
       </c>
-      <c r="D435" s="9">
-        <v>65</v>
+      <c r="D435">
+        <v>83</v>
       </c>
       <c r="E435" s="10">
-        <v>58</v>
+        <v>64.8</v>
       </c>
       <c r="F435" s="10">
         <v>0</v>
@@ -13198,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="10">
-        <v>7</v>
+        <v>9.1</v>
       </c>
       <c r="I435" s="9">
         <v>0</v>
@@ -13214,14 +13227,14 @@
       <c r="C436" s="7">
         <v>45807</v>
       </c>
-      <c r="D436" s="9">
-        <v>135</v>
+      <c r="D436">
+        <v>149</v>
       </c>
       <c r="E436" s="10">
         <v>58</v>
       </c>
       <c r="F436" s="10">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G436" s="10">
         <v>0</v>
@@ -13243,14 +13256,14 @@
       <c r="C437" s="7">
         <v>45808</v>
       </c>
-      <c r="D437" s="9">
-        <v>172</v>
+      <c r="D437">
+        <v>165</v>
       </c>
       <c r="E437" s="10">
         <v>60</v>
       </c>
       <c r="F437" s="10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G437" s="10">
         <v>0</v>
@@ -13272,14 +13285,14 @@
       <c r="C438" s="7">
         <v>45809</v>
       </c>
-      <c r="D438" s="9">
-        <v>61</v>
+      <c r="D438">
+        <v>62</v>
       </c>
       <c r="E438" s="10">
         <v>62</v>
       </c>
       <c r="F438" s="10">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G438" s="10">
         <v>0</v>
@@ -13301,8 +13314,8 @@
       <c r="C439" s="7">
         <v>45810</v>
       </c>
-      <c r="D439" s="9">
-        <v>44</v>
+      <c r="D439">
+        <v>45</v>
       </c>
       <c r="E439" s="10">
         <v>63</v>
@@ -13330,14 +13343,14 @@
       <c r="C440" s="7">
         <v>45811</v>
       </c>
-      <c r="D440" s="9">
-        <v>65</v>
+      <c r="D440">
+        <v>64</v>
       </c>
       <c r="E440" s="10">
         <v>63</v>
       </c>
       <c r="F440" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G440" s="10">
         <v>0</v>
@@ -13359,14 +13372,14 @@
       <c r="C441" s="7">
         <v>45812</v>
       </c>
-      <c r="D441" s="9">
-        <v>64</v>
+      <c r="D441">
+        <v>68</v>
       </c>
       <c r="E441" s="10">
         <v>64</v>
       </c>
       <c r="F441" s="10">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G441" s="10">
         <v>0</v>
@@ -13388,14 +13401,14 @@
       <c r="C442" s="7">
         <v>45813</v>
       </c>
-      <c r="D442" s="9">
-        <v>74</v>
+      <c r="D442">
+        <v>88</v>
       </c>
       <c r="E442" s="10">
         <v>63</v>
       </c>
       <c r="F442" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G442" s="10">
         <v>0</v>
@@ -13417,14 +13430,14 @@
       <c r="C443" s="7">
         <v>45814</v>
       </c>
-      <c r="D443" s="9">
-        <v>160</v>
+      <c r="D443">
+        <v>136</v>
       </c>
       <c r="E443" s="10">
         <v>61</v>
       </c>
       <c r="F443" s="10">
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="G443" s="10">
         <v>0</v>
@@ -13446,14 +13459,14 @@
       <c r="C444" s="7">
         <v>45815</v>
       </c>
-      <c r="D444" s="9">
-        <v>171</v>
+      <c r="D444">
+        <v>176</v>
       </c>
       <c r="E444" s="10">
         <v>60</v>
       </c>
       <c r="F444" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G444" s="10">
         <v>0</v>
@@ -13475,8 +13488,8 @@
       <c r="C445" s="7">
         <v>45816</v>
       </c>
-      <c r="D445" s="9">
-        <v>58</v>
+      <c r="D445">
+        <v>67</v>
       </c>
       <c r="E445" s="10">
         <v>61</v>
@@ -13504,8 +13517,8 @@
       <c r="C446" s="7">
         <v>45817</v>
       </c>
-      <c r="D446" s="9">
-        <v>55</v>
+      <c r="D446">
+        <v>63</v>
       </c>
       <c r="E446" s="10">
         <v>61</v>
@@ -13533,8 +13546,8 @@
       <c r="C447" s="7">
         <v>45818</v>
       </c>
-      <c r="D447" s="9">
-        <v>69</v>
+      <c r="D447">
+        <v>62</v>
       </c>
       <c r="E447" s="10">
         <v>61</v>
@@ -13562,14 +13575,14 @@
       <c r="C448" s="7">
         <v>45819</v>
       </c>
-      <c r="D448" s="9">
-        <v>62</v>
+      <c r="D448">
+        <v>54</v>
       </c>
       <c r="E448" s="10">
         <v>63</v>
       </c>
       <c r="F448" s="10">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G448" s="10">
         <v>0</v>
@@ -13591,14 +13604,14 @@
       <c r="C449" s="7">
         <v>45820</v>
       </c>
-      <c r="D449" s="9">
-        <v>81</v>
+      <c r="D449">
+        <v>87</v>
       </c>
       <c r="E449" s="10">
         <v>69</v>
       </c>
       <c r="F449" s="10">
-        <v>0.04</v>
+        <v>0.49</v>
       </c>
       <c r="G449" s="10">
         <v>0</v>
@@ -13620,14 +13633,14 @@
       <c r="C450" s="7">
         <v>45821</v>
       </c>
-      <c r="D450" s="9">
-        <v>161</v>
+      <c r="D450">
+        <v>142</v>
       </c>
       <c r="E450" s="10">
         <v>66</v>
       </c>
       <c r="F450" s="10">
-        <v>0.13</v>
+        <v>0.4</v>
       </c>
       <c r="G450" s="10">
         <v>0</v>
@@ -13649,14 +13662,14 @@
       <c r="C451" s="7">
         <v>45822</v>
       </c>
-      <c r="D451" s="9">
-        <v>170</v>
+      <c r="D451">
+        <v>181</v>
       </c>
       <c r="E451" s="10">
         <v>69</v>
       </c>
       <c r="F451" s="10">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G451" s="10">
         <v>0</v>
@@ -13678,14 +13691,14 @@
       <c r="C452" s="7">
         <v>45823</v>
       </c>
-      <c r="D452" s="9">
-        <v>74</v>
+      <c r="D452">
+        <v>69</v>
       </c>
       <c r="E452" s="10">
         <v>67</v>
       </c>
       <c r="F452" s="10">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G452" s="10">
         <v>0</v>
@@ -13707,8 +13720,8 @@
       <c r="C453" s="7">
         <v>45824</v>
       </c>
-      <c r="D453" s="9">
-        <v>55</v>
+      <c r="D453">
+        <v>67</v>
       </c>
       <c r="E453" s="10">
         <v>63</v>
@@ -13736,8 +13749,8 @@
       <c r="C454" s="7">
         <v>45825</v>
       </c>
-      <c r="D454" s="9">
-        <v>70</v>
+      <c r="D454">
+        <v>69</v>
       </c>
       <c r="E454" s="10">
         <v>70</v>
@@ -13765,14 +13778,14 @@
       <c r="C455" s="7">
         <v>45826</v>
       </c>
-      <c r="D455" s="9">
-        <v>79</v>
+      <c r="D455">
+        <v>72</v>
       </c>
       <c r="E455" s="10">
         <v>70</v>
       </c>
       <c r="F455" s="10">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="G455" s="10">
         <v>0</v>
@@ -13794,14 +13807,14 @@
       <c r="C456" s="7">
         <v>45827</v>
       </c>
-      <c r="D456" s="9">
-        <v>85</v>
+      <c r="D456">
+        <v>90</v>
       </c>
       <c r="E456" s="10">
         <v>70</v>
       </c>
       <c r="F456" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G456" s="10">
         <v>0</v>
@@ -13823,14 +13836,14 @@
       <c r="C457" s="7">
         <v>45828</v>
       </c>
-      <c r="D457" s="9">
-        <v>162</v>
+      <c r="D457">
+        <v>177</v>
       </c>
       <c r="E457" s="10">
         <v>69</v>
       </c>
       <c r="F457" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G457" s="10">
         <v>0</v>
@@ -13852,14 +13865,14 @@
       <c r="C458" s="7">
         <v>45829</v>
       </c>
-      <c r="D458" s="9">
+      <c r="D458">
         <v>186</v>
       </c>
       <c r="E458" s="10">
         <v>71</v>
       </c>
       <c r="F458" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G458" s="10">
         <v>0</v>
@@ -13881,14 +13894,14 @@
       <c r="C459" s="7">
         <v>45830</v>
       </c>
-      <c r="D459" s="9">
-        <v>90</v>
+      <c r="D459">
+        <v>84</v>
       </c>
       <c r="E459" s="10">
         <v>74</v>
       </c>
       <c r="F459" s="10">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="G459" s="10">
         <v>0</v>
@@ -13910,14 +13923,14 @@
       <c r="C460" s="7">
         <v>45831</v>
       </c>
-      <c r="D460" s="9">
-        <v>88</v>
+      <c r="D460">
+        <v>64</v>
       </c>
       <c r="E460" s="10">
         <v>75</v>
       </c>
       <c r="F460" s="10">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="G460" s="10">
         <v>0</v>
@@ -13939,8 +13952,8 @@
       <c r="C461" s="7">
         <v>45832</v>
       </c>
-      <c r="D461" s="9">
-        <v>74</v>
+      <c r="D461">
+        <v>73</v>
       </c>
       <c r="E461" s="10">
         <v>75</v>
@@ -13968,8 +13981,8 @@
       <c r="C462" s="7">
         <v>45833</v>
       </c>
-      <c r="D462" s="9">
-        <v>77</v>
+      <c r="D462">
+        <v>78</v>
       </c>
       <c r="E462" s="10">
         <v>76</v>
@@ -13997,14 +14010,14 @@
       <c r="C463" s="7">
         <v>45834</v>
       </c>
-      <c r="D463" s="9">
-        <v>77</v>
+      <c r="D463">
+        <v>80</v>
       </c>
       <c r="E463" s="10">
         <v>76</v>
       </c>
       <c r="F463" s="10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G463" s="10">
         <v>0</v>
@@ -14026,14 +14039,14 @@
       <c r="C464" s="7">
         <v>45835</v>
       </c>
-      <c r="D464" s="9">
+      <c r="D464">
         <v>174</v>
       </c>
       <c r="E464" s="10">
         <v>75</v>
       </c>
       <c r="F464" s="10">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G464" s="10">
         <v>0</v>
@@ -14055,14 +14068,14 @@
       <c r="C465" s="7">
         <v>45836</v>
       </c>
-      <c r="D465" s="9">
-        <v>149</v>
+      <c r="D465">
+        <v>169</v>
       </c>
       <c r="E465" s="10">
         <v>71</v>
       </c>
       <c r="F465" s="10">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G465" s="10">
         <v>0</v>
@@ -14084,14 +14097,14 @@
       <c r="C466" s="7">
         <v>45837</v>
       </c>
-      <c r="D466" s="9">
-        <v>74</v>
+      <c r="D466">
+        <v>62</v>
       </c>
       <c r="E466" s="10">
         <v>71</v>
       </c>
       <c r="F466" s="10">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="G466" s="10">
         <v>0</v>
@@ -14113,14 +14126,14 @@
       <c r="C467" s="7">
         <v>45838</v>
       </c>
-      <c r="D467" s="9">
-        <v>67</v>
+      <c r="D467">
+        <v>60</v>
       </c>
       <c r="E467" s="10">
         <v>73</v>
       </c>
       <c r="F467" s="10">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G467" s="10">
         <v>0</v>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A063FD1-C2DA-4835-853C-C21E6AE51C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B7CBB-EEF1-4FD2-BD01-BAAEA880C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>holiday</t>
   </si>
   <si>
-    <t>lent Friday</t>
-  </si>
-  <si>
     <t>good friday</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>columbus day</t>
   </si>
   <si>
-    <t>Diwali</t>
-  </si>
-  <si>
     <t>election day</t>
   </si>
   <si>
@@ -113,16 +107,10 @@
     <t>thanksgiving</t>
   </si>
   <si>
-    <t>black Friday</t>
-  </si>
-  <si>
     <t>christmas eve</t>
   </si>
   <si>
     <t>christmas day</t>
-  </si>
-  <si>
-    <t>Hanukkah</t>
   </si>
   <si>
     <t>new years eve</t>
@@ -146,10 +134,22 @@
     <t>ramadan</t>
   </si>
   <si>
-    <t>ash Wednesday</t>
+    <t>st patricks day</t>
   </si>
   <si>
-    <t>st patricks day</t>
+    <t>lent friday</t>
+  </si>
+  <si>
+    <t>diwali, halloween</t>
+  </si>
+  <si>
+    <t>black friday</t>
+  </si>
+  <si>
+    <t>hanukkah</t>
+  </si>
+  <si>
+    <t>ash wednesday</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -278,6 +278,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,9 +586,9 @@
   </sheetPr>
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K438" sqref="K438"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D438" sqref="D438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +656,7 @@
         <v>10.5</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,9 +684,7 @@
       <c r="H3" s="8">
         <v>11.9</v>
       </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -712,9 +711,7 @@
       <c r="H4" s="8">
         <v>14.3</v>
       </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -741,9 +738,7 @@
       <c r="H5" s="8">
         <v>11.9</v>
       </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -770,9 +765,7 @@
       <c r="H6" s="8">
         <v>19.3</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -799,9 +792,7 @@
       <c r="H7" s="8">
         <v>12.7</v>
       </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -828,9 +819,7 @@
       <c r="H8" s="8">
         <v>7.1</v>
       </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -858,7 +847,7 @@
         <v>7.6</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,9 +875,7 @@
       <c r="H10" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -916,7 +903,7 @@
         <v>10.5</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -946,9 +933,7 @@
       <c r="H12" s="8">
         <v>14.3</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
+      <c r="I12"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -975,9 +960,7 @@
       <c r="H13" s="8">
         <v>14.1</v>
       </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
+      <c r="I13"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1004,9 +987,7 @@
       <c r="H14" s="8">
         <v>14.1</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1033,9 +1014,7 @@
       <c r="H15" s="8">
         <v>13.7</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
+      <c r="I15"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1062,9 +1041,7 @@
       <c r="H16" s="8">
         <v>10.5</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
+      <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -1091,9 +1068,7 @@
       <c r="H17" s="8">
         <v>7.6</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
+      <c r="I17"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1120,9 +1095,7 @@
       <c r="H18" s="8">
         <v>10.5</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
+      <c r="I18"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1149,9 +1122,7 @@
       <c r="H19" s="8">
         <v>11.2</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
+      <c r="I19"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1178,9 +1149,7 @@
       <c r="H20" s="8">
         <v>8.5</v>
       </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
+      <c r="I20"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -1207,9 +1176,7 @@
       <c r="H21" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
+      <c r="I21"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -1236,9 +1203,7 @@
       <c r="H22" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
+      <c r="I22"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -1265,9 +1230,7 @@
       <c r="H23" s="8">
         <v>13.4</v>
       </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
+      <c r="I23"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -1294,9 +1257,7 @@
       <c r="H24" s="8">
         <v>9.6</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
+      <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -1323,9 +1284,7 @@
       <c r="H25" s="8">
         <v>11.4</v>
       </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
+      <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -1352,9 +1311,7 @@
       <c r="H26" s="8">
         <v>7.8</v>
       </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
+      <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -1381,9 +1338,7 @@
       <c r="H27" s="8">
         <v>13.9</v>
       </c>
-      <c r="I27" s="9">
-        <v>0</v>
-      </c>
+      <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -1410,9 +1365,7 @@
       <c r="H28" s="8">
         <v>17.2</v>
       </c>
-      <c r="I28" s="9">
-        <v>0</v>
-      </c>
+      <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -1439,9 +1392,7 @@
       <c r="H29" s="8">
         <v>7.4</v>
       </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
+      <c r="I29"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -1468,9 +1419,7 @@
       <c r="H30" s="8">
         <v>16.3</v>
       </c>
-      <c r="I30" s="9">
-        <v>0</v>
-      </c>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -1497,9 +1446,7 @@
       <c r="H31" s="8">
         <v>11.9</v>
       </c>
-      <c r="I31" s="9">
-        <v>0</v>
-      </c>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -1526,9 +1473,7 @@
       <c r="H32" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I32" s="9">
-        <v>0</v>
-      </c>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -1555,9 +1500,7 @@
       <c r="H33" s="8">
         <v>13.7</v>
       </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
+      <c r="I33"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -1584,9 +1527,7 @@
       <c r="H34" s="8">
         <v>15.9</v>
       </c>
-      <c r="I34" s="9">
-        <v>0</v>
-      </c>
+      <c r="I34"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -1613,9 +1554,7 @@
       <c r="H35" s="8">
         <v>13.4</v>
       </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
+      <c r="I35"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
@@ -1642,9 +1581,7 @@
       <c r="H36" s="8">
         <v>6</v>
       </c>
-      <c r="I36" s="9">
-        <v>0</v>
-      </c>
+      <c r="I36"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -1671,9 +1608,7 @@
       <c r="H37" s="8">
         <v>13.4</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
+      <c r="I37"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -1700,9 +1635,7 @@
       <c r="H38" s="8">
         <v>15.7</v>
       </c>
-      <c r="I38" s="9">
-        <v>0</v>
-      </c>
+      <c r="I38"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -1729,9 +1662,7 @@
       <c r="H39" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -1758,9 +1689,7 @@
       <c r="H40" s="8">
         <v>10.5</v>
       </c>
-      <c r="I40" s="9">
-        <v>0</v>
-      </c>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -1787,9 +1716,7 @@
       <c r="H41" s="8">
         <v>7.6</v>
       </c>
-      <c r="I41" s="9">
-        <v>0</v>
-      </c>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -1816,9 +1743,7 @@
       <c r="H42" s="8">
         <v>10.5</v>
       </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -1845,9 +1770,7 @@
       <c r="H43" s="8">
         <v>8.9</v>
       </c>
-      <c r="I43" s="9">
-        <v>0</v>
-      </c>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -1874,9 +1797,7 @@
       <c r="H44" s="8">
         <v>7.8</v>
       </c>
-      <c r="I44" s="9">
-        <v>0</v>
-      </c>
+      <c r="I44"/>
     </row>
     <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
@@ -1903,9 +1824,7 @@
       <c r="H45" s="8">
         <v>8.5</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
+      <c r="I45"/>
     </row>
     <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
@@ -1933,7 +1852,7 @@
         <v>8.1</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,9 +1880,7 @@
       <c r="H47" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
+      <c r="I47"/>
     </row>
     <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -1990,9 +1907,7 @@
       <c r="H48" s="8">
         <v>10.1</v>
       </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
+      <c r="I48"/>
     </row>
     <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -2019,9 +1934,7 @@
       <c r="H49" s="8">
         <v>7.1</v>
       </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
+      <c r="I49"/>
     </row>
     <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
@@ -2048,9 +1961,7 @@
       <c r="H50" s="8">
         <v>11.4</v>
       </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
+      <c r="I50"/>
     </row>
     <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
@@ -2077,9 +1988,7 @@
       <c r="H51" s="8">
         <v>8.5</v>
       </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
+      <c r="I51"/>
     </row>
     <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -2106,9 +2015,7 @@
       <c r="H52" s="8">
         <v>9.6</v>
       </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
+      <c r="I52"/>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -2136,7 +2043,7 @@
         <v>9.4</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,9 +2071,7 @@
       <c r="H54" s="8">
         <v>8.5</v>
       </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
+      <c r="I54"/>
     </row>
     <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -2193,9 +2098,7 @@
       <c r="H55" s="8">
         <v>14.3</v>
       </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
+      <c r="I55"/>
     </row>
     <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -2222,9 +2125,7 @@
       <c r="H56" s="8">
         <v>11.9</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
+      <c r="I56"/>
     </row>
     <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
@@ -2251,9 +2152,7 @@
       <c r="H57" s="8">
         <v>7.1</v>
       </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
+      <c r="I57"/>
     </row>
     <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
@@ -2280,9 +2179,7 @@
       <c r="H58" s="8">
         <v>5.3</v>
       </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
+      <c r="I58"/>
     </row>
     <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
@@ -2309,9 +2206,7 @@
       <c r="H59" s="8">
         <v>6</v>
       </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
+      <c r="I59"/>
     </row>
     <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
@@ -2338,9 +2233,7 @@
       <c r="H60" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
+      <c r="I60"/>
     </row>
     <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
@@ -2367,9 +2260,7 @@
       <c r="H61" s="8">
         <v>10.5</v>
       </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
+      <c r="I61"/>
     </row>
     <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
@@ -2396,9 +2287,7 @@
       <c r="H62" s="8">
         <v>15.2</v>
       </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
+      <c r="I62"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
@@ -2425,9 +2314,7 @@
       <c r="H63" s="8">
         <v>14.8</v>
       </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
+      <c r="I63"/>
     </row>
     <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -2454,9 +2341,7 @@
       <c r="H64" s="8">
         <v>5.8</v>
       </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
+      <c r="I64"/>
     </row>
     <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
@@ -2483,9 +2368,7 @@
       <c r="H65" s="8">
         <v>10.1</v>
       </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
+      <c r="I65"/>
     </row>
     <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
@@ -2512,9 +2395,7 @@
       <c r="H66" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
+      <c r="I66"/>
     </row>
     <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -2541,9 +2422,7 @@
       <c r="H67" s="8">
         <v>8.9</v>
       </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
+      <c r="I67"/>
     </row>
     <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
@@ -2571,7 +2450,7 @@
         <v>11.2</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,9 +2478,7 @@
       <c r="H69" s="8">
         <v>7.8</v>
       </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
+      <c r="I69"/>
     </row>
     <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
@@ -2628,9 +2505,7 @@
       <c r="H70" s="8">
         <v>10.9</v>
       </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
+      <c r="I70"/>
     </row>
     <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
@@ -2657,9 +2532,7 @@
       <c r="H71" s="8">
         <v>7.1</v>
       </c>
-      <c r="I71" s="9">
-        <v>0</v>
-      </c>
+      <c r="I71"/>
     </row>
     <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
@@ -2686,9 +2559,7 @@
       <c r="H72" s="8">
         <v>7.1</v>
       </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
+      <c r="I72"/>
     </row>
     <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
@@ -2715,9 +2586,7 @@
       <c r="H73" s="8">
         <v>7</v>
       </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
+      <c r="I73"/>
     </row>
     <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
@@ -2744,9 +2613,7 @@
       <c r="H74" s="8">
         <v>6.7</v>
       </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
+      <c r="I74"/>
     </row>
     <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
@@ -2773,9 +2640,7 @@
       <c r="H75" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I75" s="9">
-        <v>0</v>
-      </c>
+      <c r="I75"/>
     </row>
     <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
@@ -2802,9 +2667,7 @@
       <c r="H76" s="8">
         <v>8.1</v>
       </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
+      <c r="I76"/>
     </row>
     <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
@@ -2831,9 +2694,7 @@
       <c r="H77" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
+      <c r="I77"/>
     </row>
     <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
@@ -2860,9 +2721,7 @@
       <c r="H78" s="8">
         <v>14.1</v>
       </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
+      <c r="I78"/>
     </row>
     <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
@@ -2889,9 +2748,7 @@
       <c r="H79" s="8">
         <v>10.9</v>
       </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
+      <c r="I79"/>
     </row>
     <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
@@ -2918,9 +2775,7 @@
       <c r="H80" s="8">
         <v>6.7</v>
       </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
@@ -2947,9 +2802,7 @@
       <c r="H81" s="8">
         <v>13</v>
       </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
+      <c r="I81"/>
     </row>
     <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
@@ -2976,9 +2829,7 @@
       <c r="H82" s="8">
         <v>10.5</v>
       </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
+      <c r="I82"/>
     </row>
     <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
@@ -3005,9 +2856,7 @@
       <c r="H83" s="8">
         <v>5.6</v>
       </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
+      <c r="I83"/>
     </row>
     <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -3034,9 +2883,7 @@
       <c r="H84" s="8">
         <v>8.1</v>
       </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
+      <c r="I84"/>
     </row>
     <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
@@ -3063,9 +2910,7 @@
       <c r="H85" s="8">
         <v>9.6</v>
       </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
+      <c r="I85"/>
     </row>
     <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
@@ -3092,9 +2937,7 @@
       <c r="H86" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
+      <c r="I86"/>
     </row>
     <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
@@ -3121,9 +2964,7 @@
       <c r="H87" s="8">
         <v>10.1</v>
       </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
+      <c r="I87"/>
     </row>
     <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
@@ -3151,7 +2992,7 @@
         <v>12.6</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,9 +3020,7 @@
       <c r="H89" s="8">
         <v>12.3</v>
       </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
+      <c r="I89"/>
     </row>
     <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
@@ -3208,9 +3047,7 @@
       <c r="H90" s="8">
         <v>15.4</v>
       </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
+      <c r="I90"/>
     </row>
     <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
@@ -3238,7 +3075,7 @@
         <v>9.6</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,9 +3103,7 @@
       <c r="H92" s="8">
         <v>8.5</v>
       </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
+      <c r="I92"/>
     </row>
     <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
@@ -3295,9 +3130,7 @@
       <c r="H93" s="8">
         <v>6</v>
       </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
+      <c r="I93"/>
     </row>
     <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
@@ -3324,9 +3157,7 @@
       <c r="H94" s="8">
         <v>14.1</v>
       </c>
-      <c r="I94" s="9">
-        <v>0</v>
-      </c>
+      <c r="I94"/>
     </row>
     <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
@@ -3353,9 +3184,7 @@
       <c r="H95" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I95" s="9">
-        <v>0</v>
-      </c>
+      <c r="I95"/>
     </row>
     <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
@@ -3382,9 +3211,7 @@
       <c r="H96" s="8">
         <v>5.6</v>
       </c>
-      <c r="I96" s="9">
-        <v>0</v>
-      </c>
+      <c r="I96"/>
     </row>
     <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
@@ -3411,9 +3238,7 @@
       <c r="H97" s="8">
         <v>13.4</v>
       </c>
-      <c r="I97" s="9">
-        <v>0</v>
-      </c>
+      <c r="I97"/>
     </row>
     <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
@@ -3440,9 +3265,7 @@
       <c r="H98" s="8">
         <v>9.6</v>
       </c>
-      <c r="I98" s="9">
-        <v>0</v>
-      </c>
+      <c r="I98"/>
     </row>
     <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
@@ -3469,9 +3292,7 @@
       <c r="H99" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I99" s="9">
-        <v>0</v>
-      </c>
+      <c r="I99"/>
     </row>
     <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
@@ -3498,9 +3319,7 @@
       <c r="H100" s="8">
         <v>7.1</v>
       </c>
-      <c r="I100" s="9">
-        <v>0</v>
-      </c>
+      <c r="I100"/>
     </row>
     <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
@@ -3527,9 +3346,7 @@
       <c r="H101" s="8">
         <v>10.5</v>
       </c>
-      <c r="I101" s="9">
-        <v>0</v>
-      </c>
+      <c r="I101"/>
     </row>
     <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
@@ -3556,9 +3373,7 @@
       <c r="H102" s="8">
         <v>12.1</v>
       </c>
-      <c r="I102" s="9">
-        <v>0</v>
-      </c>
+      <c r="I102"/>
     </row>
     <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
@@ -3585,9 +3400,7 @@
       <c r="H103" s="8">
         <v>7.4</v>
       </c>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
+      <c r="I103"/>
     </row>
     <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
@@ -3614,9 +3427,7 @@
       <c r="H104" s="8">
         <v>11.4</v>
       </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
+      <c r="I104"/>
     </row>
     <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
@@ -3643,9 +3454,7 @@
       <c r="H105" s="8">
         <v>7.6</v>
       </c>
-      <c r="I105" s="9">
-        <v>0</v>
-      </c>
+      <c r="I105"/>
     </row>
     <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
@@ -3673,7 +3482,7 @@
         <v>3.1</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,9 +3510,7 @@
       <c r="H107" s="8">
         <v>11.2</v>
       </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
+      <c r="I107"/>
     </row>
     <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
@@ -3730,9 +3537,7 @@
       <c r="H108" s="8">
         <v>5.3</v>
       </c>
-      <c r="I108" s="9">
-        <v>0</v>
-      </c>
+      <c r="I108"/>
     </row>
     <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
@@ -3759,9 +3564,7 @@
       <c r="H109" s="8">
         <v>7.4</v>
       </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
+      <c r="I109"/>
     </row>
     <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
@@ -3788,9 +3591,7 @@
       <c r="H110" s="8">
         <v>7.8</v>
       </c>
-      <c r="I110" s="9">
-        <v>0</v>
-      </c>
+      <c r="I110"/>
     </row>
     <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
@@ -3817,9 +3618,7 @@
       <c r="H111" s="8">
         <v>5.2</v>
       </c>
-      <c r="I111" s="9">
-        <v>0</v>
-      </c>
+      <c r="I111"/>
     </row>
     <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
@@ -3846,9 +3645,7 @@
       <c r="H112" s="8">
         <v>7.8</v>
       </c>
-      <c r="I112" s="9">
-        <v>0</v>
-      </c>
+      <c r="I112"/>
     </row>
     <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
@@ -3875,9 +3672,7 @@
       <c r="H113" s="8">
         <v>7</v>
       </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
+      <c r="I113"/>
     </row>
     <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
@@ -3904,9 +3699,7 @@
       <c r="H114" s="8">
         <v>6</v>
       </c>
-      <c r="I114" s="9">
-        <v>0</v>
-      </c>
+      <c r="I114"/>
     </row>
     <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
@@ -3933,9 +3726,7 @@
       <c r="H115" s="8">
         <v>7.6</v>
       </c>
-      <c r="I115" s="9">
-        <v>0</v>
-      </c>
+      <c r="I115"/>
     </row>
     <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
@@ -3962,9 +3753,7 @@
       <c r="H116" s="8">
         <v>8.9</v>
       </c>
-      <c r="I116" s="9">
-        <v>0</v>
-      </c>
+      <c r="I116"/>
     </row>
     <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
@@ -3991,9 +3780,7 @@
       <c r="H117" s="8">
         <v>8.1</v>
       </c>
-      <c r="I117" s="9">
-        <v>0</v>
-      </c>
+      <c r="I117"/>
     </row>
     <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
@@ -4020,9 +3807,7 @@
       <c r="H118" s="8">
         <v>8.1</v>
       </c>
-      <c r="I118" s="9">
-        <v>0</v>
-      </c>
+      <c r="I118"/>
     </row>
     <row r="119" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
@@ -4049,9 +3834,7 @@
       <c r="H119" s="8">
         <v>10.9</v>
       </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
+      <c r="I119"/>
     </row>
     <row r="120" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
@@ -4078,9 +3861,7 @@
       <c r="H120" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I120" s="9">
-        <v>0</v>
-      </c>
+      <c r="I120"/>
     </row>
     <row r="121" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
@@ -4107,9 +3888,7 @@
       <c r="H121" s="8">
         <v>6.3</v>
       </c>
-      <c r="I121" s="9">
-        <v>0</v>
-      </c>
+      <c r="I121"/>
     </row>
     <row r="122" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
@@ -4136,9 +3915,7 @@
       <c r="H122" s="8">
         <v>3.8</v>
       </c>
-      <c r="I122" s="9">
-        <v>0</v>
-      </c>
+      <c r="I122"/>
     </row>
     <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
@@ -4165,9 +3942,7 @@
       <c r="H123" s="8">
         <v>4.5</v>
       </c>
-      <c r="I123" s="9">
-        <v>0</v>
-      </c>
+      <c r="I123"/>
     </row>
     <row r="124" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
@@ -4194,9 +3969,7 @@
       <c r="H124" s="8">
         <v>4</v>
       </c>
-      <c r="I124" s="9">
-        <v>0</v>
-      </c>
+      <c r="I124"/>
     </row>
     <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
@@ -4223,9 +3996,7 @@
       <c r="H125" s="8">
         <v>6.5</v>
       </c>
-      <c r="I125" s="9">
-        <v>0</v>
-      </c>
+      <c r="I125"/>
     </row>
     <row r="126" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
@@ -4252,9 +4023,7 @@
       <c r="H126" s="8">
         <v>6.7</v>
       </c>
-      <c r="I126" s="9">
-        <v>0</v>
-      </c>
+      <c r="I126"/>
     </row>
     <row r="127" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
@@ -4281,9 +4050,7 @@
       <c r="H127" s="8">
         <v>7.4</v>
       </c>
-      <c r="I127" s="9">
-        <v>0</v>
-      </c>
+      <c r="I127"/>
     </row>
     <row r="128" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
@@ -4310,9 +4077,7 @@
       <c r="H128" s="8">
         <v>5.8</v>
       </c>
-      <c r="I128" s="9">
-        <v>0</v>
-      </c>
+      <c r="I128"/>
     </row>
     <row r="129" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
@@ -4339,9 +4104,7 @@
       <c r="H129" s="8">
         <v>6</v>
       </c>
-      <c r="I129" s="9">
-        <v>0</v>
-      </c>
+      <c r="I129"/>
     </row>
     <row r="130" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
@@ -4368,9 +4131,7 @@
       <c r="H130" s="8">
         <v>7.8</v>
       </c>
-      <c r="I130" s="9">
-        <v>0</v>
-      </c>
+      <c r="I130"/>
     </row>
     <row r="131" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
@@ -4397,9 +4158,7 @@
       <c r="H131" s="8">
         <v>6.7</v>
       </c>
-      <c r="I131" s="9">
-        <v>0</v>
-      </c>
+      <c r="I131"/>
     </row>
     <row r="132" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
@@ -4426,9 +4185,7 @@
       <c r="H132" s="8">
         <v>4.2</v>
       </c>
-      <c r="I132" s="9">
-        <v>0</v>
-      </c>
+      <c r="I132"/>
     </row>
     <row r="133" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
@@ -4455,9 +4212,7 @@
       <c r="H133" s="8">
         <v>5.2</v>
       </c>
-      <c r="I133" s="9">
-        <v>0</v>
-      </c>
+      <c r="I133"/>
     </row>
     <row r="134" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
@@ -4484,9 +4239,7 @@
       <c r="H134" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I134" s="9">
-        <v>0</v>
-      </c>
+      <c r="I134"/>
     </row>
     <row r="135" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
@@ -4513,9 +4266,7 @@
       <c r="H135" s="8">
         <v>8.1</v>
       </c>
-      <c r="I135" s="9">
-        <v>0</v>
-      </c>
+      <c r="I135"/>
     </row>
     <row r="136" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
@@ -4542,9 +4293,7 @@
       <c r="H136" s="8">
         <v>6</v>
       </c>
-      <c r="I136" s="9">
-        <v>0</v>
-      </c>
+      <c r="I136"/>
     </row>
     <row r="137" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
@@ -4571,9 +4320,7 @@
       <c r="H137" s="8">
         <v>4.7</v>
       </c>
-      <c r="I137" s="9">
-        <v>0</v>
-      </c>
+      <c r="I137"/>
     </row>
     <row r="138" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
@@ -4600,9 +4347,7 @@
       <c r="H138" s="8">
         <v>8.1</v>
       </c>
-      <c r="I138" s="9">
-        <v>0</v>
-      </c>
+      <c r="I138"/>
     </row>
     <row r="139" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
@@ -4629,9 +4374,7 @@
       <c r="H139" s="8">
         <v>14.1</v>
       </c>
-      <c r="I139" s="9">
-        <v>0</v>
-      </c>
+      <c r="I139"/>
     </row>
     <row r="140" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
@@ -4658,9 +4401,7 @@
       <c r="H140" s="8">
         <v>10.8</v>
       </c>
-      <c r="I140" s="9">
-        <v>0</v>
-      </c>
+      <c r="I140"/>
     </row>
     <row r="141" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
@@ -4687,9 +4428,7 @@
       <c r="H141" s="8">
         <v>5.6</v>
       </c>
-      <c r="I141" s="9">
-        <v>0</v>
-      </c>
+      <c r="I141"/>
     </row>
     <row r="142" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
@@ -4716,9 +4455,7 @@
       <c r="H142" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I142" s="9">
-        <v>0</v>
-      </c>
+      <c r="I142"/>
     </row>
     <row r="143" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
@@ -4745,9 +4482,7 @@
       <c r="H143" s="8">
         <v>10.5</v>
       </c>
-      <c r="I143" s="9">
-        <v>0</v>
-      </c>
+      <c r="I143"/>
     </row>
     <row r="144" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
@@ -4774,9 +4509,7 @@
       <c r="H144" s="8">
         <v>7.4</v>
       </c>
-      <c r="I144" s="9">
-        <v>0</v>
-      </c>
+      <c r="I144"/>
     </row>
     <row r="145" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
@@ -4803,9 +4536,7 @@
       <c r="H145" s="8">
         <v>4.5</v>
       </c>
-      <c r="I145" s="9">
-        <v>0</v>
-      </c>
+      <c r="I145"/>
     </row>
     <row r="146" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
@@ -4832,9 +4563,7 @@
       <c r="H146" s="8">
         <v>4.7</v>
       </c>
-      <c r="I146" s="9">
-        <v>0</v>
-      </c>
+      <c r="I146"/>
     </row>
     <row r="147" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
@@ -4861,9 +4590,7 @@
       <c r="H147" s="8">
         <v>6</v>
       </c>
-      <c r="I147" s="9">
-        <v>0</v>
-      </c>
+      <c r="I147"/>
     </row>
     <row r="148" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
@@ -4890,9 +4617,7 @@
       <c r="H148" s="8">
         <v>10.3</v>
       </c>
-      <c r="I148" s="9">
-        <v>0</v>
-      </c>
+      <c r="I148"/>
     </row>
     <row r="149" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
@@ -4919,9 +4644,7 @@
       <c r="H149" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I149" s="9">
-        <v>0</v>
-      </c>
+      <c r="I149"/>
     </row>
     <row r="150" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
@@ -4948,9 +4671,7 @@
       <c r="H150" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I150" s="9">
-        <v>0</v>
-      </c>
+      <c r="I150"/>
     </row>
     <row r="151" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
@@ -4977,9 +4698,7 @@
       <c r="H151" s="8">
         <v>12.6</v>
       </c>
-      <c r="I151" s="9">
-        <v>0</v>
-      </c>
+      <c r="I151"/>
     </row>
     <row r="152" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
@@ -5006,9 +4725,7 @@
       <c r="H152" s="8">
         <v>13.4</v>
       </c>
-      <c r="I152" s="9">
-        <v>0</v>
-      </c>
+      <c r="I152"/>
     </row>
     <row r="153" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
@@ -5035,9 +4752,7 @@
       <c r="H153" s="8">
         <v>8.1</v>
       </c>
-      <c r="I153" s="9">
-        <v>0</v>
-      </c>
+      <c r="I153"/>
     </row>
     <row r="154" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
@@ -5064,9 +4779,7 @@
       <c r="H154" s="8">
         <v>4.5</v>
       </c>
-      <c r="I154" s="9">
-        <v>0</v>
-      </c>
+      <c r="I154"/>
     </row>
     <row r="155" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
@@ -5093,9 +4806,7 @@
       <c r="H155" s="8">
         <v>3.4</v>
       </c>
-      <c r="I155" s="9">
-        <v>0</v>
-      </c>
+      <c r="I155"/>
     </row>
     <row r="156" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
@@ -5122,9 +4833,7 @@
       <c r="H156" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I156" s="9">
-        <v>0</v>
-      </c>
+      <c r="I156"/>
     </row>
     <row r="157" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
@@ -5151,9 +4860,7 @@
       <c r="H157" s="8">
         <v>4</v>
       </c>
-      <c r="I157" s="9">
-        <v>0</v>
-      </c>
+      <c r="I157"/>
     </row>
     <row r="158" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
@@ -5180,9 +4887,7 @@
       <c r="H158" s="8">
         <v>9.6</v>
       </c>
-      <c r="I158" s="9">
-        <v>0</v>
-      </c>
+      <c r="I158"/>
     </row>
     <row r="159" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
@@ -5209,9 +4914,7 @@
       <c r="H159" s="8">
         <v>10.5</v>
       </c>
-      <c r="I159" s="9">
-        <v>0</v>
-      </c>
+      <c r="I159"/>
     </row>
     <row r="160" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
@@ -5238,9 +4941,7 @@
       <c r="H160" s="8">
         <v>8.5</v>
       </c>
-      <c r="I160" s="9">
-        <v>0</v>
-      </c>
+      <c r="I160"/>
     </row>
     <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
@@ -5267,9 +4968,7 @@
       <c r="H161" s="8">
         <v>8.5</v>
       </c>
-      <c r="I161" s="9">
-        <v>0</v>
-      </c>
+      <c r="I161"/>
     </row>
     <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
@@ -5296,9 +4995,7 @@
       <c r="H162" s="8">
         <v>7.6</v>
       </c>
-      <c r="I162" s="9">
-        <v>0</v>
-      </c>
+      <c r="I162"/>
     </row>
     <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
@@ -5325,9 +5022,7 @@
       <c r="H163" s="8">
         <v>7.4</v>
       </c>
-      <c r="I163" s="9">
-        <v>0</v>
-      </c>
+      <c r="I163"/>
     </row>
     <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
@@ -5354,9 +5049,7 @@
       <c r="H164" s="8">
         <v>5.8</v>
       </c>
-      <c r="I164" s="9">
-        <v>0</v>
-      </c>
+      <c r="I164"/>
     </row>
     <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
@@ -5383,9 +5076,7 @@
       <c r="H165" s="8">
         <v>11.4</v>
       </c>
-      <c r="I165" s="9">
-        <v>0</v>
-      </c>
+      <c r="I165"/>
     </row>
     <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
@@ -5413,7 +5104,7 @@
         <v>5.3</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,9 +5132,7 @@
       <c r="H167" s="8">
         <v>5.6</v>
       </c>
-      <c r="I167" s="9">
-        <v>0</v>
-      </c>
+      <c r="I167"/>
     </row>
     <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
@@ -5470,9 +5159,7 @@
       <c r="H168" s="8">
         <v>5.3</v>
       </c>
-      <c r="I168" s="9">
-        <v>0</v>
-      </c>
+      <c r="I168"/>
     </row>
     <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
@@ -5499,9 +5186,7 @@
       <c r="H169" s="8">
         <v>6.5</v>
       </c>
-      <c r="I169" s="9">
-        <v>0</v>
-      </c>
+      <c r="I169"/>
     </row>
     <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
@@ -5528,9 +5213,7 @@
       <c r="H170" s="8">
         <v>11.6</v>
       </c>
-      <c r="I170" s="9">
-        <v>0</v>
-      </c>
+      <c r="I170"/>
     </row>
     <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
@@ -5557,9 +5240,7 @@
       <c r="H171" s="8">
         <v>8.9</v>
       </c>
-      <c r="I171" s="9">
-        <v>0</v>
-      </c>
+      <c r="I171"/>
     </row>
     <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
@@ -5586,9 +5267,7 @@
       <c r="H172" s="8">
         <v>8.1</v>
       </c>
-      <c r="I172" s="9">
-        <v>0</v>
-      </c>
+      <c r="I172"/>
     </row>
     <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
@@ -5615,9 +5294,7 @@
       <c r="H173" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I173" s="9">
-        <v>0</v>
-      </c>
+      <c r="I173"/>
     </row>
     <row r="174" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
@@ -5644,9 +5321,7 @@
       <c r="H174" s="8">
         <v>5.8</v>
       </c>
-      <c r="I174" s="9">
-        <v>0</v>
-      </c>
+      <c r="I174"/>
     </row>
     <row r="175" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
@@ -5673,9 +5348,7 @@
       <c r="H175" s="8">
         <v>3.4</v>
       </c>
-      <c r="I175" s="9">
-        <v>0</v>
-      </c>
+      <c r="I175"/>
     </row>
     <row r="176" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
@@ -5702,9 +5375,7 @@
       <c r="H176" s="8">
         <v>7</v>
       </c>
-      <c r="I176" s="9">
-        <v>0</v>
-      </c>
+      <c r="I176"/>
     </row>
     <row r="177" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
@@ -5731,9 +5402,7 @@
       <c r="H177" s="8">
         <v>8.5</v>
       </c>
-      <c r="I177" s="9">
-        <v>0</v>
-      </c>
+      <c r="I177"/>
     </row>
     <row r="178" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
@@ -5760,9 +5429,7 @@
       <c r="H178" s="8">
         <v>5.3</v>
       </c>
-      <c r="I178" s="9">
-        <v>0</v>
-      </c>
+      <c r="I178"/>
     </row>
     <row r="179" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
@@ -5789,9 +5456,7 @@
       <c r="H179" s="8">
         <v>5.3</v>
       </c>
-      <c r="I179" s="9">
-        <v>0</v>
-      </c>
+      <c r="I179"/>
     </row>
     <row r="180" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
@@ -5818,9 +5483,7 @@
       <c r="H180" s="8">
         <v>5.8</v>
       </c>
-      <c r="I180" s="9">
-        <v>0</v>
-      </c>
+      <c r="I180"/>
     </row>
     <row r="181" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
@@ -5847,9 +5510,7 @@
       <c r="H181" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I181" s="9">
-        <v>0</v>
-      </c>
+      <c r="I181"/>
     </row>
     <row r="182" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
@@ -5876,9 +5537,7 @@
       <c r="H182" s="8">
         <v>3.1</v>
       </c>
-      <c r="I182" s="9">
-        <v>0</v>
-      </c>
+      <c r="I182"/>
     </row>
     <row r="183" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
@@ -5905,9 +5564,7 @@
       <c r="H183" s="8">
         <v>5.2</v>
       </c>
-      <c r="I183" s="9">
-        <v>0</v>
-      </c>
+      <c r="I183"/>
     </row>
     <row r="184" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
@@ -5934,9 +5591,7 @@
       <c r="H184" s="8">
         <v>7.8</v>
       </c>
-      <c r="I184" s="9">
-        <v>0</v>
-      </c>
+      <c r="I184"/>
     </row>
     <row r="185" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
@@ -5963,9 +5618,7 @@
       <c r="H185" s="8">
         <v>5.3</v>
       </c>
-      <c r="I185" s="9">
-        <v>0</v>
-      </c>
+      <c r="I185"/>
     </row>
     <row r="186" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
@@ -5992,9 +5645,7 @@
       <c r="H186" s="8">
         <v>8.5</v>
       </c>
-      <c r="I186" s="9">
-        <v>0</v>
-      </c>
+      <c r="I186"/>
     </row>
     <row r="187" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
@@ -6021,9 +5672,7 @@
       <c r="H187" s="8">
         <v>9.4</v>
       </c>
-      <c r="I187" s="9">
-        <v>0</v>
-      </c>
+      <c r="I187"/>
     </row>
     <row r="188" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
@@ -6050,9 +5699,7 @@
       <c r="H188" s="8">
         <v>6</v>
       </c>
-      <c r="I188" s="9">
-        <v>0</v>
-      </c>
+      <c r="I188"/>
     </row>
     <row r="189" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
@@ -6079,9 +5726,7 @@
       <c r="H189" s="8">
         <v>4.2</v>
       </c>
-      <c r="I189" s="9">
-        <v>0</v>
-      </c>
+      <c r="I189"/>
     </row>
     <row r="190" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
@@ -6108,9 +5753,7 @@
       <c r="H190" s="8">
         <v>7.1</v>
       </c>
-      <c r="I190" s="9">
-        <v>0</v>
-      </c>
+      <c r="I190"/>
     </row>
     <row r="191" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
@@ -6137,9 +5780,7 @@
       <c r="H191" s="8">
         <v>20.6</v>
       </c>
-      <c r="I191" s="9">
-        <v>0</v>
-      </c>
+      <c r="I191"/>
     </row>
     <row r="192" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
@@ -6166,9 +5807,7 @@
       <c r="H192" s="8">
         <v>17.600000000000001</v>
       </c>
-      <c r="I192" s="9">
-        <v>0</v>
-      </c>
+      <c r="I192"/>
     </row>
     <row r="193" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
@@ -6195,9 +5834,7 @@
       <c r="H193" s="8">
         <v>13.2</v>
       </c>
-      <c r="I193" s="9">
-        <v>0</v>
-      </c>
+      <c r="I193"/>
     </row>
     <row r="194" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
@@ -6224,9 +5861,7 @@
       <c r="H194" s="8">
         <v>6</v>
       </c>
-      <c r="I194" s="9">
-        <v>0</v>
-      </c>
+      <c r="I194"/>
     </row>
     <row r="195" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
@@ -6253,9 +5888,7 @@
       <c r="H195" s="8">
         <v>10.9</v>
       </c>
-      <c r="I195" s="9">
-        <v>0</v>
-      </c>
+      <c r="I195"/>
     </row>
     <row r="196" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
@@ -6282,9 +5915,7 @@
       <c r="H196" s="8">
         <v>5.8</v>
       </c>
-      <c r="I196" s="9">
-        <v>0</v>
-      </c>
+      <c r="I196"/>
     </row>
     <row r="197" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
@@ -6311,9 +5942,7 @@
       <c r="H197" s="8">
         <v>6.7</v>
       </c>
-      <c r="I197" s="9">
-        <v>0</v>
-      </c>
+      <c r="I197"/>
     </row>
     <row r="198" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
@@ -6340,9 +5969,7 @@
       <c r="H198" s="8">
         <v>9.4</v>
       </c>
-      <c r="I198" s="9">
-        <v>0</v>
-      </c>
+      <c r="I198"/>
     </row>
     <row r="199" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
@@ -6369,9 +5996,7 @@
       <c r="H199" s="8">
         <v>12.7</v>
       </c>
-      <c r="I199" s="9">
-        <v>0</v>
-      </c>
+      <c r="I199"/>
     </row>
     <row r="200" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
@@ -6398,9 +6023,7 @@
       <c r="H200" s="8">
         <v>12.3</v>
       </c>
-      <c r="I200" s="9">
-        <v>0</v>
-      </c>
+      <c r="I200"/>
     </row>
     <row r="201" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
@@ -6427,9 +6050,7 @@
       <c r="H201" s="8">
         <v>6.7</v>
       </c>
-      <c r="I201" s="9">
-        <v>0</v>
-      </c>
+      <c r="I201"/>
     </row>
     <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
@@ -6456,9 +6077,7 @@
       <c r="H202" s="8">
         <v>6.7</v>
       </c>
-      <c r="I202" s="9">
-        <v>0</v>
-      </c>
+      <c r="I202"/>
     </row>
     <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
@@ -6485,9 +6104,7 @@
       <c r="H203" s="8">
         <v>7.1</v>
       </c>
-      <c r="I203" s="9">
-        <v>0</v>
-      </c>
+      <c r="I203"/>
     </row>
     <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
@@ -6514,9 +6131,7 @@
       <c r="H204" s="8">
         <v>4.5</v>
       </c>
-      <c r="I204" s="9">
-        <v>0</v>
-      </c>
+      <c r="I204"/>
     </row>
     <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
@@ -6543,9 +6158,7 @@
       <c r="H205" s="8">
         <v>9.4</v>
       </c>
-      <c r="I205" s="9">
-        <v>0</v>
-      </c>
+      <c r="I205"/>
     </row>
     <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
@@ -6573,7 +6186,7 @@
         <v>12.7</v>
       </c>
       <c r="I206" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,9 +6214,7 @@
       <c r="H207" s="8">
         <v>14.5</v>
       </c>
-      <c r="I207" s="9">
-        <v>0</v>
-      </c>
+      <c r="I207"/>
     </row>
     <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
@@ -6631,7 +6242,7 @@
         <v>11.9</v>
       </c>
       <c r="I208" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6659,9 +6270,7 @@
       <c r="H209" s="8">
         <v>13.7</v>
       </c>
-      <c r="I209" s="9">
-        <v>0</v>
-      </c>
+      <c r="I209"/>
     </row>
     <row r="210" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
@@ -6688,9 +6297,7 @@
       <c r="H210" s="8">
         <v>5.8</v>
       </c>
-      <c r="I210" s="9">
-        <v>0</v>
-      </c>
+      <c r="I210"/>
     </row>
     <row r="211" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
@@ -6717,9 +6324,7 @@
       <c r="H211" s="8">
         <v>7.1</v>
       </c>
-      <c r="I211" s="9">
-        <v>0</v>
-      </c>
+      <c r="I211"/>
     </row>
     <row r="212" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
@@ -6746,9 +6351,7 @@
       <c r="H212" s="8">
         <v>6.7</v>
       </c>
-      <c r="I212" s="9">
-        <v>0</v>
-      </c>
+      <c r="I212"/>
     </row>
     <row r="213" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
@@ -6775,9 +6378,7 @@
       <c r="H213" s="8">
         <v>6.3</v>
       </c>
-      <c r="I213" s="9">
-        <v>0</v>
-      </c>
+      <c r="I213"/>
     </row>
     <row r="214" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
@@ -6804,9 +6405,7 @@
       <c r="H214" s="8">
         <v>9.4</v>
       </c>
-      <c r="I214" s="9">
-        <v>0</v>
-      </c>
+      <c r="I214"/>
     </row>
     <row r="215" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
@@ -6833,9 +6432,7 @@
       <c r="H215" s="8">
         <v>7.6</v>
       </c>
-      <c r="I215" s="9">
-        <v>0</v>
-      </c>
+      <c r="I215"/>
     </row>
     <row r="216" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
@@ -6862,9 +6459,7 @@
       <c r="H216" s="8">
         <v>10.1</v>
       </c>
-      <c r="I216" s="9">
-        <v>0</v>
-      </c>
+      <c r="I216"/>
     </row>
     <row r="217" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
@@ -6891,9 +6486,7 @@
       <c r="H217" s="8">
         <v>8.5</v>
       </c>
-      <c r="I217" s="9">
-        <v>0</v>
-      </c>
+      <c r="I217"/>
     </row>
     <row r="218" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
@@ -6920,9 +6513,7 @@
       <c r="H218" s="8">
         <v>6.7</v>
       </c>
-      <c r="I218" s="9">
-        <v>0</v>
-      </c>
+      <c r="I218"/>
     </row>
     <row r="219" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
@@ -6949,9 +6540,7 @@
       <c r="H219" s="8">
         <v>8.1</v>
       </c>
-      <c r="I219" s="9">
-        <v>0</v>
-      </c>
+      <c r="I219"/>
     </row>
     <row r="220" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
@@ -6978,9 +6567,7 @@
       <c r="H220" s="8">
         <v>6.7</v>
       </c>
-      <c r="I220" s="9">
-        <v>0</v>
-      </c>
+      <c r="I220"/>
     </row>
     <row r="221" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
@@ -7007,9 +6594,7 @@
       <c r="H221" s="8">
         <v>4.7</v>
       </c>
-      <c r="I221" s="9">
-        <v>0</v>
-      </c>
+      <c r="I221"/>
     </row>
     <row r="222" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
@@ -7036,9 +6621,7 @@
       <c r="H222" s="8">
         <v>10.5</v>
       </c>
-      <c r="I222" s="9">
-        <v>0</v>
-      </c>
+      <c r="I222"/>
     </row>
     <row r="223" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
@@ -7065,9 +6648,7 @@
       <c r="H223" s="8">
         <v>17.2</v>
       </c>
-      <c r="I223" s="9">
-        <v>0</v>
-      </c>
+      <c r="I223"/>
     </row>
     <row r="224" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
@@ -7094,9 +6675,7 @@
       <c r="H224" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="I224" s="9">
-        <v>0</v>
-      </c>
+      <c r="I224"/>
     </row>
     <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
@@ -7124,7 +6703,7 @@
         <v>19</v>
       </c>
       <c r="I225" s="9" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7152,9 +6731,7 @@
       <c r="H226" s="8">
         <v>4.7</v>
       </c>
-      <c r="I226" s="9">
-        <v>0</v>
-      </c>
+      <c r="I226"/>
     </row>
     <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
@@ -7181,9 +6758,7 @@
       <c r="H227" s="8">
         <v>6.3</v>
       </c>
-      <c r="I227" s="9">
-        <v>0</v>
-      </c>
+      <c r="I227"/>
     </row>
     <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
@@ -7210,9 +6785,7 @@
       <c r="H228" s="8">
         <v>11.4</v>
       </c>
-      <c r="I228" s="9">
-        <v>0</v>
-      </c>
+      <c r="I228"/>
     </row>
     <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
@@ -7239,9 +6812,7 @@
       <c r="H229" s="8">
         <v>11.6</v>
       </c>
-      <c r="I229" s="9">
-        <v>0</v>
-      </c>
+      <c r="I229"/>
     </row>
     <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
@@ -7269,7 +6840,7 @@
         <v>13.9</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7297,9 +6868,7 @@
       <c r="H231" s="8">
         <v>7.8</v>
       </c>
-      <c r="I231" s="9">
-        <v>0</v>
-      </c>
+      <c r="I231"/>
     </row>
     <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
@@ -7326,9 +6895,7 @@
       <c r="H232" s="8">
         <v>6</v>
       </c>
-      <c r="I232" s="9">
-        <v>0</v>
-      </c>
+      <c r="I232"/>
     </row>
     <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
@@ -7355,9 +6922,7 @@
       <c r="H233" s="8">
         <v>8.5</v>
       </c>
-      <c r="I233" s="9">
-        <v>0</v>
-      </c>
+      <c r="I233"/>
     </row>
     <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
@@ -7384,9 +6949,7 @@
       <c r="H234" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I234" s="9">
-        <v>0</v>
-      </c>
+      <c r="I234"/>
     </row>
     <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
@@ -7413,9 +6976,7 @@
       <c r="H235" s="8">
         <v>11.4</v>
       </c>
-      <c r="I235" s="9">
-        <v>0</v>
-      </c>
+      <c r="I235"/>
     </row>
     <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
@@ -7443,7 +7004,7 @@
         <v>13</v>
       </c>
       <c r="I236" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7471,9 +7032,7 @@
       <c r="H237" s="8">
         <v>10.3</v>
       </c>
-      <c r="I237" s="9">
-        <v>0</v>
-      </c>
+      <c r="I237"/>
     </row>
     <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
@@ -7500,9 +7059,7 @@
       <c r="H238" s="8">
         <v>9.6</v>
       </c>
-      <c r="I238" s="9">
-        <v>0</v>
-      </c>
+      <c r="I238"/>
     </row>
     <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
@@ -7529,9 +7086,7 @@
       <c r="H239" s="8">
         <v>7.4</v>
       </c>
-      <c r="I239" s="9">
-        <v>0</v>
-      </c>
+      <c r="I239"/>
     </row>
     <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
@@ -7558,9 +7113,7 @@
       <c r="H240" s="8">
         <v>4.5</v>
       </c>
-      <c r="I240" s="9">
-        <v>0</v>
-      </c>
+      <c r="I240"/>
     </row>
     <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
@@ -7587,9 +7140,7 @@
       <c r="H241" s="8">
         <v>7.8</v>
       </c>
-      <c r="I241" s="9">
-        <v>0</v>
-      </c>
+      <c r="I241"/>
     </row>
     <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
@@ -7616,9 +7167,7 @@
       <c r="H242" s="8">
         <v>7.4</v>
       </c>
-      <c r="I242" s="9">
-        <v>0</v>
-      </c>
+      <c r="I242"/>
     </row>
     <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
@@ -7645,9 +7194,7 @@
       <c r="H243" s="8">
         <v>8.9</v>
       </c>
-      <c r="I243" s="9">
-        <v>0</v>
-      </c>
+      <c r="I243"/>
     </row>
     <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
@@ -7674,9 +7221,7 @@
       <c r="H244" s="8">
         <v>14.5</v>
       </c>
-      <c r="I244" s="9">
-        <v>0</v>
-      </c>
+      <c r="I244"/>
     </row>
     <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
@@ -7703,9 +7248,7 @@
       <c r="H245" s="8">
         <v>13.2</v>
       </c>
-      <c r="I245" s="9">
-        <v>0</v>
-      </c>
+      <c r="I245"/>
     </row>
     <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
@@ -7732,9 +7275,7 @@
       <c r="H246" s="8">
         <v>14.3</v>
       </c>
-      <c r="I246" s="9">
-        <v>0</v>
-      </c>
+      <c r="I246"/>
     </row>
     <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
@@ -7761,9 +7302,7 @@
       <c r="H247" s="8">
         <v>13</v>
       </c>
-      <c r="I247" s="9">
-        <v>0</v>
-      </c>
+      <c r="I247"/>
     </row>
     <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
@@ -7790,9 +7329,7 @@
       <c r="H248" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I248" s="9">
-        <v>0</v>
-      </c>
+      <c r="I248"/>
     </row>
     <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
@@ -7819,9 +7356,7 @@
       <c r="H249" s="8">
         <v>7.6</v>
       </c>
-      <c r="I249" s="9">
-        <v>0</v>
-      </c>
+      <c r="I249"/>
     </row>
     <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
@@ -7848,9 +7383,7 @@
       <c r="H250" s="8">
         <v>8.9</v>
       </c>
-      <c r="I250" s="9">
-        <v>0</v>
-      </c>
+      <c r="I250"/>
     </row>
     <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
@@ -7877,9 +7410,7 @@
       <c r="H251" s="8">
         <v>9.6</v>
       </c>
-      <c r="I251" s="9">
-        <v>0</v>
-      </c>
+      <c r="I251"/>
     </row>
     <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
@@ -7906,9 +7437,7 @@
       <c r="H252" s="8">
         <v>6.3</v>
       </c>
-      <c r="I252" s="9">
-        <v>0</v>
-      </c>
+      <c r="I252"/>
     </row>
     <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
@@ -7936,7 +7465,7 @@
         <v>12.3</v>
       </c>
       <c r="I253" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7965,7 +7494,7 @@
         <v>13.2</v>
       </c>
       <c r="I254" s="9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7993,9 +7522,7 @@
       <c r="H255" s="8">
         <v>10.9</v>
       </c>
-      <c r="I255" s="9">
-        <v>0</v>
-      </c>
+      <c r="I255"/>
     </row>
     <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
@@ -8022,9 +7549,7 @@
       <c r="H256" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I256" s="9">
-        <v>0</v>
-      </c>
+      <c r="I256"/>
     </row>
     <row r="257" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
@@ -8051,9 +7576,7 @@
       <c r="H257" s="8">
         <v>5.8</v>
       </c>
-      <c r="I257" s="9">
-        <v>0</v>
-      </c>
+      <c r="I257"/>
     </row>
     <row r="258" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
@@ -8080,9 +7603,7 @@
       <c r="H258" s="8">
         <v>10.9</v>
       </c>
-      <c r="I258" s="9">
-        <v>0</v>
-      </c>
+      <c r="I258"/>
     </row>
     <row r="259" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
@@ -8109,9 +7630,7 @@
       <c r="H259" s="8">
         <v>18.3</v>
       </c>
-      <c r="I259" s="9">
-        <v>0</v>
-      </c>
+      <c r="I259"/>
     </row>
     <row r="260" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
@@ -8138,9 +7657,7 @@
       <c r="H260" s="8">
         <v>13.4</v>
       </c>
-      <c r="I260" s="9">
-        <v>0</v>
-      </c>
+      <c r="I260"/>
     </row>
     <row r="261" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
@@ -8167,9 +7684,7 @@
       <c r="H261" s="8">
         <v>9.6</v>
       </c>
-      <c r="I261" s="9">
-        <v>0</v>
-      </c>
+      <c r="I261"/>
     </row>
     <row r="262" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
@@ -8196,9 +7711,7 @@
       <c r="H262" s="8">
         <v>13.4</v>
       </c>
-      <c r="I262" s="9">
-        <v>0</v>
-      </c>
+      <c r="I262"/>
     </row>
     <row r="263" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
@@ -8225,9 +7738,7 @@
       <c r="H263" s="8">
         <v>9.6</v>
       </c>
-      <c r="I263" s="9">
-        <v>0</v>
-      </c>
+      <c r="I263"/>
     </row>
     <row r="264" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
@@ -8254,9 +7765,7 @@
       <c r="H264" s="8">
         <v>10.8</v>
       </c>
-      <c r="I264" s="9">
-        <v>0</v>
-      </c>
+      <c r="I264"/>
     </row>
     <row r="265" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
@@ -8283,9 +7792,7 @@
       <c r="H265" s="8">
         <v>9.6</v>
       </c>
-      <c r="I265" s="9">
-        <v>0</v>
-      </c>
+      <c r="I265"/>
     </row>
     <row r="266" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
@@ -8312,9 +7819,7 @@
       <c r="H266" s="8">
         <v>13.9</v>
       </c>
-      <c r="I266" s="9">
-        <v>0</v>
-      </c>
+      <c r="I266"/>
     </row>
     <row r="267" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
@@ -8341,9 +7846,7 @@
       <c r="H267" s="8">
         <v>10.5</v>
       </c>
-      <c r="I267" s="9">
-        <v>0</v>
-      </c>
+      <c r="I267"/>
     </row>
     <row r="268" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
@@ -8370,9 +7873,7 @@
       <c r="H268" s="8">
         <v>7.8</v>
       </c>
-      <c r="I268" s="9">
-        <v>0</v>
-      </c>
+      <c r="I268"/>
     </row>
     <row r="269" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
@@ -8399,9 +7900,7 @@
       <c r="H269" s="8">
         <v>11.6</v>
       </c>
-      <c r="I269" s="9">
-        <v>0</v>
-      </c>
+      <c r="I269"/>
     </row>
     <row r="270" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
@@ -8428,9 +7927,7 @@
       <c r="H270" s="8">
         <v>5.8</v>
       </c>
-      <c r="I270" s="9">
-        <v>0</v>
-      </c>
+      <c r="I270"/>
     </row>
     <row r="271" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
@@ -8457,9 +7954,7 @@
       <c r="H271" s="8">
         <v>10.9</v>
       </c>
-      <c r="I271" s="9">
-        <v>0</v>
-      </c>
+      <c r="I271"/>
     </row>
     <row r="272" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
@@ -8486,9 +7981,7 @@
       <c r="H272" s="8">
         <v>8.1</v>
       </c>
-      <c r="I272" s="9">
-        <v>0</v>
-      </c>
+      <c r="I272"/>
     </row>
     <row r="273" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
@@ -8515,9 +8008,7 @@
       <c r="H273" s="8">
         <v>9.6</v>
       </c>
-      <c r="I273" s="9">
-        <v>0</v>
-      </c>
+      <c r="I273"/>
     </row>
     <row r="274" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
@@ -8544,9 +8035,7 @@
       <c r="H274" s="8">
         <v>8.1</v>
       </c>
-      <c r="I274" s="9">
-        <v>0</v>
-      </c>
+      <c r="I274"/>
     </row>
     <row r="275" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
@@ -8573,9 +8062,7 @@
       <c r="H275" s="8">
         <v>14.1</v>
       </c>
-      <c r="I275" s="9">
-        <v>0</v>
-      </c>
+      <c r="I275"/>
     </row>
     <row r="276" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
@@ -8602,9 +8089,7 @@
       <c r="H276" s="8">
         <v>5.8</v>
       </c>
-      <c r="I276" s="9">
-        <v>0</v>
-      </c>
+      <c r="I276"/>
     </row>
     <row r="277" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
@@ -8631,9 +8116,7 @@
       <c r="H277" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I277" s="9">
-        <v>0</v>
-      </c>
+      <c r="I277"/>
     </row>
     <row r="278" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
@@ -8660,9 +8143,7 @@
       <c r="H278" s="8">
         <v>10.3</v>
       </c>
-      <c r="I278" s="9">
-        <v>0</v>
-      </c>
+      <c r="I278"/>
     </row>
     <row r="279" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
@@ -8690,7 +8171,7 @@
         <v>8.1</v>
       </c>
       <c r="I279" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8719,7 +8200,7 @@
         <v>6.3</v>
       </c>
       <c r="I280" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8748,7 +8229,7 @@
         <v>6.7</v>
       </c>
       <c r="I281" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,9 +8257,7 @@
       <c r="H282" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I282" s="9">
-        <v>0</v>
-      </c>
+      <c r="I282"/>
     </row>
     <row r="283" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
@@ -8805,9 +8284,7 @@
       <c r="H283" s="8">
         <v>10.5</v>
       </c>
-      <c r="I283" s="9">
-        <v>0</v>
-      </c>
+      <c r="I283"/>
     </row>
     <row r="284" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
@@ -8834,9 +8311,7 @@
       <c r="H284" s="8">
         <v>10.5</v>
       </c>
-      <c r="I284" s="9">
-        <v>0</v>
-      </c>
+      <c r="I284"/>
     </row>
     <row r="285" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
@@ -8863,9 +8338,7 @@
       <c r="H285" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I285" s="9">
-        <v>0</v>
-      </c>
+      <c r="I285"/>
     </row>
     <row r="286" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
@@ -8893,7 +8366,7 @@
         <v>14.9</v>
       </c>
       <c r="I286" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8922,7 +8395,7 @@
         <v>13.2</v>
       </c>
       <c r="I287" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8950,9 +8423,7 @@
       <c r="H288" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I288" s="9">
-        <v>0</v>
-      </c>
+      <c r="I288"/>
     </row>
     <row r="289" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
@@ -8979,9 +8450,7 @@
       <c r="H289" s="8">
         <v>11.9</v>
       </c>
-      <c r="I289" s="9">
-        <v>0</v>
-      </c>
+      <c r="I289"/>
     </row>
     <row r="290" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
@@ -9008,9 +8477,7 @@
       <c r="H290" s="8">
         <v>9.4</v>
       </c>
-      <c r="I290" s="9">
-        <v>0</v>
-      </c>
+      <c r="I290"/>
     </row>
     <row r="291" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
@@ -9037,9 +8504,7 @@
       <c r="H291" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I291" s="9">
-        <v>0</v>
-      </c>
+      <c r="I291"/>
     </row>
     <row r="292" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
@@ -9066,9 +8531,7 @@
       <c r="H292" s="8">
         <v>15</v>
       </c>
-      <c r="I292" s="9">
-        <v>0</v>
-      </c>
+      <c r="I292"/>
     </row>
     <row r="293" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
@@ -9095,9 +8558,7 @@
       <c r="H293" s="8">
         <v>6.7</v>
       </c>
-      <c r="I293" s="9">
-        <v>0</v>
-      </c>
+      <c r="I293"/>
     </row>
     <row r="294" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
@@ -9124,9 +8585,7 @@
       <c r="H294" s="8">
         <v>5.8</v>
       </c>
-      <c r="I294" s="9">
-        <v>0</v>
-      </c>
+      <c r="I294"/>
     </row>
     <row r="295" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
@@ -9153,9 +8612,7 @@
       <c r="H295" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I295" s="9">
-        <v>0</v>
-      </c>
+      <c r="I295"/>
     </row>
     <row r="296" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
@@ -9182,9 +8639,7 @@
       <c r="H296" s="8">
         <v>7.8</v>
       </c>
-      <c r="I296" s="9">
-        <v>0</v>
-      </c>
+      <c r="I296"/>
     </row>
     <row r="297" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
@@ -9211,9 +8666,7 @@
       <c r="H297" s="8">
         <v>8.9</v>
       </c>
-      <c r="I297" s="9">
-        <v>0</v>
-      </c>
+      <c r="I297"/>
     </row>
     <row r="298" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
@@ -9240,9 +8693,7 @@
       <c r="H298" s="8">
         <v>13.9</v>
       </c>
-      <c r="I298" s="9">
-        <v>0</v>
-      </c>
+      <c r="I298"/>
     </row>
     <row r="299" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
@@ -9269,9 +8720,7 @@
       <c r="H299" s="8">
         <v>12.7</v>
       </c>
-      <c r="I299" s="9">
-        <v>0</v>
-      </c>
+      <c r="I299"/>
     </row>
     <row r="300" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
@@ -9298,9 +8747,7 @@
       <c r="H300" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I300" s="9">
-        <v>0</v>
-      </c>
+      <c r="I300"/>
     </row>
     <row r="301" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
@@ -9327,9 +8774,7 @@
       <c r="H301" s="8">
         <v>9.6</v>
       </c>
-      <c r="I301" s="9">
-        <v>0</v>
-      </c>
+      <c r="I301"/>
     </row>
     <row r="302" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
@@ -9356,9 +8801,7 @@
       <c r="H302" s="8">
         <v>10.5</v>
       </c>
-      <c r="I302" s="9">
-        <v>0</v>
-      </c>
+      <c r="I302"/>
     </row>
     <row r="303" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
@@ -9385,9 +8828,7 @@
       <c r="H303" s="8">
         <v>13.2</v>
       </c>
-      <c r="I303" s="9">
-        <v>0</v>
-      </c>
+      <c r="I303"/>
     </row>
     <row r="304" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
@@ -9414,9 +8855,7 @@
       <c r="H304" s="8">
         <v>13.4</v>
       </c>
-      <c r="I304" s="9">
-        <v>0</v>
-      </c>
+      <c r="I304"/>
     </row>
     <row r="305" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
@@ -9443,9 +8882,7 @@
       <c r="H305" s="8">
         <v>12.7</v>
       </c>
-      <c r="I305" s="9">
-        <v>0</v>
-      </c>
+      <c r="I305"/>
     </row>
     <row r="306" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
@@ -9473,7 +8910,7 @@
         <v>11.9</v>
       </c>
       <c r="I306" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9501,9 +8938,7 @@
       <c r="H307" s="8">
         <v>12.6</v>
       </c>
-      <c r="I307" s="9">
-        <v>0</v>
-      </c>
+      <c r="I307"/>
     </row>
     <row r="308" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
@@ -9530,9 +8965,7 @@
       <c r="H308" s="8">
         <v>13</v>
       </c>
-      <c r="I308" s="9">
-        <v>0</v>
-      </c>
+      <c r="I308"/>
     </row>
     <row r="309" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
@@ -9559,9 +8992,7 @@
       <c r="H309" s="8">
         <v>10.1</v>
       </c>
-      <c r="I309" s="9">
-        <v>0</v>
-      </c>
+      <c r="I309"/>
     </row>
     <row r="310" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
@@ -9588,9 +9019,7 @@
       <c r="H310" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I310" s="9">
-        <v>0</v>
-      </c>
+      <c r="I310"/>
     </row>
     <row r="311" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
@@ -9617,9 +9046,7 @@
       <c r="H311" s="8">
         <v>14.3</v>
       </c>
-      <c r="I311" s="9">
-        <v>0</v>
-      </c>
+      <c r="I311"/>
     </row>
     <row r="312" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
@@ -9646,9 +9073,7 @@
       <c r="H312" s="8">
         <v>8.1</v>
       </c>
-      <c r="I312" s="9">
-        <v>0</v>
-      </c>
+      <c r="I312"/>
     </row>
     <row r="313" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
@@ -9675,9 +9100,7 @@
       <c r="H313" s="8">
         <v>15</v>
       </c>
-      <c r="I313" s="9">
-        <v>0</v>
-      </c>
+      <c r="I313"/>
     </row>
     <row r="314" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
@@ -9704,9 +9127,7 @@
       <c r="H314" s="8">
         <v>13.7</v>
       </c>
-      <c r="I314" s="9">
-        <v>0</v>
-      </c>
+      <c r="I314"/>
     </row>
     <row r="315" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
@@ -9733,9 +9154,7 @@
       <c r="H315" s="8">
         <v>10.9</v>
       </c>
-      <c r="I315" s="9">
-        <v>0</v>
-      </c>
+      <c r="I315"/>
     </row>
     <row r="316" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
@@ -9762,9 +9181,7 @@
       <c r="H316" s="8">
         <v>7.4</v>
       </c>
-      <c r="I316" s="9">
-        <v>0</v>
-      </c>
+      <c r="I316"/>
     </row>
     <row r="317" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
@@ -9791,9 +9208,7 @@
       <c r="H317" s="8">
         <v>16.3</v>
       </c>
-      <c r="I317" s="9">
-        <v>0</v>
-      </c>
+      <c r="I317"/>
     </row>
     <row r="318" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
@@ -9820,9 +9235,7 @@
       <c r="H318" s="8">
         <v>13.9</v>
       </c>
-      <c r="I318" s="9">
-        <v>0</v>
-      </c>
+      <c r="I318"/>
     </row>
     <row r="319" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
@@ -9849,9 +9262,7 @@
       <c r="H319" s="8">
         <v>7.6</v>
       </c>
-      <c r="I319" s="9">
-        <v>0</v>
-      </c>
+      <c r="I319"/>
     </row>
     <row r="320" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
@@ -9878,9 +9289,7 @@
       <c r="H320" s="8">
         <v>10.9</v>
       </c>
-      <c r="I320" s="9">
-        <v>0</v>
-      </c>
+      <c r="I320"/>
     </row>
     <row r="321" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
@@ -9907,9 +9316,7 @@
       <c r="H321" s="8">
         <v>13.9</v>
       </c>
-      <c r="I321" s="9">
-        <v>0</v>
-      </c>
+      <c r="I321"/>
     </row>
     <row r="322" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
@@ -9936,9 +9343,7 @@
       <c r="H322" s="8">
         <v>11.9</v>
       </c>
-      <c r="I322" s="9">
-        <v>0</v>
-      </c>
+      <c r="I322"/>
     </row>
     <row r="323" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
@@ -9965,9 +9370,7 @@
       <c r="H323" s="8">
         <v>13</v>
       </c>
-      <c r="I323" s="9">
-        <v>0</v>
-      </c>
+      <c r="I323"/>
     </row>
     <row r="324" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
@@ -9994,9 +9397,7 @@
       <c r="H324" s="8">
         <v>6.5</v>
       </c>
-      <c r="I324" s="9">
-        <v>0</v>
-      </c>
+      <c r="I324"/>
     </row>
     <row r="325" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
@@ -10023,9 +9424,7 @@
       <c r="H325" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I325" s="9">
-        <v>0</v>
-      </c>
+      <c r="I325"/>
     </row>
     <row r="326" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
@@ -10053,7 +9452,7 @@
         <v>7.8</v>
       </c>
       <c r="I326" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10081,9 +9480,7 @@
       <c r="H327" s="8">
         <v>4.7</v>
       </c>
-      <c r="I327" s="9">
-        <v>0</v>
-      </c>
+      <c r="I327"/>
     </row>
     <row r="328" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
@@ -10110,9 +9507,7 @@
       <c r="H328" s="8">
         <v>13.9</v>
       </c>
-      <c r="I328" s="9">
-        <v>0</v>
-      </c>
+      <c r="I328"/>
     </row>
     <row r="329" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
@@ -10139,9 +9534,7 @@
       <c r="H329" s="8">
         <v>11.9</v>
       </c>
-      <c r="I329" s="9">
-        <v>0</v>
-      </c>
+      <c r="I329"/>
     </row>
     <row r="330" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
@@ -10168,9 +9561,7 @@
       <c r="H330" s="8">
         <v>12.7</v>
       </c>
-      <c r="I330" s="9">
-        <v>0</v>
-      </c>
+      <c r="I330"/>
     </row>
     <row r="331" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
@@ -10198,7 +9589,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I331" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10226,9 +9617,7 @@
       <c r="H332" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I332" s="9">
-        <v>0</v>
-      </c>
+      <c r="I332"/>
     </row>
     <row r="333" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
@@ -10255,9 +9644,7 @@
       <c r="H333" s="8">
         <v>15.2</v>
       </c>
-      <c r="I333" s="9">
-        <v>0</v>
-      </c>
+      <c r="I333"/>
     </row>
     <row r="334" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
@@ -10285,7 +9672,7 @@
         <v>11.6</v>
       </c>
       <c r="I334" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10313,9 +9700,7 @@
       <c r="H335" s="8">
         <v>8.9</v>
       </c>
-      <c r="I335" s="9">
-        <v>0</v>
-      </c>
+      <c r="I335"/>
     </row>
     <row r="336" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
@@ -10342,9 +9727,7 @@
       <c r="H336" s="8">
         <v>8.9</v>
       </c>
-      <c r="I336" s="9">
-        <v>0</v>
-      </c>
+      <c r="I336"/>
     </row>
     <row r="337" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
@@ -10371,9 +9754,7 @@
       <c r="H337" s="8">
         <v>9.6</v>
       </c>
-      <c r="I337" s="9">
-        <v>0</v>
-      </c>
+      <c r="I337"/>
     </row>
     <row r="338" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
@@ -10400,9 +9781,7 @@
       <c r="H338" s="8">
         <v>7.6</v>
       </c>
-      <c r="I338" s="9">
-        <v>0</v>
-      </c>
+      <c r="I338"/>
     </row>
     <row r="339" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
@@ -10429,9 +9808,7 @@
       <c r="H339" s="8">
         <v>11.2</v>
       </c>
-      <c r="I339" s="9">
-        <v>0</v>
-      </c>
+      <c r="I339"/>
     </row>
     <row r="340" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
@@ -10458,9 +9835,7 @@
       <c r="H340" s="8">
         <v>7.1</v>
       </c>
-      <c r="I340" s="9">
-        <v>0</v>
-      </c>
+      <c r="I340"/>
     </row>
     <row r="341" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
@@ -10487,9 +9862,7 @@
       <c r="H341" s="8">
         <v>11.9</v>
       </c>
-      <c r="I341" s="9">
-        <v>0</v>
-      </c>
+      <c r="I341"/>
     </row>
     <row r="342" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
@@ -10516,9 +9889,7 @@
       <c r="H342" s="8">
         <v>5.3</v>
       </c>
-      <c r="I342" s="9">
-        <v>0</v>
-      </c>
+      <c r="I342"/>
     </row>
     <row r="343" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
@@ -10545,9 +9916,7 @@
       <c r="H343" s="8">
         <v>8.1</v>
       </c>
-      <c r="I343" s="9">
-        <v>0</v>
-      </c>
+      <c r="I343"/>
     </row>
     <row r="344" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
@@ -10574,9 +9943,7 @@
       <c r="H344" s="8">
         <v>10.5</v>
       </c>
-      <c r="I344" s="9">
-        <v>0</v>
-      </c>
+      <c r="I344"/>
     </row>
     <row r="345" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
@@ -10603,9 +9970,7 @@
       <c r="H345" s="8">
         <v>18.100000000000001</v>
       </c>
-      <c r="I345" s="9">
-        <v>0</v>
-      </c>
+      <c r="I345"/>
     </row>
     <row r="346" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
@@ -10633,7 +9998,7 @@
         <v>11.2</v>
       </c>
       <c r="I346" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10661,9 +10026,7 @@
       <c r="H347" s="8">
         <v>4</v>
       </c>
-      <c r="I347" s="9">
-        <v>0</v>
-      </c>
+      <c r="I347"/>
     </row>
     <row r="348" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
@@ -10690,9 +10053,7 @@
       <c r="H348" s="8">
         <v>10.5</v>
       </c>
-      <c r="I348" s="9">
-        <v>0</v>
-      </c>
+      <c r="I348"/>
     </row>
     <row r="349" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
@@ -10719,9 +10080,7 @@
       <c r="H349" s="8">
         <v>12.3</v>
       </c>
-      <c r="I349" s="9">
-        <v>0</v>
-      </c>
+      <c r="I349"/>
     </row>
     <row r="350" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
@@ -10749,7 +10108,7 @@
         <v>14.8</v>
       </c>
       <c r="I350" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="351" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10777,9 +10136,7 @@
       <c r="H351" s="8">
         <v>12.2</v>
       </c>
-      <c r="I351" s="9">
-        <v>0</v>
-      </c>
+      <c r="I351"/>
     </row>
     <row r="352" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
@@ -10807,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="I352" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10835,9 +10192,7 @@
       <c r="H353" s="8">
         <v>10.3</v>
       </c>
-      <c r="I353" s="9">
-        <v>0</v>
-      </c>
+      <c r="I353"/>
     </row>
     <row r="354" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
@@ -10864,9 +10219,7 @@
       <c r="H354" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I354" s="9">
-        <v>0</v>
-      </c>
+      <c r="I354"/>
     </row>
     <row r="355" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
@@ -10893,9 +10246,7 @@
       <c r="H355" s="8">
         <v>9.6</v>
       </c>
-      <c r="I355" s="9">
-        <v>0</v>
-      </c>
+      <c r="I355"/>
     </row>
     <row r="356" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
@@ -10922,9 +10273,7 @@
       <c r="H356" s="8">
         <v>11.3</v>
       </c>
-      <c r="I356" s="9">
-        <v>0</v>
-      </c>
+      <c r="I356"/>
     </row>
     <row r="357" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
@@ -10951,9 +10300,7 @@
       <c r="H357" s="8">
         <v>5.7</v>
       </c>
-      <c r="I357" s="9">
-        <v>0</v>
-      </c>
+      <c r="I357"/>
     </row>
     <row r="358" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
@@ -10980,9 +10327,7 @@
       <c r="H358" s="8">
         <v>5.7</v>
       </c>
-      <c r="I358" s="9">
-        <v>0</v>
-      </c>
+      <c r="I358"/>
     </row>
     <row r="359" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
@@ -11010,7 +10355,7 @@
         <v>17</v>
       </c>
       <c r="I359" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11038,9 +10383,7 @@
       <c r="H360" s="8">
         <v>15.2</v>
       </c>
-      <c r="I360" s="9">
-        <v>0</v>
-      </c>
+      <c r="I360"/>
     </row>
     <row r="361" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
@@ -11067,9 +10410,7 @@
       <c r="H361" s="8">
         <v>8.9</v>
       </c>
-      <c r="I361" s="9">
-        <v>0</v>
-      </c>
+      <c r="I361"/>
     </row>
     <row r="362" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
@@ -11097,7 +10438,7 @@
         <v>12.7</v>
       </c>
       <c r="I362" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11125,9 +10466,7 @@
       <c r="H363" s="8">
         <v>11.4</v>
       </c>
-      <c r="I363" s="9">
-        <v>0</v>
-      </c>
+      <c r="I363"/>
     </row>
     <row r="364" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
@@ -11154,9 +10493,7 @@
       <c r="H364" s="8">
         <v>14.5</v>
       </c>
-      <c r="I364" s="9">
-        <v>0</v>
-      </c>
+      <c r="I364"/>
     </row>
     <row r="365" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
@@ -11183,9 +10520,7 @@
       <c r="H365" s="8">
         <v>12.6</v>
       </c>
-      <c r="I365" s="9">
-        <v>0</v>
-      </c>
+      <c r="I365"/>
     </row>
     <row r="366" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
@@ -11213,7 +10548,7 @@
         <v>15.3</v>
       </c>
       <c r="I366" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11241,9 +10576,7 @@
       <c r="H367" s="8">
         <v>10.3</v>
       </c>
-      <c r="I367" s="9">
-        <v>0</v>
-      </c>
+      <c r="I367"/>
     </row>
     <row r="368" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
@@ -11270,9 +10603,7 @@
       <c r="H368" s="8">
         <v>14.3</v>
       </c>
-      <c r="I368" s="9">
-        <v>0</v>
-      </c>
+      <c r="I368"/>
     </row>
     <row r="369" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
@@ -11299,9 +10630,7 @@
       <c r="H369" s="8">
         <v>15.9</v>
       </c>
-      <c r="I369" s="9">
-        <v>0</v>
-      </c>
+      <c r="I369"/>
     </row>
     <row r="370" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
@@ -11328,9 +10657,7 @@
       <c r="H370" s="8">
         <v>8</v>
       </c>
-      <c r="I370" s="9">
-        <v>0</v>
-      </c>
+      <c r="I370"/>
     </row>
     <row r="371" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
@@ -11357,9 +10684,7 @@
       <c r="H371" s="8">
         <v>4.3</v>
       </c>
-      <c r="I371" s="9">
-        <v>0</v>
-      </c>
+      <c r="I371"/>
     </row>
     <row r="372" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
@@ -11386,9 +10711,7 @@
       <c r="H372" s="8">
         <v>7.6</v>
       </c>
-      <c r="I372" s="9">
-        <v>0</v>
-      </c>
+      <c r="I372"/>
     </row>
     <row r="373" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
@@ -11416,7 +10739,7 @@
         <v>14.2</v>
       </c>
       <c r="I373" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11444,9 +10767,7 @@
       <c r="H374" s="8">
         <v>12.1</v>
       </c>
-      <c r="I374" s="9">
-        <v>0</v>
-      </c>
+      <c r="I374"/>
     </row>
     <row r="375" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
@@ -11473,9 +10794,7 @@
       <c r="H375" s="8">
         <v>12.2</v>
       </c>
-      <c r="I375" s="9">
-        <v>0</v>
-      </c>
+      <c r="I375"/>
     </row>
     <row r="376" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
@@ -11502,9 +10821,7 @@
       <c r="H376" s="8">
         <v>11.1</v>
       </c>
-      <c r="I376" s="9">
-        <v>0</v>
-      </c>
+      <c r="I376"/>
     </row>
     <row r="377" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
@@ -11531,9 +10848,7 @@
       <c r="H377" s="8">
         <v>13.2</v>
       </c>
-      <c r="I377" s="9">
-        <v>0</v>
-      </c>
+      <c r="I377"/>
     </row>
     <row r="378" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
@@ -11560,9 +10875,7 @@
       <c r="H378" s="8">
         <v>14.3</v>
       </c>
-      <c r="I378" s="9">
-        <v>0</v>
-      </c>
+      <c r="I378"/>
     </row>
     <row r="379" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
@@ -11589,9 +10902,7 @@
       <c r="H379" s="8">
         <v>12.9</v>
       </c>
-      <c r="I379" s="9">
-        <v>0</v>
-      </c>
+      <c r="I379"/>
     </row>
     <row r="380" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
@@ -11619,7 +10930,7 @@
         <v>10.8</v>
       </c>
       <c r="I380" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11647,9 +10958,7 @@
       <c r="H381" s="8">
         <v>10.9</v>
       </c>
-      <c r="I381" s="9">
-        <v>0</v>
-      </c>
+      <c r="I381"/>
     </row>
     <row r="382" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
@@ -11676,9 +10985,7 @@
       <c r="H382" s="8">
         <v>8.6</v>
       </c>
-      <c r="I382" s="9">
-        <v>0</v>
-      </c>
+      <c r="I382"/>
     </row>
     <row r="383" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
@@ -11705,9 +11012,7 @@
       <c r="H383" s="8">
         <v>15.4</v>
       </c>
-      <c r="I383" s="9">
-        <v>0</v>
-      </c>
+      <c r="I383"/>
     </row>
     <row r="384" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
@@ -11734,9 +11039,7 @@
       <c r="H384" s="8">
         <v>7.9</v>
       </c>
-      <c r="I384" s="9">
-        <v>0</v>
-      </c>
+      <c r="I384"/>
     </row>
     <row r="385" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
@@ -11763,9 +11066,7 @@
       <c r="H385" s="8">
         <v>9.4</v>
       </c>
-      <c r="I385" s="9">
-        <v>0</v>
-      </c>
+      <c r="I385"/>
     </row>
     <row r="386" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
@@ -11792,9 +11093,7 @@
       <c r="H386" s="8">
         <v>10.3</v>
       </c>
-      <c r="I386" s="9">
-        <v>0</v>
-      </c>
+      <c r="I386"/>
     </row>
     <row r="387" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
@@ -11822,7 +11121,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="I387" s="9" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="388" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11850,9 +11149,7 @@
       <c r="H388" s="8">
         <v>6.2</v>
       </c>
-      <c r="I388" s="9">
-        <v>0</v>
-      </c>
+      <c r="I388"/>
     </row>
     <row r="389" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
@@ -11879,9 +11176,7 @@
       <c r="H389" s="8">
         <v>12.8</v>
       </c>
-      <c r="I389" s="9">
-        <v>0</v>
-      </c>
+      <c r="I389"/>
     </row>
     <row r="390" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
@@ -11908,9 +11203,7 @@
       <c r="H390" s="8">
         <v>14.7</v>
       </c>
-      <c r="I390" s="9">
-        <v>0</v>
-      </c>
+      <c r="I390"/>
     </row>
     <row r="391" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
@@ -11937,9 +11230,7 @@
       <c r="H391" s="8">
         <v>14.3</v>
       </c>
-      <c r="I391" s="9">
-        <v>0</v>
-      </c>
+      <c r="I391"/>
     </row>
     <row r="392" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
@@ -11966,9 +11257,7 @@
       <c r="H392" s="8">
         <v>7.4</v>
       </c>
-      <c r="I392" s="9">
-        <v>0</v>
-      </c>
+      <c r="I392"/>
     </row>
     <row r="393" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
@@ -11995,9 +11284,7 @@
       <c r="H393" s="8">
         <v>14.3</v>
       </c>
-      <c r="I393" s="9">
-        <v>0</v>
-      </c>
+      <c r="I393"/>
     </row>
     <row r="394" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
@@ -12025,7 +11312,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="I394" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12053,9 +11340,7 @@
       <c r="H395" s="8">
         <v>7</v>
       </c>
-      <c r="I395" s="9">
-        <v>0</v>
-      </c>
+      <c r="I395"/>
     </row>
     <row r="396" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
@@ -12083,7 +11368,7 @@
         <v>11.7</v>
       </c>
       <c r="I396" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12111,9 +11396,7 @@
       <c r="H397" s="8">
         <v>11.1</v>
       </c>
-      <c r="I397" s="9">
-        <v>0</v>
-      </c>
+      <c r="I397"/>
     </row>
     <row r="398" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
@@ -12140,9 +11423,7 @@
       <c r="H398" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I398" s="9">
-        <v>0</v>
-      </c>
+      <c r="I398"/>
     </row>
     <row r="399" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
@@ -12169,9 +11450,7 @@
       <c r="H399" s="8">
         <v>6.7</v>
       </c>
-      <c r="I399" s="9">
-        <v>0</v>
-      </c>
+      <c r="I399"/>
     </row>
     <row r="400" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
@@ -12198,9 +11477,7 @@
       <c r="H400" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I400" s="9">
-        <v>0</v>
-      </c>
+      <c r="I400"/>
     </row>
     <row r="401" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
@@ -12227,9 +11504,7 @@
       <c r="H401" s="8">
         <v>13</v>
       </c>
-      <c r="I401" s="9">
-        <v>0</v>
-      </c>
+      <c r="I401"/>
     </row>
     <row r="402" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
@@ -12256,9 +11531,7 @@
       <c r="H402" s="8">
         <v>12.7</v>
       </c>
-      <c r="I402" s="9">
-        <v>0</v>
-      </c>
+      <c r="I402"/>
     </row>
     <row r="403" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
@@ -12285,9 +11558,7 @@
       <c r="H403" s="8">
         <v>7.4</v>
       </c>
-      <c r="I403" s="9">
-        <v>0</v>
-      </c>
+      <c r="I403"/>
     </row>
     <row r="404" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
@@ -12314,9 +11585,7 @@
       <c r="H404" s="8">
         <v>15.2</v>
       </c>
-      <c r="I404" s="9">
-        <v>0</v>
-      </c>
+      <c r="I404"/>
     </row>
     <row r="405" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
@@ -12343,9 +11612,7 @@
       <c r="H405" s="8">
         <v>15</v>
       </c>
-      <c r="I405" s="9">
-        <v>0</v>
-      </c>
+      <c r="I405"/>
     </row>
     <row r="406" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
@@ -12372,9 +11639,7 @@
       <c r="H406" s="8">
         <v>8.1</v>
       </c>
-      <c r="I406" s="9">
-        <v>0</v>
-      </c>
+      <c r="I406"/>
     </row>
     <row r="407" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
@@ -12401,9 +11666,7 @@
       <c r="H407" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I407" s="9">
-        <v>0</v>
-      </c>
+      <c r="I407"/>
     </row>
     <row r="408" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
@@ -12430,9 +11693,7 @@
       <c r="H408" s="8">
         <v>7.5</v>
       </c>
-      <c r="I408" s="9">
-        <v>0</v>
-      </c>
+      <c r="I408"/>
     </row>
     <row r="409" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
@@ -12459,9 +11720,7 @@
       <c r="H409" s="8">
         <v>15.1</v>
       </c>
-      <c r="I409" s="9">
-        <v>0</v>
-      </c>
+      <c r="I409"/>
     </row>
     <row r="410" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
@@ -12488,9 +11747,7 @@
       <c r="H410" s="10">
         <v>14.9</v>
       </c>
-      <c r="I410" s="9">
-        <v>0</v>
-      </c>
+      <c r="I410"/>
     </row>
     <row r="411" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
@@ -12518,7 +11775,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="I411" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12546,9 +11803,7 @@
       <c r="H412" s="10">
         <v>6.9</v>
       </c>
-      <c r="I412" s="9">
-        <v>0</v>
-      </c>
+      <c r="I412"/>
     </row>
     <row r="413" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
@@ -12575,9 +11830,7 @@
       <c r="H413" s="10">
         <v>12.4</v>
       </c>
-      <c r="I413" s="9">
-        <v>0</v>
-      </c>
+      <c r="I413"/>
     </row>
     <row r="414" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
@@ -12604,9 +11857,7 @@
       <c r="H414" s="10">
         <v>17.5</v>
       </c>
-      <c r="I414" s="9">
-        <v>0</v>
-      </c>
+      <c r="I414"/>
     </row>
     <row r="415" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
@@ -12633,9 +11884,7 @@
       <c r="H415" s="10">
         <v>6.3</v>
       </c>
-      <c r="I415" s="9">
-        <v>0</v>
-      </c>
+      <c r="I415"/>
     </row>
     <row r="416" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
@@ -12662,9 +11911,7 @@
       <c r="H416" s="10">
         <v>12.8</v>
       </c>
-      <c r="I416" s="9">
-        <v>0</v>
-      </c>
+      <c r="I416"/>
     </row>
     <row r="417" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="9">
@@ -12692,7 +11939,7 @@
         <v>8.4</v>
       </c>
       <c r="I417" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12720,9 +11967,7 @@
       <c r="H418" s="10">
         <v>6.6</v>
       </c>
-      <c r="I418" s="9">
-        <v>0</v>
-      </c>
+      <c r="I418"/>
     </row>
     <row r="419" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
@@ -12749,9 +11994,7 @@
       <c r="H419" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I419" s="9">
-        <v>0</v>
-      </c>
+      <c r="I419"/>
     </row>
     <row r="420" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
@@ -12778,9 +12021,7 @@
       <c r="H420" s="10">
         <v>6.8</v>
       </c>
-      <c r="I420" s="9">
-        <v>0</v>
-      </c>
+      <c r="I420"/>
     </row>
     <row r="421" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
@@ -12807,9 +12048,7 @@
       <c r="H421" s="10">
         <v>12.1</v>
       </c>
-      <c r="I421" s="9">
-        <v>0</v>
-      </c>
+      <c r="I421"/>
     </row>
     <row r="422" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
@@ -12836,9 +12075,7 @@
       <c r="H422" s="10">
         <v>15.7</v>
       </c>
-      <c r="I422" s="9">
-        <v>0</v>
-      </c>
+      <c r="I422"/>
     </row>
     <row r="423" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
@@ -12865,9 +12102,7 @@
       <c r="H423" s="10">
         <v>16.3</v>
       </c>
-      <c r="I423" s="9">
-        <v>0</v>
-      </c>
+      <c r="I423"/>
     </row>
     <row r="424" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="9">
@@ -12894,9 +12129,7 @@
       <c r="H424" s="10">
         <v>8.9</v>
       </c>
-      <c r="I424" s="9">
-        <v>0</v>
-      </c>
+      <c r="I424"/>
     </row>
     <row r="425" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
@@ -12923,9 +12156,7 @@
       <c r="H425" s="10">
         <v>14.9</v>
       </c>
-      <c r="I425" s="9">
-        <v>0</v>
-      </c>
+      <c r="I425"/>
     </row>
     <row r="426" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
@@ -12938,7 +12169,7 @@
         <v>45797</v>
       </c>
       <c r="D426">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E426" s="10">
         <v>52.5</v>
@@ -12952,9 +12183,7 @@
       <c r="H426" s="10">
         <v>16.100000000000001</v>
       </c>
-      <c r="I426" s="9">
-        <v>0</v>
-      </c>
+      <c r="I426"/>
     </row>
     <row r="427" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
@@ -12967,7 +12196,7 @@
         <v>45798</v>
       </c>
       <c r="D427">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E427" s="10">
         <v>52.5</v>
@@ -12981,9 +12210,7 @@
       <c r="H427" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I427" s="9">
-        <v>0</v>
-      </c>
+      <c r="I427"/>
     </row>
     <row r="428" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
@@ -12996,7 +12223,7 @@
         <v>45799</v>
       </c>
       <c r="D428">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E428" s="10">
         <v>50.9</v>
@@ -13010,9 +12237,7 @@
       <c r="H428" s="10">
         <v>10</v>
       </c>
-      <c r="I428" s="9">
-        <v>0</v>
-      </c>
+      <c r="I428"/>
     </row>
     <row r="429" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
@@ -13025,7 +12250,7 @@
         <v>45800</v>
       </c>
       <c r="D429">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E429" s="10">
         <v>52.7</v>
@@ -13039,9 +12264,7 @@
       <c r="H429" s="10">
         <v>8.4</v>
       </c>
-      <c r="I429" s="9">
-        <v>0</v>
-      </c>
+      <c r="I429"/>
     </row>
     <row r="430" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
@@ -13054,7 +12277,7 @@
         <v>45801</v>
       </c>
       <c r="D430">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E430" s="10">
         <v>54.5</v>
@@ -13068,9 +12291,7 @@
       <c r="H430" s="10">
         <v>6.9</v>
       </c>
-      <c r="I430" s="9">
-        <v>0</v>
-      </c>
+      <c r="I430"/>
     </row>
     <row r="431" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="9">
@@ -13083,7 +12304,7 @@
         <v>45802</v>
       </c>
       <c r="D431">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E431" s="10">
         <v>56.3</v>
@@ -13097,9 +12318,7 @@
       <c r="H431" s="10">
         <v>7.8</v>
       </c>
-      <c r="I431" s="9">
-        <v>0</v>
-      </c>
+      <c r="I431"/>
     </row>
     <row r="432" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
@@ -13112,7 +12331,7 @@
         <v>45803</v>
       </c>
       <c r="D432">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E432" s="10">
         <v>58.5</v>
@@ -13127,7 +12346,7 @@
         <v>8.6</v>
       </c>
       <c r="I432" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13141,7 +12360,7 @@
         <v>45804</v>
       </c>
       <c r="D433">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E433" s="10">
         <v>61.3</v>
@@ -13155,9 +12374,7 @@
       <c r="H433" s="10">
         <v>8.9</v>
       </c>
-      <c r="I433" s="9">
-        <v>0</v>
-      </c>
+      <c r="I433"/>
     </row>
     <row r="434" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
@@ -13169,8 +12386,8 @@
       <c r="C434" s="7">
         <v>45805</v>
       </c>
-      <c r="D434">
-        <v>68</v>
+      <c r="D434" s="14">
+        <v>62</v>
       </c>
       <c r="E434" s="10">
         <v>63.9</v>
@@ -13184,9 +12401,7 @@
       <c r="H434" s="10">
         <v>8.9</v>
       </c>
-      <c r="I434" s="9">
-        <v>0</v>
-      </c>
+      <c r="I434"/>
     </row>
     <row r="435" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
@@ -13199,7 +12414,7 @@
         <v>45806</v>
       </c>
       <c r="D435">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E435" s="10">
         <v>64.8</v>
@@ -13213,9 +12428,7 @@
       <c r="H435" s="10">
         <v>9.1</v>
       </c>
-      <c r="I435" s="9">
-        <v>0</v>
-      </c>
+      <c r="I435"/>
     </row>
     <row r="436" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
@@ -13228,7 +12441,7 @@
         <v>45807</v>
       </c>
       <c r="D436">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E436" s="10">
         <v>58</v>
@@ -13242,9 +12455,7 @@
       <c r="H436" s="10">
         <v>9</v>
       </c>
-      <c r="I436" s="9">
-        <v>0</v>
-      </c>
+      <c r="I436"/>
     </row>
     <row r="437" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
@@ -13257,7 +12468,7 @@
         <v>45808</v>
       </c>
       <c r="D437">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="E437" s="10">
         <v>60</v>
@@ -13271,9 +12482,7 @@
       <c r="H437" s="10">
         <v>4</v>
       </c>
-      <c r="I437" s="9">
-        <v>0</v>
-      </c>
+      <c r="I437"/>
     </row>
     <row r="438" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9">
@@ -13286,7 +12495,7 @@
         <v>45809</v>
       </c>
       <c r="D438">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E438" s="10">
         <v>62</v>
@@ -13300,9 +12509,7 @@
       <c r="H438" s="10">
         <v>6</v>
       </c>
-      <c r="I438" s="9">
-        <v>0</v>
-      </c>
+      <c r="I438"/>
     </row>
     <row r="439" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
@@ -13329,9 +12536,7 @@
       <c r="H439" s="10">
         <v>10</v>
       </c>
-      <c r="I439" s="9">
-        <v>0</v>
-      </c>
+      <c r="I439"/>
     </row>
     <row r="440" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
@@ -13358,9 +12563,7 @@
       <c r="H440" s="10">
         <v>7</v>
       </c>
-      <c r="I440" s="9">
-        <v>0</v>
-      </c>
+      <c r="I440"/>
     </row>
     <row r="441" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
@@ -13387,9 +12590,7 @@
       <c r="H441" s="10">
         <v>7</v>
       </c>
-      <c r="I441" s="9">
-        <v>0</v>
-      </c>
+      <c r="I441"/>
     </row>
     <row r="442" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
@@ -13416,9 +12617,7 @@
       <c r="H442" s="10">
         <v>9</v>
       </c>
-      <c r="I442" s="9">
-        <v>0</v>
-      </c>
+      <c r="I442"/>
     </row>
     <row r="443" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
@@ -13445,9 +12644,7 @@
       <c r="H443" s="10">
         <v>6</v>
       </c>
-      <c r="I443" s="9">
-        <v>0</v>
-      </c>
+      <c r="I443"/>
     </row>
     <row r="444" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
@@ -13474,9 +12671,7 @@
       <c r="H444" s="10">
         <v>5</v>
       </c>
-      <c r="I444" s="9">
-        <v>0</v>
-      </c>
+      <c r="I444"/>
     </row>
     <row r="445" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9">
@@ -13503,9 +12698,7 @@
       <c r="H445" s="10">
         <v>7</v>
       </c>
-      <c r="I445" s="9">
-        <v>0</v>
-      </c>
+      <c r="I445"/>
     </row>
     <row r="446" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
@@ -13532,9 +12725,7 @@
       <c r="H446" s="10">
         <v>7</v>
       </c>
-      <c r="I446" s="9">
-        <v>0</v>
-      </c>
+      <c r="I446"/>
     </row>
     <row r="447" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
@@ -13561,9 +12752,7 @@
       <c r="H447" s="10">
         <v>2</v>
       </c>
-      <c r="I447" s="9">
-        <v>0</v>
-      </c>
+      <c r="I447"/>
     </row>
     <row r="448" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
@@ -13590,9 +12779,7 @@
       <c r="H448" s="10">
         <v>6</v>
       </c>
-      <c r="I448" s="9">
-        <v>0</v>
-      </c>
+      <c r="I448"/>
     </row>
     <row r="449" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
@@ -13619,9 +12806,7 @@
       <c r="H449" s="10">
         <v>8</v>
       </c>
-      <c r="I449" s="9">
-        <v>0</v>
-      </c>
+      <c r="I449"/>
     </row>
     <row r="450" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
@@ -13648,9 +12833,7 @@
       <c r="H450" s="10">
         <v>6</v>
       </c>
-      <c r="I450" s="9">
-        <v>0</v>
-      </c>
+      <c r="I450"/>
     </row>
     <row r="451" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
@@ -13677,9 +12860,7 @@
       <c r="H451" s="10">
         <v>4</v>
       </c>
-      <c r="I451" s="9">
-        <v>0</v>
-      </c>
+      <c r="I451"/>
     </row>
     <row r="452" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9">
@@ -13707,7 +12888,7 @@
         <v>4</v>
       </c>
       <c r="I452" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13735,9 +12916,7 @@
       <c r="H453" s="10">
         <v>6</v>
       </c>
-      <c r="I453" s="9">
-        <v>0</v>
-      </c>
+      <c r="I453"/>
     </row>
     <row r="454" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
@@ -13764,9 +12943,7 @@
       <c r="H454" s="10">
         <v>8</v>
       </c>
-      <c r="I454" s="9">
-        <v>0</v>
-      </c>
+      <c r="I454"/>
     </row>
     <row r="455" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
@@ -13793,9 +12970,7 @@
       <c r="H455" s="10">
         <v>14</v>
       </c>
-      <c r="I455" s="9">
-        <v>0</v>
-      </c>
+      <c r="I455"/>
     </row>
     <row r="456" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
@@ -13822,9 +12997,7 @@
       <c r="H456" s="10">
         <v>9</v>
       </c>
-      <c r="I456" s="9">
-        <v>0</v>
-      </c>
+      <c r="I456"/>
     </row>
     <row r="457" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
@@ -13851,9 +13024,7 @@
       <c r="H457" s="10">
         <v>8</v>
       </c>
-      <c r="I457" s="9">
-        <v>0</v>
-      </c>
+      <c r="I457"/>
     </row>
     <row r="458" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
@@ -13880,9 +13051,7 @@
       <c r="H458" s="10">
         <v>5</v>
       </c>
-      <c r="I458" s="9">
-        <v>0</v>
-      </c>
+      <c r="I458"/>
     </row>
     <row r="459" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9">
@@ -13909,9 +13078,7 @@
       <c r="H459" s="10">
         <v>3</v>
       </c>
-      <c r="I459" s="9">
-        <v>0</v>
-      </c>
+      <c r="I459"/>
     </row>
     <row r="460" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
@@ -13938,9 +13105,7 @@
       <c r="H460" s="10">
         <v>2</v>
       </c>
-      <c r="I460" s="9">
-        <v>0</v>
-      </c>
+      <c r="I460"/>
     </row>
     <row r="461" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
@@ -13967,9 +13132,7 @@
       <c r="H461" s="10">
         <v>8</v>
       </c>
-      <c r="I461" s="9">
-        <v>0</v>
-      </c>
+      <c r="I461"/>
     </row>
     <row r="462" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
@@ -13996,9 +13159,7 @@
       <c r="H462" s="10">
         <v>8</v>
       </c>
-      <c r="I462" s="9">
-        <v>0</v>
-      </c>
+      <c r="I462"/>
     </row>
     <row r="463" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
@@ -14025,9 +13186,7 @@
       <c r="H463" s="10">
         <v>4</v>
       </c>
-      <c r="I463" s="9">
-        <v>0</v>
-      </c>
+      <c r="I463"/>
     </row>
     <row r="464" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
@@ -14054,9 +13213,7 @@
       <c r="H464" s="10">
         <v>6</v>
       </c>
-      <c r="I464" s="9">
-        <v>0</v>
-      </c>
+      <c r="I464"/>
     </row>
     <row r="465" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
@@ -14083,9 +13240,7 @@
       <c r="H465" s="10">
         <v>8</v>
       </c>
-      <c r="I465" s="9">
-        <v>0</v>
-      </c>
+      <c r="I465"/>
     </row>
     <row r="466" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9">
@@ -14112,9 +13267,7 @@
       <c r="H466" s="10">
         <v>6</v>
       </c>
-      <c r="I466" s="9">
-        <v>0</v>
-      </c>
+      <c r="I466"/>
     </row>
     <row r="467" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9">
@@ -14141,9 +13294,7 @@
       <c r="H467" s="10">
         <v>5</v>
       </c>
-      <c r="I467" s="9">
-        <v>0</v>
-      </c>
+      <c r="I467"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2B7CBB-EEF1-4FD2-BD01-BAAEA880C2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0C512-787F-41EA-A0EC-44FB1068178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30180" yWindow="405" windowWidth="25755" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -279,6 +285,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +596,8 @@
   <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D438" sqref="D438"/>
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L448" sqref="L448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12349,7 +12358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>3</v>
       </c>
@@ -12360,7 +12369,7 @@
         <v>45804</v>
       </c>
       <c r="D433">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E433" s="10">
         <v>61.3</v>
@@ -12374,9 +12383,9 @@
       <c r="H433" s="10">
         <v>8.9</v>
       </c>
-      <c r="I433"/>
-    </row>
-    <row r="434" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K433" s="15"/>
+    </row>
+    <row r="434" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>4</v>
       </c>
@@ -12387,7 +12396,7 @@
         <v>45805</v>
       </c>
       <c r="D434" s="14">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E434" s="10">
         <v>63.9</v>
@@ -12402,8 +12411,9 @@
         <v>8.9</v>
       </c>
       <c r="I434"/>
-    </row>
-    <row r="435" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K434" s="15"/>
+    </row>
+    <row r="435" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>5</v>
       </c>
@@ -12414,7 +12424,7 @@
         <v>45806</v>
       </c>
       <c r="D435">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E435" s="10">
         <v>64.8</v>
@@ -12429,8 +12439,9 @@
         <v>9.1</v>
       </c>
       <c r="I435"/>
-    </row>
-    <row r="436" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K435" s="15"/>
+    </row>
+    <row r="436" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>6</v>
       </c>
@@ -12441,7 +12452,7 @@
         <v>45807</v>
       </c>
       <c r="D436">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E436" s="10">
         <v>58</v>
@@ -12456,8 +12467,9 @@
         <v>9</v>
       </c>
       <c r="I436"/>
-    </row>
-    <row r="437" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K436" s="15"/>
+    </row>
+    <row r="437" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>7</v>
       </c>
@@ -12468,7 +12480,7 @@
         <v>45808</v>
       </c>
       <c r="D437">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E437" s="10">
         <v>60</v>
@@ -12483,8 +12495,9 @@
         <v>4</v>
       </c>
       <c r="I437"/>
-    </row>
-    <row r="438" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K437" s="15"/>
+    </row>
+    <row r="438" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="9">
         <v>1</v>
       </c>
@@ -12495,7 +12508,7 @@
         <v>45809</v>
       </c>
       <c r="D438">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E438" s="10">
         <v>62</v>
@@ -12510,8 +12523,9 @@
         <v>6</v>
       </c>
       <c r="I438"/>
-    </row>
-    <row r="439" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K438" s="15"/>
+    </row>
+    <row r="439" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>2</v>
       </c>
@@ -12522,7 +12536,7 @@
         <v>45810</v>
       </c>
       <c r="D439">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E439" s="10">
         <v>63</v>
@@ -12537,8 +12551,9 @@
         <v>10</v>
       </c>
       <c r="I439"/>
-    </row>
-    <row r="440" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K439" s="15"/>
+    </row>
+    <row r="440" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>3</v>
       </c>
@@ -12549,7 +12564,7 @@
         <v>45811</v>
       </c>
       <c r="D440">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E440" s="10">
         <v>63</v>
@@ -12564,8 +12579,9 @@
         <v>7</v>
       </c>
       <c r="I440"/>
-    </row>
-    <row r="441" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K440" s="15"/>
+    </row>
+    <row r="441" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>4</v>
       </c>
@@ -12576,7 +12592,7 @@
         <v>45812</v>
       </c>
       <c r="D441">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E441" s="10">
         <v>64</v>
@@ -12591,8 +12607,9 @@
         <v>7</v>
       </c>
       <c r="I441"/>
-    </row>
-    <row r="442" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K441" s="15"/>
+    </row>
+    <row r="442" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>5</v>
       </c>
@@ -12603,7 +12620,7 @@
         <v>45813</v>
       </c>
       <c r="D442">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E442" s="10">
         <v>63</v>
@@ -12618,8 +12635,9 @@
         <v>9</v>
       </c>
       <c r="I442"/>
-    </row>
-    <row r="443" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K442" s="15"/>
+    </row>
+    <row r="443" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>6</v>
       </c>
@@ -12630,7 +12648,7 @@
         <v>45814</v>
       </c>
       <c r="D443">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E443" s="10">
         <v>61</v>
@@ -12645,8 +12663,9 @@
         <v>6</v>
       </c>
       <c r="I443"/>
-    </row>
-    <row r="444" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K443" s="15"/>
+    </row>
+    <row r="444" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>7</v>
       </c>
@@ -12657,7 +12676,7 @@
         <v>45815</v>
       </c>
       <c r="D444">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E444" s="10">
         <v>60</v>
@@ -12672,8 +12691,9 @@
         <v>5</v>
       </c>
       <c r="I444"/>
-    </row>
-    <row r="445" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K444" s="15"/>
+    </row>
+    <row r="445" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="9">
         <v>1</v>
       </c>
@@ -12684,7 +12704,7 @@
         <v>45816</v>
       </c>
       <c r="D445">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E445" s="10">
         <v>61</v>
@@ -12699,8 +12719,9 @@
         <v>7</v>
       </c>
       <c r="I445"/>
-    </row>
-    <row r="446" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K445" s="15"/>
+    </row>
+    <row r="446" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>2</v>
       </c>
@@ -12711,7 +12732,7 @@
         <v>45817</v>
       </c>
       <c r="D446">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E446" s="10">
         <v>61</v>
@@ -12726,8 +12747,9 @@
         <v>7</v>
       </c>
       <c r="I446"/>
-    </row>
-    <row r="447" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K446" s="15"/>
+    </row>
+    <row r="447" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>3</v>
       </c>
@@ -12738,7 +12760,7 @@
         <v>45818</v>
       </c>
       <c r="D447">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E447" s="10">
         <v>61</v>
@@ -12753,8 +12775,9 @@
         <v>2</v>
       </c>
       <c r="I447"/>
-    </row>
-    <row r="448" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K447" s="15"/>
+    </row>
+    <row r="448" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>4</v>
       </c>
@@ -12765,7 +12788,7 @@
         <v>45819</v>
       </c>
       <c r="D448">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E448" s="10">
         <v>63</v>
@@ -12780,8 +12803,9 @@
         <v>6</v>
       </c>
       <c r="I448"/>
-    </row>
-    <row r="449" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K448" s="15"/>
+    </row>
+    <row r="449" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>5</v>
       </c>
@@ -12792,7 +12816,7 @@
         <v>45820</v>
       </c>
       <c r="D449">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E449" s="10">
         <v>69</v>
@@ -12807,8 +12831,9 @@
         <v>8</v>
       </c>
       <c r="I449"/>
-    </row>
-    <row r="450" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K449" s="15"/>
+    </row>
+    <row r="450" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>6</v>
       </c>
@@ -12819,7 +12844,7 @@
         <v>45821</v>
       </c>
       <c r="D450">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E450" s="10">
         <v>66</v>
@@ -12834,8 +12859,9 @@
         <v>6</v>
       </c>
       <c r="I450"/>
-    </row>
-    <row r="451" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K450" s="15"/>
+    </row>
+    <row r="451" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>7</v>
       </c>
@@ -12846,7 +12872,7 @@
         <v>45822</v>
       </c>
       <c r="D451">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E451" s="10">
         <v>69</v>
@@ -12861,8 +12887,9 @@
         <v>4</v>
       </c>
       <c r="I451"/>
-    </row>
-    <row r="452" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K451" s="15"/>
+    </row>
+    <row r="452" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="9">
         <v>1</v>
       </c>
@@ -12873,7 +12900,7 @@
         <v>45823</v>
       </c>
       <c r="D452">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E452" s="10">
         <v>67</v>
@@ -12890,8 +12917,9 @@
       <c r="I452" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K452" s="15"/>
+    </row>
+    <row r="453" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>2</v>
       </c>
@@ -12902,7 +12930,7 @@
         <v>45824</v>
       </c>
       <c r="D453">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E453" s="10">
         <v>63</v>
@@ -12917,8 +12945,9 @@
         <v>6</v>
       </c>
       <c r="I453"/>
-    </row>
-    <row r="454" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K453" s="15"/>
+    </row>
+    <row r="454" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>3</v>
       </c>
@@ -12929,7 +12958,7 @@
         <v>45825</v>
       </c>
       <c r="D454">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E454" s="10">
         <v>70</v>
@@ -12944,8 +12973,9 @@
         <v>8</v>
       </c>
       <c r="I454"/>
-    </row>
-    <row r="455" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K454" s="15"/>
+    </row>
+    <row r="455" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>4</v>
       </c>
@@ -12956,7 +12986,7 @@
         <v>45826</v>
       </c>
       <c r="D455">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E455" s="10">
         <v>70</v>
@@ -12971,8 +13001,9 @@
         <v>14</v>
       </c>
       <c r="I455"/>
-    </row>
-    <row r="456" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K455" s="15"/>
+    </row>
+    <row r="456" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>5</v>
       </c>
@@ -12983,7 +13014,7 @@
         <v>45827</v>
       </c>
       <c r="D456">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E456" s="10">
         <v>70</v>
@@ -12998,8 +13029,9 @@
         <v>9</v>
       </c>
       <c r="I456"/>
-    </row>
-    <row r="457" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K456" s="15"/>
+    </row>
+    <row r="457" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>6</v>
       </c>
@@ -13010,7 +13042,7 @@
         <v>45828</v>
       </c>
       <c r="D457">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E457" s="10">
         <v>69</v>
@@ -13025,8 +13057,9 @@
         <v>8</v>
       </c>
       <c r="I457"/>
-    </row>
-    <row r="458" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K457" s="15"/>
+    </row>
+    <row r="458" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>7</v>
       </c>
@@ -13037,7 +13070,7 @@
         <v>45829</v>
       </c>
       <c r="D458">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E458" s="10">
         <v>71</v>
@@ -13052,8 +13085,9 @@
         <v>5</v>
       </c>
       <c r="I458"/>
-    </row>
-    <row r="459" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K458" s="15"/>
+    </row>
+    <row r="459" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="9">
         <v>1</v>
       </c>
@@ -13064,7 +13098,7 @@
         <v>45830</v>
       </c>
       <c r="D459">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E459" s="10">
         <v>74</v>
@@ -13079,8 +13113,9 @@
         <v>3</v>
       </c>
       <c r="I459"/>
-    </row>
-    <row r="460" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K459" s="15"/>
+    </row>
+    <row r="460" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
         <v>2</v>
       </c>
@@ -13091,7 +13126,7 @@
         <v>45831</v>
       </c>
       <c r="D460">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E460" s="10">
         <v>75</v>
@@ -13106,8 +13141,9 @@
         <v>2</v>
       </c>
       <c r="I460"/>
-    </row>
-    <row r="461" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K460" s="15"/>
+    </row>
+    <row r="461" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
         <v>3</v>
       </c>
@@ -13118,7 +13154,7 @@
         <v>45832</v>
       </c>
       <c r="D461">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E461" s="10">
         <v>75</v>
@@ -13133,8 +13169,9 @@
         <v>8</v>
       </c>
       <c r="I461"/>
-    </row>
-    <row r="462" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K461" s="15"/>
+    </row>
+    <row r="462" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
         <v>4</v>
       </c>
@@ -13145,7 +13182,7 @@
         <v>45833</v>
       </c>
       <c r="D462">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E462" s="10">
         <v>76</v>
@@ -13160,8 +13197,9 @@
         <v>8</v>
       </c>
       <c r="I462"/>
-    </row>
-    <row r="463" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K462" s="15"/>
+    </row>
+    <row r="463" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
         <v>5</v>
       </c>
@@ -13172,7 +13210,7 @@
         <v>45834</v>
       </c>
       <c r="D463">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E463" s="10">
         <v>76</v>
@@ -13187,8 +13225,9 @@
         <v>4</v>
       </c>
       <c r="I463"/>
-    </row>
-    <row r="464" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K463" s="15"/>
+    </row>
+    <row r="464" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
         <v>6</v>
       </c>
@@ -13199,7 +13238,7 @@
         <v>45835</v>
       </c>
       <c r="D464">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E464" s="10">
         <v>75</v>
@@ -13214,8 +13253,9 @@
         <v>6</v>
       </c>
       <c r="I464"/>
-    </row>
-    <row r="465" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K464" s="15"/>
+    </row>
+    <row r="465" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
         <v>7</v>
       </c>
@@ -13226,7 +13266,7 @@
         <v>45836</v>
       </c>
       <c r="D465">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E465" s="10">
         <v>71</v>
@@ -13241,8 +13281,9 @@
         <v>8</v>
       </c>
       <c r="I465"/>
-    </row>
-    <row r="466" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K465" s="15"/>
+    </row>
+    <row r="466" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="9">
         <v>1</v>
       </c>
@@ -13253,7 +13294,7 @@
         <v>45837</v>
       </c>
       <c r="D466">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E466" s="10">
         <v>71</v>
@@ -13268,8 +13309,9 @@
         <v>6</v>
       </c>
       <c r="I466"/>
-    </row>
-    <row r="467" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K466" s="15"/>
+    </row>
+    <row r="467" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="9">
         <v>2</v>
       </c>
@@ -13280,7 +13322,7 @@
         <v>45838</v>
       </c>
       <c r="D467">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E467" s="10">
         <v>73</v>
@@ -13295,6 +13337,7 @@
         <v>5</v>
       </c>
       <c r="I467"/>
+      <c r="K467" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25571256-0ED6-4D23-AEDD-1D349507218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D82E137-B1C3-4DF0-A524-84CDFFAD73FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -663,12 +663,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -676,12 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,37 +677,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,18 +695,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +714,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,9 +1051,9 @@
   </sheetPr>
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J432" sqref="J432"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J443" sqref="J443:J467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12396,10 +12387,10 @@
         <v>86</v>
       </c>
       <c r="E431" s="9">
-        <v>57.4</v>
+        <v>57</v>
       </c>
       <c r="F431" s="9">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G431" s="9">
         <v>0</v>
@@ -12422,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="E432" s="9">
-        <v>57</v>
+        <v>56.5</v>
       </c>
       <c r="F432" s="9">
         <v>0</v>
@@ -12431,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="H432" s="9">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I432" s="10" t="s">
         <v>15</v>
@@ -12451,16 +12442,16 @@
         <v>54</v>
       </c>
       <c r="E433" s="9">
-        <v>57.2</v>
+        <v>59.2</v>
       </c>
       <c r="F433" s="9">
-        <v>0.35799999999999998</v>
+        <v>0</v>
       </c>
       <c r="G433" s="9">
         <v>0</v>
       </c>
       <c r="H433" s="9">
-        <v>12.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K433" s="13"/>
     </row>
@@ -12478,16 +12469,16 @@
         <v>60</v>
       </c>
       <c r="E434" s="9">
-        <v>56.7</v>
+        <v>57.9</v>
       </c>
       <c r="F434" s="9">
-        <v>0</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="G434" s="9">
         <v>0</v>
       </c>
       <c r="H434" s="9">
-        <v>10.4</v>
+        <v>7</v>
       </c>
       <c r="K434" s="13"/>
     </row>
@@ -12514,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="H435" s="9">
-        <v>10.1</v>
+        <v>5.8</v>
       </c>
       <c r="J435" s="9"/>
       <c r="K435" s="13"/>
@@ -12533,7 +12524,7 @@
         <v>137</v>
       </c>
       <c r="E436" s="9">
-        <v>64.400000000000006</v>
+        <v>63.7</v>
       </c>
       <c r="F436" s="9">
         <v>0</v>
@@ -12542,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="H436" s="9">
-        <v>9.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="J436" s="9"/>
       <c r="K436" s="13"/>
@@ -12561,7 +12552,7 @@
         <v>170</v>
       </c>
       <c r="E437" s="9">
-        <v>65.5</v>
+        <v>63.9</v>
       </c>
       <c r="F437" s="9">
         <v>0</v>
@@ -12570,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="H437" s="9">
-        <v>9.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J437" s="15"/>
       <c r="K437" s="13"/>
@@ -12586,10 +12577,10 @@
         <v>45809</v>
       </c>
       <c r="D438" s="7">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E438" s="9">
-        <v>67.099999999999994</v>
+        <v>58.3</v>
       </c>
       <c r="F438" s="9">
         <v>0</v>
@@ -12598,11 +12589,9 @@
         <v>0</v>
       </c>
       <c r="H438" s="9">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J438" s="15">
-        <v>6.78</v>
-      </c>
+        <v>4.7</v>
+      </c>
+      <c r="J438" s="15"/>
       <c r="K438" s="13"/>
     </row>
     <row r="439" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12616,23 +12605,21 @@
         <v>45810</v>
       </c>
       <c r="D439" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E439" s="9">
-        <v>69.3</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F439" s="9">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="G439" s="9">
         <v>0</v>
       </c>
       <c r="H439" s="9">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J439" s="15">
-        <v>7.44</v>
-      </c>
+        <v>7.5</v>
+      </c>
+      <c r="J439" s="15"/>
       <c r="K439" s="13"/>
     </row>
     <row r="440" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12646,23 +12633,21 @@
         <v>45811</v>
       </c>
       <c r="D440" s="7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E440" s="9">
-        <v>70.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F440" s="9">
-        <v>0.05</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G440" s="9">
         <v>0</v>
       </c>
       <c r="H440" s="9">
-        <v>9.6</v>
-      </c>
-      <c r="J440" s="15">
-        <v>15.46</v>
-      </c>
+        <v>14.1</v>
+      </c>
+      <c r="J440" s="15"/>
       <c r="K440" s="13"/>
     </row>
     <row r="441" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12676,23 +12661,21 @@
         <v>45812</v>
       </c>
       <c r="D441" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E441" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F441" s="9">
-        <v>0.14000000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="G441" s="9">
         <v>0</v>
       </c>
       <c r="H441" s="9">
-        <v>7</v>
-      </c>
-      <c r="J441" s="15">
-        <v>8.0500000000000007</v>
-      </c>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J441" s="15"/>
       <c r="K441" s="13"/>
     </row>
     <row r="442" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12706,23 +12689,21 @@
         <v>45813</v>
       </c>
       <c r="D442" s="7">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E442" s="9">
-        <v>63</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F442" s="9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G442" s="9">
         <v>0</v>
       </c>
       <c r="H442" s="9">
-        <v>9</v>
-      </c>
-      <c r="J442" s="15">
-        <v>10.42</v>
-      </c>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J442" s="15"/>
       <c r="K442" s="13"/>
     </row>
     <row r="443" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12736,22 +12717,22 @@
         <v>45814</v>
       </c>
       <c r="D443" s="7">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="E443" s="9">
-        <v>61</v>
+        <v>65.8</v>
       </c>
       <c r="F443" s="9">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="G443" s="9">
         <v>0</v>
       </c>
       <c r="H443" s="9">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J443" s="9">
-        <v>16.600000000000001</v>
+        <v>13.46</v>
       </c>
       <c r="K443" s="13"/>
     </row>
@@ -12766,10 +12747,10 @@
         <v>45815</v>
       </c>
       <c r="D444" s="7">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E444" s="9">
-        <v>60</v>
+        <v>65.5</v>
       </c>
       <c r="F444" s="9">
         <v>0</v>
@@ -12778,10 +12759,10 @@
         <v>0</v>
       </c>
       <c r="H444" s="9">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="J444" s="9">
-        <v>16.52</v>
+        <v>14.19</v>
       </c>
       <c r="K444" s="13"/>
     </row>
@@ -12796,10 +12777,10 @@
         <v>45816</v>
       </c>
       <c r="D445" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E445" s="9">
-        <v>61</v>
+        <v>66.7</v>
       </c>
       <c r="F445" s="9">
         <v>0</v>
@@ -12808,10 +12789,10 @@
         <v>0</v>
       </c>
       <c r="H445" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J445" s="15">
-        <v>8.6</v>
+        <v>11.32</v>
       </c>
       <c r="K445" s="13"/>
     </row>
@@ -12826,10 +12807,10 @@
         <v>45817</v>
       </c>
       <c r="D446" s="7">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E446" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F446" s="9">
         <v>0</v>
@@ -12838,10 +12819,10 @@
         <v>0</v>
       </c>
       <c r="H446" s="9">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="J446" s="15">
-        <v>12.18</v>
+        <v>6.59</v>
       </c>
       <c r="K446" s="13"/>
     </row>
@@ -12856,10 +12837,10 @@
         <v>45818</v>
       </c>
       <c r="D447" s="7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E447" s="9">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F447" s="9">
         <v>0</v>
@@ -12868,10 +12849,10 @@
         <v>0</v>
       </c>
       <c r="H447" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J447" s="15">
-        <v>18.91</v>
+        <v>13.36</v>
       </c>
       <c r="K447" s="13"/>
     </row>
@@ -12886,10 +12867,10 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E448" s="9">
-        <v>63</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="F448" s="9">
         <v>0.35</v>
@@ -12898,10 +12879,10 @@
         <v>0</v>
       </c>
       <c r="H448" s="9">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="J448" s="15">
-        <v>12.75</v>
+        <v>9.98</v>
       </c>
       <c r="K448" s="13"/>
     </row>
@@ -12916,10 +12897,10 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E449" s="9">
-        <v>69</v>
+        <v>71.2</v>
       </c>
       <c r="F449" s="9">
         <v>0.49</v>
@@ -12928,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="H449" s="9">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J449" s="15">
-        <v>13.48</v>
+        <v>5.98</v>
       </c>
       <c r="K449" s="13"/>
     </row>
@@ -12946,10 +12927,10 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E450" s="9">
-        <v>66</v>
+        <v>72.3</v>
       </c>
       <c r="F450" s="9">
         <v>0.4</v>
@@ -12958,10 +12939,10 @@
         <v>0</v>
       </c>
       <c r="H450" s="9">
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="J450" s="9">
-        <v>17.920000000000002</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="K450" s="13"/>
     </row>
@@ -12976,7 +12957,7 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E451" s="9">
         <v>69</v>
@@ -12991,7 +12972,7 @@
         <v>4</v>
       </c>
       <c r="J451" s="9">
-        <v>7.28</v>
+        <v>8.1</v>
       </c>
       <c r="K451" s="13"/>
     </row>
@@ -13006,7 +12987,7 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E452" s="9">
         <v>67</v>
@@ -13024,7 +13005,7 @@
         <v>16</v>
       </c>
       <c r="J452" s="15">
-        <v>17.93</v>
+        <v>19.55</v>
       </c>
       <c r="K452" s="13"/>
     </row>
@@ -13039,7 +13020,7 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E453" s="9">
         <v>63</v>
@@ -13054,7 +13035,7 @@
         <v>6</v>
       </c>
       <c r="J453" s="15">
-        <v>7.93</v>
+        <v>10.47</v>
       </c>
       <c r="K453" s="13"/>
     </row>
@@ -13069,7 +13050,7 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E454" s="9">
         <v>70</v>
@@ -13084,7 +13065,7 @@
         <v>8</v>
       </c>
       <c r="J454" s="15">
-        <v>13.12</v>
+        <v>16.73</v>
       </c>
       <c r="K454" s="13"/>
     </row>
@@ -13099,7 +13080,7 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E455" s="9">
         <v>70</v>
@@ -13114,7 +13095,7 @@
         <v>14</v>
       </c>
       <c r="J455" s="15">
-        <v>22.02</v>
+        <v>22.08</v>
       </c>
       <c r="K455" s="13"/>
     </row>
@@ -13129,7 +13110,7 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E456" s="9">
         <v>70</v>
@@ -13144,7 +13125,7 @@
         <v>9</v>
       </c>
       <c r="J456" s="15">
-        <v>8.94</v>
+        <v>11.31</v>
       </c>
       <c r="K456" s="13"/>
     </row>
@@ -13159,7 +13140,7 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E457" s="9">
         <v>69</v>
@@ -13174,7 +13155,7 @@
         <v>8</v>
       </c>
       <c r="J457" s="9">
-        <v>18.8</v>
+        <v>20.6</v>
       </c>
       <c r="K457" s="13"/>
     </row>
@@ -13189,7 +13170,7 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E458" s="9">
         <v>71</v>
@@ -13204,7 +13185,7 @@
         <v>5</v>
       </c>
       <c r="J458" s="9">
-        <v>3.6</v>
+        <v>5.67</v>
       </c>
       <c r="K458" s="13"/>
     </row>
@@ -13219,7 +13200,7 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E459" s="9">
         <v>74</v>
@@ -13234,7 +13215,7 @@
         <v>3</v>
       </c>
       <c r="J459" s="15">
-        <v>14.58</v>
+        <v>11.62</v>
       </c>
       <c r="K459" s="13"/>
     </row>
@@ -13249,7 +13230,7 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E460" s="9">
         <v>75</v>
@@ -13264,7 +13245,7 @@
         <v>2</v>
       </c>
       <c r="J460" s="15">
-        <v>20.65</v>
+        <v>25.67</v>
       </c>
       <c r="K460" s="13"/>
     </row>
@@ -13279,7 +13260,7 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E461" s="9">
         <v>75</v>
@@ -13294,7 +13275,7 @@
         <v>8</v>
       </c>
       <c r="J461" s="15">
-        <v>8.76</v>
+        <v>6.83</v>
       </c>
       <c r="K461" s="13"/>
     </row>
@@ -13309,7 +13290,7 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E462" s="9">
         <v>76</v>
@@ -13324,7 +13305,7 @@
         <v>8</v>
       </c>
       <c r="J462" s="15">
-        <v>7.72</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="K462" s="13"/>
     </row>
@@ -13339,7 +13320,7 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E463" s="9">
         <v>76</v>
@@ -13354,7 +13335,7 @@
         <v>4</v>
       </c>
       <c r="J463" s="15">
-        <v>16.32</v>
+        <v>14.93</v>
       </c>
       <c r="K463" s="13"/>
     </row>
@@ -13369,7 +13350,7 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E464" s="9">
         <v>75</v>
@@ -13384,7 +13365,7 @@
         <v>6</v>
       </c>
       <c r="J464" s="9">
-        <v>13.14</v>
+        <v>10.35</v>
       </c>
       <c r="K464" s="13"/>
     </row>
@@ -13399,7 +13380,7 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E465" s="9">
         <v>71</v>
@@ -13414,7 +13395,7 @@
         <v>8</v>
       </c>
       <c r="J465" s="9">
-        <v>12.2</v>
+        <v>10.19</v>
       </c>
       <c r="K465" s="13"/>
     </row>
@@ -13429,7 +13410,7 @@
         <v>45837</v>
       </c>
       <c r="D466" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E466" s="9">
         <v>71</v>
@@ -13444,7 +13425,7 @@
         <v>6</v>
       </c>
       <c r="J466" s="15">
-        <v>21.02</v>
+        <v>22.42</v>
       </c>
       <c r="K466" s="13"/>
     </row>
@@ -13459,7 +13440,7 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E467" s="9">
         <v>73</v>
@@ -13474,7 +13455,7 @@
         <v>5</v>
       </c>
       <c r="J467" s="15">
-        <v>13.33</v>
+        <v>19.64</v>
       </c>
       <c r="K467" s="13"/>
     </row>
@@ -13487,8 +13468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A2:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13498,2405 +13479,2405 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="19">
+      <c r="A3" s="25"/>
+      <c r="B3" s="65">
         <v>85</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="65">
         <v>80</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="40" t="s">
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="26" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="37" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="26" t="s">
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="34"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="61"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>65</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>59</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="20">
         <v>67</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>68</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="30">
         <v>59</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>62</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="20">
         <v>75</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="20">
         <v>67</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>68</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>56</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="29">
         <v>61</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <v>67</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <v>56</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="20">
         <v>62</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="30">
         <v>71</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="20">
         <v>55</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="20">
         <v>72</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="20">
         <v>55</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="20">
         <v>66</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="21">
         <v>47</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="32">
         <f>ROUND(AVERAGE(B5:U5),0)</f>
         <v>63</v>
       </c>
-      <c r="W5" s="23">
+      <c r="W5" s="21">
         <f>ROUND(_xlfn.STDEV.P(B5:U5),2)</f>
         <v>6.78</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>60</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>55</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>56</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>64</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="30">
         <v>66</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>68</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="20">
         <v>42</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>50</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>48</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="21">
         <v>64</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="29">
         <v>62</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <v>52</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>49</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="20">
         <v>62</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="30">
         <v>55</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="20">
         <v>67</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="20">
         <v>50</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="20">
         <v>60</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="20">
         <v>47</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="21">
         <v>63</v>
       </c>
-      <c r="V6" s="43">
-        <f t="shared" ref="V6:V35" si="0">ROUND(AVERAGE(B6:U6),0)</f>
+      <c r="V6" s="33">
+        <f t="shared" ref="V6:V34" si="0">ROUND(AVERAGE(B6:U6),0)</f>
         <v>57</v>
       </c>
-      <c r="W6" s="23">
+      <c r="W6" s="21">
         <f t="shared" ref="W6:W36" si="1">ROUND(_xlfn.STDEV.P(B6:U6),2)</f>
         <v>7.44</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>77</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>113</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>98</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>65</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="30">
         <v>65</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>102</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="20">
         <v>70</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="20">
         <v>63</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>78</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="21">
         <v>76</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="29">
         <v>68</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="20">
         <v>68</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>66</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="20">
         <v>62</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="30">
         <v>61</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="20">
         <v>60</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <v>63</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="20">
         <v>47</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="20">
         <v>79</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="21">
         <v>82</v>
       </c>
-      <c r="V7" s="43">
+      <c r="V7" s="33">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="21">
         <f t="shared" si="1"/>
         <v>15.46</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>51</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <v>52</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>45</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>36</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="30">
         <v>51</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>60</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="20">
         <v>57</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="20">
         <v>44</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>65</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>35</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="29">
         <v>42</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <v>47</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <v>48</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="20">
         <v>62</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="30">
         <v>43</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="20">
         <v>54</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="20">
         <v>54</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="20">
         <v>52</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="20">
         <v>42</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="21">
         <v>41</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="33">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="W8" s="23">
+      <c r="W8" s="21">
         <f t="shared" si="1"/>
         <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>101</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>87</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>91</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>90</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="30">
         <v>95</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>112</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>82</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <v>80</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <v>96</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="21">
         <v>91</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="29">
         <v>78</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <v>80</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>93</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="20">
         <v>87</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="30">
         <v>75</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="20">
         <v>79</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="20">
         <v>86</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="20">
         <v>115</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="20">
         <v>86</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="21">
         <v>98</v>
       </c>
-      <c r="V9" s="43">
+      <c r="V9" s="33">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="W9" s="23">
+      <c r="W9" s="21">
         <f t="shared" si="1"/>
         <v>10.42</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>105</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <v>136</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="20">
         <v>91</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>103</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="30">
         <v>95</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>125</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="20">
         <v>105</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <v>91</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <v>78</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="21">
         <v>82</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="29">
         <v>104</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="20">
         <v>99</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>112</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="20">
         <v>93</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="30">
         <v>104</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="20">
         <v>88</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <v>143</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10" s="20">
         <v>84</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="20">
         <v>110</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="21">
         <v>112</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="33">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="21">
         <f t="shared" si="1"/>
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>204</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <v>193</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="20">
         <v>160</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>179</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="30">
         <v>162</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>185</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="20">
         <v>169</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>181</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="20">
         <v>195</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="21">
         <v>187</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="29">
         <v>143</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <v>181</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>158</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="20">
         <v>182</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="30">
         <v>136</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <v>163</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>173</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <v>170</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <v>177</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="21">
         <v>163</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="33">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="21">
         <f t="shared" si="1"/>
         <v>16.52</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>29</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="20">
         <v>42</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="20">
         <v>40</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>30</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="30">
         <v>44</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>33</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="20">
         <v>43</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="20">
         <v>47</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="20">
         <v>40</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="21">
         <v>45</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="29">
         <v>45</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="20">
         <v>40</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <v>41</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="20">
         <v>62</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="30">
         <v>46</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <v>42</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <v>64</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <v>37</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <v>32</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="21">
         <v>42</v>
       </c>
-      <c r="V12" s="43">
+      <c r="V12" s="33">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="W12" s="23">
+      <c r="W12" s="21">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>42</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <v>63</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>70</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="20">
         <v>43</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="30">
         <v>83</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="20">
         <v>60</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="20">
         <v>50</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="20">
         <v>75</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="20">
         <v>42</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="21">
         <v>68</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="29">
         <v>75</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="20">
         <v>60</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="20">
         <v>63</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="20">
         <v>62</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="30">
         <v>67</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <v>46</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <v>70</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <v>57</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <v>48</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="21">
         <v>77</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="33">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="21">
         <f t="shared" si="1"/>
         <v>12.18</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="20">
         <v>83</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="20">
         <v>40</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>78</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>82</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="30">
         <v>76</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>34</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="20">
         <v>92</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="20">
         <v>77</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="20">
         <v>68</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="21">
         <v>75</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="29">
         <v>30</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="20">
         <v>74</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <v>93</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="20">
         <v>62</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="30">
         <v>56</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <v>97</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <v>76</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <v>85</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <v>66</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="21">
         <v>46</v>
       </c>
-      <c r="V14" s="43">
+      <c r="V14" s="33">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="W14" s="23">
+      <c r="W14" s="21">
         <f t="shared" si="1"/>
         <v>18.91</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>52</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="20">
         <v>20</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <v>36</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="20">
         <v>39</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="30">
         <v>31</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <v>54</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>70</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="20">
         <v>36</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="20">
         <v>54</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="21">
         <v>34</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="29">
         <v>31</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="20">
         <v>30</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>39</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="20">
         <v>62</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="30">
         <v>39</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="20">
         <v>47</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <v>52</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="20">
         <v>24</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="20">
         <v>52</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="21">
         <v>32</v>
       </c>
-      <c r="V15" s="43">
+      <c r="V15" s="33">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="W15" s="23">
+      <c r="W15" s="21">
         <f t="shared" si="1"/>
         <v>12.75</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>93</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="20">
         <v>97</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="20">
         <v>81</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="20">
         <v>89</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="30">
         <v>101</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="20">
         <v>120</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="20">
         <v>92</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="20">
         <v>103</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="20">
         <v>86</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="21">
         <v>87</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="29">
         <v>121</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="20">
         <v>127</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>87</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="20">
         <v>89</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="30">
         <v>75</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="20">
         <v>96</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="20">
         <v>90</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="20">
         <v>105</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="20">
         <v>98</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="21">
         <v>81</v>
       </c>
-      <c r="V16" s="43">
+      <c r="V16" s="33">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="21">
         <f t="shared" si="1"/>
         <v>13.48</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>113</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>147</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="20">
         <v>93</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>115</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="30">
         <v>116</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="20">
         <v>127</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="20">
         <v>111</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="20">
         <v>114</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="20">
         <v>99</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="21">
         <v>94</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="29">
         <v>117</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="20">
         <v>128</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="20">
         <v>125</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17" s="20">
         <v>108</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="30">
         <v>96</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="20">
         <v>124</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="20">
         <v>167</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="20">
         <v>102</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="20">
         <v>135</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="21">
         <v>129</v>
       </c>
-      <c r="V17" s="43">
+      <c r="V17" s="33">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="W17" s="23">
+      <c r="W17" s="21">
         <f t="shared" si="1"/>
         <v>17.920000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>181</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="20">
         <v>175</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="20">
         <v>186</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="20">
         <v>188</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="30">
         <v>186</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="20">
         <v>193</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="20">
         <v>189</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="20">
         <v>196</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="20">
         <v>190</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="21">
         <v>193</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="29">
         <v>189</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="20">
         <v>194</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="20">
         <v>179</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18" s="20">
         <v>183</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="30">
         <v>167</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="20">
         <v>194</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="20">
         <v>187</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="20">
         <v>194</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="20">
         <v>189</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="21">
         <v>178</v>
       </c>
-      <c r="V18" s="43">
+      <c r="V18" s="33">
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="21">
         <f t="shared" si="1"/>
         <v>7.28</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>87</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>95</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>61</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="20">
         <v>34</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="30">
         <v>91</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>37</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="20">
         <v>74</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="20">
         <v>48</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="20">
         <v>45</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="21">
         <v>65</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="29">
         <v>78</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="20">
         <v>91</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="20">
         <v>61</v>
       </c>
-      <c r="O19" s="22">
+      <c r="O19" s="20">
         <v>62</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="30">
         <v>77</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="20">
         <v>52</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="20">
         <v>76</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="20">
         <v>73</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="20">
         <v>71</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="21">
         <v>91</v>
       </c>
-      <c r="V19" s="43">
+      <c r="V19" s="33">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="21">
         <f t="shared" si="1"/>
         <v>17.93</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>47</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>50</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="20">
         <v>54</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="20">
         <v>52</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="30">
         <v>63</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="20">
         <v>48</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="20">
         <v>44</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="20">
         <v>59</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="20">
         <v>46</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="21">
         <v>55</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="29">
         <v>61</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="20">
         <v>71</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>65</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="20">
         <v>62</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="30">
         <v>67</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="20">
         <v>55</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <v>58</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="20">
         <v>44</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="20">
         <v>50</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="21">
         <v>65</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="33">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="21">
         <f t="shared" si="1"/>
         <v>7.93</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>72</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>109</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="20">
         <v>96</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="20">
         <v>78</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="30">
         <v>65</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <v>78</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="20">
         <v>62</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="20">
         <v>55</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="20">
         <v>83</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>79</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="29">
         <v>96</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="20">
         <v>75</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>73</v>
       </c>
-      <c r="O21" s="22">
+      <c r="O21" s="20">
         <v>62</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="30">
         <v>84</v>
       </c>
-      <c r="Q21" s="22">
+      <c r="Q21" s="20">
         <v>57</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <v>83</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="20">
         <v>72</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="20">
         <v>72</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="21">
         <v>78</v>
       </c>
-      <c r="V21" s="43">
+      <c r="V21" s="33">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="21">
         <f t="shared" si="1"/>
         <v>13.12</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>115</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>110</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="20">
         <v>117</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="20">
         <v>70</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="30">
         <v>100</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <v>77</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="20">
         <v>129</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="20">
         <v>102</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="20">
         <v>92</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="21">
         <v>64</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="29">
         <v>97</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="20">
         <v>72</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="20">
         <v>89</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="20">
         <v>62</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="30">
         <v>88</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="20">
         <v>126</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <v>57</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="20">
         <v>74</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="20">
         <v>95</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="21">
         <v>126</v>
       </c>
-      <c r="V22" s="43">
+      <c r="V22" s="33">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="21">
         <f t="shared" si="1"/>
         <v>22.02</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>89</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>89</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>90</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="20">
         <v>107</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="30">
         <v>83</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="20">
         <v>78</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="20">
         <v>79</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="20">
         <v>91</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="20">
         <v>107</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="21">
         <v>86</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="29">
         <v>88</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="20">
         <v>107</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="20">
         <v>87</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="20">
         <v>87</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="30">
         <v>80</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="20">
         <v>76</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <v>92</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="20">
         <v>84</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="20">
         <v>93</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="21">
         <v>96</v>
       </c>
-      <c r="V23" s="43">
+      <c r="V23" s="33">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="21">
         <f t="shared" si="1"/>
         <v>8.94</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>175</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>224</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="20">
         <v>176</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="20">
         <v>190</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="30">
         <v>155</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="20">
         <v>160</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="20">
         <v>166</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="20">
         <v>174</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="20">
         <v>171</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="21">
         <v>164</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="29">
         <v>190</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="20">
         <v>225</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="20">
         <v>179</v>
       </c>
-      <c r="O24" s="22">
+      <c r="O24" s="20">
         <v>178</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="30">
         <v>184</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="20">
         <v>156</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <v>185</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="20">
         <v>171</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="20">
         <v>164</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="21">
         <v>198</v>
       </c>
-      <c r="V24" s="43">
+      <c r="V24" s="33">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="21">
         <f t="shared" si="1"/>
         <v>18.8</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>181</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>177</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>184</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="20">
         <v>184</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="30">
         <v>181</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="20">
         <v>185</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="20">
         <v>185</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="20">
         <v>183</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="20">
         <v>188</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="21">
         <v>187</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25" s="29">
         <v>184</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="20">
         <v>190</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>175</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="20">
         <v>180</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="30">
         <v>184</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25" s="20">
         <v>188</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <v>185</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="20">
         <v>185</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="20">
         <v>187</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="21">
         <v>186</v>
       </c>
-      <c r="V25" s="43">
+      <c r="V25" s="33">
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="21">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="20">
         <v>60</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="20">
         <v>45</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="20">
         <v>61</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="20">
         <v>79</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="30">
         <v>88</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="20">
         <v>56</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="20">
         <v>95</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="20">
         <v>64</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="20">
         <v>51</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="21">
         <v>79</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26" s="29">
         <v>52</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="20">
         <v>45</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <v>75</v>
       </c>
-      <c r="O26" s="22">
+      <c r="O26" s="20">
         <v>62</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="30">
         <v>57</v>
       </c>
-      <c r="Q26" s="22">
+      <c r="Q26" s="20">
         <v>93</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <v>67</v>
       </c>
-      <c r="S26" s="22">
+      <c r="S26" s="20">
         <v>65</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="20">
         <v>54</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="21">
         <v>57</v>
       </c>
-      <c r="V26" s="43">
+      <c r="V26" s="33">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="21">
         <f t="shared" si="1"/>
         <v>14.58</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="20">
         <v>80</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="20">
         <v>39</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="20">
         <v>76</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="20">
         <v>96</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="30">
         <v>105</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="20">
         <v>57</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="20">
         <v>119</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="20">
         <v>70</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="20">
         <v>51</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="21">
         <v>81</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27" s="29">
         <v>54</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="20">
         <v>46</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="20">
         <v>88</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="20">
         <v>62</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="30">
         <v>71</v>
       </c>
-      <c r="Q27" s="22">
+      <c r="Q27" s="20">
         <v>95</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
         <v>77</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="20">
         <v>77</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="20">
         <v>57</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="21">
         <v>48</v>
       </c>
-      <c r="V27" s="43">
+      <c r="V27" s="33">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="21">
         <f t="shared" si="1"/>
         <v>20.65</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>81</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="20">
         <v>95</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="20">
         <v>79</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="20">
         <v>89</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="30">
         <v>84</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="20">
         <v>62</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="20">
         <v>72</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="20">
         <v>64</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="20">
         <v>88</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="21">
         <v>84</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28" s="29">
         <v>80</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="20">
         <v>90</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="20">
         <v>78</v>
       </c>
-      <c r="O28" s="22">
+      <c r="O28" s="20">
         <v>62</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="30">
         <v>84</v>
       </c>
-      <c r="Q28" s="22">
+      <c r="Q28" s="20">
         <v>77</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="20">
         <v>78</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="20">
         <v>75</v>
       </c>
-      <c r="T28" s="22">
+      <c r="T28" s="20">
         <v>75</v>
       </c>
-      <c r="U28" s="23">
+      <c r="U28" s="21">
         <v>76</v>
       </c>
-      <c r="V28" s="43">
+      <c r="V28" s="33">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="W28" s="23">
+      <c r="W28" s="21">
         <f t="shared" si="1"/>
         <v>8.76</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="20">
         <v>91</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="20">
         <v>93</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="20">
         <v>88</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="20">
         <v>87</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="30">
         <v>84</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="20">
         <v>88</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="20">
         <v>82</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="20">
         <v>86</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="20">
         <v>87</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="21">
         <v>90</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29" s="29">
         <v>99</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="20">
         <v>97</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="20">
         <v>81</v>
       </c>
-      <c r="O29" s="22">
+      <c r="O29" s="20">
         <v>62</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="30">
         <v>97</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="20">
         <v>82</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="20">
         <v>92</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="20">
         <v>92</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="20">
         <v>83</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="21">
         <v>88</v>
       </c>
-      <c r="V29" s="43">
+      <c r="V29" s="33">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="21">
         <f t="shared" si="1"/>
         <v>7.72</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>76</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>81</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="20">
         <v>88</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <v>73</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="30">
         <v>74</v>
       </c>
-      <c r="G30" s="22">
+      <c r="G30" s="20">
         <v>86</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="20">
         <v>109</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="20">
         <v>55</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="20">
         <v>59</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="21">
         <v>77</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30" s="29">
         <v>79</v>
       </c>
-      <c r="M30" s="22">
+      <c r="M30" s="20">
         <v>90</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="20">
         <v>65</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="20">
         <v>80</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="30">
         <v>67</v>
       </c>
-      <c r="Q30" s="22">
+      <c r="Q30" s="20">
         <v>76</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="20">
         <v>73</v>
       </c>
-      <c r="S30" s="22">
+      <c r="S30" s="20">
         <v>28</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="20">
         <v>52</v>
       </c>
-      <c r="U30" s="23">
+      <c r="U30" s="21">
         <v>64</v>
       </c>
-      <c r="V30" s="43">
+      <c r="V30" s="33">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="W30" s="23">
+      <c r="W30" s="21">
         <f t="shared" si="1"/>
         <v>16.32</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="20">
         <v>194</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="20">
         <v>182</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="20">
         <v>193</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="20">
         <v>170</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="30">
         <v>180</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="20">
         <v>209</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="20">
         <v>196</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="20">
         <v>187</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="20">
         <v>185</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="21">
         <v>166</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31" s="29">
         <v>167</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="20">
         <v>164</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="20">
         <v>199</v>
       </c>
-      <c r="O31" s="22">
+      <c r="O31" s="20">
         <v>179</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="30">
         <v>184</v>
       </c>
-      <c r="Q31" s="22">
+      <c r="Q31" s="20">
         <v>177</v>
       </c>
-      <c r="R31" s="22">
+      <c r="R31" s="20">
         <v>202</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="20">
         <v>197</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="20">
         <v>207</v>
       </c>
-      <c r="U31" s="23">
+      <c r="U31" s="21">
         <v>180</v>
       </c>
-      <c r="V31" s="43">
+      <c r="V31" s="33">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="W31" s="23">
+      <c r="W31" s="21">
         <f t="shared" si="1"/>
         <v>13.14</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <v>155</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="20">
         <v>184</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="20">
         <v>157</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="20">
         <v>148</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="30">
         <v>152</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="20">
         <v>152</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="20">
         <v>153</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="20">
         <v>157</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="20">
         <v>173</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="21">
         <v>153</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32" s="29">
         <v>139</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="20">
         <v>152</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="20">
         <v>125</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32" s="20">
         <v>171</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="30">
         <v>162</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32" s="20">
         <v>144</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="20">
         <v>159</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="20">
         <v>160</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="20">
         <v>151</v>
       </c>
-      <c r="U32" s="23">
+      <c r="U32" s="21">
         <v>146</v>
       </c>
-      <c r="V32" s="43">
+      <c r="V32" s="33">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="W32" s="23">
+      <c r="W32" s="21">
         <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>71</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="20">
         <v>40</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="20">
         <v>58</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="20">
         <v>117</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="30">
         <v>61</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="20">
         <v>40</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="20">
         <v>82</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="20">
         <v>42</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="20">
         <v>55</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="21">
         <v>34</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="29">
         <v>72</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="20">
         <v>70</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="20">
         <v>94</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33" s="20">
         <v>62</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="30">
         <v>39</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33" s="20">
         <v>70</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="20">
         <v>82</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="20">
         <v>43</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="20">
         <v>48</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="21">
         <v>82</v>
       </c>
-      <c r="V33" s="43">
+      <c r="V33" s="33">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="W33" s="23">
+      <c r="W33" s="21">
         <f t="shared" si="1"/>
         <v>21.02</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <v>64</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="20">
         <v>37</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="20">
         <v>46</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="20">
         <v>88</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="30">
         <v>46</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="20">
         <v>35</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="20">
         <v>43</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="20">
         <v>40</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="20">
         <v>42</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="21">
         <v>35</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34" s="29">
         <v>70</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="20">
         <v>69</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="20">
         <v>63</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="20">
         <v>62</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="30">
         <v>51</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="20">
         <v>47</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="20">
         <v>49</v>
       </c>
-      <c r="S34" s="22">
+      <c r="S34" s="20">
         <v>52</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="20">
         <v>46</v>
       </c>
-      <c r="U34" s="23">
+      <c r="U34" s="21">
         <v>49</v>
       </c>
-      <c r="V34" s="44">
+      <c r="V34" s="34">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="W34" s="23">
+      <c r="W34" s="21">
         <f t="shared" si="1"/>
         <v>13.33</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="27">
         <v>25.76</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="27">
         <v>28.79</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="27">
         <v>28.79</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="27">
         <v>18.18</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="31">
         <v>30.3</v>
       </c>
-      <c r="G35" s="31">
+      <c r="G35" s="27">
         <v>27.27</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="27">
         <v>34.85</v>
       </c>
-      <c r="I35" s="31">
+      <c r="I35" s="27">
         <v>34.85</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="27">
         <v>22.73</v>
       </c>
-      <c r="K35" s="32">
+      <c r="K35" s="28">
         <v>30.3</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="23">
         <v>20.45</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="27">
         <v>29.55</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="27">
         <v>26.14</v>
       </c>
-      <c r="O35" s="31">
+      <c r="O35" s="27">
         <v>25</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="31">
         <v>26.14</v>
       </c>
-      <c r="Q35" s="31">
+      <c r="Q35" s="27">
         <v>26.14</v>
       </c>
-      <c r="R35" s="31">
+      <c r="R35" s="27">
         <v>22.73</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="27">
         <v>21.59</v>
       </c>
-      <c r="T35" s="31">
+      <c r="T35" s="27">
         <v>28.41</v>
       </c>
-      <c r="U35" s="32">
+      <c r="U35" s="28">
         <v>32.950000000000003</v>
       </c>
-      <c r="V35" s="29">
+      <c r="V35" s="25">
         <f>ROUND(AVERAGE(B35:U35),2)</f>
         <v>27.05</v>
       </c>
-      <c r="W35" s="29">
+      <c r="W35" s="25">
         <f>ROUND(_xlfn.STDEV.P(B35:U35),2)</f>
         <v>4.41</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="22">
         <v>28.83</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="22">
         <v>22.61</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="22">
         <v>20.9</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="22">
         <v>28.35</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="36">
         <v>22.74</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="22">
         <v>24.66</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="22">
         <v>22.41</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="22">
         <v>18.64</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="22">
         <v>22.19</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="22">
         <v>23.35</v>
       </c>
-      <c r="L36" s="48">
+      <c r="L36" s="37">
         <v>25.78</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="22">
         <v>27</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="22">
         <v>25.19</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="22">
         <v>25.07</v>
       </c>
-      <c r="P36" s="47">
+      <c r="P36" s="36">
         <v>26.42</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="22">
         <v>25.53</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36" s="22">
         <v>25.01</v>
       </c>
-      <c r="S36" s="24">
+      <c r="S36" s="22">
         <v>27.58</v>
       </c>
-      <c r="T36" s="24">
+      <c r="T36" s="22">
         <v>24.7</v>
       </c>
-      <c r="U36" s="24">
+      <c r="U36" s="22">
         <v>24.78</v>
       </c>
-      <c r="V36" s="49">
+      <c r="V36" s="34">
         <f>ROUND(AVERAGE(B36:U36),2)</f>
         <v>24.59</v>
       </c>
-      <c r="W36" s="49">
+      <c r="W36" s="34">
         <f t="shared" si="1"/>
         <v>2.4700000000000002</v>
       </c>
@@ -15906,7 +15887,7 @@
         <f>AVERAGE(B36:F36)</f>
         <v>24.686</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="38">
         <f>AVERAGE(B35:F35)</f>
         <v>26.364000000000004</v>
       </c>
@@ -15914,7 +15895,7 @@
         <f>AVERAGE(G36:K36)</f>
         <v>22.25</v>
       </c>
-      <c r="K37" s="50">
+      <c r="K37" s="38">
         <f>AVERAGE(G35:K35)</f>
         <v>30</v>
       </c>
@@ -15922,7 +15903,7 @@
         <f>AVERAGE(L36:P36)</f>
         <v>25.891999999999996</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37" s="38">
         <f>AVERAGE(L35:P35)</f>
         <v>25.456</v>
       </c>
@@ -15930,191 +15911,191 @@
         <f>AVERAGE(Q36:U36)</f>
         <v>25.520000000000003</v>
       </c>
-      <c r="U37" s="50">
+      <c r="U37" s="38">
         <f>AVERAGE(Q35:U35)</f>
         <v>26.363999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="35">
+      <c r="E38" s="29">
         <f>_xlfn.STDEV.P(B36:F36)</f>
         <v>3.2566277036222537</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="21">
         <f>_xlfn.STDEV.P(B35:F35)</f>
         <v>4.3498441351386106</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="29">
         <f>_xlfn.STDEV.P(G36:K36)</f>
         <v>2.0039660675769939</v>
       </c>
-      <c r="K38" s="23">
+      <c r="K38" s="21">
         <f>_xlfn.STDEV.P(G35:K35)</f>
         <v>4.6355323318902721</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="29">
         <f>_xlfn.STDEV.P(L36:P36)</f>
         <v>0.73314118694832564</v>
       </c>
-      <c r="P38" s="23">
+      <c r="P38" s="21">
         <f>_xlfn.STDEV.P(L35:P35)</f>
         <v>2.9313655520934234</v>
       </c>
-      <c r="T38" s="35">
+      <c r="T38" s="29">
         <f>_xlfn.STDEV.P(Q36:U36)</f>
         <v>1.0699345774391995</v>
       </c>
-      <c r="U38" s="23">
+      <c r="U38" s="21">
         <f>_xlfn.STDEV.P(Q35:U35)</f>
         <v>4.0892229090623298</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K39" s="32" t="s">
+      <c r="K39" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P39" s="32" t="s">
+      <c r="P39" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="T39" s="25" t="s">
+      <c r="T39" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="U39" s="32" t="s">
+      <c r="U39" s="28" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="56">
+      <c r="B41" s="41">
         <v>0.8</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="20">
         <f>ROUND(AVERAGE(L35:U35),2)</f>
         <v>25.91</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="21">
         <f>ROUND(_xlfn.STDEV.P(L35:U35),2)</f>
         <v>3.59</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="49">
         <v>0.8</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="50">
         <f>ROUND(AVERAGE(L36:U36),2)</f>
         <v>25.71</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="57">
         <f>ROUND(_xlfn.STDEV.P(L36:U36),2)</f>
         <v>0.94</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="59">
+      <c r="B42" s="42">
         <v>0.85</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="20">
         <f>ROUND(AVERAGE(B35:K35),2)</f>
         <v>28.18</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="21">
         <f>ROUND(_xlfn.STDEV.P(B35:M35),2)</f>
         <v>4.9400000000000004</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="51">
         <v>0.85</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="50">
         <f>ROUND(AVERAGE(B36:K36),2)</f>
         <v>23.47</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="57">
         <f>ROUND(_xlfn.STDEV.P(B36:K36),2)</f>
         <v>2.97</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="20">
         <f>ROUND(AVERAGE(B35:F35,L35:P35),2)</f>
         <v>25.91</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="39">
         <f>ROUND(_xlfn.STDEV.P(B35:F35,L35:P35),2)</f>
         <v>3.74</v>
       </c>
-      <c r="G44" s="74" t="s">
+      <c r="G44" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="50">
         <f>ROUND(AVERAGE(B36:F36,L36:P36),2)</f>
         <v>25.29</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="39">
         <f>ROUND(_xlfn.STDEV.P(B36:F36,L36:P36),2)</f>
         <v>2.44</v>
       </c>
     </row>
     <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="40">
         <f>ROUND(AVERAGE(G35:K35,Q35:U35),2)</f>
         <v>28.18</v>
       </c>
-      <c r="D45" s="65">
+      <c r="D45" s="46">
         <f>ROUND(_xlfn.STDEV.P(G35:K35,Q35:U35),2)</f>
         <v>4.7300000000000004</v>
       </c>
-      <c r="G45" s="75" t="s">
+      <c r="G45" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="H45" s="52">
+      <c r="H45" s="40">
         <f>ROUND(AVERAGE(G36:K36,Q36:U36),2)</f>
         <v>23.89</v>
       </c>
-      <c r="I45" s="65">
+      <c r="I45" s="46">
         <f>ROUND(_xlfn.STDEV.P(G36:K36,Q36:U36),2)</f>
         <v>2.29</v>
       </c>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D82E137-B1C3-4DF0-A524-84CDFFAD73FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EEC48-EA12-4BCA-A02D-CCB83A597D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>day</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>loss</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -744,6 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,9 +1055,9 @@
   </sheetPr>
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J443" sqref="J443:J467"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J448" sqref="J448:J467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12717,7 +12721,7 @@
         <v>45814</v>
       </c>
       <c r="D443" s="7">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E443" s="9">
         <v>65.8</v>
@@ -12731,9 +12735,7 @@
       <c r="H443" s="9">
         <v>7.5</v>
       </c>
-      <c r="J443" s="9">
-        <v>13.46</v>
-      </c>
+      <c r="J443" s="9"/>
       <c r="K443" s="13"/>
     </row>
     <row r="444" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12747,7 +12749,7 @@
         <v>45815</v>
       </c>
       <c r="D444" s="7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E444" s="9">
         <v>65.5</v>
@@ -12761,9 +12763,7 @@
       <c r="H444" s="9">
         <v>7.4</v>
       </c>
-      <c r="J444" s="9">
-        <v>14.19</v>
-      </c>
+      <c r="J444" s="9"/>
       <c r="K444" s="13"/>
     </row>
     <row r="445" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12777,7 +12777,7 @@
         <v>45816</v>
       </c>
       <c r="D445" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E445" s="9">
         <v>66.7</v>
@@ -12791,9 +12791,7 @@
       <c r="H445" s="9">
         <v>9</v>
       </c>
-      <c r="J445" s="15">
-        <v>11.32</v>
-      </c>
+      <c r="J445" s="15"/>
       <c r="K445" s="13"/>
     </row>
     <row r="446" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12807,7 +12805,7 @@
         <v>45817</v>
       </c>
       <c r="D446" s="7">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E446" s="9">
         <v>64</v>
@@ -12821,9 +12819,7 @@
       <c r="H446" s="9">
         <v>10.5</v>
       </c>
-      <c r="J446" s="15">
-        <v>6.59</v>
-      </c>
+      <c r="J446" s="15"/>
       <c r="K446" s="13"/>
     </row>
     <row r="447" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12837,7 +12833,7 @@
         <v>45818</v>
       </c>
       <c r="D447" s="7">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E447" s="9">
         <v>66</v>
@@ -12851,9 +12847,7 @@
       <c r="H447" s="9">
         <v>9</v>
       </c>
-      <c r="J447" s="15">
-        <v>13.36</v>
-      </c>
+      <c r="J447" s="15"/>
       <c r="K447" s="13"/>
     </row>
     <row r="448" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12867,7 +12861,7 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E448" s="9">
         <v>69.400000000000006</v>
@@ -12882,7 +12876,7 @@
         <v>7.6</v>
       </c>
       <c r="J448" s="15">
-        <v>9.98</v>
+        <v>18.18</v>
       </c>
       <c r="K448" s="13"/>
     </row>
@@ -12897,7 +12891,7 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E449" s="9">
         <v>71.2</v>
@@ -12912,7 +12906,7 @@
         <v>8.6</v>
       </c>
       <c r="J449" s="15">
-        <v>5.98</v>
+        <v>7.2</v>
       </c>
       <c r="K449" s="13"/>
     </row>
@@ -12927,7 +12921,7 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="E450" s="9">
         <v>72.3</v>
@@ -12942,7 +12936,7 @@
         <v>8.9</v>
       </c>
       <c r="J450" s="9">
-        <v>17.059999999999999</v>
+        <v>16.34</v>
       </c>
       <c r="K450" s="13"/>
     </row>
@@ -12957,7 +12951,7 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E451" s="9">
         <v>69</v>
@@ -12972,7 +12966,7 @@
         <v>4</v>
       </c>
       <c r="J451" s="9">
-        <v>8.1</v>
+        <v>15.23</v>
       </c>
       <c r="K451" s="13"/>
     </row>
@@ -12987,7 +12981,7 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E452" s="9">
         <v>67</v>
@@ -13005,7 +12999,7 @@
         <v>16</v>
       </c>
       <c r="J452" s="15">
-        <v>19.55</v>
+        <v>20.7</v>
       </c>
       <c r="K452" s="13"/>
     </row>
@@ -13020,7 +13014,7 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E453" s="9">
         <v>63</v>
@@ -13035,7 +13029,7 @@
         <v>6</v>
       </c>
       <c r="J453" s="15">
-        <v>10.47</v>
+        <v>14.8</v>
       </c>
       <c r="K453" s="13"/>
     </row>
@@ -13050,7 +13044,7 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E454" s="9">
         <v>70</v>
@@ -13065,7 +13059,7 @@
         <v>8</v>
       </c>
       <c r="J454" s="15">
-        <v>16.73</v>
+        <v>7.65</v>
       </c>
       <c r="K454" s="13"/>
     </row>
@@ -13080,7 +13074,7 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E455" s="9">
         <v>70</v>
@@ -13095,7 +13089,7 @@
         <v>14</v>
       </c>
       <c r="J455" s="15">
-        <v>22.08</v>
+        <v>11.37</v>
       </c>
       <c r="K455" s="13"/>
     </row>
@@ -13110,7 +13104,7 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E456" s="9">
         <v>70</v>
@@ -13125,7 +13119,7 @@
         <v>9</v>
       </c>
       <c r="J456" s="15">
-        <v>11.31</v>
+        <v>2.1</v>
       </c>
       <c r="K456" s="13"/>
     </row>
@@ -13140,7 +13134,7 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E457" s="9">
         <v>69</v>
@@ -13155,7 +13149,7 @@
         <v>8</v>
       </c>
       <c r="J457" s="9">
-        <v>20.6</v>
+        <v>10.83</v>
       </c>
       <c r="K457" s="13"/>
     </row>
@@ -13170,7 +13164,7 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E458" s="9">
         <v>71</v>
@@ -13185,7 +13179,7 @@
         <v>5</v>
       </c>
       <c r="J458" s="9">
-        <v>5.67</v>
+        <v>15.43</v>
       </c>
       <c r="K458" s="13"/>
     </row>
@@ -13200,7 +13194,7 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E459" s="9">
         <v>74</v>
@@ -13215,7 +13209,7 @@
         <v>3</v>
       </c>
       <c r="J459" s="15">
-        <v>11.62</v>
+        <v>7.43</v>
       </c>
       <c r="K459" s="13"/>
     </row>
@@ -13230,7 +13224,7 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E460" s="9">
         <v>75</v>
@@ -13245,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="J460" s="15">
-        <v>25.67</v>
+        <v>12.64</v>
       </c>
       <c r="K460" s="13"/>
     </row>
@@ -13260,7 +13254,7 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E461" s="9">
         <v>75</v>
@@ -13275,7 +13269,7 @@
         <v>8</v>
       </c>
       <c r="J461" s="15">
-        <v>6.83</v>
+        <v>4.78</v>
       </c>
       <c r="K461" s="13"/>
     </row>
@@ -13290,7 +13284,7 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E462" s="9">
         <v>76</v>
@@ -13305,7 +13299,7 @@
         <v>8</v>
       </c>
       <c r="J462" s="15">
-        <v>4.5199999999999996</v>
+        <v>7.23</v>
       </c>
       <c r="K462" s="13"/>
     </row>
@@ -13320,7 +13314,7 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E463" s="9">
         <v>76</v>
@@ -13335,7 +13329,7 @@
         <v>4</v>
       </c>
       <c r="J463" s="15">
-        <v>14.93</v>
+        <v>11.84</v>
       </c>
       <c r="K463" s="13"/>
     </row>
@@ -13350,7 +13344,7 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E464" s="9">
         <v>75</v>
@@ -13365,7 +13359,7 @@
         <v>6</v>
       </c>
       <c r="J464" s="9">
-        <v>10.35</v>
+        <v>25.08</v>
       </c>
       <c r="K464" s="13"/>
     </row>
@@ -13380,7 +13374,7 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E465" s="9">
         <v>71</v>
@@ -13395,7 +13389,7 @@
         <v>8</v>
       </c>
       <c r="J465" s="9">
-        <v>10.19</v>
+        <v>14.5</v>
       </c>
       <c r="K465" s="13"/>
     </row>
@@ -13410,7 +13404,7 @@
         <v>45837</v>
       </c>
       <c r="D466" s="7">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E466" s="9">
         <v>71</v>
@@ -13425,7 +13419,7 @@
         <v>6</v>
       </c>
       <c r="J466" s="15">
-        <v>22.42</v>
+        <v>7.91</v>
       </c>
       <c r="K466" s="13"/>
     </row>
@@ -13440,7 +13434,7 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E467" s="9">
         <v>73</v>
@@ -13455,21 +13449,22 @@
         <v>5</v>
       </c>
       <c r="J467" s="15">
-        <v>19.64</v>
+        <v>5.9</v>
       </c>
       <c r="K467" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A2:W45"/>
+  <dimension ref="A2:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:I35"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15:AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13477,8 +13472,8 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="65">
         <v>85</v>
@@ -13511,7 +13506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
@@ -13546,7 +13541,7 @@
       <c r="V4" s="59"/>
       <c r="W4" s="61"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -13619,7 +13614,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>40</v>
       </c>
@@ -13692,7 +13687,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
@@ -13765,7 +13760,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
@@ -13838,7 +13833,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
@@ -13911,7 +13906,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
@@ -13984,7 +13979,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>45</v>
       </c>
@@ -14057,7 +14052,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
@@ -14130,7 +14125,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>47</v>
       </c>
@@ -14203,7 +14198,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>48</v>
       </c>
@@ -14275,8 +14270,14 @@
         <f t="shared" si="1"/>
         <v>18.91</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AF14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>49</v>
       </c>
@@ -14341,15 +14342,44 @@
         <v>32</v>
       </c>
       <c r="V15" s="33">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f>ROUND(AVERAGE(B15:U15,Y15:AE15),0)</f>
+        <v>43</v>
       </c>
       <c r="W15" s="21">
-        <f t="shared" si="1"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <f>ROUND(_xlfn.STDEV.P(B15:U15,Y15:AE15),2)</f>
+        <v>14.66</v>
+      </c>
+      <c r="Y15">
+        <v>37</v>
+      </c>
+      <c r="Z15">
+        <v>37</v>
+      </c>
+      <c r="AA15">
+        <v>22</v>
+      </c>
+      <c r="AB15">
+        <v>70</v>
+      </c>
+      <c r="AC15">
+        <v>50</v>
+      </c>
+      <c r="AD15">
+        <v>45</v>
+      </c>
+      <c r="AE15">
+        <v>78</v>
+      </c>
+      <c r="AF15" s="18">
+        <f>ROUND(AVERAGE(Y15:AE15),0)</f>
+        <v>48</v>
+      </c>
+      <c r="AG15" s="38">
+        <f>ROUND(_xlfn.STDEV.P(Y15:AE15),2)</f>
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>50</v>
       </c>
@@ -14414,15 +14444,44 @@
         <v>81</v>
       </c>
       <c r="V16" s="33">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f t="shared" ref="V16:V36" si="2">ROUND(AVERAGE(B16:U16,Y16:AE16),0)</f>
+        <v>98</v>
       </c>
       <c r="W16" s="21">
-        <f t="shared" si="1"/>
-        <v>13.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="W16:W36" si="3">ROUND(_xlfn.STDEV.P(B16:U16,Y16:AE16),2)</f>
+        <v>12.78</v>
+      </c>
+      <c r="Y16">
+        <v>109</v>
+      </c>
+      <c r="Z16">
+        <v>109</v>
+      </c>
+      <c r="AA16">
+        <v>88</v>
+      </c>
+      <c r="AB16">
+        <v>109</v>
+      </c>
+      <c r="AC16">
+        <v>110</v>
+      </c>
+      <c r="AD16">
+        <v>104</v>
+      </c>
+      <c r="AE16">
+        <v>105</v>
+      </c>
+      <c r="AF16" s="29">
+        <f t="shared" ref="AF16:AF33" si="4">ROUND(AVERAGE(Y16:AE16),0)</f>
+        <v>105</v>
+      </c>
+      <c r="AG16" s="21">
+        <f t="shared" ref="AG16:AG33" si="5">ROUND(_xlfn.STDEV.P(Y16:AE16),2)</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
@@ -14487,15 +14546,44 @@
         <v>129</v>
       </c>
       <c r="V17" s="33">
-        <f t="shared" si="0"/>
-        <v>118</v>
+        <f t="shared" si="2"/>
+        <v>131</v>
       </c>
       <c r="W17" s="21">
-        <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>28.06</v>
+      </c>
+      <c r="Y17">
+        <v>192</v>
+      </c>
+      <c r="Z17">
+        <v>192</v>
+      </c>
+      <c r="AA17">
+        <v>155</v>
+      </c>
+      <c r="AB17">
+        <v>170</v>
+      </c>
+      <c r="AC17">
+        <v>160</v>
+      </c>
+      <c r="AD17">
+        <v>159</v>
+      </c>
+      <c r="AE17">
+        <v>148</v>
+      </c>
+      <c r="AF17" s="29">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="AG17" s="21">
+        <f t="shared" si="5"/>
+        <v>16.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -14560,15 +14648,44 @@
         <v>178</v>
       </c>
       <c r="V18" s="33">
-        <f t="shared" si="0"/>
-        <v>187</v>
+        <f t="shared" si="2"/>
+        <v>182</v>
       </c>
       <c r="W18" s="21">
-        <f t="shared" si="1"/>
-        <v>7.28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>12.63</v>
+      </c>
+      <c r="Y18">
+        <v>146</v>
+      </c>
+      <c r="Z18">
+        <v>146</v>
+      </c>
+      <c r="AA18">
+        <v>181</v>
+      </c>
+      <c r="AB18">
+        <v>183</v>
+      </c>
+      <c r="AC18">
+        <v>180</v>
+      </c>
+      <c r="AD18">
+        <v>167</v>
+      </c>
+      <c r="AE18">
+        <v>179</v>
+      </c>
+      <c r="AF18" s="29">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="AG18" s="21">
+        <f t="shared" si="5"/>
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -14633,15 +14750,44 @@
         <v>91</v>
       </c>
       <c r="V19" s="33">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="W19" s="21">
-        <f t="shared" si="1"/>
-        <v>17.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.62</v>
+      </c>
+      <c r="Y19">
+        <v>37</v>
+      </c>
+      <c r="Z19">
+        <v>37</v>
+      </c>
+      <c r="AA19">
+        <v>100</v>
+      </c>
+      <c r="AB19">
+        <v>62</v>
+      </c>
+      <c r="AC19">
+        <v>59</v>
+      </c>
+      <c r="AD19">
+        <v>40</v>
+      </c>
+      <c r="AE19">
+        <v>49</v>
+      </c>
+      <c r="AF19" s="29">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="AG19" s="21">
+        <f t="shared" si="5"/>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>54</v>
       </c>
@@ -14706,15 +14852,44 @@
         <v>65</v>
       </c>
       <c r="V20" s="33">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="1"/>
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>10.46</v>
+      </c>
+      <c r="Y20">
+        <v>31</v>
+      </c>
+      <c r="Z20">
+        <v>31</v>
+      </c>
+      <c r="AA20">
+        <v>58</v>
+      </c>
+      <c r="AB20">
+        <v>66</v>
+      </c>
+      <c r="AC20">
+        <v>67</v>
+      </c>
+      <c r="AD20">
+        <v>39</v>
+      </c>
+      <c r="AE20">
+        <v>59</v>
+      </c>
+      <c r="AF20" s="29">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AG20" s="21">
+        <f t="shared" si="5"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>55</v>
       </c>
@@ -14779,15 +14954,44 @@
         <v>78</v>
       </c>
       <c r="V21" s="33">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="W21" s="21">
-        <f t="shared" si="1"/>
-        <v>13.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>12.79</v>
+      </c>
+      <c r="Y21">
+        <v>64</v>
+      </c>
+      <c r="Z21">
+        <v>64</v>
+      </c>
+      <c r="AA21">
+        <v>62</v>
+      </c>
+      <c r="AB21">
+        <v>81</v>
+      </c>
+      <c r="AC21">
+        <v>67</v>
+      </c>
+      <c r="AD21">
+        <v>54</v>
+      </c>
+      <c r="AE21">
+        <v>70</v>
+      </c>
+      <c r="AF21" s="29">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="AG21" s="21">
+        <f t="shared" si="5"/>
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
@@ -14852,15 +15056,44 @@
         <v>126</v>
       </c>
       <c r="V22" s="33">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="W22" s="21">
-        <f t="shared" si="1"/>
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20.72</v>
+      </c>
+      <c r="Y22">
+        <v>63</v>
+      </c>
+      <c r="Z22">
+        <v>63</v>
+      </c>
+      <c r="AA22">
+        <v>87</v>
+      </c>
+      <c r="AB22">
+        <v>96</v>
+      </c>
+      <c r="AC22">
+        <v>81</v>
+      </c>
+      <c r="AD22">
+        <v>85</v>
+      </c>
+      <c r="AE22">
+        <v>80</v>
+      </c>
+      <c r="AF22" s="29">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="AG22" s="21">
+        <f t="shared" si="5"/>
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
@@ -14925,15 +15158,44 @@
         <v>96</v>
       </c>
       <c r="V23" s="33">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="W23" s="21">
-        <f t="shared" si="1"/>
-        <v>8.94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.98</v>
+      </c>
+      <c r="Y23">
+        <v>78</v>
+      </c>
+      <c r="Z23">
+        <v>78</v>
+      </c>
+      <c r="AA23">
+        <v>82</v>
+      </c>
+      <c r="AB23">
+        <v>78</v>
+      </c>
+      <c r="AC23">
+        <v>80</v>
+      </c>
+      <c r="AD23">
+        <v>82</v>
+      </c>
+      <c r="AE23">
+        <v>76</v>
+      </c>
+      <c r="AF23" s="29">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="AG23" s="21">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
@@ -14998,15 +15260,44 @@
         <v>198</v>
       </c>
       <c r="V24" s="33">
-        <f t="shared" si="0"/>
-        <v>179</v>
+        <f t="shared" si="2"/>
+        <v>178</v>
       </c>
       <c r="W24" s="21">
-        <f t="shared" si="1"/>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.18</v>
+      </c>
+      <c r="Y24">
+        <v>172</v>
+      </c>
+      <c r="Z24">
+        <v>172</v>
+      </c>
+      <c r="AA24">
+        <v>174</v>
+      </c>
+      <c r="AB24">
+        <v>198</v>
+      </c>
+      <c r="AC24">
+        <v>166</v>
+      </c>
+      <c r="AD24">
+        <v>182</v>
+      </c>
+      <c r="AE24">
+        <v>163</v>
+      </c>
+      <c r="AF24" s="29">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="AG24" s="21">
+        <f t="shared" si="5"/>
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
@@ -15071,15 +15362,44 @@
         <v>186</v>
       </c>
       <c r="V25" s="33">
-        <f t="shared" si="0"/>
-        <v>184</v>
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
       <c r="W25" s="21">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>11.46</v>
+      </c>
+      <c r="Y25">
+        <v>143</v>
+      </c>
+      <c r="Z25">
+        <v>143</v>
+      </c>
+      <c r="AA25">
+        <v>180</v>
+      </c>
+      <c r="AB25">
+        <v>178</v>
+      </c>
+      <c r="AC25">
+        <v>176</v>
+      </c>
+      <c r="AD25">
+        <v>165</v>
+      </c>
+      <c r="AE25">
+        <v>179</v>
+      </c>
+      <c r="AF25" s="29">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="AG25" s="21">
+        <f t="shared" si="5"/>
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
@@ -15144,15 +15464,44 @@
         <v>57</v>
       </c>
       <c r="V26" s="33">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="W26" s="21">
-        <f t="shared" si="1"/>
-        <v>14.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.36</v>
+      </c>
+      <c r="Y26">
+        <v>66</v>
+      </c>
+      <c r="Z26">
+        <v>66</v>
+      </c>
+      <c r="AA26">
+        <v>77</v>
+      </c>
+      <c r="AB26">
+        <v>74</v>
+      </c>
+      <c r="AC26">
+        <v>73</v>
+      </c>
+      <c r="AD26">
+        <v>59</v>
+      </c>
+      <c r="AE26">
+        <v>83</v>
+      </c>
+      <c r="AF26" s="29">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AG26" s="21">
+        <f t="shared" si="5"/>
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
@@ -15217,15 +15566,44 @@
         <v>48</v>
       </c>
       <c r="V27" s="33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="W27" s="21">
+        <f t="shared" si="3"/>
+        <v>19.2</v>
+      </c>
+      <c r="Y27">
         <v>72</v>
       </c>
-      <c r="W27" s="21">
-        <f t="shared" si="1"/>
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>72</v>
+      </c>
+      <c r="AA27">
+        <v>84</v>
+      </c>
+      <c r="AB27">
+        <v>69</v>
+      </c>
+      <c r="AC27">
+        <v>77</v>
+      </c>
+      <c r="AD27">
+        <v>78</v>
+      </c>
+      <c r="AE27">
+        <v>109</v>
+      </c>
+      <c r="AF27" s="29">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="AG27" s="21">
+        <f t="shared" si="5"/>
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>62</v>
       </c>
@@ -15290,15 +15668,44 @@
         <v>76</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>78</v>
       </c>
       <c r="W28" s="21">
-        <f t="shared" si="1"/>
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>7.94</v>
+      </c>
+      <c r="Y28">
+        <v>77</v>
+      </c>
+      <c r="Z28">
+        <v>77</v>
+      </c>
+      <c r="AA28">
+        <v>71</v>
+      </c>
+      <c r="AB28">
+        <v>87</v>
+      </c>
+      <c r="AC28">
+        <v>73</v>
+      </c>
+      <c r="AD28">
+        <v>80</v>
+      </c>
+      <c r="AE28">
+        <v>77</v>
+      </c>
+      <c r="AF28" s="29">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="AG28" s="21">
+        <f t="shared" si="5"/>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
@@ -15363,15 +15770,44 @@
         <v>88</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="0"/>
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="W29" s="21">
-        <f t="shared" si="1"/>
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="Y29">
+        <v>72</v>
+      </c>
+      <c r="Z29">
+        <v>72</v>
+      </c>
+      <c r="AA29">
+        <v>70</v>
+      </c>
+      <c r="AB29">
+        <v>90</v>
+      </c>
+      <c r="AC29">
+        <v>73</v>
+      </c>
+      <c r="AD29">
+        <v>83</v>
+      </c>
+      <c r="AE29">
+        <v>84</v>
+      </c>
+      <c r="AF29" s="29">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="AG29" s="21">
+        <f t="shared" si="5"/>
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>64</v>
       </c>
@@ -15436,15 +15872,44 @@
         <v>64</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="W30" s="21">
-        <f t="shared" si="1"/>
-        <v>16.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>15.32</v>
+      </c>
+      <c r="Y30">
+        <v>52</v>
+      </c>
+      <c r="Z30">
+        <v>52</v>
+      </c>
+      <c r="AA30">
+        <v>77</v>
+      </c>
+      <c r="AB30">
+        <v>77</v>
+      </c>
+      <c r="AC30">
+        <v>81</v>
+      </c>
+      <c r="AD30">
+        <v>74</v>
+      </c>
+      <c r="AE30">
+        <v>80</v>
+      </c>
+      <c r="AF30" s="29">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="AG30" s="21">
+        <f t="shared" si="5"/>
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>65</v>
       </c>
@@ -15509,15 +15974,44 @@
         <v>180</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="0"/>
-        <v>186</v>
+        <f t="shared" si="2"/>
+        <v>183</v>
       </c>
       <c r="W31" s="21">
-        <f t="shared" si="1"/>
-        <v>13.14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>144</v>
+      </c>
+      <c r="Z31">
+        <v>144</v>
+      </c>
+      <c r="AA31">
+        <v>167</v>
+      </c>
+      <c r="AB31">
+        <v>176</v>
+      </c>
+      <c r="AC31">
+        <v>219</v>
+      </c>
+      <c r="AD31">
+        <v>195</v>
+      </c>
+      <c r="AE31">
+        <v>184</v>
+      </c>
+      <c r="AF31" s="29">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="AG31" s="21">
+        <f t="shared" si="5"/>
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>66</v>
       </c>
@@ -15582,15 +16076,44 @@
         <v>146</v>
       </c>
       <c r="V32" s="33">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f t="shared" si="2"/>
+        <v>153</v>
       </c>
       <c r="W32" s="21">
-        <f t="shared" si="1"/>
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.02</v>
+      </c>
+      <c r="Y32">
+        <v>127</v>
+      </c>
+      <c r="Z32">
+        <v>127</v>
+      </c>
+      <c r="AA32">
+        <v>153</v>
+      </c>
+      <c r="AB32">
+        <v>159</v>
+      </c>
+      <c r="AC32">
+        <v>160</v>
+      </c>
+      <c r="AD32">
+        <v>159</v>
+      </c>
+      <c r="AE32">
+        <v>162</v>
+      </c>
+      <c r="AF32" s="29">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="AG32" s="21">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>67</v>
       </c>
@@ -15655,15 +16178,44 @@
         <v>82</v>
       </c>
       <c r="V33" s="33">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="W33" s="21">
-        <f t="shared" si="1"/>
-        <v>21.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>19.12</v>
+      </c>
+      <c r="Y33">
+        <v>46</v>
+      </c>
+      <c r="Z33">
+        <v>46</v>
+      </c>
+      <c r="AA33">
+        <v>64</v>
+      </c>
+      <c r="AB33">
+        <v>50</v>
+      </c>
+      <c r="AC33">
+        <v>65</v>
+      </c>
+      <c r="AD33">
+        <v>45</v>
+      </c>
+      <c r="AE33">
+        <v>51</v>
+      </c>
+      <c r="AF33" s="23">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="AG33" s="28">
+        <f t="shared" si="5"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
@@ -15727,16 +16279,45 @@
       <c r="U34" s="21">
         <v>49</v>
       </c>
-      <c r="V34" s="34">
-        <f t="shared" si="0"/>
-        <v>52</v>
+      <c r="V34" s="33">
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="1"/>
-        <v>13.33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>13.15</v>
+      </c>
+      <c r="Y34">
+        <v>39</v>
+      </c>
+      <c r="Z34">
+        <v>39</v>
+      </c>
+      <c r="AA34">
+        <v>46</v>
+      </c>
+      <c r="AB34">
+        <v>38</v>
+      </c>
+      <c r="AC34">
+        <v>44</v>
+      </c>
+      <c r="AD34">
+        <v>39</v>
+      </c>
+      <c r="AE34">
+        <v>26</v>
+      </c>
+      <c r="AF34" s="37">
+        <f t="shared" ref="AF34" si="6">ROUND(AVERAGE(Y34:AE34),0)</f>
+        <v>39</v>
+      </c>
+      <c r="AG34" s="68">
+        <f t="shared" ref="AG34" si="7">ROUND(_xlfn.STDEV.P(Y34:AE34),2)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>69</v>
       </c>
@@ -15801,15 +16382,36 @@
         <v>32.950000000000003</v>
       </c>
       <c r="V35" s="25">
-        <f>ROUND(AVERAGE(B35:U35),2)</f>
-        <v>27.05</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="W35" s="25">
-        <f>ROUND(_xlfn.STDEV.P(B35:U35),2)</f>
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>4.22</v>
+      </c>
+      <c r="Y35">
+        <v>22.22</v>
+      </c>
+      <c r="Z35">
+        <v>24.44</v>
+      </c>
+      <c r="AA35">
+        <v>29.85</v>
+      </c>
+      <c r="AB35">
+        <v>28.36</v>
+      </c>
+      <c r="AC35">
+        <v>29.85</v>
+      </c>
+      <c r="AD35">
+        <v>23.88</v>
+      </c>
+      <c r="AE35">
+        <v>32.840000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>73</v>
       </c>
@@ -15873,16 +16475,37 @@
       <c r="U36" s="22">
         <v>24.78</v>
       </c>
-      <c r="V36" s="34">
-        <f>ROUND(AVERAGE(B36:U36),2)</f>
-        <v>24.59</v>
-      </c>
-      <c r="W36" s="34">
-        <f t="shared" si="1"/>
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V36" s="25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="W36" s="25">
+        <f t="shared" si="3"/>
+        <v>3.66</v>
+      </c>
+      <c r="Y36">
+        <v>17.18</v>
+      </c>
+      <c r="Z36">
+        <v>30.18</v>
+      </c>
+      <c r="AA36">
+        <v>21.51</v>
+      </c>
+      <c r="AB36">
+        <v>12.62</v>
+      </c>
+      <c r="AC36">
+        <v>22.3</v>
+      </c>
+      <c r="AD36">
+        <v>26.34</v>
+      </c>
+      <c r="AE36">
+        <v>21.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="E37" s="18">
         <f>AVERAGE(B36:F36)</f>
         <v>24.686</v>
@@ -15915,8 +16538,16 @@
         <f>AVERAGE(Q35:U35)</f>
         <v>26.363999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD37" s="18">
+        <f>AVERAGE(Y36:AE36)</f>
+        <v>21.682857142857141</v>
+      </c>
+      <c r="AE37" s="38">
+        <f>AVERAGE(Y35:AE35)</f>
+        <v>27.348571428571429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="29">
         <f>_xlfn.STDEV.P(B36:F36)</f>
         <v>3.2566277036222537</v>
@@ -15949,8 +16580,16 @@
         <f>_xlfn.STDEV.P(Q35:U35)</f>
         <v>4.0892229090623298</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD38" s="29">
+        <f>_xlfn.STDEV.P(Y36:AE36)</f>
+        <v>5.3011231001033208</v>
+      </c>
+      <c r="AE38" s="21">
+        <f>_xlfn.STDEV.P(Y35:AE35)</f>
+        <v>3.5953558479612853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="23" t="s">
         <v>75</v>
       </c>
@@ -15975,8 +16614,14 @@
       <c r="U39" s="28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD39" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE39" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23" t="s">
         <v>76</v>
       </c>
@@ -15996,7 +16641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B41" s="41">
         <v>0.8</v>
       </c>
@@ -16020,7 +16665,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="42">
         <v>0.85</v>
       </c>
@@ -16044,7 +16689,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
@@ -16052,7 +16697,7 @@
       <c r="H43" s="53"/>
       <c r="I43" s="54"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>70</v>
       </c>
@@ -16076,7 +16721,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="34" t="s">
         <v>71</v>
       </c>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2EEC48-EA12-4BCA-A02D-CCB83A597D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0355F2-C27A-482D-9D01-B7006E3D255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
   <si>
     <t>day</t>
   </si>
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -747,7 +747,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,9 +1059,9 @@
   </sheetPr>
   <dimension ref="A1:K467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J448" sqref="J448:J467"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L465" sqref="L465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1075,7 @@
     <col min="11" max="11" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1108,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>6</v>
       </c>
@@ -1133,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>7</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -1375,7 +1379,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>3</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>4</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>5</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>6</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>7</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>2</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>3</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>4</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>5</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>6</v>
       </c>
@@ -1687,7 +1691,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>7</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>2</v>
       </c>
@@ -1765,7 +1769,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>3</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>4</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>5</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>6</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>7</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>1</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>2</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>3</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>4</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>5</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>6</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>7</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>2</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>3</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>4</v>
       </c>
@@ -2181,7 +2185,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>5</v>
       </c>
@@ -2207,7 +2211,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>7</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>2</v>
       </c>
@@ -2314,7 +2318,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>3</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>4</v>
       </c>
@@ -2366,7 +2370,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>5</v>
       </c>
@@ -2392,7 +2396,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>6</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>7</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>1</v>
       </c>
@@ -2473,7 +2477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>2</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -2525,7 +2529,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>4</v>
       </c>
@@ -2551,7 +2555,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>5</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>6</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>7</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>1</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>2</v>
       </c>
@@ -2681,7 +2685,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>3</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>4</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>5</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>6</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>7</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>1</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>2</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>3</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>4</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>5</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>6</v>
       </c>
@@ -2970,7 +2974,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>7</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>2</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>3</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>4</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>5</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>6</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>7</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>1</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>2</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>3</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>4</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>5</v>
       </c>
@@ -3308,7 +3312,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>6</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>7</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>1</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>2</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>3</v>
       </c>
@@ -3441,7 +3445,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>4</v>
       </c>
@@ -3470,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>5</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>6</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>7</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>1</v>
       </c>
@@ -3574,7 +3578,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>2</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>3</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>4</v>
       </c>
@@ -3652,7 +3656,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>5</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>6</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>7</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>1</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>2</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>3</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>4</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>5</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>6</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>7</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>1</v>
       </c>
@@ -3941,7 +3945,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>2</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>3</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>4</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>5</v>
       </c>
@@ -4045,7 +4049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>6</v>
       </c>
@@ -4071,7 +4075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>7</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>1</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>2</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>3</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>4</v>
       </c>
@@ -4201,7 +4205,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>5</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>6</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>7</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>1</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>2</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>3</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>4</v>
       </c>
@@ -4383,7 +4387,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>5</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>6</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>7</v>
       </c>
@@ -4461,7 +4465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>1</v>
       </c>
@@ -4487,7 +4491,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>2</v>
       </c>
@@ -4513,7 +4517,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>3</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>4</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>5</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>6</v>
       </c>
@@ -4617,7 +4621,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>7</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>1</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>2</v>
       </c>
@@ -4695,7 +4699,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>3</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>4</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>5</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>6</v>
       </c>
@@ -4799,7 +4803,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>7</v>
       </c>
@@ -4825,7 +4829,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>1</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>2</v>
       </c>
@@ -4877,7 +4881,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>3</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>4</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>5</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>6</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>7</v>
       </c>
@@ -5007,7 +5011,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>1</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>2</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>3</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>4</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>5</v>
       </c>
@@ -5137,7 +5141,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>6</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>7</v>
       </c>
@@ -5189,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>1</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>2</v>
       </c>
@@ -5241,7 +5245,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>3</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>4</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>5</v>
       </c>
@@ -5319,7 +5323,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>6</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>7</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>1</v>
       </c>
@@ -5397,7 +5401,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>2</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>3</v>
       </c>
@@ -5452,7 +5456,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>4</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>5</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>6</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>7</v>
       </c>
@@ -5556,7 +5560,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>1</v>
       </c>
@@ -5582,7 +5586,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>2</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>3</v>
       </c>
@@ -5634,7 +5638,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>4</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>5</v>
       </c>
@@ -5686,7 +5690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>6</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>7</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>1</v>
       </c>
@@ -5764,7 +5768,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>2</v>
       </c>
@@ -5790,7 +5794,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>3</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>4</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>5</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>6</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>7</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>1</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>2</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>3</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>4</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>5</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>6</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>7</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>1</v>
       </c>
@@ -6128,7 +6132,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>2</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>3</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>4</v>
       </c>
@@ -6206,7 +6210,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>5</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>6</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>7</v>
       </c>
@@ -6284,7 +6288,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>1</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>2</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>3</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>4</v>
       </c>
@@ -6388,7 +6392,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>5</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>6</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>7</v>
       </c>
@@ -6469,7 +6473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>1</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>2</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>3</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>4</v>
       </c>
@@ -6576,7 +6580,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>5</v>
       </c>
@@ -6602,7 +6606,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>6</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>7</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>1</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>2</v>
       </c>
@@ -6706,7 +6710,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>3</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>4</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>5</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>6</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>7</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>1</v>
       </c>
@@ -6862,7 +6866,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>2</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>3</v>
       </c>
@@ -6914,7 +6918,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>4</v>
       </c>
@@ -6940,7 +6944,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>5</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>6</v>
       </c>
@@ -6995,7 +6999,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>7</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>1</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>2</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>3</v>
       </c>
@@ -7102,7 +7106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>4</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>5</v>
       </c>
@@ -7154,7 +7158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>6</v>
       </c>
@@ -7180,7 +7184,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>7</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>1</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>2</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>3</v>
       </c>
@@ -7287,7 +7291,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>4</v>
       </c>
@@ -7313,7 +7317,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>5</v>
       </c>
@@ -7339,7 +7343,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>6</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>7</v>
       </c>
@@ -7391,7 +7395,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>1</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>2</v>
       </c>
@@ -7443,7 +7447,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>3</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>4</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>5</v>
       </c>
@@ -7521,7 +7525,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>6</v>
       </c>
@@ -7547,7 +7551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>7</v>
       </c>
@@ -7573,7 +7577,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>1</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>2</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>3</v>
       </c>
@@ -7651,7 +7655,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>4</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>5</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>6</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>7</v>
       </c>
@@ -7761,7 +7765,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>1</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>2</v>
       </c>
@@ -7813,7 +7817,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>3</v>
       </c>
@@ -7839,7 +7843,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>4</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>5</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>6</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>7</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>1</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>2</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>3</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>4</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>5</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>6</v>
       </c>
@@ -8099,7 +8103,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>7</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>1</v>
       </c>
@@ -8151,7 +8155,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>2</v>
       </c>
@@ -8177,7 +8181,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>3</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>4</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>5</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>6</v>
       </c>
@@ -8281,7 +8285,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>7</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>1</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>2</v>
       </c>
@@ -8359,7 +8363,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>3</v>
       </c>
@@ -8388,7 +8392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>4</v>
       </c>
@@ -8417,7 +8421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>5</v>
       </c>
@@ -8446,7 +8450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>6</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>7</v>
       </c>
@@ -8498,7 +8502,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>1</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>2</v>
       </c>
@@ -8550,7 +8554,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>3</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>4</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>5</v>
       </c>
@@ -8634,7 +8638,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>6</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>7</v>
       </c>
@@ -8686,7 +8690,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>1</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>2</v>
       </c>
@@ -8738,7 +8742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>3</v>
       </c>
@@ -8764,7 +8768,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>4</v>
       </c>
@@ -8790,7 +8794,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>5</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>6</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>7</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>1</v>
       </c>
@@ -8894,7 +8898,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>2</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>3</v>
       </c>
@@ -8946,7 +8950,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>4</v>
       </c>
@@ -8972,7 +8976,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>5</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>6</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>7</v>
       </c>
@@ -9050,7 +9054,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>1</v>
       </c>
@@ -9076,7 +9080,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>2</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>3</v>
       </c>
@@ -9131,7 +9135,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>4</v>
       </c>
@@ -9157,7 +9161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>5</v>
       </c>
@@ -9183,7 +9187,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>6</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>7</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>1</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>2</v>
       </c>
@@ -9287,7 +9291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>3</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>4</v>
       </c>
@@ -9339,7 +9343,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>5</v>
       </c>
@@ -9365,7 +9369,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>6</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="7">
         <v>7</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="7">
         <v>1</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="7">
         <v>2</v>
       </c>
@@ -9469,7 +9473,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="7">
         <v>3</v>
       </c>
@@ -9495,7 +9499,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="7">
         <v>4</v>
       </c>
@@ -9521,7 +9525,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="7">
         <v>5</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>6</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>7</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>1</v>
       </c>
@@ -9628,7 +9632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>2</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>3</v>
       </c>
@@ -9680,7 +9684,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>4</v>
       </c>
@@ -9706,7 +9710,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="7">
         <v>5</v>
       </c>
@@ -9732,7 +9736,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>6</v>
       </c>
@@ -9761,7 +9765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>7</v>
       </c>
@@ -9787,7 +9791,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>1</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>2</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="7">
         <v>3</v>
       </c>
@@ -9868,7 +9872,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="7">
         <v>4</v>
       </c>
@@ -9894,7 +9898,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="7">
         <v>5</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="7">
         <v>6</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="7">
         <v>7</v>
       </c>
@@ -9972,7 +9976,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="7">
         <v>1</v>
       </c>
@@ -9998,7 +10002,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="7">
         <v>2</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="7">
         <v>3</v>
       </c>
@@ -10050,7 +10054,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="7">
         <v>4</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="7">
         <v>5</v>
       </c>
@@ -10102,7 +10106,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="7">
         <v>6</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="7">
         <v>7</v>
       </c>
@@ -10157,7 +10161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="7">
         <v>1</v>
       </c>
@@ -10183,7 +10187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="7">
         <v>2</v>
       </c>
@@ -10209,7 +10213,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="7">
         <v>3</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="7">
         <v>4</v>
       </c>
@@ -10264,7 +10268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="7">
         <v>5</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="7">
         <v>6</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="7">
         <v>7</v>
       </c>
@@ -10345,7 +10349,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="7">
         <v>1</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="7">
         <v>2</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="7">
         <v>3</v>
       </c>
@@ -10423,7 +10427,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="7">
         <v>4</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="7">
         <v>5</v>
       </c>
@@ -10475,7 +10479,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="7">
         <v>6</v>
       </c>
@@ -10504,7 +10508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="7">
         <v>7</v>
       </c>
@@ -10530,7 +10534,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="7">
         <v>1</v>
       </c>
@@ -10556,7 +10560,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="7">
         <v>2</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="7">
         <v>3</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="7">
         <v>4</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="7">
         <v>5</v>
       </c>
@@ -10663,7 +10667,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="7">
         <v>6</v>
       </c>
@@ -10692,7 +10696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="7">
         <v>7</v>
       </c>
@@ -10718,7 +10722,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="7">
         <v>1</v>
       </c>
@@ -10744,7 +10748,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="7">
         <v>2</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="7">
         <v>3</v>
       </c>
@@ -10796,7 +10800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="7">
         <v>4</v>
       </c>
@@ -10822,7 +10826,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="7">
         <v>5</v>
       </c>
@@ -10848,7 +10852,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="7">
         <v>6</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="7">
         <v>7</v>
       </c>
@@ -10903,7 +10907,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="7">
         <v>1</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="7">
         <v>2</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="7">
         <v>3</v>
       </c>
@@ -10981,7 +10985,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="7">
         <v>4</v>
       </c>
@@ -11007,7 +11011,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="7">
         <v>5</v>
       </c>
@@ -11033,7 +11037,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="7">
         <v>6</v>
       </c>
@@ -11062,7 +11066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="7">
         <v>7</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="7">
         <v>1</v>
       </c>
@@ -11114,7 +11118,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="7">
         <v>2</v>
       </c>
@@ -11140,7 +11144,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="7">
         <v>3</v>
       </c>
@@ -11166,7 +11170,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="7">
         <v>4</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="7">
         <v>5</v>
       </c>
@@ -11218,7 +11222,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>6</v>
       </c>
@@ -11247,7 +11251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="7">
         <v>7</v>
       </c>
@@ -11273,7 +11277,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="7">
         <v>1</v>
       </c>
@@ -11299,7 +11303,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="7">
         <v>2</v>
       </c>
@@ -11325,7 +11329,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="7">
         <v>3</v>
       </c>
@@ -11351,7 +11355,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="7">
         <v>4</v>
       </c>
@@ -11377,7 +11381,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="7">
         <v>5</v>
       </c>
@@ -11403,7 +11407,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="7">
         <v>6</v>
       </c>
@@ -11432,7 +11436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="7">
         <v>7</v>
       </c>
@@ -11458,7 +11462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="7">
         <v>1</v>
       </c>
@@ -11487,7 +11491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="7">
         <v>2</v>
       </c>
@@ -11513,7 +11517,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="7">
         <v>3</v>
       </c>
@@ -11539,7 +11543,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="7">
         <v>4</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="7">
         <v>5</v>
       </c>
@@ -11591,7 +11595,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="7">
         <v>6</v>
       </c>
@@ -11617,7 +11621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="7">
         <v>7</v>
       </c>
@@ -11643,7 +11647,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="7">
         <v>1</v>
       </c>
@@ -11669,7 +11673,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="7">
         <v>2</v>
       </c>
@@ -11695,7 +11699,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="7">
         <v>3</v>
       </c>
@@ -11721,7 +11725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="7">
         <v>4</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="7">
         <v>5</v>
       </c>
@@ -11773,7 +11777,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="7">
         <v>6</v>
       </c>
@@ -11799,7 +11803,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="7">
         <v>7</v>
       </c>
@@ -11825,7 +11829,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="7">
         <v>1</v>
       </c>
@@ -11851,7 +11855,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="7">
         <v>2</v>
       </c>
@@ -11880,7 +11884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="7">
         <v>3</v>
       </c>
@@ -11906,7 +11910,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="7">
         <v>4</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="7">
         <v>5</v>
       </c>
@@ -11958,7 +11962,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="7">
         <v>6</v>
       </c>
@@ -11984,7 +11988,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="7">
         <v>7</v>
       </c>
@@ -12010,7 +12014,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="7">
         <v>1</v>
       </c>
@@ -12039,7 +12043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="7">
         <v>2</v>
       </c>
@@ -12065,7 +12069,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="7">
         <v>3</v>
       </c>
@@ -12091,7 +12095,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="7">
         <v>4</v>
       </c>
@@ -12117,7 +12121,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="7">
         <v>5</v>
       </c>
@@ -12143,7 +12147,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="7">
         <v>6</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="7">
         <v>7</v>
       </c>
@@ -12195,7 +12199,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="7">
         <v>1</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="7">
         <v>2</v>
       </c>
@@ -12247,7 +12251,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="7">
         <v>3</v>
       </c>
@@ -12273,7 +12277,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="7">
         <v>4</v>
       </c>
@@ -12861,23 +12865,21 @@
         <v>45819</v>
       </c>
       <c r="D448" s="7">
-        <v>48</v>
-      </c>
-      <c r="E448" s="9">
-        <v>69.400000000000006</v>
+        <v>88</v>
+      </c>
+      <c r="E448">
+        <v>78.709999999999994</v>
       </c>
       <c r="F448" s="9">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G448" s="9">
         <v>0</v>
       </c>
       <c r="H448" s="9">
-        <v>7.6</v>
-      </c>
-      <c r="J448" s="15">
-        <v>18.18</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="J448" s="15"/>
       <c r="K448" s="13"/>
     </row>
     <row r="449" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12891,13 +12893,13 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E449" s="9">
-        <v>71.2</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="F449" s="9">
-        <v>0.49</v>
+        <v>0.01</v>
       </c>
       <c r="G449" s="9">
         <v>0</v>
@@ -12905,8 +12907,8 @@
       <c r="H449" s="9">
         <v>8.6</v>
       </c>
-      <c r="J449" s="15">
-        <v>7.2</v>
+      <c r="J449">
+        <v>2.13</v>
       </c>
       <c r="K449" s="13"/>
     </row>
@@ -12921,13 +12923,13 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E450" s="9">
         <v>72.3</v>
       </c>
       <c r="F450" s="9">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="G450" s="9">
         <v>0</v>
@@ -12935,8 +12937,8 @@
       <c r="H450" s="9">
         <v>8.9</v>
       </c>
-      <c r="J450" s="9">
-        <v>16.34</v>
+      <c r="J450">
+        <v>10.44</v>
       </c>
       <c r="K450" s="13"/>
     </row>
@@ -12951,22 +12953,22 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="E451" s="9">
-        <v>69</v>
+        <v>71.5</v>
       </c>
       <c r="F451" s="9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G451" s="9">
         <v>0</v>
       </c>
       <c r="H451" s="9">
-        <v>4</v>
-      </c>
-      <c r="J451" s="9">
-        <v>15.23</v>
+        <v>8</v>
+      </c>
+      <c r="J451">
+        <v>7.63</v>
       </c>
       <c r="K451" s="13"/>
     </row>
@@ -12981,10 +12983,10 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E452" s="9">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F452" s="9">
         <v>0</v>
@@ -12993,13 +12995,13 @@
         <v>0</v>
       </c>
       <c r="H452" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I452" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J452" s="15">
-        <v>20.7</v>
+      <c r="J452">
+        <v>17.420000000000002</v>
       </c>
       <c r="K452" s="13"/>
     </row>
@@ -13014,22 +13016,22 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E453" s="9">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F453" s="9">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="G453" s="9">
         <v>0</v>
       </c>
       <c r="H453" s="9">
-        <v>6</v>
-      </c>
-      <c r="J453" s="15">
-        <v>14.8</v>
+        <v>4</v>
+      </c>
+      <c r="J453">
+        <v>6.52</v>
       </c>
       <c r="K453" s="13"/>
     </row>
@@ -13044,22 +13046,22 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E454" s="9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F454" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G454" s="9">
         <v>0</v>
       </c>
       <c r="H454" s="9">
-        <v>8</v>
-      </c>
-      <c r="J454" s="15">
-        <v>7.65</v>
+        <v>5</v>
+      </c>
+      <c r="J454">
+        <v>5.37</v>
       </c>
       <c r="K454" s="13"/>
     </row>
@@ -13074,22 +13076,22 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E455" s="9">
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="F455" s="9">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G455" s="9">
         <v>0</v>
       </c>
       <c r="H455" s="9">
-        <v>14</v>
-      </c>
-      <c r="J455" s="15">
-        <v>11.37</v>
+        <v>15</v>
+      </c>
+      <c r="J455">
+        <v>12.92</v>
       </c>
       <c r="K455" s="13"/>
     </row>
@@ -13104,10 +13106,10 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E456" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F456" s="9">
         <v>0</v>
@@ -13116,10 +13118,10 @@
         <v>0</v>
       </c>
       <c r="H456" s="9">
-        <v>9</v>
-      </c>
-      <c r="J456" s="15">
-        <v>2.1</v>
+        <v>5</v>
+      </c>
+      <c r="J456">
+        <v>18.899999999999999</v>
       </c>
       <c r="K456" s="13"/>
     </row>
@@ -13134,22 +13136,22 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="E457" s="9">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F457" s="9">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="G457" s="9">
         <v>0</v>
       </c>
       <c r="H457" s="9">
-        <v>8</v>
-      </c>
-      <c r="J457" s="9">
-        <v>10.83</v>
+        <v>13</v>
+      </c>
+      <c r="J457">
+        <v>25.01</v>
       </c>
       <c r="K457" s="13"/>
     </row>
@@ -13164,22 +13166,22 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E458" s="9">
         <v>71</v>
       </c>
       <c r="F458" s="9">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G458" s="9">
         <v>0</v>
       </c>
       <c r="H458" s="9">
-        <v>5</v>
-      </c>
-      <c r="J458" s="9">
-        <v>15.43</v>
+        <v>6</v>
+      </c>
+      <c r="J458">
+        <v>5.28</v>
       </c>
       <c r="K458" s="13"/>
     </row>
@@ -13194,22 +13196,22 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E459" s="9">
-        <v>74</v>
+        <v>77.5</v>
       </c>
       <c r="F459" s="9">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="G459" s="9">
         <v>0</v>
       </c>
       <c r="H459" s="9">
-        <v>3</v>
-      </c>
-      <c r="J459" s="15">
-        <v>7.43</v>
+        <v>8</v>
+      </c>
+      <c r="J459">
+        <v>2.85</v>
       </c>
       <c r="K459" s="13"/>
     </row>
@@ -13224,22 +13226,22 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E460" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F460" s="9">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G460" s="9">
         <v>0</v>
       </c>
       <c r="H460" s="9">
-        <v>2</v>
-      </c>
-      <c r="J460" s="15">
-        <v>12.64</v>
+        <v>9</v>
+      </c>
+      <c r="J460">
+        <v>12.29</v>
       </c>
       <c r="K460" s="13"/>
     </row>
@@ -13254,22 +13256,22 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E461" s="9">
-        <v>75</v>
+        <v>74.5</v>
       </c>
       <c r="F461" s="9">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="G461" s="9">
         <v>0</v>
       </c>
       <c r="H461" s="9">
-        <v>8</v>
-      </c>
-      <c r="J461" s="15">
-        <v>4.78</v>
+        <v>5</v>
+      </c>
+      <c r="J461">
+        <v>4.63</v>
       </c>
       <c r="K461" s="13"/>
     </row>
@@ -13284,10 +13286,10 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E462" s="9">
-        <v>76</v>
+        <v>69.5</v>
       </c>
       <c r="F462" s="9">
         <v>0</v>
@@ -13296,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="H462" s="9">
-        <v>8</v>
-      </c>
-      <c r="J462" s="15">
-        <v>7.23</v>
+        <v>6</v>
+      </c>
+      <c r="J462">
+        <v>9.31</v>
       </c>
       <c r="K462" s="13"/>
     </row>
@@ -13314,13 +13316,13 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E463" s="9">
-        <v>76</v>
+        <v>69.5</v>
       </c>
       <c r="F463" s="9">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G463" s="9">
         <v>0</v>
@@ -13328,8 +13330,8 @@
       <c r="H463" s="9">
         <v>4</v>
       </c>
-      <c r="J463" s="15">
-        <v>11.84</v>
+      <c r="J463">
+        <v>7.72</v>
       </c>
       <c r="K463" s="13"/>
     </row>
@@ -13344,22 +13346,22 @@
         <v>45835</v>
       </c>
       <c r="D464" s="7">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E464" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F464" s="9">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G464" s="9">
         <v>0</v>
       </c>
       <c r="H464" s="9">
-        <v>6</v>
-      </c>
-      <c r="J464" s="9">
-        <v>25.08</v>
+        <v>2</v>
+      </c>
+      <c r="J464">
+        <v>12.15</v>
       </c>
       <c r="K464" s="13"/>
     </row>
@@ -13374,10 +13376,10 @@
         <v>45836</v>
       </c>
       <c r="D465" s="7">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="E465" s="9">
-        <v>71</v>
+        <v>72.5</v>
       </c>
       <c r="F465" s="9">
         <v>0</v>
@@ -13386,10 +13388,10 @@
         <v>0</v>
       </c>
       <c r="H465" s="9">
-        <v>8</v>
-      </c>
-      <c r="J465" s="9">
-        <v>14.5</v>
+        <v>2</v>
+      </c>
+      <c r="J465">
+        <v>13.28</v>
       </c>
       <c r="K465" s="13"/>
     </row>
@@ -13407,10 +13409,10 @@
         <v>52</v>
       </c>
       <c r="E466" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F466" s="9">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="G466" s="9">
         <v>0</v>
@@ -13418,8 +13420,8 @@
       <c r="H466" s="9">
         <v>6</v>
       </c>
-      <c r="J466" s="15">
-        <v>7.91</v>
+      <c r="J466">
+        <v>6.42</v>
       </c>
       <c r="K466" s="13"/>
     </row>
@@ -13434,22 +13436,22 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E467" s="9">
-        <v>73</v>
+        <v>74.5</v>
       </c>
       <c r="F467" s="9">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="G467" s="9">
         <v>0</v>
       </c>
       <c r="H467" s="9">
-        <v>5</v>
-      </c>
-      <c r="J467" s="15">
-        <v>5.9</v>
+        <v>6</v>
+      </c>
+      <c r="J467">
+        <v>4</v>
       </c>
       <c r="K467" s="13"/>
     </row>
@@ -13461,10 +13463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A2:AG45"/>
+  <dimension ref="A2:AM45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15:AG34"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13472,8 +13474,8 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="65">
         <v>85</v>
@@ -13506,7 +13508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="V4" s="59"/>
       <c r="W4" s="61"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>40</v>
       </c>
@@ -13679,15 +13681,15 @@
         <v>63</v>
       </c>
       <c r="V6" s="33">
-        <f t="shared" ref="V6:V34" si="0">ROUND(AVERAGE(B6:U6),0)</f>
+        <f t="shared" ref="V6:V14" si="0">ROUND(AVERAGE(B6:U6),0)</f>
         <v>57</v>
       </c>
       <c r="W6" s="21">
-        <f t="shared" ref="W6:W36" si="1">ROUND(_xlfn.STDEV.P(B6:U6),2)</f>
+        <f t="shared" ref="W6:W14" si="1">ROUND(_xlfn.STDEV.P(B6:U6),2)</f>
         <v>7.44</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>41</v>
       </c>
@@ -13760,7 +13762,7 @@
         <v>15.46</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>42</v>
       </c>
@@ -13833,7 +13835,7 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>44</v>
       </c>
@@ -13979,7 +13981,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>45</v>
       </c>
@@ -14052,7 +14054,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>46</v>
       </c>
@@ -14125,7 +14127,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>47</v>
       </c>
@@ -14198,7 +14200,7 @@
         <v>12.18</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>48</v>
       </c>
@@ -14270,14 +14272,14 @@
         <f t="shared" si="1"/>
         <v>18.91</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AL14" t="s">
         <v>72</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AM14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>49</v>
       </c>
@@ -14343,43 +14345,16 @@
       </c>
       <c r="V15" s="33">
         <f>ROUND(AVERAGE(B15:U15,Y15:AE15),0)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W15" s="21">
         <f>ROUND(_xlfn.STDEV.P(B15:U15,Y15:AE15),2)</f>
-        <v>14.66</v>
-      </c>
-      <c r="Y15">
-        <v>37</v>
-      </c>
-      <c r="Z15">
-        <v>37</v>
-      </c>
-      <c r="AA15">
-        <v>22</v>
-      </c>
-      <c r="AB15">
-        <v>70</v>
-      </c>
-      <c r="AC15">
-        <v>50</v>
-      </c>
-      <c r="AD15">
-        <v>45</v>
-      </c>
-      <c r="AE15">
-        <v>78</v>
-      </c>
-      <c r="AF15" s="18">
-        <f>ROUND(AVERAGE(Y15:AE15),0)</f>
-        <v>48</v>
-      </c>
-      <c r="AG15" s="38">
-        <f>ROUND(_xlfn.STDEV.P(Y15:AE15),2)</f>
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>12.75</v>
+      </c>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="38"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>50</v>
       </c>
@@ -14445,43 +14420,47 @@
       </c>
       <c r="V16" s="33">
         <f t="shared" ref="V16:V36" si="2">ROUND(AVERAGE(B16:U16,Y16:AE16),0)</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W16" s="21">
         <f t="shared" ref="W16:W36" si="3">ROUND(_xlfn.STDEV.P(B16:U16,Y16:AE16),2)</f>
-        <v>12.78</v>
-      </c>
-      <c r="Y16">
-        <v>109</v>
-      </c>
-      <c r="Z16">
-        <v>109</v>
-      </c>
-      <c r="AA16">
-        <v>88</v>
-      </c>
-      <c r="AB16">
-        <v>109</v>
-      </c>
-      <c r="AC16">
-        <v>110</v>
-      </c>
-      <c r="AD16">
-        <v>104</v>
-      </c>
-      <c r="AE16">
-        <v>105</v>
-      </c>
-      <c r="AF16" s="29">
-        <f t="shared" ref="AF16:AF33" si="4">ROUND(AVERAGE(Y16:AE16),0)</f>
-        <v>105</v>
-      </c>
-      <c r="AG16" s="21">
-        <f t="shared" ref="AG16:AG33" si="5">ROUND(_xlfn.STDEV.P(Y16:AE16),2)</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+        <v>13.48</v>
+      </c>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="70">
+        <v>80</v>
+      </c>
+      <c r="AH16" s="70">
+        <v>85</v>
+      </c>
+      <c r="AI16" s="70">
+        <v>85</v>
+      </c>
+      <c r="AJ16" s="70">
+        <v>82</v>
+      </c>
+      <c r="AK16" s="70">
+        <v>86</v>
+      </c>
+      <c r="AL16" s="18">
+        <f>ROUND(AVERAGE(Y16:AK16),0)</f>
+        <v>83</v>
+      </c>
+      <c r="AM16" s="38">
+        <f>ROUND(_xlfn.STDEV.P(Y16:AK16),2)</f>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>51</v>
       </c>
@@ -14547,43 +14526,47 @@
       </c>
       <c r="V17" s="33">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="W17" s="21">
         <f t="shared" si="3"/>
-        <v>28.06</v>
-      </c>
-      <c r="Y17">
-        <v>192</v>
-      </c>
-      <c r="Z17">
-        <v>192</v>
-      </c>
-      <c r="AA17">
-        <v>155</v>
-      </c>
-      <c r="AB17">
-        <v>170</v>
-      </c>
-      <c r="AC17">
-        <v>160</v>
-      </c>
-      <c r="AD17">
-        <v>159</v>
-      </c>
-      <c r="AE17">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
+        <v>133</v>
+      </c>
+      <c r="AG17" s="20">
+        <v>142</v>
+      </c>
+      <c r="AH17" s="20">
+        <v>144</v>
+      </c>
+      <c r="AI17" s="20">
+        <v>152</v>
+      </c>
+      <c r="AJ17" s="20">
+        <v>147</v>
+      </c>
+      <c r="AK17" s="20">
+        <v>167</v>
+      </c>
+      <c r="AL17" s="29">
+        <f t="shared" ref="AL17:AL36" si="4">ROUND(AVERAGE(Y17:AK17),0)</f>
         <v>148</v>
       </c>
-      <c r="AF17" s="29">
-        <f t="shared" si="4"/>
-        <v>168</v>
-      </c>
-      <c r="AG17" s="21">
-        <f t="shared" si="5"/>
-        <v>16.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AM17" s="21">
+        <f t="shared" ref="AM17:AM36" si="5">ROUND(_xlfn.STDEV.P(Y17:AK17),2)</f>
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
@@ -14649,43 +14632,47 @@
       </c>
       <c r="V18" s="33">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="W18" s="21">
         <f t="shared" si="3"/>
-        <v>12.63</v>
-      </c>
-      <c r="Y18">
-        <v>146</v>
-      </c>
-      <c r="Z18">
-        <v>146</v>
-      </c>
-      <c r="AA18">
-        <v>181</v>
-      </c>
-      <c r="AB18">
-        <v>183</v>
-      </c>
-      <c r="AC18">
-        <v>180</v>
-      </c>
-      <c r="AD18">
-        <v>167</v>
-      </c>
-      <c r="AE18">
-        <v>179</v>
-      </c>
-      <c r="AF18" s="29">
+        <v>7.28</v>
+      </c>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20">
+        <v>150</v>
+      </c>
+      <c r="AG18" s="20">
+        <v>152</v>
+      </c>
+      <c r="AH18" s="20">
+        <v>149</v>
+      </c>
+      <c r="AI18" s="20">
+        <v>135</v>
+      </c>
+      <c r="AJ18" s="20">
+        <v>149</v>
+      </c>
+      <c r="AK18" s="20">
+        <v>161</v>
+      </c>
+      <c r="AL18" s="29">
         <f t="shared" si="4"/>
-        <v>169</v>
-      </c>
-      <c r="AG18" s="21">
+        <v>149</v>
+      </c>
+      <c r="AM18" s="21">
         <f t="shared" si="5"/>
-        <v>15.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -14751,247 +14738,259 @@
       </c>
       <c r="V19" s="33">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="3"/>
-        <v>19.62</v>
-      </c>
-      <c r="Y19">
-        <v>37</v>
-      </c>
-      <c r="Z19">
-        <v>37</v>
-      </c>
-      <c r="AA19">
-        <v>100</v>
-      </c>
-      <c r="AB19">
+        <v>17.93</v>
+      </c>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="20">
+        <v>64</v>
+      </c>
+      <c r="AH19" s="20">
+        <v>73</v>
+      </c>
+      <c r="AI19" s="20">
+        <v>90</v>
+      </c>
+      <c r="AJ19" s="20">
+        <v>49</v>
+      </c>
+      <c r="AK19" s="20">
+        <v>35</v>
+      </c>
+      <c r="AL19" s="29">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="AC19">
+      <c r="AM19" s="21">
+        <f t="shared" si="5"/>
+        <v>17.420000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="20">
+        <v>47</v>
+      </c>
+      <c r="C20" s="20">
+        <v>50</v>
+      </c>
+      <c r="D20" s="20">
+        <v>54</v>
+      </c>
+      <c r="E20" s="20">
+        <v>52</v>
+      </c>
+      <c r="F20" s="30">
+        <v>63</v>
+      </c>
+      <c r="G20" s="20">
+        <v>48</v>
+      </c>
+      <c r="H20" s="20">
+        <v>44</v>
+      </c>
+      <c r="I20" s="20">
         <v>59</v>
       </c>
-      <c r="AD19">
-        <v>40</v>
-      </c>
-      <c r="AE19">
-        <v>49</v>
-      </c>
-      <c r="AF19" s="29">
+      <c r="J20" s="20">
+        <v>46</v>
+      </c>
+      <c r="K20" s="21">
+        <v>55</v>
+      </c>
+      <c r="L20" s="29">
+        <v>61</v>
+      </c>
+      <c r="M20" s="20">
+        <v>71</v>
+      </c>
+      <c r="N20" s="20">
+        <v>65</v>
+      </c>
+      <c r="O20" s="20">
+        <v>62</v>
+      </c>
+      <c r="P20" s="30">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>55</v>
+      </c>
+      <c r="R20" s="20">
+        <v>58</v>
+      </c>
+      <c r="S20" s="20">
+        <v>44</v>
+      </c>
+      <c r="T20" s="20">
+        <v>50</v>
+      </c>
+      <c r="U20" s="21">
+        <v>65</v>
+      </c>
+      <c r="V20" s="33">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="3"/>
+        <v>7.93</v>
+      </c>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="20">
+        <v>69</v>
+      </c>
+      <c r="AH20" s="20">
+        <v>72</v>
+      </c>
+      <c r="AI20" s="20">
+        <v>74</v>
+      </c>
+      <c r="AJ20" s="20">
+        <v>67</v>
+      </c>
+      <c r="AK20" s="20">
+        <v>55</v>
+      </c>
+      <c r="AL20" s="29">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="AM20" s="21">
+        <f t="shared" si="5"/>
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="20">
+        <v>72</v>
+      </c>
+      <c r="C21" s="20">
+        <v>109</v>
+      </c>
+      <c r="D21" s="20">
+        <v>96</v>
+      </c>
+      <c r="E21" s="20">
+        <v>78</v>
+      </c>
+      <c r="F21" s="30">
+        <v>65</v>
+      </c>
+      <c r="G21" s="20">
+        <v>78</v>
+      </c>
+      <c r="H21" s="20">
+        <v>62</v>
+      </c>
+      <c r="I21" s="20">
+        <v>55</v>
+      </c>
+      <c r="J21" s="20">
+        <v>83</v>
+      </c>
+      <c r="K21" s="21">
+        <v>79</v>
+      </c>
+      <c r="L21" s="29">
+        <v>96</v>
+      </c>
+      <c r="M21" s="20">
+        <v>75</v>
+      </c>
+      <c r="N21" s="20">
+        <v>73</v>
+      </c>
+      <c r="O21" s="20">
+        <v>62</v>
+      </c>
+      <c r="P21" s="30">
+        <v>84</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>57</v>
+      </c>
+      <c r="R21" s="20">
+        <v>83</v>
+      </c>
+      <c r="S21" s="20">
+        <v>72</v>
+      </c>
+      <c r="T21" s="20">
+        <v>72</v>
+      </c>
+      <c r="U21" s="21">
+        <v>78</v>
+      </c>
+      <c r="V21" s="33">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="W21" s="21">
+        <f t="shared" si="3"/>
+        <v>13.12</v>
+      </c>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20">
+        <v>51</v>
+      </c>
+      <c r="AG21" s="20">
+        <v>53</v>
+      </c>
+      <c r="AH21" s="20">
+        <v>50</v>
+      </c>
+      <c r="AI21" s="20">
+        <v>60</v>
+      </c>
+      <c r="AJ21" s="20">
+        <v>65</v>
+      </c>
+      <c r="AK21" s="20">
+        <v>53</v>
+      </c>
+      <c r="AL21" s="29">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AM21" s="21">
         <f t="shared" si="5"/>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="20">
-        <v>47</v>
-      </c>
-      <c r="C20" s="20">
-        <v>50</v>
-      </c>
-      <c r="D20" s="20">
-        <v>54</v>
-      </c>
-      <c r="E20" s="20">
-        <v>52</v>
-      </c>
-      <c r="F20" s="30">
-        <v>63</v>
-      </c>
-      <c r="G20" s="20">
-        <v>48</v>
-      </c>
-      <c r="H20" s="20">
-        <v>44</v>
-      </c>
-      <c r="I20" s="20">
-        <v>59</v>
-      </c>
-      <c r="J20" s="20">
-        <v>46</v>
-      </c>
-      <c r="K20" s="21">
-        <v>55</v>
-      </c>
-      <c r="L20" s="29">
-        <v>61</v>
-      </c>
-      <c r="M20" s="20">
-        <v>71</v>
-      </c>
-      <c r="N20" s="20">
-        <v>65</v>
-      </c>
-      <c r="O20" s="20">
-        <v>62</v>
-      </c>
-      <c r="P20" s="30">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>55</v>
-      </c>
-      <c r="R20" s="20">
-        <v>58</v>
-      </c>
-      <c r="S20" s="20">
-        <v>44</v>
-      </c>
-      <c r="T20" s="20">
-        <v>50</v>
-      </c>
-      <c r="U20" s="21">
-        <v>65</v>
-      </c>
-      <c r="V20" s="33">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="W20" s="21">
-        <f t="shared" si="3"/>
-        <v>10.46</v>
-      </c>
-      <c r="Y20">
-        <v>31</v>
-      </c>
-      <c r="Z20">
-        <v>31</v>
-      </c>
-      <c r="AA20">
-        <v>58</v>
-      </c>
-      <c r="AB20">
-        <v>66</v>
-      </c>
-      <c r="AC20">
-        <v>67</v>
-      </c>
-      <c r="AD20">
-        <v>39</v>
-      </c>
-      <c r="AE20">
-        <v>59</v>
-      </c>
-      <c r="AF20" s="29">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="AG20" s="21">
-        <f t="shared" si="5"/>
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="20">
-        <v>72</v>
-      </c>
-      <c r="C21" s="20">
-        <v>109</v>
-      </c>
-      <c r="D21" s="20">
-        <v>96</v>
-      </c>
-      <c r="E21" s="20">
-        <v>78</v>
-      </c>
-      <c r="F21" s="30">
-        <v>65</v>
-      </c>
-      <c r="G21" s="20">
-        <v>78</v>
-      </c>
-      <c r="H21" s="20">
-        <v>62</v>
-      </c>
-      <c r="I21" s="20">
-        <v>55</v>
-      </c>
-      <c r="J21" s="20">
-        <v>83</v>
-      </c>
-      <c r="K21" s="21">
-        <v>79</v>
-      </c>
-      <c r="L21" s="29">
-        <v>96</v>
-      </c>
-      <c r="M21" s="20">
-        <v>75</v>
-      </c>
-      <c r="N21" s="20">
-        <v>73</v>
-      </c>
-      <c r="O21" s="20">
-        <v>62</v>
-      </c>
-      <c r="P21" s="30">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>57</v>
-      </c>
-      <c r="R21" s="20">
-        <v>83</v>
-      </c>
-      <c r="S21" s="20">
-        <v>72</v>
-      </c>
-      <c r="T21" s="20">
-        <v>72</v>
-      </c>
-      <c r="U21" s="21">
-        <v>78</v>
-      </c>
-      <c r="V21" s="33">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="W21" s="21">
-        <f t="shared" si="3"/>
-        <v>12.79</v>
-      </c>
-      <c r="Y21">
-        <v>64</v>
-      </c>
-      <c r="Z21">
-        <v>64</v>
-      </c>
-      <c r="AA21">
-        <v>62</v>
-      </c>
-      <c r="AB21">
-        <v>81</v>
-      </c>
-      <c r="AC21">
-        <v>67</v>
-      </c>
-      <c r="AD21">
-        <v>54</v>
-      </c>
-      <c r="AE21">
-        <v>70</v>
-      </c>
-      <c r="AF21" s="29">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="AG21" s="21">
-        <f t="shared" si="5"/>
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
@@ -15057,43 +15056,47 @@
       </c>
       <c r="V22" s="33">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W22" s="21">
         <f t="shared" si="3"/>
-        <v>20.72</v>
-      </c>
-      <c r="Y22">
-        <v>63</v>
-      </c>
-      <c r="Z22">
-        <v>63</v>
-      </c>
-      <c r="AA22">
-        <v>87</v>
-      </c>
-      <c r="AB22">
+        <v>22.02</v>
+      </c>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20">
         <v>96</v>
       </c>
-      <c r="AC22">
-        <v>81</v>
-      </c>
-      <c r="AD22">
-        <v>85</v>
-      </c>
-      <c r="AE22">
-        <v>80</v>
-      </c>
-      <c r="AF22" s="29">
+      <c r="AG22" s="20">
+        <v>66</v>
+      </c>
+      <c r="AH22" s="20">
+        <v>103</v>
+      </c>
+      <c r="AI22" s="20">
+        <v>76</v>
+      </c>
+      <c r="AJ22" s="20">
+        <v>94</v>
+      </c>
+      <c r="AK22" s="20">
+        <v>95</v>
+      </c>
+      <c r="AL22" s="29">
         <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="AG22" s="21">
+        <v>88</v>
+      </c>
+      <c r="AM22" s="21">
         <f t="shared" si="5"/>
-        <v>11.37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
@@ -15159,43 +15162,47 @@
       </c>
       <c r="V23" s="33">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="W23" s="21">
         <f t="shared" si="3"/>
-        <v>8.98</v>
-      </c>
-      <c r="Y23">
-        <v>78</v>
-      </c>
-      <c r="Z23">
-        <v>78</v>
-      </c>
-      <c r="AA23">
+        <v>8.94</v>
+      </c>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20">
+        <v>110</v>
+      </c>
+      <c r="AG23" s="20">
+        <v>94</v>
+      </c>
+      <c r="AH23" s="20">
+        <v>53</v>
+      </c>
+      <c r="AI23" s="20">
+        <v>64</v>
+      </c>
+      <c r="AJ23" s="20">
+        <v>81</v>
+      </c>
+      <c r="AK23" s="20">
+        <v>89</v>
+      </c>
+      <c r="AL23" s="29">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
-      <c r="AB23">
-        <v>78</v>
-      </c>
-      <c r="AC23">
-        <v>80</v>
-      </c>
-      <c r="AD23">
-        <v>82</v>
-      </c>
-      <c r="AE23">
-        <v>76</v>
-      </c>
-      <c r="AF23" s="29">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="AG23" s="21">
+      <c r="AM23" s="21">
         <f t="shared" si="5"/>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>58</v>
       </c>
@@ -15261,43 +15268,47 @@
       </c>
       <c r="V24" s="33">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W24" s="21">
         <f t="shared" si="3"/>
-        <v>17.18</v>
-      </c>
-      <c r="Y24">
-        <v>172</v>
-      </c>
-      <c r="Z24">
-        <v>172</v>
-      </c>
-      <c r="AA24">
-        <v>174</v>
-      </c>
-      <c r="AB24">
-        <v>198</v>
-      </c>
-      <c r="AC24">
-        <v>166</v>
-      </c>
-      <c r="AD24">
-        <v>182</v>
-      </c>
-      <c r="AE24">
-        <v>163</v>
-      </c>
-      <c r="AF24" s="29">
+        <v>18.8</v>
+      </c>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20">
+        <v>93</v>
+      </c>
+      <c r="AG24" s="20">
+        <v>161</v>
+      </c>
+      <c r="AH24" s="20">
+        <v>141</v>
+      </c>
+      <c r="AI24" s="20">
+        <v>144</v>
+      </c>
+      <c r="AJ24" s="20">
+        <v>148</v>
+      </c>
+      <c r="AK24" s="20">
+        <v>173</v>
+      </c>
+      <c r="AL24" s="29">
         <f t="shared" si="4"/>
-        <v>175</v>
-      </c>
-      <c r="AG24" s="21">
+        <v>143</v>
+      </c>
+      <c r="AM24" s="21">
         <f t="shared" si="5"/>
-        <v>10.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>59</v>
       </c>
@@ -15363,43 +15374,47 @@
       </c>
       <c r="V25" s="33">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="W25" s="21">
         <f t="shared" si="3"/>
-        <v>11.46</v>
-      </c>
-      <c r="Y25">
-        <v>143</v>
-      </c>
-      <c r="Z25">
-        <v>143</v>
-      </c>
-      <c r="AA25">
-        <v>180</v>
-      </c>
-      <c r="AB25">
-        <v>178</v>
-      </c>
-      <c r="AC25">
-        <v>176</v>
-      </c>
-      <c r="AD25">
-        <v>165</v>
-      </c>
-      <c r="AE25">
-        <v>179</v>
-      </c>
-      <c r="AF25" s="29">
+        <v>3.6</v>
+      </c>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20">
+        <v>161</v>
+      </c>
+      <c r="AG25" s="20">
+        <v>167</v>
+      </c>
+      <c r="AH25" s="20">
+        <v>160</v>
+      </c>
+      <c r="AI25" s="20">
+        <v>170</v>
+      </c>
+      <c r="AJ25" s="20">
+        <v>172</v>
+      </c>
+      <c r="AK25" s="20">
+        <v>174</v>
+      </c>
+      <c r="AL25" s="29">
         <f t="shared" si="4"/>
-        <v>166</v>
-      </c>
-      <c r="AG25" s="21">
+        <v>167</v>
+      </c>
+      <c r="AM25" s="21">
         <f t="shared" si="5"/>
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
@@ -15465,451 +15480,471 @@
       </c>
       <c r="V26" s="33">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W26" s="21">
         <f t="shared" si="3"/>
-        <v>13.36</v>
-      </c>
-      <c r="Y26">
+        <v>14.58</v>
+      </c>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20">
+        <v>55</v>
+      </c>
+      <c r="AG26" s="20">
+        <v>50</v>
+      </c>
+      <c r="AH26" s="20">
+        <v>55</v>
+      </c>
+      <c r="AI26" s="20">
+        <v>49</v>
+      </c>
+      <c r="AJ26" s="20">
+        <v>49</v>
+      </c>
+      <c r="AK26" s="20">
+        <v>55</v>
+      </c>
+      <c r="AL26" s="29">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="AM26" s="21">
+        <f t="shared" si="5"/>
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="20">
+        <v>80</v>
+      </c>
+      <c r="C27" s="20">
+        <v>39</v>
+      </c>
+      <c r="D27" s="20">
+        <v>76</v>
+      </c>
+      <c r="E27" s="20">
+        <v>96</v>
+      </c>
+      <c r="F27" s="30">
+        <v>105</v>
+      </c>
+      <c r="G27" s="20">
+        <v>57</v>
+      </c>
+      <c r="H27" s="20">
+        <v>119</v>
+      </c>
+      <c r="I27" s="20">
+        <v>70</v>
+      </c>
+      <c r="J27" s="20">
+        <v>51</v>
+      </c>
+      <c r="K27" s="21">
+        <v>81</v>
+      </c>
+      <c r="L27" s="29">
+        <v>54</v>
+      </c>
+      <c r="M27" s="20">
+        <v>46</v>
+      </c>
+      <c r="N27" s="20">
+        <v>88</v>
+      </c>
+      <c r="O27" s="20">
+        <v>62</v>
+      </c>
+      <c r="P27" s="30">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>95</v>
+      </c>
+      <c r="R27" s="20">
+        <v>77</v>
+      </c>
+      <c r="S27" s="20">
+        <v>77</v>
+      </c>
+      <c r="T27" s="20">
+        <v>57</v>
+      </c>
+      <c r="U27" s="21">
+        <v>48</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="W27" s="21">
+        <f t="shared" si="3"/>
+        <v>20.65</v>
+      </c>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20">
+        <v>51</v>
+      </c>
+      <c r="AG27" s="20">
+        <v>76</v>
+      </c>
+      <c r="AH27" s="20">
+        <v>87</v>
+      </c>
+      <c r="AI27" s="20">
+        <v>69</v>
+      </c>
+      <c r="AJ27" s="20">
+        <v>85</v>
+      </c>
+      <c r="AK27" s="20">
+        <v>82</v>
+      </c>
+      <c r="AL27" s="29">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="AM27" s="21">
+        <f t="shared" si="5"/>
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="20">
+        <v>81</v>
+      </c>
+      <c r="C28" s="20">
+        <v>95</v>
+      </c>
+      <c r="D28" s="20">
+        <v>79</v>
+      </c>
+      <c r="E28" s="20">
+        <v>89</v>
+      </c>
+      <c r="F28" s="30">
+        <v>84</v>
+      </c>
+      <c r="G28" s="20">
+        <v>62</v>
+      </c>
+      <c r="H28" s="20">
+        <v>72</v>
+      </c>
+      <c r="I28" s="20">
+        <v>64</v>
+      </c>
+      <c r="J28" s="20">
+        <v>88</v>
+      </c>
+      <c r="K28" s="21">
+        <v>84</v>
+      </c>
+      <c r="L28" s="29">
+        <v>80</v>
+      </c>
+      <c r="M28" s="20">
+        <v>90</v>
+      </c>
+      <c r="N28" s="20">
+        <v>78</v>
+      </c>
+      <c r="O28" s="20">
+        <v>62</v>
+      </c>
+      <c r="P28" s="30">
+        <v>84</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>77</v>
+      </c>
+      <c r="R28" s="20">
+        <v>78</v>
+      </c>
+      <c r="S28" s="20">
+        <v>75</v>
+      </c>
+      <c r="T28" s="20">
+        <v>75</v>
+      </c>
+      <c r="U28" s="21">
+        <v>76</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="W28" s="21">
+        <f t="shared" si="3"/>
+        <v>8.76</v>
+      </c>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20">
+        <v>49</v>
+      </c>
+      <c r="AG28" s="20">
+        <v>48</v>
+      </c>
+      <c r="AH28" s="20">
+        <v>51</v>
+      </c>
+      <c r="AI28" s="20">
+        <v>61</v>
+      </c>
+      <c r="AJ28" s="20">
+        <v>57</v>
+      </c>
+      <c r="AK28" s="20">
+        <v>51</v>
+      </c>
+      <c r="AL28" s="29">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="AM28" s="21">
+        <f t="shared" si="5"/>
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="20">
+        <v>91</v>
+      </c>
+      <c r="C29" s="20">
+        <v>93</v>
+      </c>
+      <c r="D29" s="20">
+        <v>88</v>
+      </c>
+      <c r="E29" s="20">
+        <v>87</v>
+      </c>
+      <c r="F29" s="30">
+        <v>84</v>
+      </c>
+      <c r="G29" s="20">
+        <v>88</v>
+      </c>
+      <c r="H29" s="20">
+        <v>82</v>
+      </c>
+      <c r="I29" s="20">
+        <v>86</v>
+      </c>
+      <c r="J29" s="20">
+        <v>87</v>
+      </c>
+      <c r="K29" s="21">
+        <v>90</v>
+      </c>
+      <c r="L29" s="29">
+        <v>99</v>
+      </c>
+      <c r="M29" s="20">
+        <v>97</v>
+      </c>
+      <c r="N29" s="20">
+        <v>81</v>
+      </c>
+      <c r="O29" s="20">
+        <v>62</v>
+      </c>
+      <c r="P29" s="30">
+        <v>97</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>82</v>
+      </c>
+      <c r="R29" s="20">
+        <v>92</v>
+      </c>
+      <c r="S29" s="20">
+        <v>92</v>
+      </c>
+      <c r="T29" s="20">
+        <v>83</v>
+      </c>
+      <c r="U29" s="21">
+        <v>88</v>
+      </c>
+      <c r="V29" s="33">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="W29" s="21">
+        <f t="shared" si="3"/>
+        <v>7.72</v>
+      </c>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20">
+        <v>56</v>
+      </c>
+      <c r="AG29" s="20">
+        <v>67</v>
+      </c>
+      <c r="AH29" s="20">
+        <v>74</v>
+      </c>
+      <c r="AI29" s="20">
+        <v>81</v>
+      </c>
+      <c r="AJ29" s="20">
+        <v>76</v>
+      </c>
+      <c r="AK29" s="20">
+        <v>84</v>
+      </c>
+      <c r="AL29" s="29">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="AM29" s="21">
+        <f t="shared" si="5"/>
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="20">
+        <v>76</v>
+      </c>
+      <c r="C30" s="20">
+        <v>81</v>
+      </c>
+      <c r="D30" s="20">
+        <v>88</v>
+      </c>
+      <c r="E30" s="20">
+        <v>73</v>
+      </c>
+      <c r="F30" s="30">
+        <v>74</v>
+      </c>
+      <c r="G30" s="20">
+        <v>86</v>
+      </c>
+      <c r="H30" s="20">
+        <v>109</v>
+      </c>
+      <c r="I30" s="20">
+        <v>55</v>
+      </c>
+      <c r="J30" s="20">
+        <v>59</v>
+      </c>
+      <c r="K30" s="21">
+        <v>77</v>
+      </c>
+      <c r="L30" s="29">
+        <v>79</v>
+      </c>
+      <c r="M30" s="20">
+        <v>90</v>
+      </c>
+      <c r="N30" s="20">
+        <v>65</v>
+      </c>
+      <c r="O30" s="20">
+        <v>80</v>
+      </c>
+      <c r="P30" s="30">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="20">
+        <v>76</v>
+      </c>
+      <c r="R30" s="20">
+        <v>73</v>
+      </c>
+      <c r="S30" s="20">
+        <v>28</v>
+      </c>
+      <c r="T30" s="20">
+        <v>52</v>
+      </c>
+      <c r="U30" s="21">
+        <v>64</v>
+      </c>
+      <c r="V30" s="33">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="W30" s="21">
+        <f t="shared" si="3"/>
+        <v>16.32</v>
+      </c>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20">
+        <v>80</v>
+      </c>
+      <c r="AG30" s="20">
+        <v>69</v>
+      </c>
+      <c r="AH30" s="20">
+        <v>63</v>
+      </c>
+      <c r="AI30" s="20">
+        <v>82</v>
+      </c>
+      <c r="AJ30" s="20">
+        <v>63</v>
+      </c>
+      <c r="AK30" s="20">
         <v>66</v>
       </c>
-      <c r="Z26">
-        <v>66</v>
-      </c>
-      <c r="AA26">
-        <v>77</v>
-      </c>
-      <c r="AB26">
-        <v>74</v>
-      </c>
-      <c r="AC26">
-        <v>73</v>
-      </c>
-      <c r="AD26">
-        <v>59</v>
-      </c>
-      <c r="AE26">
-        <v>83</v>
-      </c>
-      <c r="AF26" s="29">
+      <c r="AL30" s="29">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="AG26" s="21">
+      <c r="AM30" s="21">
         <f t="shared" si="5"/>
-        <v>7.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="20">
-        <v>80</v>
-      </c>
-      <c r="C27" s="20">
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <v>76</v>
-      </c>
-      <c r="E27" s="20">
-        <v>96</v>
-      </c>
-      <c r="F27" s="30">
-        <v>105</v>
-      </c>
-      <c r="G27" s="20">
-        <v>57</v>
-      </c>
-      <c r="H27" s="20">
-        <v>119</v>
-      </c>
-      <c r="I27" s="20">
-        <v>70</v>
-      </c>
-      <c r="J27" s="20">
-        <v>51</v>
-      </c>
-      <c r="K27" s="21">
-        <v>81</v>
-      </c>
-      <c r="L27" s="29">
-        <v>54</v>
-      </c>
-      <c r="M27" s="20">
-        <v>46</v>
-      </c>
-      <c r="N27" s="20">
-        <v>88</v>
-      </c>
-      <c r="O27" s="20">
-        <v>62</v>
-      </c>
-      <c r="P27" s="30">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="20">
-        <v>95</v>
-      </c>
-      <c r="R27" s="20">
-        <v>77</v>
-      </c>
-      <c r="S27" s="20">
-        <v>77</v>
-      </c>
-      <c r="T27" s="20">
-        <v>57</v>
-      </c>
-      <c r="U27" s="21">
-        <v>48</v>
-      </c>
-      <c r="V27" s="33">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="W27" s="21">
-        <f t="shared" si="3"/>
-        <v>19.2</v>
-      </c>
-      <c r="Y27">
-        <v>72</v>
-      </c>
-      <c r="Z27">
-        <v>72</v>
-      </c>
-      <c r="AA27">
-        <v>84</v>
-      </c>
-      <c r="AB27">
-        <v>69</v>
-      </c>
-      <c r="AC27">
-        <v>77</v>
-      </c>
-      <c r="AD27">
-        <v>78</v>
-      </c>
-      <c r="AE27">
-        <v>109</v>
-      </c>
-      <c r="AF27" s="29">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="AG27" s="21">
-        <f t="shared" si="5"/>
-        <v>12.64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="20">
-        <v>81</v>
-      </c>
-      <c r="C28" s="20">
-        <v>95</v>
-      </c>
-      <c r="D28" s="20">
-        <v>79</v>
-      </c>
-      <c r="E28" s="20">
-        <v>89</v>
-      </c>
-      <c r="F28" s="30">
-        <v>84</v>
-      </c>
-      <c r="G28" s="20">
-        <v>62</v>
-      </c>
-      <c r="H28" s="20">
-        <v>72</v>
-      </c>
-      <c r="I28" s="20">
-        <v>64</v>
-      </c>
-      <c r="J28" s="20">
-        <v>88</v>
-      </c>
-      <c r="K28" s="21">
-        <v>84</v>
-      </c>
-      <c r="L28" s="29">
-        <v>80</v>
-      </c>
-      <c r="M28" s="20">
-        <v>90</v>
-      </c>
-      <c r="N28" s="20">
-        <v>78</v>
-      </c>
-      <c r="O28" s="20">
-        <v>62</v>
-      </c>
-      <c r="P28" s="30">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>77</v>
-      </c>
-      <c r="R28" s="20">
-        <v>78</v>
-      </c>
-      <c r="S28" s="20">
-        <v>75</v>
-      </c>
-      <c r="T28" s="20">
-        <v>75</v>
-      </c>
-      <c r="U28" s="21">
-        <v>76</v>
-      </c>
-      <c r="V28" s="33">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="W28" s="21">
-        <f t="shared" si="3"/>
-        <v>7.94</v>
-      </c>
-      <c r="Y28">
-        <v>77</v>
-      </c>
-      <c r="Z28">
-        <v>77</v>
-      </c>
-      <c r="AA28">
-        <v>71</v>
-      </c>
-      <c r="AB28">
-        <v>87</v>
-      </c>
-      <c r="AC28">
-        <v>73</v>
-      </c>
-      <c r="AD28">
-        <v>80</v>
-      </c>
-      <c r="AE28">
-        <v>77</v>
-      </c>
-      <c r="AF28" s="29">
-        <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="AG28" s="21">
-        <f t="shared" si="5"/>
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="20">
-        <v>91</v>
-      </c>
-      <c r="C29" s="20">
-        <v>93</v>
-      </c>
-      <c r="D29" s="20">
-        <v>88</v>
-      </c>
-      <c r="E29" s="20">
-        <v>87</v>
-      </c>
-      <c r="F29" s="30">
-        <v>84</v>
-      </c>
-      <c r="G29" s="20">
-        <v>88</v>
-      </c>
-      <c r="H29" s="20">
-        <v>82</v>
-      </c>
-      <c r="I29" s="20">
-        <v>86</v>
-      </c>
-      <c r="J29" s="20">
-        <v>87</v>
-      </c>
-      <c r="K29" s="21">
-        <v>90</v>
-      </c>
-      <c r="L29" s="29">
-        <v>99</v>
-      </c>
-      <c r="M29" s="20">
-        <v>97</v>
-      </c>
-      <c r="N29" s="20">
-        <v>81</v>
-      </c>
-      <c r="O29" s="20">
-        <v>62</v>
-      </c>
-      <c r="P29" s="30">
-        <v>97</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>82</v>
-      </c>
-      <c r="R29" s="20">
-        <v>92</v>
-      </c>
-      <c r="S29" s="20">
-        <v>92</v>
-      </c>
-      <c r="T29" s="20">
-        <v>83</v>
-      </c>
-      <c r="U29" s="21">
-        <v>88</v>
-      </c>
-      <c r="V29" s="33">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="W29" s="21">
-        <f t="shared" si="3"/>
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="Y29">
-        <v>72</v>
-      </c>
-      <c r="Z29">
-        <v>72</v>
-      </c>
-      <c r="AA29">
-        <v>70</v>
-      </c>
-      <c r="AB29">
-        <v>90</v>
-      </c>
-      <c r="AC29">
-        <v>73</v>
-      </c>
-      <c r="AD29">
-        <v>83</v>
-      </c>
-      <c r="AE29">
-        <v>84</v>
-      </c>
-      <c r="AF29" s="29">
-        <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="AG29" s="21">
-        <f t="shared" si="5"/>
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="20">
-        <v>76</v>
-      </c>
-      <c r="C30" s="20">
-        <v>81</v>
-      </c>
-      <c r="D30" s="20">
-        <v>88</v>
-      </c>
-      <c r="E30" s="20">
-        <v>73</v>
-      </c>
-      <c r="F30" s="30">
-        <v>74</v>
-      </c>
-      <c r="G30" s="20">
-        <v>86</v>
-      </c>
-      <c r="H30" s="20">
-        <v>109</v>
-      </c>
-      <c r="I30" s="20">
-        <v>55</v>
-      </c>
-      <c r="J30" s="20">
-        <v>59</v>
-      </c>
-      <c r="K30" s="21">
-        <v>77</v>
-      </c>
-      <c r="L30" s="29">
-        <v>79</v>
-      </c>
-      <c r="M30" s="20">
-        <v>90</v>
-      </c>
-      <c r="N30" s="20">
-        <v>65</v>
-      </c>
-      <c r="O30" s="20">
-        <v>80</v>
-      </c>
-      <c r="P30" s="30">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="20">
-        <v>76</v>
-      </c>
-      <c r="R30" s="20">
-        <v>73</v>
-      </c>
-      <c r="S30" s="20">
-        <v>28</v>
-      </c>
-      <c r="T30" s="20">
-        <v>52</v>
-      </c>
-      <c r="U30" s="21">
-        <v>64</v>
-      </c>
-      <c r="V30" s="33">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="W30" s="21">
-        <f t="shared" si="3"/>
-        <v>15.32</v>
-      </c>
-      <c r="Y30">
-        <v>52</v>
-      </c>
-      <c r="Z30">
-        <v>52</v>
-      </c>
-      <c r="AA30">
-        <v>77</v>
-      </c>
-      <c r="AB30">
-        <v>77</v>
-      </c>
-      <c r="AC30">
-        <v>81</v>
-      </c>
-      <c r="AD30">
-        <v>74</v>
-      </c>
-      <c r="AE30">
-        <v>80</v>
-      </c>
-      <c r="AF30" s="29">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="AG30" s="21">
-        <f t="shared" si="5"/>
-        <v>11.84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>65</v>
       </c>
@@ -15975,43 +16010,47 @@
       </c>
       <c r="V31" s="33">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="W31" s="21">
         <f t="shared" si="3"/>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="Y31">
+        <v>13.14</v>
+      </c>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20">
+        <v>155</v>
+      </c>
+      <c r="AG31" s="20">
+        <v>142</v>
+      </c>
+      <c r="AH31" s="20">
+        <v>156</v>
+      </c>
+      <c r="AI31" s="20">
+        <v>120</v>
+      </c>
+      <c r="AJ31" s="20">
+        <v>149</v>
+      </c>
+      <c r="AK31" s="20">
+        <v>140</v>
+      </c>
+      <c r="AL31" s="29">
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="Z31">
-        <v>144</v>
-      </c>
-      <c r="AA31">
-        <v>167</v>
-      </c>
-      <c r="AB31">
-        <v>176</v>
-      </c>
-      <c r="AC31">
-        <v>219</v>
-      </c>
-      <c r="AD31">
-        <v>195</v>
-      </c>
-      <c r="AE31">
-        <v>184</v>
-      </c>
-      <c r="AF31" s="29">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
-      <c r="AG31" s="21">
+      <c r="AM31" s="21">
         <f t="shared" si="5"/>
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>66</v>
       </c>
@@ -16077,43 +16116,47 @@
       </c>
       <c r="V32" s="33">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="W32" s="21">
         <f t="shared" si="3"/>
-        <v>13.02</v>
-      </c>
-      <c r="Y32">
-        <v>127</v>
-      </c>
-      <c r="Z32">
-        <v>127</v>
-      </c>
-      <c r="AA32">
-        <v>153</v>
-      </c>
-      <c r="AB32">
-        <v>159</v>
-      </c>
-      <c r="AC32">
-        <v>160</v>
-      </c>
-      <c r="AD32">
-        <v>159</v>
-      </c>
-      <c r="AE32">
-        <v>162</v>
-      </c>
-      <c r="AF32" s="29">
+        <v>12.2</v>
+      </c>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20">
+        <v>196</v>
+      </c>
+      <c r="AG32" s="20">
+        <v>199</v>
+      </c>
+      <c r="AH32" s="20">
+        <v>210</v>
+      </c>
+      <c r="AI32" s="20">
+        <v>203</v>
+      </c>
+      <c r="AJ32" s="20">
+        <v>205</v>
+      </c>
+      <c r="AK32" s="20">
+        <v>169</v>
+      </c>
+      <c r="AL32" s="29">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="AG32" s="21">
+        <v>197</v>
+      </c>
+      <c r="AM32" s="21">
         <f t="shared" si="5"/>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>67</v>
       </c>
@@ -16179,43 +16222,47 @@
       </c>
       <c r="V33" s="33">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="W33" s="21">
         <f t="shared" si="3"/>
-        <v>19.12</v>
-      </c>
-      <c r="Y33">
-        <v>46</v>
-      </c>
-      <c r="Z33">
-        <v>46</v>
-      </c>
-      <c r="AA33">
-        <v>64</v>
-      </c>
-      <c r="AB33">
-        <v>50</v>
-      </c>
-      <c r="AC33">
-        <v>65</v>
-      </c>
-      <c r="AD33">
-        <v>45</v>
-      </c>
-      <c r="AE33">
-        <v>51</v>
-      </c>
-      <c r="AF33" s="23">
+        <v>21.02</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20">
+        <v>52</v>
+      </c>
+      <c r="AG33" s="20">
+        <v>53</v>
+      </c>
+      <c r="AH33" s="20">
+        <v>38</v>
+      </c>
+      <c r="AI33" s="20">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="20">
+        <v>56</v>
+      </c>
+      <c r="AK33" s="20">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="23">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="AG33" s="28">
+      <c r="AM33" s="28">
         <f t="shared" si="5"/>
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>68</v>
       </c>
@@ -16281,43 +16328,47 @@
       </c>
       <c r="V34" s="33">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="W34" s="21">
         <f t="shared" si="3"/>
-        <v>13.15</v>
-      </c>
-      <c r="Y34">
-        <v>39</v>
-      </c>
-      <c r="Z34">
-        <v>39</v>
-      </c>
-      <c r="AA34">
-        <v>46</v>
-      </c>
-      <c r="AB34">
-        <v>38</v>
-      </c>
-      <c r="AC34">
-        <v>44</v>
-      </c>
-      <c r="AD34">
-        <v>39</v>
-      </c>
-      <c r="AE34">
-        <v>26</v>
-      </c>
-      <c r="AF34" s="37">
-        <f t="shared" ref="AF34" si="6">ROUND(AVERAGE(Y34:AE34),0)</f>
-        <v>39</v>
-      </c>
-      <c r="AG34" s="68">
-        <f t="shared" ref="AG34" si="7">ROUND(_xlfn.STDEV.P(Y34:AE34),2)</f>
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13.33</v>
+      </c>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20">
+        <v>69</v>
+      </c>
+      <c r="AG34" s="20">
+        <v>63</v>
+      </c>
+      <c r="AH34" s="20">
+        <v>57</v>
+      </c>
+      <c r="AI34" s="20">
+        <v>68</v>
+      </c>
+      <c r="AJ34" s="20">
+        <v>65</v>
+      </c>
+      <c r="AK34" s="20">
+        <v>62</v>
+      </c>
+      <c r="AL34" s="23">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="AM34" s="28">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>69</v>
       </c>
@@ -16387,31 +16438,43 @@
       </c>
       <c r="W35" s="25">
         <f t="shared" si="3"/>
-        <v>4.22</v>
-      </c>
-      <c r="Y35">
-        <v>22.22</v>
-      </c>
-      <c r="Z35">
-        <v>24.44</v>
-      </c>
-      <c r="AA35">
-        <v>29.85</v>
-      </c>
-      <c r="AB35">
-        <v>28.36</v>
-      </c>
-      <c r="AC35">
-        <v>29.85</v>
-      </c>
-      <c r="AD35">
-        <v>23.88</v>
-      </c>
-      <c r="AE35">
-        <v>32.840000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.41</v>
+      </c>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20">
+        <v>29.41</v>
+      </c>
+      <c r="AG35" s="20">
+        <v>35.29</v>
+      </c>
+      <c r="AH35" s="20">
+        <v>27.94</v>
+      </c>
+      <c r="AI35" s="20">
+        <v>27.94</v>
+      </c>
+      <c r="AJ35" s="20">
+        <v>35.29</v>
+      </c>
+      <c r="AK35" s="20">
+        <v>36.76</v>
+      </c>
+      <c r="AL35" s="68">
+        <f>ROUND(AVERAGE(Y35:AK35),2)</f>
+        <v>32.11</v>
+      </c>
+      <c r="AM35" s="69">
+        <f t="shared" si="5"/>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>73</v>
       </c>
@@ -16477,35 +16540,47 @@
       </c>
       <c r="V36" s="25">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W36" s="25">
         <f t="shared" si="3"/>
-        <v>3.66</v>
-      </c>
-      <c r="Y36">
-        <v>17.18</v>
-      </c>
-      <c r="Z36">
-        <v>30.18</v>
-      </c>
-      <c r="AA36">
-        <v>21.51</v>
-      </c>
-      <c r="AB36">
-        <v>12.62</v>
-      </c>
-      <c r="AC36">
-        <v>22.3</v>
-      </c>
-      <c r="AD36">
-        <v>26.34</v>
-      </c>
-      <c r="AE36">
-        <v>21.65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22">
+        <v>23.11</v>
+      </c>
+      <c r="AG36" s="22">
+        <v>20.52</v>
+      </c>
+      <c r="AH36" s="22">
+        <v>22.45</v>
+      </c>
+      <c r="AI36" s="22">
+        <v>20.63</v>
+      </c>
+      <c r="AJ36" s="22">
+        <v>21.44</v>
+      </c>
+      <c r="AK36" s="22">
+        <v>18.38</v>
+      </c>
+      <c r="AL36" s="71">
+        <f>ROUND(AVERAGE(Y36:AK36),2)</f>
+        <v>21.09</v>
+      </c>
+      <c r="AM36" s="72">
+        <f t="shared" si="5"/>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="E37" s="18">
         <f>AVERAGE(B36:F36)</f>
         <v>24.686</v>
@@ -16538,16 +16613,8 @@
         <f>AVERAGE(Q35:U35)</f>
         <v>26.363999999999997</v>
       </c>
-      <c r="AD37" s="18">
-        <f>AVERAGE(Y36:AE36)</f>
-        <v>21.682857142857141</v>
-      </c>
-      <c r="AE37" s="38">
-        <f>AVERAGE(Y35:AE35)</f>
-        <v>27.348571428571429</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="29">
         <f>_xlfn.STDEV.P(B36:F36)</f>
         <v>3.2566277036222537</v>
@@ -16580,16 +16647,8 @@
         <f>_xlfn.STDEV.P(Q35:U35)</f>
         <v>4.0892229090623298</v>
       </c>
-      <c r="AD38" s="29">
-        <f>_xlfn.STDEV.P(Y36:AE36)</f>
-        <v>5.3011231001033208</v>
-      </c>
-      <c r="AE38" s="21">
-        <f>_xlfn.STDEV.P(Y35:AE35)</f>
-        <v>3.5953558479612853</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="23" t="s">
         <v>75</v>
       </c>
@@ -16614,14 +16673,8 @@
       <c r="U39" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="AD39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE39" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23" t="s">
         <v>76</v>
       </c>
@@ -16641,7 +16694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B41" s="41">
         <v>0.8</v>
       </c>
@@ -16665,7 +16718,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="42">
         <v>0.85</v>
       </c>
@@ -16689,7 +16742,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43"/>
       <c r="C43" s="44"/>
       <c r="D43" s="45"/>
@@ -16697,7 +16750,7 @@
       <c r="H43" s="53"/>
       <c r="I43" s="54"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
         <v>70</v>
       </c>
@@ -16721,7 +16774,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="34" t="s">
         <v>71</v>
       </c>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0355F2-C27A-482D-9D01-B7006E3D255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D9041-5FF1-4486-AC3A-B40E454BB6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -156,115 +156,7 @@
     <t>st patricks day</t>
   </si>
   <si>
-    <t xml:space="preserve">06/01/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/02/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/03/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/04/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/05/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/06/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/07/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/08/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/09/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/10/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/11/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/13/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/14/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/15/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/16/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/17/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/18/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/19/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/20/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/21/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/22/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/23/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/24/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/25/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/26/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/27/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/28/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/29/2025: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/30/2025: </t>
-  </si>
-  <si>
-    <t>acc(%)</t>
-  </si>
-  <si>
-    <t>32x4</t>
-  </si>
-  <si>
-    <t>64x32</t>
-  </si>
-  <si>
     <t>avg</t>
-  </si>
-  <si>
-    <t>test loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loc acc </t>
-  </si>
-  <si>
-    <t>loc loss</t>
   </si>
   <si>
     <t>acc</t>
@@ -275,12 +167,15 @@
   <si>
     <t>std</t>
   </si>
+  <si>
+    <t>actual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,33 +201,16 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -396,63 +274,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,58 +349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -608,11 +383,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -665,98 +451,103 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1057,11 +848,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K467"/>
+  <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L465" sqref="L465"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q454" sqref="Q454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12532,7 +12323,7 @@
         <v>137</v>
       </c>
       <c r="E436" s="9">
-        <v>63.7</v>
+        <v>64</v>
       </c>
       <c r="F436" s="9">
         <v>0</v>
@@ -12560,7 +12351,7 @@
         <v>170</v>
       </c>
       <c r="E437" s="9">
-        <v>63.9</v>
+        <v>60.6</v>
       </c>
       <c r="F437" s="9">
         <v>0</v>
@@ -12569,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="H437" s="9">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="J437" s="15"/>
       <c r="K437" s="13"/>
@@ -12588,7 +12379,7 @@
         <v>108</v>
       </c>
       <c r="E438" s="9">
-        <v>58.3</v>
+        <v>57.6</v>
       </c>
       <c r="F438" s="9">
         <v>0</v>
@@ -12597,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="H438" s="9">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J438" s="15"/>
       <c r="K438" s="13"/>
@@ -12616,7 +12407,7 @@
         <v>38</v>
       </c>
       <c r="E439" s="9">
-        <v>69.400000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="F439" s="9">
         <v>0</v>
@@ -12625,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="H439" s="9">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J439" s="15"/>
       <c r="K439" s="13"/>
@@ -12644,16 +12435,16 @@
         <v>55</v>
       </c>
       <c r="E440" s="9">
-        <v>77.400000000000006</v>
+        <v>76.8</v>
       </c>
       <c r="F440" s="9">
-        <v>1.2E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G440" s="9">
         <v>0</v>
       </c>
       <c r="H440" s="9">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="J440" s="15"/>
       <c r="K440" s="13"/>
@@ -12672,16 +12463,16 @@
         <v>55</v>
       </c>
       <c r="E441" s="9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F441" s="9">
-        <v>0.90900000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G441" s="9">
         <v>0</v>
       </c>
       <c r="H441" s="9">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J441" s="15"/>
       <c r="K441" s="13"/>
@@ -12700,7 +12491,7 @@
         <v>116</v>
       </c>
       <c r="E442" s="9">
-        <v>64.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="F442" s="9">
         <v>0</v>
@@ -12709,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="H442" s="9">
-        <v>8.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J442" s="15"/>
       <c r="K442" s="13"/>
@@ -12728,7 +12519,7 @@
         <v>155</v>
       </c>
       <c r="E443" s="9">
-        <v>65.8</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="F443" s="9">
         <v>0</v>
@@ -12737,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="H443" s="9">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J443" s="9"/>
       <c r="K443" s="13"/>
@@ -12756,16 +12547,16 @@
         <v>173</v>
       </c>
       <c r="E444" s="9">
-        <v>65.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F444" s="9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G444" s="9">
         <v>0</v>
       </c>
       <c r="H444" s="9">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J444" s="9"/>
       <c r="K444" s="13"/>
@@ -12784,16 +12575,16 @@
         <v>33</v>
       </c>
       <c r="E445" s="9">
-        <v>66.7</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="F445" s="9">
-        <v>0</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="G445" s="9">
         <v>0</v>
       </c>
       <c r="H445" s="9">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="J445" s="15"/>
       <c r="K445" s="13"/>
@@ -12812,7 +12603,7 @@
         <v>51</v>
       </c>
       <c r="E446" s="9">
-        <v>64</v>
+        <v>63.7</v>
       </c>
       <c r="F446" s="9">
         <v>0</v>
@@ -12821,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="H446" s="9">
-        <v>10.5</v>
+        <v>11.2</v>
       </c>
       <c r="J446" s="15"/>
       <c r="K446" s="13"/>
@@ -12840,7 +12631,7 @@
         <v>76</v>
       </c>
       <c r="E447" s="9">
-        <v>66</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="F447" s="9">
         <v>0</v>
@@ -12849,7 +12640,7 @@
         <v>0</v>
       </c>
       <c r="H447" s="9">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J447" s="15"/>
       <c r="K447" s="13"/>
@@ -12868,7 +12659,7 @@
         <v>88</v>
       </c>
       <c r="E448">
-        <v>78.709999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="F448" s="9">
         <v>0</v>
@@ -12877,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="H448" s="9">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="J448" s="15"/>
       <c r="K448" s="13"/>
@@ -12893,23 +12684,21 @@
         <v>45820</v>
       </c>
       <c r="D449" s="7">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E449" s="9">
-        <v>75.599999999999994</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="F449" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G449" s="9">
         <v>0</v>
       </c>
       <c r="H449" s="9">
-        <v>8.6</v>
-      </c>
-      <c r="J449">
-        <v>2.13</v>
-      </c>
+        <v>8.9</v>
+      </c>
+      <c r="J449"/>
       <c r="K449" s="13"/>
     </row>
     <row r="450" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12923,23 +12712,21 @@
         <v>45821</v>
       </c>
       <c r="D450" s="7">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E450" s="9">
-        <v>72.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F450" s="9">
-        <v>0.15</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G450" s="9">
         <v>0</v>
       </c>
       <c r="H450" s="9">
-        <v>8.9</v>
-      </c>
-      <c r="J450">
-        <v>10.44</v>
-      </c>
+        <v>7.4</v>
+      </c>
+      <c r="J450"/>
       <c r="K450" s="13"/>
     </row>
     <row r="451" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12953,23 +12740,21 @@
         <v>45822</v>
       </c>
       <c r="D451" s="7">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="E451" s="9">
-        <v>71.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F451" s="9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G451" s="9">
         <v>0</v>
       </c>
       <c r="H451" s="9">
-        <v>8</v>
-      </c>
-      <c r="J451">
-        <v>7.63</v>
-      </c>
+        <v>9.4</v>
+      </c>
+      <c r="J451"/>
       <c r="K451" s="13"/>
     </row>
     <row r="452" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12983,10 +12768,10 @@
         <v>45823</v>
       </c>
       <c r="D452" s="7">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E452" s="9">
-        <v>75</v>
+        <v>68.5</v>
       </c>
       <c r="F452" s="9">
         <v>0</v>
@@ -12995,14 +12780,12 @@
         <v>0</v>
       </c>
       <c r="H452" s="9">
-        <v>5</v>
+        <v>7.1</v>
       </c>
       <c r="I452" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J452">
-        <v>17.420000000000002</v>
-      </c>
+      <c r="J452"/>
       <c r="K452" s="13"/>
     </row>
     <row r="453" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13016,23 +12799,21 @@
         <v>45824</v>
       </c>
       <c r="D453" s="7">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E453" s="9">
-        <v>77</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="F453" s="9">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G453" s="9">
         <v>0</v>
       </c>
       <c r="H453" s="9">
-        <v>4</v>
-      </c>
-      <c r="J453">
-        <v>6.52</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="J453"/>
       <c r="K453" s="13"/>
     </row>
     <row r="454" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13046,23 +12827,21 @@
         <v>45825</v>
       </c>
       <c r="D454" s="7">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E454" s="9">
-        <v>75</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F454" s="9">
-        <v>0.4</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G454" s="9">
         <v>0</v>
       </c>
       <c r="H454" s="9">
-        <v>5</v>
-      </c>
-      <c r="J454">
-        <v>5.37</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="J454"/>
       <c r="K454" s="13"/>
     </row>
     <row r="455" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13076,23 +12855,21 @@
         <v>45826</v>
       </c>
       <c r="D455" s="7">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E455" s="9">
-        <v>74.5</v>
+        <v>76.3</v>
       </c>
       <c r="F455" s="9">
-        <v>0.2</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="G455" s="9">
         <v>0</v>
       </c>
       <c r="H455" s="9">
-        <v>15</v>
-      </c>
-      <c r="J455">
-        <v>12.92</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J455"/>
       <c r="K455" s="13"/>
     </row>
     <row r="456" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13106,10 +12883,10 @@
         <v>45827</v>
       </c>
       <c r="D456" s="7">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E456" s="9">
-        <v>74</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F456" s="9">
         <v>0</v>
@@ -13118,11 +12895,12 @@
         <v>0</v>
       </c>
       <c r="H456" s="9">
-        <v>5</v>
-      </c>
-      <c r="J456">
-        <v>18.899999999999999</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I456" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J456"/>
       <c r="K456" s="13"/>
     </row>
     <row r="457" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13136,23 +12914,21 @@
         <v>45828</v>
       </c>
       <c r="D457" s="7">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E457" s="9">
-        <v>74</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="F457" s="9">
-        <v>0.41</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G457" s="9">
         <v>0</v>
       </c>
       <c r="H457" s="9">
-        <v>13</v>
-      </c>
-      <c r="J457">
-        <v>25.01</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="J457"/>
       <c r="K457" s="13"/>
     </row>
     <row r="458" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13166,23 +12942,21 @@
         <v>45829</v>
       </c>
       <c r="D458" s="7">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E458" s="9">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F458" s="9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G458" s="9">
         <v>0</v>
       </c>
       <c r="H458" s="9">
-        <v>6</v>
-      </c>
-      <c r="J458">
-        <v>5.28</v>
-      </c>
+        <v>16.8</v>
+      </c>
+      <c r="J458"/>
       <c r="K458" s="13"/>
     </row>
     <row r="459" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13196,23 +12970,21 @@
         <v>45830</v>
       </c>
       <c r="D459" s="7">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E459" s="9">
-        <v>77.5</v>
+        <v>87.1</v>
       </c>
       <c r="F459" s="9">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="G459" s="9">
         <v>0</v>
       </c>
       <c r="H459" s="9">
-        <v>8</v>
-      </c>
-      <c r="J459">
-        <v>2.85</v>
-      </c>
+        <v>14.4</v>
+      </c>
+      <c r="J459"/>
       <c r="K459" s="13"/>
     </row>
     <row r="460" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13226,23 +12998,21 @@
         <v>45831</v>
       </c>
       <c r="D460" s="7">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E460" s="9">
-        <v>76</v>
+        <v>87.3</v>
       </c>
       <c r="F460" s="9">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G460" s="9">
         <v>0</v>
       </c>
       <c r="H460" s="9">
-        <v>9</v>
-      </c>
-      <c r="J460">
-        <v>12.29</v>
-      </c>
+        <v>12.9</v>
+      </c>
+      <c r="J460"/>
       <c r="K460" s="13"/>
     </row>
     <row r="461" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13256,23 +13026,21 @@
         <v>45832</v>
       </c>
       <c r="D461" s="7">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E461" s="9">
-        <v>74.5</v>
+        <v>82.9</v>
       </c>
       <c r="F461" s="9">
-        <v>0.34</v>
+        <v>0.622</v>
       </c>
       <c r="G461" s="9">
         <v>0</v>
       </c>
       <c r="H461" s="9">
-        <v>5</v>
-      </c>
-      <c r="J461">
-        <v>4.63</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="J461"/>
       <c r="K461" s="13"/>
     </row>
     <row r="462" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13286,23 +13054,21 @@
         <v>45833</v>
       </c>
       <c r="D462" s="7">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E462" s="9">
-        <v>69.5</v>
+        <v>77.5</v>
       </c>
       <c r="F462" s="9">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G462" s="9">
         <v>0</v>
       </c>
       <c r="H462" s="9">
-        <v>6</v>
-      </c>
-      <c r="J462">
-        <v>9.31</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="J462"/>
       <c r="K462" s="13"/>
     </row>
     <row r="463" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13316,10 +13082,10 @@
         <v>45834</v>
       </c>
       <c r="D463" s="7">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="E463" s="9">
-        <v>69.5</v>
+        <v>82.8</v>
       </c>
       <c r="F463" s="9">
         <v>0</v>
@@ -13328,11 +13094,9 @@
         <v>0</v>
       </c>
       <c r="H463" s="9">
-        <v>4</v>
-      </c>
-      <c r="J463">
-        <v>7.72</v>
-      </c>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J463"/>
       <c r="K463" s="13"/>
     </row>
     <row r="464" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13349,7 +13113,7 @@
         <v>144</v>
       </c>
       <c r="E464" s="9">
-        <v>72</v>
+        <v>82.6</v>
       </c>
       <c r="F464" s="9">
         <v>0</v>
@@ -13358,11 +13122,9 @@
         <v>0</v>
       </c>
       <c r="H464" s="9">
-        <v>2</v>
-      </c>
-      <c r="J464">
-        <v>12.15</v>
-      </c>
+        <v>10.9</v>
+      </c>
+      <c r="J464"/>
       <c r="K464" s="13"/>
     </row>
     <row r="465" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13379,7 +13141,7 @@
         <v>197</v>
       </c>
       <c r="E465" s="9">
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="F465" s="9">
         <v>0</v>
@@ -13388,11 +13150,9 @@
         <v>0</v>
       </c>
       <c r="H465" s="9">
-        <v>2</v>
-      </c>
-      <c r="J465">
-        <v>13.28</v>
-      </c>
+        <v>5.8</v>
+      </c>
+      <c r="J465"/>
       <c r="K465" s="13"/>
     </row>
     <row r="466" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13409,20 +13169,18 @@
         <v>52</v>
       </c>
       <c r="E466" s="9">
-        <v>72</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F466" s="9">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G466" s="9">
         <v>0</v>
       </c>
       <c r="H466" s="9">
-        <v>6</v>
-      </c>
-      <c r="J466">
-        <v>6.42</v>
-      </c>
+        <v>7.6</v>
+      </c>
+      <c r="J466"/>
       <c r="K466" s="13"/>
     </row>
     <row r="467" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13436,26 +13194,1302 @@
         <v>45838</v>
       </c>
       <c r="D467" s="7">
+        <v>122</v>
+      </c>
+      <c r="E467" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="F467" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G467" s="9">
+        <v>0</v>
+      </c>
+      <c r="H467" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="J467"/>
+      <c r="K467" s="13"/>
+    </row>
+    <row r="468" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="7">
+        <v>3</v>
+      </c>
+      <c r="B468" s="7">
+        <v>467</v>
+      </c>
+      <c r="C468" s="8">
+        <v>45839</v>
+      </c>
+      <c r="D468" s="16">
+        <v>82</v>
+      </c>
+      <c r="E468" s="11">
+        <v>79.5</v>
+      </c>
+      <c r="F468" s="11">
+        <v>0</v>
+      </c>
+      <c r="G468" s="9">
+        <v>0</v>
+      </c>
+      <c r="H468" s="11">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="7">
+        <v>4</v>
+      </c>
+      <c r="B469" s="7">
+        <v>468</v>
+      </c>
+      <c r="C469" s="8">
+        <v>45840</v>
+      </c>
+      <c r="D469" s="16">
+        <v>69</v>
+      </c>
+      <c r="E469" s="11">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F469" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G469" s="9">
+        <v>0</v>
+      </c>
+      <c r="H469" s="11">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="7">
+        <v>5</v>
+      </c>
+      <c r="B470" s="7">
+        <v>469</v>
+      </c>
+      <c r="C470" s="8">
+        <v>45841</v>
+      </c>
+      <c r="D470" s="16">
+        <v>137</v>
+      </c>
+      <c r="E470" s="11">
+        <v>83.1</v>
+      </c>
+      <c r="F470" s="11">
+        <v>0</v>
+      </c>
+      <c r="G470" s="9">
+        <v>0</v>
+      </c>
+      <c r="H470" s="11">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="7">
+        <v>6</v>
+      </c>
+      <c r="B471" s="7">
+        <v>470</v>
+      </c>
+      <c r="C471" s="8">
+        <v>45842</v>
+      </c>
+      <c r="D471" s="16">
+        <v>0</v>
+      </c>
+      <c r="E471" s="11">
+        <v>82</v>
+      </c>
+      <c r="F471" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G471" s="9">
+        <v>0</v>
+      </c>
+      <c r="H471" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="I471" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="7">
+        <v>7</v>
+      </c>
+      <c r="B472" s="7">
+        <v>471</v>
+      </c>
+      <c r="C472" s="8">
+        <v>45843</v>
+      </c>
+      <c r="D472" s="16">
+        <v>150</v>
+      </c>
+      <c r="E472" s="11">
+        <v>85.5</v>
+      </c>
+      <c r="F472" s="11">
+        <v>0</v>
+      </c>
+      <c r="G472" s="9">
+        <v>0</v>
+      </c>
+      <c r="H472" s="11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="16">
+        <v>1</v>
+      </c>
+      <c r="B473" s="7">
+        <v>472</v>
+      </c>
+      <c r="C473" s="8">
+        <v>45844</v>
+      </c>
+      <c r="D473" s="16">
+        <v>86</v>
+      </c>
+      <c r="E473" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F473" s="11">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G473" s="11">
+        <v>0</v>
+      </c>
+      <c r="H473" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J473" s="11">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="7">
+        <v>2</v>
+      </c>
+      <c r="B474" s="7">
+        <v>473</v>
+      </c>
+      <c r="C474" s="8">
+        <v>45845</v>
+      </c>
+      <c r="D474" s="16">
+        <v>67</v>
+      </c>
+      <c r="E474" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F474" s="11">
+        <v>0</v>
+      </c>
+      <c r="G474" s="11">
+        <v>0</v>
+      </c>
+      <c r="H474" s="11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J474" s="11">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="7">
+        <v>3</v>
+      </c>
+      <c r="B475" s="7">
+        <v>474</v>
+      </c>
+      <c r="C475" s="8">
+        <v>45846</v>
+      </c>
+      <c r="D475" s="16">
+        <v>63</v>
+      </c>
+      <c r="E475" s="11">
+        <v>75.2</v>
+      </c>
+      <c r="F475" s="11">
+        <v>0</v>
+      </c>
+      <c r="G475" s="11">
+        <v>0</v>
+      </c>
+      <c r="H475" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="J475" s="11">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="7">
+        <v>4</v>
+      </c>
+      <c r="B476" s="7">
+        <v>475</v>
+      </c>
+      <c r="C476" s="8">
+        <v>45847</v>
+      </c>
+      <c r="D476" s="16">
+        <v>86</v>
+      </c>
+      <c r="E476" s="11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F476" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G476" s="11">
+        <v>0</v>
+      </c>
+      <c r="H476" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="J476" s="11">
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="7">
+        <v>5</v>
+      </c>
+      <c r="B477" s="7">
+        <v>476</v>
+      </c>
+      <c r="C477" s="8">
+        <v>45848</v>
+      </c>
+      <c r="D477" s="16">
+        <v>118</v>
+      </c>
+      <c r="E477" s="11">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F477" s="11">
+        <v>0</v>
+      </c>
+      <c r="G477" s="11">
+        <v>0</v>
+      </c>
+      <c r="H477" s="11">
+        <v>6.6</v>
+      </c>
+      <c r="J477" s="11">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="7">
+        <v>6</v>
+      </c>
+      <c r="B478" s="7">
+        <v>477</v>
+      </c>
+      <c r="C478" s="8">
+        <v>45849</v>
+      </c>
+      <c r="D478" s="16">
+        <v>190</v>
+      </c>
+      <c r="E478" s="11">
+        <v>77.5</v>
+      </c>
+      <c r="F478" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G478" s="11">
+        <v>0</v>
+      </c>
+      <c r="H478" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="J478" s="11">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="7">
+        <v>7</v>
+      </c>
+      <c r="B479" s="7">
+        <v>478</v>
+      </c>
+      <c r="C479" s="8">
+        <v>45850</v>
+      </c>
+      <c r="D479" s="16">
+        <v>163</v>
+      </c>
+      <c r="E479" s="11">
+        <v>76.8</v>
+      </c>
+      <c r="F479" s="11">
+        <v>0</v>
+      </c>
+      <c r="G479" s="11">
+        <v>0</v>
+      </c>
+      <c r="H479" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J479" s="11">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="7">
+        <v>1</v>
+      </c>
+      <c r="B480" s="7">
+        <v>479</v>
+      </c>
+      <c r="C480" s="8">
+        <v>45851</v>
+      </c>
+      <c r="D480" s="16">
+        <v>70</v>
+      </c>
+      <c r="E480" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="F480" s="11">
+        <v>0</v>
+      </c>
+      <c r="G480" s="11">
+        <v>0</v>
+      </c>
+      <c r="H480" s="11">
+        <v>8</v>
+      </c>
+      <c r="J480" s="11">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A481" s="7">
+        <v>2</v>
+      </c>
+      <c r="B481" s="7">
+        <v>480</v>
+      </c>
+      <c r="C481" s="8">
+        <v>45852</v>
+      </c>
+      <c r="D481" s="16">
+        <v>76</v>
+      </c>
+      <c r="E481" s="11">
+        <v>75.7</v>
+      </c>
+      <c r="F481" s="11">
+        <v>0</v>
+      </c>
+      <c r="G481" s="11">
+        <v>0</v>
+      </c>
+      <c r="H481" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="J481" s="11">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A482" s="7">
+        <v>3</v>
+      </c>
+      <c r="B482" s="7">
+        <v>481</v>
+      </c>
+      <c r="C482" s="8">
+        <v>45853</v>
+      </c>
+      <c r="D482" s="16">
+        <v>77</v>
+      </c>
+      <c r="E482" s="11">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F482" s="11">
+        <v>0</v>
+      </c>
+      <c r="G482" s="11">
+        <v>0</v>
+      </c>
+      <c r="H482" s="11">
+        <v>8.4</v>
+      </c>
+      <c r="J482" s="11">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A483" s="7">
+        <v>4</v>
+      </c>
+      <c r="B483" s="7">
+        <v>482</v>
+      </c>
+      <c r="C483" s="8">
+        <v>45854</v>
+      </c>
+      <c r="D483" s="16">
+        <v>79</v>
+      </c>
+      <c r="E483" s="11">
+        <v>75.5</v>
+      </c>
+      <c r="F483" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="G483" s="11">
+        <v>0</v>
+      </c>
+      <c r="H483" s="11">
+        <v>6</v>
+      </c>
+      <c r="J483" s="11">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A484" s="7">
+        <v>5</v>
+      </c>
+      <c r="B484" s="7">
+        <v>483</v>
+      </c>
+      <c r="C484" s="8">
+        <v>45855</v>
+      </c>
+      <c r="D484" s="16">
+        <v>82</v>
+      </c>
+      <c r="E484" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F484" s="11">
+        <v>0</v>
+      </c>
+      <c r="G484" s="11">
+        <v>0</v>
+      </c>
+      <c r="H484" s="11">
+        <v>5</v>
+      </c>
+      <c r="J484" s="11">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A485" s="7">
+        <v>6</v>
+      </c>
+      <c r="B485" s="7">
+        <v>484</v>
+      </c>
+      <c r="C485" s="8">
+        <v>45856</v>
+      </c>
+      <c r="D485" s="16">
+        <v>132</v>
+      </c>
+      <c r="E485" s="11">
+        <v>76</v>
+      </c>
+      <c r="F485" s="11">
+        <v>0</v>
+      </c>
+      <c r="G485" s="11">
+        <v>0</v>
+      </c>
+      <c r="H485" s="11">
+        <v>13</v>
+      </c>
+      <c r="J485" s="11">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A486" s="7">
+        <v>7</v>
+      </c>
+      <c r="B486" s="7">
+        <v>485</v>
+      </c>
+      <c r="C486" s="8">
+        <v>45857</v>
+      </c>
+      <c r="D486" s="16">
+        <v>170</v>
+      </c>
+      <c r="E486" s="11">
+        <v>75</v>
+      </c>
+      <c r="F486" s="11">
+        <v>0</v>
+      </c>
+      <c r="G486" s="11">
+        <v>0</v>
+      </c>
+      <c r="H486" s="11">
+        <v>7</v>
+      </c>
+      <c r="J486" s="11">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A487" s="7">
+        <v>1</v>
+      </c>
+      <c r="B487" s="7">
+        <v>486</v>
+      </c>
+      <c r="C487" s="8">
+        <v>45858</v>
+      </c>
+      <c r="D487" s="16">
+        <v>48</v>
+      </c>
+      <c r="E487" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F487" s="11">
+        <v>0</v>
+      </c>
+      <c r="G487" s="11">
+        <v>0</v>
+      </c>
+      <c r="H487" s="11">
+        <v>6</v>
+      </c>
+      <c r="J487" s="11">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A488" s="7">
+        <v>2</v>
+      </c>
+      <c r="B488" s="7">
+        <v>487</v>
+      </c>
+      <c r="C488" s="8">
+        <v>45859</v>
+      </c>
+      <c r="D488" s="16">
+        <v>62</v>
+      </c>
+      <c r="E488" s="11">
+        <v>69</v>
+      </c>
+      <c r="F488" s="11">
+        <v>0</v>
+      </c>
+      <c r="G488" s="11">
+        <v>0</v>
+      </c>
+      <c r="H488" s="11">
+        <v>4</v>
+      </c>
+      <c r="J488" s="11">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A489" s="7">
+        <v>3</v>
+      </c>
+      <c r="B489" s="7">
+        <v>488</v>
+      </c>
+      <c r="C489" s="8">
+        <v>45860</v>
+      </c>
+      <c r="D489" s="16">
+        <v>91</v>
+      </c>
+      <c r="E489" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F489" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G489" s="11">
+        <v>0</v>
+      </c>
+      <c r="H489" s="11">
+        <v>7</v>
+      </c>
+      <c r="J489" s="11">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A490" s="7">
+        <v>4</v>
+      </c>
+      <c r="B490" s="7">
+        <v>489</v>
+      </c>
+      <c r="C490" s="8">
+        <v>45861</v>
+      </c>
+      <c r="D490" s="16">
+        <v>57</v>
+      </c>
+      <c r="E490" s="11">
+        <v>76</v>
+      </c>
+      <c r="F490" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G490" s="11">
+        <v>0</v>
+      </c>
+      <c r="H490" s="11">
+        <v>5</v>
+      </c>
+      <c r="J490" s="11">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A491" s="7">
+        <v>5</v>
+      </c>
+      <c r="B491" s="7">
+        <v>490</v>
+      </c>
+      <c r="C491" s="8">
+        <v>45862</v>
+      </c>
+      <c r="D491" s="16">
+        <v>78</v>
+      </c>
+      <c r="E491" s="11">
+        <v>73</v>
+      </c>
+      <c r="F491" s="11">
+        <v>0</v>
+      </c>
+      <c r="G491" s="11">
+        <v>0</v>
+      </c>
+      <c r="H491" s="11">
+        <v>5</v>
+      </c>
+      <c r="J491" s="11">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A492" s="7">
+        <v>6</v>
+      </c>
+      <c r="B492" s="7">
+        <v>491</v>
+      </c>
+      <c r="C492" s="8">
+        <v>45863</v>
+      </c>
+      <c r="D492" s="16">
+        <v>188</v>
+      </c>
+      <c r="E492" s="11">
+        <v>72</v>
+      </c>
+      <c r="F492" s="11">
+        <v>0</v>
+      </c>
+      <c r="G492" s="11">
+        <v>0</v>
+      </c>
+      <c r="H492" s="11">
+        <v>7</v>
+      </c>
+      <c r="J492" s="11">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A493" s="7">
+        <v>7</v>
+      </c>
+      <c r="B493" s="7">
+        <v>492</v>
+      </c>
+      <c r="C493" s="8">
+        <v>45864</v>
+      </c>
+      <c r="D493" s="16">
+        <v>188</v>
+      </c>
+      <c r="E493" s="11">
+        <v>70</v>
+      </c>
+      <c r="F493" s="11">
+        <v>0</v>
+      </c>
+      <c r="G493" s="11">
+        <v>0</v>
+      </c>
+      <c r="H493" s="11">
+        <v>5</v>
+      </c>
+      <c r="J493" s="11">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A494" s="7">
+        <v>2</v>
+      </c>
+      <c r="B494" s="7">
+        <v>493</v>
+      </c>
+      <c r="C494" s="8">
+        <v>45865</v>
+      </c>
+      <c r="D494" s="16">
+        <v>68</v>
+      </c>
+      <c r="E494" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F494" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="G494" s="11">
+        <v>0</v>
+      </c>
+      <c r="H494" s="11">
+        <v>9</v>
+      </c>
+      <c r="J494" s="11">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A495" s="7">
+        <v>3</v>
+      </c>
+      <c r="B495" s="7">
+        <v>494</v>
+      </c>
+      <c r="C495" s="8">
+        <v>45866</v>
+      </c>
+      <c r="D495" s="16">
         <v>64</v>
       </c>
-      <c r="E467" s="9">
+      <c r="E495" s="11">
+        <v>71</v>
+      </c>
+      <c r="F495" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="G495" s="11">
+        <v>0</v>
+      </c>
+      <c r="H495" s="11">
+        <v>10</v>
+      </c>
+      <c r="J495" s="11">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A496" s="7">
+        <v>4</v>
+      </c>
+      <c r="B496" s="7">
+        <v>495</v>
+      </c>
+      <c r="C496" s="8">
+        <v>45867</v>
+      </c>
+      <c r="D496" s="16">
+        <v>86</v>
+      </c>
+      <c r="E496" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F496" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G496" s="11">
+        <v>0</v>
+      </c>
+      <c r="H496" s="11">
+        <v>9</v>
+      </c>
+      <c r="J496" s="11">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A497" s="7">
+        <v>5</v>
+      </c>
+      <c r="B497" s="7">
+        <v>496</v>
+      </c>
+      <c r="C497" s="8">
+        <v>45868</v>
+      </c>
+      <c r="D497" s="16">
+        <v>137</v>
+      </c>
+      <c r="E497" s="11">
+        <v>73</v>
+      </c>
+      <c r="F497" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G497" s="11">
+        <v>0</v>
+      </c>
+      <c r="H497" s="11">
+        <v>8</v>
+      </c>
+      <c r="J497" s="11">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A498" s="7">
+        <v>6</v>
+      </c>
+      <c r="B498" s="7">
+        <v>497</v>
+      </c>
+      <c r="C498" s="8">
+        <v>45869</v>
+      </c>
+      <c r="D498" s="16">
+        <v>169</v>
+      </c>
+      <c r="E498" s="11">
+        <v>70</v>
+      </c>
+      <c r="F498" s="11">
+        <v>0</v>
+      </c>
+      <c r="G498" s="11">
+        <v>0</v>
+      </c>
+      <c r="H498" s="11">
+        <v>9</v>
+      </c>
+      <c r="J498" s="11">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A499" s="7">
+        <v>7</v>
+      </c>
+      <c r="B499" s="7">
+        <v>498</v>
+      </c>
+      <c r="C499" s="8">
+        <v>45870</v>
+      </c>
+      <c r="D499" s="16">
+        <v>175</v>
+      </c>
+      <c r="E499" s="11">
+        <v>70</v>
+      </c>
+      <c r="F499" s="11">
+        <v>0</v>
+      </c>
+      <c r="G499" s="11">
+        <v>0</v>
+      </c>
+      <c r="H499" s="11">
+        <v>8</v>
+      </c>
+      <c r="J499" s="11">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A500" s="7">
+        <v>1</v>
+      </c>
+      <c r="B500" s="7">
+        <v>499</v>
+      </c>
+      <c r="C500" s="8">
+        <v>45871</v>
+      </c>
+      <c r="D500" s="16">
+        <v>51</v>
+      </c>
+      <c r="E500" s="11">
+        <v>69</v>
+      </c>
+      <c r="F500" s="11">
+        <v>0</v>
+      </c>
+      <c r="G500" s="11">
+        <v>0</v>
+      </c>
+      <c r="H500" s="11">
+        <v>4</v>
+      </c>
+      <c r="J500" s="11">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A501" s="7">
+        <v>2</v>
+      </c>
+      <c r="B501" s="7">
+        <v>500</v>
+      </c>
+      <c r="C501" s="8">
+        <v>45872</v>
+      </c>
+      <c r="D501" s="16">
+        <v>64</v>
+      </c>
+      <c r="E501" s="11">
+        <v>71</v>
+      </c>
+      <c r="F501" s="11">
+        <v>0</v>
+      </c>
+      <c r="G501" s="11">
+        <v>0</v>
+      </c>
+      <c r="H501" s="11">
+        <v>6</v>
+      </c>
+      <c r="J501" s="11">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A502" s="7">
+        <v>3</v>
+      </c>
+      <c r="B502" s="7">
+        <v>501</v>
+      </c>
+      <c r="C502" s="8">
+        <v>45873</v>
+      </c>
+      <c r="D502" s="16">
+        <v>68</v>
+      </c>
+      <c r="E502" s="11">
         <v>74.5</v>
       </c>
-      <c r="F467" s="9">
-        <v>0.04</v>
-      </c>
-      <c r="G467" s="9">
-        <v>0</v>
-      </c>
-      <c r="H467" s="9">
+      <c r="F502" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G502" s="11">
+        <v>0</v>
+      </c>
+      <c r="H502" s="11">
+        <v>5</v>
+      </c>
+      <c r="J502" s="11">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A503" s="7">
+        <v>4</v>
+      </c>
+      <c r="B503" s="7">
+        <v>502</v>
+      </c>
+      <c r="C503" s="8">
+        <v>45874</v>
+      </c>
+      <c r="D503" s="16">
+        <v>54</v>
+      </c>
+      <c r="E503" s="11">
+        <v>73.5</v>
+      </c>
+      <c r="F503" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="G503" s="11">
+        <v>0</v>
+      </c>
+      <c r="H503" s="11">
+        <v>5</v>
+      </c>
+      <c r="J503" s="11">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A504" s="7">
+        <v>5</v>
+      </c>
+      <c r="B504" s="7">
+        <v>503</v>
+      </c>
+      <c r="C504" s="8">
+        <v>45875</v>
+      </c>
+      <c r="D504" s="16">
+        <v>117</v>
+      </c>
+      <c r="E504" s="11">
+        <v>69</v>
+      </c>
+      <c r="F504" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G504" s="11">
+        <v>0</v>
+      </c>
+      <c r="H504" s="11">
+        <v>9</v>
+      </c>
+      <c r="J504" s="11">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A505" s="7">
         <v>6</v>
       </c>
-      <c r="J467">
+      <c r="B505" s="7">
+        <v>504</v>
+      </c>
+      <c r="C505" s="8">
+        <v>45876</v>
+      </c>
+      <c r="D505" s="16">
+        <v>140</v>
+      </c>
+      <c r="E505" s="11">
+        <v>68.5</v>
+      </c>
+      <c r="F505" s="11">
+        <v>0</v>
+      </c>
+      <c r="G505" s="11">
+        <v>0</v>
+      </c>
+      <c r="H505" s="11">
+        <v>5</v>
+      </c>
+      <c r="J505" s="11">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A506" s="7">
+        <v>7</v>
+      </c>
+      <c r="B506" s="7">
+        <v>505</v>
+      </c>
+      <c r="C506" s="8">
+        <v>45877</v>
+      </c>
+      <c r="D506" s="16">
+        <v>186</v>
+      </c>
+      <c r="E506" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F506" s="11">
+        <v>0</v>
+      </c>
+      <c r="G506" s="11">
+        <v>0</v>
+      </c>
+      <c r="H506" s="11">
+        <v>6</v>
+      </c>
+      <c r="J506" s="11">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A507" s="7">
+        <v>1</v>
+      </c>
+      <c r="B507" s="7">
+        <v>506</v>
+      </c>
+      <c r="C507" s="8">
+        <v>45878</v>
+      </c>
+      <c r="D507" s="16">
+        <v>57</v>
+      </c>
+      <c r="E507" s="11">
+        <v>72</v>
+      </c>
+      <c r="F507" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="G507" s="11">
+        <v>0</v>
+      </c>
+      <c r="H507" s="11">
+        <v>15</v>
+      </c>
+      <c r="J507" s="11">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A508" s="7">
+        <v>2</v>
+      </c>
+      <c r="B508" s="7">
+        <v>507</v>
+      </c>
+      <c r="C508" s="8">
+        <v>45879</v>
+      </c>
+      <c r="D508" s="16">
+        <v>58</v>
+      </c>
+      <c r="E508" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F508" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G508" s="11">
+        <v>0</v>
+      </c>
+      <c r="H508" s="11">
+        <v>12</v>
+      </c>
+      <c r="J508" s="11">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A509" s="7">
+        <v>3</v>
+      </c>
+      <c r="B509" s="7">
+        <v>508</v>
+      </c>
+      <c r="C509" s="8">
+        <v>45880</v>
+      </c>
+      <c r="D509" s="16">
+        <v>60</v>
+      </c>
+      <c r="E509" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F509" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G509" s="11">
+        <v>0</v>
+      </c>
+      <c r="H509" s="11">
+        <v>8</v>
+      </c>
+      <c r="J509" s="11">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A510" s="7">
         <v>4</v>
       </c>
-      <c r="K467" s="13"/>
+      <c r="B510" s="7">
+        <v>509</v>
+      </c>
+      <c r="C510" s="8">
+        <v>45881</v>
+      </c>
+      <c r="D510" s="16">
+        <v>63</v>
+      </c>
+      <c r="E510" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F510" s="11">
+        <v>0</v>
+      </c>
+      <c r="G510" s="11">
+        <v>0</v>
+      </c>
+      <c r="H510" s="11">
+        <v>5</v>
+      </c>
+      <c r="J510" s="11">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A511" s="7">
+        <v>5</v>
+      </c>
+      <c r="B511" s="7">
+        <v>510</v>
+      </c>
+      <c r="C511" s="8">
+        <v>45882</v>
+      </c>
+      <c r="D511" s="16">
+        <v>81</v>
+      </c>
+      <c r="E511" s="11">
+        <v>74</v>
+      </c>
+      <c r="F511" s="11">
+        <v>0</v>
+      </c>
+      <c r="G511" s="11">
+        <v>0</v>
+      </c>
+      <c r="H511" s="11">
+        <v>5</v>
+      </c>
+      <c r="J511" s="11">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="7"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A511">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13463,3352 +14497,2729 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A2:AM45"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="65">
-        <v>85</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="65">
-        <v>80</v>
-      </c>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="58" t="s">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>125</v>
+      </c>
+      <c r="B3" s="26">
+        <v>45828</v>
+      </c>
+      <c r="C3" s="18">
+        <v>155</v>
+      </c>
+      <c r="D3">
+        <v>151</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+      <c r="F3">
+        <v>152</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" ref="O3:O37" si="0">ROUND(AVERAGE(C3:N3),0)</f>
+        <v>152</v>
+      </c>
+      <c r="P3" s="23">
+        <f t="shared" ref="P3:P37" si="1">ROUND(_xlfn.STDEV.P(D3:O3),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" ref="R3:R4" si="2">O3-A3</f>
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <f>O3/A3</f>
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>159</v>
+      </c>
+      <c r="B4" s="26">
+        <v>45829</v>
+      </c>
+      <c r="C4" s="18">
+        <v>87</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>134</v>
+      </c>
+      <c r="F4">
+        <v>107</v>
+      </c>
+      <c r="O4" s="23">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="P4" s="23">
+        <f t="shared" si="1"/>
+        <v>10.76</v>
+      </c>
+      <c r="R4" s="30">
+        <f t="shared" si="2"/>
+        <v>-45</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S18" si="3">O4/A4</f>
+        <v>0.71698113207547165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>63</v>
+      </c>
+      <c r="B5" s="26">
+        <v>45830</v>
+      </c>
+      <c r="C5" s="18">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>113</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="P5" s="23">
+        <f t="shared" si="1"/>
+        <v>18.21</v>
+      </c>
+      <c r="R5" s="30">
+        <f>O5-A5</f>
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>1.1904761904761905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>56</v>
+      </c>
+      <c r="B6" s="26">
+        <v>45831</v>
+      </c>
+      <c r="C6" s="18">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="P6" s="23">
+        <f t="shared" si="1"/>
+        <v>12.17</v>
+      </c>
+      <c r="R6" s="30">
+        <f t="shared" ref="R6:R18" si="4">O6-A6</f>
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1.1607142857142858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>71</v>
+      </c>
+      <c r="B7" s="26">
+        <v>45832</v>
+      </c>
+      <c r="C7" s="18">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P7" s="23">
+        <f t="shared" si="1"/>
+        <v>6.89</v>
+      </c>
+      <c r="R7" s="30">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>0.88732394366197187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>55</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45833</v>
+      </c>
+      <c r="C8" s="18">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="P8" s="23">
+        <f t="shared" si="1"/>
+        <v>3.64</v>
+      </c>
+      <c r="R8" s="30">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0909090909090908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>100</v>
+      </c>
+      <c r="B9" s="26">
+        <v>45834</v>
+      </c>
+      <c r="C9" s="18">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>135</v>
+      </c>
+      <c r="F9">
+        <v>109</v>
+      </c>
+      <c r="O9" s="23">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="P9" s="23">
+        <f t="shared" si="1"/>
+        <v>9.77</v>
+      </c>
+      <c r="R9" s="30">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>144</v>
+      </c>
+      <c r="B10" s="26">
+        <v>45835</v>
+      </c>
+      <c r="C10" s="18">
+        <v>135</v>
+      </c>
+      <c r="D10">
+        <v>113</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>146</v>
+      </c>
+      <c r="O10" s="23">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="P10" s="23">
+        <f t="shared" si="1"/>
+        <v>11.78</v>
+      </c>
+      <c r="R10" s="30">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>0.90277777777777779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>197</v>
+      </c>
+      <c r="B11" s="26">
+        <v>45836</v>
+      </c>
+      <c r="C11" s="18">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>174</v>
+      </c>
+      <c r="E11">
+        <v>173</v>
+      </c>
+      <c r="F11">
+        <v>155</v>
+      </c>
+      <c r="O11" s="23">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="P11" s="23">
+        <f t="shared" si="1"/>
+        <v>7.6</v>
+      </c>
+      <c r="R11" s="30">
+        <f t="shared" si="4"/>
+        <v>-28</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>0.85786802030456855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>52</v>
+      </c>
+      <c r="B12" s="26">
+        <v>45837</v>
+      </c>
+      <c r="C12" s="18">
+        <v>94</v>
+      </c>
+      <c r="D12">
         <v>72</v>
       </c>
-      <c r="W3" s="60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="E12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="1"/>
+        <v>10.35</v>
+      </c>
+      <c r="R12" s="30">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.6538461538461537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>122</v>
+      </c>
+      <c r="B13" s="26">
+        <v>45838</v>
+      </c>
+      <c r="C13" s="18">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="K13">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>84</v>
+      </c>
+      <c r="O13" s="23">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="P13" s="23">
+        <f t="shared" si="1"/>
+        <v>7.37</v>
+      </c>
+      <c r="R13" s="30">
+        <f t="shared" si="4"/>
+        <v>-41</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0.66393442622950816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>82</v>
+      </c>
+      <c r="B14" s="26">
+        <v>45839</v>
+      </c>
+      <c r="C14" s="18">
         <v>70</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="61"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20">
-        <v>65</v>
-      </c>
-      <c r="C5" s="20">
-        <v>59</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
         <v>67</v>
       </c>
-      <c r="E5" s="20">
-        <v>68</v>
-      </c>
-      <c r="F5" s="30">
-        <v>59</v>
-      </c>
-      <c r="G5" s="20">
-        <v>62</v>
-      </c>
-      <c r="H5" s="20">
-        <v>75</v>
-      </c>
-      <c r="I5" s="20">
-        <v>67</v>
-      </c>
-      <c r="J5" s="20">
-        <v>68</v>
-      </c>
-      <c r="K5" s="21">
-        <v>56</v>
-      </c>
-      <c r="L5" s="29">
-        <v>61</v>
-      </c>
-      <c r="M5" s="20">
-        <v>67</v>
-      </c>
-      <c r="N5" s="20">
-        <v>56</v>
-      </c>
-      <c r="O5" s="20">
-        <v>62</v>
-      </c>
-      <c r="P5" s="30">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>55</v>
-      </c>
-      <c r="R5" s="20">
-        <v>72</v>
-      </c>
-      <c r="S5" s="20">
-        <v>55</v>
-      </c>
-      <c r="T5" s="20">
-        <v>66</v>
-      </c>
-      <c r="U5" s="21">
-        <v>47</v>
-      </c>
-      <c r="V5" s="32">
-        <f>ROUND(AVERAGE(B5:U5),0)</f>
-        <v>63</v>
-      </c>
-      <c r="W5" s="21">
-        <f>ROUND(_xlfn.STDEV.P(B5:U5),2)</f>
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="20">
-        <v>60</v>
-      </c>
-      <c r="C6" s="20">
-        <v>55</v>
-      </c>
-      <c r="D6" s="20">
-        <v>56</v>
-      </c>
-      <c r="E6" s="20">
-        <v>64</v>
-      </c>
-      <c r="F6" s="30">
-        <v>66</v>
-      </c>
-      <c r="G6" s="20">
-        <v>68</v>
-      </c>
-      <c r="H6" s="20">
-        <v>42</v>
-      </c>
-      <c r="I6" s="20">
-        <v>50</v>
-      </c>
-      <c r="J6" s="20">
-        <v>48</v>
-      </c>
-      <c r="K6" s="21">
-        <v>64</v>
-      </c>
-      <c r="L6" s="29">
-        <v>62</v>
-      </c>
-      <c r="M6" s="20">
-        <v>52</v>
-      </c>
-      <c r="N6" s="20">
-        <v>49</v>
-      </c>
-      <c r="O6" s="20">
-        <v>62</v>
-      </c>
-      <c r="P6" s="30">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>67</v>
-      </c>
-      <c r="R6" s="20">
-        <v>50</v>
-      </c>
-      <c r="S6" s="20">
-        <v>60</v>
-      </c>
-      <c r="T6" s="20">
-        <v>47</v>
-      </c>
-      <c r="U6" s="21">
-        <v>63</v>
-      </c>
-      <c r="V6" s="33">
-        <f t="shared" ref="V6:V14" si="0">ROUND(AVERAGE(B6:U6),0)</f>
-        <v>57</v>
-      </c>
-      <c r="W6" s="21">
-        <f t="shared" ref="W6:W14" si="1">ROUND(_xlfn.STDEV.P(B6:U6),2)</f>
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="20">
-        <v>77</v>
-      </c>
-      <c r="C7" s="20">
-        <v>113</v>
-      </c>
-      <c r="D7" s="20">
-        <v>98</v>
-      </c>
-      <c r="E7" s="20">
-        <v>65</v>
-      </c>
-      <c r="F7" s="30">
-        <v>65</v>
-      </c>
-      <c r="G7" s="20">
-        <v>102</v>
-      </c>
-      <c r="H7" s="20">
-        <v>70</v>
-      </c>
-      <c r="I7" s="20">
-        <v>63</v>
-      </c>
-      <c r="J7" s="20">
-        <v>78</v>
-      </c>
-      <c r="K7" s="21">
+      <c r="F14">
+        <v>91</v>
+      </c>
+      <c r="K14">
+        <v>69</v>
+      </c>
+      <c r="N14">
         <v>76</v>
       </c>
-      <c r="L7" s="29">
-        <v>68</v>
-      </c>
-      <c r="M7" s="20">
-        <v>68</v>
-      </c>
-      <c r="N7" s="20">
-        <v>66</v>
-      </c>
-      <c r="O7" s="20">
-        <v>62</v>
-      </c>
-      <c r="P7" s="30">
-        <v>61</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>60</v>
-      </c>
-      <c r="R7" s="20">
-        <v>63</v>
-      </c>
-      <c r="S7" s="20">
-        <v>47</v>
-      </c>
-      <c r="T7" s="20">
+      <c r="O14" s="23">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="P14" s="23">
+        <f t="shared" si="1"/>
+        <v>7.82</v>
+      </c>
+      <c r="R14" s="30">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0.90243902439024393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>69</v>
+      </c>
+      <c r="B15" s="26">
+        <v>45840</v>
+      </c>
+      <c r="C15" s="18">
         <v>79</v>
       </c>
-      <c r="U7" s="21">
-        <v>82</v>
-      </c>
-      <c r="V7" s="33">
+      <c r="D15">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <v>79</v>
+      </c>
+      <c r="K15">
+        <v>97</v>
+      </c>
+      <c r="N15">
+        <v>90</v>
+      </c>
+      <c r="O15" s="23">
         <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="W7" s="21">
+        <v>87</v>
+      </c>
+      <c r="P15" s="23">
         <f t="shared" si="1"/>
-        <v>15.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="20">
-        <v>51</v>
-      </c>
-      <c r="C8" s="20">
-        <v>52</v>
-      </c>
-      <c r="D8" s="20">
-        <v>45</v>
-      </c>
-      <c r="E8" s="20">
-        <v>36</v>
-      </c>
-      <c r="F8" s="30">
-        <v>51</v>
-      </c>
-      <c r="G8" s="20">
-        <v>60</v>
-      </c>
-      <c r="H8" s="20">
-        <v>57</v>
-      </c>
-      <c r="I8" s="20">
-        <v>44</v>
-      </c>
-      <c r="J8" s="20">
-        <v>65</v>
-      </c>
-      <c r="K8" s="21">
-        <v>35</v>
-      </c>
-      <c r="L8" s="29">
-        <v>42</v>
-      </c>
-      <c r="M8" s="20">
-        <v>47</v>
-      </c>
-      <c r="N8" s="20">
-        <v>48</v>
-      </c>
-      <c r="O8" s="20">
-        <v>62</v>
-      </c>
-      <c r="P8" s="30">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>54</v>
-      </c>
-      <c r="R8" s="20">
-        <v>54</v>
-      </c>
-      <c r="S8" s="20">
-        <v>52</v>
-      </c>
-      <c r="T8" s="20">
-        <v>42</v>
-      </c>
-      <c r="U8" s="21">
-        <v>41</v>
-      </c>
-      <c r="V8" s="33">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="W8" s="21">
-        <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="20">
-        <v>101</v>
-      </c>
-      <c r="C9" s="20">
-        <v>87</v>
-      </c>
-      <c r="D9" s="20">
-        <v>91</v>
-      </c>
-      <c r="E9" s="20">
-        <v>90</v>
-      </c>
-      <c r="F9" s="30">
-        <v>95</v>
-      </c>
-      <c r="G9" s="20">
-        <v>112</v>
-      </c>
-      <c r="H9" s="20">
-        <v>82</v>
-      </c>
-      <c r="I9" s="20">
-        <v>80</v>
-      </c>
-      <c r="J9" s="20">
-        <v>96</v>
-      </c>
-      <c r="K9" s="21">
-        <v>91</v>
-      </c>
-      <c r="L9" s="29">
-        <v>78</v>
-      </c>
-      <c r="M9" s="20">
-        <v>80</v>
-      </c>
-      <c r="N9" s="20">
+        <v>6.64</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>1.2608695652173914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>137</v>
+      </c>
+      <c r="B16" s="26">
+        <v>45841</v>
+      </c>
+      <c r="C16" s="18">
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <v>110</v>
+      </c>
+      <c r="E16">
+        <v>99</v>
+      </c>
+      <c r="F16">
         <v>93</v>
       </c>
-      <c r="O9" s="20">
-        <v>87</v>
-      </c>
-      <c r="P9" s="30">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>79</v>
-      </c>
-      <c r="R9" s="20">
-        <v>86</v>
-      </c>
-      <c r="S9" s="20">
-        <v>115</v>
-      </c>
-      <c r="T9" s="20">
-        <v>86</v>
-      </c>
-      <c r="U9" s="21">
-        <v>98</v>
-      </c>
-      <c r="V9" s="33">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="W9" s="21">
-        <f t="shared" si="1"/>
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="20">
-        <v>105</v>
-      </c>
-      <c r="C10" s="20">
-        <v>136</v>
-      </c>
-      <c r="D10" s="20">
-        <v>91</v>
-      </c>
-      <c r="E10" s="20">
-        <v>103</v>
-      </c>
-      <c r="F10" s="30">
-        <v>95</v>
-      </c>
-      <c r="G10" s="20">
-        <v>125</v>
-      </c>
-      <c r="H10" s="20">
-        <v>105</v>
-      </c>
-      <c r="I10" s="20">
-        <v>91</v>
-      </c>
-      <c r="J10" s="20">
-        <v>78</v>
-      </c>
-      <c r="K10" s="21">
-        <v>82</v>
-      </c>
-      <c r="L10" s="29">
-        <v>104</v>
-      </c>
-      <c r="M10" s="20">
-        <v>99</v>
-      </c>
-      <c r="N10" s="20">
-        <v>112</v>
-      </c>
-      <c r="O10" s="20">
-        <v>93</v>
-      </c>
-      <c r="P10" s="30">
-        <v>104</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>88</v>
-      </c>
-      <c r="R10" s="20">
-        <v>143</v>
-      </c>
-      <c r="S10" s="20">
-        <v>84</v>
-      </c>
-      <c r="T10" s="20">
+      <c r="K16">
         <v>110</v>
       </c>
-      <c r="U10" s="21">
-        <v>112</v>
-      </c>
-      <c r="V10" s="33">
+      <c r="N16">
+        <v>109</v>
+      </c>
+      <c r="O16" s="23">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="W10" s="21">
+      <c r="P16" s="23">
         <f t="shared" si="1"/>
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="20">
-        <v>204</v>
-      </c>
-      <c r="C11" s="20">
-        <v>193</v>
-      </c>
-      <c r="D11" s="20">
-        <v>160</v>
-      </c>
-      <c r="E11" s="20">
+        <v>6.38</v>
+      </c>
+      <c r="R16" s="30">
+        <f t="shared" si="4"/>
+        <v>-34</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>0.75182481751824815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>0</v>
+      </c>
+      <c r="B17" s="26">
+        <v>45842</v>
+      </c>
+      <c r="C17" s="18">
+        <v>139</v>
+      </c>
+      <c r="D17">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>132</v>
+      </c>
+      <c r="F17">
+        <v>135</v>
+      </c>
+      <c r="K17">
+        <v>99</v>
+      </c>
+      <c r="N17">
+        <v>152</v>
+      </c>
+      <c r="O17" s="23">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="P17" s="23">
+        <f t="shared" si="1"/>
+        <v>15.71</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="S17">
+        <f>O17/(A17+1)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>150</v>
+      </c>
+      <c r="B18" s="26">
+        <v>45843</v>
+      </c>
+      <c r="C18" s="18">
+        <v>184</v>
+      </c>
+      <c r="D18">
+        <v>198</v>
+      </c>
+      <c r="E18">
+        <v>199</v>
+      </c>
+      <c r="F18">
+        <v>182</v>
+      </c>
+      <c r="K18">
         <v>179</v>
       </c>
-      <c r="F11" s="30">
+      <c r="N18">
+        <v>176</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="R18" s="30">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="26">
+        <v>45844</v>
+      </c>
+      <c r="C19" s="18">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>76</v>
+      </c>
+      <c r="H19">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>97</v>
+      </c>
+      <c r="K19">
+        <v>106</v>
+      </c>
+      <c r="L19">
+        <v>93</v>
+      </c>
+      <c r="M19">
+        <v>79</v>
+      </c>
+      <c r="N19">
+        <v>93</v>
+      </c>
+      <c r="O19" s="23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="P19" s="23">
+        <f t="shared" si="1"/>
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="26">
+        <v>45845</v>
+      </c>
+      <c r="C20" s="18">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>87</v>
+      </c>
+      <c r="H20">
+        <v>72</v>
+      </c>
+      <c r="I20">
+        <v>83</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>57</v>
+      </c>
+      <c r="L20">
+        <v>86</v>
+      </c>
+      <c r="M20">
+        <v>82</v>
+      </c>
+      <c r="N20">
+        <v>58</v>
+      </c>
+      <c r="O20" s="23">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="P20" s="23">
+        <f t="shared" si="1"/>
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26">
+        <v>45846</v>
+      </c>
+      <c r="C21" s="18">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>68</v>
+      </c>
+      <c r="J21">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>52</v>
+      </c>
+      <c r="L21">
+        <v>68</v>
+      </c>
+      <c r="M21">
+        <v>67</v>
+      </c>
+      <c r="N21">
+        <v>58</v>
+      </c>
+      <c r="O21" s="23">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="P21" s="23">
+        <f t="shared" si="1"/>
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="26">
+        <v>45847</v>
+      </c>
+      <c r="C22" s="18">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>101</v>
+      </c>
+      <c r="J22">
+        <v>104</v>
+      </c>
+      <c r="K22">
+        <v>55</v>
+      </c>
+      <c r="L22">
+        <v>78</v>
+      </c>
+      <c r="M22">
+        <v>117</v>
+      </c>
+      <c r="N22">
+        <v>97</v>
+      </c>
+      <c r="O22" s="23">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" si="1"/>
+        <v>17.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26">
+        <v>45848</v>
+      </c>
+      <c r="C23" s="18">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <v>153</v>
+      </c>
+      <c r="J23">
+        <v>137</v>
+      </c>
+      <c r="K23">
+        <v>110</v>
+      </c>
+      <c r="L23">
+        <v>130</v>
+      </c>
+      <c r="M23">
+        <v>133</v>
+      </c>
+      <c r="N23">
+        <v>122</v>
+      </c>
+      <c r="O23" s="23">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="1"/>
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26">
+        <v>45849</v>
+      </c>
+      <c r="C24" s="18">
+        <v>179</v>
+      </c>
+      <c r="D24">
+        <v>178</v>
+      </c>
+      <c r="E24">
+        <v>209</v>
+      </c>
+      <c r="F24">
+        <v>152</v>
+      </c>
+      <c r="G24">
+        <v>178</v>
+      </c>
+      <c r="H24">
+        <v>208</v>
+      </c>
+      <c r="I24">
+        <v>202</v>
+      </c>
+      <c r="J24">
+        <v>229</v>
+      </c>
+      <c r="K24">
+        <v>174</v>
+      </c>
+      <c r="L24">
+        <v>206</v>
+      </c>
+      <c r="M24">
+        <v>192</v>
+      </c>
+      <c r="N24">
+        <v>171</v>
+      </c>
+      <c r="O24" s="23">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="1"/>
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="26">
+        <v>45850</v>
+      </c>
+      <c r="C25" s="18">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>165</v>
+      </c>
+      <c r="E25">
+        <v>166</v>
+      </c>
+      <c r="F25">
         <v>162</v>
       </c>
-      <c r="G11" s="20">
-        <v>185</v>
-      </c>
-      <c r="H11" s="20">
-        <v>169</v>
-      </c>
-      <c r="I11" s="20">
-        <v>181</v>
-      </c>
-      <c r="J11" s="20">
-        <v>195</v>
-      </c>
-      <c r="K11" s="21">
-        <v>187</v>
-      </c>
-      <c r="L11" s="29">
-        <v>143</v>
-      </c>
-      <c r="M11" s="20">
-        <v>181</v>
-      </c>
-      <c r="N11" s="20">
+      <c r="G25">
+        <v>162</v>
+      </c>
+      <c r="H25">
+        <v>157</v>
+      </c>
+      <c r="I25">
+        <v>161</v>
+      </c>
+      <c r="J25">
+        <v>163</v>
+      </c>
+      <c r="K25">
+        <v>162</v>
+      </c>
+      <c r="L25">
         <v>158</v>
       </c>
-      <c r="O11" s="20">
-        <v>182</v>
-      </c>
-      <c r="P11" s="30">
-        <v>136</v>
-      </c>
-      <c r="Q11" s="20">
+      <c r="M25">
+        <v>170</v>
+      </c>
+      <c r="N25">
+        <v>158</v>
+      </c>
+      <c r="O25" s="23">
+        <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="R11" s="20">
-        <v>173</v>
-      </c>
-      <c r="S11" s="20">
-        <v>170</v>
-      </c>
-      <c r="T11" s="20">
-        <v>177</v>
-      </c>
-      <c r="U11" s="21">
-        <v>163</v>
-      </c>
-      <c r="V11" s="33">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="W11" s="21">
+      <c r="P25" s="23">
         <f t="shared" si="1"/>
-        <v>16.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="20">
-        <v>29</v>
-      </c>
-      <c r="C12" s="20">
-        <v>42</v>
-      </c>
-      <c r="D12" s="20">
-        <v>40</v>
-      </c>
-      <c r="E12" s="20">
-        <v>30</v>
-      </c>
-      <c r="F12" s="30">
-        <v>44</v>
-      </c>
-      <c r="G12" s="20">
-        <v>33</v>
-      </c>
-      <c r="H12" s="20">
-        <v>43</v>
-      </c>
-      <c r="I12" s="20">
-        <v>47</v>
-      </c>
-      <c r="J12" s="20">
-        <v>40</v>
-      </c>
-      <c r="K12" s="21">
-        <v>45</v>
-      </c>
-      <c r="L12" s="29">
-        <v>45</v>
-      </c>
-      <c r="M12" s="20">
-        <v>40</v>
-      </c>
-      <c r="N12" s="20">
-        <v>41</v>
-      </c>
-      <c r="O12" s="20">
-        <v>62</v>
-      </c>
-      <c r="P12" s="30">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>42</v>
-      </c>
-      <c r="R12" s="20">
-        <v>64</v>
-      </c>
-      <c r="S12" s="20">
-        <v>37</v>
-      </c>
-      <c r="T12" s="20">
-        <v>32</v>
-      </c>
-      <c r="U12" s="21">
-        <v>42</v>
-      </c>
-      <c r="V12" s="33">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="W12" s="21">
-        <f t="shared" si="1"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="20">
-        <v>42</v>
-      </c>
-      <c r="C13" s="20">
-        <v>63</v>
-      </c>
-      <c r="D13" s="20">
-        <v>70</v>
-      </c>
-      <c r="E13" s="20">
-        <v>43</v>
-      </c>
-      <c r="F13" s="30">
-        <v>83</v>
-      </c>
-      <c r="G13" s="20">
-        <v>60</v>
-      </c>
-      <c r="H13" s="20">
-        <v>50</v>
-      </c>
-      <c r="I13" s="20">
-        <v>75</v>
-      </c>
-      <c r="J13" s="20">
-        <v>42</v>
-      </c>
-      <c r="K13" s="21">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="26">
+        <v>45851</v>
+      </c>
+      <c r="C26" s="18">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <v>93</v>
+      </c>
+      <c r="H26">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>84</v>
+      </c>
+      <c r="J26">
+        <v>77</v>
+      </c>
+      <c r="K26">
+        <v>57</v>
+      </c>
+      <c r="L26">
         <v>68</v>
       </c>
-      <c r="L13" s="29">
-        <v>75</v>
-      </c>
-      <c r="M13" s="20">
-        <v>60</v>
-      </c>
-      <c r="N13" s="20">
-        <v>63</v>
-      </c>
-      <c r="O13" s="20">
-        <v>62</v>
-      </c>
-      <c r="P13" s="30">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>46</v>
-      </c>
-      <c r="R13" s="20">
-        <v>70</v>
-      </c>
-      <c r="S13" s="20">
-        <v>57</v>
-      </c>
-      <c r="T13" s="20">
-        <v>48</v>
-      </c>
-      <c r="U13" s="21">
-        <v>77</v>
-      </c>
-      <c r="V13" s="33">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="W13" s="21">
-        <f t="shared" si="1"/>
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="20">
-        <v>83</v>
-      </c>
-      <c r="C14" s="20">
-        <v>40</v>
-      </c>
-      <c r="D14" s="20">
-        <v>78</v>
-      </c>
-      <c r="E14" s="20">
-        <v>82</v>
-      </c>
-      <c r="F14" s="30">
-        <v>76</v>
-      </c>
-      <c r="G14" s="20">
-        <v>34</v>
-      </c>
-      <c r="H14" s="20">
-        <v>92</v>
-      </c>
-      <c r="I14" s="20">
-        <v>77</v>
-      </c>
-      <c r="J14" s="20">
-        <v>68</v>
-      </c>
-      <c r="K14" s="21">
-        <v>75</v>
-      </c>
-      <c r="L14" s="29">
-        <v>30</v>
-      </c>
-      <c r="M14" s="20">
-        <v>74</v>
-      </c>
-      <c r="N14" s="20">
-        <v>93</v>
-      </c>
-      <c r="O14" s="20">
-        <v>62</v>
-      </c>
-      <c r="P14" s="30">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>97</v>
-      </c>
-      <c r="R14" s="20">
-        <v>76</v>
-      </c>
-      <c r="S14" s="20">
-        <v>85</v>
-      </c>
-      <c r="T14" s="20">
-        <v>66</v>
-      </c>
-      <c r="U14" s="21">
-        <v>46</v>
-      </c>
-      <c r="V14" s="33">
+      <c r="M26">
+        <v>72</v>
+      </c>
+      <c r="N26">
+        <v>52</v>
+      </c>
+      <c r="O26" s="23">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="W14" s="21">
+      <c r="P26" s="23">
         <f t="shared" si="1"/>
-        <v>18.91</v>
-      </c>
-      <c r="AL14" t="s">
+        <v>11.91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="26">
+        <v>45852</v>
+      </c>
+      <c r="C27" s="18">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>57</v>
+      </c>
+      <c r="F27">
         <v>72</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="G27">
+        <v>85</v>
+      </c>
+      <c r="H27">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>87</v>
+      </c>
+      <c r="J27">
+        <v>86</v>
+      </c>
+      <c r="K27">
+        <v>65</v>
+      </c>
+      <c r="L27">
+        <v>82</v>
+      </c>
+      <c r="M27">
+        <v>84</v>
+      </c>
+      <c r="N27">
+        <v>56</v>
+      </c>
+      <c r="O27" s="23">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="1"/>
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="22"/>
+      <c r="B28" s="26">
+        <v>45853</v>
+      </c>
+      <c r="C28" s="18">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>62</v>
+      </c>
+      <c r="F28">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="G28">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>76</v>
+      </c>
+      <c r="J28">
+        <v>80</v>
+      </c>
+      <c r="K28">
+        <v>65</v>
+      </c>
+      <c r="L28">
+        <v>86</v>
+      </c>
+      <c r="M28">
+        <v>91</v>
+      </c>
+      <c r="N28">
+        <v>73</v>
+      </c>
+      <c r="O28" s="23">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="1"/>
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="26">
+        <v>45854</v>
+      </c>
+      <c r="C29" s="18">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>81</v>
+      </c>
+      <c r="E29">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>87</v>
+      </c>
+      <c r="H29">
+        <v>65</v>
+      </c>
+      <c r="I29">
+        <v>90</v>
+      </c>
+      <c r="J29">
+        <v>80</v>
+      </c>
+      <c r="K29">
         <v>49</v>
       </c>
-      <c r="B15" s="20">
+      <c r="L29">
+        <v>83</v>
+      </c>
+      <c r="M29">
+        <v>122</v>
+      </c>
+      <c r="N29">
+        <v>93</v>
+      </c>
+      <c r="O29" s="23">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="1"/>
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="22"/>
+      <c r="B30" s="26">
+        <v>45855</v>
+      </c>
+      <c r="C30" s="18">
+        <v>77</v>
+      </c>
+      <c r="D30">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>96</v>
+      </c>
+      <c r="G30">
+        <v>89</v>
+      </c>
+      <c r="H30">
+        <v>72</v>
+      </c>
+      <c r="I30">
+        <v>91</v>
+      </c>
+      <c r="J30">
+        <v>91</v>
+      </c>
+      <c r="K30">
+        <v>60</v>
+      </c>
+      <c r="L30">
+        <v>72</v>
+      </c>
+      <c r="M30">
+        <v>93</v>
+      </c>
+      <c r="N30">
+        <v>82</v>
+      </c>
+      <c r="O30" s="23">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="1"/>
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="22"/>
+      <c r="B31" s="26">
+        <v>45856</v>
+      </c>
+      <c r="C31" s="18">
+        <v>132</v>
+      </c>
+      <c r="D31">
+        <v>130</v>
+      </c>
+      <c r="E31">
+        <v>132</v>
+      </c>
+      <c r="F31">
+        <v>143</v>
+      </c>
+      <c r="G31">
+        <v>125</v>
+      </c>
+      <c r="H31">
+        <v>126</v>
+      </c>
+      <c r="I31">
+        <v>146</v>
+      </c>
+      <c r="J31">
+        <v>134</v>
+      </c>
+      <c r="K31">
+        <v>124</v>
+      </c>
+      <c r="L31">
+        <v>119</v>
+      </c>
+      <c r="M31">
+        <v>135</v>
+      </c>
+      <c r="N31">
+        <v>139</v>
+      </c>
+      <c r="O31" s="23">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="1"/>
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="22"/>
+      <c r="B32" s="26">
+        <v>45857</v>
+      </c>
+      <c r="C32" s="18">
+        <v>182</v>
+      </c>
+      <c r="D32">
+        <v>176</v>
+      </c>
+      <c r="E32">
+        <v>175</v>
+      </c>
+      <c r="F32">
+        <v>170</v>
+      </c>
+      <c r="G32">
+        <v>172</v>
+      </c>
+      <c r="H32">
+        <v>172</v>
+      </c>
+      <c r="I32">
+        <v>168</v>
+      </c>
+      <c r="J32">
+        <v>168</v>
+      </c>
+      <c r="K32">
+        <v>165</v>
+      </c>
+      <c r="L32">
+        <v>168</v>
+      </c>
+      <c r="M32">
+        <v>165</v>
+      </c>
+      <c r="N32">
+        <v>161</v>
+      </c>
+      <c r="O32" s="23">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="1"/>
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="26">
+        <v>45858</v>
+      </c>
+      <c r="C33" s="18">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>47</v>
+      </c>
+      <c r="F33">
+        <v>45</v>
+      </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
+      <c r="H33">
         <v>52</v>
       </c>
-      <c r="C15" s="20">
-        <v>20</v>
-      </c>
-      <c r="D15" s="20">
-        <v>36</v>
-      </c>
-      <c r="E15" s="20">
-        <v>39</v>
-      </c>
-      <c r="F15" s="30">
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>49</v>
+      </c>
+      <c r="K33">
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <v>49</v>
+      </c>
+      <c r="M33">
+        <v>41</v>
+      </c>
+      <c r="N33">
+        <v>48</v>
+      </c>
+      <c r="O33" s="23">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="1"/>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="26">
+        <v>45859</v>
+      </c>
+      <c r="C34" s="18">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <v>66</v>
+      </c>
+      <c r="G34">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>66</v>
+      </c>
+      <c r="J34">
+        <v>59</v>
+      </c>
+      <c r="K34">
+        <v>56</v>
+      </c>
+      <c r="L34">
+        <v>65</v>
+      </c>
+      <c r="M34">
+        <v>61</v>
+      </c>
+      <c r="N34">
+        <v>70</v>
+      </c>
+      <c r="O34" s="23">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P34" s="23">
+        <f t="shared" si="1"/>
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="26">
+        <v>45860</v>
+      </c>
+      <c r="C35" s="18">
+        <v>81</v>
+      </c>
+      <c r="D35">
+        <v>92</v>
+      </c>
+      <c r="E35">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>87</v>
+      </c>
+      <c r="H35">
+        <v>69</v>
+      </c>
+      <c r="I35">
+        <v>103</v>
+      </c>
+      <c r="J35">
+        <v>101</v>
+      </c>
+      <c r="K35">
+        <v>99</v>
+      </c>
+      <c r="L35">
+        <v>110</v>
+      </c>
+      <c r="M35">
+        <v>102</v>
+      </c>
+      <c r="N35">
+        <v>88</v>
+      </c>
+      <c r="O35" s="23">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="1"/>
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="26">
+        <v>45861</v>
+      </c>
+      <c r="C36" s="18">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>63</v>
+      </c>
+      <c r="F36">
+        <v>65</v>
+      </c>
+      <c r="G36">
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <v>55</v>
+      </c>
+      <c r="I36">
+        <v>66</v>
+      </c>
+      <c r="J36">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <v>51</v>
+      </c>
+      <c r="L36">
+        <v>50</v>
+      </c>
+      <c r="M36">
+        <v>69</v>
+      </c>
+      <c r="N36">
+        <v>44</v>
+      </c>
+      <c r="O36" s="23">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="P36" s="23">
+        <f t="shared" si="1"/>
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="26">
+        <v>45862</v>
+      </c>
+      <c r="C37" s="18">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>83</v>
+      </c>
+      <c r="E37">
+        <v>63</v>
+      </c>
+      <c r="F37">
+        <v>95</v>
+      </c>
+      <c r="G37">
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>79</v>
+      </c>
+      <c r="J37">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>64</v>
+      </c>
+      <c r="L37">
+        <v>77</v>
+      </c>
+      <c r="M37">
+        <v>85</v>
+      </c>
+      <c r="N37">
+        <v>78</v>
+      </c>
+      <c r="O37" s="23">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" si="1"/>
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="26">
+        <v>45863</v>
+      </c>
+      <c r="C38" s="18">
+        <v>183</v>
+      </c>
+      <c r="D38" s="18">
+        <v>191</v>
+      </c>
+      <c r="E38" s="18">
+        <v>217</v>
+      </c>
+      <c r="F38" s="18">
+        <v>177</v>
+      </c>
+      <c r="G38" s="18">
+        <v>191</v>
+      </c>
+      <c r="H38" s="22">
+        <v>184</v>
+      </c>
+      <c r="I38" s="18">
+        <v>195</v>
+      </c>
+      <c r="J38" s="18">
+        <v>180</v>
+      </c>
+      <c r="K38" s="18">
+        <v>182</v>
+      </c>
+      <c r="L38" s="18">
+        <v>191</v>
+      </c>
+      <c r="M38" s="18">
+        <v>180</v>
+      </c>
+      <c r="N38" s="19">
+        <v>188</v>
+      </c>
+      <c r="O38" s="23">
+        <f t="shared" ref="O38:O57" si="5">ROUND(AVERAGE(C38:N38),0)</f>
+        <v>188</v>
+      </c>
+      <c r="P38" s="23">
+        <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="26">
+        <v>45864</v>
+      </c>
+      <c r="C39" s="18">
+        <v>193</v>
+      </c>
+      <c r="D39" s="18">
+        <v>187</v>
+      </c>
+      <c r="E39" s="18">
+        <v>195</v>
+      </c>
+      <c r="F39" s="18">
+        <v>193</v>
+      </c>
+      <c r="G39" s="18">
+        <v>188</v>
+      </c>
+      <c r="H39" s="22">
+        <v>185</v>
+      </c>
+      <c r="I39" s="18">
+        <v>186</v>
+      </c>
+      <c r="J39" s="18">
+        <v>181</v>
+      </c>
+      <c r="K39" s="18">
+        <v>187</v>
+      </c>
+      <c r="L39" s="18">
+        <v>183</v>
+      </c>
+      <c r="M39" s="18">
+        <v>186</v>
+      </c>
+      <c r="N39" s="19">
+        <v>188</v>
+      </c>
+      <c r="O39" s="23">
+        <f t="shared" si="5"/>
+        <v>188</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" ref="P39:P57" si="6">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="26">
+        <v>45865</v>
+      </c>
+      <c r="C40" s="18">
+        <v>61</v>
+      </c>
+      <c r="D40" s="18">
+        <v>68</v>
+      </c>
+      <c r="E40" s="18">
+        <v>63</v>
+      </c>
+      <c r="F40" s="18">
+        <v>52</v>
+      </c>
+      <c r="G40" s="18">
+        <v>67</v>
+      </c>
+      <c r="H40" s="22">
+        <v>63</v>
+      </c>
+      <c r="I40" s="18">
+        <v>76</v>
+      </c>
+      <c r="J40" s="18">
+        <v>50</v>
+      </c>
+      <c r="K40" s="18">
+        <v>94</v>
+      </c>
+      <c r="L40" s="18">
+        <v>79</v>
+      </c>
+      <c r="M40" s="18">
+        <v>68</v>
+      </c>
+      <c r="N40" s="19">
+        <v>76</v>
+      </c>
+      <c r="O40" s="23">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="6"/>
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="26">
+        <v>45866</v>
+      </c>
+      <c r="C41" s="18">
+        <v>69</v>
+      </c>
+      <c r="D41" s="18">
+        <v>66</v>
+      </c>
+      <c r="E41" s="18">
+        <v>69</v>
+      </c>
+      <c r="F41" s="18">
+        <v>67</v>
+      </c>
+      <c r="G41" s="18">
+        <v>52</v>
+      </c>
+      <c r="H41" s="22">
+        <v>62</v>
+      </c>
+      <c r="I41" s="18">
+        <v>65</v>
+      </c>
+      <c r="J41" s="18">
+        <v>67</v>
+      </c>
+      <c r="K41" s="18">
+        <v>71</v>
+      </c>
+      <c r="L41" s="18">
+        <v>83</v>
+      </c>
+      <c r="M41" s="18">
+        <v>33</v>
+      </c>
+      <c r="N41" s="19">
+        <v>62</v>
+      </c>
+      <c r="O41" s="23">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="6"/>
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="26">
+        <v>45867</v>
+      </c>
+      <c r="C42" s="18">
+        <v>130</v>
+      </c>
+      <c r="D42" s="18">
+        <v>89</v>
+      </c>
+      <c r="E42" s="18">
+        <v>88</v>
+      </c>
+      <c r="F42" s="18">
+        <v>80</v>
+      </c>
+      <c r="G42" s="18">
+        <v>84</v>
+      </c>
+      <c r="H42" s="22">
+        <v>94</v>
+      </c>
+      <c r="I42" s="18">
+        <v>76</v>
+      </c>
+      <c r="J42" s="18">
+        <v>74</v>
+      </c>
+      <c r="K42" s="18">
+        <v>98</v>
+      </c>
+      <c r="L42" s="18">
+        <v>69</v>
+      </c>
+      <c r="M42" s="18">
+        <v>87</v>
+      </c>
+      <c r="N42" s="19">
+        <v>58</v>
+      </c>
+      <c r="O42" s="23">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="P42" s="23">
+        <f t="shared" si="6"/>
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="26">
+        <v>45868</v>
+      </c>
+      <c r="C43" s="18">
+        <v>154</v>
+      </c>
+      <c r="D43" s="18">
+        <v>132</v>
+      </c>
+      <c r="E43" s="18">
+        <v>145</v>
+      </c>
+      <c r="F43" s="18">
+        <v>104</v>
+      </c>
+      <c r="G43" s="18">
+        <v>144</v>
+      </c>
+      <c r="H43" s="22">
+        <v>145</v>
+      </c>
+      <c r="I43" s="18">
+        <v>131</v>
+      </c>
+      <c r="J43" s="18">
+        <v>139</v>
+      </c>
+      <c r="K43" s="18">
+        <v>121</v>
+      </c>
+      <c r="L43" s="18">
+        <v>148</v>
+      </c>
+      <c r="M43" s="18">
+        <v>151</v>
+      </c>
+      <c r="N43" s="19">
+        <v>125</v>
+      </c>
+      <c r="O43" s="23">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="6"/>
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="26">
+        <v>45869</v>
+      </c>
+      <c r="C44" s="18">
+        <v>173</v>
+      </c>
+      <c r="D44" s="18">
+        <v>182</v>
+      </c>
+      <c r="E44" s="18">
+        <v>159</v>
+      </c>
+      <c r="F44" s="18">
+        <v>170</v>
+      </c>
+      <c r="G44" s="18">
+        <v>183</v>
+      </c>
+      <c r="H44" s="22">
+        <v>170</v>
+      </c>
+      <c r="I44" s="18">
+        <v>174</v>
+      </c>
+      <c r="J44" s="18">
+        <v>167</v>
+      </c>
+      <c r="K44" s="18">
+        <v>166</v>
+      </c>
+      <c r="L44" s="18">
+        <v>158</v>
+      </c>
+      <c r="M44" s="18">
+        <v>165</v>
+      </c>
+      <c r="N44" s="19">
+        <v>160</v>
+      </c>
+      <c r="O44" s="23">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="6"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="26">
+        <v>45870</v>
+      </c>
+      <c r="C45" s="18">
+        <v>189</v>
+      </c>
+      <c r="D45" s="18">
+        <v>173</v>
+      </c>
+      <c r="E45" s="18">
+        <v>179</v>
+      </c>
+      <c r="F45" s="18">
+        <v>183</v>
+      </c>
+      <c r="G45" s="18">
+        <v>171</v>
+      </c>
+      <c r="H45" s="22">
+        <v>164</v>
+      </c>
+      <c r="I45" s="18">
+        <v>169</v>
+      </c>
+      <c r="J45" s="18">
+        <v>189</v>
+      </c>
+      <c r="K45" s="18">
+        <v>182</v>
+      </c>
+      <c r="L45" s="18">
+        <v>173</v>
+      </c>
+      <c r="M45" s="18">
+        <v>162</v>
+      </c>
+      <c r="N45" s="19">
+        <v>164</v>
+      </c>
+      <c r="O45" s="23">
+        <f t="shared" si="5"/>
+        <v>175</v>
+      </c>
+      <c r="P45" s="23">
+        <f t="shared" si="6"/>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="26">
+        <v>45871</v>
+      </c>
+      <c r="C46" s="18">
+        <v>61</v>
+      </c>
+      <c r="D46" s="18">
         <v>31</v>
       </c>
-      <c r="G15" s="20">
+      <c r="E46" s="18">
+        <v>60</v>
+      </c>
+      <c r="F46" s="18">
+        <v>61</v>
+      </c>
+      <c r="G46" s="18">
+        <v>26</v>
+      </c>
+      <c r="H46" s="22">
+        <v>55</v>
+      </c>
+      <c r="I46" s="18">
+        <v>29</v>
+      </c>
+      <c r="J46" s="18">
+        <v>57</v>
+      </c>
+      <c r="K46" s="18">
+        <v>52</v>
+      </c>
+      <c r="L46" s="18">
+        <v>63</v>
+      </c>
+      <c r="M46" s="18">
+        <v>53</v>
+      </c>
+      <c r="N46" s="19">
+        <v>63</v>
+      </c>
+      <c r="O46" s="23">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="P46" s="23">
+        <f t="shared" si="6"/>
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="26">
+        <v>45872</v>
+      </c>
+      <c r="C47" s="18">
+        <v>69</v>
+      </c>
+      <c r="D47" s="18">
+        <v>81</v>
+      </c>
+      <c r="E47" s="18">
+        <v>60</v>
+      </c>
+      <c r="F47" s="18">
+        <v>61</v>
+      </c>
+      <c r="G47" s="18">
+        <v>72</v>
+      </c>
+      <c r="H47" s="22">
+        <v>58</v>
+      </c>
+      <c r="I47" s="18">
+        <v>73</v>
+      </c>
+      <c r="J47" s="18">
+        <v>50</v>
+      </c>
+      <c r="K47" s="18">
+        <v>71</v>
+      </c>
+      <c r="L47" s="18">
+        <v>56</v>
+      </c>
+      <c r="M47" s="18">
+        <v>51</v>
+      </c>
+      <c r="N47" s="19">
+        <v>60</v>
+      </c>
+      <c r="O47" s="23">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="P47" s="23">
+        <f t="shared" si="6"/>
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="26">
+        <v>45873</v>
+      </c>
+      <c r="C48" s="18">
+        <v>75</v>
+      </c>
+      <c r="D48" s="18">
+        <v>83</v>
+      </c>
+      <c r="E48" s="18">
+        <v>71</v>
+      </c>
+      <c r="F48" s="18">
+        <v>66</v>
+      </c>
+      <c r="G48" s="18">
+        <v>77</v>
+      </c>
+      <c r="H48" s="22">
+        <v>66</v>
+      </c>
+      <c r="I48" s="18">
+        <v>63</v>
+      </c>
+      <c r="J48" s="18">
+        <v>62</v>
+      </c>
+      <c r="K48" s="18">
+        <v>71</v>
+      </c>
+      <c r="L48" s="18">
+        <v>63</v>
+      </c>
+      <c r="M48" s="18">
+        <v>69</v>
+      </c>
+      <c r="N48" s="19">
+        <v>53</v>
+      </c>
+      <c r="O48" s="23">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="P48" s="23">
+        <f t="shared" si="6"/>
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="26">
+        <v>45874</v>
+      </c>
+      <c r="C49" s="18">
+        <v>44</v>
+      </c>
+      <c r="D49" s="18">
+        <v>56</v>
+      </c>
+      <c r="E49" s="18">
+        <v>59</v>
+      </c>
+      <c r="F49" s="18">
+        <v>60</v>
+      </c>
+      <c r="G49" s="18">
+        <v>70</v>
+      </c>
+      <c r="H49" s="22">
+        <v>53</v>
+      </c>
+      <c r="I49" s="18">
+        <v>55</v>
+      </c>
+      <c r="J49" s="18">
+        <v>47</v>
+      </c>
+      <c r="K49" s="18">
+        <v>59</v>
+      </c>
+      <c r="L49" s="18">
+        <v>45</v>
+      </c>
+      <c r="M49" s="18">
+        <v>52</v>
+      </c>
+      <c r="N49" s="19">
+        <v>46</v>
+      </c>
+      <c r="O49" s="23">
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="H15" s="20">
+      <c r="P49" s="23">
+        <f t="shared" si="6"/>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="26">
+        <v>45875</v>
+      </c>
+      <c r="C50" s="18">
+        <v>137</v>
+      </c>
+      <c r="D50" s="18">
+        <v>115</v>
+      </c>
+      <c r="E50" s="18">
+        <v>128</v>
+      </c>
+      <c r="F50" s="18">
+        <v>98</v>
+      </c>
+      <c r="G50" s="18">
+        <v>105</v>
+      </c>
+      <c r="H50" s="22">
+        <v>124</v>
+      </c>
+      <c r="I50" s="18">
+        <v>130</v>
+      </c>
+      <c r="J50" s="18">
+        <v>112</v>
+      </c>
+      <c r="K50" s="18">
+        <v>112</v>
+      </c>
+      <c r="L50" s="18">
+        <v>106</v>
+      </c>
+      <c r="M50" s="18">
+        <v>110</v>
+      </c>
+      <c r="N50" s="19">
+        <v>126</v>
+      </c>
+      <c r="O50" s="23">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="P50" s="23">
+        <f t="shared" si="6"/>
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="26">
+        <v>45876</v>
+      </c>
+      <c r="C51" s="18">
+        <v>184</v>
+      </c>
+      <c r="D51" s="18">
+        <v>141</v>
+      </c>
+      <c r="E51" s="18">
+        <v>120</v>
+      </c>
+      <c r="F51" s="18">
+        <v>176</v>
+      </c>
+      <c r="G51" s="18">
+        <v>134</v>
+      </c>
+      <c r="H51" s="22">
+        <v>125</v>
+      </c>
+      <c r="I51" s="18">
+        <v>130</v>
+      </c>
+      <c r="J51" s="18">
+        <v>136</v>
+      </c>
+      <c r="K51" s="18">
+        <v>134</v>
+      </c>
+      <c r="L51" s="18">
+        <v>144</v>
+      </c>
+      <c r="M51" s="18">
+        <v>126</v>
+      </c>
+      <c r="N51" s="19">
+        <v>131</v>
+      </c>
+      <c r="O51" s="23">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="P51" s="23">
+        <f t="shared" si="6"/>
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="26">
+        <v>45877</v>
+      </c>
+      <c r="C52" s="18">
+        <v>197</v>
+      </c>
+      <c r="D52" s="18">
+        <v>185</v>
+      </c>
+      <c r="E52" s="18">
+        <v>191</v>
+      </c>
+      <c r="F52" s="18">
+        <v>197</v>
+      </c>
+      <c r="G52" s="18">
+        <v>187</v>
+      </c>
+      <c r="H52" s="22">
+        <v>174</v>
+      </c>
+      <c r="I52" s="18">
+        <v>182</v>
+      </c>
+      <c r="J52" s="18">
+        <v>182</v>
+      </c>
+      <c r="K52" s="18">
+        <v>187</v>
+      </c>
+      <c r="L52" s="18">
+        <v>182</v>
+      </c>
+      <c r="M52" s="18">
+        <v>177</v>
+      </c>
+      <c r="N52" s="19">
+        <v>190</v>
+      </c>
+      <c r="O52" s="23">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="P52" s="23">
+        <f t="shared" si="6"/>
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="26">
+        <v>45878</v>
+      </c>
+      <c r="C53" s="18">
         <v>70</v>
       </c>
-      <c r="I15" s="20">
-        <v>36</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="D53" s="18">
+        <v>68</v>
+      </c>
+      <c r="E53" s="18">
+        <v>70</v>
+      </c>
+      <c r="F53" s="18">
+        <v>40</v>
+      </c>
+      <c r="G53" s="18">
+        <v>72</v>
+      </c>
+      <c r="H53" s="22">
+        <v>62</v>
+      </c>
+      <c r="I53" s="18">
+        <v>56</v>
+      </c>
+      <c r="J53" s="18">
+        <v>58</v>
+      </c>
+      <c r="K53" s="18">
+        <v>49</v>
+      </c>
+      <c r="L53" s="18">
+        <v>56</v>
+      </c>
+      <c r="M53" s="18">
+        <v>30</v>
+      </c>
+      <c r="N53" s="19">
+        <v>51</v>
+      </c>
+      <c r="O53" s="23">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="P53" s="23">
+        <f t="shared" si="6"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="26">
+        <v>45879</v>
+      </c>
+      <c r="C54" s="18">
+        <v>66</v>
+      </c>
+      <c r="D54" s="18">
+        <v>73</v>
+      </c>
+      <c r="E54" s="18">
+        <v>59</v>
+      </c>
+      <c r="F54" s="18">
+        <v>42</v>
+      </c>
+      <c r="G54" s="18">
+        <v>52</v>
+      </c>
+      <c r="H54" s="22">
+        <v>71</v>
+      </c>
+      <c r="I54" s="18">
+        <v>59</v>
+      </c>
+      <c r="J54" s="18">
+        <v>56</v>
+      </c>
+      <c r="K54" s="18">
+        <v>62</v>
+      </c>
+      <c r="L54" s="18">
+        <v>52</v>
+      </c>
+      <c r="M54" s="18">
+        <v>48</v>
+      </c>
+      <c r="N54" s="19">
         <v>54</v>
       </c>
-      <c r="K15" s="21">
-        <v>34</v>
-      </c>
-      <c r="L15" s="29">
-        <v>31</v>
-      </c>
-      <c r="M15" s="20">
-        <v>30</v>
-      </c>
-      <c r="N15" s="20">
-        <v>39</v>
-      </c>
-      <c r="O15" s="20">
-        <v>62</v>
-      </c>
-      <c r="P15" s="30">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="20">
+      <c r="O54" s="23">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="P54" s="23">
+        <f t="shared" si="6"/>
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="26">
+        <v>45880</v>
+      </c>
+      <c r="C55" s="18">
+        <v>70</v>
+      </c>
+      <c r="D55" s="18">
         <v>47</v>
       </c>
-      <c r="R15" s="20">
-        <v>52</v>
-      </c>
-      <c r="S15" s="20">
-        <v>24</v>
-      </c>
-      <c r="T15" s="20">
-        <v>52</v>
-      </c>
-      <c r="U15" s="21">
-        <v>32</v>
-      </c>
-      <c r="V15" s="33">
-        <f>ROUND(AVERAGE(B15:U15,Y15:AE15),0)</f>
-        <v>42</v>
-      </c>
-      <c r="W15" s="21">
-        <f>ROUND(_xlfn.STDEV.P(B15:U15,Y15:AE15),2)</f>
-        <v>12.75</v>
-      </c>
-      <c r="AL15" s="18"/>
-      <c r="AM15" s="38"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="E55" s="18">
+        <v>68</v>
+      </c>
+      <c r="F55" s="18">
+        <v>82</v>
+      </c>
+      <c r="G55" s="18">
+        <v>71</v>
+      </c>
+      <c r="H55" s="22">
+        <v>55</v>
+      </c>
+      <c r="I55" s="18">
+        <v>46</v>
+      </c>
+      <c r="J55" s="18">
         <v>50</v>
       </c>
-      <c r="B16" s="20">
-        <v>93</v>
-      </c>
-      <c r="C16" s="20">
-        <v>97</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="K55" s="18">
+        <v>55</v>
+      </c>
+      <c r="L55" s="18">
+        <v>53</v>
+      </c>
+      <c r="M55" s="18">
+        <v>53</v>
+      </c>
+      <c r="N55" s="19">
+        <v>65</v>
+      </c>
+      <c r="O55" s="23">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="P55" s="23">
+        <f t="shared" si="6"/>
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="26">
+        <v>45881</v>
+      </c>
+      <c r="C56" s="18">
+        <v>69</v>
+      </c>
+      <c r="D56" s="18">
+        <v>61</v>
+      </c>
+      <c r="E56" s="18">
+        <v>66</v>
+      </c>
+      <c r="F56" s="18">
+        <v>70</v>
+      </c>
+      <c r="G56" s="18">
+        <v>56</v>
+      </c>
+      <c r="H56" s="22">
+        <v>60</v>
+      </c>
+      <c r="I56" s="18">
+        <v>65</v>
+      </c>
+      <c r="J56" s="18">
+        <v>72</v>
+      </c>
+      <c r="K56" s="18">
+        <v>46</v>
+      </c>
+      <c r="L56" s="18">
+        <v>57</v>
+      </c>
+      <c r="M56" s="18">
+        <v>68</v>
+      </c>
+      <c r="N56" s="19">
+        <v>61</v>
+      </c>
+      <c r="O56" s="23">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="P56" s="23">
+        <f t="shared" si="6"/>
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="26">
+        <v>45882</v>
+      </c>
+      <c r="C57" s="27">
         <v>81</v>
       </c>
-      <c r="E16" s="20">
-        <v>89</v>
-      </c>
-      <c r="F16" s="30">
-        <v>101</v>
-      </c>
-      <c r="G16" s="20">
-        <v>120</v>
-      </c>
-      <c r="H16" s="20">
-        <v>92</v>
-      </c>
-      <c r="I16" s="20">
-        <v>103</v>
-      </c>
-      <c r="J16" s="20">
-        <v>86</v>
-      </c>
-      <c r="K16" s="21">
-        <v>87</v>
-      </c>
-      <c r="L16" s="29">
-        <v>121</v>
-      </c>
-      <c r="M16" s="20">
-        <v>127</v>
-      </c>
-      <c r="N16" s="20">
-        <v>87</v>
-      </c>
-      <c r="O16" s="20">
-        <v>89</v>
-      </c>
-      <c r="P16" s="30">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>96</v>
-      </c>
-      <c r="R16" s="20">
-        <v>90</v>
-      </c>
-      <c r="S16" s="20">
-        <v>105</v>
-      </c>
-      <c r="T16" s="20">
-        <v>98</v>
-      </c>
-      <c r="U16" s="21">
+      <c r="D57" s="20">
+        <v>83</v>
+      </c>
+      <c r="E57" s="20">
+        <v>69</v>
+      </c>
+      <c r="F57" s="20">
+        <v>99</v>
+      </c>
+      <c r="G57" s="20">
+        <v>80</v>
+      </c>
+      <c r="H57" s="25">
+        <v>80</v>
+      </c>
+      <c r="I57" s="20">
+        <v>77</v>
+      </c>
+      <c r="J57" s="20">
+        <v>76</v>
+      </c>
+      <c r="K57" s="20">
+        <v>78</v>
+      </c>
+      <c r="L57" s="20">
+        <v>84</v>
+      </c>
+      <c r="M57" s="20">
+        <v>82</v>
+      </c>
+      <c r="N57" s="28">
+        <v>88</v>
+      </c>
+      <c r="O57" s="24">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
-      <c r="V16" s="33">
-        <f t="shared" ref="V16:V36" si="2">ROUND(AVERAGE(B16:U16,Y16:AE16),0)</f>
-        <v>96</v>
-      </c>
-      <c r="W16" s="21">
-        <f t="shared" ref="W16:W36" si="3">ROUND(_xlfn.STDEV.P(B16:U16,Y16:AE16),2)</f>
-        <v>13.48</v>
-      </c>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70">
-        <v>82</v>
-      </c>
-      <c r="AG16" s="70">
-        <v>80</v>
-      </c>
-      <c r="AH16" s="70">
-        <v>85</v>
-      </c>
-      <c r="AI16" s="70">
-        <v>85</v>
-      </c>
-      <c r="AJ16" s="70">
-        <v>82</v>
-      </c>
-      <c r="AK16" s="70">
-        <v>86</v>
-      </c>
-      <c r="AL16" s="18">
-        <f>ROUND(AVERAGE(Y16:AK16),0)</f>
-        <v>83</v>
-      </c>
-      <c r="AM16" s="38">
-        <f>ROUND(_xlfn.STDEV.P(Y16:AK16),2)</f>
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="20">
-        <v>113</v>
-      </c>
-      <c r="C17" s="20">
-        <v>147</v>
-      </c>
-      <c r="D17" s="20">
-        <v>93</v>
-      </c>
-      <c r="E17" s="20">
-        <v>115</v>
-      </c>
-      <c r="F17" s="30">
-        <v>116</v>
-      </c>
-      <c r="G17" s="20">
-        <v>127</v>
-      </c>
-      <c r="H17" s="20">
-        <v>111</v>
-      </c>
-      <c r="I17" s="20">
-        <v>114</v>
-      </c>
-      <c r="J17" s="20">
-        <v>99</v>
-      </c>
-      <c r="K17" s="21">
-        <v>94</v>
-      </c>
-      <c r="L17" s="29">
-        <v>117</v>
-      </c>
-      <c r="M17" s="20">
-        <v>128</v>
-      </c>
-      <c r="N17" s="20">
-        <v>125</v>
-      </c>
-      <c r="O17" s="20">
-        <v>108</v>
-      </c>
-      <c r="P17" s="30">
-        <v>96</v>
-      </c>
-      <c r="Q17" s="20">
-        <v>124</v>
-      </c>
-      <c r="R17" s="20">
-        <v>167</v>
-      </c>
-      <c r="S17" s="20">
-        <v>102</v>
-      </c>
-      <c r="T17" s="20">
-        <v>135</v>
-      </c>
-      <c r="U17" s="21">
-        <v>129</v>
-      </c>
-      <c r="V17" s="33">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="W17" s="21">
-        <f t="shared" si="3"/>
-        <v>17.920000000000002</v>
-      </c>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20">
-        <v>133</v>
-      </c>
-      <c r="AG17" s="20">
-        <v>142</v>
-      </c>
-      <c r="AH17" s="20">
-        <v>144</v>
-      </c>
-      <c r="AI17" s="20">
-        <v>152</v>
-      </c>
-      <c r="AJ17" s="20">
-        <v>147</v>
-      </c>
-      <c r="AK17" s="20">
-        <v>167</v>
-      </c>
-      <c r="AL17" s="29">
-        <f t="shared" ref="AL17:AL36" si="4">ROUND(AVERAGE(Y17:AK17),0)</f>
-        <v>148</v>
-      </c>
-      <c r="AM17" s="21">
-        <f t="shared" ref="AM17:AM36" si="5">ROUND(_xlfn.STDEV.P(Y17:AK17),2)</f>
-        <v>10.44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="20">
-        <v>181</v>
-      </c>
-      <c r="C18" s="20">
-        <v>175</v>
-      </c>
-      <c r="D18" s="20">
-        <v>186</v>
-      </c>
-      <c r="E18" s="20">
-        <v>188</v>
-      </c>
-      <c r="F18" s="30">
-        <v>186</v>
-      </c>
-      <c r="G18" s="20">
-        <v>193</v>
-      </c>
-      <c r="H18" s="20">
-        <v>189</v>
-      </c>
-      <c r="I18" s="20">
-        <v>196</v>
-      </c>
-      <c r="J18" s="20">
-        <v>190</v>
-      </c>
-      <c r="K18" s="21">
-        <v>193</v>
-      </c>
-      <c r="L18" s="29">
-        <v>189</v>
-      </c>
-      <c r="M18" s="20">
-        <v>194</v>
-      </c>
-      <c r="N18" s="20">
-        <v>179</v>
-      </c>
-      <c r="O18" s="20">
-        <v>183</v>
-      </c>
-      <c r="P18" s="30">
-        <v>167</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>194</v>
-      </c>
-      <c r="R18" s="20">
-        <v>187</v>
-      </c>
-      <c r="S18" s="20">
-        <v>194</v>
-      </c>
-      <c r="T18" s="20">
-        <v>189</v>
-      </c>
-      <c r="U18" s="21">
-        <v>178</v>
-      </c>
-      <c r="V18" s="33">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="W18" s="21">
-        <f t="shared" si="3"/>
-        <v>7.28</v>
-      </c>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20">
-        <v>150</v>
-      </c>
-      <c r="AG18" s="20">
-        <v>152</v>
-      </c>
-      <c r="AH18" s="20">
-        <v>149</v>
-      </c>
-      <c r="AI18" s="20">
-        <v>135</v>
-      </c>
-      <c r="AJ18" s="20">
-        <v>149</v>
-      </c>
-      <c r="AK18" s="20">
-        <v>161</v>
-      </c>
-      <c r="AL18" s="29">
-        <f t="shared" si="4"/>
-        <v>149</v>
-      </c>
-      <c r="AM18" s="21">
-        <f t="shared" si="5"/>
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="20">
-        <v>87</v>
-      </c>
-      <c r="C19" s="20">
-        <v>95</v>
-      </c>
-      <c r="D19" s="20">
-        <v>61</v>
-      </c>
-      <c r="E19" s="20">
-        <v>34</v>
-      </c>
-      <c r="F19" s="30">
-        <v>91</v>
-      </c>
-      <c r="G19" s="20">
-        <v>37</v>
-      </c>
-      <c r="H19" s="20">
-        <v>74</v>
-      </c>
-      <c r="I19" s="20">
-        <v>48</v>
-      </c>
-      <c r="J19" s="20">
-        <v>45</v>
-      </c>
-      <c r="K19" s="21">
-        <v>65</v>
-      </c>
-      <c r="L19" s="29">
-        <v>78</v>
-      </c>
-      <c r="M19" s="20">
-        <v>91</v>
-      </c>
-      <c r="N19" s="20">
-        <v>61</v>
-      </c>
-      <c r="O19" s="20">
-        <v>62</v>
-      </c>
-      <c r="P19" s="30">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>52</v>
-      </c>
-      <c r="R19" s="20">
-        <v>76</v>
-      </c>
-      <c r="S19" s="20">
-        <v>73</v>
-      </c>
-      <c r="T19" s="20">
-        <v>71</v>
-      </c>
-      <c r="U19" s="21">
-        <v>91</v>
-      </c>
-      <c r="V19" s="33">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="W19" s="21">
-        <f t="shared" si="3"/>
-        <v>17.93</v>
-      </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20">
-        <v>58</v>
-      </c>
-      <c r="AG19" s="20">
-        <v>64</v>
-      </c>
-      <c r="AH19" s="20">
-        <v>73</v>
-      </c>
-      <c r="AI19" s="20">
-        <v>90</v>
-      </c>
-      <c r="AJ19" s="20">
-        <v>49</v>
-      </c>
-      <c r="AK19" s="20">
-        <v>35</v>
-      </c>
-      <c r="AL19" s="29">
-        <f t="shared" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="AM19" s="21">
-        <f t="shared" si="5"/>
-        <v>17.420000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="20">
-        <v>47</v>
-      </c>
-      <c r="C20" s="20">
-        <v>50</v>
-      </c>
-      <c r="D20" s="20">
-        <v>54</v>
-      </c>
-      <c r="E20" s="20">
-        <v>52</v>
-      </c>
-      <c r="F20" s="30">
-        <v>63</v>
-      </c>
-      <c r="G20" s="20">
-        <v>48</v>
-      </c>
-      <c r="H20" s="20">
-        <v>44</v>
-      </c>
-      <c r="I20" s="20">
-        <v>59</v>
-      </c>
-      <c r="J20" s="20">
-        <v>46</v>
-      </c>
-      <c r="K20" s="21">
-        <v>55</v>
-      </c>
-      <c r="L20" s="29">
-        <v>61</v>
-      </c>
-      <c r="M20" s="20">
-        <v>71</v>
-      </c>
-      <c r="N20" s="20">
-        <v>65</v>
-      </c>
-      <c r="O20" s="20">
-        <v>62</v>
-      </c>
-      <c r="P20" s="30">
-        <v>67</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>55</v>
-      </c>
-      <c r="R20" s="20">
-        <v>58</v>
-      </c>
-      <c r="S20" s="20">
-        <v>44</v>
-      </c>
-      <c r="T20" s="20">
-        <v>50</v>
-      </c>
-      <c r="U20" s="21">
-        <v>65</v>
-      </c>
-      <c r="V20" s="33">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="W20" s="21">
-        <f t="shared" si="3"/>
-        <v>7.93</v>
-      </c>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20">
-        <v>61</v>
-      </c>
-      <c r="AG20" s="20">
-        <v>69</v>
-      </c>
-      <c r="AH20" s="20">
-        <v>72</v>
-      </c>
-      <c r="AI20" s="20">
-        <v>74</v>
-      </c>
-      <c r="AJ20" s="20">
-        <v>67</v>
-      </c>
-      <c r="AK20" s="20">
-        <v>55</v>
-      </c>
-      <c r="AL20" s="29">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="AM20" s="21">
-        <f t="shared" si="5"/>
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="20">
-        <v>72</v>
-      </c>
-      <c r="C21" s="20">
-        <v>109</v>
-      </c>
-      <c r="D21" s="20">
-        <v>96</v>
-      </c>
-      <c r="E21" s="20">
-        <v>78</v>
-      </c>
-      <c r="F21" s="30">
-        <v>65</v>
-      </c>
-      <c r="G21" s="20">
-        <v>78</v>
-      </c>
-      <c r="H21" s="20">
-        <v>62</v>
-      </c>
-      <c r="I21" s="20">
-        <v>55</v>
-      </c>
-      <c r="J21" s="20">
-        <v>83</v>
-      </c>
-      <c r="K21" s="21">
-        <v>79</v>
-      </c>
-      <c r="L21" s="29">
-        <v>96</v>
-      </c>
-      <c r="M21" s="20">
-        <v>75</v>
-      </c>
-      <c r="N21" s="20">
-        <v>73</v>
-      </c>
-      <c r="O21" s="20">
-        <v>62</v>
-      </c>
-      <c r="P21" s="30">
-        <v>84</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>57</v>
-      </c>
-      <c r="R21" s="20">
-        <v>83</v>
-      </c>
-      <c r="S21" s="20">
-        <v>72</v>
-      </c>
-      <c r="T21" s="20">
-        <v>72</v>
-      </c>
-      <c r="U21" s="21">
-        <v>78</v>
-      </c>
-      <c r="V21" s="33">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="W21" s="21">
-        <f t="shared" si="3"/>
-        <v>13.12</v>
-      </c>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20">
-        <v>51</v>
-      </c>
-      <c r="AG21" s="20">
-        <v>53</v>
-      </c>
-      <c r="AH21" s="20">
-        <v>50</v>
-      </c>
-      <c r="AI21" s="20">
-        <v>60</v>
-      </c>
-      <c r="AJ21" s="20">
-        <v>65</v>
-      </c>
-      <c r="AK21" s="20">
-        <v>53</v>
-      </c>
-      <c r="AL21" s="29">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="AM21" s="21">
-        <f t="shared" si="5"/>
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="20">
-        <v>115</v>
-      </c>
-      <c r="C22" s="20">
-        <v>110</v>
-      </c>
-      <c r="D22" s="20">
-        <v>117</v>
-      </c>
-      <c r="E22" s="20">
-        <v>70</v>
-      </c>
-      <c r="F22" s="30">
-        <v>100</v>
-      </c>
-      <c r="G22" s="20">
-        <v>77</v>
-      </c>
-      <c r="H22" s="20">
-        <v>129</v>
-      </c>
-      <c r="I22" s="20">
-        <v>102</v>
-      </c>
-      <c r="J22" s="20">
-        <v>92</v>
-      </c>
-      <c r="K22" s="21">
-        <v>64</v>
-      </c>
-      <c r="L22" s="29">
-        <v>97</v>
-      </c>
-      <c r="M22" s="20">
-        <v>72</v>
-      </c>
-      <c r="N22" s="20">
-        <v>89</v>
-      </c>
-      <c r="O22" s="20">
-        <v>62</v>
-      </c>
-      <c r="P22" s="30">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="20">
-        <v>126</v>
-      </c>
-      <c r="R22" s="20">
-        <v>57</v>
-      </c>
-      <c r="S22" s="20">
-        <v>74</v>
-      </c>
-      <c r="T22" s="20">
-        <v>95</v>
-      </c>
-      <c r="U22" s="21">
-        <v>126</v>
-      </c>
-      <c r="V22" s="33">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="W22" s="21">
-        <f t="shared" si="3"/>
-        <v>22.02</v>
-      </c>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20">
-        <v>96</v>
-      </c>
-      <c r="AG22" s="20">
-        <v>66</v>
-      </c>
-      <c r="AH22" s="20">
-        <v>103</v>
-      </c>
-      <c r="AI22" s="20">
-        <v>76</v>
-      </c>
-      <c r="AJ22" s="20">
-        <v>94</v>
-      </c>
-      <c r="AK22" s="20">
-        <v>95</v>
-      </c>
-      <c r="AL22" s="29">
-        <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="AM22" s="21">
-        <f t="shared" si="5"/>
-        <v>12.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="20">
-        <v>89</v>
-      </c>
-      <c r="C23" s="20">
-        <v>89</v>
-      </c>
-      <c r="D23" s="20">
-        <v>90</v>
-      </c>
-      <c r="E23" s="20">
-        <v>107</v>
-      </c>
-      <c r="F23" s="30">
-        <v>83</v>
-      </c>
-      <c r="G23" s="20">
-        <v>78</v>
-      </c>
-      <c r="H23" s="20">
-        <v>79</v>
-      </c>
-      <c r="I23" s="20">
-        <v>91</v>
-      </c>
-      <c r="J23" s="20">
-        <v>107</v>
-      </c>
-      <c r="K23" s="21">
-        <v>86</v>
-      </c>
-      <c r="L23" s="29">
-        <v>88</v>
-      </c>
-      <c r="M23" s="20">
-        <v>107</v>
-      </c>
-      <c r="N23" s="20">
-        <v>87</v>
-      </c>
-      <c r="O23" s="20">
-        <v>87</v>
-      </c>
-      <c r="P23" s="30">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="20">
-        <v>76</v>
-      </c>
-      <c r="R23" s="20">
-        <v>92</v>
-      </c>
-      <c r="S23" s="20">
-        <v>84</v>
-      </c>
-      <c r="T23" s="20">
-        <v>93</v>
-      </c>
-      <c r="U23" s="21">
-        <v>96</v>
-      </c>
-      <c r="V23" s="33">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="W23" s="21">
-        <f t="shared" si="3"/>
-        <v>8.94</v>
-      </c>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20">
-        <v>110</v>
-      </c>
-      <c r="AG23" s="20">
-        <v>94</v>
-      </c>
-      <c r="AH23" s="20">
-        <v>53</v>
-      </c>
-      <c r="AI23" s="20">
-        <v>64</v>
-      </c>
-      <c r="AJ23" s="20">
-        <v>81</v>
-      </c>
-      <c r="AK23" s="20">
-        <v>89</v>
-      </c>
-      <c r="AL23" s="29">
-        <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="AM23" s="21">
-        <f t="shared" si="5"/>
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="20">
-        <v>175</v>
-      </c>
-      <c r="C24" s="20">
-        <v>224</v>
-      </c>
-      <c r="D24" s="20">
-        <v>176</v>
-      </c>
-      <c r="E24" s="20">
-        <v>190</v>
-      </c>
-      <c r="F24" s="30">
-        <v>155</v>
-      </c>
-      <c r="G24" s="20">
-        <v>160</v>
-      </c>
-      <c r="H24" s="20">
-        <v>166</v>
-      </c>
-      <c r="I24" s="20">
-        <v>174</v>
-      </c>
-      <c r="J24" s="20">
-        <v>171</v>
-      </c>
-      <c r="K24" s="21">
-        <v>164</v>
-      </c>
-      <c r="L24" s="29">
-        <v>190</v>
-      </c>
-      <c r="M24" s="20">
-        <v>225</v>
-      </c>
-      <c r="N24" s="20">
-        <v>179</v>
-      </c>
-      <c r="O24" s="20">
-        <v>178</v>
-      </c>
-      <c r="P24" s="30">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>156</v>
-      </c>
-      <c r="R24" s="20">
-        <v>185</v>
-      </c>
-      <c r="S24" s="20">
-        <v>171</v>
-      </c>
-      <c r="T24" s="20">
-        <v>164</v>
-      </c>
-      <c r="U24" s="21">
-        <v>198</v>
-      </c>
-      <c r="V24" s="33">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-      <c r="W24" s="21">
-        <f t="shared" si="3"/>
-        <v>18.8</v>
-      </c>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20">
-        <v>93</v>
-      </c>
-      <c r="AG24" s="20">
-        <v>161</v>
-      </c>
-      <c r="AH24" s="20">
-        <v>141</v>
-      </c>
-      <c r="AI24" s="20">
-        <v>144</v>
-      </c>
-      <c r="AJ24" s="20">
-        <v>148</v>
-      </c>
-      <c r="AK24" s="20">
-        <v>173</v>
-      </c>
-      <c r="AL24" s="29">
-        <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-      <c r="AM24" s="21">
-        <f t="shared" si="5"/>
-        <v>25.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="20">
-        <v>181</v>
-      </c>
-      <c r="C25" s="20">
-        <v>177</v>
-      </c>
-      <c r="D25" s="20">
-        <v>184</v>
-      </c>
-      <c r="E25" s="20">
-        <v>184</v>
-      </c>
-      <c r="F25" s="30">
-        <v>181</v>
-      </c>
-      <c r="G25" s="20">
-        <v>185</v>
-      </c>
-      <c r="H25" s="20">
-        <v>185</v>
-      </c>
-      <c r="I25" s="20">
-        <v>183</v>
-      </c>
-      <c r="J25" s="20">
-        <v>188</v>
-      </c>
-      <c r="K25" s="21">
-        <v>187</v>
-      </c>
-      <c r="L25" s="29">
-        <v>184</v>
-      </c>
-      <c r="M25" s="20">
-        <v>190</v>
-      </c>
-      <c r="N25" s="20">
-        <v>175</v>
-      </c>
-      <c r="O25" s="20">
-        <v>180</v>
-      </c>
-      <c r="P25" s="30">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>188</v>
-      </c>
-      <c r="R25" s="20">
-        <v>185</v>
-      </c>
-      <c r="S25" s="20">
-        <v>185</v>
-      </c>
-      <c r="T25" s="20">
-        <v>187</v>
-      </c>
-      <c r="U25" s="21">
-        <v>186</v>
-      </c>
-      <c r="V25" s="33">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="W25" s="21">
-        <f t="shared" si="3"/>
-        <v>3.6</v>
-      </c>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20">
-        <v>161</v>
-      </c>
-      <c r="AG25" s="20">
-        <v>167</v>
-      </c>
-      <c r="AH25" s="20">
-        <v>160</v>
-      </c>
-      <c r="AI25" s="20">
-        <v>170</v>
-      </c>
-      <c r="AJ25" s="20">
-        <v>172</v>
-      </c>
-      <c r="AK25" s="20">
-        <v>174</v>
-      </c>
-      <c r="AL25" s="29">
-        <f t="shared" si="4"/>
-        <v>167</v>
-      </c>
-      <c r="AM25" s="21">
-        <f t="shared" si="5"/>
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="20">
-        <v>60</v>
-      </c>
-      <c r="C26" s="20">
-        <v>45</v>
-      </c>
-      <c r="D26" s="20">
-        <v>61</v>
-      </c>
-      <c r="E26" s="20">
-        <v>79</v>
-      </c>
-      <c r="F26" s="30">
-        <v>88</v>
-      </c>
-      <c r="G26" s="20">
-        <v>56</v>
-      </c>
-      <c r="H26" s="20">
-        <v>95</v>
-      </c>
-      <c r="I26" s="20">
-        <v>64</v>
-      </c>
-      <c r="J26" s="20">
-        <v>51</v>
-      </c>
-      <c r="K26" s="21">
-        <v>79</v>
-      </c>
-      <c r="L26" s="29">
-        <v>52</v>
-      </c>
-      <c r="M26" s="20">
-        <v>45</v>
-      </c>
-      <c r="N26" s="20">
-        <v>75</v>
-      </c>
-      <c r="O26" s="20">
-        <v>62</v>
-      </c>
-      <c r="P26" s="30">
-        <v>57</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>93</v>
-      </c>
-      <c r="R26" s="20">
-        <v>67</v>
-      </c>
-      <c r="S26" s="20">
-        <v>65</v>
-      </c>
-      <c r="T26" s="20">
-        <v>54</v>
-      </c>
-      <c r="U26" s="21">
-        <v>57</v>
-      </c>
-      <c r="V26" s="33">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="W26" s="21">
-        <f t="shared" si="3"/>
-        <v>14.58</v>
-      </c>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20">
-        <v>55</v>
-      </c>
-      <c r="AG26" s="20">
-        <v>50</v>
-      </c>
-      <c r="AH26" s="20">
-        <v>55</v>
-      </c>
-      <c r="AI26" s="20">
-        <v>49</v>
-      </c>
-      <c r="AJ26" s="20">
-        <v>49</v>
-      </c>
-      <c r="AK26" s="20">
-        <v>55</v>
-      </c>
-      <c r="AL26" s="29">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="AM26" s="21">
-        <f t="shared" si="5"/>
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="20">
-        <v>80</v>
-      </c>
-      <c r="C27" s="20">
-        <v>39</v>
-      </c>
-      <c r="D27" s="20">
-        <v>76</v>
-      </c>
-      <c r="E27" s="20">
-        <v>96</v>
-      </c>
-      <c r="F27" s="30">
-        <v>105</v>
-      </c>
-      <c r="G27" s="20">
-        <v>57</v>
-      </c>
-      <c r="H27" s="20">
-        <v>119</v>
-      </c>
-      <c r="I27" s="20">
-        <v>70</v>
-      </c>
-      <c r="J27" s="20">
-        <v>51</v>
-      </c>
-      <c r="K27" s="21">
-        <v>81</v>
-      </c>
-      <c r="L27" s="29">
-        <v>54</v>
-      </c>
-      <c r="M27" s="20">
-        <v>46</v>
-      </c>
-      <c r="N27" s="20">
-        <v>88</v>
-      </c>
-      <c r="O27" s="20">
-        <v>62</v>
-      </c>
-      <c r="P27" s="30">
-        <v>71</v>
-      </c>
-      <c r="Q27" s="20">
-        <v>95</v>
-      </c>
-      <c r="R27" s="20">
-        <v>77</v>
-      </c>
-      <c r="S27" s="20">
-        <v>77</v>
-      </c>
-      <c r="T27" s="20">
-        <v>57</v>
-      </c>
-      <c r="U27" s="21">
-        <v>48</v>
-      </c>
-      <c r="V27" s="33">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="W27" s="21">
-        <f t="shared" si="3"/>
-        <v>20.65</v>
-      </c>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20">
-        <v>51</v>
-      </c>
-      <c r="AG27" s="20">
-        <v>76</v>
-      </c>
-      <c r="AH27" s="20">
-        <v>87</v>
-      </c>
-      <c r="AI27" s="20">
-        <v>69</v>
-      </c>
-      <c r="AJ27" s="20">
-        <v>85</v>
-      </c>
-      <c r="AK27" s="20">
-        <v>82</v>
-      </c>
-      <c r="AL27" s="29">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="AM27" s="21">
-        <f t="shared" si="5"/>
-        <v>12.29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="20">
-        <v>81</v>
-      </c>
-      <c r="C28" s="20">
-        <v>95</v>
-      </c>
-      <c r="D28" s="20">
-        <v>79</v>
-      </c>
-      <c r="E28" s="20">
-        <v>89</v>
-      </c>
-      <c r="F28" s="30">
-        <v>84</v>
-      </c>
-      <c r="G28" s="20">
-        <v>62</v>
-      </c>
-      <c r="H28" s="20">
-        <v>72</v>
-      </c>
-      <c r="I28" s="20">
-        <v>64</v>
-      </c>
-      <c r="J28" s="20">
-        <v>88</v>
-      </c>
-      <c r="K28" s="21">
-        <v>84</v>
-      </c>
-      <c r="L28" s="29">
-        <v>80</v>
-      </c>
-      <c r="M28" s="20">
-        <v>90</v>
-      </c>
-      <c r="N28" s="20">
-        <v>78</v>
-      </c>
-      <c r="O28" s="20">
-        <v>62</v>
-      </c>
-      <c r="P28" s="30">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>77</v>
-      </c>
-      <c r="R28" s="20">
-        <v>78</v>
-      </c>
-      <c r="S28" s="20">
-        <v>75</v>
-      </c>
-      <c r="T28" s="20">
-        <v>75</v>
-      </c>
-      <c r="U28" s="21">
-        <v>76</v>
-      </c>
-      <c r="V28" s="33">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="W28" s="21">
-        <f t="shared" si="3"/>
-        <v>8.76</v>
-      </c>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20">
-        <v>49</v>
-      </c>
-      <c r="AG28" s="20">
-        <v>48</v>
-      </c>
-      <c r="AH28" s="20">
-        <v>51</v>
-      </c>
-      <c r="AI28" s="20">
-        <v>61</v>
-      </c>
-      <c r="AJ28" s="20">
-        <v>57</v>
-      </c>
-      <c r="AK28" s="20">
-        <v>51</v>
-      </c>
-      <c r="AL28" s="29">
-        <f t="shared" si="4"/>
-        <v>53</v>
-      </c>
-      <c r="AM28" s="21">
-        <f t="shared" si="5"/>
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="20">
-        <v>91</v>
-      </c>
-      <c r="C29" s="20">
-        <v>93</v>
-      </c>
-      <c r="D29" s="20">
-        <v>88</v>
-      </c>
-      <c r="E29" s="20">
-        <v>87</v>
-      </c>
-      <c r="F29" s="30">
-        <v>84</v>
-      </c>
-      <c r="G29" s="20">
-        <v>88</v>
-      </c>
-      <c r="H29" s="20">
-        <v>82</v>
-      </c>
-      <c r="I29" s="20">
-        <v>86</v>
-      </c>
-      <c r="J29" s="20">
-        <v>87</v>
-      </c>
-      <c r="K29" s="21">
-        <v>90</v>
-      </c>
-      <c r="L29" s="29">
-        <v>99</v>
-      </c>
-      <c r="M29" s="20">
-        <v>97</v>
-      </c>
-      <c r="N29" s="20">
-        <v>81</v>
-      </c>
-      <c r="O29" s="20">
-        <v>62</v>
-      </c>
-      <c r="P29" s="30">
-        <v>97</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>82</v>
-      </c>
-      <c r="R29" s="20">
-        <v>92</v>
-      </c>
-      <c r="S29" s="20">
-        <v>92</v>
-      </c>
-      <c r="T29" s="20">
-        <v>83</v>
-      </c>
-      <c r="U29" s="21">
-        <v>88</v>
-      </c>
-      <c r="V29" s="33">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="W29" s="21">
-        <f t="shared" si="3"/>
-        <v>7.72</v>
-      </c>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20">
-        <v>56</v>
-      </c>
-      <c r="AG29" s="20">
-        <v>67</v>
-      </c>
-      <c r="AH29" s="20">
-        <v>74</v>
-      </c>
-      <c r="AI29" s="20">
-        <v>81</v>
-      </c>
-      <c r="AJ29" s="20">
-        <v>76</v>
-      </c>
-      <c r="AK29" s="20">
-        <v>84</v>
-      </c>
-      <c r="AL29" s="29">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="AM29" s="21">
-        <f t="shared" si="5"/>
-        <v>9.31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="20">
-        <v>76</v>
-      </c>
-      <c r="C30" s="20">
-        <v>81</v>
-      </c>
-      <c r="D30" s="20">
-        <v>88</v>
-      </c>
-      <c r="E30" s="20">
-        <v>73</v>
-      </c>
-      <c r="F30" s="30">
-        <v>74</v>
-      </c>
-      <c r="G30" s="20">
-        <v>86</v>
-      </c>
-      <c r="H30" s="20">
-        <v>109</v>
-      </c>
-      <c r="I30" s="20">
-        <v>55</v>
-      </c>
-      <c r="J30" s="20">
-        <v>59</v>
-      </c>
-      <c r="K30" s="21">
-        <v>77</v>
-      </c>
-      <c r="L30" s="29">
-        <v>79</v>
-      </c>
-      <c r="M30" s="20">
-        <v>90</v>
-      </c>
-      <c r="N30" s="20">
-        <v>65</v>
-      </c>
-      <c r="O30" s="20">
-        <v>80</v>
-      </c>
-      <c r="P30" s="30">
-        <v>67</v>
-      </c>
-      <c r="Q30" s="20">
-        <v>76</v>
-      </c>
-      <c r="R30" s="20">
-        <v>73</v>
-      </c>
-      <c r="S30" s="20">
-        <v>28</v>
-      </c>
-      <c r="T30" s="20">
-        <v>52</v>
-      </c>
-      <c r="U30" s="21">
-        <v>64</v>
-      </c>
-      <c r="V30" s="33">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="W30" s="21">
-        <f t="shared" si="3"/>
-        <v>16.32</v>
-      </c>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20">
-        <v>80</v>
-      </c>
-      <c r="AG30" s="20">
-        <v>69</v>
-      </c>
-      <c r="AH30" s="20">
-        <v>63</v>
-      </c>
-      <c r="AI30" s="20">
-        <v>82</v>
-      </c>
-      <c r="AJ30" s="20">
-        <v>63</v>
-      </c>
-      <c r="AK30" s="20">
-        <v>66</v>
-      </c>
-      <c r="AL30" s="29">
-        <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="AM30" s="21">
-        <f t="shared" si="5"/>
-        <v>7.72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="20">
-        <v>194</v>
-      </c>
-      <c r="C31" s="20">
-        <v>182</v>
-      </c>
-      <c r="D31" s="20">
-        <v>193</v>
-      </c>
-      <c r="E31" s="20">
-        <v>170</v>
-      </c>
-      <c r="F31" s="30">
-        <v>180</v>
-      </c>
-      <c r="G31" s="20">
-        <v>209</v>
-      </c>
-      <c r="H31" s="20">
-        <v>196</v>
-      </c>
-      <c r="I31" s="20">
-        <v>187</v>
-      </c>
-      <c r="J31" s="20">
-        <v>185</v>
-      </c>
-      <c r="K31" s="21">
-        <v>166</v>
-      </c>
-      <c r="L31" s="29">
-        <v>167</v>
-      </c>
-      <c r="M31" s="20">
-        <v>164</v>
-      </c>
-      <c r="N31" s="20">
-        <v>199</v>
-      </c>
-      <c r="O31" s="20">
-        <v>179</v>
-      </c>
-      <c r="P31" s="30">
-        <v>184</v>
-      </c>
-      <c r="Q31" s="20">
-        <v>177</v>
-      </c>
-      <c r="R31" s="20">
-        <v>202</v>
-      </c>
-      <c r="S31" s="20">
-        <v>197</v>
-      </c>
-      <c r="T31" s="20">
-        <v>207</v>
-      </c>
-      <c r="U31" s="21">
-        <v>180</v>
-      </c>
-      <c r="V31" s="33">
-        <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="W31" s="21">
-        <f t="shared" si="3"/>
-        <v>13.14</v>
-      </c>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20">
-        <v>155</v>
-      </c>
-      <c r="AG31" s="20">
-        <v>142</v>
-      </c>
-      <c r="AH31" s="20">
-        <v>156</v>
-      </c>
-      <c r="AI31" s="20">
-        <v>120</v>
-      </c>
-      <c r="AJ31" s="20">
-        <v>149</v>
-      </c>
-      <c r="AK31" s="20">
-        <v>140</v>
-      </c>
-      <c r="AL31" s="29">
-        <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="AM31" s="21">
-        <f t="shared" si="5"/>
-        <v>12.15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="20">
-        <v>155</v>
-      </c>
-      <c r="C32" s="20">
-        <v>184</v>
-      </c>
-      <c r="D32" s="20">
-        <v>157</v>
-      </c>
-      <c r="E32" s="20">
-        <v>148</v>
-      </c>
-      <c r="F32" s="30">
-        <v>152</v>
-      </c>
-      <c r="G32" s="20">
-        <v>152</v>
-      </c>
-      <c r="H32" s="20">
-        <v>153</v>
-      </c>
-      <c r="I32" s="20">
-        <v>157</v>
-      </c>
-      <c r="J32" s="20">
-        <v>173</v>
-      </c>
-      <c r="K32" s="21">
-        <v>153</v>
-      </c>
-      <c r="L32" s="29">
-        <v>139</v>
-      </c>
-      <c r="M32" s="20">
-        <v>152</v>
-      </c>
-      <c r="N32" s="20">
-        <v>125</v>
-      </c>
-      <c r="O32" s="20">
-        <v>171</v>
-      </c>
-      <c r="P32" s="30">
-        <v>162</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>144</v>
-      </c>
-      <c r="R32" s="20">
-        <v>159</v>
-      </c>
-      <c r="S32" s="20">
-        <v>160</v>
-      </c>
-      <c r="T32" s="20">
-        <v>151</v>
-      </c>
-      <c r="U32" s="21">
-        <v>146</v>
-      </c>
-      <c r="V32" s="33">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="W32" s="21">
-        <f t="shared" si="3"/>
-        <v>12.2</v>
-      </c>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20">
-        <v>196</v>
-      </c>
-      <c r="AG32" s="20">
-        <v>199</v>
-      </c>
-      <c r="AH32" s="20">
-        <v>210</v>
-      </c>
-      <c r="AI32" s="20">
-        <v>203</v>
-      </c>
-      <c r="AJ32" s="20">
-        <v>205</v>
-      </c>
-      <c r="AK32" s="20">
-        <v>169</v>
-      </c>
-      <c r="AL32" s="29">
-        <f t="shared" si="4"/>
-        <v>197</v>
-      </c>
-      <c r="AM32" s="21">
-        <f t="shared" si="5"/>
-        <v>13.28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="20">
-        <v>71</v>
-      </c>
-      <c r="C33" s="20">
+      <c r="P57" s="24">
+        <f t="shared" si="6"/>
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="20">
-        <v>58</v>
-      </c>
-      <c r="E33" s="20">
-        <v>117</v>
-      </c>
-      <c r="F33" s="30">
-        <v>61</v>
-      </c>
-      <c r="G33" s="20">
-        <v>40</v>
-      </c>
-      <c r="H33" s="20">
-        <v>82</v>
-      </c>
-      <c r="I33" s="20">
-        <v>42</v>
-      </c>
-      <c r="J33" s="20">
-        <v>55</v>
-      </c>
-      <c r="K33" s="21">
-        <v>34</v>
-      </c>
-      <c r="L33" s="29">
-        <v>72</v>
-      </c>
-      <c r="M33" s="20">
-        <v>70</v>
-      </c>
-      <c r="N33" s="20">
-        <v>94</v>
-      </c>
-      <c r="O33" s="20">
-        <v>62</v>
-      </c>
-      <c r="P33" s="30">
-        <v>39</v>
-      </c>
-      <c r="Q33" s="20">
-        <v>70</v>
-      </c>
-      <c r="R33" s="20">
-        <v>82</v>
-      </c>
-      <c r="S33" s="20">
-        <v>43</v>
-      </c>
-      <c r="T33" s="20">
-        <v>48</v>
-      </c>
-      <c r="U33" s="21">
-        <v>82</v>
-      </c>
-      <c r="V33" s="33">
-        <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-      <c r="W33" s="21">
-        <f t="shared" si="3"/>
-        <v>21.02</v>
-      </c>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20">
-        <v>52</v>
-      </c>
-      <c r="AG33" s="20">
-        <v>53</v>
-      </c>
-      <c r="AH33" s="20">
-        <v>38</v>
-      </c>
-      <c r="AI33" s="20">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="20">
-        <v>56</v>
-      </c>
-      <c r="AK33" s="20">
-        <v>52</v>
-      </c>
-      <c r="AL33" s="23">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="AM33" s="28">
-        <f t="shared" si="5"/>
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="20">
-        <v>64</v>
-      </c>
-      <c r="C34" s="20">
-        <v>37</v>
-      </c>
-      <c r="D34" s="20">
-        <v>46</v>
-      </c>
-      <c r="E34" s="20">
-        <v>88</v>
-      </c>
-      <c r="F34" s="30">
-        <v>46</v>
-      </c>
-      <c r="G34" s="20">
-        <v>35</v>
-      </c>
-      <c r="H34" s="20">
-        <v>43</v>
-      </c>
-      <c r="I34" s="20">
-        <v>40</v>
-      </c>
-      <c r="J34" s="20">
-        <v>42</v>
-      </c>
-      <c r="K34" s="21">
-        <v>35</v>
-      </c>
-      <c r="L34" s="29">
-        <v>70</v>
-      </c>
-      <c r="M34" s="20">
-        <v>69</v>
-      </c>
-      <c r="N34" s="20">
-        <v>63</v>
-      </c>
-      <c r="O34" s="20">
-        <v>62</v>
-      </c>
-      <c r="P34" s="30">
-        <v>51</v>
-      </c>
-      <c r="Q34" s="20">
-        <v>47</v>
-      </c>
-      <c r="R34" s="20">
-        <v>49</v>
-      </c>
-      <c r="S34" s="20">
-        <v>52</v>
-      </c>
-      <c r="T34" s="20">
-        <v>46</v>
-      </c>
-      <c r="U34" s="21">
-        <v>49</v>
-      </c>
-      <c r="V34" s="33">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="W34" s="21">
-        <f t="shared" si="3"/>
-        <v>13.33</v>
-      </c>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20">
-        <v>69</v>
-      </c>
-      <c r="AG34" s="20">
-        <v>63</v>
-      </c>
-      <c r="AH34" s="20">
-        <v>57</v>
-      </c>
-      <c r="AI34" s="20">
-        <v>68</v>
-      </c>
-      <c r="AJ34" s="20">
-        <v>65</v>
-      </c>
-      <c r="AK34" s="20">
-        <v>62</v>
-      </c>
-      <c r="AL34" s="23">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="AM34" s="28">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="27">
-        <v>25.76</v>
-      </c>
-      <c r="C35" s="27">
-        <v>28.79</v>
-      </c>
-      <c r="D35" s="27">
-        <v>28.79</v>
-      </c>
-      <c r="E35" s="27">
-        <v>18.18</v>
-      </c>
-      <c r="F35" s="31">
-        <v>30.3</v>
-      </c>
-      <c r="G35" s="27">
-        <v>27.27</v>
-      </c>
-      <c r="H35" s="27">
-        <v>34.85</v>
-      </c>
-      <c r="I35" s="27">
-        <v>34.85</v>
-      </c>
-      <c r="J35" s="27">
-        <v>22.73</v>
-      </c>
-      <c r="K35" s="28">
-        <v>30.3</v>
-      </c>
-      <c r="L35" s="23">
-        <v>20.45</v>
-      </c>
-      <c r="M35" s="27">
-        <v>29.55</v>
-      </c>
-      <c r="N35" s="27">
-        <v>26.14</v>
-      </c>
-      <c r="O35" s="27">
-        <v>25</v>
-      </c>
-      <c r="P35" s="31">
-        <v>26.14</v>
-      </c>
-      <c r="Q35" s="27">
-        <v>26.14</v>
-      </c>
-      <c r="R35" s="27">
-        <v>22.73</v>
-      </c>
-      <c r="S35" s="27">
-        <v>21.59</v>
-      </c>
-      <c r="T35" s="27">
-        <v>28.41</v>
-      </c>
-      <c r="U35" s="28">
-        <v>32.950000000000003</v>
-      </c>
-      <c r="V35" s="25">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="W35" s="25">
-        <f t="shared" si="3"/>
-        <v>4.41</v>
-      </c>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20">
-        <v>29.41</v>
-      </c>
-      <c r="AG35" s="20">
-        <v>35.29</v>
-      </c>
-      <c r="AH35" s="20">
-        <v>27.94</v>
-      </c>
-      <c r="AI35" s="20">
-        <v>27.94</v>
-      </c>
-      <c r="AJ35" s="20">
-        <v>35.29</v>
-      </c>
-      <c r="AK35" s="20">
-        <v>36.76</v>
-      </c>
-      <c r="AL35" s="68">
-        <f>ROUND(AVERAGE(Y35:AK35),2)</f>
-        <v>32.11</v>
-      </c>
-      <c r="AM35" s="69">
-        <f t="shared" si="5"/>
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="22">
-        <v>28.83</v>
-      </c>
-      <c r="C36" s="22">
-        <v>22.61</v>
-      </c>
-      <c r="D36" s="22">
-        <v>20.9</v>
-      </c>
-      <c r="E36" s="22">
-        <v>28.35</v>
-      </c>
-      <c r="F36" s="36">
-        <v>22.74</v>
-      </c>
-      <c r="G36" s="22">
-        <v>24.66</v>
-      </c>
-      <c r="H36" s="22">
-        <v>22.41</v>
-      </c>
-      <c r="I36" s="22">
-        <v>18.64</v>
-      </c>
-      <c r="J36" s="22">
-        <v>22.19</v>
-      </c>
-      <c r="K36" s="22">
-        <v>23.35</v>
-      </c>
-      <c r="L36" s="37">
-        <v>25.78</v>
-      </c>
-      <c r="M36" s="22">
-        <v>27</v>
-      </c>
-      <c r="N36" s="22">
-        <v>25.19</v>
-      </c>
-      <c r="O36" s="22">
-        <v>25.07</v>
-      </c>
-      <c r="P36" s="36">
-        <v>26.42</v>
-      </c>
-      <c r="Q36" s="22">
-        <v>25.53</v>
-      </c>
-      <c r="R36" s="22">
-        <v>25.01</v>
-      </c>
-      <c r="S36" s="22">
-        <v>27.58</v>
-      </c>
-      <c r="T36" s="22">
-        <v>24.7</v>
-      </c>
-      <c r="U36" s="22">
-        <v>24.78</v>
-      </c>
-      <c r="V36" s="25">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="W36" s="25">
-        <f t="shared" si="3"/>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
-      <c r="AB36" s="22"/>
-      <c r="AC36" s="22"/>
-      <c r="AD36" s="22"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22">
-        <v>23.11</v>
-      </c>
-      <c r="AG36" s="22">
-        <v>20.52</v>
-      </c>
-      <c r="AH36" s="22">
-        <v>22.45</v>
-      </c>
-      <c r="AI36" s="22">
-        <v>20.63</v>
-      </c>
-      <c r="AJ36" s="22">
-        <v>21.44</v>
-      </c>
-      <c r="AK36" s="22">
-        <v>18.38</v>
-      </c>
-      <c r="AL36" s="71">
-        <f>ROUND(AVERAGE(Y36:AK36),2)</f>
-        <v>21.09</v>
-      </c>
-      <c r="AM36" s="72">
-        <f t="shared" si="5"/>
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E37" s="18">
-        <f>AVERAGE(B36:F36)</f>
-        <v>24.686</v>
-      </c>
-      <c r="F37" s="38">
-        <f>AVERAGE(B35:F35)</f>
-        <v>26.364000000000004</v>
-      </c>
-      <c r="J37" s="18">
-        <f>AVERAGE(G36:K36)</f>
-        <v>22.25</v>
-      </c>
-      <c r="K37" s="38">
-        <f>AVERAGE(G35:K35)</f>
-        <v>30</v>
-      </c>
-      <c r="O37" s="18">
-        <f>AVERAGE(L36:P36)</f>
-        <v>25.891999999999996</v>
-      </c>
-      <c r="P37" s="38">
-        <f>AVERAGE(L35:P35)</f>
-        <v>25.456</v>
-      </c>
-      <c r="T37" s="18">
-        <f>AVERAGE(Q36:U36)</f>
-        <v>25.520000000000003</v>
-      </c>
-      <c r="U37" s="38">
-        <f>AVERAGE(Q35:U35)</f>
-        <v>26.363999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="29">
-        <f>_xlfn.STDEV.P(B36:F36)</f>
-        <v>3.2566277036222537</v>
-      </c>
-      <c r="F38" s="21">
-        <f>_xlfn.STDEV.P(B35:F35)</f>
-        <v>4.3498441351386106</v>
-      </c>
-      <c r="J38" s="29">
-        <f>_xlfn.STDEV.P(G36:K36)</f>
-        <v>2.0039660675769939</v>
-      </c>
-      <c r="K38" s="21">
-        <f>_xlfn.STDEV.P(G35:K35)</f>
-        <v>4.6355323318902721</v>
-      </c>
-      <c r="O38" s="29">
-        <f>_xlfn.STDEV.P(L36:P36)</f>
-        <v>0.73314118694832564</v>
-      </c>
-      <c r="P38" s="21">
-        <f>_xlfn.STDEV.P(L35:P35)</f>
-        <v>2.9313655520934234</v>
-      </c>
-      <c r="T38" s="29">
-        <f>_xlfn.STDEV.P(Q36:U36)</f>
-        <v>1.0699345774391995</v>
-      </c>
-      <c r="U38" s="21">
-        <f>_xlfn.STDEV.P(Q35:U35)</f>
-        <v>4.0892229090623298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="T39" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="U39" s="28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B41" s="41">
-        <v>0.8</v>
-      </c>
-      <c r="C41" s="20">
-        <f>ROUND(AVERAGE(L35:U35),2)</f>
-        <v>25.91</v>
-      </c>
-      <c r="D41" s="21">
-        <f>ROUND(_xlfn.STDEV.P(L35:U35),2)</f>
-        <v>3.59</v>
-      </c>
-      <c r="G41" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="H41" s="50">
-        <f>ROUND(AVERAGE(L36:U36),2)</f>
-        <v>25.71</v>
-      </c>
-      <c r="I41" s="57">
-        <f>ROUND(_xlfn.STDEV.P(L36:U36),2)</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="42">
-        <v>0.85</v>
-      </c>
-      <c r="C42" s="20">
-        <f>ROUND(AVERAGE(B35:K35),2)</f>
-        <v>28.18</v>
-      </c>
-      <c r="D42" s="21">
-        <f>ROUND(_xlfn.STDEV.P(B35:M35),2)</f>
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G42" s="51">
-        <v>0.85</v>
-      </c>
-      <c r="H42" s="50">
-        <f>ROUND(AVERAGE(B36:K36),2)</f>
-        <v>23.47</v>
-      </c>
-      <c r="I42" s="57">
-        <f>ROUND(_xlfn.STDEV.P(B36:K36),2)</f>
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B44" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="20">
-        <f>ROUND(AVERAGE(B35:F35,L35:P35),2)</f>
-        <v>25.91</v>
-      </c>
-      <c r="D44" s="39">
-        <f>ROUND(_xlfn.STDEV.P(B35:F35,L35:P35),2)</f>
-        <v>3.74</v>
-      </c>
-      <c r="G44" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="50">
-        <f>ROUND(AVERAGE(B36:F36,L36:P36),2)</f>
-        <v>25.29</v>
-      </c>
-      <c r="I44" s="39">
-        <f>ROUND(_xlfn.STDEV.P(B36:F36,L36:P36),2)</f>
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="40">
-        <f>ROUND(AVERAGE(G35:K35,Q35:U35),2)</f>
-        <v>28.18</v>
-      </c>
-      <c r="D45" s="46">
-        <f>ROUND(_xlfn.STDEV.P(G35:K35,Q35:U35),2)</f>
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G45" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="40">
-        <f>ROUND(AVERAGE(G36:K36,Q36:U36),2)</f>
-        <v>23.89</v>
-      </c>
-      <c r="I45" s="46">
-        <f>ROUND(_xlfn.STDEV.P(G36:K36,Q36:U36),2)</f>
-        <v>2.29</v>
+      <c r="C58" s="18">
+        <v>28.99</v>
+      </c>
+      <c r="D58" s="18">
+        <v>33.33</v>
+      </c>
+      <c r="E58" s="18">
+        <v>31.88</v>
+      </c>
+      <c r="F58" s="18">
+        <v>27.54</v>
+      </c>
+      <c r="G58" s="18">
+        <v>29.58</v>
+      </c>
+      <c r="H58" s="22">
+        <v>26.76</v>
+      </c>
+      <c r="I58" s="18">
+        <v>25.35</v>
+      </c>
+      <c r="J58" s="18">
+        <v>25.35</v>
+      </c>
+      <c r="K58" s="18">
+        <v>28.57</v>
+      </c>
+      <c r="L58" s="18">
+        <v>26.76</v>
+      </c>
+      <c r="M58" s="18">
+        <v>25.35</v>
+      </c>
+      <c r="N58" s="19">
+        <v>27.14</v>
+      </c>
+      <c r="O58" s="23">
+        <f>ROUND(AVERAGE(C58:N58),2)</f>
+        <v>28.05</v>
+      </c>
+      <c r="P58" s="23">
+        <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="18">
+        <v>31.5</v>
+      </c>
+      <c r="D59" s="18">
+        <v>28.97</v>
+      </c>
+      <c r="E59" s="18">
+        <v>27.38</v>
+      </c>
+      <c r="F59" s="18">
+        <v>35.72</v>
+      </c>
+      <c r="G59" s="18">
+        <v>31.32</v>
+      </c>
+      <c r="H59" s="22">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="I59" s="18">
+        <v>30.58</v>
+      </c>
+      <c r="J59" s="18">
+        <v>27.72</v>
+      </c>
+      <c r="K59" s="18">
+        <v>25.8</v>
+      </c>
+      <c r="L59" s="18">
+        <v>25.62</v>
+      </c>
+      <c r="M59" s="18">
+        <v>31.59</v>
+      </c>
+      <c r="N59" s="18">
+        <v>23.54</v>
+      </c>
+      <c r="O59" s="23">
+        <f>ROUND(AVERAGE(C59:N59),2)</f>
+        <v>29.49</v>
+      </c>
+      <c r="P59" s="23">
+        <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
+        <v>3.58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C58:N58 M59:N59">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:N58">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>$O$58-$P$58</formula>
+      <formula>"$O$58+$P$58"</formula>
+    </cfRule>
+    <cfRule type="aboveAverage" dxfId="2" priority="2"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R18">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D9041-5FF1-4486-AC3A-B40E454BB6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45322F00-9CB5-4B88-9436-BF5DE32AF6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -477,6 +477,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,9 +858,9 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q454" sqref="Q454"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J479" sqref="J478:J479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13169,7 +13177,7 @@
         <v>52</v>
       </c>
       <c r="E466" s="9">
-        <v>81.099999999999994</v>
+        <v>81.7</v>
       </c>
       <c r="F466" s="9">
         <v>3.1E-2</v>
@@ -13197,10 +13205,10 @@
         <v>122</v>
       </c>
       <c r="E467" s="9">
-        <v>79.7</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F467" s="9">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="G467" s="9">
         <v>0</v>
@@ -13225,7 +13233,7 @@
         <v>82</v>
       </c>
       <c r="E468" s="11">
-        <v>79.5</v>
+        <v>79.7</v>
       </c>
       <c r="F468" s="11">
         <v>0</v>
@@ -13251,10 +13259,10 @@
         <v>69</v>
       </c>
       <c r="E469" s="11">
-        <v>81.099999999999994</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="F469" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G469" s="9">
         <v>0</v>
@@ -13277,7 +13285,7 @@
         <v>137</v>
       </c>
       <c r="E470" s="11">
-        <v>83.1</v>
+        <v>80.8</v>
       </c>
       <c r="F470" s="11">
         <v>0</v>
@@ -13306,7 +13314,7 @@
         <v>82</v>
       </c>
       <c r="F471" s="11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G471" s="9">
         <v>0</v>
@@ -13335,7 +13343,7 @@
         <v>85.5</v>
       </c>
       <c r="F472" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G472" s="9">
         <v>0</v>
@@ -13355,22 +13363,19 @@
         <v>45844</v>
       </c>
       <c r="D473" s="16">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E473" s="11">
-        <v>76.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F473" s="11">
-        <v>0.28299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G473" s="11">
         <v>0</v>
       </c>
       <c r="H473" s="11">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J473" s="11">
-        <v>10.14</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
@@ -13384,22 +13389,19 @@
         <v>45845</v>
       </c>
       <c r="D474" s="16">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E474" s="11">
-        <v>72.5</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F474" s="11">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G474" s="11">
         <v>0</v>
       </c>
       <c r="H474" s="11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J474" s="11">
-        <v>18.559999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
@@ -13413,10 +13415,10 @@
         <v>45846</v>
       </c>
       <c r="D475" s="16">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E475" s="11">
-        <v>75.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F475" s="11">
         <v>0</v>
@@ -13425,10 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H475" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="J475" s="11">
-        <v>6.53</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
@@ -13442,22 +13441,19 @@
         <v>45847</v>
       </c>
       <c r="D476" s="16">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E476" s="11">
-        <v>76.099999999999994</v>
+        <v>75.7</v>
       </c>
       <c r="F476" s="11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G476" s="11">
         <v>0</v>
       </c>
       <c r="H476" s="11">
-        <v>6.1</v>
-      </c>
-      <c r="J476" s="11">
-        <v>17.97</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -13471,10 +13467,10 @@
         <v>45848</v>
       </c>
       <c r="D477" s="16">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E477" s="11">
-        <v>75.599999999999994</v>
+        <v>74.3</v>
       </c>
       <c r="F477" s="11">
         <v>0</v>
@@ -13484,9 +13480,6 @@
       </c>
       <c r="H477" s="11">
         <v>6.6</v>
-      </c>
-      <c r="J477" s="11">
-        <v>22.01</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -13499,23 +13492,20 @@
       <c r="C478" s="8">
         <v>45849</v>
       </c>
-      <c r="D478" s="16">
-        <v>190</v>
+      <c r="D478">
+        <v>146</v>
       </c>
       <c r="E478" s="11">
-        <v>77.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F478" s="11">
-        <v>0.28000000000000003</v>
+        <v>1.29</v>
       </c>
       <c r="G478" s="11">
         <v>0</v>
       </c>
       <c r="H478" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="J478" s="11">
-        <v>20.309999999999999</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -13528,23 +13518,20 @@
       <c r="C479" s="8">
         <v>45850</v>
       </c>
-      <c r="D479" s="16">
-        <v>163</v>
+      <c r="D479">
+        <v>178</v>
       </c>
       <c r="E479" s="11">
-        <v>76.8</v>
+        <v>77.7</v>
       </c>
       <c r="F479" s="11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
       </c>
       <c r="H479" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="J479" s="11">
-        <v>3.51</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -13557,11 +13544,11 @@
       <c r="C480" s="8">
         <v>45851</v>
       </c>
-      <c r="D480" s="16">
-        <v>70</v>
+      <c r="D480">
+        <v>83</v>
       </c>
       <c r="E480" s="11">
-        <v>75.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F480" s="11">
         <v>0</v>
@@ -13570,10 +13557,10 @@
         <v>0</v>
       </c>
       <c r="H480" s="11">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="J480" s="11">
-        <v>11.91</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13586,11 +13573,11 @@
       <c r="C481" s="8">
         <v>45852</v>
       </c>
-      <c r="D481" s="16">
-        <v>76</v>
+      <c r="D481">
+        <v>80</v>
       </c>
       <c r="E481" s="11">
-        <v>75.7</v>
+        <v>77.2</v>
       </c>
       <c r="F481" s="11">
         <v>0</v>
@@ -13599,10 +13586,10 @@
         <v>0</v>
       </c>
       <c r="H481" s="11">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="J481" s="11">
-        <v>10.48</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -13615,11 +13602,11 @@
       <c r="C482" s="8">
         <v>45853</v>
       </c>
-      <c r="D482" s="16">
-        <v>77</v>
+      <c r="D482">
+        <v>82</v>
       </c>
       <c r="E482" s="11">
-        <v>76.099999999999994</v>
+        <v>76.8</v>
       </c>
       <c r="F482" s="11">
         <v>0</v>
@@ -13628,10 +13615,10 @@
         <v>0</v>
       </c>
       <c r="H482" s="11">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J482" s="11">
-        <v>8.67</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13644,23 +13631,23 @@
       <c r="C483" s="8">
         <v>45854</v>
       </c>
-      <c r="D483" s="16">
+      <c r="D483">
         <v>79</v>
       </c>
       <c r="E483" s="11">
-        <v>75.5</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F483" s="11">
-        <v>0.13</v>
+        <v>0.65</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
       </c>
       <c r="H483" s="11">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="J483" s="11">
-        <v>17.309999999999999</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13673,23 +13660,23 @@
       <c r="C484" s="8">
         <v>45855</v>
       </c>
-      <c r="D484" s="16">
-        <v>82</v>
+      <c r="D484">
+        <v>107</v>
       </c>
       <c r="E484" s="11">
-        <v>74.5</v>
+        <v>75.2</v>
       </c>
       <c r="F484" s="11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
       </c>
       <c r="H484" s="11">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J484" s="11">
-        <v>13.07</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13702,8 +13689,8 @@
       <c r="C485" s="8">
         <v>45856</v>
       </c>
-      <c r="D485" s="16">
-        <v>132</v>
+      <c r="D485">
+        <v>133</v>
       </c>
       <c r="E485" s="11">
         <v>76</v>
@@ -13718,7 +13705,7 @@
         <v>13</v>
       </c>
       <c r="J485" s="11">
-        <v>7.64</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13731,14 +13718,14 @@
       <c r="C486" s="8">
         <v>45857</v>
       </c>
-      <c r="D486" s="16">
-        <v>170</v>
+      <c r="D486">
+        <v>169</v>
       </c>
       <c r="E486" s="11">
         <v>75</v>
       </c>
       <c r="F486" s="11">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -13747,7 +13734,7 @@
         <v>7</v>
       </c>
       <c r="J486" s="11">
-        <v>4.12</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13760,8 +13747,8 @@
       <c r="C487" s="8">
         <v>45858</v>
       </c>
-      <c r="D487" s="16">
-        <v>48</v>
+      <c r="D487">
+        <v>47</v>
       </c>
       <c r="E487" s="11">
         <v>69.5</v>
@@ -13776,7 +13763,7 @@
         <v>6</v>
       </c>
       <c r="J487" s="11">
-        <v>4.87</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13789,8 +13776,8 @@
       <c r="C488" s="8">
         <v>45859</v>
       </c>
-      <c r="D488" s="16">
-        <v>62</v>
+      <c r="D488">
+        <v>61</v>
       </c>
       <c r="E488" s="11">
         <v>69</v>
@@ -13805,7 +13792,7 @@
         <v>4</v>
       </c>
       <c r="J488" s="11">
-        <v>4.46</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13818,8 +13805,8 @@
       <c r="C489" s="8">
         <v>45860</v>
       </c>
-      <c r="D489" s="16">
-        <v>91</v>
+      <c r="D489">
+        <v>87</v>
       </c>
       <c r="E489" s="11">
         <v>74.5</v>
@@ -13834,7 +13821,7 @@
         <v>7</v>
       </c>
       <c r="J489" s="11">
-        <v>12.34</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13847,8 +13834,8 @@
       <c r="C490" s="8">
         <v>45861</v>
       </c>
-      <c r="D490" s="16">
-        <v>57</v>
+      <c r="D490">
+        <v>62</v>
       </c>
       <c r="E490" s="11">
         <v>76</v>
@@ -13863,7 +13850,7 @@
         <v>5</v>
       </c>
       <c r="J490" s="11">
-        <v>11.36</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13876,8 +13863,8 @@
       <c r="C491" s="8">
         <v>45862</v>
       </c>
-      <c r="D491" s="16">
-        <v>78</v>
+      <c r="D491">
+        <v>74</v>
       </c>
       <c r="E491" s="11">
         <v>73</v>
@@ -13892,7 +13879,7 @@
         <v>5</v>
       </c>
       <c r="J491" s="11">
-        <v>8.2200000000000006</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13905,8 +13892,8 @@
       <c r="C492" s="8">
         <v>45863</v>
       </c>
-      <c r="D492" s="16">
-        <v>188</v>
+      <c r="D492">
+        <v>184</v>
       </c>
       <c r="E492" s="11">
         <v>72</v>
@@ -13921,7 +13908,7 @@
         <v>7</v>
       </c>
       <c r="J492" s="11">
-        <v>10.050000000000001</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13934,8 +13921,8 @@
       <c r="C493" s="8">
         <v>45864</v>
       </c>
-      <c r="D493" s="16">
-        <v>188</v>
+      <c r="D493">
+        <v>183</v>
       </c>
       <c r="E493" s="11">
         <v>70</v>
@@ -13950,7 +13937,7 @@
         <v>5</v>
       </c>
       <c r="J493" s="11">
-        <v>3.65</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13963,8 +13950,8 @@
       <c r="C494" s="8">
         <v>45865</v>
       </c>
-      <c r="D494" s="16">
-        <v>68</v>
+      <c r="D494">
+        <v>61</v>
       </c>
       <c r="E494" s="11">
         <v>73.5</v>
@@ -13979,7 +13966,7 @@
         <v>9</v>
       </c>
       <c r="J494" s="11">
-        <v>11.37</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13992,8 +13979,8 @@
       <c r="C495" s="8">
         <v>45866</v>
       </c>
-      <c r="D495" s="16">
-        <v>64</v>
+      <c r="D495">
+        <v>61</v>
       </c>
       <c r="E495" s="11">
         <v>71</v>
@@ -14008,7 +13995,7 @@
         <v>10</v>
       </c>
       <c r="J495" s="11">
-        <v>11.43</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -14021,8 +14008,8 @@
       <c r="C496" s="8">
         <v>45867</v>
       </c>
-      <c r="D496" s="16">
-        <v>86</v>
+      <c r="D496">
+        <v>75</v>
       </c>
       <c r="E496" s="11">
         <v>73.5</v>
@@ -14037,7 +14024,7 @@
         <v>9</v>
       </c>
       <c r="J496" s="11">
-        <v>10.72</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -14050,8 +14037,8 @@
       <c r="C497" s="8">
         <v>45868</v>
       </c>
-      <c r="D497" s="16">
-        <v>137</v>
+      <c r="D497">
+        <v>139</v>
       </c>
       <c r="E497" s="11">
         <v>73</v>
@@ -14066,7 +14053,7 @@
         <v>8</v>
       </c>
       <c r="J497" s="11">
-        <v>12.93</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14079,8 +14066,8 @@
       <c r="C498" s="8">
         <v>45869</v>
       </c>
-      <c r="D498" s="16">
-        <v>169</v>
+      <c r="D498">
+        <v>159</v>
       </c>
       <c r="E498" s="11">
         <v>70</v>
@@ -14095,7 +14082,7 @@
         <v>9</v>
       </c>
       <c r="J498" s="11">
-        <v>7.75</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14108,8 +14095,8 @@
       <c r="C499" s="8">
         <v>45870</v>
       </c>
-      <c r="D499" s="16">
-        <v>175</v>
+      <c r="D499">
+        <v>172</v>
       </c>
       <c r="E499" s="11">
         <v>70</v>
@@ -14124,7 +14111,7 @@
         <v>8</v>
       </c>
       <c r="J499" s="11">
-        <v>8.0299999999999994</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14137,8 +14124,8 @@
       <c r="C500" s="8">
         <v>45871</v>
       </c>
-      <c r="D500" s="16">
-        <v>51</v>
+      <c r="D500">
+        <v>54</v>
       </c>
       <c r="E500" s="11">
         <v>69</v>
@@ -14153,7 +14140,7 @@
         <v>4</v>
       </c>
       <c r="J500" s="11">
-        <v>12.99</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14166,8 +14153,8 @@
       <c r="C501" s="8">
         <v>45872</v>
       </c>
-      <c r="D501" s="16">
-        <v>64</v>
+      <c r="D501">
+        <v>59</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14182,7 +14169,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>9.0299999999999994</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14195,8 +14182,8 @@
       <c r="C502" s="8">
         <v>45873</v>
       </c>
-      <c r="D502" s="16">
-        <v>68</v>
+      <c r="D502">
+        <v>70</v>
       </c>
       <c r="E502" s="11">
         <v>74.5</v>
@@ -14211,7 +14198,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>7.32</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14224,8 +14211,8 @@
       <c r="C503" s="8">
         <v>45874</v>
       </c>
-      <c r="D503" s="16">
-        <v>54</v>
+      <c r="D503">
+        <v>60</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14240,7 +14227,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>6.71</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14253,8 +14240,8 @@
       <c r="C504" s="8">
         <v>45875</v>
       </c>
-      <c r="D504" s="16">
-        <v>117</v>
+      <c r="D504">
+        <v>107</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14269,7 +14256,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>9.6300000000000008</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14282,8 +14269,8 @@
       <c r="C505" s="8">
         <v>45876</v>
       </c>
-      <c r="D505" s="16">
-        <v>140</v>
+      <c r="D505">
+        <v>124</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14298,7 +14285,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>13.69</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14311,8 +14298,8 @@
       <c r="C506" s="8">
         <v>45877</v>
       </c>
-      <c r="D506" s="16">
-        <v>186</v>
+      <c r="D506">
+        <v>181</v>
       </c>
       <c r="E506" s="11">
         <v>69.5</v>
@@ -14327,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14340,8 +14327,8 @@
       <c r="C507" s="8">
         <v>45878</v>
       </c>
-      <c r="D507" s="16">
-        <v>57</v>
+      <c r="D507">
+        <v>66</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14356,7 +14343,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>11.7</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14369,8 +14356,8 @@
       <c r="C508" s="8">
         <v>45879</v>
       </c>
-      <c r="D508" s="16">
-        <v>58</v>
+      <c r="D508">
+        <v>62</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
@@ -14385,7 +14372,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>8.42</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14398,8 +14385,8 @@
       <c r="C509" s="8">
         <v>45880</v>
       </c>
-      <c r="D509" s="16">
-        <v>60</v>
+      <c r="D509">
+        <v>58</v>
       </c>
       <c r="E509" s="11">
         <v>69.5</v>
@@ -14414,7 +14401,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>10.36</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14427,8 +14414,8 @@
       <c r="C510" s="8">
         <v>45881</v>
       </c>
-      <c r="D510" s="16">
-        <v>63</v>
+      <c r="D510">
+        <v>65</v>
       </c>
       <c r="E510" s="11">
         <v>71.5</v>
@@ -14443,7 +14430,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>6.76</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14456,8 +14443,8 @@
       <c r="C511" s="8">
         <v>45882</v>
       </c>
-      <c r="D511" s="16">
-        <v>81</v>
+      <c r="D511">
+        <v>77</v>
       </c>
       <c r="E511" s="11">
         <v>74</v>
@@ -14472,7 +14459,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>6.96</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14499,8 +14486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14604,7 +14591,7 @@
         <v>-45</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S18" si="3">O4/A4</f>
+        <f t="shared" ref="S4:S25" si="3">O4/A4</f>
         <v>0.71698113207547165</v>
       </c>
     </row>
@@ -14672,7 +14659,7 @@
         <v>12.17</v>
       </c>
       <c r="R6" s="30">
-        <f t="shared" ref="R6:R18" si="4">O6-A6</f>
+        <f t="shared" ref="R6:R25" si="4">O6-A6</f>
         <v>9</v>
       </c>
       <c r="S6">
@@ -15149,7 +15136,9 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="22">
+        <v>44</v>
+      </c>
       <c r="B19" s="26">
         <v>45844</v>
       </c>
@@ -15171,9 +15160,6 @@
       <c r="H19">
         <v>92</v>
       </c>
-      <c r="I19">
-        <v>67</v>
-      </c>
       <c r="J19">
         <v>97</v>
       </c>
@@ -15191,15 +15177,25 @@
       </c>
       <c r="O19" s="23">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" si="1"/>
-        <v>10.14</v>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="R19" s="30">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1.9772727272727273</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="22">
+        <v>52</v>
+      </c>
       <c r="B20" s="26">
         <v>45845</v>
       </c>
@@ -15221,9 +15217,6 @@
       <c r="H20">
         <v>72</v>
       </c>
-      <c r="I20">
-        <v>83</v>
-      </c>
       <c r="J20">
         <v>80</v>
       </c>
@@ -15241,15 +15234,25 @@
       </c>
       <c r="O20" s="23">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" si="1"/>
-        <v>18.559999999999999</v>
+        <v>18.75</v>
+      </c>
+      <c r="R20" s="30">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="22">
+        <v>68</v>
+      </c>
       <c r="B21" s="26">
         <v>45846</v>
       </c>
@@ -15271,9 +15274,6 @@
       <c r="H21">
         <v>60</v>
       </c>
-      <c r="I21">
-        <v>68</v>
-      </c>
       <c r="J21">
         <v>68</v>
       </c>
@@ -15291,15 +15291,25 @@
       </c>
       <c r="O21" s="23">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="1"/>
-        <v>6.53</v>
+        <v>6.52</v>
+      </c>
+      <c r="R21" s="30">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="22">
+        <v>64</v>
+      </c>
       <c r="B22" s="26">
         <v>45847</v>
       </c>
@@ -15321,9 +15331,6 @@
       <c r="H22">
         <v>95</v>
       </c>
-      <c r="I22">
-        <v>101</v>
-      </c>
       <c r="J22">
         <v>104</v>
       </c>
@@ -15341,15 +15348,25 @@
       </c>
       <c r="O22" s="23">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" si="1"/>
-        <v>17.97</v>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>1.328125</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="22">
+        <v>85</v>
+      </c>
       <c r="B23" s="26">
         <v>45848</v>
       </c>
@@ -15371,9 +15388,6 @@
       <c r="H23">
         <v>110</v>
       </c>
-      <c r="I23">
-        <v>153</v>
-      </c>
       <c r="J23">
         <v>137</v>
       </c>
@@ -15391,111 +15405,139 @@
       </c>
       <c r="O23" s="23">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="1"/>
-        <v>22.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="26">
+        <v>20.82</v>
+      </c>
+      <c r="R23" s="30">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>1.3529411764705883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34">
+        <v>146</v>
+      </c>
+      <c r="B24" s="35">
         <v>45849</v>
       </c>
-      <c r="C24" s="18">
-        <v>179</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="36">
+        <v>135</v>
+      </c>
+      <c r="D24" s="37">
+        <v>195</v>
+      </c>
+      <c r="E24" s="37">
+        <v>134</v>
+      </c>
+      <c r="F24" s="37">
+        <v>193</v>
+      </c>
+      <c r="G24" s="37">
+        <v>204</v>
+      </c>
+      <c r="H24" s="37">
+        <v>176</v>
+      </c>
+      <c r="I24" s="37">
+        <v>180</v>
+      </c>
+      <c r="J24" s="37">
+        <v>219</v>
+      </c>
+      <c r="K24" s="37">
+        <v>144</v>
+      </c>
+      <c r="L24" s="37">
+        <v>192</v>
+      </c>
+      <c r="M24" s="37">
+        <v>128</v>
+      </c>
+      <c r="N24" s="37">
+        <v>214</v>
+      </c>
+      <c r="O24" s="38">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="P24" s="38">
+        <f t="shared" si="1"/>
+        <v>28.78</v>
+      </c>
+      <c r="R24" s="39">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S24" s="37">
+        <f t="shared" si="3"/>
+        <v>1.2054794520547945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>178</v>
       </c>
-      <c r="E24">
-        <v>209</v>
-      </c>
-      <c r="F24">
-        <v>152</v>
-      </c>
-      <c r="G24">
-        <v>178</v>
-      </c>
-      <c r="H24">
-        <v>208</v>
-      </c>
-      <c r="I24">
-        <v>202</v>
-      </c>
-      <c r="J24">
-        <v>229</v>
-      </c>
-      <c r="K24">
-        <v>174</v>
-      </c>
-      <c r="L24">
-        <v>206</v>
-      </c>
-      <c r="M24">
-        <v>192</v>
-      </c>
-      <c r="N24">
-        <v>171</v>
-      </c>
-      <c r="O24" s="23">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="P24" s="23">
-        <f t="shared" si="1"/>
-        <v>20.309999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
       <c r="B25" s="26">
         <v>45850</v>
       </c>
       <c r="C25" s="18">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D25">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>175</v>
+      </c>
+      <c r="F25">
+        <v>158</v>
+      </c>
+      <c r="G25">
+        <v>172</v>
+      </c>
+      <c r="H25">
+        <v>159</v>
+      </c>
+      <c r="I25">
+        <v>169</v>
+      </c>
+      <c r="J25">
+        <v>183</v>
+      </c>
+      <c r="K25">
+        <v>173</v>
+      </c>
+      <c r="L25">
+        <v>182</v>
+      </c>
+      <c r="M25">
+        <v>151</v>
+      </c>
+      <c r="N25">
         <v>165</v>
-      </c>
-      <c r="E25">
-        <v>166</v>
-      </c>
-      <c r="F25">
-        <v>162</v>
-      </c>
-      <c r="G25">
-        <v>162</v>
-      </c>
-      <c r="H25">
-        <v>157</v>
-      </c>
-      <c r="I25">
-        <v>161</v>
-      </c>
-      <c r="J25">
-        <v>163</v>
-      </c>
-      <c r="K25">
-        <v>162</v>
-      </c>
-      <c r="L25">
-        <v>158</v>
-      </c>
-      <c r="M25">
-        <v>170</v>
-      </c>
-      <c r="N25">
-        <v>158</v>
       </c>
       <c r="O25" s="23">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P25" s="23">
         <f t="shared" si="1"/>
-        <v>3.51</v>
+        <v>9.18</v>
+      </c>
+      <c r="R25" s="39">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="S25" s="37">
+        <f t="shared" si="3"/>
+        <v>0.949438202247191</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -15504,48 +15546,48 @@
         <v>45851</v>
       </c>
       <c r="C26" s="18">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E26">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F26">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G26">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H26">
         <v>79</v>
       </c>
       <c r="I26">
+        <v>86</v>
+      </c>
+      <c r="J26">
+        <v>70</v>
+      </c>
+      <c r="K26">
+        <v>79</v>
+      </c>
+      <c r="L26">
+        <v>78</v>
+      </c>
+      <c r="M26">
         <v>84</v>
       </c>
-      <c r="J26">
-        <v>77</v>
-      </c>
-      <c r="K26">
-        <v>57</v>
-      </c>
-      <c r="L26">
-        <v>68</v>
-      </c>
-      <c r="M26">
-        <v>72</v>
-      </c>
       <c r="N26">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="O26" s="23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" si="1"/>
-        <v>11.91</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -15554,48 +15596,48 @@
         <v>45852</v>
       </c>
       <c r="C27" s="18">
+        <v>78</v>
+      </c>
+      <c r="D27">
         <v>85</v>
       </c>
-      <c r="D27">
-        <v>80</v>
-      </c>
       <c r="E27">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="F27">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J27">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L27">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N27">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="O27" s="23">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" si="1"/>
-        <v>10.48</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -15604,48 +15646,48 @@
         <v>45853</v>
       </c>
       <c r="C28" s="18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="F28">
         <v>78</v>
       </c>
       <c r="G28">
+        <v>85</v>
+      </c>
+      <c r="H28">
+        <v>72</v>
+      </c>
+      <c r="I28">
         <v>79</v>
       </c>
-      <c r="H28">
-        <v>81</v>
-      </c>
-      <c r="I28">
-        <v>76</v>
-      </c>
       <c r="J28">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="L28">
+        <v>87</v>
+      </c>
+      <c r="M28">
+        <v>79</v>
+      </c>
+      <c r="N28">
         <v>86</v>
-      </c>
-      <c r="M28">
-        <v>91</v>
-      </c>
-      <c r="N28">
-        <v>73</v>
       </c>
       <c r="O28" s="23">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="1"/>
-        <v>8.67</v>
+        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -15654,40 +15696,40 @@
         <v>45854</v>
       </c>
       <c r="C29" s="18">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D29">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E29">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F29">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G29">
+        <v>89</v>
+      </c>
+      <c r="H29">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>83</v>
+      </c>
+      <c r="J29">
+        <v>92</v>
+      </c>
+      <c r="K29">
+        <v>68</v>
+      </c>
+      <c r="L29">
+        <v>86</v>
+      </c>
+      <c r="M29">
+        <v>78</v>
+      </c>
+      <c r="N29">
         <v>87</v>
-      </c>
-      <c r="H29">
-        <v>65</v>
-      </c>
-      <c r="I29">
-        <v>90</v>
-      </c>
-      <c r="J29">
-        <v>80</v>
-      </c>
-      <c r="K29">
-        <v>49</v>
-      </c>
-      <c r="L29">
-        <v>83</v>
-      </c>
-      <c r="M29">
-        <v>122</v>
-      </c>
-      <c r="N29">
-        <v>93</v>
       </c>
       <c r="O29" s="23">
         <f t="shared" si="0"/>
@@ -15695,7 +15737,7 @@
       </c>
       <c r="P29" s="23">
         <f t="shared" si="1"/>
-        <v>17.309999999999999</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -15704,48 +15746,48 @@
         <v>45855</v>
       </c>
       <c r="C30" s="18">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>114</v>
+      </c>
+      <c r="F30">
+        <v>90</v>
+      </c>
+      <c r="G30">
         <v>102</v>
       </c>
-      <c r="E30">
-        <v>61</v>
-      </c>
-      <c r="F30">
-        <v>96</v>
-      </c>
-      <c r="G30">
-        <v>89</v>
-      </c>
       <c r="H30">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I30">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="J30">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K30">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="L30">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="M30">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="N30">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="1"/>
-        <v>13.07</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -15754,48 +15796,48 @@
         <v>45856</v>
       </c>
       <c r="C31" s="18">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E31">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F31">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G31">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H31">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="I31">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J31">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K31">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L31">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="M31">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="N31">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O31" s="23">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="1"/>
-        <v>7.64</v>
+        <v>14.37</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -15804,48 +15846,48 @@
         <v>45857</v>
       </c>
       <c r="C32" s="18">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D32">
+        <v>167</v>
+      </c>
+      <c r="E32">
+        <v>171</v>
+      </c>
+      <c r="F32">
+        <v>169</v>
+      </c>
+      <c r="G32">
+        <v>169</v>
+      </c>
+      <c r="H32">
+        <v>171</v>
+      </c>
+      <c r="I32">
+        <v>179</v>
+      </c>
+      <c r="J32">
+        <v>164</v>
+      </c>
+      <c r="K32">
         <v>176</v>
       </c>
-      <c r="E32">
-        <v>175</v>
-      </c>
-      <c r="F32">
+      <c r="L32">
+        <v>167</v>
+      </c>
+      <c r="M32">
+        <v>155</v>
+      </c>
+      <c r="N32">
         <v>170</v>
-      </c>
-      <c r="G32">
-        <v>172</v>
-      </c>
-      <c r="H32">
-        <v>172</v>
-      </c>
-      <c r="I32">
-        <v>168</v>
-      </c>
-      <c r="J32">
-        <v>168</v>
-      </c>
-      <c r="K32">
-        <v>165</v>
-      </c>
-      <c r="L32">
-        <v>168</v>
-      </c>
-      <c r="M32">
-        <v>165</v>
-      </c>
-      <c r="N32">
-        <v>161</v>
       </c>
       <c r="O32" s="23">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P32" s="23">
         <f t="shared" si="1"/>
-        <v>4.12</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -15854,48 +15896,48 @@
         <v>45858</v>
       </c>
       <c r="C33" s="18">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E33">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>45</v>
       </c>
       <c r="G33">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H33">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <v>48</v>
+      </c>
+      <c r="J33">
+        <v>45</v>
+      </c>
+      <c r="K33">
         <v>52</v>
       </c>
-      <c r="I33">
-        <v>37</v>
-      </c>
-      <c r="J33">
-        <v>49</v>
-      </c>
-      <c r="K33">
+      <c r="L33">
+        <v>54</v>
+      </c>
+      <c r="M33">
         <v>55</v>
       </c>
-      <c r="L33">
-        <v>49</v>
-      </c>
-      <c r="M33">
-        <v>41</v>
-      </c>
       <c r="N33">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O33" s="23">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" si="1"/>
-        <v>4.87</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -15904,48 +15946,48 @@
         <v>45859</v>
       </c>
       <c r="C34" s="18">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>62</v>
+      </c>
+      <c r="I34">
         <v>56</v>
       </c>
-      <c r="H34">
-        <v>60</v>
-      </c>
-      <c r="I34">
-        <v>66</v>
-      </c>
       <c r="J34">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L34">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N34">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O34" s="23">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P34" s="23">
         <f t="shared" si="1"/>
-        <v>4.46</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -15954,48 +15996,48 @@
         <v>45860</v>
       </c>
       <c r="C35" s="18">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>77</v>
+      </c>
+      <c r="E35">
+        <v>101</v>
+      </c>
+      <c r="F35">
         <v>81</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>92</v>
       </c>
-      <c r="E35">
-        <v>94</v>
-      </c>
-      <c r="F35">
-        <v>68</v>
-      </c>
-      <c r="G35">
-        <v>87</v>
-      </c>
       <c r="H35">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>108</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>78</v>
+      </c>
+      <c r="M35">
+        <v>85</v>
+      </c>
+      <c r="N35">
         <v>103</v>
-      </c>
-      <c r="J35">
-        <v>101</v>
-      </c>
-      <c r="K35">
-        <v>99</v>
-      </c>
-      <c r="L35">
-        <v>110</v>
-      </c>
-      <c r="M35">
-        <v>102</v>
-      </c>
-      <c r="N35">
-        <v>88</v>
       </c>
       <c r="O35" s="23">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="1"/>
-        <v>12.34</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -16004,48 +16046,48 @@
         <v>45861</v>
       </c>
       <c r="C36" s="18">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>63</v>
       </c>
       <c r="F36">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G36">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H36">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I36">
         <v>66</v>
       </c>
       <c r="J36">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L36">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N36">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="O36" s="23">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P36" s="23">
         <f t="shared" si="1"/>
-        <v>11.36</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -16054,48 +16096,48 @@
         <v>45862</v>
       </c>
       <c r="C37" s="18">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E37">
+        <v>72</v>
+      </c>
+      <c r="F37">
         <v>63</v>
       </c>
-      <c r="F37">
-        <v>95</v>
-      </c>
       <c r="G37">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H37">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I37">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J37">
         <v>80</v>
       </c>
       <c r="K37">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="L37">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="N37">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="1"/>
-        <v>8.2200000000000006</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -16104,48 +16146,48 @@
         <v>45863</v>
       </c>
       <c r="C38" s="18">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" s="18">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E38" s="18">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="F38" s="18">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G38" s="18">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H38" s="22">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I38" s="18">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J38" s="18">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K38" s="18">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L38" s="18">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M38" s="18">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="N38" s="19">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O38" s="23">
         <f t="shared" ref="O38:O57" si="5">ROUND(AVERAGE(C38:N38),0)</f>
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>10.050000000000001</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -16154,48 +16196,48 @@
         <v>45864</v>
       </c>
       <c r="C39" s="18">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D39" s="18">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="18">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F39" s="18">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="G39" s="18">
         <v>188</v>
       </c>
       <c r="H39" s="22">
+        <v>168</v>
+      </c>
+      <c r="I39" s="18">
+        <v>191</v>
+      </c>
+      <c r="J39" s="18">
+        <v>197</v>
+      </c>
+      <c r="K39" s="18">
         <v>185</v>
       </c>
-      <c r="I39" s="18">
-        <v>186</v>
-      </c>
-      <c r="J39" s="18">
-        <v>181</v>
-      </c>
-      <c r="K39" s="18">
-        <v>187</v>
-      </c>
       <c r="L39" s="18">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M39" s="18">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="N39" s="19">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O39" s="23">
         <f t="shared" si="5"/>
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" ref="P39:P57" si="6">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>3.65</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -16204,48 +16246,48 @@
         <v>45865</v>
       </c>
       <c r="C40" s="18">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D40" s="18">
+        <v>58</v>
+      </c>
+      <c r="E40" s="18">
+        <v>65</v>
+      </c>
+      <c r="F40" s="18">
+        <v>59</v>
+      </c>
+      <c r="G40" s="18">
         <v>68</v>
       </c>
-      <c r="E40" s="18">
-        <v>63</v>
-      </c>
-      <c r="F40" s="18">
-        <v>52</v>
-      </c>
-      <c r="G40" s="18">
-        <v>67</v>
-      </c>
       <c r="H40" s="22">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I40" s="18">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J40" s="18">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="K40" s="18">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="L40" s="18">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="M40" s="18">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="N40" s="19">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O40" s="23">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" si="6"/>
-        <v>11.37</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -16254,48 +16296,48 @@
         <v>45866</v>
       </c>
       <c r="C41" s="18">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D41" s="18">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E41" s="18">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F41" s="18">
+        <v>58</v>
+      </c>
+      <c r="G41" s="18">
         <v>67</v>
       </c>
-      <c r="G41" s="18">
-        <v>52</v>
-      </c>
       <c r="H41" s="22">
+        <v>63</v>
+      </c>
+      <c r="I41" s="18">
+        <v>61</v>
+      </c>
+      <c r="J41" s="18">
+        <v>50</v>
+      </c>
+      <c r="K41" s="18">
+        <v>63</v>
+      </c>
+      <c r="L41" s="18">
+        <v>53</v>
+      </c>
+      <c r="M41" s="18">
         <v>62</v>
       </c>
-      <c r="I41" s="18">
-        <v>65</v>
-      </c>
-      <c r="J41" s="18">
-        <v>67</v>
-      </c>
-      <c r="K41" s="18">
-        <v>71</v>
-      </c>
-      <c r="L41" s="18">
-        <v>83</v>
-      </c>
-      <c r="M41" s="18">
-        <v>33</v>
-      </c>
       <c r="N41" s="19">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O41" s="23">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="6"/>
-        <v>11.43</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -16304,48 +16346,48 @@
         <v>45867</v>
       </c>
       <c r="C42" s="18">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D42" s="18">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E42" s="18">
+        <v>82</v>
+      </c>
+      <c r="F42" s="18">
+        <v>52</v>
+      </c>
+      <c r="G42" s="18">
+        <v>78</v>
+      </c>
+      <c r="H42" s="22">
+        <v>99</v>
+      </c>
+      <c r="I42" s="18">
+        <v>70</v>
+      </c>
+      <c r="J42" s="18">
+        <v>51</v>
+      </c>
+      <c r="K42" s="18">
+        <v>77</v>
+      </c>
+      <c r="L42" s="18">
         <v>88</v>
       </c>
-      <c r="F42" s="18">
-        <v>80</v>
-      </c>
-      <c r="G42" s="18">
-        <v>84</v>
-      </c>
-      <c r="H42" s="22">
-        <v>94</v>
-      </c>
-      <c r="I42" s="18">
-        <v>76</v>
-      </c>
-      <c r="J42" s="18">
-        <v>74</v>
-      </c>
-      <c r="K42" s="18">
-        <v>98</v>
-      </c>
-      <c r="L42" s="18">
-        <v>69</v>
-      </c>
       <c r="M42" s="18">
+        <v>68</v>
+      </c>
+      <c r="N42" s="19">
         <v>87</v>
-      </c>
-      <c r="N42" s="19">
-        <v>58</v>
       </c>
       <c r="O42" s="23">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="P42" s="23">
         <f t="shared" si="6"/>
-        <v>10.72</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -16354,48 +16396,48 @@
         <v>45868</v>
       </c>
       <c r="C43" s="18">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D43" s="18">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E43" s="18">
+        <v>139</v>
+      </c>
+      <c r="F43" s="18">
+        <v>144</v>
+      </c>
+      <c r="G43" s="18">
+        <v>140</v>
+      </c>
+      <c r="H43" s="22">
+        <v>115</v>
+      </c>
+      <c r="I43" s="18">
+        <v>159</v>
+      </c>
+      <c r="J43" s="18">
+        <v>136</v>
+      </c>
+      <c r="K43" s="18">
+        <v>137</v>
+      </c>
+      <c r="L43" s="18">
+        <v>141</v>
+      </c>
+      <c r="M43" s="18">
+        <v>134</v>
+      </c>
+      <c r="N43" s="19">
         <v>145</v>
-      </c>
-      <c r="F43" s="18">
-        <v>104</v>
-      </c>
-      <c r="G43" s="18">
-        <v>144</v>
-      </c>
-      <c r="H43" s="22">
-        <v>145</v>
-      </c>
-      <c r="I43" s="18">
-        <v>131</v>
-      </c>
-      <c r="J43" s="18">
-        <v>139</v>
-      </c>
-      <c r="K43" s="18">
-        <v>121</v>
-      </c>
-      <c r="L43" s="18">
-        <v>148</v>
-      </c>
-      <c r="M43" s="18">
-        <v>151</v>
-      </c>
-      <c r="N43" s="19">
-        <v>125</v>
       </c>
       <c r="O43" s="23">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="6"/>
-        <v>12.93</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -16404,48 +16446,48 @@
         <v>45869</v>
       </c>
       <c r="C44" s="18">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D44" s="18">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E44" s="18">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F44" s="18">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G44" s="18">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H44" s="22">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I44" s="18">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="J44" s="18">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K44" s="18">
         <v>166</v>
       </c>
       <c r="L44" s="18">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M44" s="18">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="N44" s="19">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O44" s="23">
         <f t="shared" si="5"/>
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="6"/>
-        <v>7.75</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -16454,48 +16496,48 @@
         <v>45870</v>
       </c>
       <c r="C45" s="18">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D45" s="18">
+        <v>164</v>
+      </c>
+      <c r="E45" s="18">
+        <v>174</v>
+      </c>
+      <c r="F45" s="18">
+        <v>174</v>
+      </c>
+      <c r="G45" s="18">
         <v>173</v>
       </c>
-      <c r="E45" s="18">
-        <v>179</v>
-      </c>
-      <c r="F45" s="18">
-        <v>183</v>
-      </c>
-      <c r="G45" s="18">
-        <v>171</v>
-      </c>
       <c r="H45" s="22">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="I45" s="18">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="J45" s="18">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K45" s="18">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L45" s="18">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M45" s="18">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="N45" s="19">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="O45" s="23">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P45" s="23">
         <f t="shared" si="6"/>
-        <v>8.0299999999999994</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -16504,48 +16546,48 @@
         <v>45871</v>
       </c>
       <c r="C46" s="18">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D46" s="18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E46" s="18">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F46" s="18">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G46" s="18">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H46" s="22">
+        <v>63</v>
+      </c>
+      <c r="I46" s="18">
+        <v>66</v>
+      </c>
+      <c r="J46" s="18">
         <v>55</v>
       </c>
-      <c r="I46" s="18">
-        <v>29</v>
-      </c>
-      <c r="J46" s="18">
+      <c r="K46" s="18">
         <v>57</v>
-      </c>
-      <c r="K46" s="18">
-        <v>52</v>
       </c>
       <c r="L46" s="18">
         <v>63</v>
       </c>
       <c r="M46" s="18">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N46" s="19">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="O46" s="23">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P46" s="23">
         <f t="shared" si="6"/>
-        <v>12.99</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -16557,45 +16599,45 @@
         <v>69</v>
       </c>
       <c r="D47" s="18">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E47" s="18">
         <v>60</v>
       </c>
       <c r="F47" s="18">
+        <v>53</v>
+      </c>
+      <c r="G47" s="18">
+        <v>58</v>
+      </c>
+      <c r="H47" s="22">
+        <v>54</v>
+      </c>
+      <c r="I47" s="18">
+        <v>46</v>
+      </c>
+      <c r="J47" s="18">
+        <v>68</v>
+      </c>
+      <c r="K47" s="18">
+        <v>62</v>
+      </c>
+      <c r="L47" s="18">
+        <v>59</v>
+      </c>
+      <c r="M47" s="18">
+        <v>58</v>
+      </c>
+      <c r="N47" s="19">
         <v>61</v>
-      </c>
-      <c r="G47" s="18">
-        <v>72</v>
-      </c>
-      <c r="H47" s="22">
-        <v>58</v>
-      </c>
-      <c r="I47" s="18">
-        <v>73</v>
-      </c>
-      <c r="J47" s="18">
-        <v>50</v>
-      </c>
-      <c r="K47" s="18">
-        <v>71</v>
-      </c>
-      <c r="L47" s="18">
-        <v>56</v>
-      </c>
-      <c r="M47" s="18">
-        <v>51</v>
-      </c>
-      <c r="N47" s="19">
-        <v>60</v>
       </c>
       <c r="O47" s="23">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" si="6"/>
-        <v>9.0299999999999994</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -16607,45 +16649,45 @@
         <v>75</v>
       </c>
       <c r="D48" s="18">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E48" s="18">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F48" s="18">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G48" s="18">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H48" s="22">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I48" s="18">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J48" s="18">
         <v>62</v>
       </c>
       <c r="K48" s="18">
+        <v>69</v>
+      </c>
+      <c r="L48" s="18">
         <v>71</v>
       </c>
-      <c r="L48" s="18">
+      <c r="M48" s="18">
         <v>63</v>
       </c>
-      <c r="M48" s="18">
-        <v>69</v>
-      </c>
       <c r="N48" s="19">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="O48" s="23">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" si="6"/>
-        <v>7.32</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -16654,48 +16696,48 @@
         <v>45874</v>
       </c>
       <c r="C49" s="18">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D49" s="18">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49" s="18">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F49" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G49" s="18">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H49" s="22">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I49" s="18">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J49" s="18">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K49" s="18">
         <v>59</v>
       </c>
       <c r="L49" s="18">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M49" s="18">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N49" s="19">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="O49" s="23">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P49" s="23">
         <f t="shared" si="6"/>
-        <v>6.71</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -16704,48 +16746,48 @@
         <v>45875</v>
       </c>
       <c r="C50" s="18">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D50" s="18">
+        <v>110</v>
+      </c>
+      <c r="E50" s="18">
+        <v>111</v>
+      </c>
+      <c r="F50" s="18">
+        <v>114</v>
+      </c>
+      <c r="G50" s="18">
+        <v>111</v>
+      </c>
+      <c r="H50" s="22">
         <v>115</v>
       </c>
-      <c r="E50" s="18">
-        <v>128</v>
-      </c>
-      <c r="F50" s="18">
+      <c r="I50" s="18">
+        <v>95</v>
+      </c>
+      <c r="J50" s="18">
+        <v>95</v>
+      </c>
+      <c r="K50" s="18">
+        <v>108</v>
+      </c>
+      <c r="L50" s="18">
+        <v>119</v>
+      </c>
+      <c r="M50" s="18">
         <v>98</v>
       </c>
-      <c r="G50" s="18">
-        <v>105</v>
-      </c>
-      <c r="H50" s="22">
-        <v>124</v>
-      </c>
-      <c r="I50" s="18">
-        <v>130</v>
-      </c>
-      <c r="J50" s="18">
-        <v>112</v>
-      </c>
-      <c r="K50" s="18">
-        <v>112</v>
-      </c>
-      <c r="L50" s="18">
-        <v>106</v>
-      </c>
-      <c r="M50" s="18">
-        <v>110</v>
-      </c>
       <c r="N50" s="19">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="O50" s="23">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="P50" s="23">
         <f t="shared" si="6"/>
-        <v>9.6300000000000008</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -16754,48 +16796,48 @@
         <v>45876</v>
       </c>
       <c r="C51" s="18">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D51" s="18">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E51" s="18">
+        <v>124</v>
+      </c>
+      <c r="F51" s="18">
+        <v>119</v>
+      </c>
+      <c r="G51" s="18">
+        <v>129</v>
+      </c>
+      <c r="H51" s="22">
+        <v>116</v>
+      </c>
+      <c r="I51" s="18">
+        <v>133</v>
+      </c>
+      <c r="J51" s="18">
+        <v>123</v>
+      </c>
+      <c r="K51" s="18">
+        <v>139</v>
+      </c>
+      <c r="L51" s="18">
+        <v>118</v>
+      </c>
+      <c r="M51" s="18">
+        <v>108</v>
+      </c>
+      <c r="N51" s="19">
         <v>120</v>
-      </c>
-      <c r="F51" s="18">
-        <v>176</v>
-      </c>
-      <c r="G51" s="18">
-        <v>134</v>
-      </c>
-      <c r="H51" s="22">
-        <v>125</v>
-      </c>
-      <c r="I51" s="18">
-        <v>130</v>
-      </c>
-      <c r="J51" s="18">
-        <v>136</v>
-      </c>
-      <c r="K51" s="18">
-        <v>134</v>
-      </c>
-      <c r="L51" s="18">
-        <v>144</v>
-      </c>
-      <c r="M51" s="18">
-        <v>126</v>
-      </c>
-      <c r="N51" s="19">
-        <v>131</v>
       </c>
       <c r="O51" s="23">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="P51" s="23">
         <f t="shared" si="6"/>
-        <v>13.69</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -16804,48 +16846,48 @@
         <v>45877</v>
       </c>
       <c r="C52" s="18">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D52" s="18">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" s="18">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F52" s="18">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="G52" s="18">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H52" s="22">
         <v>174</v>
       </c>
       <c r="I52" s="18">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J52" s="18">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K52" s="18">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L52" s="18">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M52" s="18">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="N52" s="19">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O52" s="23">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P52" s="23">
         <f t="shared" si="6"/>
-        <v>5.96</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -16854,48 +16896,48 @@
         <v>45878</v>
       </c>
       <c r="C53" s="18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D53" s="18">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E53" s="18">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F53" s="18">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G53" s="18">
+        <v>59</v>
+      </c>
+      <c r="H53" s="22">
+        <v>77</v>
+      </c>
+      <c r="I53" s="18">
+        <v>48</v>
+      </c>
+      <c r="J53" s="18">
+        <v>77</v>
+      </c>
+      <c r="K53" s="18">
         <v>72</v>
       </c>
-      <c r="H53" s="22">
-        <v>62</v>
-      </c>
-      <c r="I53" s="18">
-        <v>56</v>
-      </c>
-      <c r="J53" s="18">
-        <v>58</v>
-      </c>
-      <c r="K53" s="18">
-        <v>49</v>
-      </c>
       <c r="L53" s="18">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="M53" s="18">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N53" s="19">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="O53" s="23">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="6"/>
-        <v>11.7</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -16904,48 +16946,48 @@
         <v>45879</v>
       </c>
       <c r="C54" s="18">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D54" s="18">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E54" s="18">
+        <v>60</v>
+      </c>
+      <c r="F54" s="18">
+        <v>43</v>
+      </c>
+      <c r="G54" s="18">
+        <v>69</v>
+      </c>
+      <c r="H54" s="22">
+        <v>69</v>
+      </c>
+      <c r="I54" s="18">
+        <v>70</v>
+      </c>
+      <c r="J54" s="18">
+        <v>86</v>
+      </c>
+      <c r="K54" s="18">
+        <v>60</v>
+      </c>
+      <c r="L54" s="18">
         <v>59</v>
       </c>
-      <c r="F54" s="18">
-        <v>42</v>
-      </c>
-      <c r="G54" s="18">
-        <v>52</v>
-      </c>
-      <c r="H54" s="22">
-        <v>71</v>
-      </c>
-      <c r="I54" s="18">
-        <v>59</v>
-      </c>
-      <c r="J54" s="18">
-        <v>56</v>
-      </c>
-      <c r="K54" s="18">
-        <v>62</v>
-      </c>
-      <c r="L54" s="18">
-        <v>52</v>
-      </c>
       <c r="M54" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N54" s="19">
         <v>54</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="6"/>
-        <v>8.42</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -16954,48 +16996,48 @@
         <v>45880</v>
       </c>
       <c r="C55" s="18">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D55" s="18">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E55" s="18">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F55" s="18">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G55" s="18">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H55" s="22">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I55" s="18">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J55" s="18">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K55" s="18">
         <v>55</v>
       </c>
       <c r="L55" s="18">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M55" s="18">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N55" s="19">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O55" s="23">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="6"/>
-        <v>10.36</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -17010,42 +17052,42 @@
         <v>61</v>
       </c>
       <c r="E56" s="18">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="18">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G56" s="18">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H56" s="22">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I56" s="18">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J56" s="18">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K56" s="18">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="L56" s="18">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M56" s="18">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N56" s="19">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O56" s="23">
         <f t="shared" si="5"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" si="6"/>
-        <v>6.76</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17054,48 +17096,48 @@
         <v>45882</v>
       </c>
       <c r="C57" s="27">
+        <v>77</v>
+      </c>
+      <c r="D57" s="20">
+        <v>75</v>
+      </c>
+      <c r="E57" s="20">
+        <v>76</v>
+      </c>
+      <c r="F57" s="20">
+        <v>66</v>
+      </c>
+      <c r="G57" s="20">
+        <v>78</v>
+      </c>
+      <c r="H57" s="25">
         <v>81</v>
-      </c>
-      <c r="D57" s="20">
-        <v>83</v>
-      </c>
-      <c r="E57" s="20">
-        <v>69</v>
-      </c>
-      <c r="F57" s="20">
-        <v>99</v>
-      </c>
-      <c r="G57" s="20">
-        <v>80</v>
-      </c>
-      <c r="H57" s="25">
-        <v>80</v>
       </c>
       <c r="I57" s="20">
         <v>77</v>
       </c>
       <c r="J57" s="20">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K57" s="20">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L57" s="20">
         <v>84</v>
       </c>
       <c r="M57" s="20">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N57" s="28">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="O57" s="24">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P57" s="24">
         <f t="shared" si="6"/>
-        <v>6.96</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -17104,48 +17146,48 @@
         <v>40</v>
       </c>
       <c r="C58" s="18">
-        <v>28.99</v>
+        <v>27.99</v>
       </c>
       <c r="D58" s="18">
-        <v>33.33</v>
+        <v>25</v>
       </c>
       <c r="E58" s="18">
-        <v>31.88</v>
+        <v>25.1</v>
       </c>
       <c r="F58" s="18">
-        <v>27.54</v>
+        <v>23.61</v>
       </c>
       <c r="G58" s="18">
-        <v>29.58</v>
+        <v>23.38</v>
       </c>
       <c r="H58" s="22">
-        <v>26.76</v>
+        <v>23.61</v>
       </c>
       <c r="I58" s="18">
-        <v>25.35</v>
+        <v>23.61</v>
       </c>
       <c r="J58" s="18">
-        <v>25.35</v>
+        <v>25</v>
       </c>
       <c r="K58" s="18">
-        <v>28.57</v>
+        <v>23.51</v>
       </c>
       <c r="L58" s="18">
-        <v>26.76</v>
+        <v>23.61</v>
       </c>
       <c r="M58" s="18">
-        <v>25.35</v>
+        <v>26.39</v>
       </c>
       <c r="N58" s="19">
-        <v>27.14</v>
+        <v>29.17</v>
       </c>
       <c r="O58" s="23">
         <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>28.05</v>
+        <v>25</v>
       </c>
       <c r="P58" s="23">
         <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -17154,48 +17196,48 @@
         <v>41</v>
       </c>
       <c r="C59" s="18">
-        <v>31.5</v>
+        <v>29.61</v>
       </c>
       <c r="D59" s="18">
-        <v>28.97</v>
+        <v>34.6</v>
       </c>
       <c r="E59" s="18">
-        <v>27.38</v>
+        <v>26.46</v>
       </c>
       <c r="F59" s="18">
-        <v>35.72</v>
+        <v>29.1</v>
       </c>
       <c r="G59" s="18">
-        <v>31.32</v>
+        <v>32.94</v>
       </c>
       <c r="H59" s="22">
-        <v>34.130000000000003</v>
+        <v>28.69</v>
       </c>
       <c r="I59" s="18">
-        <v>30.58</v>
+        <v>30.29</v>
       </c>
       <c r="J59" s="18">
-        <v>27.72</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="K59" s="18">
-        <v>25.8</v>
+        <v>29.16</v>
       </c>
       <c r="L59" s="18">
-        <v>25.62</v>
+        <v>34.89</v>
       </c>
       <c r="M59" s="18">
-        <v>31.59</v>
+        <v>28.78</v>
       </c>
       <c r="N59" s="18">
-        <v>23.54</v>
+        <v>29.39</v>
       </c>
       <c r="O59" s="23">
         <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>29.49</v>
+        <v>30.7</v>
       </c>
       <c r="P59" s="23">
         <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>3.58</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17215,12 +17257,15 @@
     <cfRule type="aboveAverage" dxfId="2" priority="2"/>
     <cfRule type="aboveAverage" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R18">
+  <conditionalFormatting sqref="R3:R25">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="O25" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45322F00-9CB5-4B88-9436-BF5DE32AF6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D220821-5986-4D74-836C-F76EAE6F1A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,12 +202,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -468,6 +474,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,7 +490,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -489,7 +501,97 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -557,6 +659,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -858,9 +965,9 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J479" sqref="J478:J479"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J483" sqref="J483:J511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13314,7 +13421,7 @@
         <v>82</v>
       </c>
       <c r="F471" s="11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G471" s="9">
         <v>0</v>
@@ -13343,7 +13450,7 @@
         <v>85.5</v>
       </c>
       <c r="F472" s="11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G472" s="9">
         <v>0</v>
@@ -13369,7 +13476,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="F473" s="11">
-        <v>0</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G473" s="11">
         <v>0</v>
@@ -13395,7 +13502,7 @@
         <v>72.900000000000006</v>
       </c>
       <c r="F474" s="11">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="G474" s="11">
         <v>0</v>
@@ -13421,7 +13528,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="F475" s="11">
-        <v>0</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G475" s="11">
         <v>0</v>
@@ -13447,7 +13554,7 @@
         <v>75.7</v>
       </c>
       <c r="F476" s="11">
-        <v>0.05</v>
+        <v>0.122</v>
       </c>
       <c r="G476" s="11">
         <v>0</v>
@@ -13545,7 +13652,7 @@
         <v>45851</v>
       </c>
       <c r="D480">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E480" s="11">
         <v>76.599999999999994</v>
@@ -13558,9 +13665,6 @@
       </c>
       <c r="H480" s="11">
         <v>8.6</v>
-      </c>
-      <c r="J480" s="11">
-        <v>5.58</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13574,7 +13678,7 @@
         <v>45852</v>
       </c>
       <c r="D481">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E481" s="11">
         <v>77.2</v>
@@ -13587,9 +13691,6 @@
       </c>
       <c r="H481" s="11">
         <v>7.5</v>
-      </c>
-      <c r="J481" s="11">
-        <v>5.59</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -13603,7 +13704,7 @@
         <v>45853</v>
       </c>
       <c r="D482">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E482" s="11">
         <v>76.8</v>
@@ -13616,9 +13717,6 @@
       </c>
       <c r="H482" s="11">
         <v>7.8</v>
-      </c>
-      <c r="J482" s="11">
-        <v>4.3099999999999996</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13632,7 +13730,7 @@
         <v>45854</v>
       </c>
       <c r="D483">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E483" s="11">
         <v>76.099999999999994</v>
@@ -13647,7 +13745,7 @@
         <v>8.1</v>
       </c>
       <c r="J483" s="11">
-        <v>8.27</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13661,7 +13759,7 @@
         <v>45855</v>
       </c>
       <c r="D484">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E484" s="11">
         <v>75.2</v>
@@ -13676,7 +13774,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J484" s="11">
-        <v>9.44</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13705,7 +13803,7 @@
         <v>13</v>
       </c>
       <c r="J485" s="11">
-        <v>14.37</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13719,7 +13817,7 @@
         <v>45857</v>
       </c>
       <c r="D486">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E486" s="11">
         <v>75</v>
@@ -13734,7 +13832,7 @@
         <v>7</v>
       </c>
       <c r="J486" s="11">
-        <v>5.68</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -13748,7 +13846,7 @@
         <v>45858</v>
       </c>
       <c r="D487">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E487" s="11">
         <v>69.5</v>
@@ -13763,7 +13861,7 @@
         <v>6</v>
       </c>
       <c r="J487" s="11">
-        <v>8.01</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13792,7 +13890,7 @@
         <v>4</v>
       </c>
       <c r="J488" s="11">
-        <v>5.28</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13806,7 +13904,7 @@
         <v>45860</v>
       </c>
       <c r="D489">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E489" s="11">
         <v>74.5</v>
@@ -13821,7 +13919,7 @@
         <v>7</v>
       </c>
       <c r="J489" s="11">
-        <v>12.95</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13835,7 +13933,7 @@
         <v>45861</v>
       </c>
       <c r="D490">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E490" s="11">
         <v>76</v>
@@ -13850,7 +13948,7 @@
         <v>5</v>
       </c>
       <c r="J490" s="11">
-        <v>3.44</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13879,7 +13977,7 @@
         <v>5</v>
       </c>
       <c r="J491" s="11">
-        <v>5.8</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13893,7 +13991,7 @@
         <v>45863</v>
       </c>
       <c r="D492">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E492" s="11">
         <v>72</v>
@@ -13908,7 +14006,7 @@
         <v>7</v>
       </c>
       <c r="J492" s="11">
-        <v>14.57</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13922,7 +14020,7 @@
         <v>45864</v>
       </c>
       <c r="D493">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E493" s="11">
         <v>70</v>
@@ -13937,7 +14035,7 @@
         <v>5</v>
       </c>
       <c r="J493" s="11">
-        <v>8.9</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13951,7 +14049,7 @@
         <v>45865</v>
       </c>
       <c r="D494">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E494" s="11">
         <v>73.5</v>
@@ -13966,7 +14064,7 @@
         <v>9</v>
       </c>
       <c r="J494" s="11">
-        <v>4.74</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13980,7 +14078,7 @@
         <v>45866</v>
       </c>
       <c r="D495">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E495" s="11">
         <v>71</v>
@@ -13995,7 +14093,7 @@
         <v>10</v>
       </c>
       <c r="J495" s="11">
-        <v>5.48</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -14009,7 +14107,7 @@
         <v>45867</v>
       </c>
       <c r="D496">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E496" s="11">
         <v>73.5</v>
@@ -14024,7 +14122,7 @@
         <v>9</v>
       </c>
       <c r="J496" s="11">
-        <v>13.51</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -14038,7 +14136,7 @@
         <v>45868</v>
       </c>
       <c r="D497">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E497" s="11">
         <v>73</v>
@@ -14053,7 +14151,7 @@
         <v>8</v>
       </c>
       <c r="J497" s="11">
-        <v>9.5500000000000007</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14067,7 +14165,7 @@
         <v>45869</v>
       </c>
       <c r="D498">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E498" s="11">
         <v>70</v>
@@ -14082,7 +14180,7 @@
         <v>9</v>
       </c>
       <c r="J498" s="11">
-        <v>7.45</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14096,7 +14194,7 @@
         <v>45870</v>
       </c>
       <c r="D499">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E499" s="11">
         <v>70</v>
@@ -14111,7 +14209,7 @@
         <v>8</v>
       </c>
       <c r="J499" s="11">
-        <v>6.05</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14140,7 +14238,7 @@
         <v>4</v>
       </c>
       <c r="J500" s="11">
-        <v>9.56</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14154,7 +14252,7 @@
         <v>45872</v>
       </c>
       <c r="D501">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14169,7 +14267,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>5.14</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14198,7 +14296,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>10.42</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14212,7 +14310,7 @@
         <v>45874</v>
       </c>
       <c r="D503">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14227,7 +14325,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>5.62</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14241,7 +14339,7 @@
         <v>45875</v>
       </c>
       <c r="D504">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14256,7 +14354,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>7.81</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14270,7 +14368,7 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14285,7 +14383,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>7.86</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14299,7 +14397,7 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E506" s="11">
         <v>69.5</v>
@@ -14314,7 +14412,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>5.92</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14328,7 +14426,7 @@
         <v>45878</v>
       </c>
       <c r="D507">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14343,7 +14441,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>8.73</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14357,7 +14455,7 @@
         <v>45879</v>
       </c>
       <c r="D508">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
@@ -14372,7 +14470,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>10.63</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14386,7 +14484,7 @@
         <v>45880</v>
       </c>
       <c r="D509">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E509" s="11">
         <v>69.5</v>
@@ -14401,7 +14499,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14430,7 +14528,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14459,7 +14557,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>5.41</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14470,10 +14568,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A511">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14486,8 +14584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R25"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14502,20 +14600,20 @@
         <v>43</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="31">
+      <c r="C2" s="36">
         <v>0.85</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
       <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
@@ -15084,7 +15182,7 @@
         <f t="shared" si="1"/>
         <v>15.71</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="43">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
@@ -15420,68 +15518,68 @@
         <v>1.3529411764705883</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
         <v>146</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="26">
         <v>45849</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="18">
         <v>135</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24">
         <v>195</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24">
         <v>134</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24">
         <v>193</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24">
         <v>204</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24">
         <v>176</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24">
         <v>180</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24">
         <v>219</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24">
         <v>144</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24">
         <v>192</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24">
         <v>128</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24">
         <v>214</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="23">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="P24" s="38">
+      <c r="P24" s="23">
         <f t="shared" si="1"/>
         <v>28.78</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="30">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="S24" s="37">
+      <c r="S24">
         <f t="shared" si="3"/>
         <v>1.2054794520547945</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25">
         <v>178</v>
       </c>
       <c r="B25" s="26">
@@ -15531,67 +15629,79 @@
         <f t="shared" si="1"/>
         <v>9.18</v>
       </c>
-      <c r="R25" s="39">
+      <c r="R25" s="30">
         <f t="shared" si="4"/>
         <v>-9</v>
       </c>
-      <c r="S25" s="37">
+      <c r="S25">
         <f t="shared" si="3"/>
         <v>0.949438202247191</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="26">
+    <row r="26" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26" s="39">
         <v>45851</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="40">
         <v>83</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="41">
         <v>94</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="41">
         <v>85</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="41">
         <v>86</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="41">
         <v>85</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="41">
         <v>79</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="41">
         <v>86</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="41">
         <v>70</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="41">
         <v>79</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="41">
         <v>78</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="41">
         <v>84</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="41">
         <v>84</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="42">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="42">
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
+      <c r="R26" s="30">
+        <f t="shared" ref="R26:R28" si="5">O26-A26</f>
+        <v>-9</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S28" si="6">O26/A26</f>
+        <v>0.90217391304347827</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27">
+        <v>113</v>
+      </c>
       <c r="B27" s="26">
         <v>45852</v>
       </c>
@@ -15608,7 +15718,7 @@
         <v>74</v>
       </c>
       <c r="G27">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27">
         <v>70</v>
@@ -15637,11 +15747,21 @@
       </c>
       <c r="P27" s="23">
         <f t="shared" si="1"/>
-        <v>5.59</v>
+        <v>5.37</v>
+      </c>
+      <c r="R27" s="30">
+        <f t="shared" si="5"/>
+        <v>-33</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0.70796460176991149</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28">
+        <v>77</v>
+      </c>
       <c r="B28" s="26">
         <v>45853</v>
       </c>
@@ -15658,7 +15778,7 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28">
         <v>72</v>
@@ -15687,57 +15807,53 @@
       </c>
       <c r="P28" s="23">
         <f t="shared" si="1"/>
-        <v>4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="26">
+        <v>4.37</v>
+      </c>
+      <c r="R28" s="30">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>1.0649350649350648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32">
         <v>45854</v>
       </c>
-      <c r="C29" s="18">
-        <v>64</v>
-      </c>
-      <c r="D29">
-        <v>84</v>
-      </c>
-      <c r="E29">
-        <v>71</v>
-      </c>
-      <c r="F29">
-        <v>65</v>
-      </c>
-      <c r="G29">
-        <v>89</v>
-      </c>
-      <c r="H29">
-        <v>86</v>
-      </c>
-      <c r="I29">
-        <v>83</v>
-      </c>
-      <c r="J29">
-        <v>92</v>
-      </c>
-      <c r="K29">
-        <v>68</v>
-      </c>
-      <c r="L29">
-        <v>86</v>
-      </c>
-      <c r="M29">
-        <v>78</v>
-      </c>
-      <c r="N29">
-        <v>87</v>
-      </c>
-      <c r="O29" s="23">
+      <c r="C29" s="33">
+        <v>58</v>
+      </c>
+      <c r="D29" s="34">
+        <v>74</v>
+      </c>
+      <c r="E29" s="34">
+        <v>76</v>
+      </c>
+      <c r="F29" s="34">
+        <v>60</v>
+      </c>
+      <c r="G29" s="34">
+        <v>66</v>
+      </c>
+      <c r="H29" s="34">
+        <v>72</v>
+      </c>
+      <c r="I29" s="34">
+        <v>63</v>
+      </c>
+      <c r="J29" s="34">
+        <v>70</v>
+      </c>
+      <c r="O29" s="35">
         <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="P29" s="23">
+        <v>67</v>
+      </c>
+      <c r="P29" s="35">
         <f t="shared" si="1"/>
-        <v>8.27</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -15746,48 +15862,36 @@
         <v>45855</v>
       </c>
       <c r="C30" s="18">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E30">
         <v>114</v>
       </c>
       <c r="F30">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G30">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H30">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I30">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J30">
-        <v>109</v>
-      </c>
-      <c r="K30">
-        <v>118</v>
-      </c>
-      <c r="L30">
-        <v>110</v>
-      </c>
-      <c r="M30">
-        <v>107</v>
-      </c>
-      <c r="N30">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O30" s="23">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="1"/>
-        <v>9.44</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -15796,40 +15900,28 @@
         <v>45856</v>
       </c>
       <c r="C31" s="18">
+        <v>127</v>
+      </c>
+      <c r="D31">
+        <v>137</v>
+      </c>
+      <c r="E31">
+        <v>135</v>
+      </c>
+      <c r="F31">
+        <v>137</v>
+      </c>
+      <c r="G31">
+        <v>130</v>
+      </c>
+      <c r="H31">
+        <v>133</v>
+      </c>
+      <c r="I31">
         <v>134</v>
       </c>
-      <c r="D31">
-        <v>147</v>
-      </c>
-      <c r="E31">
-        <v>136</v>
-      </c>
-      <c r="F31">
-        <v>117</v>
-      </c>
-      <c r="G31">
+      <c r="J31">
         <v>133</v>
-      </c>
-      <c r="H31">
-        <v>114</v>
-      </c>
-      <c r="I31">
-        <v>142</v>
-      </c>
-      <c r="J31">
-        <v>156</v>
-      </c>
-      <c r="K31">
-        <v>133</v>
-      </c>
-      <c r="L31">
-        <v>154</v>
-      </c>
-      <c r="M31">
-        <v>111</v>
-      </c>
-      <c r="N31">
-        <v>122</v>
       </c>
       <c r="O31" s="23">
         <f t="shared" si="0"/>
@@ -15837,7 +15929,7 @@
       </c>
       <c r="P31" s="23">
         <f t="shared" si="1"/>
-        <v>14.37</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -15849,45 +15941,33 @@
         <v>172</v>
       </c>
       <c r="D32">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E32">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F32">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G32">
         <v>169</v>
       </c>
       <c r="H32">
+        <v>170</v>
+      </c>
+      <c r="I32">
+        <v>167</v>
+      </c>
+      <c r="J32">
         <v>171</v>
-      </c>
-      <c r="I32">
-        <v>179</v>
-      </c>
-      <c r="J32">
-        <v>164</v>
-      </c>
-      <c r="K32">
-        <v>176</v>
-      </c>
-      <c r="L32">
-        <v>167</v>
-      </c>
-      <c r="M32">
-        <v>155</v>
-      </c>
-      <c r="N32">
-        <v>170</v>
       </c>
       <c r="O32" s="23">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P32" s="23">
         <f t="shared" si="1"/>
-        <v>5.68</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -15899,45 +15979,33 @@
         <v>50</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>48</v>
       </c>
       <c r="F33">
+        <v>54</v>
+      </c>
+      <c r="G33">
         <v>45</v>
       </c>
-      <c r="G33">
-        <v>48</v>
-      </c>
       <c r="H33">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I33">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J33">
-        <v>45</v>
-      </c>
-      <c r="K33">
         <v>52</v>
-      </c>
-      <c r="L33">
-        <v>54</v>
-      </c>
-      <c r="M33">
-        <v>55</v>
-      </c>
-      <c r="N33">
-        <v>36</v>
       </c>
       <c r="O33" s="23">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" si="1"/>
-        <v>8.01</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -15946,40 +16014,28 @@
         <v>45859</v>
       </c>
       <c r="C34" s="18">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G34">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H34">
         <v>62</v>
       </c>
       <c r="I34">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J34">
-        <v>68</v>
-      </c>
-      <c r="K34">
         <v>61</v>
-      </c>
-      <c r="L34">
-        <v>68</v>
-      </c>
-      <c r="M34">
-        <v>54</v>
-      </c>
-      <c r="N34">
-        <v>53</v>
       </c>
       <c r="O34" s="23">
         <f t="shared" si="0"/>
@@ -15987,7 +16043,7 @@
       </c>
       <c r="P34" s="23">
         <f t="shared" si="1"/>
-        <v>5.28</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -15996,48 +16052,36 @@
         <v>45860</v>
       </c>
       <c r="C35" s="18">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E35">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F35">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G35">
         <v>92</v>
       </c>
       <c r="H35">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J35">
-        <v>108</v>
-      </c>
-      <c r="K35">
-        <v>90</v>
-      </c>
-      <c r="L35">
-        <v>78</v>
-      </c>
-      <c r="M35">
-        <v>85</v>
-      </c>
-      <c r="N35">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="O35" s="23">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="1"/>
-        <v>12.95</v>
+        <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -16046,48 +16090,36 @@
         <v>45861</v>
       </c>
       <c r="C36" s="18">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>61</v>
+      </c>
+      <c r="E36">
         <v>58</v>
       </c>
-      <c r="D36">
-        <v>59</v>
-      </c>
-      <c r="E36">
-        <v>63</v>
-      </c>
       <c r="F36">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G36">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I36">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J36">
-        <v>58</v>
-      </c>
-      <c r="K36">
-        <v>65</v>
-      </c>
-      <c r="L36">
-        <v>62</v>
-      </c>
-      <c r="M36">
-        <v>61</v>
-      </c>
-      <c r="N36">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="O36" s="23">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P36" s="23">
         <f t="shared" si="1"/>
-        <v>3.44</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -16096,40 +16128,28 @@
         <v>45862</v>
       </c>
       <c r="C37" s="18">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G37">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H37">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I37">
         <v>75</v>
       </c>
       <c r="J37">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>82</v>
-      </c>
-      <c r="L37">
-        <v>83</v>
-      </c>
-      <c r="M37">
-        <v>71</v>
-      </c>
-      <c r="N37">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" si="0"/>
@@ -16137,7 +16157,7 @@
       </c>
       <c r="P37" s="23">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -16146,48 +16166,40 @@
         <v>45863</v>
       </c>
       <c r="C38" s="18">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D38" s="18">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E38" s="18">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F38" s="18">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="G38" s="18">
+        <v>196</v>
+      </c>
+      <c r="H38" s="22">
         <v>194</v>
       </c>
-      <c r="H38" s="22">
-        <v>164</v>
-      </c>
       <c r="I38" s="18">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="J38" s="18">
-        <v>186</v>
-      </c>
-      <c r="K38" s="18">
-        <v>186</v>
-      </c>
-      <c r="L38" s="18">
-        <v>208</v>
-      </c>
-      <c r="M38" s="18">
-        <v>154</v>
-      </c>
-      <c r="N38" s="19">
-        <v>189</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="23">
-        <f t="shared" ref="O38:O57" si="5">ROUND(AVERAGE(C38:N38),0)</f>
-        <v>184</v>
+        <f t="shared" ref="O38:O57" si="7">ROUND(AVERAGE(C38:N38),0)</f>
+        <v>192</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>14.57</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -16196,48 +16208,40 @@
         <v>45864</v>
       </c>
       <c r="C39" s="18">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D39" s="18">
         <v>186</v>
       </c>
       <c r="E39" s="18">
+        <v>184</v>
+      </c>
+      <c r="F39" s="18">
+        <v>183</v>
+      </c>
+      <c r="G39" s="18">
+        <v>187</v>
+      </c>
+      <c r="H39" s="22">
+        <v>188</v>
+      </c>
+      <c r="I39" s="18">
+        <v>181</v>
+      </c>
+      <c r="J39" s="18">
         <v>186</v>
       </c>
-      <c r="F39" s="18">
-        <v>169</v>
-      </c>
-      <c r="G39" s="18">
-        <v>188</v>
-      </c>
-      <c r="H39" s="22">
-        <v>168</v>
-      </c>
-      <c r="I39" s="18">
-        <v>191</v>
-      </c>
-      <c r="J39" s="18">
-        <v>197</v>
-      </c>
-      <c r="K39" s="18">
-        <v>185</v>
-      </c>
-      <c r="L39" s="18">
-        <v>190</v>
-      </c>
-      <c r="M39" s="18">
-        <v>170</v>
-      </c>
-      <c r="N39" s="19">
-        <v>185</v>
-      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="23">
-        <f t="shared" si="5"/>
-        <v>183</v>
+        <f t="shared" si="7"/>
+        <v>184</v>
       </c>
       <c r="P39" s="23">
-        <f t="shared" ref="P39:P57" si="6">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>8.9</v>
+        <f t="shared" ref="P39:P57" si="8">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <v>2.15</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -16246,48 +16250,40 @@
         <v>45865</v>
       </c>
       <c r="C40" s="18">
+        <v>70</v>
+      </c>
+      <c r="D40" s="18">
+        <v>69</v>
+      </c>
+      <c r="E40" s="18">
+        <v>68</v>
+      </c>
+      <c r="F40" s="18">
+        <v>58</v>
+      </c>
+      <c r="G40" s="18">
         <v>66</v>
       </c>
-      <c r="D40" s="18">
-        <v>58</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="H40" s="22">
+        <v>72</v>
+      </c>
+      <c r="I40" s="18">
+        <v>62</v>
+      </c>
+      <c r="J40" s="18">
+        <v>54</v>
+      </c>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="23">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="F40" s="18">
-        <v>59</v>
-      </c>
-      <c r="G40" s="18">
-        <v>68</v>
-      </c>
-      <c r="H40" s="22">
-        <v>60</v>
-      </c>
-      <c r="I40" s="18">
-        <v>60</v>
-      </c>
-      <c r="J40" s="18">
-        <v>69</v>
-      </c>
-      <c r="K40" s="18">
-        <v>60</v>
-      </c>
-      <c r="L40" s="18">
-        <v>57</v>
-      </c>
-      <c r="M40" s="18">
-        <v>51</v>
-      </c>
-      <c r="N40" s="19">
-        <v>64</v>
-      </c>
-      <c r="O40" s="23">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
       <c r="P40" s="23">
-        <f t="shared" si="6"/>
-        <v>4.74</v>
+        <f t="shared" si="8"/>
+        <v>5.58</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -16296,48 +16292,40 @@
         <v>45866</v>
       </c>
       <c r="C41" s="18">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F41" s="18">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G41" s="18">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H41" s="22">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I41" s="18">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J41" s="18">
-        <v>50</v>
-      </c>
-      <c r="K41" s="18">
-        <v>63</v>
-      </c>
-      <c r="L41" s="18">
-        <v>53</v>
-      </c>
-      <c r="M41" s="18">
-        <v>62</v>
-      </c>
-      <c r="N41" s="19">
-        <v>72</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="23">
-        <f t="shared" si="5"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>66</v>
       </c>
       <c r="P41" s="23">
-        <f t="shared" si="6"/>
-        <v>5.48</v>
+        <f t="shared" si="8"/>
+        <v>5.15</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -16346,48 +16334,40 @@
         <v>45867</v>
       </c>
       <c r="C42" s="18">
+        <v>84</v>
+      </c>
+      <c r="D42" s="18">
+        <v>76</v>
+      </c>
+      <c r="E42" s="18">
+        <v>80</v>
+      </c>
+      <c r="F42" s="18">
+        <v>83</v>
+      </c>
+      <c r="G42" s="18">
+        <v>68</v>
+      </c>
+      <c r="H42" s="22">
+        <v>82</v>
+      </c>
+      <c r="I42" s="18">
+        <v>93</v>
+      </c>
+      <c r="J42" s="18">
+        <v>82</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="23">
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
-      <c r="D42" s="18">
-        <v>67</v>
-      </c>
-      <c r="E42" s="18">
-        <v>82</v>
-      </c>
-      <c r="F42" s="18">
-        <v>52</v>
-      </c>
-      <c r="G42" s="18">
-        <v>78</v>
-      </c>
-      <c r="H42" s="22">
-        <v>99</v>
-      </c>
-      <c r="I42" s="18">
-        <v>70</v>
-      </c>
-      <c r="J42" s="18">
-        <v>51</v>
-      </c>
-      <c r="K42" s="18">
-        <v>77</v>
-      </c>
-      <c r="L42" s="18">
-        <v>88</v>
-      </c>
-      <c r="M42" s="18">
-        <v>68</v>
-      </c>
-      <c r="N42" s="19">
-        <v>87</v>
-      </c>
-      <c r="O42" s="23">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
       <c r="P42" s="23">
-        <f t="shared" si="6"/>
-        <v>13.51</v>
+        <f t="shared" si="8"/>
+        <v>6.56</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -16396,48 +16376,40 @@
         <v>45868</v>
       </c>
       <c r="C43" s="18">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="18">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E43" s="18">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F43" s="18">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G43" s="18">
         <v>140</v>
       </c>
       <c r="H43" s="22">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="I43" s="18">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="J43" s="18">
         <v>136</v>
       </c>
-      <c r="K43" s="18">
-        <v>137</v>
-      </c>
-      <c r="L43" s="18">
-        <v>141</v>
-      </c>
-      <c r="M43" s="18">
-        <v>134</v>
-      </c>
-      <c r="N43" s="19">
-        <v>145</v>
-      </c>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="23">
-        <f t="shared" si="5"/>
-        <v>139</v>
+        <f t="shared" si="7"/>
+        <v>135</v>
       </c>
       <c r="P43" s="23">
-        <f t="shared" si="6"/>
-        <v>9.5500000000000007</v>
+        <f t="shared" si="8"/>
+        <v>4.18</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -16446,48 +16418,40 @@
         <v>45869</v>
       </c>
       <c r="C44" s="18">
+        <v>168</v>
+      </c>
+      <c r="D44" s="18">
+        <v>168</v>
+      </c>
+      <c r="E44" s="18">
         <v>160</v>
       </c>
-      <c r="D44" s="18">
+      <c r="F44" s="18">
+        <v>174</v>
+      </c>
+      <c r="G44" s="18">
+        <v>160</v>
+      </c>
+      <c r="H44" s="22">
+        <v>162</v>
+      </c>
+      <c r="I44" s="18">
         <v>159</v>
       </c>
-      <c r="E44" s="18">
-        <v>161</v>
-      </c>
-      <c r="F44" s="18">
-        <v>149</v>
-      </c>
-      <c r="G44" s="18">
-        <v>166</v>
-      </c>
-      <c r="H44" s="22">
-        <v>158</v>
-      </c>
-      <c r="I44" s="18">
-        <v>161</v>
-      </c>
       <c r="J44" s="18">
-        <v>156</v>
-      </c>
-      <c r="K44" s="18">
-        <v>166</v>
-      </c>
-      <c r="L44" s="18">
-        <v>168</v>
-      </c>
-      <c r="M44" s="18">
-        <v>140</v>
-      </c>
-      <c r="N44" s="19">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="23">
-        <f t="shared" si="5"/>
-        <v>159</v>
+        <f t="shared" si="7"/>
+        <v>165</v>
       </c>
       <c r="P44" s="23">
-        <f t="shared" si="6"/>
-        <v>7.45</v>
+        <f t="shared" si="8"/>
+        <v>4.82</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -16496,48 +16460,40 @@
         <v>45870</v>
       </c>
       <c r="C45" s="18">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D45" s="18">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E45" s="18">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F45" s="18">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G45" s="18">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H45" s="22">
         <v>175</v>
       </c>
       <c r="I45" s="18">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="J45" s="18">
-        <v>157</v>
-      </c>
-      <c r="K45" s="18">
-        <v>174</v>
-      </c>
-      <c r="L45" s="18">
-        <v>170</v>
-      </c>
-      <c r="M45" s="18">
         <v>176</v>
       </c>
-      <c r="N45" s="19">
-        <v>175</v>
-      </c>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="23">
-        <f t="shared" si="5"/>
-        <v>172</v>
+        <f t="shared" si="7"/>
+        <v>173</v>
       </c>
       <c r="P45" s="23">
-        <f t="shared" si="6"/>
-        <v>6.05</v>
+        <f t="shared" si="8"/>
+        <v>4.3</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -16549,45 +16505,37 @@
         <v>50</v>
       </c>
       <c r="D46" s="18">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E46" s="18">
+        <v>51</v>
+      </c>
+      <c r="F46" s="18">
+        <v>60</v>
+      </c>
+      <c r="G46" s="18">
+        <v>54</v>
+      </c>
+      <c r="H46" s="22">
+        <v>59</v>
+      </c>
+      <c r="I46" s="18">
         <v>58</v>
       </c>
-      <c r="F46" s="18">
-        <v>57</v>
-      </c>
-      <c r="G46" s="18">
-        <v>56</v>
-      </c>
-      <c r="H46" s="22">
-        <v>63</v>
-      </c>
-      <c r="I46" s="18">
-        <v>66</v>
-      </c>
       <c r="J46" s="18">
-        <v>55</v>
-      </c>
-      <c r="K46" s="18">
-        <v>57</v>
-      </c>
-      <c r="L46" s="18">
-        <v>63</v>
-      </c>
-      <c r="M46" s="18">
-        <v>55</v>
-      </c>
-      <c r="N46" s="19">
-        <v>45</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="P46" s="23">
-        <f t="shared" si="6"/>
-        <v>9.56</v>
+        <f t="shared" si="8"/>
+        <v>3.41</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -16596,48 +16544,40 @@
         <v>45872</v>
       </c>
       <c r="C47" s="18">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D47" s="18">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E47" s="18">
+        <v>64</v>
+      </c>
+      <c r="F47" s="18">
         <v>60</v>
       </c>
-      <c r="F47" s="18">
-        <v>53</v>
-      </c>
       <c r="G47" s="18">
+        <v>63</v>
+      </c>
+      <c r="H47" s="22">
         <v>58</v>
       </c>
-      <c r="H47" s="22">
-        <v>54</v>
-      </c>
       <c r="I47" s="18">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J47" s="18">
-        <v>68</v>
-      </c>
-      <c r="K47" s="18">
+        <v>67</v>
+      </c>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="23">
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
-      <c r="L47" s="18">
-        <v>59</v>
-      </c>
-      <c r="M47" s="18">
-        <v>58</v>
-      </c>
-      <c r="N47" s="19">
-        <v>61</v>
-      </c>
-      <c r="O47" s="23">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
       <c r="P47" s="23">
-        <f t="shared" si="6"/>
-        <v>5.14</v>
+        <f t="shared" si="8"/>
+        <v>2.78</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -16646,48 +16586,40 @@
         <v>45873</v>
       </c>
       <c r="C48" s="18">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D48" s="18">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E48" s="18">
+        <v>73</v>
+      </c>
+      <c r="F48" s="18">
+        <v>77</v>
+      </c>
+      <c r="G48" s="18">
         <v>68</v>
-      </c>
-      <c r="F48" s="18">
-        <v>101</v>
-      </c>
-      <c r="G48" s="18">
-        <v>67</v>
       </c>
       <c r="H48" s="22">
         <v>63</v>
       </c>
       <c r="I48" s="18">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J48" s="18">
-        <v>62</v>
-      </c>
-      <c r="K48" s="18">
-        <v>69</v>
-      </c>
-      <c r="L48" s="18">
-        <v>71</v>
-      </c>
-      <c r="M48" s="18">
-        <v>63</v>
-      </c>
-      <c r="N48" s="19">
-        <v>75</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="19"/>
       <c r="O48" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="P48" s="23">
-        <f t="shared" si="6"/>
-        <v>10.42</v>
+        <f t="shared" si="8"/>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -16696,48 +16628,40 @@
         <v>45874</v>
       </c>
       <c r="C49" s="18">
+        <v>59</v>
+      </c>
+      <c r="D49" s="18">
+        <v>60</v>
+      </c>
+      <c r="E49" s="18">
+        <v>56</v>
+      </c>
+      <c r="F49" s="18">
+        <v>62</v>
+      </c>
+      <c r="G49" s="18">
+        <v>56</v>
+      </c>
+      <c r="H49" s="22">
+        <v>60</v>
+      </c>
+      <c r="I49" s="18">
         <v>54</v>
       </c>
-      <c r="D49" s="18">
+      <c r="J49" s="18">
+        <v>55</v>
+      </c>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="23">
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
-      <c r="E49" s="18">
-        <v>63</v>
-      </c>
-      <c r="F49" s="18">
-        <v>61</v>
-      </c>
-      <c r="G49" s="18">
-        <v>58</v>
-      </c>
-      <c r="H49" s="22">
-        <v>57</v>
-      </c>
-      <c r="I49" s="18">
-        <v>61</v>
-      </c>
-      <c r="J49" s="18">
-        <v>58</v>
-      </c>
-      <c r="K49" s="18">
-        <v>59</v>
-      </c>
-      <c r="L49" s="18">
-        <v>59</v>
-      </c>
-      <c r="M49" s="18">
-        <v>55</v>
-      </c>
-      <c r="N49" s="19">
-        <v>78</v>
-      </c>
-      <c r="O49" s="23">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
       <c r="P49" s="23">
-        <f t="shared" si="6"/>
-        <v>5.62</v>
+        <f t="shared" si="8"/>
+        <v>2.64</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -16746,48 +16670,40 @@
         <v>45875</v>
       </c>
       <c r="C50" s="18">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D50" s="18">
+        <v>108</v>
+      </c>
+      <c r="E50" s="18">
+        <v>109</v>
+      </c>
+      <c r="F50" s="18">
+        <v>109</v>
+      </c>
+      <c r="G50" s="18">
         <v>110</v>
       </c>
-      <c r="E50" s="18">
-        <v>111</v>
-      </c>
-      <c r="F50" s="18">
-        <v>114</v>
-      </c>
-      <c r="G50" s="18">
-        <v>111</v>
-      </c>
       <c r="H50" s="22">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I50" s="18">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J50" s="18">
-        <v>95</v>
-      </c>
-      <c r="K50" s="18">
-        <v>108</v>
-      </c>
-      <c r="L50" s="18">
-        <v>119</v>
-      </c>
-      <c r="M50" s="18">
-        <v>98</v>
-      </c>
-      <c r="N50" s="19">
-        <v>99</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
       <c r="O50" s="23">
-        <f t="shared" si="5"/>
-        <v>107</v>
+        <f t="shared" si="7"/>
+        <v>109</v>
       </c>
       <c r="P50" s="23">
-        <f t="shared" si="6"/>
-        <v>7.81</v>
+        <f t="shared" si="8"/>
+        <v>3.64</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -16796,48 +16712,40 @@
         <v>45876</v>
       </c>
       <c r="C51" s="18">
+        <v>137</v>
+      </c>
+      <c r="D51" s="18">
+        <v>127</v>
+      </c>
+      <c r="E51" s="18">
         <v>125</v>
       </c>
-      <c r="D51" s="18">
-        <v>128</v>
-      </c>
-      <c r="E51" s="18">
-        <v>124</v>
-      </c>
       <c r="F51" s="18">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G51" s="18">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H51" s="22">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I51" s="18">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J51" s="18">
-        <v>123</v>
-      </c>
-      <c r="K51" s="18">
-        <v>139</v>
-      </c>
-      <c r="L51" s="18">
-        <v>118</v>
-      </c>
-      <c r="M51" s="18">
-        <v>108</v>
-      </c>
-      <c r="N51" s="19">
-        <v>120</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="23">
-        <f t="shared" si="5"/>
-        <v>124</v>
+        <f t="shared" si="7"/>
+        <v>132</v>
       </c>
       <c r="P51" s="23">
-        <f t="shared" si="6"/>
-        <v>7.86</v>
+        <f t="shared" si="8"/>
+        <v>8.85</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -16846,48 +16754,40 @@
         <v>45877</v>
       </c>
       <c r="C52" s="18">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D52" s="18">
         <v>183</v>
       </c>
       <c r="E52" s="18">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F52" s="18">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G52" s="18">
+        <v>190</v>
+      </c>
+      <c r="H52" s="22">
+        <v>188</v>
+      </c>
+      <c r="I52" s="18">
+        <v>177</v>
+      </c>
+      <c r="J52" s="18">
         <v>184</v>
       </c>
-      <c r="H52" s="22">
-        <v>174</v>
-      </c>
-      <c r="I52" s="18">
-        <v>192</v>
-      </c>
-      <c r="J52" s="18">
-        <v>186</v>
-      </c>
-      <c r="K52" s="18">
-        <v>185</v>
-      </c>
-      <c r="L52" s="18">
-        <v>177</v>
-      </c>
-      <c r="M52" s="18">
-        <v>170</v>
-      </c>
-      <c r="N52" s="19">
-        <v>184</v>
-      </c>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="23">
-        <f t="shared" si="5"/>
-        <v>181</v>
+        <f t="shared" si="7"/>
+        <v>183</v>
       </c>
       <c r="P52" s="23">
-        <f t="shared" si="6"/>
-        <v>5.92</v>
+        <f t="shared" si="8"/>
+        <v>3.62</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -16896,48 +16796,40 @@
         <v>45878</v>
       </c>
       <c r="C53" s="18">
+        <v>65</v>
+      </c>
+      <c r="D53" s="18">
+        <v>67</v>
+      </c>
+      <c r="E53" s="18">
+        <v>65</v>
+      </c>
+      <c r="F53" s="18">
+        <v>72</v>
+      </c>
+      <c r="G53" s="18">
+        <v>71</v>
+      </c>
+      <c r="H53" s="22">
         <v>63</v>
       </c>
-      <c r="D53" s="18">
-        <v>74</v>
-      </c>
-      <c r="E53" s="18">
-        <v>63</v>
-      </c>
-      <c r="F53" s="18">
-        <v>57</v>
-      </c>
-      <c r="G53" s="18">
-        <v>59</v>
-      </c>
-      <c r="H53" s="22">
-        <v>77</v>
-      </c>
       <c r="I53" s="18">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="J53" s="18">
-        <v>77</v>
-      </c>
-      <c r="K53" s="18">
-        <v>72</v>
-      </c>
-      <c r="L53" s="18">
-        <v>71</v>
-      </c>
-      <c r="M53" s="18">
-        <v>72</v>
-      </c>
-      <c r="N53" s="19">
-        <v>59</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="19"/>
       <c r="O53" s="23">
-        <f t="shared" si="5"/>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>67</v>
       </c>
       <c r="P53" s="23">
-        <f t="shared" si="6"/>
-        <v>8.73</v>
+        <f t="shared" si="8"/>
+        <v>2.74</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -16946,48 +16838,40 @@
         <v>45879</v>
       </c>
       <c r="C54" s="18">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D54" s="18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E54" s="18">
+        <v>64</v>
+      </c>
+      <c r="F54" s="18">
+        <v>65</v>
+      </c>
+      <c r="G54" s="18">
+        <v>67</v>
+      </c>
+      <c r="H54" s="22">
         <v>60</v>
       </c>
-      <c r="F54" s="18">
-        <v>43</v>
-      </c>
-      <c r="G54" s="18">
-        <v>69</v>
-      </c>
-      <c r="H54" s="22">
-        <v>69</v>
-      </c>
       <c r="I54" s="18">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J54" s="18">
-        <v>86</v>
-      </c>
-      <c r="K54" s="18">
-        <v>60</v>
-      </c>
-      <c r="L54" s="18">
-        <v>59</v>
-      </c>
-      <c r="M54" s="18">
-        <v>49</v>
-      </c>
-      <c r="N54" s="19">
-        <v>54</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
       <c r="O54" s="23">
-        <f t="shared" si="5"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
       <c r="P54" s="23">
-        <f t="shared" si="6"/>
-        <v>10.63</v>
+        <f t="shared" si="8"/>
+        <v>2.8</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -16996,48 +16880,40 @@
         <v>45880</v>
       </c>
       <c r="C55" s="18">
+        <v>61</v>
+      </c>
+      <c r="D55" s="18">
+        <v>56</v>
+      </c>
+      <c r="E55" s="18">
+        <v>60</v>
+      </c>
+      <c r="F55" s="18">
+        <v>55</v>
+      </c>
+      <c r="G55" s="18">
+        <v>63</v>
+      </c>
+      <c r="H55" s="22">
+        <v>61</v>
+      </c>
+      <c r="I55" s="18">
+        <v>57</v>
+      </c>
+      <c r="J55" s="18">
+        <v>55</v>
+      </c>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="23">
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
-      <c r="D55" s="18">
-        <v>62</v>
-      </c>
-      <c r="E55" s="18">
-        <v>62</v>
-      </c>
-      <c r="F55" s="18">
-        <v>53</v>
-      </c>
-      <c r="G55" s="18">
-        <v>58</v>
-      </c>
-      <c r="H55" s="22">
-        <v>57</v>
-      </c>
-      <c r="I55" s="18">
-        <v>59</v>
-      </c>
-      <c r="J55" s="18">
-        <v>59</v>
-      </c>
-      <c r="K55" s="18">
-        <v>55</v>
-      </c>
-      <c r="L55" s="18">
-        <v>56</v>
-      </c>
-      <c r="M55" s="18">
-        <v>52</v>
-      </c>
-      <c r="N55" s="19">
-        <v>59</v>
-      </c>
-      <c r="O55" s="23">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
       <c r="P55" s="23">
-        <f t="shared" si="6"/>
-        <v>2.99</v>
+        <f t="shared" si="8"/>
+        <v>2.77</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -17046,48 +16922,40 @@
         <v>45881</v>
       </c>
       <c r="C56" s="18">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" s="18">
+        <v>71</v>
+      </c>
+      <c r="E56" s="18">
         <v>61</v>
       </c>
-      <c r="E56" s="18">
+      <c r="F56" s="18">
+        <v>67</v>
+      </c>
+      <c r="G56" s="18">
+        <v>66</v>
+      </c>
+      <c r="H56" s="22">
+        <v>63</v>
+      </c>
+      <c r="I56" s="18">
+        <v>63</v>
+      </c>
+      <c r="J56" s="18">
+        <v>66</v>
+      </c>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="23">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="F56" s="18">
-        <v>60</v>
-      </c>
-      <c r="G56" s="18">
-        <v>68</v>
-      </c>
-      <c r="H56" s="22">
-        <v>65</v>
-      </c>
-      <c r="I56" s="18">
-        <v>62</v>
-      </c>
-      <c r="J56" s="18">
-        <v>68</v>
-      </c>
-      <c r="K56" s="18">
-        <v>68</v>
-      </c>
-      <c r="L56" s="18">
-        <v>71</v>
-      </c>
-      <c r="M56" s="18">
-        <v>62</v>
-      </c>
-      <c r="N56" s="19">
-        <v>63</v>
-      </c>
-      <c r="O56" s="23">
-        <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
       <c r="P56" s="23">
-        <f t="shared" si="6"/>
-        <v>3.24</v>
+        <f t="shared" si="8"/>
+        <v>2.86</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17099,45 +16967,37 @@
         <v>77</v>
       </c>
       <c r="D57" s="20">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E57" s="20">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F57" s="20">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G57" s="20">
+        <v>74</v>
+      </c>
+      <c r="H57" s="25">
+        <v>72</v>
+      </c>
+      <c r="I57" s="20">
         <v>78</v>
       </c>
-      <c r="H57" s="25">
-        <v>81</v>
-      </c>
-      <c r="I57" s="20">
+      <c r="J57" s="20">
+        <v>78</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="24">
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
-      <c r="J57" s="20">
-        <v>85</v>
-      </c>
-      <c r="K57" s="20">
-        <v>81</v>
-      </c>
-      <c r="L57" s="20">
-        <v>84</v>
-      </c>
-      <c r="M57" s="20">
-        <v>73</v>
-      </c>
-      <c r="N57" s="28">
-        <v>69</v>
-      </c>
-      <c r="O57" s="24">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
       <c r="P57" s="24">
-        <f t="shared" si="6"/>
-        <v>5.41</v>
+        <f t="shared" si="8"/>
+        <v>2.92</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -17146,48 +17006,40 @@
         <v>40</v>
       </c>
       <c r="C58" s="18">
-        <v>27.99</v>
+        <v>23.15</v>
       </c>
       <c r="D58" s="18">
-        <v>25</v>
+        <v>23.56</v>
       </c>
       <c r="E58" s="18">
-        <v>25.1</v>
+        <v>30</v>
       </c>
       <c r="F58" s="18">
-        <v>23.61</v>
+        <v>23.65</v>
       </c>
       <c r="G58" s="18">
-        <v>23.38</v>
+        <v>28.74</v>
       </c>
       <c r="H58" s="22">
-        <v>23.61</v>
+        <v>26.49</v>
       </c>
       <c r="I58" s="18">
-        <v>23.61</v>
+        <v>22.33</v>
       </c>
       <c r="J58" s="18">
-        <v>25</v>
-      </c>
-      <c r="K58" s="18">
-        <v>23.51</v>
-      </c>
-      <c r="L58" s="18">
-        <v>23.61</v>
-      </c>
-      <c r="M58" s="18">
-        <v>26.39</v>
-      </c>
-      <c r="N58" s="19">
-        <v>29.17</v>
-      </c>
+        <v>26.2</v>
+      </c>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="23">
         <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>25</v>
+        <v>25.52</v>
       </c>
       <c r="P58" s="23">
         <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>1.68</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -17196,48 +17048,40 @@
         <v>41</v>
       </c>
       <c r="C59" s="18">
-        <v>29.61</v>
+        <v>24.77</v>
       </c>
       <c r="D59" s="18">
-        <v>34.6</v>
+        <v>25.45</v>
       </c>
       <c r="E59" s="18">
-        <v>26.46</v>
+        <v>25.44</v>
       </c>
       <c r="F59" s="18">
-        <v>29.1</v>
+        <v>25.49</v>
       </c>
       <c r="G59" s="18">
-        <v>32.94</v>
+        <v>25.67</v>
       </c>
       <c r="H59" s="22">
-        <v>28.69</v>
+        <v>26.03</v>
       </c>
       <c r="I59" s="18">
-        <v>30.29</v>
+        <v>25.74</v>
       </c>
       <c r="J59" s="18">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="K59" s="18">
-        <v>29.16</v>
-      </c>
-      <c r="L59" s="18">
-        <v>34.89</v>
-      </c>
-      <c r="M59" s="18">
-        <v>28.78</v>
-      </c>
-      <c r="N59" s="18">
-        <v>29.39</v>
-      </c>
+        <v>26.24</v>
+      </c>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="23">
         <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>30.7</v>
+        <v>25.6</v>
       </c>
       <c r="P59" s="23">
         <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>2.4900000000000002</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -17245,21 +17089,26 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="C58:N58 M59:N59">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:N58">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
       <formula>$O$58-$P$58</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="2" priority="2"/>
-    <cfRule type="aboveAverage" dxfId="1" priority="4"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R25">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="R3:R28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF92D050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D220821-5986-4D74-836C-F76EAE6F1A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDCF9A-4F0C-42B8-9983-6EAC0265D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,6 +490,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -501,107 +502,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -965,9 +866,9 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J483" sqref="J483:J511"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13730,7 +13631,7 @@
         <v>45854</v>
       </c>
       <c r="D483">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E483" s="11">
         <v>76.099999999999994</v>
@@ -13743,9 +13644,6 @@
       </c>
       <c r="H483" s="11">
         <v>8.1</v>
-      </c>
-      <c r="J483" s="11">
-        <v>5.15</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13759,7 +13657,7 @@
         <v>45855</v>
       </c>
       <c r="D484">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E484" s="11">
         <v>75.2</v>
@@ -13772,9 +13670,6 @@
       </c>
       <c r="H484" s="11">
         <v>8.8000000000000007</v>
-      </c>
-      <c r="J484" s="11">
-        <v>4.92</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13788,7 +13683,7 @@
         <v>45856</v>
       </c>
       <c r="D485">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E485" s="11">
         <v>76</v>
@@ -13801,9 +13696,6 @@
       </c>
       <c r="H485" s="11">
         <v>13</v>
-      </c>
-      <c r="J485" s="11">
-        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13817,7 +13709,7 @@
         <v>45857</v>
       </c>
       <c r="D486">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="E486" s="11">
         <v>75</v>
@@ -13830,9 +13722,6 @@
       </c>
       <c r="H486" s="11">
         <v>7</v>
-      </c>
-      <c r="J486" s="11">
-        <v>2.83</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -14568,10 +14457,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A511">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14584,8 +14473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29:P57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15182,7 +15071,7 @@
         <f t="shared" si="1"/>
         <v>15.71</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="30">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
@@ -15638,63 +15527,63 @@
         <v>0.949438202247191</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>92</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="26">
         <v>45851</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="18">
         <v>83</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26">
         <v>94</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26">
         <v>85</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26">
         <v>86</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26">
         <v>85</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26">
         <v>79</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26">
         <v>86</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26">
         <v>70</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26">
         <v>79</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26">
         <v>78</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26">
         <v>84</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26">
         <v>84</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="23">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="23">
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
       <c r="R26" s="30">
-        <f t="shared" ref="R26:R28" si="5">O26-A26</f>
+        <f t="shared" ref="R26:R32" si="5">O26-A26</f>
         <v>-9</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S28" si="6">O26/A26</f>
+        <f t="shared" ref="S26:S32" si="6">O26/A26</f>
         <v>0.90217391304347827</v>
       </c>
     </row>
@@ -15818,46 +15707,58 @@
         <v>1.0649350649350648</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32">
+    <row r="29" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>80</v>
+      </c>
+      <c r="B29" s="40">
         <v>45854</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="41">
         <v>58</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="42">
         <v>74</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="42">
         <v>76</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="42">
         <v>60</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="42">
         <v>66</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="42">
         <v>72</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="42">
         <v>63</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="42">
         <v>70</v>
       </c>
-      <c r="O29" s="35">
+      <c r="O29" s="43">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="P29" s="35">
+      <c r="P29" s="43">
         <f t="shared" si="1"/>
         <v>5.15</v>
       </c>
+      <c r="R29" s="44">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="S29" s="42">
+        <f t="shared" si="6"/>
+        <v>0.83750000000000002</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="22">
+        <v>84</v>
+      </c>
       <c r="B30" s="26">
         <v>45855</v>
       </c>
@@ -15893,9 +15794,19 @@
         <f t="shared" si="1"/>
         <v>4.92</v>
       </c>
+      <c r="R30" s="44">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="S30" s="42">
+        <f t="shared" si="6"/>
+        <v>1.3452380952380953</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="22">
+        <v>127</v>
+      </c>
       <c r="B31" s="26">
         <v>45856</v>
       </c>
@@ -15931,9 +15842,19 @@
         <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
+      <c r="R31" s="44">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="S31" s="42">
+        <f t="shared" si="6"/>
+        <v>1.0472440944881889</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="22">
+        <v>210</v>
+      </c>
       <c r="B32" s="26">
         <v>45857</v>
       </c>
@@ -15969,41 +15890,49 @@
         <f t="shared" si="1"/>
         <v>2.83</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="26">
+      <c r="R32" s="44">
+        <f t="shared" si="5"/>
+        <v>-38</v>
+      </c>
+      <c r="S32" s="42">
+        <f t="shared" si="6"/>
+        <v>0.81904761904761902</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32">
         <v>45858</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="33">
         <v>50</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="34">
         <v>49</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="34">
         <v>48</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="34">
         <v>54</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="34">
         <v>45</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="34">
         <v>44</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="34">
         <v>51</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="34">
         <v>52</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O33" s="35">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="35">
         <f t="shared" si="1"/>
         <v>3.16</v>
       </c>
@@ -17089,19 +17018,19 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="C58:N58 M59:N59">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:N58">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>$O$58-$P$58</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="7" priority="3"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R28">
+  <conditionalFormatting sqref="R3:R32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FDCF9A-4F0C-42B8-9983-6EAC0265D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23278891-579B-499A-AC52-49E870801E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31050" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -490,14 +490,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,9 +864,9 @@
   </sheetPr>
   <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B486" sqref="B486"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I495" sqref="I494:I495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13506,7 +13504,7 @@
       <c r="E478" s="11">
         <v>77.900000000000006</v>
       </c>
-      <c r="F478" s="11">
+      <c r="F478" s="39">
         <v>1.29</v>
       </c>
       <c r="G478" s="11">
@@ -13532,8 +13530,8 @@
       <c r="E479" s="11">
         <v>77.7</v>
       </c>
-      <c r="F479" s="11">
-        <v>0.05</v>
+      <c r="F479" s="39">
+        <v>0.01</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
@@ -13556,9 +13554,9 @@
         <v>92</v>
       </c>
       <c r="E480" s="11">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="F480" s="11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F480" s="40">
         <v>0</v>
       </c>
       <c r="G480" s="11">
@@ -13582,9 +13580,9 @@
         <v>113</v>
       </c>
       <c r="E481" s="11">
-        <v>77.2</v>
-      </c>
-      <c r="F481" s="11">
+        <v>78.2</v>
+      </c>
+      <c r="F481" s="40">
         <v>0</v>
       </c>
       <c r="G481" s="11">
@@ -13608,9 +13606,9 @@
         <v>77</v>
       </c>
       <c r="E482" s="11">
-        <v>76.8</v>
-      </c>
-      <c r="F482" s="11">
+        <v>82.8</v>
+      </c>
+      <c r="F482" s="40">
         <v>0</v>
       </c>
       <c r="G482" s="11">
@@ -13634,10 +13632,10 @@
         <v>80</v>
       </c>
       <c r="E483" s="11">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="F483" s="11">
-        <v>0.65</v>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="F483" s="40">
+        <v>0</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
@@ -13660,10 +13658,10 @@
         <v>84</v>
       </c>
       <c r="E484" s="11">
-        <v>75.2</v>
-      </c>
-      <c r="F484" s="11">
-        <v>0.12</v>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F484" s="39">
+        <v>0.22</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
@@ -13686,9 +13684,9 @@
         <v>127</v>
       </c>
       <c r="E485" s="11">
-        <v>76</v>
-      </c>
-      <c r="F485" s="11">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F485" s="40">
         <v>0</v>
       </c>
       <c r="G485" s="11">
@@ -13712,10 +13710,10 @@
         <v>210</v>
       </c>
       <c r="E486" s="11">
-        <v>75</v>
-      </c>
-      <c r="F486" s="11">
-        <v>0.04</v>
+        <v>78.7</v>
+      </c>
+      <c r="F486" s="40">
+        <v>0</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -13735,13 +13733,13 @@
         <v>45858</v>
       </c>
       <c r="D487">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E487" s="11">
-        <v>69.5</v>
-      </c>
-      <c r="F487" s="11">
-        <v>0</v>
+        <v>73.8</v>
+      </c>
+      <c r="F487" s="39">
+        <v>0.17</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
@@ -13750,7 +13748,7 @@
         <v>6</v>
       </c>
       <c r="J487" s="11">
-        <v>3.16</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13764,13 +13762,13 @@
         <v>45859</v>
       </c>
       <c r="D488">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E488" s="11">
-        <v>69</v>
-      </c>
-      <c r="F488" s="11">
-        <v>0</v>
+        <v>75.8</v>
+      </c>
+      <c r="F488" s="39">
+        <v>0.04</v>
       </c>
       <c r="G488" s="11">
         <v>0</v>
@@ -13779,7 +13777,7 @@
         <v>4</v>
       </c>
       <c r="J488" s="11">
-        <v>3.6</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13793,7 +13791,7 @@
         <v>45860</v>
       </c>
       <c r="D489">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E489" s="11">
         <v>74.5</v>
@@ -13808,7 +13806,7 @@
         <v>7</v>
       </c>
       <c r="J489" s="11">
-        <v>4.1100000000000003</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13822,7 +13820,7 @@
         <v>45861</v>
       </c>
       <c r="D490">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E490" s="11">
         <v>76</v>
@@ -13837,7 +13835,7 @@
         <v>5</v>
       </c>
       <c r="J490" s="11">
-        <v>4.21</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13851,7 +13849,7 @@
         <v>45862</v>
       </c>
       <c r="D491">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E491" s="11">
         <v>73</v>
@@ -13866,7 +13864,7 @@
         <v>5</v>
       </c>
       <c r="J491" s="11">
-        <v>4.1500000000000004</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13880,7 +13878,7 @@
         <v>45863</v>
       </c>
       <c r="D492">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E492" s="11">
         <v>72</v>
@@ -13895,7 +13893,7 @@
         <v>7</v>
       </c>
       <c r="J492" s="11">
-        <v>3.41</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13909,7 +13907,7 @@
         <v>45864</v>
       </c>
       <c r="D493">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E493" s="11">
         <v>70</v>
@@ -13924,7 +13922,7 @@
         <v>5</v>
       </c>
       <c r="J493" s="11">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13953,7 +13951,7 @@
         <v>9</v>
       </c>
       <c r="J494" s="11">
-        <v>5.58</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13982,7 +13980,7 @@
         <v>10</v>
       </c>
       <c r="J495" s="11">
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13996,7 +13994,7 @@
         <v>45867</v>
       </c>
       <c r="D496">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E496" s="11">
         <v>73.5</v>
@@ -14011,7 +14009,7 @@
         <v>9</v>
       </c>
       <c r="J496" s="11">
-        <v>6.56</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -14025,7 +14023,7 @@
         <v>45868</v>
       </c>
       <c r="D497">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E497" s="11">
         <v>73</v>
@@ -14040,7 +14038,7 @@
         <v>8</v>
       </c>
       <c r="J497" s="11">
-        <v>4.18</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14054,7 +14052,7 @@
         <v>45869</v>
       </c>
       <c r="D498">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E498" s="11">
         <v>70</v>
@@ -14069,7 +14067,7 @@
         <v>9</v>
       </c>
       <c r="J498" s="11">
-        <v>4.82</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14083,7 +14081,7 @@
         <v>45870</v>
       </c>
       <c r="D499">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E499" s="11">
         <v>70</v>
@@ -14098,7 +14096,7 @@
         <v>8</v>
       </c>
       <c r="J499" s="11">
-        <v>4.3</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14127,7 +14125,7 @@
         <v>4</v>
       </c>
       <c r="J500" s="11">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14141,7 +14139,7 @@
         <v>45872</v>
       </c>
       <c r="D501">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14156,7 +14154,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>2.78</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14170,7 +14168,7 @@
         <v>45873</v>
       </c>
       <c r="D502">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E502" s="11">
         <v>74.5</v>
@@ -14185,7 +14183,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14199,7 +14197,7 @@
         <v>45874</v>
       </c>
       <c r="D503">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14214,7 +14212,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14228,7 +14226,7 @@
         <v>45875</v>
       </c>
       <c r="D504">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E504" s="11">
         <v>69</v>
@@ -14243,7 +14241,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14257,7 +14255,7 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14272,7 +14270,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>8.85</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14286,7 +14284,7 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E506" s="11">
         <v>69.5</v>
@@ -14301,7 +14299,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14330,7 +14328,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14344,7 +14342,7 @@
         <v>45879</v>
       </c>
       <c r="D508">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
@@ -14359,7 +14357,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>2.8</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14388,7 +14386,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14402,7 +14400,7 @@
         <v>45881</v>
       </c>
       <c r="D510">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E510" s="11">
         <v>71.5</v>
@@ -14417,7 +14415,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14446,7 +14444,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>2.92</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14473,8 +14471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15707,52 +15705,64 @@
         <v>1.0649350649350648</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
         <v>80</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="26">
         <v>45854</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="18">
         <v>58</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29">
         <v>74</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29">
         <v>76</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29">
         <v>60</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29">
         <v>66</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29">
         <v>72</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29">
         <v>63</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29">
         <v>70</v>
       </c>
-      <c r="O29" s="43">
+      <c r="K29">
+        <v>92</v>
+      </c>
+      <c r="L29">
+        <v>98</v>
+      </c>
+      <c r="M29">
+        <v>93</v>
+      </c>
+      <c r="N29">
+        <v>101</v>
+      </c>
+      <c r="O29" s="23">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="P29" s="43">
+        <v>77</v>
+      </c>
+      <c r="P29" s="23">
         <f t="shared" si="1"/>
-        <v>5.15</v>
-      </c>
-      <c r="R29" s="44">
+        <v>13.42</v>
+      </c>
+      <c r="R29" s="30">
         <f t="shared" si="5"/>
-        <v>-13</v>
-      </c>
-      <c r="S29" s="42">
+        <v>-3</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="6"/>
-        <v>0.83750000000000002</v>
+        <v>0.96250000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -15786,21 +15796,33 @@
       <c r="J30">
         <v>112</v>
       </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>99</v>
+      </c>
+      <c r="M30">
+        <v>107</v>
+      </c>
+      <c r="N30">
+        <v>95</v>
+      </c>
       <c r="O30" s="23">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="1"/>
-        <v>4.92</v>
-      </c>
-      <c r="R30" s="44">
+        <v>7.29</v>
+      </c>
+      <c r="R30" s="30">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="S30" s="42">
+        <v>24</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="6"/>
-        <v>1.3452380952380953</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -15834,21 +15856,33 @@
       <c r="J31">
         <v>133</v>
       </c>
+      <c r="K31">
+        <v>148</v>
+      </c>
+      <c r="L31">
+        <v>136</v>
+      </c>
+      <c r="M31">
+        <v>147</v>
+      </c>
+      <c r="N31">
+        <v>143</v>
+      </c>
       <c r="O31" s="23">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="R31" s="44">
+        <v>5.39</v>
+      </c>
+      <c r="R31" s="30">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="S31" s="42">
+        <v>10</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="6"/>
-        <v>1.0472440944881889</v>
+        <v>1.078740157480315</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -15882,21 +15916,33 @@
       <c r="J32">
         <v>171</v>
       </c>
+      <c r="K32">
+        <v>167</v>
+      </c>
+      <c r="L32">
+        <v>164</v>
+      </c>
+      <c r="M32">
+        <v>170</v>
+      </c>
+      <c r="N32">
+        <v>163</v>
+      </c>
       <c r="O32" s="23">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P32" s="23">
         <f t="shared" si="1"/>
-        <v>2.83</v>
-      </c>
-      <c r="R32" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="R32" s="30">
         <f t="shared" si="5"/>
-        <v>-38</v>
-      </c>
-      <c r="S32" s="42">
+        <v>-40</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="6"/>
-        <v>0.81904761904761902</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -15928,13 +15974,25 @@
       <c r="J33" s="34">
         <v>52</v>
       </c>
+      <c r="K33" s="34">
+        <v>66</v>
+      </c>
+      <c r="L33" s="34">
+        <v>61</v>
+      </c>
+      <c r="M33" s="34">
+        <v>58</v>
+      </c>
+      <c r="N33" s="34">
+        <v>58</v>
+      </c>
       <c r="O33" s="35">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P33" s="35">
         <f t="shared" si="1"/>
-        <v>3.16</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -15966,13 +16024,25 @@
       <c r="J34">
         <v>61</v>
       </c>
+      <c r="K34">
+        <v>77</v>
+      </c>
+      <c r="L34">
+        <v>81</v>
+      </c>
+      <c r="M34">
+        <v>81</v>
+      </c>
+      <c r="N34">
+        <v>81</v>
+      </c>
       <c r="O34" s="23">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P34" s="23">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -16004,13 +16074,25 @@
       <c r="J35">
         <v>86</v>
       </c>
+      <c r="K35">
+        <v>82</v>
+      </c>
+      <c r="L35">
+        <v>89</v>
+      </c>
+      <c r="M35">
+        <v>88</v>
+      </c>
+      <c r="N35">
+        <v>98</v>
+      </c>
       <c r="O35" s="23">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="1"/>
-        <v>4.1100000000000003</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -16042,13 +16124,25 @@
       <c r="J36">
         <v>56</v>
       </c>
+      <c r="K36">
+        <v>67</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+      <c r="M36">
+        <v>56</v>
+      </c>
+      <c r="N36">
+        <v>57</v>
+      </c>
       <c r="O36" s="23">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P36" s="23">
         <f t="shared" si="1"/>
-        <v>4.21</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -16080,13 +16174,25 @@
       <c r="J37">
         <v>76</v>
       </c>
+      <c r="K37">
+        <v>83</v>
+      </c>
+      <c r="L37">
+        <v>69</v>
+      </c>
+      <c r="M37">
+        <v>76</v>
+      </c>
+      <c r="N37">
+        <v>76</v>
+      </c>
       <c r="O37" s="23">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="1"/>
-        <v>4.1500000000000004</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -16118,17 +16224,25 @@
       <c r="J38" s="18">
         <v>191</v>
       </c>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
+      <c r="K38" s="18">
+        <v>178</v>
+      </c>
+      <c r="L38" s="18">
+        <v>186</v>
+      </c>
+      <c r="M38" s="18">
+        <v>185</v>
+      </c>
+      <c r="N38" s="19">
+        <v>190</v>
+      </c>
       <c r="O38" s="23">
         <f t="shared" ref="O38:O57" si="7">ROUND(AVERAGE(C38:N38),0)</f>
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>3.41</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -16160,17 +16274,25 @@
       <c r="J39" s="18">
         <v>186</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19"/>
+      <c r="K39" s="18">
+        <v>186</v>
+      </c>
+      <c r="L39" s="18">
+        <v>184</v>
+      </c>
+      <c r="M39" s="18">
+        <v>185</v>
+      </c>
+      <c r="N39" s="19">
+        <v>188</v>
+      </c>
       <c r="O39" s="23">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" ref="P39:P57" si="8">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -16202,17 +16324,25 @@
       <c r="J40" s="18">
         <v>54</v>
       </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
+      <c r="K40" s="18">
+        <v>63</v>
+      </c>
+      <c r="L40" s="18">
+        <v>62</v>
+      </c>
+      <c r="M40" s="18">
+        <v>70</v>
+      </c>
+      <c r="N40" s="19">
+        <v>67</v>
+      </c>
       <c r="O40" s="23">
         <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" si="8"/>
-        <v>5.58</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -16244,17 +16374,25 @@
       <c r="J41" s="18">
         <v>70</v>
       </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
+      <c r="K41" s="18">
+        <v>73</v>
+      </c>
+      <c r="L41" s="18">
+        <v>71</v>
+      </c>
+      <c r="M41" s="18">
+        <v>63</v>
+      </c>
+      <c r="N41" s="19">
+        <v>63</v>
+      </c>
       <c r="O41" s="23">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="8"/>
-        <v>5.15</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -16286,17 +16424,25 @@
       <c r="J42" s="18">
         <v>82</v>
       </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
+      <c r="K42" s="18">
+        <v>89</v>
+      </c>
+      <c r="L42" s="18">
+        <v>85</v>
+      </c>
+      <c r="M42" s="18">
+        <v>83</v>
+      </c>
+      <c r="N42" s="19">
+        <v>87</v>
+      </c>
       <c r="O42" s="23">
         <f t="shared" si="7"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P42" s="23">
         <f t="shared" si="8"/>
-        <v>6.56</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -16328,17 +16474,25 @@
       <c r="J43" s="18">
         <v>136</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
+      <c r="K43" s="18">
+        <v>124</v>
+      </c>
+      <c r="L43" s="18">
+        <v>133</v>
+      </c>
+      <c r="M43" s="18">
+        <v>132</v>
+      </c>
+      <c r="N43" s="19">
+        <v>130</v>
+      </c>
       <c r="O43" s="23">
         <f t="shared" si="7"/>
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="8"/>
-        <v>4.18</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -16370,17 +16524,25 @@
       <c r="J44" s="18">
         <v>167</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
+      <c r="K44" s="18">
+        <v>173</v>
+      </c>
+      <c r="L44" s="18">
+        <v>165</v>
+      </c>
+      <c r="M44" s="18">
+        <v>169</v>
+      </c>
+      <c r="N44" s="19">
+        <v>164</v>
+      </c>
       <c r="O44" s="23">
         <f t="shared" si="7"/>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="8"/>
-        <v>4.82</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -16412,17 +16574,25 @@
       <c r="J45" s="18">
         <v>176</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19"/>
+      <c r="K45" s="18">
+        <v>184</v>
+      </c>
+      <c r="L45" s="18">
+        <v>174</v>
+      </c>
+      <c r="M45" s="18">
+        <v>182</v>
+      </c>
+      <c r="N45" s="19">
+        <v>171</v>
+      </c>
       <c r="O45" s="23">
         <f t="shared" si="7"/>
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P45" s="23">
         <f t="shared" si="8"/>
-        <v>4.3</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -16454,17 +16624,25 @@
       <c r="J46" s="18">
         <v>51</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="19"/>
+      <c r="K46" s="18">
+        <v>60</v>
+      </c>
+      <c r="L46" s="18">
+        <v>49</v>
+      </c>
+      <c r="M46" s="18">
+        <v>56</v>
+      </c>
+      <c r="N46" s="19">
+        <v>51</v>
+      </c>
       <c r="O46" s="23">
         <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="P46" s="23">
         <f t="shared" si="8"/>
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -16496,17 +16674,25 @@
       <c r="J47" s="18">
         <v>67</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="19"/>
+      <c r="K47" s="18">
+        <v>67</v>
+      </c>
+      <c r="L47" s="18">
+        <v>65</v>
+      </c>
+      <c r="M47" s="18">
+        <v>71</v>
+      </c>
+      <c r="N47" s="19">
+        <v>71</v>
+      </c>
       <c r="O47" s="23">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" si="8"/>
-        <v>2.78</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -16538,17 +16724,25 @@
       <c r="J48" s="18">
         <v>67</v>
       </c>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="19"/>
+      <c r="K48" s="18">
+        <v>76</v>
+      </c>
+      <c r="L48" s="18">
+        <v>78</v>
+      </c>
+      <c r="M48" s="18">
+        <v>72</v>
+      </c>
+      <c r="N48" s="19">
+        <v>72</v>
+      </c>
       <c r="O48" s="23">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" si="8"/>
-        <v>4.6100000000000003</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -16580,17 +16774,25 @@
       <c r="J49" s="18">
         <v>55</v>
       </c>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="19"/>
+      <c r="K49" s="18">
+        <v>59</v>
+      </c>
+      <c r="L49" s="18">
+        <v>59</v>
+      </c>
+      <c r="M49" s="18">
+        <v>52</v>
+      </c>
+      <c r="N49" s="19">
+        <v>57</v>
+      </c>
       <c r="O49" s="23">
         <f t="shared" si="7"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P49" s="23">
         <f t="shared" si="8"/>
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -16622,17 +16824,25 @@
       <c r="J50" s="18">
         <v>118</v>
       </c>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19"/>
+      <c r="K50" s="18">
+        <v>111</v>
+      </c>
+      <c r="L50" s="18">
+        <v>114</v>
+      </c>
+      <c r="M50" s="18">
+        <v>118</v>
+      </c>
+      <c r="N50" s="19">
+        <v>112</v>
+      </c>
       <c r="O50" s="23">
         <f t="shared" si="7"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P50" s="23">
         <f t="shared" si="8"/>
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -16664,17 +16874,25 @@
       <c r="J51" s="18">
         <v>136</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
+      <c r="K51" s="18">
+        <v>149</v>
+      </c>
+      <c r="L51" s="18">
+        <v>134</v>
+      </c>
+      <c r="M51" s="18">
+        <v>137</v>
+      </c>
+      <c r="N51" s="19">
+        <v>135</v>
+      </c>
       <c r="O51" s="23">
         <f t="shared" si="7"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P51" s="23">
         <f t="shared" si="8"/>
-        <v>8.85</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -16706,17 +16924,25 @@
       <c r="J52" s="18">
         <v>184</v>
       </c>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
+      <c r="K52" s="18">
+        <v>186</v>
+      </c>
+      <c r="L52" s="18">
+        <v>183</v>
+      </c>
+      <c r="M52" s="18">
+        <v>186</v>
+      </c>
+      <c r="N52" s="19">
+        <v>185</v>
+      </c>
       <c r="O52" s="23">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P52" s="23">
         <f t="shared" si="8"/>
-        <v>3.62</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -16748,17 +16974,25 @@
       <c r="J53" s="18">
         <v>68</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="19"/>
+      <c r="K53" s="18">
+        <v>61</v>
+      </c>
+      <c r="L53" s="18">
+        <v>64</v>
+      </c>
+      <c r="M53" s="18">
+        <v>67</v>
+      </c>
+      <c r="N53" s="19">
+        <v>69</v>
+      </c>
       <c r="O53" s="23">
         <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="8"/>
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -16790,17 +17024,25 @@
       <c r="J54" s="18">
         <v>58</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
+      <c r="K54" s="18">
+        <v>67</v>
+      </c>
+      <c r="L54" s="18">
+        <v>63</v>
+      </c>
+      <c r="M54" s="18">
+        <v>61</v>
+      </c>
+      <c r="N54" s="19">
+        <v>74</v>
+      </c>
       <c r="O54" s="23">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="8"/>
-        <v>2.8</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -16832,17 +17074,25 @@
       <c r="J55" s="18">
         <v>55</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="19"/>
+      <c r="K55" s="18">
+        <v>59</v>
+      </c>
+      <c r="L55" s="18">
+        <v>54</v>
+      </c>
+      <c r="M55" s="18">
+        <v>62</v>
+      </c>
+      <c r="N55" s="19">
+        <v>59</v>
+      </c>
       <c r="O55" s="23">
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="8"/>
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -16874,17 +17124,25 @@
       <c r="J56" s="18">
         <v>66</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="19"/>
+      <c r="K56" s="18">
+        <v>68</v>
+      </c>
+      <c r="L56" s="18">
+        <v>68</v>
+      </c>
+      <c r="M56" s="18">
+        <v>69</v>
+      </c>
+      <c r="N56" s="19">
+        <v>67</v>
+      </c>
       <c r="O56" s="23">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" si="8"/>
-        <v>2.86</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16916,17 +17174,25 @@
       <c r="J57" s="20">
         <v>78</v>
       </c>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="28"/>
+      <c r="K57" s="20">
+        <v>83</v>
+      </c>
+      <c r="L57" s="20">
+        <v>74</v>
+      </c>
+      <c r="M57" s="20">
+        <v>77</v>
+      </c>
+      <c r="N57" s="28">
+        <v>80</v>
+      </c>
       <c r="O57" s="24">
         <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="P57" s="24">
         <f t="shared" si="8"/>
-        <v>2.92</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -16958,17 +17224,25 @@
       <c r="J58" s="18">
         <v>26.2</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="19"/>
+      <c r="K58" s="18">
+        <v>27.14</v>
+      </c>
+      <c r="L58" s="18">
+        <v>24.35</v>
+      </c>
+      <c r="M58" s="18">
+        <v>29.21</v>
+      </c>
+      <c r="N58" s="19">
+        <v>26.46</v>
+      </c>
       <c r="O58" s="23">
         <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>25.52</v>
+        <v>25.94</v>
       </c>
       <c r="P58" s="23">
         <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -17000,17 +17274,25 @@
       <c r="J59" s="18">
         <v>26.24</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
+      <c r="K59" s="18">
+        <v>25.88</v>
+      </c>
+      <c r="L59" s="18">
+        <v>26.64</v>
+      </c>
+      <c r="M59" s="18">
+        <v>25.5</v>
+      </c>
+      <c r="N59" s="18">
+        <v>25.99</v>
+      </c>
       <c r="O59" s="23">
         <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>25.6</v>
+        <v>25.74</v>
       </c>
       <c r="P59" s="23">
         <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23278891-579B-499A-AC52-49E870801E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F9DB34-F97B-4D1E-869E-AFA1344F3F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="2895" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,6 +481,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,17 +496,53 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -865,8 +907,8 @@
   <dimension ref="A1:K513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I495" sqref="I494:I495"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K502" sqref="K502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +916,8 @@
     <col min="1" max="2" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="11" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -13476,16 +13519,16 @@
         <v>85</v>
       </c>
       <c r="E477" s="11">
-        <v>74.3</v>
+        <v>74.8</v>
       </c>
       <c r="F477" s="11">
-        <v>0</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="G477" s="11">
         <v>0</v>
       </c>
       <c r="H477" s="11">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
@@ -13502,16 +13545,16 @@
         <v>146</v>
       </c>
       <c r="E478" s="11">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="F478" s="39">
-        <v>1.29</v>
+        <v>76.8</v>
+      </c>
+      <c r="F478" s="36">
+        <v>0.98799999999999999</v>
       </c>
       <c r="G478" s="11">
         <v>0</v>
       </c>
       <c r="H478" s="11">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
@@ -13528,16 +13571,16 @@
         <v>178</v>
       </c>
       <c r="E479" s="11">
-        <v>77.7</v>
-      </c>
-      <c r="F479" s="39">
-        <v>0.01</v>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="F479" s="37">
+        <v>0</v>
       </c>
       <c r="G479" s="11">
         <v>0</v>
       </c>
       <c r="H479" s="11">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
@@ -13554,16 +13597,16 @@
         <v>92</v>
       </c>
       <c r="E480" s="11">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="F480" s="40">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F480" s="37">
         <v>0</v>
       </c>
       <c r="G480" s="11">
         <v>0</v>
       </c>
       <c r="H480" s="11">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -13580,16 +13623,16 @@
         <v>113</v>
       </c>
       <c r="E481" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="F481" s="40">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F481" s="37">
         <v>0</v>
       </c>
       <c r="G481" s="11">
         <v>0</v>
       </c>
       <c r="H481" s="11">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
@@ -13606,16 +13649,16 @@
         <v>77</v>
       </c>
       <c r="E482" s="11">
-        <v>82.8</v>
-      </c>
-      <c r="F482" s="40">
+        <v>80.2</v>
+      </c>
+      <c r="F482" s="37">
         <v>0</v>
       </c>
       <c r="G482" s="11">
         <v>0</v>
       </c>
       <c r="H482" s="11">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
@@ -13632,16 +13675,16 @@
         <v>80</v>
       </c>
       <c r="E483" s="11">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="F483" s="40">
-        <v>0</v>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F483" s="37">
+        <v>0.35799999999999998</v>
       </c>
       <c r="G483" s="11">
         <v>0</v>
       </c>
       <c r="H483" s="11">
-        <v>8.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
@@ -13658,16 +13701,16 @@
         <v>84</v>
       </c>
       <c r="E484" s="11">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="F484" s="39">
-        <v>0.22</v>
+        <v>70.3</v>
+      </c>
+      <c r="F484" s="37">
+        <v>0</v>
       </c>
       <c r="G484" s="11">
         <v>0</v>
       </c>
       <c r="H484" s="11">
-        <v>8.8000000000000007</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -13684,16 +13727,16 @@
         <v>127</v>
       </c>
       <c r="E485" s="11">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="F485" s="40">
+        <v>67.5</v>
+      </c>
+      <c r="F485" s="37">
         <v>0</v>
       </c>
       <c r="G485" s="11">
         <v>0</v>
       </c>
       <c r="H485" s="11">
-        <v>13</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -13710,10 +13753,10 @@
         <v>210</v>
       </c>
       <c r="E486" s="11">
-        <v>78.7</v>
-      </c>
-      <c r="F486" s="40">
-        <v>0</v>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F486" s="37">
+        <v>0.189</v>
       </c>
       <c r="G486" s="11">
         <v>0</v>
@@ -13736,19 +13779,16 @@
         <v>53</v>
       </c>
       <c r="E487" s="11">
-        <v>73.8</v>
-      </c>
-      <c r="F487" s="39">
-        <v>0.17</v>
+        <v>77.5</v>
+      </c>
+      <c r="F487" s="36">
+        <v>0.87</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
       </c>
       <c r="H487" s="11">
-        <v>6</v>
-      </c>
-      <c r="J487" s="11">
-        <v>6.29</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -13762,22 +13802,19 @@
         <v>45859</v>
       </c>
       <c r="D488">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E488" s="11">
-        <v>75.8</v>
-      </c>
-      <c r="F488" s="39">
-        <v>0.04</v>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F488" s="37">
+        <v>0</v>
       </c>
       <c r="G488" s="11">
         <v>0</v>
       </c>
       <c r="H488" s="11">
-        <v>4</v>
-      </c>
-      <c r="J488" s="11">
-        <v>9.41</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -13791,22 +13828,19 @@
         <v>45860</v>
       </c>
       <c r="D489">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E489" s="11">
-        <v>74.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F489" s="11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G489" s="11">
         <v>0</v>
       </c>
       <c r="H489" s="11">
-        <v>7</v>
-      </c>
-      <c r="J489" s="11">
-        <v>4.79</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13820,22 +13854,22 @@
         <v>45861</v>
       </c>
       <c r="D490">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E490" s="11">
-        <v>76</v>
+        <v>83.1</v>
       </c>
       <c r="F490" s="11">
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G490" s="11">
         <v>0</v>
       </c>
       <c r="H490" s="11">
-        <v>5</v>
+        <v>11.1</v>
       </c>
       <c r="J490" s="11">
-        <v>4.58</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13849,22 +13883,22 @@
         <v>45862</v>
       </c>
       <c r="D491">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E491" s="11">
-        <v>73</v>
+        <v>82.4</v>
       </c>
       <c r="F491" s="11">
-        <v>0</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G491" s="11">
         <v>0</v>
       </c>
       <c r="H491" s="11">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="J491" s="11">
-        <v>4.59</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13878,22 +13912,22 @@
         <v>45863</v>
       </c>
       <c r="D492">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E492" s="11">
-        <v>72</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="F492" s="11">
-        <v>0</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J492" s="11">
-        <v>5.0599999999999996</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13907,10 +13941,10 @@
         <v>45864</v>
       </c>
       <c r="D493">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E493" s="11">
-        <v>70</v>
+        <v>77.5</v>
       </c>
       <c r="F493" s="11">
         <v>0</v>
@@ -13919,10 +13953,10 @@
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J493" s="11">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -13936,10 +13970,10 @@
         <v>45865</v>
       </c>
       <c r="D494">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E494" s="11">
-        <v>73.5</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="F494" s="11">
         <v>0.63</v>
@@ -13948,10 +13982,10 @@
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="J494" s="11">
-        <v>4.96</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -13965,10 +13999,10 @@
         <v>45866</v>
       </c>
       <c r="D495">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E495" s="11">
-        <v>71</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F495" s="11">
         <v>0.11</v>
@@ -13977,10 +14011,10 @@
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="J495" s="11">
-        <v>5.05</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -13994,10 +14028,10 @@
         <v>45867</v>
       </c>
       <c r="D496">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E496" s="11">
-        <v>73.5</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F496" s="11">
         <v>0.08</v>
@@ -14006,10 +14040,10 @@
         <v>0</v>
       </c>
       <c r="H496" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J496" s="11">
-        <v>6.05</v>
+        <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -14023,10 +14057,10 @@
         <v>45868</v>
       </c>
       <c r="D497">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E497" s="11">
-        <v>73</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F497" s="11">
         <v>0.02</v>
@@ -14035,10 +14069,10 @@
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J497" s="11">
-        <v>4.57</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14052,10 +14086,10 @@
         <v>45869</v>
       </c>
       <c r="D498">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E498" s="11">
-        <v>70</v>
+        <v>74.8</v>
       </c>
       <c r="F498" s="11">
         <v>0</v>
@@ -14064,10 +14098,10 @@
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="J498" s="11">
-        <v>4.72</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14081,10 +14115,10 @@
         <v>45870</v>
       </c>
       <c r="D499">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E499" s="11">
-        <v>70</v>
+        <v>74.5</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14093,10 +14127,10 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J499" s="11">
-        <v>4.97</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14110,10 +14144,10 @@
         <v>45871</v>
       </c>
       <c r="D500">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E500" s="11">
-        <v>69</v>
+        <v>74.5</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14122,10 +14156,10 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="J500" s="11">
-        <v>3.75</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14139,7 +14173,7 @@
         <v>45872</v>
       </c>
       <c r="D501">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E501" s="11">
         <v>71</v>
@@ -14154,7 +14188,7 @@
         <v>6</v>
       </c>
       <c r="J501" s="11">
-        <v>4.1900000000000004</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14168,7 +14202,7 @@
         <v>45873</v>
       </c>
       <c r="D502">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E502" s="11">
         <v>74.5</v>
@@ -14183,7 +14217,7 @@
         <v>5</v>
       </c>
       <c r="J502" s="11">
-        <v>4.68</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14197,7 +14231,7 @@
         <v>45874</v>
       </c>
       <c r="D503">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E503" s="11">
         <v>73.5</v>
@@ -14212,7 +14246,7 @@
         <v>5</v>
       </c>
       <c r="J503" s="11">
-        <v>2.74</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14241,7 +14275,7 @@
         <v>9</v>
       </c>
       <c r="J504" s="11">
-        <v>3.83</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14255,7 +14289,7 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E505" s="11">
         <v>68.5</v>
@@ -14270,7 +14304,7 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>8.69</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14284,7 +14318,7 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E506" s="11">
         <v>69.5</v>
@@ -14299,7 +14333,7 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>3.06</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14313,7 +14347,7 @@
         <v>45878</v>
       </c>
       <c r="D507">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E507" s="11">
         <v>72</v>
@@ -14328,7 +14362,7 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>3.05</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14342,7 +14376,7 @@
         <v>45879</v>
       </c>
       <c r="D508">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
@@ -14357,7 +14391,7 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14371,7 +14405,7 @@
         <v>45880</v>
       </c>
       <c r="D509">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E509" s="11">
         <v>69.5</v>
@@ -14386,7 +14420,7 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>2.81</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14415,7 +14449,7 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14429,7 +14463,7 @@
         <v>45882</v>
       </c>
       <c r="D511">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E511" s="11">
         <v>74</v>
@@ -14444,7 +14478,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14455,10 +14489,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A511">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14471,8 +14505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:P57"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14487,20 +14521,20 @@
         <v>43</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="36">
+      <c r="C2" s="38">
         <v>0.85</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
@@ -15577,11 +15611,11 @@
         <v>5.58</v>
       </c>
       <c r="R26" s="30">
-        <f t="shared" ref="R26:R32" si="5">O26-A26</f>
+        <f t="shared" ref="R26:R35" si="5">O26-A26</f>
         <v>-9</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S32" si="6">O26/A26</f>
+        <f t="shared" ref="S26:S35" si="6">O26/A26</f>
         <v>0.90217391304347827</v>
       </c>
     </row>
@@ -15945,58 +15979,70 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32">
+    <row r="33" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41">
+        <v>53</v>
+      </c>
+      <c r="B33" s="42">
         <v>45858</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="43">
         <v>50</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="44">
         <v>49</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="44">
         <v>48</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="44">
         <v>54</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="44">
         <v>45</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="44">
         <v>44</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="44">
         <v>51</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="44">
         <v>52</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="44">
         <v>66</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="44">
         <v>61</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="44">
         <v>58</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="44">
         <v>58</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="45">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P33" s="35">
+      <c r="P33" s="45">
         <f t="shared" si="1"/>
         <v>6.29</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="R33" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="44">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>66</v>
+      </c>
       <c r="B34" s="26">
         <v>45859</v>
       </c>
@@ -16044,14 +16090,24 @@
         <f t="shared" si="1"/>
         <v>9.41</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="R34" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="6"/>
+        <v>1.0151515151515151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>73</v>
+      </c>
       <c r="B35" s="26">
         <v>45860</v>
       </c>
       <c r="C35" s="18">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>96</v>
@@ -16094,655 +16150,607 @@
         <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="26">
+      <c r="R35" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>1.2328767123287672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32">
         <v>45861</v>
       </c>
-      <c r="C36" s="18">
-        <v>65</v>
-      </c>
-      <c r="D36">
-        <v>61</v>
-      </c>
-      <c r="E36">
-        <v>58</v>
-      </c>
-      <c r="F36">
-        <v>65</v>
-      </c>
-      <c r="G36">
-        <v>52</v>
-      </c>
-      <c r="H36">
-        <v>52</v>
-      </c>
-      <c r="I36">
-        <v>54</v>
-      </c>
-      <c r="J36">
-        <v>56</v>
-      </c>
-      <c r="K36">
-        <v>67</v>
-      </c>
-      <c r="L36">
-        <v>62</v>
-      </c>
-      <c r="M36">
-        <v>56</v>
-      </c>
-      <c r="N36">
-        <v>57</v>
-      </c>
-      <c r="O36" s="23">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="P36" s="23">
+      <c r="C36" s="33">
+        <v>79</v>
+      </c>
+      <c r="D36" s="34">
+        <v>74</v>
+      </c>
+      <c r="E36" s="34">
+        <v>85</v>
+      </c>
+      <c r="F36" s="34">
+        <v>80</v>
+      </c>
+      <c r="G36" s="34">
+        <v>71</v>
+      </c>
+      <c r="H36" s="34">
+        <v>77</v>
+      </c>
+      <c r="I36" s="34">
+        <v>79</v>
+      </c>
+      <c r="J36" s="34">
+        <v>71</v>
+      </c>
+      <c r="K36" s="34">
+        <v>76</v>
+      </c>
+      <c r="L36" s="34">
+        <v>74</v>
+      </c>
+      <c r="O36" s="35">
+        <f>ROUND(AVERAGE(C36:N36),0)</f>
+        <v>77</v>
+      </c>
+      <c r="P36" s="35">
         <f t="shared" si="1"/>
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="26">
         <v>45862</v>
       </c>
       <c r="C37" s="18">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>97</v>
+      </c>
+      <c r="F37">
+        <v>96</v>
+      </c>
+      <c r="G37">
+        <v>102</v>
+      </c>
+      <c r="H37">
         <v>76</v>
       </c>
-      <c r="D37">
-        <v>79</v>
-      </c>
-      <c r="E37">
-        <v>71</v>
-      </c>
-      <c r="F37">
-        <v>78</v>
-      </c>
-      <c r="G37">
+      <c r="I37">
+        <v>83</v>
+      </c>
+      <c r="J37">
+        <v>81</v>
+      </c>
+      <c r="K37">
         <v>68</v>
       </c>
-      <c r="H37">
-        <v>67</v>
-      </c>
-      <c r="I37">
-        <v>75</v>
-      </c>
-      <c r="J37">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>83</v>
-      </c>
       <c r="L37">
-        <v>69</v>
-      </c>
-      <c r="M37">
-        <v>76</v>
-      </c>
-      <c r="N37">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="O37" s="23">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="1"/>
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="26">
         <v>45863</v>
       </c>
       <c r="C38" s="18">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D38" s="18">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="E38" s="18">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F38" s="18">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="G38" s="18">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="H38" s="22">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="I38" s="18">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J38" s="18">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="K38" s="18">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="L38" s="18">
-        <v>186</v>
-      </c>
-      <c r="M38" s="18">
-        <v>185</v>
-      </c>
-      <c r="N38" s="19">
-        <v>190</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="23">
         <f t="shared" ref="O38:O57" si="7">ROUND(AVERAGE(C38:N38),0)</f>
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="26">
         <v>45864</v>
       </c>
       <c r="C39" s="18">
+        <v>172</v>
+      </c>
+      <c r="D39" s="18">
+        <v>171</v>
+      </c>
+      <c r="E39" s="18">
+        <v>169</v>
+      </c>
+      <c r="F39" s="18">
+        <v>170</v>
+      </c>
+      <c r="G39" s="18">
+        <v>173</v>
+      </c>
+      <c r="H39" s="22">
         <v>177</v>
       </c>
-      <c r="D39" s="18">
-        <v>186</v>
-      </c>
-      <c r="E39" s="18">
-        <v>184</v>
-      </c>
-      <c r="F39" s="18">
-        <v>183</v>
-      </c>
-      <c r="G39" s="18">
-        <v>187</v>
-      </c>
-      <c r="H39" s="22">
-        <v>188</v>
-      </c>
       <c r="I39" s="18">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="J39" s="18">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K39" s="18">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L39" s="18">
-        <v>184</v>
-      </c>
-      <c r="M39" s="18">
-        <v>185</v>
-      </c>
-      <c r="N39" s="19">
-        <v>188</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="23">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" ref="P39:P57" si="8">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="26">
         <v>45865</v>
       </c>
       <c r="C40" s="18">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="18">
         <v>69</v>
       </c>
       <c r="E40" s="18">
+        <v>57</v>
+      </c>
+      <c r="F40" s="18">
+        <v>64</v>
+      </c>
+      <c r="G40" s="18">
+        <v>54</v>
+      </c>
+      <c r="H40" s="22">
         <v>68</v>
       </c>
-      <c r="F40" s="18">
-        <v>58</v>
-      </c>
-      <c r="G40" s="18">
-        <v>66</v>
-      </c>
-      <c r="H40" s="22">
-        <v>72</v>
-      </c>
       <c r="I40" s="18">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40" s="18">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K40" s="18">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L40" s="18">
-        <v>62</v>
-      </c>
-      <c r="M40" s="18">
-        <v>70</v>
-      </c>
-      <c r="N40" s="19">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M40" s="18"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="23">
         <f t="shared" si="7"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" si="8"/>
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="26">
         <v>45866</v>
       </c>
       <c r="C41" s="18">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D41" s="18">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E41" s="18">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F41" s="18">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="18">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H41" s="22">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I41" s="18">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J41" s="18">
         <v>70</v>
       </c>
       <c r="K41" s="18">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L41" s="18">
-        <v>71</v>
-      </c>
-      <c r="M41" s="18">
-        <v>63</v>
-      </c>
-      <c r="N41" s="19">
-        <v>63</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="23">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="8"/>
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="26">
         <v>45867</v>
       </c>
       <c r="C42" s="18">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D42" s="18">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E42" s="18">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F42" s="18">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="G42" s="18">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="H42" s="22">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I42" s="18">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J42" s="18">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="K42" s="18">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L42" s="18">
-        <v>85</v>
-      </c>
-      <c r="M42" s="18">
-        <v>83</v>
-      </c>
-      <c r="N42" s="19">
-        <v>87</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="23">
         <f t="shared" si="7"/>
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="P42" s="23">
         <f t="shared" si="8"/>
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="26">
         <v>45868</v>
       </c>
       <c r="C43" s="18">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="18">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="18">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F43" s="18">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G43" s="18">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H43" s="22">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I43" s="18">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J43" s="18">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K43" s="18">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="L43" s="18">
-        <v>133</v>
-      </c>
-      <c r="M43" s="18">
-        <v>132</v>
-      </c>
-      <c r="N43" s="19">
-        <v>130</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="23">
         <f t="shared" si="7"/>
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="8"/>
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="26">
         <v>45869</v>
       </c>
       <c r="C44" s="18">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D44" s="18">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E44" s="18">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F44" s="18">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G44" s="18">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="H44" s="22">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="I44" s="18">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="J44" s="18">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K44" s="18">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L44" s="18">
-        <v>165</v>
-      </c>
-      <c r="M44" s="18">
-        <v>169</v>
-      </c>
-      <c r="N44" s="19">
-        <v>164</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M44" s="18"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="23">
         <f t="shared" si="7"/>
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" si="8"/>
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="26">
         <v>45870</v>
       </c>
       <c r="C45" s="18">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D45" s="18">
+        <v>171</v>
+      </c>
+      <c r="E45" s="18">
+        <v>175</v>
+      </c>
+      <c r="F45" s="18">
         <v>172</v>
       </c>
-      <c r="E45" s="18">
+      <c r="G45" s="18">
+        <v>177</v>
+      </c>
+      <c r="H45" s="22">
+        <v>182</v>
+      </c>
+      <c r="I45" s="18">
         <v>178</v>
       </c>
-      <c r="F45" s="18">
-        <v>181</v>
-      </c>
-      <c r="G45" s="18">
-        <v>171</v>
-      </c>
-      <c r="H45" s="22">
+      <c r="J45" s="18">
         <v>175</v>
       </c>
-      <c r="I45" s="18">
-        <v>166</v>
-      </c>
-      <c r="J45" s="18">
-        <v>176</v>
-      </c>
       <c r="K45" s="18">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L45" s="18">
-        <v>174</v>
-      </c>
-      <c r="M45" s="18">
-        <v>182</v>
-      </c>
-      <c r="N45" s="19">
-        <v>171</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M45" s="18"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="23">
         <f t="shared" si="7"/>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P45" s="23">
         <f t="shared" si="8"/>
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="26">
         <v>45871</v>
       </c>
       <c r="C46" s="18">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D46" s="18">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E46" s="18">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F46" s="18">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G46" s="18">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="H46" s="22">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I46" s="18">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J46" s="18">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K46" s="18">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L46" s="18">
-        <v>49</v>
-      </c>
-      <c r="M46" s="18">
-        <v>56</v>
-      </c>
-      <c r="N46" s="19">
-        <v>51</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="23">
         <f t="shared" si="7"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="P46" s="23">
         <f t="shared" si="8"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="26">
         <v>45872</v>
       </c>
       <c r="C47" s="18">
+        <v>70</v>
+      </c>
+      <c r="D47" s="18">
+        <v>70</v>
+      </c>
+      <c r="E47" s="18">
         <v>66</v>
       </c>
-      <c r="D47" s="18">
-        <v>59</v>
-      </c>
-      <c r="E47" s="18">
-        <v>64</v>
-      </c>
       <c r="F47" s="18">
+        <v>65</v>
+      </c>
+      <c r="G47" s="18">
+        <v>72</v>
+      </c>
+      <c r="H47" s="22">
+        <v>62</v>
+      </c>
+      <c r="I47" s="18">
+        <v>68</v>
+      </c>
+      <c r="J47" s="18">
+        <v>63</v>
+      </c>
+      <c r="K47" s="18">
         <v>60</v>
       </c>
-      <c r="G47" s="18">
-        <v>63</v>
-      </c>
-      <c r="H47" s="22">
-        <v>58</v>
-      </c>
-      <c r="I47" s="18">
-        <v>60</v>
-      </c>
-      <c r="J47" s="18">
-        <v>67</v>
-      </c>
-      <c r="K47" s="18">
-        <v>67</v>
-      </c>
       <c r="L47" s="18">
-        <v>65</v>
-      </c>
-      <c r="M47" s="18">
-        <v>71</v>
-      </c>
-      <c r="N47" s="19">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="23">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" si="8"/>
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="26">
         <v>45873</v>
       </c>
       <c r="C48" s="18">
+        <v>70</v>
+      </c>
+      <c r="D48" s="18">
+        <v>65</v>
+      </c>
+      <c r="E48" s="18">
+        <v>79</v>
+      </c>
+      <c r="F48" s="18">
+        <v>73</v>
+      </c>
+      <c r="G48" s="18">
+        <v>85</v>
+      </c>
+      <c r="H48" s="22">
+        <v>69</v>
+      </c>
+      <c r="I48" s="18">
         <v>76</v>
-      </c>
-      <c r="D48" s="18">
-        <v>74</v>
-      </c>
-      <c r="E48" s="18">
-        <v>73</v>
-      </c>
-      <c r="F48" s="18">
-        <v>77</v>
-      </c>
-      <c r="G48" s="18">
-        <v>68</v>
-      </c>
-      <c r="H48" s="22">
-        <v>63</v>
-      </c>
-      <c r="I48" s="18">
-        <v>64</v>
       </c>
       <c r="J48" s="18">
         <v>67</v>
       </c>
       <c r="K48" s="18">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L48" s="18">
-        <v>78</v>
-      </c>
-      <c r="M48" s="18">
-        <v>72</v>
-      </c>
-      <c r="N48" s="19">
-        <v>72</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M48" s="18"/>
+      <c r="N48" s="19"/>
       <c r="O48" s="23">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" si="8"/>
-        <v>4.68</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -16751,48 +16759,44 @@
         <v>45874</v>
       </c>
       <c r="C49" s="18">
+        <v>53</v>
+      </c>
+      <c r="D49" s="18">
+        <v>52</v>
+      </c>
+      <c r="E49" s="18">
+        <v>68</v>
+      </c>
+      <c r="F49" s="18">
+        <v>60</v>
+      </c>
+      <c r="G49" s="18">
+        <v>54</v>
+      </c>
+      <c r="H49" s="22">
         <v>59</v>
       </c>
-      <c r="D49" s="18">
-        <v>60</v>
-      </c>
-      <c r="E49" s="18">
+      <c r="I49" s="18">
         <v>56</v>
       </c>
-      <c r="F49" s="18">
-        <v>62</v>
-      </c>
-      <c r="G49" s="18">
-        <v>56</v>
-      </c>
-      <c r="H49" s="22">
-        <v>60</v>
-      </c>
-      <c r="I49" s="18">
-        <v>54</v>
-      </c>
       <c r="J49" s="18">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K49" s="18">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L49" s="18">
-        <v>59</v>
-      </c>
-      <c r="M49" s="18">
-        <v>52</v>
-      </c>
-      <c r="N49" s="19">
-        <v>57</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
       <c r="O49" s="23">
         <f t="shared" si="7"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P49" s="23">
         <f t="shared" si="8"/>
-        <v>2.74</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -16801,48 +16805,44 @@
         <v>45875</v>
       </c>
       <c r="C50" s="18">
+        <v>117</v>
+      </c>
+      <c r="D50" s="18">
+        <v>99</v>
+      </c>
+      <c r="E50" s="18">
+        <v>108</v>
+      </c>
+      <c r="F50" s="18">
+        <v>108</v>
+      </c>
+      <c r="G50" s="18">
+        <v>109</v>
+      </c>
+      <c r="H50" s="22">
+        <v>108</v>
+      </c>
+      <c r="I50" s="18">
+        <v>106</v>
+      </c>
+      <c r="J50" s="18">
+        <v>124</v>
+      </c>
+      <c r="K50" s="18">
         <v>105</v>
       </c>
-      <c r="D50" s="18">
-        <v>108</v>
-      </c>
-      <c r="E50" s="18">
-        <v>109</v>
-      </c>
-      <c r="F50" s="18">
-        <v>109</v>
-      </c>
-      <c r="G50" s="18">
-        <v>110</v>
-      </c>
-      <c r="H50" s="22">
-        <v>110</v>
-      </c>
-      <c r="I50" s="18">
-        <v>104</v>
-      </c>
-      <c r="J50" s="18">
-        <v>118</v>
-      </c>
-      <c r="K50" s="18">
-        <v>111</v>
-      </c>
       <c r="L50" s="18">
-        <v>114</v>
-      </c>
-      <c r="M50" s="18">
-        <v>118</v>
-      </c>
-      <c r="N50" s="19">
-        <v>112</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
       <c r="O50" s="23">
         <f t="shared" si="7"/>
         <v>111</v>
       </c>
       <c r="P50" s="23">
         <f t="shared" si="8"/>
-        <v>3.83</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -16854,45 +16854,41 @@
         <v>137</v>
       </c>
       <c r="D51" s="18">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E51" s="18">
+        <v>137</v>
+      </c>
+      <c r="F51" s="18">
+        <v>131</v>
+      </c>
+      <c r="G51" s="18">
+        <v>133</v>
+      </c>
+      <c r="H51" s="22">
+        <v>136</v>
+      </c>
+      <c r="I51" s="18">
+        <v>131</v>
+      </c>
+      <c r="J51" s="18">
+        <v>133</v>
+      </c>
+      <c r="K51" s="18">
         <v>125</v>
       </c>
-      <c r="F51" s="18">
-        <v>153</v>
-      </c>
-      <c r="G51" s="18">
-        <v>126</v>
-      </c>
-      <c r="H51" s="22">
-        <v>127</v>
-      </c>
-      <c r="I51" s="18">
-        <v>126</v>
-      </c>
-      <c r="J51" s="18">
-        <v>136</v>
-      </c>
-      <c r="K51" s="18">
-        <v>149</v>
-      </c>
       <c r="L51" s="18">
-        <v>134</v>
-      </c>
-      <c r="M51" s="18">
-        <v>137</v>
-      </c>
-      <c r="N51" s="19">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="23">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P51" s="23">
         <f t="shared" si="8"/>
-        <v>8.69</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -16901,48 +16897,44 @@
         <v>45877</v>
       </c>
       <c r="C52" s="18">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D52" s="18">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E52" s="18">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F52" s="18">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G52" s="18">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H52" s="22">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I52" s="18">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J52" s="18">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K52" s="18">
         <v>186</v>
       </c>
       <c r="L52" s="18">
-        <v>183</v>
-      </c>
-      <c r="M52" s="18">
-        <v>186</v>
-      </c>
-      <c r="N52" s="19">
-        <v>185</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="23">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P52" s="23">
         <f t="shared" si="8"/>
-        <v>3.06</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -16951,48 +16943,44 @@
         <v>45878</v>
       </c>
       <c r="C53" s="18">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D53" s="18">
+        <v>68</v>
+      </c>
+      <c r="E53" s="18">
+        <v>63</v>
+      </c>
+      <c r="F53" s="18">
+        <v>66</v>
+      </c>
+      <c r="G53" s="18">
+        <v>58</v>
+      </c>
+      <c r="H53" s="22">
+        <v>78</v>
+      </c>
+      <c r="I53" s="18">
         <v>67</v>
       </c>
-      <c r="E53" s="18">
-        <v>65</v>
-      </c>
-      <c r="F53" s="18">
-        <v>72</v>
-      </c>
-      <c r="G53" s="18">
-        <v>71</v>
-      </c>
-      <c r="H53" s="22">
-        <v>63</v>
-      </c>
-      <c r="I53" s="18">
-        <v>68</v>
-      </c>
       <c r="J53" s="18">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K53" s="18">
         <v>61</v>
       </c>
       <c r="L53" s="18">
-        <v>64</v>
-      </c>
-      <c r="M53" s="18">
-        <v>67</v>
-      </c>
-      <c r="N53" s="19">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="M53" s="18"/>
+      <c r="N53" s="19"/>
       <c r="O53" s="23">
         <f t="shared" si="7"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="8"/>
-        <v>3.05</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -17001,48 +16989,44 @@
         <v>45879</v>
       </c>
       <c r="C54" s="18">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D54" s="18">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E54" s="18">
+        <v>63</v>
+      </c>
+      <c r="F54" s="18">
+        <v>59</v>
+      </c>
+      <c r="G54" s="18">
+        <v>57</v>
+      </c>
+      <c r="H54" s="22">
+        <v>63</v>
+      </c>
+      <c r="I54" s="18">
         <v>64</v>
       </c>
-      <c r="F54" s="18">
-        <v>65</v>
-      </c>
-      <c r="G54" s="18">
-        <v>67</v>
-      </c>
-      <c r="H54" s="22">
-        <v>60</v>
-      </c>
-      <c r="I54" s="18">
-        <v>65</v>
-      </c>
       <c r="J54" s="18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K54" s="18">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L54" s="18">
-        <v>63</v>
-      </c>
-      <c r="M54" s="18">
-        <v>61</v>
-      </c>
-      <c r="N54" s="19">
-        <v>74</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
       <c r="O54" s="23">
         <f t="shared" si="7"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="8"/>
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -17051,48 +17035,44 @@
         <v>45880</v>
       </c>
       <c r="C55" s="18">
+        <v>71</v>
+      </c>
+      <c r="D55" s="18">
+        <v>59</v>
+      </c>
+      <c r="E55" s="18">
+        <v>57</v>
+      </c>
+      <c r="F55" s="18">
         <v>61</v>
       </c>
-      <c r="D55" s="18">
-        <v>56</v>
-      </c>
-      <c r="E55" s="18">
-        <v>60</v>
-      </c>
-      <c r="F55" s="18">
-        <v>55</v>
-      </c>
       <c r="G55" s="18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H55" s="22">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I55" s="18">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J55" s="18">
         <v>55</v>
       </c>
       <c r="K55" s="18">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L55" s="18">
-        <v>54</v>
-      </c>
-      <c r="M55" s="18">
-        <v>62</v>
-      </c>
-      <c r="N55" s="19">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M55" s="18"/>
+      <c r="N55" s="19"/>
       <c r="O55" s="23">
         <f t="shared" si="7"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="8"/>
-        <v>2.81</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -17101,48 +17081,44 @@
         <v>45881</v>
       </c>
       <c r="C56" s="18">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D56" s="18">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E56" s="18">
         <v>61</v>
       </c>
       <c r="F56" s="18">
+        <v>69</v>
+      </c>
+      <c r="G56" s="18">
+        <v>68</v>
+      </c>
+      <c r="H56" s="22">
+        <v>65</v>
+      </c>
+      <c r="I56" s="18">
+        <v>71</v>
+      </c>
+      <c r="J56" s="18">
+        <v>63</v>
+      </c>
+      <c r="K56" s="18">
         <v>67</v>
       </c>
-      <c r="G56" s="18">
+      <c r="L56" s="18">
         <v>66</v>
       </c>
-      <c r="H56" s="22">
-        <v>63</v>
-      </c>
-      <c r="I56" s="18">
-        <v>63</v>
-      </c>
-      <c r="J56" s="18">
-        <v>66</v>
-      </c>
-      <c r="K56" s="18">
-        <v>68</v>
-      </c>
-      <c r="L56" s="18">
-        <v>68</v>
-      </c>
-      <c r="M56" s="18">
-        <v>69</v>
-      </c>
-      <c r="N56" s="19">
-        <v>67</v>
-      </c>
+      <c r="M56" s="18"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="23">
         <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" si="8"/>
-        <v>2.68</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17151,48 +17127,44 @@
         <v>45882</v>
       </c>
       <c r="C57" s="27">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" s="20">
+        <v>71</v>
+      </c>
+      <c r="E57" s="20">
+        <v>74</v>
+      </c>
+      <c r="F57" s="20">
+        <v>75</v>
+      </c>
+      <c r="G57" s="20">
+        <v>75</v>
+      </c>
+      <c r="H57" s="25">
+        <v>79</v>
+      </c>
+      <c r="I57" s="20">
+        <v>81</v>
+      </c>
+      <c r="J57" s="20">
         <v>80</v>
       </c>
-      <c r="E57" s="20">
+      <c r="K57" s="20">
+        <v>75</v>
+      </c>
+      <c r="L57" s="20">
         <v>73</v>
       </c>
-      <c r="F57" s="20">
-        <v>80</v>
-      </c>
-      <c r="G57" s="20">
-        <v>74</v>
-      </c>
-      <c r="H57" s="25">
-        <v>72</v>
-      </c>
-      <c r="I57" s="20">
-        <v>78</v>
-      </c>
-      <c r="J57" s="20">
-        <v>78</v>
-      </c>
-      <c r="K57" s="20">
-        <v>83</v>
-      </c>
-      <c r="L57" s="20">
-        <v>74</v>
-      </c>
-      <c r="M57" s="20">
-        <v>77</v>
-      </c>
-      <c r="N57" s="28">
-        <v>80</v>
-      </c>
+      <c r="M57" s="20"/>
+      <c r="N57" s="28"/>
       <c r="O57" s="24">
         <f t="shared" si="7"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P57" s="24">
         <f t="shared" si="8"/>
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -17201,48 +17173,44 @@
         <v>40</v>
       </c>
       <c r="C58" s="18">
-        <v>23.15</v>
+        <v>26.3</v>
       </c>
       <c r="D58" s="18">
-        <v>23.56</v>
+        <v>24.3</v>
       </c>
       <c r="E58" s="18">
-        <v>30</v>
+        <v>29.18</v>
       </c>
       <c r="F58" s="18">
-        <v>23.65</v>
+        <v>26.67</v>
       </c>
       <c r="G58" s="18">
-        <v>28.74</v>
+        <v>29.39</v>
       </c>
       <c r="H58" s="22">
-        <v>26.49</v>
+        <v>26.88</v>
       </c>
       <c r="I58" s="18">
-        <v>22.33</v>
+        <v>22.95</v>
       </c>
       <c r="J58" s="18">
-        <v>26.2</v>
+        <v>22.65</v>
       </c>
       <c r="K58" s="18">
-        <v>27.14</v>
+        <v>21.52</v>
       </c>
       <c r="L58" s="18">
-        <v>24.35</v>
-      </c>
-      <c r="M58" s="18">
-        <v>29.21</v>
-      </c>
-      <c r="N58" s="19">
-        <v>26.46</v>
-      </c>
+        <v>27.59</v>
+      </c>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="23">
         <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>25.94</v>
+        <v>25.74</v>
       </c>
       <c r="P58" s="23">
         <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -17251,48 +17219,44 @@
         <v>41</v>
       </c>
       <c r="C59" s="18">
-        <v>24.77</v>
+        <v>25.22</v>
       </c>
       <c r="D59" s="18">
-        <v>25.45</v>
+        <v>25.16</v>
       </c>
       <c r="E59" s="18">
-        <v>25.44</v>
+        <v>24.47</v>
       </c>
       <c r="F59" s="18">
-        <v>25.49</v>
+        <v>23.47</v>
       </c>
       <c r="G59" s="18">
-        <v>25.67</v>
+        <v>23.05</v>
       </c>
       <c r="H59" s="22">
-        <v>26.03</v>
+        <v>25.33</v>
       </c>
       <c r="I59" s="18">
-        <v>25.74</v>
+        <v>26.84</v>
       </c>
       <c r="J59" s="18">
-        <v>26.24</v>
+        <v>23.88</v>
       </c>
       <c r="K59" s="18">
-        <v>25.88</v>
+        <v>23.98</v>
       </c>
       <c r="L59" s="18">
-        <v>26.64</v>
-      </c>
-      <c r="M59" s="18">
-        <v>25.5</v>
-      </c>
-      <c r="N59" s="18">
-        <v>25.99</v>
-      </c>
+        <v>23.05</v>
+      </c>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
       <c r="O59" s="23">
         <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>25.74</v>
+        <v>24.45</v>
       </c>
       <c r="P59" s="23">
         <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>0.34</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17300,19 +17264,19 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="C58:N58 M59:N59">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:N58">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>$O$58-$P$58</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
-    <cfRule type="aboveAverage" dxfId="0" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="5" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32">
+  <conditionalFormatting sqref="R3:R32 R34:R35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F9DB34-F97B-4D1E-869E-AFA1344F3F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC298B-F14B-4A46-9BC9-63FF239F1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33000" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,6 +487,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -496,53 +497,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -907,8 +866,8 @@
   <dimension ref="A1:K513"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K502" sqref="K502"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I511" sqref="I511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13779,10 +13738,10 @@
         <v>53</v>
       </c>
       <c r="E487" s="11">
-        <v>77.5</v>
+        <v>73.2</v>
       </c>
       <c r="F487" s="36">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="G487" s="11">
         <v>0</v>
@@ -13805,7 +13764,7 @@
         <v>66</v>
       </c>
       <c r="E488" s="11">
-        <v>73.400000000000006</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F488" s="37">
         <v>0</v>
@@ -13831,7 +13790,7 @@
         <v>73</v>
       </c>
       <c r="E489" s="11">
-        <v>77.900000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="F489" s="11">
         <v>0</v>
@@ -13840,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="H489" s="11">
-        <v>8.8000000000000007</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -13854,22 +13813,19 @@
         <v>45861</v>
       </c>
       <c r="D490">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E490" s="11">
-        <v>83.1</v>
+        <v>81.3</v>
       </c>
       <c r="F490" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G490" s="11">
         <v>0</v>
       </c>
       <c r="H490" s="11">
-        <v>11.1</v>
-      </c>
-      <c r="J490" s="11">
-        <v>4.05</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -13883,22 +13839,19 @@
         <v>45862</v>
       </c>
       <c r="D491">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E491" s="11">
-        <v>82.4</v>
+        <v>86</v>
       </c>
       <c r="F491" s="11">
-        <v>0.58299999999999996</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G491" s="11">
         <v>0</v>
       </c>
       <c r="H491" s="11">
-        <v>10.8</v>
-      </c>
-      <c r="J491" s="11">
-        <v>10.32</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -13912,22 +13865,19 @@
         <v>45863</v>
       </c>
       <c r="D492">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="E492" s="11">
-        <v>76.599999999999994</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F492" s="11">
-        <v>0.48399999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="J492" s="11">
-        <v>13.12</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -13941,27 +13891,24 @@
         <v>45864</v>
       </c>
       <c r="D493">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="E493" s="11">
-        <v>77.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="F493" s="11">
-        <v>0</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="G493" s="11">
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J493" s="11">
-        <v>2.02</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" s="7">
-        <v>2</v>
+      <c r="A494" s="16">
+        <v>1</v>
       </c>
       <c r="B494" s="7">
         <v>493</v>
@@ -13970,27 +13917,24 @@
         <v>45865</v>
       </c>
       <c r="D494">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E494" s="11">
-        <v>80.400000000000006</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F494" s="11">
-        <v>0.63</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G494" s="11">
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>6.5</v>
-      </c>
-      <c r="J494" s="11">
-        <v>4.9800000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B495" s="7">
         <v>494</v>
@@ -13999,27 +13943,24 @@
         <v>45866</v>
       </c>
       <c r="D495">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E495" s="11">
-        <v>81.900000000000006</v>
+        <v>83.3</v>
       </c>
       <c r="F495" s="11">
-        <v>0.11</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G495" s="11">
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="J495" s="11">
-        <v>3.41</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B496" s="7">
         <v>495</v>
@@ -14028,27 +13969,27 @@
         <v>45867</v>
       </c>
       <c r="D496">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="E496" s="11">
-        <v>80.099999999999994</v>
+        <v>82.9</v>
       </c>
       <c r="F496" s="11">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G496" s="11">
         <v>0</v>
       </c>
       <c r="H496" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J496" s="11">
-        <v>5.0199999999999996</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B497" s="7">
         <v>496</v>
@@ -14057,27 +13998,27 @@
         <v>45868</v>
       </c>
       <c r="D497">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E497" s="11">
-        <v>76.099999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="F497" s="11">
-        <v>0.02</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="G497" s="11">
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>7.7</v>
+        <v>10.1</v>
       </c>
       <c r="J497" s="11">
-        <v>5.25</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B498" s="7">
         <v>497</v>
@@ -14086,27 +14027,27 @@
         <v>45869</v>
       </c>
       <c r="D498">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="E498" s="11">
-        <v>74.8</v>
+        <v>70.2</v>
       </c>
       <c r="F498" s="11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G498" s="11">
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>7.9</v>
+        <v>13.5</v>
       </c>
       <c r="J498" s="11">
-        <v>4.38</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B499" s="7">
         <v>498</v>
@@ -14115,10 +14056,10 @@
         <v>45870</v>
       </c>
       <c r="D499">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E499" s="11">
-        <v>74.5</v>
+        <v>69.8</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14127,15 +14068,15 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="J499" s="11">
-        <v>3.26</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B500" s="7">
         <v>499</v>
@@ -14144,10 +14085,10 @@
         <v>45871</v>
       </c>
       <c r="D500">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E500" s="11">
-        <v>74.5</v>
+        <v>70.7</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14156,15 +14097,15 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J500" s="11">
-        <v>1.49</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B501" s="7">
         <v>500</v>
@@ -14173,10 +14114,10 @@
         <v>45872</v>
       </c>
       <c r="D501">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E501" s="11">
-        <v>71</v>
+        <v>72.7</v>
       </c>
       <c r="F501" s="11">
         <v>0</v>
@@ -14185,15 +14126,15 @@
         <v>0</v>
       </c>
       <c r="H501" s="11">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J501" s="11">
-        <v>3.49</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B502" s="7">
         <v>501</v>
@@ -14205,24 +14146,24 @@
         <v>73</v>
       </c>
       <c r="E502" s="11">
-        <v>74.5</v>
+        <v>74.3</v>
       </c>
       <c r="F502" s="11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G502" s="11">
         <v>0</v>
       </c>
       <c r="H502" s="11">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="J502" s="11">
-        <v>5.98</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B503" s="7">
         <v>502</v>
@@ -14231,27 +14172,27 @@
         <v>45874</v>
       </c>
       <c r="D503">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E503" s="11">
-        <v>73.5</v>
+        <v>75</v>
       </c>
       <c r="F503" s="11">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="G503" s="11">
         <v>0</v>
       </c>
       <c r="H503" s="11">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="J503" s="11">
-        <v>4.6500000000000004</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B504" s="7">
         <v>503</v>
@@ -14260,27 +14201,27 @@
         <v>45875</v>
       </c>
       <c r="D504">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E504" s="11">
-        <v>69</v>
+        <v>74.7</v>
       </c>
       <c r="F504" s="11">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G504" s="11">
         <v>0</v>
       </c>
       <c r="H504" s="11">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J504" s="11">
-        <v>7.18</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B505" s="7">
         <v>504</v>
@@ -14289,10 +14230,10 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E505" s="11">
-        <v>68.5</v>
+        <v>75</v>
       </c>
       <c r="F505" s="11">
         <v>0</v>
@@ -14304,12 +14245,12 @@
         <v>5</v>
       </c>
       <c r="J505" s="11">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B506" s="7">
         <v>505</v>
@@ -14318,10 +14259,10 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E506" s="11">
-        <v>69.5</v>
+        <v>75</v>
       </c>
       <c r="F506" s="11">
         <v>0</v>
@@ -14333,12 +14274,12 @@
         <v>6</v>
       </c>
       <c r="J506" s="11">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B507" s="7">
         <v>506</v>
@@ -14347,13 +14288,13 @@
         <v>45878</v>
       </c>
       <c r="D507">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="E507" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F507" s="11">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G507" s="11">
         <v>0</v>
@@ -14362,12 +14303,12 @@
         <v>15</v>
       </c>
       <c r="J507" s="11">
-        <v>5.42</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B508" s="7">
         <v>507</v>
@@ -14376,13 +14317,13 @@
         <v>45879</v>
       </c>
       <c r="D508">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E508" s="11">
         <v>74.5</v>
       </c>
       <c r="F508" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="G508" s="11">
         <v>0</v>
@@ -14391,12 +14332,12 @@
         <v>12</v>
       </c>
       <c r="J508" s="11">
-        <v>3.94</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B509" s="7">
         <v>508</v>
@@ -14405,13 +14346,13 @@
         <v>45880</v>
       </c>
       <c r="D509">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E509" s="11">
-        <v>69.5</v>
+        <v>73</v>
       </c>
       <c r="F509" s="11">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="G509" s="11">
         <v>0</v>
@@ -14420,12 +14361,12 @@
         <v>8</v>
       </c>
       <c r="J509" s="11">
-        <v>3.07</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B510" s="7">
         <v>509</v>
@@ -14434,7 +14375,7 @@
         <v>45881</v>
       </c>
       <c r="D510">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E510" s="11">
         <v>71.5</v>
@@ -14449,12 +14390,12 @@
         <v>5</v>
       </c>
       <c r="J510" s="11">
-        <v>2.79</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B511" s="7">
         <v>510</v>
@@ -14463,10 +14404,10 @@
         <v>45882</v>
       </c>
       <c r="D511">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E511" s="11">
-        <v>74</v>
+        <v>69.5</v>
       </c>
       <c r="F511" s="11">
         <v>0</v>
@@ -14478,7 +14419,7 @@
         <v>5</v>
       </c>
       <c r="J511" s="11">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
@@ -14488,11 +14429,11 @@
       <c r="A513" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A511">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A2:A512">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14505,8 +14446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36:P57"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14521,20 +14462,20 @@
         <v>43</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="38">
+      <c r="C2" s="39">
         <v>0.85</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
@@ -15979,68 +15920,68 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>53</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="26">
         <v>45858</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="18">
         <v>50</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33">
         <v>49</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33">
         <v>48</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33">
         <v>54</v>
       </c>
-      <c r="G33" s="44">
+      <c r="G33">
         <v>45</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33">
         <v>44</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33">
         <v>51</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33">
         <v>52</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33">
         <v>66</v>
       </c>
-      <c r="L33" s="44">
+      <c r="L33">
         <v>61</v>
       </c>
-      <c r="M33" s="44">
+      <c r="M33">
         <v>58</v>
       </c>
-      <c r="N33" s="44">
+      <c r="N33">
         <v>58</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="23">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="23">
         <f t="shared" si="1"/>
         <v>6.29</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S33" s="44">
+      <c r="S33">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+      <c r="A34">
         <v>66</v>
       </c>
       <c r="B34" s="26">
@@ -16100,7 +16041,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
+      <c r="A35">
         <v>73</v>
       </c>
       <c r="B35" s="26">
@@ -16159,52 +16100,64 @@
         <v>1.2328767123287672</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>61</v>
+      </c>
+      <c r="B36" s="26">
         <v>45861</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="18">
         <v>79</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36">
         <v>74</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36">
         <v>85</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36">
         <v>80</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36">
         <v>71</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36">
         <v>77</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36">
         <v>79</v>
       </c>
-      <c r="J36" s="34">
+      <c r="J36">
         <v>71</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36">
         <v>76</v>
       </c>
-      <c r="L36" s="34">
+      <c r="L36">
         <v>74</v>
       </c>
-      <c r="O36" s="35">
+      <c r="O36" s="23">
         <f>ROUND(AVERAGE(C36:N36),0)</f>
         <v>77</v>
       </c>
-      <c r="P36" s="35">
+      <c r="P36" s="23">
         <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
+      <c r="R36" s="30">
+        <f t="shared" ref="R36:R41" si="7">O36-A36</f>
+        <v>16</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S41" si="8">O36/A36</f>
+        <v>1.2622950819672132</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37">
+        <v>93</v>
+      </c>
       <c r="B37" s="26">
         <v>45862</v>
       </c>
@@ -16246,9 +16199,19 @@
         <f t="shared" si="1"/>
         <v>10.32</v>
       </c>
+      <c r="R37" s="30">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="8"/>
+        <v>0.94623655913978499</v>
+      </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38">
+        <v>122</v>
+      </c>
       <c r="B38" s="26">
         <v>45863</v>
       </c>
@@ -16285,16 +16248,26 @@
       <c r="M38" s="18"/>
       <c r="N38" s="19"/>
       <c r="O38" s="23">
-        <f t="shared" ref="O38:O57" si="7">ROUND(AVERAGE(C38:N38),0)</f>
+        <f t="shared" ref="O38:O57" si="9">ROUND(AVERAGE(C38:N38),0)</f>
         <v>158</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
         <v>13.12</v>
       </c>
+      <c r="R38" s="30">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="8"/>
+        <v>1.2950819672131149</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39">
+        <v>135</v>
+      </c>
       <c r="B39" s="26">
         <v>45864</v>
       </c>
@@ -16331,16 +16304,26 @@
       <c r="M39" s="18"/>
       <c r="N39" s="19"/>
       <c r="O39" s="23">
+        <f t="shared" si="9"/>
+        <v>172</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" ref="P39:P57" si="10">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <v>2.02</v>
+      </c>
+      <c r="R39" s="30">
         <f t="shared" si="7"/>
-        <v>172</v>
-      </c>
-      <c r="P39" s="23">
-        <f t="shared" ref="P39:P57" si="8">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
-        <v>2.02</v>
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="8"/>
+        <v>1.2740740740740741</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40">
+        <v>31</v>
+      </c>
       <c r="B40" s="26">
         <v>45865</v>
       </c>
@@ -16377,16 +16360,26 @@
       <c r="M40" s="18"/>
       <c r="N40" s="19"/>
       <c r="O40" s="23">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="10"/>
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="R40" s="30">
         <f t="shared" si="7"/>
-        <v>64</v>
-      </c>
-      <c r="P40" s="23">
+        <v>33</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="8"/>
-        <v>4.9800000000000004</v>
+        <v>2.064516129032258</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41">
+        <v>70</v>
+      </c>
       <c r="B41" s="26">
         <v>45866</v>
       </c>
@@ -16423,58 +16416,66 @@
       <c r="M41" s="18"/>
       <c r="N41" s="19"/>
       <c r="O41" s="23">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="10"/>
+        <v>3.41</v>
+      </c>
+      <c r="R41" s="30">
         <f t="shared" si="7"/>
-        <v>69</v>
-      </c>
-      <c r="P41" s="23">
+        <v>-1</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="8"/>
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="26">
+        <v>0.98571428571428577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32">
         <v>45867</v>
       </c>
-      <c r="C42" s="18">
-        <v>107</v>
-      </c>
-      <c r="D42" s="18">
-        <v>105</v>
-      </c>
-      <c r="E42" s="18">
-        <v>105</v>
-      </c>
-      <c r="F42" s="18">
-        <v>105</v>
-      </c>
-      <c r="G42" s="18">
-        <v>105</v>
-      </c>
-      <c r="H42" s="22">
-        <v>99</v>
-      </c>
-      <c r="I42" s="18">
-        <v>103</v>
-      </c>
-      <c r="J42" s="18">
-        <v>115</v>
-      </c>
-      <c r="K42" s="18">
-        <v>98</v>
-      </c>
-      <c r="L42" s="18">
-        <v>113</v>
-      </c>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="23">
-        <f t="shared" si="7"/>
-        <v>106</v>
-      </c>
-      <c r="P42" s="23">
-        <f t="shared" si="8"/>
-        <v>5.0199999999999996</v>
+      <c r="C42" s="33">
+        <v>66</v>
+      </c>
+      <c r="D42" s="33">
+        <v>74</v>
+      </c>
+      <c r="E42" s="33">
+        <v>74</v>
+      </c>
+      <c r="F42" s="33">
+        <v>78</v>
+      </c>
+      <c r="G42" s="33">
+        <v>72</v>
+      </c>
+      <c r="H42" s="31">
+        <v>70</v>
+      </c>
+      <c r="I42" s="33">
+        <v>66</v>
+      </c>
+      <c r="J42" s="33">
+        <v>72</v>
+      </c>
+      <c r="K42" s="33">
+        <v>85</v>
+      </c>
+      <c r="L42" s="33">
+        <v>75</v>
+      </c>
+      <c r="M42" s="33"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="35">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="P42" s="35">
+        <f t="shared" si="10"/>
+        <v>4.76</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -16483,44 +16484,44 @@
         <v>45868</v>
       </c>
       <c r="C43" s="18">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="D43" s="18">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="E43" s="18">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F43" s="18">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="G43" s="18">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="H43" s="22">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="I43" s="18">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="J43" s="18">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="K43" s="18">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="L43" s="18">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="M43" s="18"/>
       <c r="N43" s="19"/>
       <c r="O43" s="23">
-        <f t="shared" si="7"/>
-        <v>142</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="P43" s="23">
-        <f t="shared" si="8"/>
-        <v>5.25</v>
+        <f t="shared" si="10"/>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -16529,44 +16530,44 @@
         <v>45869</v>
       </c>
       <c r="C44" s="18">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="D44" s="18">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="E44" s="18">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="F44" s="18">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="G44" s="18">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="H44" s="22">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="I44" s="18">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="J44" s="18">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="K44" s="18">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="L44" s="18">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="M44" s="18"/>
       <c r="N44" s="19"/>
       <c r="O44" s="23">
-        <f t="shared" si="7"/>
-        <v>182</v>
+        <f t="shared" si="9"/>
+        <v>85</v>
       </c>
       <c r="P44" s="23">
-        <f t="shared" si="8"/>
-        <v>4.38</v>
+        <f t="shared" si="10"/>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -16575,44 +16576,44 @@
         <v>45870</v>
       </c>
       <c r="C45" s="18">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D45" s="18">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E45" s="18">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F45" s="18">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G45" s="18">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="H45" s="22">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I45" s="18">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="J45" s="18">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="K45" s="18">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="L45" s="18">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M45" s="18"/>
       <c r="N45" s="19"/>
       <c r="O45" s="23">
-        <f t="shared" si="7"/>
-        <v>176</v>
+        <f t="shared" si="9"/>
+        <v>159</v>
       </c>
       <c r="P45" s="23">
-        <f t="shared" si="8"/>
-        <v>3.26</v>
+        <f t="shared" si="10"/>
+        <v>2.19</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -16621,44 +16622,44 @@
         <v>45871</v>
       </c>
       <c r="C46" s="18">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="D46" s="18">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="E46" s="18">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="F46" s="18">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="G46" s="18">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="H46" s="22">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="I46" s="18">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="J46" s="18">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="K46" s="18">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="L46" s="18">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="M46" s="18"/>
       <c r="N46" s="19"/>
       <c r="O46" s="23">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>180</v>
       </c>
       <c r="P46" s="23">
-        <f t="shared" si="8"/>
-        <v>1.49</v>
+        <f t="shared" si="10"/>
+        <v>3.01</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -16667,44 +16668,44 @@
         <v>45872</v>
       </c>
       <c r="C47" s="18">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D47" s="18">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E47" s="18">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F47" s="18">
+        <v>62</v>
+      </c>
+      <c r="G47" s="18">
+        <v>62</v>
+      </c>
+      <c r="H47" s="22">
+        <v>56</v>
+      </c>
+      <c r="I47" s="18">
+        <v>52</v>
+      </c>
+      <c r="J47" s="18">
+        <v>53</v>
+      </c>
+      <c r="K47" s="18">
+        <v>63</v>
+      </c>
+      <c r="L47" s="18">
         <v>65</v>
-      </c>
-      <c r="G47" s="18">
-        <v>72</v>
-      </c>
-      <c r="H47" s="22">
-        <v>62</v>
-      </c>
-      <c r="I47" s="18">
-        <v>68</v>
-      </c>
-      <c r="J47" s="18">
-        <v>63</v>
-      </c>
-      <c r="K47" s="18">
-        <v>60</v>
-      </c>
-      <c r="L47" s="18">
-        <v>68</v>
       </c>
       <c r="M47" s="18"/>
       <c r="N47" s="19"/>
       <c r="O47" s="23">
-        <f t="shared" si="7"/>
-        <v>66</v>
+        <f t="shared" si="9"/>
+        <v>59</v>
       </c>
       <c r="P47" s="23">
-        <f t="shared" si="8"/>
-        <v>3.49</v>
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -16713,31 +16714,31 @@
         <v>45873</v>
       </c>
       <c r="C48" s="18">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D48" s="18">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E48" s="18">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="18">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G48" s="18">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H48" s="22">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I48" s="18">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J48" s="18">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K48" s="18">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L48" s="18">
         <v>75</v>
@@ -16745,12 +16746,12 @@
       <c r="M48" s="18"/>
       <c r="N48" s="19"/>
       <c r="O48" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="P48" s="23">
-        <f t="shared" si="8"/>
-        <v>5.98</v>
+        <f t="shared" si="10"/>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -16759,44 +16760,44 @@
         <v>45874</v>
       </c>
       <c r="C49" s="18">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D49" s="18">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E49" s="18">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F49" s="18">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="G49" s="18">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H49" s="22">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="I49" s="18">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J49" s="18">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="K49" s="18">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L49" s="18">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M49" s="18"/>
       <c r="N49" s="19"/>
       <c r="O49" s="23">
-        <f t="shared" si="7"/>
-        <v>59</v>
+        <f t="shared" si="9"/>
+        <v>91</v>
       </c>
       <c r="P49" s="23">
-        <f t="shared" si="8"/>
-        <v>4.6500000000000004</v>
+        <f t="shared" si="10"/>
+        <v>3.33</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -16805,44 +16806,44 @@
         <v>45875</v>
       </c>
       <c r="C50" s="18">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D50" s="18">
+        <v>101</v>
+      </c>
+      <c r="E50" s="18">
+        <v>104</v>
+      </c>
+      <c r="F50" s="18">
         <v>99</v>
       </c>
-      <c r="E50" s="18">
+      <c r="G50" s="18">
+        <v>104</v>
+      </c>
+      <c r="H50" s="22">
+        <v>109</v>
+      </c>
+      <c r="I50" s="18">
+        <v>107</v>
+      </c>
+      <c r="J50" s="18">
+        <v>98</v>
+      </c>
+      <c r="K50" s="18">
         <v>108</v>
       </c>
-      <c r="F50" s="18">
-        <v>108</v>
-      </c>
-      <c r="G50" s="18">
-        <v>109</v>
-      </c>
-      <c r="H50" s="22">
-        <v>108</v>
-      </c>
-      <c r="I50" s="18">
-        <v>106</v>
-      </c>
-      <c r="J50" s="18">
-        <v>124</v>
-      </c>
-      <c r="K50" s="18">
-        <v>105</v>
-      </c>
       <c r="L50" s="18">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="M50" s="18"/>
       <c r="N50" s="19"/>
       <c r="O50" s="23">
-        <f t="shared" si="7"/>
-        <v>111</v>
+        <f t="shared" si="9"/>
+        <v>104</v>
       </c>
       <c r="P50" s="23">
-        <f t="shared" si="8"/>
-        <v>7.18</v>
+        <f t="shared" si="10"/>
+        <v>4.53</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -16851,44 +16852,44 @@
         <v>45876</v>
       </c>
       <c r="C51" s="18">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="D51" s="18">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="E51" s="18">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="F51" s="18">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="G51" s="18">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="H51" s="22">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="I51" s="18">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="J51" s="18">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="K51" s="18">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="L51" s="18">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="M51" s="18"/>
       <c r="N51" s="19"/>
       <c r="O51" s="23">
-        <f t="shared" si="7"/>
-        <v>133</v>
+        <f t="shared" si="9"/>
+        <v>78</v>
       </c>
       <c r="P51" s="23">
-        <f t="shared" si="8"/>
-        <v>3.11</v>
+        <f t="shared" si="10"/>
+        <v>3.13</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -16897,44 +16898,44 @@
         <v>45877</v>
       </c>
       <c r="C52" s="18">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D52" s="18">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E52" s="18">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F52" s="18">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G52" s="18">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H52" s="22">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I52" s="18">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J52" s="18">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K52" s="18">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="L52" s="18">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M52" s="18"/>
       <c r="N52" s="19"/>
       <c r="O52" s="23">
-        <f t="shared" si="7"/>
-        <v>182</v>
+        <f t="shared" si="9"/>
+        <v>173</v>
       </c>
       <c r="P52" s="23">
-        <f t="shared" si="8"/>
-        <v>1.87</v>
+        <f t="shared" si="10"/>
+        <v>2.84</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -16943,44 +16944,44 @@
         <v>45878</v>
       </c>
       <c r="C53" s="18">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="D53" s="18">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="E53" s="18">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="F53" s="18">
-        <v>66</v>
+        <v>185</v>
       </c>
       <c r="G53" s="18">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="H53" s="22">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="I53" s="18">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="J53" s="18">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="K53" s="18">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="L53" s="18">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="M53" s="18"/>
       <c r="N53" s="19"/>
       <c r="O53" s="23">
-        <f t="shared" si="7"/>
-        <v>66</v>
+        <f t="shared" si="9"/>
+        <v>186</v>
       </c>
       <c r="P53" s="23">
-        <f t="shared" si="8"/>
-        <v>5.42</v>
+        <f t="shared" si="10"/>
+        <v>9.49</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -16989,44 +16990,44 @@
         <v>45879</v>
       </c>
       <c r="C54" s="18">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D54" s="18">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E54" s="18">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F54" s="18">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G54" s="18">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="H54" s="22">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I54" s="18">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J54" s="18">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K54" s="18">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L54" s="18">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M54" s="18"/>
       <c r="N54" s="19"/>
       <c r="O54" s="23">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="P54" s="23">
-        <f t="shared" si="8"/>
-        <v>3.94</v>
+        <f t="shared" si="10"/>
+        <v>3.77</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -17035,44 +17036,44 @@
         <v>45880</v>
       </c>
       <c r="C55" s="18">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D55" s="18">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E55" s="18">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F55" s="18">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G55" s="18">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H55" s="22">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I55" s="18">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="J55" s="18">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="K55" s="18">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="L55" s="18">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="M55" s="18"/>
       <c r="N55" s="19"/>
       <c r="O55" s="23">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f t="shared" si="9"/>
+        <v>87</v>
       </c>
       <c r="P55" s="23">
-        <f t="shared" si="8"/>
-        <v>3.07</v>
+        <f t="shared" si="10"/>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -17081,44 +17082,44 @@
         <v>45881</v>
       </c>
       <c r="C56" s="18">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D56" s="18">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E56" s="18">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F56" s="18">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G56" s="18">
         <v>68</v>
       </c>
       <c r="H56" s="22">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I56" s="18">
+        <v>68</v>
+      </c>
+      <c r="J56" s="18">
         <v>71</v>
       </c>
-      <c r="J56" s="18">
-        <v>63</v>
-      </c>
       <c r="K56" s="18">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L56" s="18">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="M56" s="18"/>
       <c r="N56" s="19"/>
       <c r="O56" s="23">
-        <f t="shared" si="7"/>
-        <v>66</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="P56" s="23">
-        <f t="shared" si="8"/>
-        <v>2.79</v>
+        <f t="shared" si="10"/>
+        <v>1.94</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17127,44 +17128,44 @@
         <v>45882</v>
       </c>
       <c r="C57" s="27">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D57" s="20">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E57" s="20">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F57" s="20">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G57" s="20">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H57" s="25">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="I57" s="20">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J57" s="20">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="K57" s="20">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L57" s="20">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M57" s="20"/>
       <c r="N57" s="28"/>
       <c r="O57" s="24">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" si="9"/>
+        <v>64</v>
       </c>
       <c r="P57" s="24">
-        <f t="shared" si="8"/>
-        <v>3.01</v>
+        <f t="shared" si="10"/>
+        <v>1.74</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -17173,44 +17174,44 @@
         <v>40</v>
       </c>
       <c r="C58" s="18">
-        <v>26.3</v>
+        <v>25.11</v>
       </c>
       <c r="D58" s="18">
-        <v>24.3</v>
+        <v>24.37</v>
       </c>
       <c r="E58" s="18">
-        <v>29.18</v>
+        <v>22.42</v>
       </c>
       <c r="F58" s="18">
-        <v>26.67</v>
+        <v>24</v>
       </c>
       <c r="G58" s="18">
-        <v>29.39</v>
+        <v>22.02</v>
       </c>
       <c r="H58" s="22">
+        <v>20.5</v>
+      </c>
+      <c r="I58" s="18">
+        <v>24.68</v>
+      </c>
+      <c r="J58" s="18">
+        <v>26.23</v>
+      </c>
+      <c r="K58" s="18">
+        <v>21.61</v>
+      </c>
+      <c r="L58" s="18">
         <v>26.88</v>
-      </c>
-      <c r="I58" s="18">
-        <v>22.95</v>
-      </c>
-      <c r="J58" s="18">
-        <v>22.65</v>
-      </c>
-      <c r="K58" s="18">
-        <v>21.52</v>
-      </c>
-      <c r="L58" s="18">
-        <v>27.59</v>
       </c>
       <c r="M58" s="18"/>
       <c r="N58" s="19"/>
       <c r="O58" s="23">
         <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>25.74</v>
+        <v>23.78</v>
       </c>
       <c r="P58" s="23">
         <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>2.7</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -17219,44 +17220,44 @@
         <v>41</v>
       </c>
       <c r="C59" s="18">
-        <v>25.22</v>
+        <v>26.65</v>
       </c>
       <c r="D59" s="18">
-        <v>25.16</v>
+        <v>25.88</v>
       </c>
       <c r="E59" s="18">
-        <v>24.47</v>
+        <v>29.54</v>
       </c>
       <c r="F59" s="18">
-        <v>23.47</v>
+        <v>27.76</v>
       </c>
       <c r="G59" s="18">
-        <v>23.05</v>
+        <v>27.2</v>
       </c>
       <c r="H59" s="22">
-        <v>25.33</v>
+        <v>28.15</v>
       </c>
       <c r="I59" s="18">
-        <v>26.84</v>
+        <v>26.47</v>
       </c>
       <c r="J59" s="18">
-        <v>23.88</v>
+        <v>25.93</v>
       </c>
       <c r="K59" s="18">
-        <v>23.98</v>
+        <v>28.87</v>
       </c>
       <c r="L59" s="18">
-        <v>23.05</v>
+        <v>24.28</v>
       </c>
       <c r="M59" s="18"/>
       <c r="N59" s="18"/>
       <c r="O59" s="23">
         <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>24.45</v>
+        <v>27.07</v>
       </c>
       <c r="P59" s="23">
         <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>1.1399999999999999</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -17264,19 +17265,19 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="C58:N58 M59:N59">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:N58">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>$O$58-$P$58</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
-    <cfRule type="aboveAverage" dxfId="5" priority="3"/>
-    <cfRule type="aboveAverage" dxfId="4" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="3"/>
+    <cfRule type="aboveAverage" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R35">
+  <conditionalFormatting sqref="R3:R32 R34:R41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC298B-F14B-4A46-9BC9-63FF239F1F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5893B03-983B-46CF-8C1F-4DE7E51015B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33000" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33345" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -366,19 +366,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -400,11 +387,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -464,11 +495,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -488,6 +518,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,11 +897,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K513"/>
+  <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I511" sqref="I511"/>
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I543" sqref="I543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13506,7 +13540,7 @@
       <c r="E478" s="11">
         <v>76.8</v>
       </c>
-      <c r="F478" s="36">
+      <c r="F478" s="35">
         <v>0.98799999999999999</v>
       </c>
       <c r="G478" s="11">
@@ -13532,7 +13566,7 @@
       <c r="E479" s="11">
         <v>76.599999999999994</v>
       </c>
-      <c r="F479" s="37">
+      <c r="F479" s="36">
         <v>0</v>
       </c>
       <c r="G479" s="11">
@@ -13558,7 +13592,7 @@
       <c r="E480" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F480" s="37">
+      <c r="F480" s="36">
         <v>0</v>
       </c>
       <c r="G480" s="11">
@@ -13568,7 +13602,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="7">
         <v>2</v>
       </c>
@@ -13584,7 +13618,7 @@
       <c r="E481" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F481" s="37">
+      <c r="F481" s="36">
         <v>0</v>
       </c>
       <c r="G481" s="11">
@@ -13594,7 +13628,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="7">
         <v>3</v>
       </c>
@@ -13610,7 +13644,7 @@
       <c r="E482" s="11">
         <v>80.2</v>
       </c>
-      <c r="F482" s="37">
+      <c r="F482" s="36">
         <v>0</v>
       </c>
       <c r="G482" s="11">
@@ -13620,7 +13654,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="7">
         <v>4</v>
       </c>
@@ -13636,7 +13670,7 @@
       <c r="E483" s="11">
         <v>81.099999999999994</v>
       </c>
-      <c r="F483" s="37">
+      <c r="F483" s="36">
         <v>0.35799999999999998</v>
       </c>
       <c r="G483" s="11">
@@ -13646,7 +13680,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="7">
         <v>5</v>
       </c>
@@ -13662,7 +13696,7 @@
       <c r="E484" s="11">
         <v>70.3</v>
       </c>
-      <c r="F484" s="37">
+      <c r="F484" s="36">
         <v>0</v>
       </c>
       <c r="G484" s="11">
@@ -13672,7 +13706,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="7">
         <v>6</v>
       </c>
@@ -13688,7 +13722,7 @@
       <c r="E485" s="11">
         <v>67.5</v>
       </c>
-      <c r="F485" s="37">
+      <c r="F485" s="36">
         <v>0</v>
       </c>
       <c r="G485" s="11">
@@ -13698,7 +13732,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="7">
         <v>7</v>
       </c>
@@ -13714,7 +13748,7 @@
       <c r="E486" s="11">
         <v>75.900000000000006</v>
       </c>
-      <c r="F486" s="37">
+      <c r="F486" s="36">
         <v>0.189</v>
       </c>
       <c r="G486" s="11">
@@ -13724,7 +13758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="7">
         <v>1</v>
       </c>
@@ -13740,7 +13774,7 @@
       <c r="E487" s="11">
         <v>73.2</v>
       </c>
-      <c r="F487" s="36">
+      <c r="F487" s="35">
         <v>0</v>
       </c>
       <c r="G487" s="11">
@@ -13750,7 +13784,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="7">
         <v>2</v>
       </c>
@@ -13766,7 +13800,7 @@
       <c r="E488" s="11">
         <v>72.099999999999994</v>
       </c>
-      <c r="F488" s="37">
+      <c r="F488" s="36">
         <v>0</v>
       </c>
       <c r="G488" s="11">
@@ -13776,7 +13810,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="7">
         <v>3</v>
       </c>
@@ -13802,7 +13836,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="7">
         <v>4</v>
       </c>
@@ -13828,7 +13862,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="7">
         <v>5</v>
       </c>
@@ -13854,7 +13888,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="7">
         <v>6</v>
       </c>
@@ -13868,19 +13902,19 @@
         <v>122</v>
       </c>
       <c r="E492" s="11">
-        <v>77.900000000000006</v>
+        <v>78.8</v>
       </c>
       <c r="F492" s="11">
-        <v>0.311</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G492" s="11">
         <v>0</v>
       </c>
       <c r="H492" s="11">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="7">
         <v>7</v>
       </c>
@@ -13894,19 +13928,19 @@
         <v>135</v>
       </c>
       <c r="E493" s="11">
-        <v>77.400000000000006</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F493" s="11">
-        <v>0.29899999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G493" s="11">
         <v>0</v>
       </c>
       <c r="H493" s="11">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="16">
         <v>1</v>
       </c>
@@ -13920,19 +13954,19 @@
         <v>31</v>
       </c>
       <c r="E494" s="11">
-        <v>80.099999999999994</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F494" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G494" s="11">
         <v>0</v>
       </c>
       <c r="H494" s="11">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="7">
         <v>2</v>
       </c>
@@ -13946,19 +13980,19 @@
         <v>70</v>
       </c>
       <c r="E495" s="11">
-        <v>83.3</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F495" s="11">
-        <v>1.6E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G495" s="11">
         <v>0</v>
       </c>
       <c r="H495" s="11">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="7">
         <v>3</v>
       </c>
@@ -13969,10 +14003,10 @@
         <v>45867</v>
       </c>
       <c r="D496">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E496" s="11">
-        <v>82.9</v>
+        <v>82.4</v>
       </c>
       <c r="F496" s="11">
         <v>0</v>
@@ -13982,9 +14016,6 @@
       </c>
       <c r="H496" s="11">
         <v>6</v>
-      </c>
-      <c r="J496" s="11">
-        <v>4.76</v>
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
@@ -13998,22 +14029,19 @@
         <v>45868</v>
       </c>
       <c r="D497">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="E497" s="11">
-        <v>75.2</v>
+        <v>81.7</v>
       </c>
       <c r="F497" s="11">
-        <v>0.48799999999999999</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="G497" s="11">
         <v>0</v>
       </c>
       <c r="H497" s="11">
-        <v>10.1</v>
-      </c>
-      <c r="J497" s="11">
-        <v>4.0599999999999996</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
@@ -14027,22 +14055,19 @@
         <v>45869</v>
       </c>
       <c r="D498">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E498" s="11">
-        <v>70.2</v>
+        <v>70.7</v>
       </c>
       <c r="F498" s="11">
-        <v>0.01</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G498" s="11">
         <v>0</v>
       </c>
       <c r="H498" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="J498" s="11">
-        <v>9.3800000000000008</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -14056,10 +14081,10 @@
         <v>45870</v>
       </c>
       <c r="D499">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="E499" s="11">
-        <v>69.8</v>
+        <v>68.7</v>
       </c>
       <c r="F499" s="11">
         <v>0</v>
@@ -14068,10 +14093,7 @@
         <v>0</v>
       </c>
       <c r="H499" s="11">
-        <v>10.3</v>
-      </c>
-      <c r="J499" s="11">
-        <v>2.19</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -14085,10 +14107,10 @@
         <v>45871</v>
       </c>
       <c r="D500">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="E500" s="11">
-        <v>70.7</v>
+        <v>69.8</v>
       </c>
       <c r="F500" s="11">
         <v>0</v>
@@ -14097,10 +14119,7 @@
         <v>0</v>
       </c>
       <c r="H500" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J500" s="11">
-        <v>3.01</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -14114,10 +14133,10 @@
         <v>45872</v>
       </c>
       <c r="D501">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E501" s="11">
-        <v>72.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="F501" s="11">
         <v>0</v>
@@ -14126,10 +14145,7 @@
         <v>0</v>
       </c>
       <c r="H501" s="11">
-        <v>5.8</v>
-      </c>
-      <c r="J501" s="11">
-        <v>4.1500000000000004</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -14143,10 +14159,10 @@
         <v>45873</v>
       </c>
       <c r="D502">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E502" s="11">
-        <v>74.3</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="F502" s="11">
         <v>0</v>
@@ -14155,10 +14171,7 @@
         <v>0</v>
       </c>
       <c r="H502" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="J502" s="11">
-        <v>2.5099999999999998</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -14172,22 +14185,19 @@
         <v>45874</v>
       </c>
       <c r="D503">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E503" s="11">
-        <v>75</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F503" s="11">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G503" s="11">
         <v>0</v>
       </c>
       <c r="H503" s="11">
-        <v>7.3</v>
-      </c>
-      <c r="J503" s="11">
-        <v>3.33</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -14201,10 +14211,10 @@
         <v>45875</v>
       </c>
       <c r="D504">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E504" s="11">
-        <v>74.7</v>
+        <v>77.2</v>
       </c>
       <c r="F504" s="11">
         <v>0</v>
@@ -14213,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="H504" s="11">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="J504" s="11">
-        <v>4.53</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14230,10 +14240,10 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E505" s="11">
-        <v>75</v>
+        <v>79.2</v>
       </c>
       <c r="F505" s="11">
         <v>0</v>
@@ -14242,10 +14252,10 @@
         <v>0</v>
       </c>
       <c r="H505" s="11">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="J505" s="11">
-        <v>3.13</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14259,10 +14269,10 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E506" s="11">
-        <v>75</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F506" s="11">
         <v>0</v>
@@ -14271,10 +14281,10 @@
         <v>0</v>
       </c>
       <c r="H506" s="11">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="J506" s="11">
-        <v>2.84</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14288,10 +14298,10 @@
         <v>45878</v>
       </c>
       <c r="D507">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E507" s="11">
-        <v>74</v>
+        <v>82.2</v>
       </c>
       <c r="F507" s="11">
         <v>0.22</v>
@@ -14300,10 +14310,10 @@
         <v>0</v>
       </c>
       <c r="H507" s="11">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J507" s="11">
-        <v>9.49</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -14317,10 +14327,10 @@
         <v>45879</v>
       </c>
       <c r="D508">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E508" s="11">
-        <v>74.5</v>
+        <v>80.2</v>
       </c>
       <c r="F508" s="11">
         <v>0.05</v>
@@ -14329,10 +14339,10 @@
         <v>0</v>
       </c>
       <c r="H508" s="11">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="J508" s="11">
-        <v>3.77</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -14346,10 +14356,10 @@
         <v>45880</v>
       </c>
       <c r="D509">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E509" s="11">
-        <v>73</v>
+        <v>77.2</v>
       </c>
       <c r="F509" s="11">
         <v>0.05</v>
@@ -14358,10 +14368,10 @@
         <v>0</v>
       </c>
       <c r="H509" s="11">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J509" s="11">
-        <v>4.9400000000000004</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -14375,10 +14385,10 @@
         <v>45881</v>
       </c>
       <c r="D510">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E510" s="11">
-        <v>71.5</v>
+        <v>75.7</v>
       </c>
       <c r="F510" s="11">
         <v>0</v>
@@ -14387,10 +14397,10 @@
         <v>0</v>
       </c>
       <c r="H510" s="11">
-        <v>5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J510" s="11">
-        <v>1.94</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -14404,32 +14414,1110 @@
         <v>45882</v>
       </c>
       <c r="D511">
+        <v>107</v>
+      </c>
+      <c r="E511" s="11">
+        <v>75</v>
+      </c>
+      <c r="F511" s="11">
+        <v>0</v>
+      </c>
+      <c r="G511" s="11">
+        <v>0</v>
+      </c>
+      <c r="H511" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="J511" s="11">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A512" s="7">
+        <v>5</v>
+      </c>
+      <c r="B512" s="7">
+        <v>511</v>
+      </c>
+      <c r="C512" s="8">
+        <v>45883</v>
+      </c>
+      <c r="D512" s="16">
+        <v>148</v>
+      </c>
+      <c r="E512" s="11">
+        <v>74.5</v>
+      </c>
+      <c r="F512" s="11">
+        <v>0</v>
+      </c>
+      <c r="G512" s="11">
+        <v>0</v>
+      </c>
+      <c r="H512" s="11">
+        <v>7.7</v>
+      </c>
+      <c r="J512" s="11">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A513" s="7">
+        <v>6</v>
+      </c>
+      <c r="B513" s="7">
+        <v>512</v>
+      </c>
+      <c r="C513" s="8">
+        <v>45884</v>
+      </c>
+      <c r="D513" s="16">
+        <v>170</v>
+      </c>
+      <c r="E513" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F513" s="11">
+        <v>0</v>
+      </c>
+      <c r="G513" s="11">
+        <v>0</v>
+      </c>
+      <c r="H513" s="11">
+        <v>6</v>
+      </c>
+      <c r="J513" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" s="7">
+        <v>7</v>
+      </c>
+      <c r="B514" s="7">
+        <v>513</v>
+      </c>
+      <c r="C514" s="8">
+        <v>45885</v>
+      </c>
+      <c r="D514" s="16">
+        <v>194</v>
+      </c>
+      <c r="E514" s="11">
+        <v>76</v>
+      </c>
+      <c r="F514" s="11">
+        <v>0</v>
+      </c>
+      <c r="G514" s="11">
+        <v>0</v>
+      </c>
+      <c r="H514" s="11">
+        <v>5</v>
+      </c>
+      <c r="J514" s="11">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" s="16">
+        <v>1</v>
+      </c>
+      <c r="B515" s="7">
+        <v>514</v>
+      </c>
+      <c r="C515" s="8">
+        <v>45886</v>
+      </c>
+      <c r="D515" s="16">
+        <v>73</v>
+      </c>
+      <c r="E515" s="11">
+        <v>75.5</v>
+      </c>
+      <c r="F515" s="11">
+        <v>0</v>
+      </c>
+      <c r="G515" s="11">
+        <v>0</v>
+      </c>
+      <c r="H515" s="11">
+        <v>7</v>
+      </c>
+      <c r="J515" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" s="7">
+        <v>2</v>
+      </c>
+      <c r="B516" s="7">
+        <v>515</v>
+      </c>
+      <c r="C516" s="8">
+        <v>45887</v>
+      </c>
+      <c r="D516" s="16">
+        <v>67</v>
+      </c>
+      <c r="E516" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F516" s="11">
+        <v>0.41</v>
+      </c>
+      <c r="G516" s="11">
+        <v>0</v>
+      </c>
+      <c r="H516" s="11">
+        <v>5</v>
+      </c>
+      <c r="J516" s="11">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" s="7">
+        <v>3</v>
+      </c>
+      <c r="B517" s="7">
+        <v>516</v>
+      </c>
+      <c r="C517" s="8">
+        <v>45888</v>
+      </c>
+      <c r="D517" s="16">
+        <v>78</v>
+      </c>
+      <c r="E517" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F517" s="11">
+        <v>0</v>
+      </c>
+      <c r="G517" s="11">
+        <v>0</v>
+      </c>
+      <c r="H517" s="11">
+        <v>4</v>
+      </c>
+      <c r="J517" s="11">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A518" s="7">
+        <v>4</v>
+      </c>
+      <c r="B518" s="7">
+        <v>517</v>
+      </c>
+      <c r="C518" s="8">
+        <v>45889</v>
+      </c>
+      <c r="D518" s="16">
+        <v>102</v>
+      </c>
+      <c r="E518" s="11">
+        <v>74</v>
+      </c>
+      <c r="F518" s="11">
+        <v>0</v>
+      </c>
+      <c r="G518" s="11">
+        <v>0</v>
+      </c>
+      <c r="H518" s="11">
+        <v>8</v>
+      </c>
+      <c r="J518" s="11">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A519" s="7">
+        <v>5</v>
+      </c>
+      <c r="B519" s="7">
+        <v>518</v>
+      </c>
+      <c r="C519" s="8">
+        <v>45890</v>
+      </c>
+      <c r="D519" s="16">
+        <v>139</v>
+      </c>
+      <c r="E519" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F519" s="11">
+        <v>0</v>
+      </c>
+      <c r="G519" s="11">
+        <v>0</v>
+      </c>
+      <c r="H519" s="11">
+        <v>7</v>
+      </c>
+      <c r="J519" s="11">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A520" s="7">
+        <v>6</v>
+      </c>
+      <c r="B520" s="7">
+        <v>519</v>
+      </c>
+      <c r="C520" s="8">
+        <v>45891</v>
+      </c>
+      <c r="D520" s="16">
+        <v>143</v>
+      </c>
+      <c r="E520" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F520" s="11">
+        <v>0</v>
+      </c>
+      <c r="G520" s="11">
+        <v>0</v>
+      </c>
+      <c r="H520" s="11">
+        <v>4</v>
+      </c>
+      <c r="J520" s="11">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A521" s="7">
+        <v>7</v>
+      </c>
+      <c r="B521" s="7">
+        <v>520</v>
+      </c>
+      <c r="C521" s="8">
+        <v>45892</v>
+      </c>
+      <c r="D521" s="16">
+        <v>190</v>
+      </c>
+      <c r="E521" s="11">
+        <v>74</v>
+      </c>
+      <c r="F521" s="11">
+        <v>0</v>
+      </c>
+      <c r="G521" s="11">
+        <v>0</v>
+      </c>
+      <c r="H521" s="11">
+        <v>6</v>
+      </c>
+      <c r="J521" s="11">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A522" s="7">
+        <v>1</v>
+      </c>
+      <c r="B522" s="7">
+        <v>521</v>
+      </c>
+      <c r="C522" s="8">
+        <v>45893</v>
+      </c>
+      <c r="D522" s="16">
+        <v>70</v>
+      </c>
+      <c r="E522" s="11">
+        <v>74</v>
+      </c>
+      <c r="F522" s="11">
+        <v>0</v>
+      </c>
+      <c r="G522" s="11">
+        <v>0</v>
+      </c>
+      <c r="H522" s="11">
+        <v>7</v>
+      </c>
+      <c r="J522" s="11">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A523" s="7">
+        <v>2</v>
+      </c>
+      <c r="B523" s="7">
+        <v>522</v>
+      </c>
+      <c r="C523" s="8">
+        <v>45894</v>
+      </c>
+      <c r="D523" s="16">
+        <v>87</v>
+      </c>
+      <c r="E523" s="11">
+        <v>74</v>
+      </c>
+      <c r="F523" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G523" s="11">
+        <v>0</v>
+      </c>
+      <c r="H523" s="11">
+        <v>9</v>
+      </c>
+      <c r="J523" s="11">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A524" s="7">
+        <v>3</v>
+      </c>
+      <c r="B524" s="7">
+        <v>523</v>
+      </c>
+      <c r="C524" s="8">
+        <v>45895</v>
+      </c>
+      <c r="D524" s="16">
+        <v>68</v>
+      </c>
+      <c r="E524" s="11">
+        <v>74</v>
+      </c>
+      <c r="F524" s="11">
+        <v>0.21</v>
+      </c>
+      <c r="G524" s="11">
+        <v>0</v>
+      </c>
+      <c r="H524" s="11">
+        <v>7</v>
+      </c>
+      <c r="J524" s="11">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A525" s="7">
+        <v>4</v>
+      </c>
+      <c r="B525" s="7">
+        <v>524</v>
+      </c>
+      <c r="C525" s="8">
+        <v>45896</v>
+      </c>
+      <c r="D525" s="16">
+        <v>68</v>
+      </c>
+      <c r="E525" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F525" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="G525" s="11">
+        <v>0</v>
+      </c>
+      <c r="H525" s="11">
+        <v>5</v>
+      </c>
+      <c r="J525" s="11">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A526" s="7">
+        <v>5</v>
+      </c>
+      <c r="B526" s="7">
+        <v>525</v>
+      </c>
+      <c r="C526" s="8">
+        <v>45897</v>
+      </c>
+      <c r="D526" s="16">
+        <v>145</v>
+      </c>
+      <c r="E526" s="11">
+        <v>71</v>
+      </c>
+      <c r="F526" s="11">
+        <v>0</v>
+      </c>
+      <c r="G526" s="11">
+        <v>0</v>
+      </c>
+      <c r="H526" s="11">
+        <v>8</v>
+      </c>
+      <c r="J526" s="11">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A527" s="7">
+        <v>6</v>
+      </c>
+      <c r="B527" s="7">
+        <v>526</v>
+      </c>
+      <c r="C527" s="8">
+        <v>45898</v>
+      </c>
+      <c r="D527" s="16">
+        <v>157</v>
+      </c>
+      <c r="E527" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F527" s="11">
+        <v>0</v>
+      </c>
+      <c r="G527" s="11">
+        <v>0</v>
+      </c>
+      <c r="H527" s="11">
+        <v>6</v>
+      </c>
+      <c r="J527" s="11">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A528" s="7">
+        <v>7</v>
+      </c>
+      <c r="B528" s="7">
+        <v>527</v>
+      </c>
+      <c r="C528" s="8">
+        <v>45899</v>
+      </c>
+      <c r="D528" s="16">
+        <v>190</v>
+      </c>
+      <c r="E528" s="11">
+        <v>72</v>
+      </c>
+      <c r="F528" s="11">
+        <v>0</v>
+      </c>
+      <c r="G528" s="11">
+        <v>0</v>
+      </c>
+      <c r="H528" s="11">
+        <v>6</v>
+      </c>
+      <c r="J528" s="11">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A529" s="7">
+        <v>1</v>
+      </c>
+      <c r="B529" s="7">
+        <v>528</v>
+      </c>
+      <c r="C529" s="8">
+        <v>45900</v>
+      </c>
+      <c r="D529" s="16">
+        <v>93</v>
+      </c>
+      <c r="E529" s="11">
+        <v>72.5</v>
+      </c>
+      <c r="F529" s="11">
+        <v>0</v>
+      </c>
+      <c r="G529" s="11">
+        <v>0</v>
+      </c>
+      <c r="H529" s="11">
+        <v>1</v>
+      </c>
+      <c r="J529" s="11">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A530" s="7">
+        <v>2</v>
+      </c>
+      <c r="B530" s="7">
+        <v>529</v>
+      </c>
+      <c r="C530" s="8">
+        <v>45901</v>
+      </c>
+      <c r="D530" s="16">
+        <v>28</v>
+      </c>
+      <c r="E530" s="11">
+        <v>73</v>
+      </c>
+      <c r="F530" s="11">
+        <v>0</v>
+      </c>
+      <c r="G530" s="11">
+        <v>0</v>
+      </c>
+      <c r="H530" s="11">
+        <v>2</v>
+      </c>
+      <c r="I530" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J530" s="11">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A531" s="7">
+        <v>3</v>
+      </c>
+      <c r="B531" s="7">
+        <v>530</v>
+      </c>
+      <c r="C531" s="8">
+        <v>45902</v>
+      </c>
+      <c r="D531" s="16">
+        <v>66</v>
+      </c>
+      <c r="E531" s="11">
+        <v>72</v>
+      </c>
+      <c r="F531" s="11">
+        <v>0</v>
+      </c>
+      <c r="G531" s="11">
+        <v>0</v>
+      </c>
+      <c r="H531" s="11">
+        <v>7</v>
+      </c>
+      <c r="J531" s="11">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A532" s="7">
+        <v>4</v>
+      </c>
+      <c r="B532" s="7">
+        <v>531</v>
+      </c>
+      <c r="C532" s="8">
+        <v>45903</v>
+      </c>
+      <c r="D532" s="16">
+        <v>53</v>
+      </c>
+      <c r="E532" s="11">
+        <v>71.5</v>
+      </c>
+      <c r="F532" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="G532" s="11">
+        <v>0</v>
+      </c>
+      <c r="H532" s="11">
+        <v>9</v>
+      </c>
+      <c r="J532" s="11">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A533" s="7">
+        <v>5</v>
+      </c>
+      <c r="B533" s="7">
+        <v>532</v>
+      </c>
+      <c r="C533" s="8">
+        <v>45904</v>
+      </c>
+      <c r="D533" s="16">
+        <v>78</v>
+      </c>
+      <c r="E533" s="11">
+        <v>72</v>
+      </c>
+      <c r="F533" s="11">
+        <v>0</v>
+      </c>
+      <c r="G533" s="11">
+        <v>0</v>
+      </c>
+      <c r="H533" s="11">
+        <v>5</v>
+      </c>
+      <c r="J533" s="11">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A534" s="7">
+        <v>6</v>
+      </c>
+      <c r="B534" s="7">
+        <v>533</v>
+      </c>
+      <c r="C534" s="8">
+        <v>45905</v>
+      </c>
+      <c r="D534" s="16">
+        <v>135</v>
+      </c>
+      <c r="E534" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F534" s="11">
+        <v>0</v>
+      </c>
+      <c r="G534" s="11">
+        <v>0</v>
+      </c>
+      <c r="H534" s="11">
+        <v>5</v>
+      </c>
+      <c r="J534" s="11">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A535" s="7">
+        <v>7</v>
+      </c>
+      <c r="B535" s="7">
+        <v>534</v>
+      </c>
+      <c r="C535" s="8">
+        <v>45906</v>
+      </c>
+      <c r="D535" s="16">
+        <v>205</v>
+      </c>
+      <c r="E535" s="11">
+        <v>71</v>
+      </c>
+      <c r="F535" s="11">
+        <v>0</v>
+      </c>
+      <c r="G535" s="11">
+        <v>0</v>
+      </c>
+      <c r="H535" s="11">
+        <v>4</v>
+      </c>
+      <c r="J535" s="11">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A536" s="7">
+        <v>1</v>
+      </c>
+      <c r="B536" s="7">
+        <v>535</v>
+      </c>
+      <c r="C536" s="8">
+        <v>45907</v>
+      </c>
+      <c r="D536" s="16">
+        <v>69</v>
+      </c>
+      <c r="E536" s="11">
+        <v>71</v>
+      </c>
+      <c r="F536" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="G536" s="11">
+        <v>0</v>
+      </c>
+      <c r="H536" s="11">
+        <v>7</v>
+      </c>
+      <c r="J536" s="11">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A537" s="7">
+        <v>2</v>
+      </c>
+      <c r="B537" s="7">
+        <v>536</v>
+      </c>
+      <c r="C537" s="8">
+        <v>45908</v>
+      </c>
+      <c r="D537" s="16">
+        <v>73</v>
+      </c>
+      <c r="E537" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="F537" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G537" s="11">
+        <v>0</v>
+      </c>
+      <c r="H537" s="11">
+        <v>8</v>
+      </c>
+      <c r="J537" s="11">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A538" s="7">
+        <v>3</v>
+      </c>
+      <c r="B538" s="7">
+        <v>537</v>
+      </c>
+      <c r="C538" s="8">
+        <v>45909</v>
+      </c>
+      <c r="D538" s="16">
+        <v>81</v>
+      </c>
+      <c r="E538" s="11">
+        <v>68</v>
+      </c>
+      <c r="F538" s="11">
+        <v>0</v>
+      </c>
+      <c r="G538" s="11">
+        <v>0</v>
+      </c>
+      <c r="H538" s="11">
+        <v>4</v>
+      </c>
+      <c r="J538" s="11">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A539" s="7">
+        <v>4</v>
+      </c>
+      <c r="B539" s="7">
+        <v>538</v>
+      </c>
+      <c r="C539" s="8">
+        <v>45910</v>
+      </c>
+      <c r="D539" s="16">
+        <v>76</v>
+      </c>
+      <c r="E539" s="11">
+        <v>70.5</v>
+      </c>
+      <c r="F539" s="11">
+        <v>0</v>
+      </c>
+      <c r="G539" s="11">
+        <v>0</v>
+      </c>
+      <c r="H539" s="11">
+        <v>5</v>
+      </c>
+      <c r="J539" s="11">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A540" s="7">
+        <v>5</v>
+      </c>
+      <c r="B540" s="7">
+        <v>539</v>
+      </c>
+      <c r="C540" s="8">
+        <v>45911</v>
+      </c>
+      <c r="D540" s="16">
         <v>64</v>
       </c>
-      <c r="E511" s="11">
-        <v>69.5</v>
-      </c>
-      <c r="F511" s="11">
-        <v>0</v>
-      </c>
-      <c r="G511" s="11">
-        <v>0</v>
-      </c>
-      <c r="H511" s="11">
+      <c r="E540" s="11">
+        <v>69</v>
+      </c>
+      <c r="F540" s="11">
+        <v>0</v>
+      </c>
+      <c r="G540" s="11">
+        <v>0</v>
+      </c>
+      <c r="H540" s="11">
+        <v>6</v>
+      </c>
+      <c r="J540" s="11">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A541" s="7">
+        <v>6</v>
+      </c>
+      <c r="B541" s="7">
+        <v>540</v>
+      </c>
+      <c r="C541" s="8">
+        <v>45912</v>
+      </c>
+      <c r="D541" s="16">
+        <v>131</v>
+      </c>
+      <c r="E541" s="11">
+        <v>70</v>
+      </c>
+      <c r="F541" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="G541" s="11">
+        <v>0</v>
+      </c>
+      <c r="H541" s="11">
+        <v>4</v>
+      </c>
+      <c r="J541" s="11">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A542" s="7">
+        <v>7</v>
+      </c>
+      <c r="B542" s="7">
+        <v>541</v>
+      </c>
+      <c r="C542" s="8">
+        <v>45913</v>
+      </c>
+      <c r="D542" s="16">
+        <v>185</v>
+      </c>
+      <c r="E542" s="11">
+        <v>69</v>
+      </c>
+      <c r="F542" s="11">
+        <v>0</v>
+      </c>
+      <c r="G542" s="11">
+        <v>0</v>
+      </c>
+      <c r="H542" s="11">
+        <v>8</v>
+      </c>
+      <c r="J542" s="11">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A543" s="7">
+        <v>1</v>
+      </c>
+      <c r="B543" s="7">
+        <v>542</v>
+      </c>
+      <c r="C543" s="8">
+        <v>45914</v>
+      </c>
+      <c r="D543" s="16">
+        <v>68</v>
+      </c>
+      <c r="E543" s="11">
+        <v>70</v>
+      </c>
+      <c r="F543" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="G543" s="11">
+        <v>0</v>
+      </c>
+      <c r="H543" s="11">
+        <v>4</v>
+      </c>
+      <c r="J543" s="11">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A544" s="7">
+        <v>2</v>
+      </c>
+      <c r="B544" s="7">
+        <v>543</v>
+      </c>
+      <c r="C544" s="8">
+        <v>45915</v>
+      </c>
+      <c r="D544" s="16">
+        <v>42</v>
+      </c>
+      <c r="E544" s="11">
+        <v>56.5</v>
+      </c>
+      <c r="F544" s="11">
+        <v>0</v>
+      </c>
+      <c r="G544" s="11">
+        <v>0</v>
+      </c>
+      <c r="H544" s="11">
+        <v>10</v>
+      </c>
+      <c r="J544" s="11">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A545" s="7">
+        <v>3</v>
+      </c>
+      <c r="B545" s="7">
+        <v>544</v>
+      </c>
+      <c r="C545" s="8">
+        <v>45916</v>
+      </c>
+      <c r="D545" s="16">
+        <v>87</v>
+      </c>
+      <c r="E545" s="11">
+        <v>57</v>
+      </c>
+      <c r="F545" s="11">
+        <v>0</v>
+      </c>
+      <c r="G545" s="11">
+        <v>0</v>
+      </c>
+      <c r="H545" s="11">
+        <v>2</v>
+      </c>
+      <c r="J545" s="11">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A546" s="7">
+        <v>4</v>
+      </c>
+      <c r="B546" s="7">
+        <v>545</v>
+      </c>
+      <c r="C546" s="8">
+        <v>45917</v>
+      </c>
+      <c r="D546" s="16">
+        <v>59</v>
+      </c>
+      <c r="E546" s="11">
+        <v>58.5</v>
+      </c>
+      <c r="F546" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G546" s="11">
+        <v>0</v>
+      </c>
+      <c r="H546" s="11">
         <v>5</v>
       </c>
-      <c r="J511" s="11">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="7"/>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="7"/>
+      <c r="J546" s="11">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A547" s="7">
+        <v>5</v>
+      </c>
+      <c r="B547" s="7">
+        <v>546</v>
+      </c>
+      <c r="C547" s="8">
+        <v>45918</v>
+      </c>
+      <c r="D547" s="16">
+        <v>84</v>
+      </c>
+      <c r="E547" s="11">
+        <v>59.5</v>
+      </c>
+      <c r="F547" s="11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G547" s="11">
+        <v>0</v>
+      </c>
+      <c r="H547" s="11">
+        <v>8</v>
+      </c>
+      <c r="J547" s="11">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A548" s="7">
+        <v>6</v>
+      </c>
+      <c r="B548" s="7">
+        <v>547</v>
+      </c>
+      <c r="C548" s="8">
+        <v>45919</v>
+      </c>
+      <c r="D548" s="16">
+        <v>185</v>
+      </c>
+      <c r="E548" s="11">
+        <v>61</v>
+      </c>
+      <c r="F548" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G548" s="11">
+        <v>0</v>
+      </c>
+      <c r="H548" s="11">
+        <v>9</v>
+      </c>
+      <c r="J548" s="11">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A549"/>
+      <c r="B549" s="7"/>
+      <c r="C549" s="8"/>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C550" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A512">
+  <conditionalFormatting sqref="A2:A548">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>6</formula>
     </cfRule>
@@ -14444,10 +15532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42:P57"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50:P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14462,20 +15550,20 @@
         <v>43</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="39">
+      <c r="C2" s="42">
         <v>0.85</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
       <c r="O2" s="21" t="s">
         <v>39</v>
       </c>
@@ -14484,10 +15572,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>125</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>45828</v>
       </c>
       <c r="C3" s="18">
@@ -14510,7 +15598,7 @@
         <f t="shared" ref="P3:P37" si="1">ROUND(_xlfn.STDEV.P(D3:O3),2)</f>
         <v>0.83</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <f t="shared" ref="R3:R4" si="2">O3-A3</f>
         <v>27</v>
       </c>
@@ -14520,10 +15608,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>159</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>45829</v>
       </c>
       <c r="C4" s="18">
@@ -14546,7 +15634,7 @@
         <f t="shared" si="1"/>
         <v>10.76</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="29">
         <f t="shared" si="2"/>
         <v>-45</v>
       </c>
@@ -14556,10 +15644,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>63</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>45830</v>
       </c>
       <c r="C5" s="18">
@@ -14582,7 +15670,7 @@
         <f t="shared" si="1"/>
         <v>18.21</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="29">
         <f>O5-A5</f>
         <v>12</v>
       </c>
@@ -14592,10 +15680,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>56</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>45831</v>
       </c>
       <c r="C6" s="18">
@@ -14618,7 +15706,7 @@
         <f t="shared" si="1"/>
         <v>12.17</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="29">
         <f t="shared" ref="R6:R25" si="4">O6-A6</f>
         <v>9</v>
       </c>
@@ -14628,10 +15716,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>71</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>45832</v>
       </c>
       <c r="C7" s="18">
@@ -14654,7 +15742,7 @@
         <f t="shared" si="1"/>
         <v>6.89</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="29">
         <f t="shared" si="4"/>
         <v>-8</v>
       </c>
@@ -14664,10 +15752,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>55</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>45833</v>
       </c>
       <c r="C8" s="18">
@@ -14690,7 +15778,7 @@
         <f t="shared" si="1"/>
         <v>3.64</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="29">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -14700,10 +15788,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>100</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>45834</v>
       </c>
       <c r="C9" s="18">
@@ -14726,7 +15814,7 @@
         <f t="shared" si="1"/>
         <v>9.77</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="29">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -14736,10 +15824,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>144</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>45835</v>
       </c>
       <c r="C10" s="18">
@@ -14762,7 +15850,7 @@
         <f t="shared" si="1"/>
         <v>11.78</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="29">
         <f t="shared" si="4"/>
         <v>-14</v>
       </c>
@@ -14772,10 +15860,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>197</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>45836</v>
       </c>
       <c r="C11" s="18">
@@ -14798,7 +15886,7 @@
         <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="29">
         <f t="shared" si="4"/>
         <v>-28</v>
       </c>
@@ -14808,10 +15896,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>52</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>45837</v>
       </c>
       <c r="C12" s="18">
@@ -14834,7 +15922,7 @@
         <f t="shared" si="1"/>
         <v>10.35</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="29">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -14847,7 +15935,7 @@
       <c r="A13" s="22">
         <v>122</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>45838</v>
       </c>
       <c r="C13" s="18">
@@ -14876,7 +15964,7 @@
         <f t="shared" si="1"/>
         <v>7.37</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="29">
         <f t="shared" si="4"/>
         <v>-41</v>
       </c>
@@ -14889,7 +15977,7 @@
       <c r="A14" s="16">
         <v>82</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>45839</v>
       </c>
       <c r="C14" s="18">
@@ -14918,7 +16006,7 @@
         <f t="shared" si="1"/>
         <v>7.82</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="29">
         <f t="shared" si="4"/>
         <v>-8</v>
       </c>
@@ -14931,7 +16019,7 @@
       <c r="A15" s="16">
         <v>69</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>45840</v>
       </c>
       <c r="C15" s="18">
@@ -14960,7 +16048,7 @@
         <f t="shared" si="1"/>
         <v>6.64</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="29">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -14973,7 +16061,7 @@
       <c r="A16" s="16">
         <v>137</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>45841</v>
       </c>
       <c r="C16" s="18">
@@ -15002,7 +16090,7 @@
         <f t="shared" si="1"/>
         <v>6.38</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="29">
         <f t="shared" si="4"/>
         <v>-34</v>
       </c>
@@ -15015,7 +16103,7 @@
       <c r="A17" s="16">
         <v>0</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>45842</v>
       </c>
       <c r="C17" s="18">
@@ -15044,7 +16132,7 @@
         <f t="shared" si="1"/>
         <v>15.71</v>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="29">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
@@ -15057,7 +16145,7 @@
       <c r="A18" s="16">
         <v>150</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>45843</v>
       </c>
       <c r="C18" s="18">
@@ -15086,7 +16174,7 @@
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-      <c r="R18" s="30">
+      <c r="R18" s="29">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -15099,7 +16187,7 @@
       <c r="A19" s="22">
         <v>44</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>45844</v>
       </c>
       <c r="C19" s="18">
@@ -15143,7 +16231,7 @@
         <f t="shared" si="1"/>
         <v>8.7100000000000009</v>
       </c>
-      <c r="R19" s="30">
+      <c r="R19" s="29">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -15156,7 +16244,7 @@
       <c r="A20" s="22">
         <v>52</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>45845</v>
       </c>
       <c r="C20" s="18">
@@ -15200,7 +16288,7 @@
         <f t="shared" si="1"/>
         <v>18.75</v>
       </c>
-      <c r="R20" s="30">
+      <c r="R20" s="29">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -15213,7 +16301,7 @@
       <c r="A21" s="22">
         <v>68</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>45846</v>
       </c>
       <c r="C21" s="18">
@@ -15257,7 +16345,7 @@
         <f t="shared" si="1"/>
         <v>6.52</v>
       </c>
-      <c r="R21" s="30">
+      <c r="R21" s="29">
         <f t="shared" si="4"/>
         <v>-6</v>
       </c>
@@ -15270,7 +16358,7 @@
       <c r="A22" s="22">
         <v>64</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>45847</v>
       </c>
       <c r="C22" s="18">
@@ -15314,7 +16402,7 @@
         <f t="shared" si="1"/>
         <v>18.239999999999998</v>
       </c>
-      <c r="R22" s="30">
+      <c r="R22" s="29">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -15327,7 +16415,7 @@
       <c r="A23" s="22">
         <v>85</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>45848</v>
       </c>
       <c r="C23" s="18">
@@ -15371,7 +16459,7 @@
         <f t="shared" si="1"/>
         <v>20.82</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="29">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -15384,7 +16472,7 @@
       <c r="A24" s="22">
         <v>146</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>45849</v>
       </c>
       <c r="C24" s="18">
@@ -15431,7 +16519,7 @@
         <f t="shared" si="1"/>
         <v>28.78</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="29">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -15444,7 +16532,7 @@
       <c r="A25">
         <v>178</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>45850</v>
       </c>
       <c r="C25" s="18">
@@ -15491,7 +16579,7 @@
         <f t="shared" si="1"/>
         <v>9.18</v>
       </c>
-      <c r="R25" s="30">
+      <c r="R25" s="29">
         <f t="shared" si="4"/>
         <v>-9</v>
       </c>
@@ -15504,7 +16592,7 @@
       <c r="A26">
         <v>92</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>45851</v>
       </c>
       <c r="C26" s="18">
@@ -15551,7 +16639,7 @@
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
-      <c r="R26" s="30">
+      <c r="R26" s="29">
         <f t="shared" ref="R26:R35" si="5">O26-A26</f>
         <v>-9</v>
       </c>
@@ -15564,7 +16652,7 @@
       <c r="A27">
         <v>113</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>45852</v>
       </c>
       <c r="C27" s="18">
@@ -15611,7 +16699,7 @@
         <f t="shared" si="1"/>
         <v>5.37</v>
       </c>
-      <c r="R27" s="30">
+      <c r="R27" s="29">
         <f t="shared" si="5"/>
         <v>-33</v>
       </c>
@@ -15624,7 +16712,7 @@
       <c r="A28">
         <v>77</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>45853</v>
       </c>
       <c r="C28" s="18">
@@ -15671,7 +16759,7 @@
         <f t="shared" si="1"/>
         <v>4.37</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="29">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -15684,7 +16772,7 @@
       <c r="A29" s="22">
         <v>80</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>45854</v>
       </c>
       <c r="C29" s="18">
@@ -15731,7 +16819,7 @@
         <f t="shared" si="1"/>
         <v>13.42</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="29">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
@@ -15744,7 +16832,7 @@
       <c r="A30" s="22">
         <v>84</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>45855</v>
       </c>
       <c r="C30" s="18">
@@ -15791,7 +16879,7 @@
         <f t="shared" si="1"/>
         <v>7.29</v>
       </c>
-      <c r="R30" s="30">
+      <c r="R30" s="29">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
@@ -15804,7 +16892,7 @@
       <c r="A31" s="22">
         <v>127</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>45856</v>
       </c>
       <c r="C31" s="18">
@@ -15851,7 +16939,7 @@
         <f t="shared" si="1"/>
         <v>5.39</v>
       </c>
-      <c r="R31" s="30">
+      <c r="R31" s="29">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -15864,7 +16952,7 @@
       <c r="A32" s="22">
         <v>210</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>45857</v>
       </c>
       <c r="C32" s="18">
@@ -15911,7 +16999,7 @@
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="29">
         <f t="shared" si="5"/>
         <v>-40</v>
       </c>
@@ -15924,7 +17012,7 @@
       <c r="A33">
         <v>53</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>45858</v>
       </c>
       <c r="C33" s="18">
@@ -15984,7 +17072,7 @@
       <c r="A34">
         <v>66</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>45859</v>
       </c>
       <c r="C34" s="18">
@@ -16031,7 +17119,7 @@
         <f t="shared" si="1"/>
         <v>9.41</v>
       </c>
-      <c r="R34" s="30">
+      <c r="R34" s="29">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -16044,7 +17132,7 @@
       <c r="A35">
         <v>73</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>45860</v>
       </c>
       <c r="C35" s="18">
@@ -16091,7 +17179,7 @@
         <f t="shared" si="1"/>
         <v>4.79</v>
       </c>
-      <c r="R35" s="30">
+      <c r="R35" s="29">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
@@ -16104,7 +17192,7 @@
       <c r="A36">
         <v>61</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>45861</v>
       </c>
       <c r="C36" s="18">
@@ -16145,7 +17233,7 @@
         <f t="shared" si="1"/>
         <v>4.05</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="29">
         <f t="shared" ref="R36:R41" si="7">O36-A36</f>
         <v>16</v>
       </c>
@@ -16158,7 +17246,7 @@
       <c r="A37">
         <v>93</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>45862</v>
       </c>
       <c r="C37" s="18">
@@ -16199,7 +17287,7 @@
         <f t="shared" si="1"/>
         <v>10.32</v>
       </c>
-      <c r="R37" s="30">
+      <c r="R37" s="29">
         <f t="shared" si="7"/>
         <v>-5</v>
       </c>
@@ -16212,7 +17300,7 @@
       <c r="A38">
         <v>122</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>45863</v>
       </c>
       <c r="C38" s="18">
@@ -16248,14 +17336,14 @@
       <c r="M38" s="18"/>
       <c r="N38" s="19"/>
       <c r="O38" s="23">
-        <f t="shared" ref="O38:O57" si="9">ROUND(AVERAGE(C38:N38),0)</f>
+        <f t="shared" ref="O38:O56" si="9">ROUND(AVERAGE(C38:N38),0)</f>
         <v>158</v>
       </c>
       <c r="P38" s="23">
         <f>ROUND(_xlfn.STDEV.P(D38:O38),2)</f>
         <v>13.12</v>
       </c>
-      <c r="R38" s="30">
+      <c r="R38" s="29">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
@@ -16268,7 +17356,7 @@
       <c r="A39">
         <v>135</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>45864</v>
       </c>
       <c r="C39" s="18">
@@ -16308,10 +17396,10 @@
         <v>172</v>
       </c>
       <c r="P39" s="23">
-        <f t="shared" ref="P39:P57" si="10">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
+        <f t="shared" ref="P39:P56" si="10">ROUND(_xlfn.STDEV.P(D39:O39),2)</f>
         <v>2.02</v>
       </c>
-      <c r="R39" s="30">
+      <c r="R39" s="29">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
@@ -16324,7 +17412,7 @@
       <c r="A40">
         <v>31</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>45865</v>
       </c>
       <c r="C40" s="18">
@@ -16367,7 +17455,7 @@
         <f t="shared" si="10"/>
         <v>4.9800000000000004</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="29">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
@@ -16380,7 +17468,7 @@
       <c r="A41">
         <v>70</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>45866</v>
       </c>
       <c r="C41" s="18">
@@ -16423,7 +17511,7 @@
         <f t="shared" si="10"/>
         <v>3.41</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="29">
         <f t="shared" si="7"/>
         <v>-1</v>
       </c>
@@ -16432,55 +17520,67 @@
         <v>0.98571428571428577</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>69</v>
+      </c>
+      <c r="B42" s="25">
         <v>45867</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="18">
         <v>66</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="18">
         <v>74</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="18">
         <v>74</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="18">
         <v>78</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="18">
         <v>72</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="22">
         <v>70</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="18">
         <v>66</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="18">
         <v>72</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="18">
         <v>85</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="18">
         <v>75</v>
       </c>
-      <c r="M42" s="33"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="35">
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="23">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="P42" s="35">
+      <c r="P42" s="23">
         <f t="shared" si="10"/>
         <v>4.76</v>
       </c>
+      <c r="R42" s="29">
+        <f t="shared" ref="R42:R49" si="11">O42-A42</f>
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="S42:S49" si="12">O42/A42</f>
+        <v>1.0579710144927537</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="26">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43" s="25">
         <v>45868</v>
       </c>
       <c r="C43" s="18">
@@ -16523,10 +17623,20 @@
         <f t="shared" si="10"/>
         <v>4.0599999999999996</v>
       </c>
+      <c r="R43" s="29">
+        <f t="shared" si="11"/>
+        <v>-26</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="12"/>
+        <v>0.71111111111111114</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="26">
+      <c r="A44">
+        <v>109</v>
+      </c>
+      <c r="B44" s="25">
         <v>45869</v>
       </c>
       <c r="C44" s="18">
@@ -16569,10 +17679,20 @@
         <f t="shared" si="10"/>
         <v>9.3800000000000008</v>
       </c>
+      <c r="R44" s="29">
+        <f t="shared" si="11"/>
+        <v>-24</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="12"/>
+        <v>0.77981651376146788</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="26">
+      <c r="A45">
+        <v>191</v>
+      </c>
+      <c r="B45" s="25">
         <v>45870</v>
       </c>
       <c r="C45" s="18">
@@ -16615,10 +17735,20 @@
         <f t="shared" si="10"/>
         <v>2.19</v>
       </c>
+      <c r="R45" s="29">
+        <f t="shared" si="11"/>
+        <v>-32</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="12"/>
+        <v>0.83246073298429324</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="26">
+      <c r="A46">
+        <v>161</v>
+      </c>
+      <c r="B46" s="25">
         <v>45871</v>
       </c>
       <c r="C46" s="18">
@@ -16661,10 +17791,20 @@
         <f t="shared" si="10"/>
         <v>3.01</v>
       </c>
+      <c r="R46" s="29">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="12"/>
+        <v>1.1180124223602483</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="26">
+      <c r="A47">
+        <v>68</v>
+      </c>
+      <c r="B47" s="25">
         <v>45872</v>
       </c>
       <c r="C47" s="18">
@@ -16707,10 +17847,20 @@
         <f t="shared" si="10"/>
         <v>4.1500000000000004</v>
       </c>
+      <c r="R47" s="29">
+        <f t="shared" si="11"/>
+        <v>-9</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="12"/>
+        <v>0.86764705882352944</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="26">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="B48" s="25">
         <v>45873</v>
       </c>
       <c r="C48" s="18">
@@ -16753,10 +17903,20 @@
         <f t="shared" si="10"/>
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="26">
+      <c r="R48" s="29">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="12"/>
+        <v>0.97333333333333338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="25">
         <v>45874</v>
       </c>
       <c r="C49" s="18">
@@ -16799,485 +17959,2346 @@
         <f t="shared" si="10"/>
         <v>3.33</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="26">
+      <c r="R49" s="29">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="12"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31">
         <v>45875</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="32">
+        <v>69</v>
+      </c>
+      <c r="D50" s="32">
+        <v>72</v>
+      </c>
+      <c r="E50" s="32">
+        <v>70</v>
+      </c>
+      <c r="F50" s="32">
+        <v>70</v>
+      </c>
+      <c r="G50" s="32">
+        <v>68</v>
+      </c>
+      <c r="H50" s="30">
+        <v>69</v>
+      </c>
+      <c r="I50" s="32">
+        <v>69</v>
+      </c>
+      <c r="J50" s="32">
+        <v>71</v>
+      </c>
+      <c r="K50" s="32">
+        <v>70</v>
+      </c>
+      <c r="L50" s="32">
+        <v>67</v>
+      </c>
+      <c r="M50" s="32">
+        <v>70</v>
+      </c>
+      <c r="N50" s="37">
+        <v>70</v>
+      </c>
+      <c r="O50" s="34">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="P50" s="34">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25">
+        <v>45876</v>
+      </c>
+      <c r="C51" s="18">
+        <v>104</v>
+      </c>
+      <c r="D51" s="18">
+        <v>125</v>
+      </c>
+      <c r="E51" s="18">
+        <v>106</v>
+      </c>
+      <c r="F51" s="18">
         <v>114</v>
       </c>
-      <c r="D50" s="18">
+      <c r="G51" s="18">
+        <v>105</v>
+      </c>
+      <c r="H51" s="22">
+        <v>104</v>
+      </c>
+      <c r="I51" s="18">
+        <v>102</v>
+      </c>
+      <c r="J51" s="18">
+        <v>103</v>
+      </c>
+      <c r="K51" s="18">
+        <v>110</v>
+      </c>
+      <c r="L51" s="18">
         <v>101</v>
       </c>
-      <c r="E50" s="18">
-        <v>104</v>
-      </c>
-      <c r="F50" s="18">
-        <v>99</v>
-      </c>
-      <c r="G50" s="18">
-        <v>104</v>
-      </c>
-      <c r="H50" s="22">
-        <v>109</v>
-      </c>
-      <c r="I50" s="18">
+      <c r="M51" s="18">
+        <v>118</v>
+      </c>
+      <c r="N51" s="19">
         <v>107</v>
       </c>
-      <c r="J50" s="18">
-        <v>98</v>
-      </c>
-      <c r="K50" s="18">
-        <v>108</v>
-      </c>
-      <c r="L50" s="18">
-        <v>94</v>
-      </c>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="23">
-        <f t="shared" si="9"/>
-        <v>104</v>
-      </c>
-      <c r="P50" s="23">
-        <f t="shared" si="10"/>
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="26">
-        <v>45876</v>
-      </c>
-      <c r="C51" s="18">
-        <v>78</v>
-      </c>
-      <c r="D51" s="18">
-        <v>77</v>
-      </c>
-      <c r="E51" s="18">
-        <v>83</v>
-      </c>
-      <c r="F51" s="18">
-        <v>75</v>
-      </c>
-      <c r="G51" s="18">
-        <v>80</v>
-      </c>
-      <c r="H51" s="22">
-        <v>75</v>
-      </c>
-      <c r="I51" s="18">
-        <v>73</v>
-      </c>
-      <c r="J51" s="18">
-        <v>75</v>
-      </c>
-      <c r="K51" s="18">
-        <v>79</v>
-      </c>
-      <c r="L51" s="18">
-        <v>82</v>
-      </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
       <c r="O51" s="23">
         <f t="shared" si="9"/>
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="P51" s="23">
         <f t="shared" si="10"/>
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>45877</v>
       </c>
       <c r="C52" s="18">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D52" s="18">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E52" s="18">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F52" s="18">
+        <v>176</v>
+      </c>
+      <c r="G52" s="18">
+        <v>176</v>
+      </c>
+      <c r="H52" s="22">
+        <v>167</v>
+      </c>
+      <c r="I52" s="18">
+        <v>171</v>
+      </c>
+      <c r="J52" s="18">
+        <v>166</v>
+      </c>
+      <c r="K52" s="18">
+        <v>169</v>
+      </c>
+      <c r="L52" s="18">
+        <v>172</v>
+      </c>
+      <c r="M52" s="18">
         <v>174</v>
       </c>
-      <c r="G52" s="18">
-        <v>172</v>
-      </c>
-      <c r="H52" s="22">
-        <v>168</v>
-      </c>
-      <c r="I52" s="18">
-        <v>178</v>
-      </c>
-      <c r="J52" s="18">
-        <v>171</v>
-      </c>
-      <c r="K52" s="18">
-        <v>176</v>
-      </c>
-      <c r="L52" s="18">
-        <v>173</v>
-      </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
+      <c r="N52" s="19">
+        <v>175</v>
+      </c>
       <c r="O52" s="23">
         <f t="shared" si="9"/>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P52" s="23">
         <f t="shared" si="10"/>
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
-      <c r="B53" s="26">
+      <c r="B53" s="25">
         <v>45878</v>
       </c>
       <c r="C53" s="18">
+        <v>189</v>
+      </c>
+      <c r="D53" s="18">
         <v>183</v>
       </c>
-      <c r="D53" s="18">
-        <v>191</v>
-      </c>
       <c r="E53" s="18">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F53" s="18">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G53" s="18">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H53" s="22">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="I53" s="18">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J53" s="18">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K53" s="18">
         <v>195</v>
       </c>
       <c r="L53" s="18">
-        <v>166</v>
-      </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="19"/>
+        <v>213</v>
+      </c>
+      <c r="M53" s="18">
+        <v>209</v>
+      </c>
+      <c r="N53" s="19">
+        <v>193</v>
+      </c>
       <c r="O53" s="23">
         <f t="shared" si="9"/>
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" si="10"/>
-        <v>9.49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
-      <c r="B54" s="26">
+      <c r="B54" s="25">
         <v>45879</v>
       </c>
       <c r="C54" s="18">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D54" s="18">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E54" s="18">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F54" s="18">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G54" s="18">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H54" s="22">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I54" s="18">
+        <v>72</v>
+      </c>
+      <c r="J54" s="18">
+        <v>73</v>
+      </c>
+      <c r="K54" s="18">
         <v>77</v>
       </c>
-      <c r="J54" s="18">
-        <v>85</v>
-      </c>
-      <c r="K54" s="18">
-        <v>78</v>
-      </c>
       <c r="L54" s="18">
-        <v>79</v>
-      </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="M54" s="18">
+        <v>69</v>
+      </c>
+      <c r="N54" s="19">
+        <v>69</v>
+      </c>
       <c r="O54" s="23">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="10"/>
-        <v>3.77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
-      <c r="B55" s="26">
+      <c r="B55" s="25">
         <v>45880</v>
       </c>
       <c r="C55" s="18">
+        <v>85</v>
+      </c>
+      <c r="D55" s="18">
+        <v>81</v>
+      </c>
+      <c r="E55" s="18">
+        <v>83</v>
+      </c>
+      <c r="F55" s="18">
         <v>90</v>
       </c>
-      <c r="D55" s="18">
-        <v>87</v>
-      </c>
-      <c r="E55" s="18">
+      <c r="G55" s="18">
+        <v>88</v>
+      </c>
+      <c r="H55" s="22">
         <v>86</v>
       </c>
-      <c r="F55" s="18">
-        <v>82</v>
-      </c>
-      <c r="G55" s="18">
+      <c r="I55" s="18">
+        <v>84</v>
+      </c>
+      <c r="J55" s="18">
         <v>83</v>
       </c>
-      <c r="H55" s="22">
+      <c r="K55" s="18">
+        <v>91</v>
+      </c>
+      <c r="L55" s="18">
+        <v>81</v>
+      </c>
+      <c r="M55" s="18">
+        <v>88</v>
+      </c>
+      <c r="N55" s="19">
         <v>89</v>
       </c>
-      <c r="I55" s="18">
-        <v>96</v>
-      </c>
-      <c r="J55" s="18">
-        <v>92</v>
-      </c>
-      <c r="K55" s="18">
-        <v>83</v>
-      </c>
-      <c r="L55" s="18">
-        <v>78</v>
-      </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="19"/>
       <c r="O55" s="23">
         <f t="shared" si="9"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" si="10"/>
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
-      <c r="B56" s="26">
+      <c r="B56" s="25">
         <v>45881</v>
       </c>
       <c r="C56" s="18">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D56" s="18">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E56" s="18">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F56" s="18">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G56" s="18">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H56" s="22">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I56" s="18">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="J56" s="18">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K56" s="18">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L56" s="18">
-        <v>75</v>
-      </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="19"/>
+        <v>88</v>
+      </c>
+      <c r="M56" s="18">
+        <v>86</v>
+      </c>
+      <c r="N56" s="19">
+        <v>88</v>
+      </c>
       <c r="O56" s="23">
         <f t="shared" si="9"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" si="10"/>
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
-      <c r="B57" s="26">
+      <c r="B57" s="25">
         <v>45882</v>
       </c>
-      <c r="C57" s="27">
+      <c r="C57" s="26">
+        <v>107</v>
+      </c>
+      <c r="D57" s="20">
+        <v>96</v>
+      </c>
+      <c r="E57" s="20">
+        <v>112</v>
+      </c>
+      <c r="F57" s="20">
+        <v>108</v>
+      </c>
+      <c r="G57" s="20">
+        <v>109</v>
+      </c>
+      <c r="H57" s="24">
+        <v>108</v>
+      </c>
+      <c r="I57" s="20">
+        <v>105</v>
+      </c>
+      <c r="J57" s="20">
+        <v>106</v>
+      </c>
+      <c r="K57" s="20">
+        <v>108</v>
+      </c>
+      <c r="L57" s="20">
+        <v>110</v>
+      </c>
+      <c r="M57" s="20">
+        <v>100</v>
+      </c>
+      <c r="N57" s="27">
+        <v>110</v>
+      </c>
+      <c r="O57" s="23">
+        <f t="shared" ref="O57:O94" si="13">ROUND(AVERAGE(C57:N57),0)</f>
+        <v>107</v>
+      </c>
+      <c r="P57" s="23">
+        <f t="shared" ref="P57:P94" si="14">ROUND(_xlfn.STDEV.P(D57:O57),2)</f>
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25">
+        <v>45883</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>136</v>
+      </c>
+      <c r="E58">
+        <v>152</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>149</v>
+      </c>
+      <c r="H58">
+        <v>156</v>
+      </c>
+      <c r="I58">
+        <v>148</v>
+      </c>
+      <c r="J58">
+        <v>153</v>
+      </c>
+      <c r="K58">
+        <v>147</v>
+      </c>
+      <c r="L58">
+        <v>145</v>
+      </c>
+      <c r="M58">
+        <v>146</v>
+      </c>
+      <c r="N58">
+        <v>144</v>
+      </c>
+      <c r="O58" s="23">
+        <f t="shared" si="13"/>
+        <v>148</v>
+      </c>
+      <c r="P58" s="23">
+        <f t="shared" si="14"/>
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25">
+        <v>45884</v>
+      </c>
+      <c r="C59">
+        <v>174</v>
+      </c>
+      <c r="D59">
+        <v>178</v>
+      </c>
+      <c r="E59">
+        <v>173</v>
+      </c>
+      <c r="F59">
+        <v>170</v>
+      </c>
+      <c r="G59">
+        <v>166</v>
+      </c>
+      <c r="H59">
+        <v>167</v>
+      </c>
+      <c r="I59">
+        <v>166</v>
+      </c>
+      <c r="J59">
+        <v>178</v>
+      </c>
+      <c r="K59">
+        <v>168</v>
+      </c>
+      <c r="L59">
+        <v>164</v>
+      </c>
+      <c r="M59">
+        <v>170</v>
+      </c>
+      <c r="N59">
+        <v>162</v>
+      </c>
+      <c r="O59" s="23">
+        <f t="shared" si="13"/>
+        <v>170</v>
+      </c>
+      <c r="P59" s="23">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="25">
+        <v>45885</v>
+      </c>
+      <c r="C60">
+        <v>195</v>
+      </c>
+      <c r="D60">
+        <v>191</v>
+      </c>
+      <c r="E60">
+        <v>194</v>
+      </c>
+      <c r="F60">
+        <v>197</v>
+      </c>
+      <c r="G60">
+        <v>198</v>
+      </c>
+      <c r="H60">
+        <v>195</v>
+      </c>
+      <c r="I60">
+        <v>194</v>
+      </c>
+      <c r="J60">
+        <v>192</v>
+      </c>
+      <c r="K60">
+        <v>195</v>
+      </c>
+      <c r="L60">
+        <v>193</v>
+      </c>
+      <c r="M60">
+        <v>196</v>
+      </c>
+      <c r="N60">
+        <v>192</v>
+      </c>
+      <c r="O60" s="23">
+        <f t="shared" si="13"/>
+        <v>194</v>
+      </c>
+      <c r="P60" s="23">
+        <f t="shared" si="14"/>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="25">
+        <v>45886</v>
+      </c>
+      <c r="C61">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>80</v>
+      </c>
+      <c r="E61">
+        <v>76</v>
+      </c>
+      <c r="F61">
+        <v>71</v>
+      </c>
+      <c r="G61">
+        <v>68</v>
+      </c>
+      <c r="H61">
+        <v>72</v>
+      </c>
+      <c r="I61">
+        <v>69</v>
+      </c>
+      <c r="J61">
+        <v>76</v>
+      </c>
+      <c r="K61">
+        <v>75</v>
+      </c>
+      <c r="L61">
+        <v>72</v>
+      </c>
+      <c r="M61">
+        <v>74</v>
+      </c>
+      <c r="N61">
+        <v>71</v>
+      </c>
+      <c r="O61" s="23">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="P61" s="23">
+        <f t="shared" si="14"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="25">
+        <v>45887</v>
+      </c>
+      <c r="C62">
+        <v>70</v>
+      </c>
+      <c r="D62">
+        <v>59</v>
+      </c>
+      <c r="E62">
+        <v>64</v>
+      </c>
+      <c r="F62">
+        <v>64</v>
+      </c>
+      <c r="G62">
+        <v>66</v>
+      </c>
+      <c r="H62">
+        <v>73</v>
+      </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>66</v>
+      </c>
+      <c r="K62">
+        <v>66</v>
+      </c>
+      <c r="L62">
+        <v>63</v>
+      </c>
+      <c r="M62">
+        <v>70</v>
+      </c>
+      <c r="N62">
+        <v>77</v>
+      </c>
+      <c r="O62" s="23">
+        <f t="shared" si="13"/>
+        <v>67</v>
+      </c>
+      <c r="P62" s="23">
+        <f t="shared" si="14"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="25">
+        <v>45888</v>
+      </c>
+      <c r="C63">
+        <v>76</v>
+      </c>
+      <c r="D63">
+        <v>78</v>
+      </c>
+      <c r="E63">
+        <v>73</v>
+      </c>
+      <c r="F63">
+        <v>78</v>
+      </c>
+      <c r="G63">
+        <v>79</v>
+      </c>
+      <c r="H63">
+        <v>80</v>
+      </c>
+      <c r="I63">
+        <v>81</v>
+      </c>
+      <c r="J63">
+        <v>73</v>
+      </c>
+      <c r="K63">
+        <v>78</v>
+      </c>
+      <c r="L63">
+        <v>80</v>
+      </c>
+      <c r="M63">
+        <v>77</v>
+      </c>
+      <c r="N63">
+        <v>78</v>
+      </c>
+      <c r="O63" s="23">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="P63" s="23">
+        <f t="shared" si="14"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="25">
+        <v>45889</v>
+      </c>
+      <c r="C64">
+        <v>105</v>
+      </c>
+      <c r="D64">
+        <v>93</v>
+      </c>
+      <c r="E64">
+        <v>110</v>
+      </c>
+      <c r="F64">
+        <v>102</v>
+      </c>
+      <c r="G64">
+        <v>105</v>
+      </c>
+      <c r="H64">
+        <v>101</v>
+      </c>
+      <c r="I64">
+        <v>100</v>
+      </c>
+      <c r="J64">
+        <v>105</v>
+      </c>
+      <c r="K64">
+        <v>101</v>
+      </c>
+      <c r="L64">
+        <v>104</v>
+      </c>
+      <c r="M64">
+        <v>90</v>
+      </c>
+      <c r="N64">
+        <v>106</v>
+      </c>
+      <c r="O64" s="23">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="P64" s="23">
+        <f t="shared" si="14"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="25">
+        <v>45890</v>
+      </c>
+      <c r="C65">
+        <v>136</v>
+      </c>
+      <c r="D65">
+        <v>118</v>
+      </c>
+      <c r="E65">
+        <v>137</v>
+      </c>
+      <c r="F65">
+        <v>143</v>
+      </c>
+      <c r="G65">
+        <v>148</v>
+      </c>
+      <c r="H65">
+        <v>137</v>
+      </c>
+      <c r="I65">
+        <v>144</v>
+      </c>
+      <c r="J65">
+        <v>137</v>
+      </c>
+      <c r="K65">
+        <v>144</v>
+      </c>
+      <c r="L65">
+        <v>138</v>
+      </c>
+      <c r="M65">
+        <v>143</v>
+      </c>
+      <c r="N65">
+        <v>142</v>
+      </c>
+      <c r="O65" s="23">
+        <f t="shared" si="13"/>
+        <v>139</v>
+      </c>
+      <c r="P65" s="23">
+        <f t="shared" si="14"/>
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="25">
+        <v>45891</v>
+      </c>
+      <c r="C66">
+        <v>152</v>
+      </c>
+      <c r="D66">
+        <v>151</v>
+      </c>
+      <c r="E66">
+        <v>148</v>
+      </c>
+      <c r="F66">
+        <v>139</v>
+      </c>
+      <c r="G66">
+        <v>139</v>
+      </c>
+      <c r="H66">
+        <v>137</v>
+      </c>
+      <c r="I66">
+        <v>148</v>
+      </c>
+      <c r="J66">
+        <v>141</v>
+      </c>
+      <c r="K66">
+        <v>138</v>
+      </c>
+      <c r="L66">
+        <v>148</v>
+      </c>
+      <c r="M66">
+        <v>139</v>
+      </c>
+      <c r="N66">
+        <v>137</v>
+      </c>
+      <c r="O66" s="23">
+        <f t="shared" si="13"/>
+        <v>143</v>
+      </c>
+      <c r="P66" s="23">
+        <f t="shared" si="14"/>
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="25">
+        <v>45892</v>
+      </c>
+      <c r="C67">
+        <v>191</v>
+      </c>
+      <c r="D67">
+        <v>190</v>
+      </c>
+      <c r="E67">
+        <v>190</v>
+      </c>
+      <c r="F67">
+        <v>192</v>
+      </c>
+      <c r="G67">
+        <v>193</v>
+      </c>
+      <c r="H67">
+        <v>188</v>
+      </c>
+      <c r="I67">
+        <v>188</v>
+      </c>
+      <c r="J67">
+        <v>190</v>
+      </c>
+      <c r="K67">
+        <v>190</v>
+      </c>
+      <c r="L67">
+        <v>188</v>
+      </c>
+      <c r="M67">
+        <v>190</v>
+      </c>
+      <c r="N67">
+        <v>190</v>
+      </c>
+      <c r="O67" s="23">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="P67" s="23">
+        <f t="shared" si="14"/>
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="25">
+        <v>45893</v>
+      </c>
+      <c r="C68">
+        <v>73</v>
+      </c>
+      <c r="D68">
+        <v>75</v>
+      </c>
+      <c r="E68">
+        <v>74</v>
+      </c>
+      <c r="F68">
+        <v>68</v>
+      </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>74</v>
+      </c>
+      <c r="K68">
+        <v>71</v>
+      </c>
+      <c r="L68">
+        <v>70</v>
+      </c>
+      <c r="M68">
+        <v>70</v>
+      </c>
+      <c r="N68">
+        <v>65</v>
+      </c>
+      <c r="O68" s="23">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="P68" s="23">
+        <f t="shared" si="14"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="25">
+        <v>45894</v>
+      </c>
+      <c r="C69">
+        <v>88</v>
+      </c>
+      <c r="D69">
+        <v>80</v>
+      </c>
+      <c r="E69">
+        <v>83</v>
+      </c>
+      <c r="F69">
+        <v>86</v>
+      </c>
+      <c r="G69">
+        <v>89</v>
+      </c>
+      <c r="H69">
+        <v>92</v>
+      </c>
+      <c r="I69">
+        <v>88</v>
+      </c>
+      <c r="J69">
+        <v>86</v>
+      </c>
+      <c r="K69">
+        <v>92</v>
+      </c>
+      <c r="L69">
+        <v>81</v>
+      </c>
+      <c r="M69">
+        <v>89</v>
+      </c>
+      <c r="N69">
+        <v>89</v>
+      </c>
+      <c r="O69" s="23">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="P69" s="23">
+        <f t="shared" si="14"/>
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="25">
+        <v>45895</v>
+      </c>
+      <c r="C70">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>64</v>
+      </c>
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <v>71</v>
+      </c>
+      <c r="G70">
+        <v>71</v>
+      </c>
+      <c r="H70">
         <v>62</v>
       </c>
-      <c r="D57" s="20">
+      <c r="I70">
+        <v>71</v>
+      </c>
+      <c r="J70">
+        <v>59</v>
+      </c>
+      <c r="K70">
+        <v>68</v>
+      </c>
+      <c r="L70">
+        <v>69</v>
+      </c>
+      <c r="M70">
+        <v>72</v>
+      </c>
+      <c r="N70">
+        <v>70</v>
+      </c>
+      <c r="O70" s="23">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="P70" s="23">
+        <f t="shared" si="14"/>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="25">
+        <v>45896</v>
+      </c>
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>66</v>
+      </c>
+      <c r="F71">
+        <v>69</v>
+      </c>
+      <c r="G71">
+        <v>66</v>
+      </c>
+      <c r="H71">
+        <v>69</v>
+      </c>
+      <c r="I71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>68</v>
+      </c>
+      <c r="K71">
+        <v>68</v>
+      </c>
+      <c r="L71">
+        <v>71</v>
+      </c>
+      <c r="M71">
+        <v>70</v>
+      </c>
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71" s="23">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="P71" s="23">
+        <f t="shared" si="14"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="25">
+        <v>45897</v>
+      </c>
+      <c r="C72">
+        <v>145</v>
+      </c>
+      <c r="D72">
+        <v>129</v>
+      </c>
+      <c r="E72">
+        <v>147</v>
+      </c>
+      <c r="F72">
+        <v>151</v>
+      </c>
+      <c r="G72">
+        <v>157</v>
+      </c>
+      <c r="H72">
+        <v>139</v>
+      </c>
+      <c r="I72">
+        <v>146</v>
+      </c>
+      <c r="J72">
+        <v>144</v>
+      </c>
+      <c r="K72">
+        <v>149</v>
+      </c>
+      <c r="L72">
+        <v>140</v>
+      </c>
+      <c r="M72">
+        <v>150</v>
+      </c>
+      <c r="N72">
+        <v>140</v>
+      </c>
+      <c r="O72" s="23">
+        <f t="shared" si="13"/>
+        <v>145</v>
+      </c>
+      <c r="P72" s="23">
+        <f t="shared" si="14"/>
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="25">
+        <v>45898</v>
+      </c>
+      <c r="C73">
+        <v>156</v>
+      </c>
+      <c r="D73">
+        <v>168</v>
+      </c>
+      <c r="E73">
+        <v>161</v>
+      </c>
+      <c r="F73">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>155</v>
+      </c>
+      <c r="H73">
+        <v>156</v>
+      </c>
+      <c r="I73">
+        <v>155</v>
+      </c>
+      <c r="J73">
+        <v>160</v>
+      </c>
+      <c r="K73">
+        <v>154</v>
+      </c>
+      <c r="L73">
+        <v>149</v>
+      </c>
+      <c r="M73">
+        <v>161</v>
+      </c>
+      <c r="N73">
+        <v>153</v>
+      </c>
+      <c r="O73" s="23">
+        <f t="shared" si="13"/>
+        <v>157</v>
+      </c>
+      <c r="P73" s="23">
+        <f t="shared" si="14"/>
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="25">
+        <v>45899</v>
+      </c>
+      <c r="C74">
+        <v>191</v>
+      </c>
+      <c r="D74">
+        <v>191</v>
+      </c>
+      <c r="E74">
+        <v>189</v>
+      </c>
+      <c r="F74">
+        <v>191</v>
+      </c>
+      <c r="G74">
+        <v>192</v>
+      </c>
+      <c r="H74">
+        <v>188</v>
+      </c>
+      <c r="I74">
+        <v>188</v>
+      </c>
+      <c r="J74">
+        <v>189</v>
+      </c>
+      <c r="K74">
+        <v>190</v>
+      </c>
+      <c r="L74">
+        <v>187</v>
+      </c>
+      <c r="M74">
+        <v>189</v>
+      </c>
+      <c r="N74">
+        <v>192</v>
+      </c>
+      <c r="O74" s="23">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="P74" s="23">
+        <f t="shared" si="14"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="25">
+        <v>45900</v>
+      </c>
+      <c r="C75">
+        <v>78</v>
+      </c>
+      <c r="D75">
+        <v>72</v>
+      </c>
+      <c r="E75">
+        <v>97</v>
+      </c>
+      <c r="F75">
+        <v>104</v>
+      </c>
+      <c r="G75">
+        <v>96</v>
+      </c>
+      <c r="H75">
+        <v>82</v>
+      </c>
+      <c r="I75">
+        <v>110</v>
+      </c>
+      <c r="J75">
+        <v>83</v>
+      </c>
+      <c r="K75">
+        <v>98</v>
+      </c>
+      <c r="L75">
+        <v>98</v>
+      </c>
+      <c r="M75">
+        <v>97</v>
+      </c>
+      <c r="N75">
+        <v>98</v>
+      </c>
+      <c r="O75" s="23">
+        <f t="shared" si="13"/>
+        <v>93</v>
+      </c>
+      <c r="P75" s="23">
+        <f t="shared" si="14"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="25">
+        <v>45901</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>26</v>
+      </c>
+      <c r="E76">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>33</v>
+      </c>
+      <c r="G76">
+        <v>33</v>
+      </c>
+      <c r="H76">
+        <v>21</v>
+      </c>
+      <c r="I76">
+        <v>15</v>
+      </c>
+      <c r="J76">
+        <v>29</v>
+      </c>
+      <c r="K76">
+        <v>28</v>
+      </c>
+      <c r="L76">
+        <v>40</v>
+      </c>
+      <c r="M76">
+        <v>17</v>
+      </c>
+      <c r="N76">
+        <v>35</v>
+      </c>
+      <c r="O76" s="23">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="P76" s="23">
+        <f t="shared" si="14"/>
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="25">
+        <v>45902</v>
+      </c>
+      <c r="C77">
+        <v>69</v>
+      </c>
+      <c r="D77">
+        <v>71</v>
+      </c>
+      <c r="E77">
+        <v>64</v>
+      </c>
+      <c r="F77">
+        <v>68</v>
+      </c>
+      <c r="G77">
+        <v>61</v>
+      </c>
+      <c r="H77">
         <v>65</v>
       </c>
-      <c r="E57" s="20">
+      <c r="I77">
+        <v>63</v>
+      </c>
+      <c r="J77">
+        <v>65</v>
+      </c>
+      <c r="K77">
         <v>67</v>
       </c>
-      <c r="F57" s="20">
+      <c r="L77">
+        <v>66</v>
+      </c>
+      <c r="M77">
+        <v>62</v>
+      </c>
+      <c r="N77">
         <v>65</v>
       </c>
-      <c r="G57" s="20">
+      <c r="O77" s="23">
+        <f t="shared" si="13"/>
+        <v>66</v>
+      </c>
+      <c r="P77" s="23">
+        <f t="shared" si="14"/>
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="25">
+        <v>45903</v>
+      </c>
+      <c r="C78">
+        <v>61</v>
+      </c>
+      <c r="D78">
+        <v>55</v>
+      </c>
+      <c r="E78">
+        <v>54</v>
+      </c>
+      <c r="F78">
+        <v>52</v>
+      </c>
+      <c r="G78">
+        <v>55</v>
+      </c>
+      <c r="H78">
+        <v>55</v>
+      </c>
+      <c r="I78">
+        <v>53</v>
+      </c>
+      <c r="J78">
+        <v>51</v>
+      </c>
+      <c r="K78">
+        <v>48</v>
+      </c>
+      <c r="L78">
+        <v>56</v>
+      </c>
+      <c r="M78">
+        <v>51</v>
+      </c>
+      <c r="N78">
+        <v>48</v>
+      </c>
+      <c r="O78" s="23">
+        <f t="shared" si="13"/>
+        <v>53</v>
+      </c>
+      <c r="P78" s="23">
+        <f t="shared" si="14"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="25">
+        <v>45904</v>
+      </c>
+      <c r="C79">
+        <v>80</v>
+      </c>
+      <c r="D79">
+        <v>75</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>80</v>
+      </c>
+      <c r="J79">
+        <v>77</v>
+      </c>
+      <c r="K79">
+        <v>80</v>
+      </c>
+      <c r="L79">
+        <v>78</v>
+      </c>
+      <c r="M79">
+        <v>79</v>
+      </c>
+      <c r="N79">
+        <v>73</v>
+      </c>
+      <c r="O79" s="23">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="P79" s="23">
+        <f t="shared" si="14"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="25">
+        <v>45905</v>
+      </c>
+      <c r="C80">
+        <v>143</v>
+      </c>
+      <c r="D80">
+        <v>151</v>
+      </c>
+      <c r="E80">
+        <v>140</v>
+      </c>
+      <c r="F80">
+        <v>129</v>
+      </c>
+      <c r="G80">
+        <v>130</v>
+      </c>
+      <c r="H80">
+        <v>131</v>
+      </c>
+      <c r="I80">
+        <v>137</v>
+      </c>
+      <c r="J80">
+        <v>132</v>
+      </c>
+      <c r="K80">
+        <v>131</v>
+      </c>
+      <c r="L80">
+        <v>136</v>
+      </c>
+      <c r="M80">
+        <v>132</v>
+      </c>
+      <c r="N80">
+        <v>131</v>
+      </c>
+      <c r="O80" s="23">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="P80" s="23">
+        <f t="shared" si="14"/>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="25">
+        <v>45906</v>
+      </c>
+      <c r="C81">
+        <v>204</v>
+      </c>
+      <c r="D81">
+        <v>193</v>
+      </c>
+      <c r="E81">
+        <v>207</v>
+      </c>
+      <c r="F81">
+        <v>207</v>
+      </c>
+      <c r="G81">
+        <v>207</v>
+      </c>
+      <c r="H81">
+        <v>207</v>
+      </c>
+      <c r="I81">
+        <v>211</v>
+      </c>
+      <c r="J81">
+        <v>207</v>
+      </c>
+      <c r="K81">
+        <v>206</v>
+      </c>
+      <c r="L81">
+        <v>206</v>
+      </c>
+      <c r="M81">
+        <v>207</v>
+      </c>
+      <c r="N81">
+        <v>199</v>
+      </c>
+      <c r="O81" s="23">
+        <f t="shared" si="13"/>
+        <v>205</v>
+      </c>
+      <c r="P81" s="23">
+        <f t="shared" si="14"/>
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="25">
+        <v>45907</v>
+      </c>
+      <c r="C82">
+        <v>68</v>
+      </c>
+      <c r="D82">
+        <v>64</v>
+      </c>
+      <c r="E82">
+        <v>71</v>
+      </c>
+      <c r="F82">
+        <v>61</v>
+      </c>
+      <c r="G82">
+        <v>71</v>
+      </c>
+      <c r="H82">
+        <v>70</v>
+      </c>
+      <c r="I82">
+        <v>65</v>
+      </c>
+      <c r="J82">
+        <v>72</v>
+      </c>
+      <c r="K82">
         <v>63</v>
       </c>
-      <c r="H57" s="25">
+      <c r="L82">
+        <v>69</v>
+      </c>
+      <c r="M82">
+        <v>73</v>
+      </c>
+      <c r="N82">
+        <v>75</v>
+      </c>
+      <c r="O82" s="23">
+        <f t="shared" si="13"/>
+        <v>69</v>
+      </c>
+      <c r="P82" s="23">
+        <f t="shared" si="14"/>
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="25">
+        <v>45908</v>
+      </c>
+      <c r="C83">
+        <v>71</v>
+      </c>
+      <c r="D83">
+        <v>76</v>
+      </c>
+      <c r="E83">
+        <v>72</v>
+      </c>
+      <c r="F83">
+        <v>71</v>
+      </c>
+      <c r="G83">
+        <v>75</v>
+      </c>
+      <c r="H83">
+        <v>76</v>
+      </c>
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <v>74</v>
+      </c>
+      <c r="K83">
+        <v>69</v>
+      </c>
+      <c r="L83">
+        <v>73</v>
+      </c>
+      <c r="M83">
+        <v>70</v>
+      </c>
+      <c r="N83">
+        <v>71</v>
+      </c>
+      <c r="O83" s="23">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="P83" s="23">
+        <f t="shared" si="14"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="25">
+        <v>45909</v>
+      </c>
+      <c r="C84">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>80</v>
+      </c>
+      <c r="E84">
+        <v>78</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>86</v>
+      </c>
+      <c r="H84">
+        <v>84</v>
+      </c>
+      <c r="I84">
+        <v>85</v>
+      </c>
+      <c r="J84">
+        <v>74</v>
+      </c>
+      <c r="K84">
+        <v>81</v>
+      </c>
+      <c r="L84">
+        <v>77</v>
+      </c>
+      <c r="M84">
+        <v>82</v>
+      </c>
+      <c r="N84">
+        <v>86</v>
+      </c>
+      <c r="O84" s="23">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="P84" s="23">
+        <f t="shared" si="14"/>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="25">
+        <v>45910</v>
+      </c>
+      <c r="C85">
+        <v>74</v>
+      </c>
+      <c r="D85">
+        <v>73</v>
+      </c>
+      <c r="E85">
+        <v>78</v>
+      </c>
+      <c r="F85">
+        <v>76</v>
+      </c>
+      <c r="G85">
+        <v>78</v>
+      </c>
+      <c r="H85">
+        <v>76</v>
+      </c>
+      <c r="I85">
+        <v>77</v>
+      </c>
+      <c r="J85">
+        <v>75</v>
+      </c>
+      <c r="K85">
+        <v>75</v>
+      </c>
+      <c r="L85">
+        <v>75</v>
+      </c>
+      <c r="M85">
+        <v>76</v>
+      </c>
+      <c r="N85">
+        <v>76</v>
+      </c>
+      <c r="O85" s="23">
+        <f t="shared" si="13"/>
+        <v>76</v>
+      </c>
+      <c r="P85" s="23">
+        <f t="shared" si="14"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="25">
+        <v>45911</v>
+      </c>
+      <c r="C86">
+        <v>65</v>
+      </c>
+      <c r="D86">
+        <v>68</v>
+      </c>
+      <c r="E86">
+        <v>68</v>
+      </c>
+      <c r="F86">
+        <v>59</v>
+      </c>
+      <c r="G86">
         <v>61</v>
       </c>
-      <c r="I57" s="20">
+      <c r="H86">
+        <v>58</v>
+      </c>
+      <c r="I86">
+        <v>62</v>
+      </c>
+      <c r="J86">
+        <v>66</v>
+      </c>
+      <c r="K86">
+        <v>64</v>
+      </c>
+      <c r="L86">
+        <v>64</v>
+      </c>
+      <c r="M86">
+        <v>64</v>
+      </c>
+      <c r="N86">
+        <v>66</v>
+      </c>
+      <c r="O86" s="23">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
+      <c r="P86" s="23">
+        <f t="shared" si="14"/>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="25">
+        <v>45912</v>
+      </c>
+      <c r="C87">
+        <v>148</v>
+      </c>
+      <c r="D87">
+        <v>135</v>
+      </c>
+      <c r="E87">
+        <v>137</v>
+      </c>
+      <c r="F87">
+        <v>135</v>
+      </c>
+      <c r="G87">
+        <v>124</v>
+      </c>
+      <c r="H87">
+        <v>134</v>
+      </c>
+      <c r="I87">
+        <v>125</v>
+      </c>
+      <c r="J87">
+        <v>124</v>
+      </c>
+      <c r="K87">
+        <v>119</v>
+      </c>
+      <c r="L87">
+        <v>132</v>
+      </c>
+      <c r="M87">
+        <v>132</v>
+      </c>
+      <c r="N87">
+        <v>121</v>
+      </c>
+      <c r="O87" s="23">
+        <f t="shared" si="13"/>
+        <v>131</v>
+      </c>
+      <c r="P87" s="23">
+        <f t="shared" si="14"/>
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="25">
+        <v>45913</v>
+      </c>
+      <c r="C88">
+        <v>187</v>
+      </c>
+      <c r="D88">
+        <v>193</v>
+      </c>
+      <c r="E88">
+        <v>186</v>
+      </c>
+      <c r="F88">
+        <v>184</v>
+      </c>
+      <c r="G88">
+        <v>185</v>
+      </c>
+      <c r="H88">
+        <v>182</v>
+      </c>
+      <c r="I88">
+        <v>185</v>
+      </c>
+      <c r="J88">
+        <v>181</v>
+      </c>
+      <c r="K88">
+        <v>186</v>
+      </c>
+      <c r="L88">
+        <v>178</v>
+      </c>
+      <c r="M88">
+        <v>189</v>
+      </c>
+      <c r="N88">
+        <v>186</v>
+      </c>
+      <c r="O88" s="23">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="P88" s="23">
+        <f t="shared" si="14"/>
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="25">
+        <v>45914</v>
+      </c>
+      <c r="C89">
+        <v>66</v>
+      </c>
+      <c r="D89">
+        <v>56</v>
+      </c>
+      <c r="E89">
+        <v>67</v>
+      </c>
+      <c r="F89">
         <v>65</v>
       </c>
-      <c r="J57" s="20">
-        <v>63</v>
-      </c>
-      <c r="K57" s="20">
-        <v>64</v>
-      </c>
-      <c r="L57" s="20">
+      <c r="G89">
+        <v>70</v>
+      </c>
+      <c r="H89">
+        <v>65</v>
+      </c>
+      <c r="I89">
+        <v>80</v>
+      </c>
+      <c r="J89">
+        <v>68</v>
+      </c>
+      <c r="K89">
         <v>67</v>
       </c>
-      <c r="M57" s="20"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="24">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
-      <c r="P57" s="24">
-        <f t="shared" si="10"/>
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22" t="s">
+      <c r="L89">
+        <v>69</v>
+      </c>
+      <c r="M89">
+        <v>71</v>
+      </c>
+      <c r="N89">
+        <v>74</v>
+      </c>
+      <c r="O89" s="23">
+        <f t="shared" si="13"/>
+        <v>68</v>
+      </c>
+      <c r="P89" s="23">
+        <f t="shared" si="14"/>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="25">
+        <v>45915</v>
+      </c>
+      <c r="C90">
+        <v>43</v>
+      </c>
+      <c r="D90">
+        <v>44</v>
+      </c>
+      <c r="E90">
         <v>40</v>
       </c>
-      <c r="C58" s="18">
-        <v>25.11</v>
-      </c>
-      <c r="D58" s="18">
-        <v>24.37</v>
-      </c>
-      <c r="E58" s="18">
-        <v>22.42</v>
-      </c>
-      <c r="F58" s="18">
+      <c r="F90">
+        <v>40</v>
+      </c>
+      <c r="G90">
+        <v>41</v>
+      </c>
+      <c r="H90">
+        <v>47</v>
+      </c>
+      <c r="I90">
+        <v>39</v>
+      </c>
+      <c r="J90">
+        <v>47</v>
+      </c>
+      <c r="K90">
+        <v>38</v>
+      </c>
+      <c r="L90">
+        <v>46</v>
+      </c>
+      <c r="M90">
+        <v>36</v>
+      </c>
+      <c r="N90">
+        <v>44</v>
+      </c>
+      <c r="O90" s="23">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="P90" s="23">
+        <f t="shared" si="14"/>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="25">
+        <v>45916</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>70</v>
+      </c>
+      <c r="E91">
+        <v>88</v>
+      </c>
+      <c r="F91">
+        <v>94</v>
+      </c>
+      <c r="G91">
+        <v>101</v>
+      </c>
+      <c r="H91">
+        <v>87</v>
+      </c>
+      <c r="I91">
+        <v>91</v>
+      </c>
+      <c r="J91">
+        <v>79</v>
+      </c>
+      <c r="K91">
+        <v>89</v>
+      </c>
+      <c r="L91">
+        <v>87</v>
+      </c>
+      <c r="M91">
+        <v>91</v>
+      </c>
+      <c r="N91">
+        <v>91</v>
+      </c>
+      <c r="O91" s="23">
+        <f t="shared" si="13"/>
+        <v>87</v>
+      </c>
+      <c r="P91" s="23">
+        <f t="shared" si="14"/>
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="25">
+        <v>45917</v>
+      </c>
+      <c r="C92">
+        <v>58</v>
+      </c>
+      <c r="D92">
+        <v>60</v>
+      </c>
+      <c r="E92">
+        <v>58</v>
+      </c>
+      <c r="F92">
+        <v>59</v>
+      </c>
+      <c r="G92">
+        <v>61</v>
+      </c>
+      <c r="H92">
+        <v>54</v>
+      </c>
+      <c r="I92">
+        <v>61</v>
+      </c>
+      <c r="J92">
+        <v>57</v>
+      </c>
+      <c r="K92">
+        <v>58</v>
+      </c>
+      <c r="L92">
+        <v>61</v>
+      </c>
+      <c r="M92">
+        <v>59</v>
+      </c>
+      <c r="N92">
+        <v>59</v>
+      </c>
+      <c r="O92" s="23">
+        <f t="shared" si="13"/>
+        <v>59</v>
+      </c>
+      <c r="P92" s="23">
+        <f t="shared" si="14"/>
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="25">
+        <v>45918</v>
+      </c>
+      <c r="C93">
+        <v>78</v>
+      </c>
+      <c r="D93">
+        <v>90</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <v>83</v>
+      </c>
+      <c r="G93">
+        <v>77</v>
+      </c>
+      <c r="H93">
+        <v>69</v>
+      </c>
+      <c r="I93">
+        <v>86</v>
+      </c>
+      <c r="J93">
+        <v>79</v>
+      </c>
+      <c r="K93">
+        <v>86</v>
+      </c>
+      <c r="L93">
+        <v>84</v>
+      </c>
+      <c r="M93">
+        <v>92</v>
+      </c>
+      <c r="N93">
+        <v>88</v>
+      </c>
+      <c r="O93" s="23">
+        <f t="shared" si="13"/>
+        <v>84</v>
+      </c>
+      <c r="P93" s="23">
+        <f t="shared" si="14"/>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="25">
+        <v>45919</v>
+      </c>
+      <c r="C94">
+        <v>187</v>
+      </c>
+      <c r="D94">
+        <v>177</v>
+      </c>
+      <c r="E94">
+        <v>186</v>
+      </c>
+      <c r="F94">
+        <v>177</v>
+      </c>
+      <c r="G94">
+        <v>195</v>
+      </c>
+      <c r="H94">
+        <v>187</v>
+      </c>
+      <c r="I94">
+        <v>185</v>
+      </c>
+      <c r="J94">
+        <v>180</v>
+      </c>
+      <c r="K94">
+        <v>192</v>
+      </c>
+      <c r="L94">
+        <v>177</v>
+      </c>
+      <c r="M94">
+        <v>194</v>
+      </c>
+      <c r="N94">
+        <v>187</v>
+      </c>
+      <c r="O94" s="23">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="P94" s="23">
+        <f t="shared" si="14"/>
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="39">
+        <v>23.03</v>
+      </c>
+      <c r="D95" s="39">
+        <v>27.93</v>
+      </c>
+      <c r="E95" s="39">
+        <v>23.19</v>
+      </c>
+      <c r="F95" s="39">
+        <v>23.09</v>
+      </c>
+      <c r="G95" s="39">
+        <v>21.88</v>
+      </c>
+      <c r="H95" s="38">
+        <v>22.36</v>
+      </c>
+      <c r="I95" s="39">
+        <v>22.11</v>
+      </c>
+      <c r="J95" s="39">
+        <v>22.73</v>
+      </c>
+      <c r="K95" s="39">
+        <v>25.34</v>
+      </c>
+      <c r="L95" s="39">
+        <v>24.09</v>
+      </c>
+      <c r="M95" s="39">
+        <v>25.95</v>
+      </c>
+      <c r="N95" s="40">
+        <v>26.35</v>
+      </c>
+      <c r="O95" s="41">
+        <f>ROUND(AVERAGE(C95:N95),2)</f>
         <v>24</v>
       </c>
-      <c r="G58" s="18">
-        <v>22.02</v>
-      </c>
-      <c r="H58" s="22">
-        <v>20.5</v>
-      </c>
-      <c r="I58" s="18">
-        <v>24.68</v>
-      </c>
-      <c r="J58" s="18">
-        <v>26.23</v>
-      </c>
-      <c r="K58" s="18">
-        <v>21.61</v>
-      </c>
-      <c r="L58" s="18">
-        <v>26.88</v>
-      </c>
-      <c r="M58" s="18"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="23">
-        <f>ROUND(AVERAGE(C58:N58),2)</f>
-        <v>23.78</v>
-      </c>
-      <c r="P58" s="23">
-        <f>ROUND(_xlfn.STDEV.P(E58:O58),2)</f>
-        <v>2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22" t="s">
+      <c r="P95" s="41">
+        <f>ROUND(_xlfn.STDEV.P(E95:O95),2)</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C96" s="18">
+        <v>26.97</v>
+      </c>
+      <c r="D96" s="18">
+        <v>24.78</v>
+      </c>
+      <c r="E96" s="18">
+        <v>26.71</v>
+      </c>
+      <c r="F96" s="18">
+        <v>25.39</v>
+      </c>
+      <c r="G96" s="18">
         <v>26.65</v>
       </c>
-      <c r="D59" s="18">
-        <v>25.88</v>
-      </c>
-      <c r="E59" s="18">
-        <v>29.54</v>
-      </c>
-      <c r="F59" s="18">
-        <v>27.76</v>
-      </c>
-      <c r="G59" s="18">
+      <c r="H96" s="22">
+        <v>27.17</v>
+      </c>
+      <c r="I96" s="18">
         <v>27.2</v>
       </c>
-      <c r="H59" s="22">
-        <v>28.15</v>
-      </c>
-      <c r="I59" s="18">
-        <v>26.47</v>
-      </c>
-      <c r="J59" s="18">
-        <v>25.93</v>
-      </c>
-      <c r="K59" s="18">
-        <v>28.87</v>
-      </c>
-      <c r="L59" s="18">
-        <v>24.28</v>
-      </c>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="23">
-        <f>ROUND(AVERAGE(C59:N59),2)</f>
-        <v>27.07</v>
-      </c>
-      <c r="P59" s="23">
-        <f>ROUND(_xlfn.STDEV.P(E59:O59),2)</f>
-        <v>1.5</v>
+      <c r="J96" s="18">
+        <v>25.78</v>
+      </c>
+      <c r="K96" s="18">
+        <v>24.92</v>
+      </c>
+      <c r="L96" s="18">
+        <v>24.83</v>
+      </c>
+      <c r="M96" s="18">
+        <v>25.65</v>
+      </c>
+      <c r="N96" s="18">
+        <v>26.18</v>
+      </c>
+      <c r="O96" s="23">
+        <f>ROUND(AVERAGE(C96:N96),2)</f>
+        <v>26.02</v>
+      </c>
+      <c r="P96" s="23">
+        <f>ROUND(_xlfn.STDEV.P(E96:O96),2)</f>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C58:N58 M59:N59">
+  <conditionalFormatting sqref="C95:N95 M96:N96">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:N58">
+  <conditionalFormatting sqref="C95:N95">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>$O$58-$P$58</formula>
+      <formula>$O$95-$P$95</formula>
       <formula>"$O$58+$P$58"</formula>
     </cfRule>
     <cfRule type="aboveAverage" dxfId="1" priority="3"/>
     <cfRule type="aboveAverage" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R41">
+  <conditionalFormatting sqref="R3:R32 R34:R49">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/restaurant_analytics/data.xlsx
+++ b/restaurant_analytics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5893B03-983B-46CF-8C1F-4DE7E51015B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE2F0E-1647-4D25-9A9E-EA86B6821A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33345" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33105" yWindow="2355" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -531,6 +531,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,9 +907,9 @@
   </sheetPr>
   <dimension ref="A1:K550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I543" sqref="I543"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D506" sqref="D504:D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14211,7 +14219,7 @@
         <v>45875</v>
       </c>
       <c r="D504">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E504" s="11">
         <v>77.2</v>
@@ -14224,9 +14232,6 @@
       </c>
       <c r="H504" s="11">
         <v>5.8</v>
-      </c>
-      <c r="J504" s="11">
-        <v>1.25</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -14240,7 +14245,7 @@
         <v>45876</v>
       </c>
       <c r="D505">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E505" s="11">
         <v>79.2</v>
@@ -14253,9 +14258,6 @@
       </c>
       <c r="H505" s="11">
         <v>6.2</v>
-      </c>
-      <c r="J505" s="11">
-        <v>6.86</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -14269,7 +14271,7 @@
         <v>45877</v>
       </c>
       <c r="D506">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="E506" s="11">
         <v>81.099999999999994</v>
@@ -14282,9 +14284,6 @@
       </c>
       <c r="H506" s="11">
         <v>7.8</v>
-      </c>
-      <c r="J506" s="11">
-        <v>4.59</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -14298,7 +14297,7 @@
         <v>45878</v>
       </c>
       <c r="D507">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="E507" s="11">
         <v>82.2</v>
@@ -15534,8 +15533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8670AF5D-84FB-432F-8F14-677D63D19C50}">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50:P94"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17968,58 +17967,70 @@
         <v>1.8571428571428572</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="31">
+    <row r="50" spans="1:19" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45">
+        <v>60</v>
+      </c>
+      <c r="B50" s="46">
         <v>45875</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="47">
         <v>69</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="47">
         <v>72</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="47">
         <v>70</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="47">
         <v>70</v>
       </c>
-      <c r="G50" s="32">
+      <c r="G50" s="47">
         <v>68</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="48">
         <v>69</v>
       </c>
-      <c r="I50" s="32">
+      <c r="I50" s="47">
         <v>69</v>
       </c>
-      <c r="J50" s="32">
+      <c r="J50" s="47">
         <v>71</v>
       </c>
-      <c r="K50" s="32">
+      <c r="K50" s="47">
         <v>70</v>
       </c>
-      <c r="L50" s="32">
+      <c r="L50" s="47">
         <v>67</v>
       </c>
-      <c r="M50" s="32">
+      <c r="M50" s="47">
         <v>70</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="49">
         <v>70</v>
       </c>
-      <c r="O50" s="34">
+      <c r="O50" s="50">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="P50" s="34">
+      <c r="P50" s="50">
         <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
+      <c r="R50" s="29">
+        <f t="shared" ref="R50:R52" si="13">O50-A50</f>
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ref="S50:S52" si="14">O50/A50</f>
+        <v>1.1666666666666667</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51">
+        <v>91</v>
+      </c>
       <c r="B51" s="25">
         <v>45876</v>
       </c>
@@ -18067,9 +18078,19 @@
         <f t="shared" si="10"/>
         <v>6.86</v>
       </c>
+      <c r="R51" s="29">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="14"/>
+        <v>1.1868131868131868</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52">
+        <v>136</v>
+      </c>
       <c r="B52" s="25">
         <v>45877</v>
       </c>
@@ -18116,6 +18137,14 @@
       <c r="P52" s="23">
         <f t="shared" si="10"/>
         <v>4.59</v>
+      </c>
+      <c r="R52" s="29">
+        <f t="shared" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="14"/>
+        <v>1.2573529411764706</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -18168,52 +18197,52 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25">
+    <row r="54" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31">
         <v>45879</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="32">
         <v>72</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="32">
         <v>73</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="32">
         <v>69</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="32">
         <v>73</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="32">
         <v>75</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="30">
         <v>71</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="32">
         <v>72</v>
       </c>
-      <c r="J54" s="18">
+      <c r="J54" s="32">
         <v>73</v>
       </c>
-      <c r="K54" s="18">
+      <c r="K54" s="32">
         <v>77</v>
       </c>
-      <c r="L54" s="18">
+      <c r="L54" s="32">
         <v>69</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="32">
         <v>69</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="37">
         <v>69</v>
       </c>
-      <c r="O54" s="23">
+      <c r="O54" s="34">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="P54" s="23">
+      <c r="P54" s="34">
         <f t="shared" si="10"/>
         <v>2.48</v>
       </c>
@@ -18360,11 +18389,11 @@
         <v>110</v>
       </c>
       <c r="O57" s="23">
-        <f t="shared" ref="O57:O94" si="13">ROUND(AVERAGE(C57:N57),0)</f>
+        <f t="shared" ref="O57:O94" si="15">ROUND(AVERAGE(C57:N57),0)</f>
         <v>107</v>
       </c>
       <c r="P57" s="23">
-        <f t="shared" ref="P57:P94" si="14">ROUND(_xlfn.STDEV.P(D57:O57),2)</f>
+        <f t="shared" ref="P57:P94" si="16">ROUND(_xlfn.STDEV.P(D57:O57),2)</f>
         <v>4.3099999999999996</v>
       </c>
     </row>
@@ -18410,11 +18439,11 @@
         <v>144</v>
       </c>
       <c r="O58" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148</v>
       </c>
       <c r="P58" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -18460,11 +18489,11 @@
         <v>162</v>
       </c>
       <c r="O59" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>170</v>
       </c>
       <c r="P59" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8</v>
       </c>
     </row>
@@ -18509,11 +18538,11 @@
         <v>192</v>
       </c>
       <c r="O60" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>194</v>
       </c>
       <c r="P60" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -18558,11 +18587,11 @@
         <v>71</v>
       </c>
       <c r="O61" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="P61" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.2</v>
       </c>
     </row>
@@ -18607,11 +18636,11 @@
         <v>77</v>
       </c>
       <c r="O62" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="P62" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8</v>
       </c>
     </row>
@@ -18656,11 +18685,11 @@
         <v>78</v>
       </c>
       <c r="O63" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="P63" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.38</v>
       </c>
     </row>
@@ -18705,11 +18734,11 @@
         <v>106</v>
       </c>
       <c r="O64" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
       <c r="P64" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.25</v>
       </c>
     </row>
@@ -18754,11 +18783,11 @@
         <v>142</v>
       </c>
       <c r="O65" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>139</v>
       </c>
       <c r="P65" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.22</v>
       </c>
     </row>
@@ -18803,11 +18832,11 @@
         <v>137</v>
       </c>
       <c r="O66" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>143</v>
       </c>
       <c r="P66" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -18852,11 +18881,11 @@
         <v>190</v>
       </c>
       <c r="O67" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>190</v>
       </c>
       <c r="P67" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.44</v>
       </c>
     </row>
@@ -18901,11 +18930,11 @@
         <v>65</v>
       </c>
       <c r="O68" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="P68" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.06</v>
       </c>
     </row>
@@ -18950,11 +18979,11 @@
         <v>89</v>
       </c>
       <c r="O69" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="P69" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.72</v>
       </c>
     </row>
@@ -18999,11 +19028,11 @@
         <v>70</v>
       </c>
       <c r="O70" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="P70" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.88</v>
       </c>
     </row>
@@ -19048,11 +19077,11 @@
         <v>69</v>
       </c>
       <c r="O71" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="P71" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.38</v>
       </c>
     </row>
@@ -19097,11 +19126,11 @@
         <v>140</v>
       </c>
       <c r="O72" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>145</v>
       </c>
       <c r="P72" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.88</v>
       </c>
     </row>
@@ -19146,11 +19175,11 @@
         <v>153</v>
       </c>
       <c r="O73" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>157</v>
       </c>
       <c r="P73" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.7699999999999996</v>
       </c>
     </row>
@@ -19195,11 +19224,11 @@
         <v>192</v>
       </c>
       <c r="O74" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>190</v>
       </c>
       <c r="P74" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.55</v>
       </c>
     </row>
@@ -19244,11 +19273,11 @@
         <v>98</v>
       </c>
       <c r="O75" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="P75" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.9</v>
       </c>
     </row>
@@ -19293,11 +19322,11 @@
         <v>35</v>
       </c>
       <c r="O76" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="P76" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.01</v>
       </c>
     </row>
@@ -19342,11 +19371,11 @@
         <v>65</v>
       </c>
       <c r="O77" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="P77" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.59</v>
       </c>
     </row>
@@ -19391,11 +19420,11 @@
         <v>48</v>
       </c>
       <c r="O78" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="P78" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.56</v>
       </c>
     </row>
@@ -19440,11 +19469,11 @@
         <v>73</v>
       </c>
       <c r="O79" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="P79" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -19489,11 +19518,11 @@
         <v>131</v>
       </c>
       <c r="O80" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>135</v>
       </c>
       <c r="P80" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.85</v>
       </c>
     </row>
@@ -19538,11 +19567,11 @@
         <v>199</v>
       </c>
       <c r="O81" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>205</v>
       </c>
       <c r="P81" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.49</v>
       </c>
     </row>
@@ -19587,11 +19616,11 @@
         <v>75</v>
       </c>
       <c r="O82" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="P82" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.17</v>
       </c>
     </row>
@@ -19636,11 +19665,11 @@
         <v>71</v>
       </c>
       <c r="O83" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="P83" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.95</v>
       </c>
     </row>
@@ -19685,11 +19714,11 @@
         <v>86</v>
       </c>
       <c r="O84" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>81</v>
       </c>
       <c r="P84" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.57</v>
       </c>
     </row>
@@ -19734,11 +19763,11 @@
         <v>76</v>
       </c>
       <c r="O85" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="P85" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.32</v>
       </c>
     </row>
@@ -19783,11 +19812,11 @@
         <v>66</v>
       </c>
       <c r="O86" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>64</v>
       </c>
       <c r="P86" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.06</v>
       </c>
     </row>
@@ -19832,11 +19861,11 @@
         <v>121</v>
       </c>
       <c r="O87" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>131</v>
       </c>
       <c r="P87" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.87</v>
       </c>
     </row>
@@ -19881,11 +19910,11 @@
         <v>186</v>
       </c>
       <c r="O88" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>185</v>
       </c>
       <c r="P88" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.63</v>
       </c>
     </row>
@@ -19930,11 +19959,11 @@
         <v>74</v>
       </c>
       <c r="O89" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="P89" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5.45</v>
       </c>
     </row>
@@ -19979,11 +20008,11 @@
         <v>44</v>
       </c>
       <c r="O90" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
       <c r="P90" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.46</v>
       </c>
     </row>
@@ -20028,11 +20057,11 @@
         <v>91</v>
       </c>
       <c r="O91" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="P91" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.31</v>
       </c>
     </row>
@@ -20077,11 +20106,11 @@
         <v>59</v>
       </c>
       <c r="O92" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
       <c r="P92" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.91</v>
       </c>
     </row>
@@ -20126,11 +20155,11 @@
         <v>88</v>
       </c>
       <c r="O93" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="P93" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.19</v>
       </c>
     </row>
@@ -20175,11 +20204,11 @@
         <v>187</v>
       </c>
       <c r="O94" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>185</v>
       </c>
       <c r="P94" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.16</v>
       </c>
     </row>
@@ -20298,7 +20327,7 @@
     <cfRule type="aboveAverage" dxfId="1" priority="3"/>
     <cfRule type="aboveAverage" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R32 R34:R49">
+  <conditionalFormatting sqref="R3:R32 R34:R52">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
